--- a/py/direction_sheet.xlsx
+++ b/py/direction_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\design.05\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diereport\ex0.11\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456A1E64-5A5A-4AA7-8514-419503D374B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D57CE4-9A5A-4A91-A88E-F8BB39C91BC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2551,6 +2551,33 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2563,6 +2590,296 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="80" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2575,9 +2892,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2590,299 +2904,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="80" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2988,33 +3015,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3465,28 +3465,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B1" s="368" t="s">
+      <c r="B1" s="377" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="369"/>
-      <c r="D1" s="369"/>
-      <c r="E1" s="369"/>
-      <c r="F1" s="370"/>
-      <c r="G1" s="370"/>
-      <c r="H1" s="370"/>
-      <c r="I1" s="370"/>
-      <c r="J1" s="370"/>
-      <c r="K1" s="370"/>
-      <c r="L1" s="370"/>
-      <c r="M1" s="370"/>
-      <c r="N1" s="370"/>
-      <c r="O1" s="369"/>
-      <c r="P1" s="369"/>
-      <c r="Q1" s="369"/>
-      <c r="R1" s="369"/>
-      <c r="S1" s="369"/>
-      <c r="T1" s="369"/>
-      <c r="U1" s="371"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
+      <c r="H1" s="379"/>
+      <c r="I1" s="379"/>
+      <c r="J1" s="379"/>
+      <c r="K1" s="379"/>
+      <c r="L1" s="379"/>
+      <c r="M1" s="379"/>
+      <c r="N1" s="379"/>
+      <c r="O1" s="378"/>
+      <c r="P1" s="378"/>
+      <c r="Q1" s="378"/>
+      <c r="R1" s="378"/>
+      <c r="S1" s="378"/>
+      <c r="T1" s="378"/>
+      <c r="U1" s="380"/>
     </row>
     <row r="2" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B2" s="242" t="s">
@@ -3503,26 +3503,26 @@
         <f>input!D8</f>
         <v>0</v>
       </c>
-      <c r="F2" s="372"/>
-      <c r="G2" s="373"/>
+      <c r="F2" s="381"/>
+      <c r="G2" s="382"/>
       <c r="H2" s="230"/>
       <c r="I2" s="132"/>
       <c r="J2" s="230"/>
       <c r="K2" s="133"/>
-      <c r="L2" s="373"/>
-      <c r="M2" s="321"/>
+      <c r="L2" s="382"/>
+      <c r="M2" s="314"/>
       <c r="N2" s="134"/>
-      <c r="O2" s="288" t="s">
+      <c r="O2" s="278" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="322"/>
-      <c r="Q2" s="288" t="s">
+      <c r="P2" s="315"/>
+      <c r="Q2" s="278" t="s">
         <v>123</v>
       </c>
-      <c r="R2" s="324"/>
-      <c r="S2" s="324"/>
-      <c r="T2" s="324"/>
-      <c r="U2" s="322"/>
+      <c r="R2" s="317"/>
+      <c r="S2" s="317"/>
+      <c r="T2" s="317"/>
+      <c r="U2" s="315"/>
     </row>
     <row r="3" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B3" s="227" t="s">
@@ -3539,24 +3539,24 @@
         <f>input!D9</f>
         <v>0</v>
       </c>
-      <c r="F3" s="372"/>
-      <c r="G3" s="373"/>
+      <c r="F3" s="381"/>
+      <c r="G3" s="382"/>
       <c r="H3" s="230"/>
       <c r="I3" s="133"/>
       <c r="J3" s="230"/>
       <c r="K3" s="41"/>
-      <c r="L3" s="373"/>
-      <c r="M3" s="321"/>
+      <c r="L3" s="382"/>
+      <c r="M3" s="314"/>
       <c r="N3" s="134"/>
-      <c r="O3" s="290" t="s">
+      <c r="O3" s="280" t="s">
         <v>129</v>
       </c>
-      <c r="P3" s="323"/>
-      <c r="Q3" s="290"/>
-      <c r="R3" s="325"/>
-      <c r="S3" s="325"/>
-      <c r="T3" s="325"/>
-      <c r="U3" s="323"/>
+      <c r="P3" s="316"/>
+      <c r="Q3" s="280"/>
+      <c r="R3" s="318"/>
+      <c r="S3" s="318"/>
+      <c r="T3" s="318"/>
+      <c r="U3" s="316"/>
     </row>
     <row r="4" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B4" s="25"/>
@@ -3564,17 +3564,17 @@
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
       <c r="F4" s="203"/>
-      <c r="G4" s="401" t="s">
+      <c r="G4" s="410" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="402"/>
-      <c r="I4" s="402"/>
-      <c r="J4" s="403"/>
-      <c r="K4" s="401" t="s">
+      <c r="H4" s="411"/>
+      <c r="I4" s="411"/>
+      <c r="J4" s="412"/>
+      <c r="K4" s="410" t="s">
         <v>139</v>
       </c>
-      <c r="L4" s="402"/>
-      <c r="M4" s="403"/>
+      <c r="L4" s="411"/>
+      <c r="M4" s="412"/>
       <c r="N4" s="136"/>
       <c r="O4" s="193" t="s">
         <v>81</v>
@@ -3582,24 +3582,24 @@
       <c r="P4" s="194" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="288" t="s">
+      <c r="Q4" s="278" t="s">
         <v>124</v>
       </c>
-      <c r="R4" s="324"/>
-      <c r="S4" s="324"/>
-      <c r="T4" s="324"/>
-      <c r="U4" s="322"/>
+      <c r="R4" s="317"/>
+      <c r="S4" s="317"/>
+      <c r="T4" s="317"/>
+      <c r="U4" s="315"/>
     </row>
     <row r="5" spans="2:31" ht="28.5" customHeight="1">
-      <c r="B5" s="304" t="s">
+      <c r="B5" s="298" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="389">
+      <c r="C5" s="398">
         <f>input!D6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="390"/>
-      <c r="E5" s="391"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="400"/>
       <c r="F5" s="128"/>
       <c r="G5" s="138" t="s">
         <v>2</v>
@@ -3620,23 +3620,23 @@
       <c r="L5" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="M5" s="345" t="s">
+      <c r="M5" s="340" t="s">
         <v>131</v>
       </c>
       <c r="N5" s="128"/>
-      <c r="O5" s="341"/>
-      <c r="P5" s="343"/>
-      <c r="Q5" s="349"/>
-      <c r="R5" s="350"/>
-      <c r="S5" s="350"/>
-      <c r="T5" s="350"/>
-      <c r="U5" s="351"/>
+      <c r="O5" s="336"/>
+      <c r="P5" s="338"/>
+      <c r="Q5" s="344"/>
+      <c r="R5" s="345"/>
+      <c r="S5" s="345"/>
+      <c r="T5" s="345"/>
+      <c r="U5" s="346"/>
     </row>
     <row r="6" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B6" s="305"/>
-      <c r="C6" s="392"/>
-      <c r="D6" s="393"/>
-      <c r="E6" s="394"/>
+      <c r="B6" s="299"/>
+      <c r="C6" s="401"/>
+      <c r="D6" s="402"/>
+      <c r="E6" s="403"/>
       <c r="F6" s="128"/>
       <c r="G6" s="180">
         <v>6061</v>
@@ -3658,26 +3658,26 @@
         <f>ROUND(input!D14,2)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="346"/>
+      <c r="M6" s="341"/>
       <c r="N6" s="130"/>
-      <c r="O6" s="342"/>
-      <c r="P6" s="344"/>
-      <c r="Q6" s="352"/>
-      <c r="R6" s="353"/>
-      <c r="S6" s="353"/>
-      <c r="T6" s="353"/>
-      <c r="U6" s="354"/>
+      <c r="O6" s="337"/>
+      <c r="P6" s="339"/>
+      <c r="Q6" s="347"/>
+      <c r="R6" s="348"/>
+      <c r="S6" s="348"/>
+      <c r="T6" s="348"/>
+      <c r="U6" s="349"/>
     </row>
     <row r="7" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B7" s="306" t="s">
+      <c r="B7" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="395">
+      <c r="C7" s="404">
         <f>input!D7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="396"/>
-      <c r="E7" s="397"/>
+      <c r="D7" s="405"/>
+      <c r="E7" s="406"/>
       <c r="F7" s="128"/>
       <c r="G7" s="180">
         <v>6063</v>
@@ -3698,30 +3698,30 @@
       <c r="L7" s="190" t="s">
         <v>102</v>
       </c>
-      <c r="M7" s="347">
+      <c r="M7" s="342">
         <f>input!K11</f>
         <v>0</v>
       </c>
       <c r="N7" s="131"/>
-      <c r="O7" s="362" t="s">
+      <c r="O7" s="357" t="s">
         <v>146</v>
       </c>
-      <c r="P7" s="363"/>
-      <c r="Q7" s="339" t="s">
+      <c r="P7" s="358"/>
+      <c r="Q7" s="334" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="340"/>
-      <c r="S7" s="336" t="s">
+      <c r="R7" s="335"/>
+      <c r="S7" s="331" t="s">
         <v>140</v>
       </c>
-      <c r="T7" s="337"/>
-      <c r="U7" s="338"/>
+      <c r="T7" s="332"/>
+      <c r="U7" s="333"/>
     </row>
     <row r="8" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B8" s="388"/>
-      <c r="C8" s="398"/>
-      <c r="D8" s="399"/>
-      <c r="E8" s="400"/>
+      <c r="B8" s="397"/>
+      <c r="C8" s="407"/>
+      <c r="D8" s="408"/>
+      <c r="E8" s="409"/>
       <c r="F8" s="128"/>
       <c r="G8" s="139" t="s">
         <v>5</v>
@@ -3740,19 +3740,19 @@
         <f>input!D15</f>
         <v>0</v>
       </c>
-      <c r="M8" s="348"/>
+      <c r="M8" s="343"/>
       <c r="N8" s="131"/>
-      <c r="O8" s="364"/>
-      <c r="P8" s="365"/>
-      <c r="Q8" s="355" t="s">
+      <c r="O8" s="359"/>
+      <c r="P8" s="360"/>
+      <c r="Q8" s="350" t="s">
         <v>127</v>
       </c>
-      <c r="R8" s="299" t="s">
+      <c r="R8" s="328" t="s">
         <v>147</v>
       </c>
-      <c r="S8" s="374"/>
-      <c r="T8" s="376"/>
-      <c r="U8" s="378"/>
+      <c r="S8" s="383"/>
+      <c r="T8" s="385"/>
+      <c r="U8" s="387"/>
     </row>
     <row r="9" spans="2:31" ht="6" customHeight="1">
       <c r="B9" s="25"/>
@@ -3768,13 +3768,13 @@
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
       <c r="N9" s="30"/>
-      <c r="O9" s="364"/>
-      <c r="P9" s="365"/>
-      <c r="Q9" s="356"/>
-      <c r="R9" s="300"/>
-      <c r="S9" s="379"/>
-      <c r="T9" s="377"/>
-      <c r="U9" s="375"/>
+      <c r="O9" s="359"/>
+      <c r="P9" s="360"/>
+      <c r="Q9" s="351"/>
+      <c r="R9" s="329"/>
+      <c r="S9" s="388"/>
+      <c r="T9" s="386"/>
+      <c r="U9" s="384"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" thickBot="1">
       <c r="B10" s="31"/>
@@ -3790,24 +3790,24 @@
       <c r="L10" s="204"/>
       <c r="M10" s="41"/>
       <c r="N10" s="30"/>
-      <c r="O10" s="366"/>
-      <c r="P10" s="367"/>
-      <c r="Q10" s="357"/>
-      <c r="R10" s="301"/>
-      <c r="S10" s="380"/>
-      <c r="T10" s="381"/>
-      <c r="U10" s="382"/>
+      <c r="O10" s="361"/>
+      <c r="P10" s="362"/>
+      <c r="Q10" s="352"/>
+      <c r="R10" s="330"/>
+      <c r="S10" s="389"/>
+      <c r="T10" s="390"/>
+      <c r="U10" s="391"/>
     </row>
     <row r="11" spans="2:31" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B11" s="304" t="s">
+      <c r="B11" s="298" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="310" t="str">
+      <c r="C11" s="304" t="str">
         <f>IF(C13=0,"","DR"&amp;MID(C13,2,4))</f>
         <v/>
       </c>
-      <c r="D11" s="310"/>
-      <c r="E11" s="311"/>
+      <c r="D11" s="304"/>
+      <c r="E11" s="305"/>
       <c r="F11" s="41"/>
       <c r="G11" s="54" t="s">
         <v>126</v>
@@ -3819,21 +3819,21 @@
       <c r="L11" s="33"/>
       <c r="M11" s="34"/>
       <c r="N11" s="30"/>
-      <c r="O11" s="358"/>
-      <c r="P11" s="359"/>
-      <c r="Q11" s="329"/>
-      <c r="R11" s="332"/>
-      <c r="S11" s="302" t="s">
+      <c r="O11" s="353"/>
+      <c r="P11" s="354"/>
+      <c r="Q11" s="322"/>
+      <c r="R11" s="325"/>
+      <c r="S11" s="296" t="s">
         <v>83</v>
       </c>
-      <c r="T11" s="328"/>
-      <c r="U11" s="303"/>
+      <c r="T11" s="321"/>
+      <c r="U11" s="297"/>
     </row>
     <row r="12" spans="2:31" ht="26.25" customHeight="1">
-      <c r="B12" s="305"/>
-      <c r="C12" s="312"/>
-      <c r="D12" s="312"/>
-      <c r="E12" s="313"/>
+      <c r="B12" s="299"/>
+      <c r="C12" s="306"/>
+      <c r="D12" s="306"/>
+      <c r="E12" s="307"/>
       <c r="F12" s="25"/>
       <c r="G12" s="129" t="s">
         <v>153</v>
@@ -3845,24 +3845,24 @@
       <c r="L12" s="36"/>
       <c r="M12" s="37"/>
       <c r="N12" s="30"/>
-      <c r="O12" s="360"/>
-      <c r="P12" s="361"/>
-      <c r="Q12" s="330"/>
-      <c r="R12" s="333"/>
-      <c r="S12" s="383"/>
-      <c r="T12" s="384"/>
-      <c r="U12" s="385"/>
+      <c r="O12" s="355"/>
+      <c r="P12" s="356"/>
+      <c r="Q12" s="323"/>
+      <c r="R12" s="326"/>
+      <c r="S12" s="392"/>
+      <c r="T12" s="393"/>
+      <c r="U12" s="394"/>
     </row>
     <row r="13" spans="2:31" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B13" s="306" t="s">
+      <c r="B13" s="300" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="312">
+      <c r="C13" s="306">
         <f>input!D32</f>
         <v>0</v>
       </c>
-      <c r="D13" s="312"/>
-      <c r="E13" s="313"/>
+      <c r="D13" s="306"/>
+      <c r="E13" s="307"/>
       <c r="F13" s="25"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
@@ -3872,19 +3872,19 @@
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
       <c r="N13" s="30"/>
-      <c r="O13" s="352"/>
-      <c r="P13" s="354"/>
-      <c r="Q13" s="331"/>
-      <c r="R13" s="334"/>
-      <c r="S13" s="307"/>
-      <c r="T13" s="386"/>
-      <c r="U13" s="387"/>
+      <c r="O13" s="347"/>
+      <c r="P13" s="349"/>
+      <c r="Q13" s="324"/>
+      <c r="R13" s="327"/>
+      <c r="S13" s="301"/>
+      <c r="T13" s="395"/>
+      <c r="U13" s="396"/>
     </row>
     <row r="14" spans="2:31" ht="27" customHeight="1" thickBot="1">
-      <c r="B14" s="307"/>
-      <c r="C14" s="314"/>
-      <c r="D14" s="314"/>
-      <c r="E14" s="315"/>
+      <c r="B14" s="301"/>
+      <c r="C14" s="308"/>
+      <c r="D14" s="308"/>
+      <c r="E14" s="309"/>
       <c r="F14" s="41"/>
       <c r="G14" s="127" t="s">
         <v>6</v>
@@ -3896,17 +3896,17 @@
       <c r="L14" s="41"/>
       <c r="M14" s="41"/>
       <c r="N14" s="30"/>
-      <c r="O14" s="374" t="s">
+      <c r="O14" s="383" t="s">
         <v>80</v>
       </c>
-      <c r="P14" s="375"/>
-      <c r="Q14" s="374" t="s">
+      <c r="P14" s="384"/>
+      <c r="Q14" s="383" t="s">
         <v>148</v>
       </c>
-      <c r="R14" s="376"/>
-      <c r="S14" s="377"/>
-      <c r="T14" s="377"/>
-      <c r="U14" s="375"/>
+      <c r="R14" s="385"/>
+      <c r="S14" s="386"/>
+      <c r="T14" s="386"/>
+      <c r="U14" s="384"/>
     </row>
     <row r="15" spans="2:31" ht="52.5" customHeight="1" thickBot="1">
       <c r="B15" s="205" t="s">
@@ -3963,12 +3963,12 @@
       </c>
     </row>
     <row r="16" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B16" s="316" t="s">
+      <c r="B16" s="310" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="317"/>
-      <c r="D16" s="318"/>
-      <c r="E16" s="303"/>
+      <c r="C16" s="311"/>
+      <c r="D16" s="312"/>
+      <c r="E16" s="297"/>
       <c r="F16" s="41"/>
       <c r="G16" s="126">
         <v>1</v>
@@ -4006,10 +4006,10 @@
       <c r="C17" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="308" t="s">
+      <c r="D17" s="302" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="309"/>
+      <c r="E17" s="303"/>
       <c r="F17" s="41"/>
       <c r="G17" s="126">
         <v>2</v>
@@ -4043,8 +4043,8 @@
     <row r="18" spans="2:31" ht="35.1" customHeight="1">
       <c r="B18" s="121"/>
       <c r="C18" s="42"/>
-      <c r="D18" s="281"/>
-      <c r="E18" s="282"/>
+      <c r="D18" s="273"/>
+      <c r="E18" s="274"/>
       <c r="F18" s="41"/>
       <c r="G18" s="126">
         <v>3</v>
@@ -4078,8 +4078,8 @@
     <row r="19" spans="2:31" ht="35.1" customHeight="1">
       <c r="B19" s="121"/>
       <c r="C19" s="42"/>
-      <c r="D19" s="281"/>
-      <c r="E19" s="282"/>
+      <c r="D19" s="273"/>
+      <c r="E19" s="274"/>
       <c r="F19" s="41"/>
       <c r="G19" s="126">
         <v>4</v>
@@ -4105,10 +4105,10 @@
       <c r="T19" s="43"/>
       <c r="U19" s="44"/>
       <c r="W19" s="45"/>
-      <c r="X19" s="326"/>
-      <c r="Y19" s="321"/>
-      <c r="Z19" s="321"/>
-      <c r="AA19" s="321"/>
+      <c r="X19" s="319"/>
+      <c r="Y19" s="314"/>
+      <c r="Z19" s="314"/>
+      <c r="AA19" s="314"/>
       <c r="AB19" s="41"/>
       <c r="AC19" s="41"/>
       <c r="AD19" s="41"/>
@@ -4117,8 +4117,8 @@
     <row r="20" spans="2:31" ht="35.1" customHeight="1">
       <c r="B20" s="121"/>
       <c r="C20" s="42"/>
-      <c r="D20" s="281"/>
-      <c r="E20" s="282"/>
+      <c r="D20" s="273"/>
+      <c r="E20" s="274"/>
       <c r="F20" s="41"/>
       <c r="G20" s="126">
         <v>5</v>
@@ -4142,8 +4142,8 @@
       <c r="W20" s="41"/>
       <c r="X20" s="123"/>
       <c r="Y20" s="40"/>
-      <c r="Z20" s="327"/>
-      <c r="AA20" s="321"/>
+      <c r="Z20" s="320"/>
+      <c r="AA20" s="314"/>
       <c r="AB20" s="41"/>
       <c r="AC20" s="41"/>
       <c r="AD20" s="41"/>
@@ -4152,8 +4152,8 @@
     <row r="21" spans="2:31" ht="35.1" customHeight="1">
       <c r="B21" s="121"/>
       <c r="C21" s="42"/>
-      <c r="D21" s="281"/>
-      <c r="E21" s="282"/>
+      <c r="D21" s="273"/>
+      <c r="E21" s="274"/>
       <c r="F21" s="41"/>
       <c r="G21" s="126">
         <v>6</v>
@@ -4178,8 +4178,8 @@
       <c r="W21" s="41"/>
       <c r="X21" s="123"/>
       <c r="Y21" s="124"/>
-      <c r="Z21" s="262"/>
-      <c r="AA21" s="321"/>
+      <c r="Z21" s="313"/>
+      <c r="AA21" s="314"/>
       <c r="AB21" s="41"/>
       <c r="AC21" s="41"/>
       <c r="AD21" s="41"/>
@@ -4188,8 +4188,8 @@
     <row r="22" spans="2:31" ht="35.1" customHeight="1">
       <c r="B22" s="121"/>
       <c r="C22" s="42"/>
-      <c r="D22" s="281"/>
-      <c r="E22" s="282"/>
+      <c r="D22" s="273"/>
+      <c r="E22" s="274"/>
       <c r="F22" s="41"/>
       <c r="G22" s="126">
         <v>7</v>
@@ -4214,8 +4214,8 @@
       <c r="W22" s="41"/>
       <c r="X22" s="40"/>
       <c r="Y22" s="41"/>
-      <c r="Z22" s="321"/>
-      <c r="AA22" s="321"/>
+      <c r="Z22" s="314"/>
+      <c r="AA22" s="314"/>
       <c r="AB22" s="41"/>
       <c r="AC22" s="41"/>
       <c r="AD22" s="41"/>
@@ -4224,8 +4224,8 @@
     <row r="23" spans="2:31" ht="35.1" customHeight="1">
       <c r="B23" s="121"/>
       <c r="C23" s="42"/>
-      <c r="D23" s="281"/>
-      <c r="E23" s="282"/>
+      <c r="D23" s="273"/>
+      <c r="E23" s="274"/>
       <c r="F23" s="41"/>
       <c r="G23" s="126">
         <v>8</v>
@@ -4260,8 +4260,8 @@
     <row r="24" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
       <c r="B24" s="122"/>
       <c r="C24" s="29"/>
-      <c r="D24" s="279"/>
-      <c r="E24" s="280"/>
+      <c r="D24" s="271"/>
+      <c r="E24" s="272"/>
       <c r="F24" s="41"/>
       <c r="G24" s="126">
         <v>9</v>
@@ -4324,14 +4324,14 @@
       <c r="W25" s="46"/>
     </row>
     <row r="26" spans="2:31" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B26" s="302" t="s">
+      <c r="B26" s="296" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="303"/>
-      <c r="D26" s="302" t="s">
+      <c r="C26" s="297"/>
+      <c r="D26" s="296" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="303"/>
+      <c r="E26" s="297"/>
       <c r="F26" s="41"/>
       <c r="G26" s="126">
         <v>11</v>
@@ -4770,10 +4770,10 @@
       <c r="U38" s="44"/>
     </row>
     <row r="39" spans="2:28" s="50" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B39" s="277" t="s">
+      <c r="B39" s="269" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="278"/>
+      <c r="C39" s="270"/>
       <c r="D39" s="160"/>
       <c r="E39" s="119"/>
       <c r="F39" s="111"/>
@@ -4940,14 +4940,14 @@
       <c r="U44" s="44"/>
     </row>
     <row r="45" spans="2:28" s="50" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B45" s="319" t="s">
+      <c r="B45" s="258" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="274" t="s">
+      <c r="C45" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="275"/>
-      <c r="E45" s="276"/>
+      <c r="D45" s="261"/>
+      <c r="E45" s="262"/>
       <c r="F45" s="111"/>
       <c r="G45" s="126">
         <v>30</v>
@@ -4970,7 +4970,7 @@
       <c r="U45" s="44"/>
     </row>
     <row r="46" spans="2:28" s="50" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B46" s="320"/>
+      <c r="B46" s="259"/>
       <c r="C46" s="228" t="s">
         <v>95</v>
       </c>
@@ -5070,14 +5070,14 @@
       <c r="AB48" s="111"/>
     </row>
     <row r="49" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B49" s="319" t="s">
+      <c r="B49" s="258" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="274" t="s">
+      <c r="C49" s="260" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="275"/>
-      <c r="E49" s="276"/>
+      <c r="D49" s="261"/>
+      <c r="E49" s="262"/>
       <c r="F49" s="41"/>
       <c r="G49" s="126">
         <v>34</v>
@@ -5106,7 +5106,7 @@
       <c r="AB49" s="41"/>
     </row>
     <row r="50" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B50" s="320"/>
+      <c r="B50" s="259"/>
       <c r="C50" s="228" t="s">
         <v>95</v>
       </c>
@@ -5244,12 +5244,12 @@
       <c r="AB53" s="41"/>
     </row>
     <row r="54" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B54" s="288" t="s">
+      <c r="B54" s="278" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="289"/>
-      <c r="D54" s="292"/>
-      <c r="E54" s="293"/>
+      <c r="C54" s="279"/>
+      <c r="D54" s="282"/>
+      <c r="E54" s="283"/>
       <c r="F54" s="41"/>
       <c r="G54" s="126">
         <v>39</v>
@@ -5278,12 +5278,12 @@
       <c r="AB54" s="41"/>
     </row>
     <row r="55" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B55" s="286" t="s">
+      <c r="B55" s="276" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="287"/>
-      <c r="D55" s="294"/>
-      <c r="E55" s="295"/>
+      <c r="C55" s="277"/>
+      <c r="D55" s="284"/>
+      <c r="E55" s="285"/>
       <c r="F55" s="41"/>
       <c r="G55" s="126">
         <v>40</v>
@@ -5312,12 +5312,12 @@
       <c r="AB55" s="41"/>
     </row>
     <row r="56" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B56" s="290" t="s">
+      <c r="B56" s="280" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="291"/>
-      <c r="D56" s="283"/>
-      <c r="E56" s="284"/>
+      <c r="C56" s="281"/>
+      <c r="D56" s="256"/>
+      <c r="E56" s="257"/>
       <c r="F56" s="41"/>
       <c r="G56" s="126">
         <v>41</v>
@@ -5378,12 +5378,12 @@
       <c r="AB57" s="41"/>
     </row>
     <row r="58" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B58" s="410" t="s">
+      <c r="B58" s="293" t="s">
         <v>133</v>
       </c>
-      <c r="C58" s="411"/>
-      <c r="D58" s="411"/>
-      <c r="E58" s="412"/>
+      <c r="C58" s="294"/>
+      <c r="D58" s="294"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="41"/>
       <c r="G58" s="126">
         <v>43</v>
@@ -5415,10 +5415,10 @@
       <c r="B59" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="404" t="s">
+      <c r="C59" s="291" t="s">
         <v>135</v>
       </c>
-      <c r="D59" s="405"/>
+      <c r="D59" s="292"/>
       <c r="E59" s="175" t="s">
         <v>134</v>
       </c>
@@ -5453,8 +5453,8 @@
       <c r="B60" s="176">
         <v>1</v>
       </c>
-      <c r="C60" s="272"/>
-      <c r="D60" s="273"/>
+      <c r="C60" s="288"/>
+      <c r="D60" s="289"/>
       <c r="E60" s="177"/>
       <c r="F60" s="41"/>
       <c r="G60" s="126">
@@ -5487,8 +5487,8 @@
       <c r="B61" s="176">
         <v>2</v>
       </c>
-      <c r="C61" s="272"/>
-      <c r="D61" s="273"/>
+      <c r="C61" s="288"/>
+      <c r="D61" s="289"/>
       <c r="E61" s="177"/>
       <c r="F61" s="41"/>
       <c r="G61" s="126">
@@ -5521,8 +5521,8 @@
       <c r="B62" s="176">
         <v>3</v>
       </c>
-      <c r="C62" s="272"/>
-      <c r="D62" s="273"/>
+      <c r="C62" s="288"/>
+      <c r="D62" s="289"/>
       <c r="E62" s="177"/>
       <c r="F62" s="41"/>
       <c r="G62" s="126">
@@ -5555,8 +5555,8 @@
       <c r="B63" s="176">
         <v>4</v>
       </c>
-      <c r="C63" s="272"/>
-      <c r="D63" s="273"/>
+      <c r="C63" s="288"/>
+      <c r="D63" s="289"/>
       <c r="E63" s="177"/>
       <c r="F63" s="41"/>
       <c r="G63" s="126">
@@ -5589,8 +5589,8 @@
       <c r="B64" s="176">
         <v>5</v>
       </c>
-      <c r="C64" s="272"/>
-      <c r="D64" s="273"/>
+      <c r="C64" s="288"/>
+      <c r="D64" s="289"/>
       <c r="E64" s="177"/>
       <c r="F64" s="230"/>
       <c r="G64" s="126">
@@ -5623,8 +5623,8 @@
       <c r="B65" s="176">
         <v>6</v>
       </c>
-      <c r="C65" s="272"/>
-      <c r="D65" s="273"/>
+      <c r="C65" s="288"/>
+      <c r="D65" s="289"/>
       <c r="E65" s="177"/>
       <c r="F65" s="230"/>
       <c r="G65" s="126">
@@ -5657,8 +5657,8 @@
       <c r="B66" s="249">
         <v>7</v>
       </c>
-      <c r="C66" s="283"/>
-      <c r="D66" s="298"/>
+      <c r="C66" s="256"/>
+      <c r="D66" s="290"/>
       <c r="E66" s="251"/>
       <c r="F66" s="230"/>
       <c r="G66" s="229" t="s">
@@ -5735,33 +5735,33 @@
       <c r="B68" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="296"/>
-      <c r="D68" s="296"/>
-      <c r="E68" s="297"/>
-      <c r="F68" s="285"/>
-      <c r="G68" s="255" t="s">
+      <c r="C68" s="286"/>
+      <c r="D68" s="286"/>
+      <c r="E68" s="287"/>
+      <c r="F68" s="275"/>
+      <c r="G68" s="264" t="s">
         <v>143</v>
       </c>
-      <c r="H68" s="256"/>
-      <c r="I68" s="256"/>
-      <c r="J68" s="256"/>
-      <c r="K68" s="257"/>
+      <c r="H68" s="265"/>
+      <c r="I68" s="265"/>
+      <c r="J68" s="265"/>
+      <c r="K68" s="266"/>
       <c r="M68" s="243" t="s">
         <v>8</v>
       </c>
       <c r="N68" s="246" t="s">
         <v>151</v>
       </c>
-      <c r="O68" s="406" t="s">
+      <c r="O68" s="363" t="s">
         <v>145</v>
       </c>
-      <c r="P68" s="407"/>
-      <c r="R68" s="258" t="s">
+      <c r="P68" s="364"/>
+      <c r="R68" s="367" t="s">
         <v>152</v>
       </c>
-      <c r="S68" s="259"/>
-      <c r="T68" s="259"/>
-      <c r="U68" s="260"/>
+      <c r="S68" s="368"/>
+      <c r="T68" s="368"/>
+      <c r="U68" s="369"/>
       <c r="W68" s="41"/>
       <c r="X68" s="41"/>
       <c r="Y68" s="41"/>
@@ -5774,15 +5774,15 @@
       <c r="C69" s="41"/>
       <c r="D69" s="41"/>
       <c r="E69" s="30"/>
-      <c r="F69" s="285"/>
+      <c r="F69" s="275"/>
       <c r="G69" s="252" t="s">
         <v>8</v>
       </c>
-      <c r="H69" s="335" t="s">
+      <c r="H69" s="268" t="s">
         <v>135</v>
       </c>
-      <c r="I69" s="335"/>
-      <c r="J69" s="335"/>
+      <c r="I69" s="268"/>
+      <c r="J69" s="268"/>
       <c r="K69" s="253" t="s">
         <v>134</v>
       </c>
@@ -5790,12 +5790,12 @@
         <v>1</v>
       </c>
       <c r="N69" s="245"/>
-      <c r="O69" s="408"/>
-      <c r="P69" s="409"/>
-      <c r="R69" s="261"/>
-      <c r="S69" s="262"/>
-      <c r="T69" s="262"/>
-      <c r="U69" s="263"/>
+      <c r="O69" s="365"/>
+      <c r="P69" s="366"/>
+      <c r="R69" s="370"/>
+      <c r="S69" s="313"/>
+      <c r="T69" s="313"/>
+      <c r="U69" s="371"/>
       <c r="W69" s="41"/>
       <c r="X69" s="41"/>
       <c r="Y69" s="41"/>
@@ -5820,12 +5820,12 @@
         <v>2</v>
       </c>
       <c r="N70" s="213"/>
-      <c r="O70" s="268"/>
-      <c r="P70" s="269"/>
-      <c r="R70" s="261"/>
-      <c r="S70" s="262"/>
-      <c r="T70" s="262"/>
-      <c r="U70" s="263"/>
+      <c r="O70" s="254"/>
+      <c r="P70" s="255"/>
+      <c r="R70" s="370"/>
+      <c r="S70" s="313"/>
+      <c r="T70" s="313"/>
+      <c r="U70" s="371"/>
       <c r="W70" s="41"/>
       <c r="X70" s="41"/>
       <c r="Y70" s="41"/>
@@ -5850,12 +5850,12 @@
         <v>3</v>
       </c>
       <c r="N71" s="213"/>
-      <c r="O71" s="268"/>
-      <c r="P71" s="269"/>
-      <c r="R71" s="261"/>
-      <c r="S71" s="262"/>
-      <c r="T71" s="262"/>
-      <c r="U71" s="263"/>
+      <c r="O71" s="254"/>
+      <c r="P71" s="255"/>
+      <c r="R71" s="370"/>
+      <c r="S71" s="313"/>
+      <c r="T71" s="313"/>
+      <c r="U71" s="371"/>
       <c r="W71" s="41"/>
       <c r="X71" s="41"/>
       <c r="Y71" s="41"/>
@@ -5880,12 +5880,12 @@
         <v>4</v>
       </c>
       <c r="N72" s="213"/>
-      <c r="O72" s="268"/>
-      <c r="P72" s="269"/>
-      <c r="R72" s="261"/>
-      <c r="S72" s="262"/>
-      <c r="T72" s="262"/>
-      <c r="U72" s="263"/>
+      <c r="O72" s="254"/>
+      <c r="P72" s="255"/>
+      <c r="R72" s="370"/>
+      <c r="S72" s="313"/>
+      <c r="T72" s="313"/>
+      <c r="U72" s="371"/>
       <c r="W72" s="41"/>
       <c r="X72" s="41"/>
       <c r="Y72" s="41"/>
@@ -5910,12 +5910,12 @@
         <v>5</v>
       </c>
       <c r="N73" s="213"/>
-      <c r="O73" s="268"/>
-      <c r="P73" s="269"/>
-      <c r="R73" s="261"/>
-      <c r="S73" s="262"/>
-      <c r="T73" s="262"/>
-      <c r="U73" s="263"/>
+      <c r="O73" s="254"/>
+      <c r="P73" s="255"/>
+      <c r="R73" s="370"/>
+      <c r="S73" s="313"/>
+      <c r="T73" s="313"/>
+      <c r="U73" s="371"/>
       <c r="W73" s="41"/>
       <c r="X73" s="41"/>
       <c r="Y73" s="41"/>
@@ -5940,12 +5940,12 @@
         <v>6</v>
       </c>
       <c r="N74" s="213"/>
-      <c r="O74" s="268"/>
-      <c r="P74" s="269"/>
-      <c r="R74" s="261"/>
-      <c r="S74" s="262"/>
-      <c r="T74" s="262"/>
-      <c r="U74" s="263"/>
+      <c r="O74" s="254"/>
+      <c r="P74" s="255"/>
+      <c r="R74" s="370"/>
+      <c r="S74" s="313"/>
+      <c r="T74" s="313"/>
+      <c r="U74" s="371"/>
       <c r="W74" s="41"/>
       <c r="X74" s="41"/>
       <c r="Y74" s="41"/>
@@ -5970,12 +5970,12 @@
         <v>7</v>
       </c>
       <c r="N75" s="213"/>
-      <c r="O75" s="268"/>
-      <c r="P75" s="269"/>
-      <c r="R75" s="261"/>
-      <c r="S75" s="262"/>
-      <c r="T75" s="262"/>
-      <c r="U75" s="263"/>
+      <c r="O75" s="254"/>
+      <c r="P75" s="255"/>
+      <c r="R75" s="370"/>
+      <c r="S75" s="313"/>
+      <c r="T75" s="313"/>
+      <c r="U75" s="371"/>
     </row>
     <row r="76" spans="2:28" ht="28.5" customHeight="1" thickBot="1">
       <c r="B76" s="200"/>
@@ -5986,20 +5986,20 @@
       <c r="G76" s="249">
         <v>7</v>
       </c>
-      <c r="H76" s="254"/>
-      <c r="I76" s="254"/>
-      <c r="J76" s="254"/>
+      <c r="H76" s="263"/>
+      <c r="I76" s="263"/>
+      <c r="J76" s="263"/>
       <c r="K76" s="251"/>
       <c r="M76" s="60">
         <v>8</v>
       </c>
       <c r="N76" s="214"/>
-      <c r="O76" s="270"/>
-      <c r="P76" s="271"/>
-      <c r="R76" s="264"/>
-      <c r="S76" s="265"/>
-      <c r="T76" s="265"/>
-      <c r="U76" s="266"/>
+      <c r="O76" s="375"/>
+      <c r="P76" s="376"/>
+      <c r="R76" s="372"/>
+      <c r="S76" s="373"/>
+      <c r="T76" s="373"/>
+      <c r="U76" s="374"/>
     </row>
     <row r="77" spans="2:28" ht="21.95" customHeight="1">
       <c r="B77" s="211"/>
@@ -8105,6 +8105,9 @@
     <mergeCell ref="O7:P10"/>
     <mergeCell ref="O68:P68"/>
     <mergeCell ref="O69:P69"/>
+    <mergeCell ref="R68:U76"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="O76:P76"/>
     <mergeCell ref="Z21:AA22"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
@@ -8117,7 +8120,6 @@
     <mergeCell ref="Q11:Q13"/>
     <mergeCell ref="R11:R13"/>
     <mergeCell ref="R8:R10"/>
-    <mergeCell ref="B26:C26"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="B11:B12"/>
@@ -8127,10 +8129,6 @@
     <mergeCell ref="C13:E14"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
@@ -8144,33 +8142,35 @@
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="B58:E58"/>
     <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C49:E49"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="H76:J76"/>
     <mergeCell ref="G68:K68"/>
-    <mergeCell ref="R68:U76"/>
     <mergeCell ref="H71:J71"/>
     <mergeCell ref="H72:J72"/>
     <mergeCell ref="H73:J73"/>
     <mergeCell ref="H74:J74"/>
     <mergeCell ref="H75:J75"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="O70:P70"/>
     <mergeCell ref="O71:P71"/>
     <mergeCell ref="O72:P72"/>
     <mergeCell ref="O73:P73"/>
     <mergeCell ref="O74:P74"/>
-    <mergeCell ref="H69:J69"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/py/direction_sheet.xlsx
+++ b/py/direction_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\design.05\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diereport\ex0.11\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29725F70-B575-4FEC-9B89-ED2C35710C91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7E0F6B-ACD4-475A-81D4-07553854BD37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,21 +514,21 @@
     <numFmt numFmtId="169" formatCode="0&quot; pic.&quot;;;"/>
     <numFmt numFmtId="170" formatCode="#&quot;min&quot;;;"/>
     <numFmt numFmtId="171" formatCode="#&quot;℃&quot;"/>
-    <numFmt numFmtId="172" formatCode="0.0&quot;%&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.0&quot;mm/s&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.0&quot; h&quot;"/>
-    <numFmt numFmtId="175" formatCode="#&quot; inch&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="0.00&quot;kg/m&quot;"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="#&quot; 根&quot;"/>
-    <numFmt numFmtId="182" formatCode="0.0&quot; m&quot;"/>
-    <numFmt numFmtId="183" formatCode="0.0&quot; mm&quot;"/>
-    <numFmt numFmtId="184" formatCode="#&quot; mm&quot;"/>
-    <numFmt numFmtId="185" formatCode="#.0&quot;m&quot;"/>
-    <numFmt numFmtId="188" formatCode="#&quot; đoạn&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.0&quot;mm/s&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.0&quot; h&quot;"/>
+    <numFmt numFmtId="174" formatCode="#&quot; inch&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.00&quot;kg/m&quot;"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="#&quot; 根&quot;"/>
+    <numFmt numFmtId="181" formatCode="0.0&quot; m&quot;"/>
+    <numFmt numFmtId="182" formatCode="0.0&quot; mm&quot;"/>
+    <numFmt numFmtId="183" formatCode="#&quot; mm&quot;"/>
+    <numFmt numFmtId="184" formatCode="#.0&quot;m&quot;"/>
+    <numFmt numFmtId="185" formatCode="#&quot; đoạn&quot;"/>
+    <numFmt numFmtId="186" formatCode="0.00&quot;%&quot;"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1789,7 +1789,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="414">
+  <cellXfs count="415">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1949,7 +1949,7 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1958,7 +1958,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1974,19 +1974,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2005,7 +2005,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2017,7 +2017,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2136,7 +2136,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2151,7 +2151,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="24" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="24" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2203,10 +2203,7 @@
     <xf numFmtId="167" fontId="26" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="26" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="26" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="26" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2296,25 +2293,25 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="70" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="25" fillId="0" borderId="70" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="25" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="25" fillId="0" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="25" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="25" fillId="0" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2500,69 +2497,366 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="26" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="9" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="9" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="9" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2570,16 +2864,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2626,373 +2941,61 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="9" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="9" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="9" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3414,7 +3417,7 @@
   </sheetPr>
   <dimension ref="B1:AI172"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:U1"/>
     </sheetView>
   </sheetViews>
@@ -3444,31 +3447,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B1" s="368" t="s">
+      <c r="B1" s="264" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="369"/>
-      <c r="D1" s="369"/>
-      <c r="E1" s="369"/>
-      <c r="F1" s="370"/>
-      <c r="G1" s="370"/>
-      <c r="H1" s="370"/>
-      <c r="I1" s="370"/>
-      <c r="J1" s="370"/>
-      <c r="K1" s="370"/>
-      <c r="L1" s="370"/>
-      <c r="M1" s="370"/>
-      <c r="N1" s="370"/>
-      <c r="O1" s="369"/>
-      <c r="P1" s="369"/>
-      <c r="Q1" s="369"/>
-      <c r="R1" s="369"/>
-      <c r="S1" s="369"/>
-      <c r="T1" s="369"/>
-      <c r="U1" s="371"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="M1" s="266"/>
+      <c r="N1" s="266"/>
+      <c r="O1" s="265"/>
+      <c r="P1" s="265"/>
+      <c r="Q1" s="265"/>
+      <c r="R1" s="265"/>
+      <c r="S1" s="265"/>
+      <c r="T1" s="265"/>
+      <c r="U1" s="267"/>
     </row>
     <row r="2" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B2" s="233" t="s">
+      <c r="B2" s="232" t="s">
         <v>148</v>
       </c>
       <c r="C2" s="131">
@@ -3482,256 +3485,256 @@
         <f>input!D8</f>
         <v>0</v>
       </c>
-      <c r="F2" s="372"/>
-      <c r="G2" s="373"/>
-      <c r="H2" s="221"/>
+      <c r="F2" s="268"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="220"/>
       <c r="I2" s="124"/>
-      <c r="J2" s="221"/>
+      <c r="J2" s="220"/>
       <c r="K2" s="125"/>
-      <c r="L2" s="373"/>
-      <c r="M2" s="305"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="270"/>
       <c r="N2" s="126"/>
-      <c r="O2" s="261" t="s">
+      <c r="O2" s="332" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="306"/>
-      <c r="Q2" s="261" t="s">
+      <c r="P2" s="333"/>
+      <c r="Q2" s="332" t="s">
         <v>123</v>
       </c>
-      <c r="R2" s="308"/>
-      <c r="S2" s="308"/>
-      <c r="T2" s="308"/>
-      <c r="U2" s="306"/>
+      <c r="R2" s="336"/>
+      <c r="S2" s="336"/>
+      <c r="T2" s="336"/>
+      <c r="U2" s="333"/>
     </row>
     <row r="3" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="217" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="222">
+      <c r="C3" s="221">
         <f>input!D17</f>
         <v>0</v>
       </c>
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="221" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="134">
         <f>input!D9</f>
         <v>0</v>
       </c>
-      <c r="F3" s="372"/>
-      <c r="G3" s="373"/>
-      <c r="H3" s="221"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="220"/>
       <c r="I3" s="125"/>
-      <c r="J3" s="221"/>
+      <c r="J3" s="220"/>
       <c r="K3" s="35"/>
-      <c r="L3" s="373"/>
-      <c r="M3" s="305"/>
+      <c r="L3" s="269"/>
+      <c r="M3" s="270"/>
       <c r="N3" s="126"/>
-      <c r="O3" s="271" t="s">
+      <c r="O3" s="334" t="s">
         <v>128</v>
       </c>
-      <c r="P3" s="307"/>
-      <c r="Q3" s="271"/>
-      <c r="R3" s="309"/>
-      <c r="S3" s="309"/>
-      <c r="T3" s="309"/>
-      <c r="U3" s="307"/>
+      <c r="P3" s="335"/>
+      <c r="Q3" s="334"/>
+      <c r="R3" s="337"/>
+      <c r="S3" s="337"/>
+      <c r="T3" s="337"/>
+      <c r="U3" s="335"/>
     </row>
     <row r="4" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B4" s="25"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="401" t="s">
+      <c r="F4" s="193"/>
+      <c r="G4" s="279" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="402"/>
-      <c r="I4" s="402"/>
-      <c r="J4" s="403"/>
-      <c r="K4" s="401" t="s">
+      <c r="H4" s="280"/>
+      <c r="I4" s="280"/>
+      <c r="J4" s="281"/>
+      <c r="K4" s="279" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="402"/>
-      <c r="M4" s="403"/>
+      <c r="L4" s="280"/>
+      <c r="M4" s="281"/>
       <c r="N4" s="128"/>
-      <c r="O4" s="184" t="s">
+      <c r="O4" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="185" t="s">
+      <c r="P4" s="184" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="261" t="s">
+      <c r="Q4" s="332" t="s">
         <v>124</v>
       </c>
-      <c r="R4" s="308"/>
-      <c r="S4" s="308"/>
-      <c r="T4" s="308"/>
-      <c r="U4" s="306"/>
+      <c r="R4" s="336"/>
+      <c r="S4" s="336"/>
+      <c r="T4" s="336"/>
+      <c r="U4" s="333"/>
     </row>
     <row r="5" spans="2:31" ht="28.5" customHeight="1">
-      <c r="B5" s="289" t="s">
+      <c r="B5" s="271" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="389">
+      <c r="C5" s="273">
         <f>input!D6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="390"/>
-      <c r="E5" s="391"/>
+      <c r="D5" s="274"/>
+      <c r="E5" s="275"/>
       <c r="F5" s="121"/>
       <c r="G5" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="169" t="str">
+      <c r="H5" s="168" t="str">
         <f>IF(input!D12="6N01","●","")</f>
         <v/>
       </c>
-      <c r="I5" s="170" t="s">
+      <c r="I5" s="169" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="176" t="s">
+      <c r="J5" s="175" t="s">
         <v>135</v>
       </c>
-      <c r="K5" s="206" t="s">
+      <c r="K5" s="205" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="177" t="s">
+      <c r="L5" s="176" t="s">
         <v>100</v>
       </c>
-      <c r="M5" s="331" t="s">
+      <c r="M5" s="292" t="s">
         <v>130</v>
       </c>
       <c r="N5" s="121"/>
-      <c r="O5" s="327"/>
-      <c r="P5" s="329"/>
-      <c r="Q5" s="335"/>
-      <c r="R5" s="336"/>
-      <c r="S5" s="336"/>
-      <c r="T5" s="336"/>
-      <c r="U5" s="337"/>
+      <c r="O5" s="288"/>
+      <c r="P5" s="290"/>
+      <c r="Q5" s="296"/>
+      <c r="R5" s="297"/>
+      <c r="S5" s="297"/>
+      <c r="T5" s="297"/>
+      <c r="U5" s="298"/>
     </row>
     <row r="6" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B6" s="290"/>
-      <c r="C6" s="392"/>
-      <c r="D6" s="393"/>
-      <c r="E6" s="394"/>
+      <c r="B6" s="272"/>
+      <c r="C6" s="276"/>
+      <c r="D6" s="277"/>
+      <c r="E6" s="278"/>
       <c r="F6" s="121"/>
-      <c r="G6" s="171">
+      <c r="G6" s="170">
         <v>6061</v>
       </c>
-      <c r="H6" s="172" t="str">
+      <c r="H6" s="171" t="str">
         <f>IF(input!D12="6061","●","")</f>
         <v/>
       </c>
-      <c r="I6" s="173"/>
-      <c r="J6" s="178">
+      <c r="I6" s="172"/>
+      <c r="J6" s="177">
         <f>input!D21</f>
         <v>0</v>
       </c>
-      <c r="K6" s="179">
+      <c r="K6" s="178">
         <f>input!D13</f>
         <v>0</v>
       </c>
-      <c r="L6" s="238">
+      <c r="L6" s="237">
         <f>ROUND(input!D14,2)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="332"/>
+      <c r="M6" s="293"/>
       <c r="N6" s="122"/>
-      <c r="O6" s="328"/>
-      <c r="P6" s="330"/>
-      <c r="Q6" s="338"/>
-      <c r="R6" s="339"/>
-      <c r="S6" s="339"/>
-      <c r="T6" s="339"/>
-      <c r="U6" s="340"/>
+      <c r="O6" s="289"/>
+      <c r="P6" s="291"/>
+      <c r="Q6" s="299"/>
+      <c r="R6" s="300"/>
+      <c r="S6" s="300"/>
+      <c r="T6" s="300"/>
+      <c r="U6" s="301"/>
     </row>
     <row r="7" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B7" s="291" t="s">
+      <c r="B7" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="395">
+      <c r="C7" s="249">
         <f>input!D7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="396"/>
-      <c r="E7" s="397"/>
+      <c r="D7" s="250"/>
+      <c r="E7" s="251"/>
       <c r="F7" s="121"/>
-      <c r="G7" s="171">
+      <c r="G7" s="170">
         <v>6063</v>
       </c>
-      <c r="H7" s="172" t="str">
+      <c r="H7" s="171" t="str">
         <f>IF(input!D12="6063","●","")</f>
         <v/>
       </c>
-      <c r="I7" s="174" t="s">
+      <c r="I7" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="180" t="s">
+      <c r="J7" s="179" t="s">
         <v>136</v>
       </c>
-      <c r="K7" s="206" t="s">
+      <c r="K7" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="L7" s="181" t="s">
+      <c r="L7" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="M7" s="333">
+      <c r="M7" s="294">
         <f>input!K11</f>
         <v>0</v>
       </c>
       <c r="N7" s="123"/>
-      <c r="O7" s="348" t="s">
+      <c r="O7" s="309" t="s">
         <v>145</v>
       </c>
-      <c r="P7" s="349"/>
-      <c r="Q7" s="325" t="s">
+      <c r="P7" s="310"/>
+      <c r="Q7" s="286" t="s">
         <v>127</v>
       </c>
-      <c r="R7" s="326"/>
-      <c r="S7" s="322" t="s">
+      <c r="R7" s="287"/>
+      <c r="S7" s="283" t="s">
         <v>139</v>
       </c>
-      <c r="T7" s="323"/>
-      <c r="U7" s="324"/>
+      <c r="T7" s="284"/>
+      <c r="U7" s="285"/>
     </row>
     <row r="8" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B8" s="388"/>
-      <c r="C8" s="398"/>
-      <c r="D8" s="399"/>
-      <c r="E8" s="400"/>
+      <c r="B8" s="248"/>
+      <c r="C8" s="252"/>
+      <c r="D8" s="253"/>
+      <c r="E8" s="254"/>
       <c r="F8" s="121"/>
-      <c r="G8" s="408" t="s">
+      <c r="G8" s="244" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="175"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="182">
+      <c r="H8" s="174"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="181">
         <f>input!D31</f>
         <v>0</v>
       </c>
-      <c r="K8" s="183">
+      <c r="K8" s="182">
         <f>input!D10*1</f>
         <v>0</v>
       </c>
-      <c r="L8" s="173">
+      <c r="L8" s="172">
         <f>input!D15</f>
         <v>0</v>
       </c>
-      <c r="M8" s="334"/>
+      <c r="M8" s="295"/>
       <c r="N8" s="123"/>
-      <c r="O8" s="350"/>
-      <c r="P8" s="351"/>
-      <c r="Q8" s="341" t="s">
+      <c r="O8" s="311"/>
+      <c r="P8" s="312"/>
+      <c r="Q8" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="R8" s="319" t="s">
+      <c r="R8" s="349" t="s">
         <v>146</v>
       </c>
-      <c r="S8" s="374"/>
-      <c r="T8" s="376"/>
-      <c r="U8" s="378"/>
+      <c r="S8" s="352"/>
+      <c r="T8" s="354"/>
+      <c r="U8" s="356"/>
     </row>
     <row r="9" spans="2:31" ht="6" customHeight="1">
       <c r="B9" s="25"/>
@@ -3743,22 +3746,22 @@
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
-      <c r="K9" s="404" t="s">
+      <c r="K9" s="255" t="s">
         <v>152</v>
       </c>
-      <c r="L9" s="405"/>
-      <c r="M9" s="411">
+      <c r="L9" s="256"/>
+      <c r="M9" s="261">
         <f>input!D37</f>
         <v>0</v>
       </c>
       <c r="N9" s="30"/>
-      <c r="O9" s="350"/>
-      <c r="P9" s="351"/>
-      <c r="Q9" s="342"/>
-      <c r="R9" s="320"/>
-      <c r="S9" s="379"/>
-      <c r="T9" s="377"/>
-      <c r="U9" s="375"/>
+      <c r="O9" s="311"/>
+      <c r="P9" s="312"/>
+      <c r="Q9" s="303"/>
+      <c r="R9" s="350"/>
+      <c r="S9" s="357"/>
+      <c r="T9" s="355"/>
+      <c r="U9" s="353"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" thickBot="1">
       <c r="B10" s="31"/>
@@ -3766,74 +3769,74 @@
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="195"/>
-      <c r="I10" s="195"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="410"/>
-      <c r="L10" s="409"/>
-      <c r="M10" s="412"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="257"/>
+      <c r="L10" s="258"/>
+      <c r="M10" s="262"/>
       <c r="N10" s="30"/>
-      <c r="O10" s="352"/>
-      <c r="P10" s="353"/>
-      <c r="Q10" s="343"/>
-      <c r="R10" s="321"/>
-      <c r="S10" s="380"/>
-      <c r="T10" s="381"/>
-      <c r="U10" s="382"/>
+      <c r="O10" s="313"/>
+      <c r="P10" s="314"/>
+      <c r="Q10" s="304"/>
+      <c r="R10" s="351"/>
+      <c r="S10" s="358"/>
+      <c r="T10" s="359"/>
+      <c r="U10" s="360"/>
     </row>
     <row r="11" spans="2:31" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B11" s="289" t="s">
+      <c r="B11" s="271" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="295" t="str">
+      <c r="C11" s="371" t="str">
         <f>IF(C13=0,"","DR"&amp;MID(C13,2,4))</f>
         <v/>
       </c>
-      <c r="D11" s="295"/>
-      <c r="E11" s="296"/>
+      <c r="D11" s="371"/>
+      <c r="E11" s="372"/>
       <c r="F11" s="35"/>
       <c r="J11" s="101"/>
-      <c r="K11" s="406"/>
-      <c r="L11" s="407"/>
-      <c r="M11" s="413"/>
+      <c r="K11" s="259"/>
+      <c r="L11" s="260"/>
+      <c r="M11" s="263"/>
       <c r="N11" s="30"/>
-      <c r="O11" s="344"/>
-      <c r="P11" s="345"/>
-      <c r="Q11" s="313"/>
-      <c r="R11" s="316"/>
-      <c r="S11" s="269" t="s">
+      <c r="O11" s="305"/>
+      <c r="P11" s="306"/>
+      <c r="Q11" s="343"/>
+      <c r="R11" s="346"/>
+      <c r="S11" s="340" t="s">
         <v>83</v>
       </c>
-      <c r="T11" s="312"/>
-      <c r="U11" s="270"/>
+      <c r="T11" s="341"/>
+      <c r="U11" s="342"/>
     </row>
     <row r="12" spans="2:31" ht="26.25" customHeight="1">
-      <c r="B12" s="290"/>
-      <c r="C12" s="297"/>
-      <c r="D12" s="297"/>
-      <c r="E12" s="298"/>
+      <c r="B12" s="272"/>
+      <c r="C12" s="373"/>
+      <c r="D12" s="373"/>
+      <c r="E12" s="374"/>
       <c r="F12" s="25"/>
       <c r="J12" s="101"/>
       <c r="N12" s="30"/>
-      <c r="O12" s="346"/>
-      <c r="P12" s="347"/>
-      <c r="Q12" s="314"/>
-      <c r="R12" s="317"/>
-      <c r="S12" s="383"/>
-      <c r="T12" s="384"/>
-      <c r="U12" s="385"/>
+      <c r="O12" s="307"/>
+      <c r="P12" s="308"/>
+      <c r="Q12" s="344"/>
+      <c r="R12" s="347"/>
+      <c r="S12" s="361"/>
+      <c r="T12" s="362"/>
+      <c r="U12" s="363"/>
     </row>
     <row r="13" spans="2:31" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B13" s="291" t="s">
+      <c r="B13" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="297">
+      <c r="C13" s="373">
         <f>input!D32</f>
         <v>0</v>
       </c>
-      <c r="D13" s="297"/>
-      <c r="E13" s="298"/>
+      <c r="D13" s="373"/>
+      <c r="E13" s="374"/>
       <c r="F13" s="25"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
@@ -3843,19 +3846,19 @@
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
       <c r="N13" s="30"/>
-      <c r="O13" s="338"/>
-      <c r="P13" s="340"/>
-      <c r="Q13" s="315"/>
-      <c r="R13" s="318"/>
-      <c r="S13" s="292"/>
-      <c r="T13" s="386"/>
-      <c r="U13" s="387"/>
+      <c r="O13" s="299"/>
+      <c r="P13" s="301"/>
+      <c r="Q13" s="345"/>
+      <c r="R13" s="348"/>
+      <c r="S13" s="364"/>
+      <c r="T13" s="365"/>
+      <c r="U13" s="366"/>
     </row>
     <row r="14" spans="2:31" ht="27" customHeight="1" thickBot="1">
-      <c r="B14" s="292"/>
-      <c r="C14" s="299"/>
-      <c r="D14" s="299"/>
-      <c r="E14" s="300"/>
+      <c r="B14" s="364"/>
+      <c r="C14" s="375"/>
+      <c r="D14" s="375"/>
+      <c r="E14" s="376"/>
       <c r="F14" s="35"/>
       <c r="G14" s="120" t="s">
         <v>6</v>
@@ -3867,79 +3870,79 @@
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
       <c r="N14" s="30"/>
-      <c r="O14" s="374" t="s">
+      <c r="O14" s="352" t="s">
         <v>80</v>
       </c>
-      <c r="P14" s="375"/>
-      <c r="Q14" s="374" t="s">
+      <c r="P14" s="353"/>
+      <c r="Q14" s="352" t="s">
         <v>147</v>
       </c>
-      <c r="R14" s="376"/>
-      <c r="S14" s="377"/>
-      <c r="T14" s="377"/>
-      <c r="U14" s="375"/>
+      <c r="R14" s="354"/>
+      <c r="S14" s="355"/>
+      <c r="T14" s="355"/>
+      <c r="U14" s="353"/>
     </row>
     <row r="15" spans="2:31" ht="52.5" customHeight="1" thickBot="1">
-      <c r="B15" s="196" t="s">
+      <c r="B15" s="195" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="197"/>
-      <c r="D15" s="197"/>
-      <c r="E15" s="197"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="186" t="s">
+      <c r="C15" s="196"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="220"/>
+      <c r="G15" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="187" t="s">
+      <c r="H15" s="186" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="187" t="s">
+      <c r="I15" s="186" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="187" t="s">
+      <c r="J15" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="K15" s="188" t="s">
+      <c r="K15" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="187" t="s">
+      <c r="L15" s="186" t="s">
         <v>141</v>
       </c>
-      <c r="M15" s="187" t="s">
+      <c r="M15" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="188" t="s">
+      <c r="N15" s="187" t="s">
         <v>140</v>
       </c>
-      <c r="O15" s="207" t="s">
+      <c r="O15" s="206" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="187" t="s">
+      <c r="P15" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="Q15" s="189">
+      <c r="Q15" s="188">
         <v>302</v>
       </c>
-      <c r="R15" s="189">
+      <c r="R15" s="188">
         <v>304</v>
       </c>
-      <c r="S15" s="189">
+      <c r="S15" s="188">
         <v>314</v>
       </c>
-      <c r="T15" s="189">
+      <c r="T15" s="188">
         <v>316</v>
       </c>
-      <c r="U15" s="190">
+      <c r="U15" s="189">
         <v>318</v>
       </c>
     </row>
     <row r="16" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B16" s="301" t="s">
+      <c r="B16" s="377" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="302"/>
-      <c r="D16" s="303"/>
-      <c r="E16" s="270"/>
+      <c r="C16" s="378"/>
+      <c r="D16" s="379"/>
+      <c r="E16" s="342"/>
       <c r="F16" s="35"/>
       <c r="G16" s="119">
         <v>1</v>
@@ -3977,10 +3980,10 @@
       <c r="C17" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="293" t="s">
+      <c r="D17" s="369" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="294"/>
+      <c r="E17" s="370"/>
       <c r="F17" s="35"/>
       <c r="G17" s="119">
         <v>2</v>
@@ -4014,8 +4017,8 @@
     <row r="18" spans="2:31" ht="35.1" customHeight="1">
       <c r="B18" s="114"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="267"/>
-      <c r="E18" s="268"/>
+      <c r="D18" s="367"/>
+      <c r="E18" s="368"/>
       <c r="F18" s="35"/>
       <c r="G18" s="119">
         <v>3</v>
@@ -4049,8 +4052,8 @@
     <row r="19" spans="2:31" ht="35.1" customHeight="1">
       <c r="B19" s="114"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="267"/>
-      <c r="E19" s="268"/>
+      <c r="D19" s="367"/>
+      <c r="E19" s="368"/>
       <c r="F19" s="35"/>
       <c r="G19" s="119">
         <v>4</v>
@@ -4076,10 +4079,10 @@
       <c r="T19" s="37"/>
       <c r="U19" s="38"/>
       <c r="W19" s="39"/>
-      <c r="X19" s="310"/>
-      <c r="Y19" s="305"/>
-      <c r="Z19" s="305"/>
-      <c r="AA19" s="305"/>
+      <c r="X19" s="338"/>
+      <c r="Y19" s="270"/>
+      <c r="Z19" s="270"/>
+      <c r="AA19" s="270"/>
       <c r="AB19" s="35"/>
       <c r="AC19" s="35"/>
       <c r="AD19" s="35"/>
@@ -4088,8 +4091,8 @@
     <row r="20" spans="2:31" ht="35.1" customHeight="1">
       <c r="B20" s="114"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="267"/>
-      <c r="E20" s="268"/>
+      <c r="D20" s="367"/>
+      <c r="E20" s="368"/>
       <c r="F20" s="35"/>
       <c r="G20" s="119">
         <v>5</v>
@@ -4113,8 +4116,8 @@
       <c r="W20" s="35"/>
       <c r="X20" s="116"/>
       <c r="Y20" s="34"/>
-      <c r="Z20" s="311"/>
-      <c r="AA20" s="305"/>
+      <c r="Z20" s="339"/>
+      <c r="AA20" s="270"/>
       <c r="AB20" s="35"/>
       <c r="AC20" s="35"/>
       <c r="AD20" s="35"/>
@@ -4123,8 +4126,8 @@
     <row r="21" spans="2:31" ht="35.1" customHeight="1">
       <c r="B21" s="114"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="267"/>
-      <c r="E21" s="268"/>
+      <c r="D21" s="367"/>
+      <c r="E21" s="368"/>
       <c r="F21" s="35"/>
       <c r="G21" s="119">
         <v>6</v>
@@ -4149,8 +4152,8 @@
       <c r="W21" s="35"/>
       <c r="X21" s="116"/>
       <c r="Y21" s="117"/>
-      <c r="Z21" s="304"/>
-      <c r="AA21" s="305"/>
+      <c r="Z21" s="323"/>
+      <c r="AA21" s="270"/>
       <c r="AB21" s="35"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="35"/>
@@ -4159,8 +4162,8 @@
     <row r="22" spans="2:31" ht="35.1" customHeight="1">
       <c r="B22" s="114"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="267"/>
-      <c r="E22" s="268"/>
+      <c r="D22" s="367"/>
+      <c r="E22" s="368"/>
       <c r="F22" s="35"/>
       <c r="G22" s="119">
         <v>7</v>
@@ -4171,7 +4174,7 @@
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
       <c r="M22" s="27"/>
-      <c r="N22" s="214"/>
+      <c r="N22" s="213"/>
       <c r="O22" s="119" t="s">
         <v>122</v>
       </c>
@@ -4185,8 +4188,8 @@
       <c r="W22" s="35"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="35"/>
-      <c r="Z22" s="305"/>
-      <c r="AA22" s="305"/>
+      <c r="Z22" s="270"/>
+      <c r="AA22" s="270"/>
       <c r="AB22" s="35"/>
       <c r="AC22" s="35"/>
       <c r="AD22" s="35"/>
@@ -4195,8 +4198,8 @@
     <row r="23" spans="2:31" ht="35.1" customHeight="1">
       <c r="B23" s="114"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="267"/>
-      <c r="E23" s="268"/>
+      <c r="D23" s="367"/>
+      <c r="E23" s="368"/>
       <c r="F23" s="35"/>
       <c r="G23" s="119">
         <v>8</v>
@@ -4207,7 +4210,7 @@
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="214"/>
+      <c r="N23" s="213"/>
       <c r="O23" s="119" t="s">
         <v>122</v>
       </c>
@@ -4231,8 +4234,8 @@
     <row r="24" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
       <c r="B24" s="115"/>
       <c r="C24" s="29"/>
-      <c r="D24" s="265"/>
-      <c r="E24" s="266"/>
+      <c r="D24" s="398"/>
+      <c r="E24" s="399"/>
       <c r="F24" s="35"/>
       <c r="G24" s="119">
         <v>9</v>
@@ -4243,7 +4246,7 @@
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
       <c r="M24" s="27"/>
-      <c r="N24" s="214"/>
+      <c r="N24" s="213"/>
       <c r="O24" s="119" t="s">
         <v>122</v>
       </c>
@@ -4265,12 +4268,12 @@
       <c r="AE24" s="35"/>
     </row>
     <row r="25" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B25" s="198" t="s">
+      <c r="B25" s="197" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="197"/>
-      <c r="D25" s="197"/>
-      <c r="E25" s="197"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="196"/>
       <c r="F25" s="35"/>
       <c r="G25" s="119">
         <v>10</v>
@@ -4281,7 +4284,7 @@
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
       <c r="M25" s="27"/>
-      <c r="N25" s="214"/>
+      <c r="N25" s="213"/>
       <c r="O25" s="119" t="s">
         <v>122</v>
       </c>
@@ -4295,14 +4298,14 @@
       <c r="W25" s="40"/>
     </row>
     <row r="26" spans="2:31" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B26" s="269" t="s">
+      <c r="B26" s="340" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="270"/>
-      <c r="D26" s="269" t="s">
+      <c r="C26" s="342"/>
+      <c r="D26" s="340" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="270"/>
+      <c r="E26" s="342"/>
       <c r="F26" s="35"/>
       <c r="G26" s="119">
         <v>11</v>
@@ -4313,7 +4316,7 @@
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
       <c r="M26" s="36"/>
-      <c r="N26" s="214"/>
+      <c r="N26" s="213"/>
       <c r="O26" s="119" t="s">
         <v>122</v>
       </c>
@@ -4337,7 +4340,7 @@
       <c r="D27" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="212" t="s">
+      <c r="E27" s="211" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="35"/>
@@ -4350,7 +4353,7 @@
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
       <c r="M27" s="36"/>
-      <c r="N27" s="214"/>
+      <c r="N27" s="213"/>
       <c r="O27" s="119" t="s">
         <v>122</v>
       </c>
@@ -4385,7 +4388,7 @@
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
       <c r="M28" s="36"/>
-      <c r="N28" s="214"/>
+      <c r="N28" s="213"/>
       <c r="O28" s="119" t="s">
         <v>122</v>
       </c>
@@ -4420,7 +4423,7 @@
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
       <c r="M29" s="36"/>
-      <c r="N29" s="214"/>
+      <c r="N29" s="213"/>
       <c r="O29" s="119" t="s">
         <v>122</v>
       </c>
@@ -4455,7 +4458,7 @@
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
-      <c r="N30" s="214"/>
+      <c r="N30" s="213"/>
       <c r="O30" s="119" t="s">
         <v>122</v>
       </c>
@@ -4490,7 +4493,7 @@
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
       <c r="M31" s="36"/>
-      <c r="N31" s="214"/>
+      <c r="N31" s="213"/>
       <c r="O31" s="119" t="s">
         <v>122</v>
       </c>
@@ -4525,7 +4528,7 @@
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
-      <c r="N32" s="214"/>
+      <c r="N32" s="213"/>
       <c r="O32" s="119" t="s">
         <v>122</v>
       </c>
@@ -4560,7 +4563,7 @@
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
       <c r="M33" s="36"/>
-      <c r="N33" s="214"/>
+      <c r="N33" s="213"/>
       <c r="O33" s="119" t="s">
         <v>122</v>
       </c>
@@ -4577,7 +4580,7 @@
       <c r="B34" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="146">
+      <c r="C34" s="246">
         <f>input!D29</f>
         <v>0</v>
       </c>
@@ -4595,7 +4598,7 @@
       <c r="K34" s="36"/>
       <c r="L34" s="36"/>
       <c r="M34" s="36"/>
-      <c r="N34" s="214"/>
+      <c r="N34" s="213"/>
       <c r="O34" s="119" t="s">
         <v>122</v>
       </c>
@@ -4612,14 +4615,14 @@
       <c r="B35" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="147">
+      <c r="C35" s="146">
         <f>input!D28</f>
         <v>0</v>
       </c>
       <c r="D35" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="211" t="s">
+      <c r="E35" s="210" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="35"/>
@@ -4632,7 +4635,7 @@
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
       <c r="M35" s="36"/>
-      <c r="N35" s="214"/>
+      <c r="N35" s="213"/>
       <c r="O35" s="119" t="s">
         <v>122</v>
       </c>
@@ -4647,14 +4650,14 @@
       <c r="B36" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="148" t="str">
+      <c r="C36" s="147" t="str">
         <f>IF(input!D30&lt;&gt;"",input!D30,"Air")</f>
         <v>Air</v>
       </c>
       <c r="D36" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="149" t="s">
+      <c r="E36" s="148" t="s">
         <v>88</v>
       </c>
       <c r="F36" s="35"/>
@@ -4667,7 +4670,7 @@
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
       <c r="M36" s="36"/>
-      <c r="N36" s="214"/>
+      <c r="N36" s="213"/>
       <c r="O36" s="119" t="s">
         <v>122</v>
       </c>
@@ -4679,17 +4682,17 @@
       <c r="U36" s="38"/>
     </row>
     <row r="37" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B37" s="150" t="s">
+      <c r="B37" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="232">
+      <c r="C37" s="231">
         <f>input!I14</f>
         <v>50</v>
       </c>
-      <c r="D37" s="150" t="s">
+      <c r="D37" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="223">
+      <c r="E37" s="222">
         <f>input!D33</f>
         <v>0</v>
       </c>
@@ -4703,7 +4706,7 @@
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
-      <c r="N37" s="214"/>
+      <c r="N37" s="213"/>
       <c r="O37" s="119" t="s">
         <v>122</v>
       </c>
@@ -4715,7 +4718,7 @@
       <c r="U37" s="38"/>
     </row>
     <row r="38" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B38" s="199"/>
+      <c r="B38" s="198"/>
       <c r="C38" s="104"/>
       <c r="D38" s="104"/>
       <c r="E38" s="104"/>
@@ -4729,7 +4732,7 @@
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
       <c r="M38" s="36"/>
-      <c r="N38" s="214"/>
+      <c r="N38" s="213"/>
       <c r="O38" s="119" t="s">
         <v>122</v>
       </c>
@@ -4741,11 +4744,11 @@
       <c r="U38" s="38"/>
     </row>
     <row r="39" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B39" s="263" t="s">
+      <c r="B39" s="396" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="264"/>
-      <c r="D39" s="151"/>
+      <c r="C39" s="397"/>
+      <c r="D39" s="150"/>
       <c r="E39" s="112"/>
       <c r="F39" s="104"/>
       <c r="G39" s="119">
@@ -4757,7 +4760,7 @@
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
       <c r="M39" s="36"/>
-      <c r="N39" s="214"/>
+      <c r="N39" s="213"/>
       <c r="O39" s="119" t="s">
         <v>122</v>
       </c>
@@ -4769,13 +4772,13 @@
       <c r="U39" s="38"/>
     </row>
     <row r="40" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B40" s="216" t="s">
+      <c r="B40" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="152" t="s">
+      <c r="C40" s="151" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="153" t="s">
+      <c r="D40" s="152" t="s">
         <v>28</v>
       </c>
       <c r="E40" s="45"/>
@@ -4789,7 +4792,7 @@
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
-      <c r="N40" s="214"/>
+      <c r="N40" s="213"/>
       <c r="O40" s="119" t="s">
         <v>122</v>
       </c>
@@ -4801,11 +4804,11 @@
       <c r="U40" s="38"/>
     </row>
     <row r="41" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B41" s="217" t="s">
+      <c r="B41" s="216" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="154"/>
-      <c r="D41" s="155"/>
+      <c r="C41" s="153"/>
+      <c r="D41" s="154"/>
       <c r="E41" s="45"/>
       <c r="F41" s="104"/>
       <c r="G41" s="119">
@@ -4817,7 +4820,7 @@
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
       <c r="M41" s="36"/>
-      <c r="N41" s="214"/>
+      <c r="N41" s="213"/>
       <c r="O41" s="119" t="s">
         <v>122</v>
       </c>
@@ -4829,11 +4832,11 @@
       <c r="U41" s="38"/>
     </row>
     <row r="42" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B42" s="218" t="s">
+      <c r="B42" s="217" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="156"/>
-      <c r="D42" s="157"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="156"/>
       <c r="E42" s="45"/>
       <c r="F42" s="104"/>
       <c r="G42" s="119">
@@ -4845,7 +4848,7 @@
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
-      <c r="N42" s="214"/>
+      <c r="N42" s="213"/>
       <c r="O42" s="119" t="s">
         <v>122</v>
       </c>
@@ -4857,7 +4860,7 @@
       <c r="U42" s="38"/>
     </row>
     <row r="43" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B43" s="200"/>
+      <c r="B43" s="199"/>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
@@ -4871,7 +4874,7 @@
       <c r="K43" s="36"/>
       <c r="L43" s="36"/>
       <c r="M43" s="36"/>
-      <c r="N43" s="214"/>
+      <c r="N43" s="213"/>
       <c r="O43" s="119" t="s">
         <v>122</v>
       </c>
@@ -4883,12 +4886,12 @@
       <c r="U43" s="38"/>
     </row>
     <row r="44" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B44" s="198" t="s">
+      <c r="B44" s="197" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="158"/>
-      <c r="D44" s="158"/>
-      <c r="E44" s="158"/>
+      <c r="C44" s="157"/>
+      <c r="D44" s="157"/>
+      <c r="E44" s="157"/>
       <c r="F44" s="104"/>
       <c r="G44" s="119">
         <v>29</v>
@@ -4899,7 +4902,7 @@
       <c r="K44" s="36"/>
       <c r="L44" s="36"/>
       <c r="M44" s="36"/>
-      <c r="N44" s="214"/>
+      <c r="N44" s="213"/>
       <c r="O44" s="119" t="s">
         <v>122</v>
       </c>
@@ -4911,14 +4914,14 @@
       <c r="U44" s="38"/>
     </row>
     <row r="45" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B45" s="247" t="s">
+      <c r="B45" s="400" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="249" t="s">
+      <c r="C45" s="402" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="250"/>
-      <c r="E45" s="251"/>
+      <c r="D45" s="403"/>
+      <c r="E45" s="404"/>
       <c r="F45" s="104"/>
       <c r="G45" s="119">
         <v>30</v>
@@ -4929,7 +4932,7 @@
       <c r="K45" s="36"/>
       <c r="L45" s="36"/>
       <c r="M45" s="36"/>
-      <c r="N45" s="214"/>
+      <c r="N45" s="213"/>
       <c r="O45" s="119" t="s">
         <v>122</v>
       </c>
@@ -4941,14 +4944,14 @@
       <c r="U45" s="38"/>
     </row>
     <row r="46" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B46" s="248"/>
-      <c r="C46" s="219" t="s">
+      <c r="B46" s="401"/>
+      <c r="C46" s="218" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="148" t="s">
+      <c r="D46" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="E46" s="224" t="s">
+      <c r="E46" s="223" t="s">
         <v>26</v>
       </c>
       <c r="F46" s="104"/>
@@ -4961,7 +4964,7 @@
       <c r="K46" s="36"/>
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
-      <c r="N46" s="214"/>
+      <c r="N46" s="213"/>
       <c r="O46" s="119" t="s">
         <v>122</v>
       </c>
@@ -4973,12 +4976,12 @@
       <c r="U46" s="38"/>
     </row>
     <row r="47" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B47" s="159" t="s">
+      <c r="B47" s="158" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="160"/>
-      <c r="D47" s="154"/>
-      <c r="E47" s="155"/>
+      <c r="C47" s="159"/>
+      <c r="D47" s="153"/>
+      <c r="E47" s="154"/>
       <c r="F47" s="104"/>
       <c r="G47" s="119">
         <v>32</v>
@@ -4989,7 +4992,7 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="214"/>
+      <c r="N47" s="213"/>
       <c r="O47" s="119" t="s">
         <v>122</v>
       </c>
@@ -5007,12 +5010,12 @@
       <c r="AB47" s="104"/>
     </row>
     <row r="48" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B48" s="161" t="s">
+      <c r="B48" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="215"/>
-      <c r="D48" s="156"/>
-      <c r="E48" s="157"/>
+      <c r="C48" s="214"/>
+      <c r="D48" s="155"/>
+      <c r="E48" s="156"/>
       <c r="F48" s="104"/>
       <c r="G48" s="119">
         <v>33</v>
@@ -5023,7 +5026,7 @@
       <c r="K48" s="36"/>
       <c r="L48" s="36"/>
       <c r="M48" s="36"/>
-      <c r="N48" s="214"/>
+      <c r="N48" s="213"/>
       <c r="O48" s="119" t="s">
         <v>122</v>
       </c>
@@ -5041,14 +5044,14 @@
       <c r="AB48" s="104"/>
     </row>
     <row r="49" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B49" s="247" t="s">
+      <c r="B49" s="400" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="249" t="s">
+      <c r="C49" s="402" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="250"/>
-      <c r="E49" s="251"/>
+      <c r="D49" s="403"/>
+      <c r="E49" s="404"/>
       <c r="F49" s="35"/>
       <c r="G49" s="119">
         <v>34</v>
@@ -5059,7 +5062,7 @@
       <c r="K49" s="36"/>
       <c r="L49" s="36"/>
       <c r="M49" s="36"/>
-      <c r="N49" s="214"/>
+      <c r="N49" s="213"/>
       <c r="O49" s="119" t="s">
         <v>122</v>
       </c>
@@ -5077,14 +5080,14 @@
       <c r="AB49" s="35"/>
     </row>
     <row r="50" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B50" s="248"/>
-      <c r="C50" s="219" t="s">
+      <c r="B50" s="401"/>
+      <c r="C50" s="218" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="148" t="s">
+      <c r="D50" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="164" t="s">
+      <c r="E50" s="163" t="s">
         <v>26</v>
       </c>
       <c r="F50" s="35"/>
@@ -5097,7 +5100,7 @@
       <c r="K50" s="36"/>
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
-      <c r="N50" s="214"/>
+      <c r="N50" s="213"/>
       <c r="O50" s="119" t="s">
         <v>122</v>
       </c>
@@ -5115,12 +5118,12 @@
       <c r="AB50" s="35"/>
     </row>
     <row r="51" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B51" s="159" t="s">
+      <c r="B51" s="158" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="160"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="162"/>
+      <c r="C51" s="159"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="161"/>
       <c r="F51" s="35"/>
       <c r="G51" s="119">
         <v>36</v>
@@ -5131,7 +5134,7 @@
       <c r="K51" s="36"/>
       <c r="L51" s="36"/>
       <c r="M51" s="36"/>
-      <c r="N51" s="214"/>
+      <c r="N51" s="213"/>
       <c r="O51" s="119" t="s">
         <v>122</v>
       </c>
@@ -5149,12 +5152,12 @@
       <c r="AB51" s="35"/>
     </row>
     <row r="52" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B52" s="161" t="s">
+      <c r="B52" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="215"/>
-      <c r="D52" s="156"/>
-      <c r="E52" s="163"/>
+      <c r="C52" s="214"/>
+      <c r="D52" s="155"/>
+      <c r="E52" s="162"/>
       <c r="F52" s="35"/>
       <c r="G52" s="119">
         <v>37</v>
@@ -5165,7 +5168,7 @@
       <c r="K52" s="36"/>
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
-      <c r="N52" s="214"/>
+      <c r="N52" s="213"/>
       <c r="O52" s="119" t="s">
         <v>122</v>
       </c>
@@ -5183,10 +5186,10 @@
       <c r="AB52" s="35"/>
     </row>
     <row r="53" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B53" s="241"/>
-      <c r="C53" s="197"/>
-      <c r="D53" s="197"/>
-      <c r="E53" s="158"/>
+      <c r="B53" s="240"/>
+      <c r="C53" s="196"/>
+      <c r="D53" s="196"/>
+      <c r="E53" s="157"/>
       <c r="F53" s="35"/>
       <c r="G53" s="119">
         <v>38</v>
@@ -5197,7 +5200,7 @@
       <c r="K53" s="36"/>
       <c r="L53" s="36"/>
       <c r="M53" s="36"/>
-      <c r="N53" s="239"/>
+      <c r="N53" s="238"/>
       <c r="O53" s="119" t="s">
         <v>122</v>
       </c>
@@ -5215,12 +5218,12 @@
       <c r="AB53" s="35"/>
     </row>
     <row r="54" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B54" s="261" t="s">
+      <c r="B54" s="332" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="262"/>
-      <c r="D54" s="273"/>
-      <c r="E54" s="274"/>
+      <c r="C54" s="413"/>
+      <c r="D54" s="380"/>
+      <c r="E54" s="381"/>
       <c r="F54" s="35"/>
       <c r="G54" s="119">
         <v>39</v>
@@ -5231,7 +5234,7 @@
       <c r="K54" s="36"/>
       <c r="L54" s="36"/>
       <c r="M54" s="36"/>
-      <c r="N54" s="239"/>
+      <c r="N54" s="238"/>
       <c r="O54" s="119" t="s">
         <v>122</v>
       </c>
@@ -5249,12 +5252,12 @@
       <c r="AB54" s="35"/>
     </row>
     <row r="55" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B55" s="259" t="s">
+      <c r="B55" s="411" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="260"/>
-      <c r="D55" s="275"/>
-      <c r="E55" s="276"/>
+      <c r="C55" s="412"/>
+      <c r="D55" s="382"/>
+      <c r="E55" s="383"/>
       <c r="F55" s="35"/>
       <c r="G55" s="119">
         <v>40</v>
@@ -5265,7 +5268,7 @@
       <c r="K55" s="36"/>
       <c r="L55" s="36"/>
       <c r="M55" s="36"/>
-      <c r="N55" s="239"/>
+      <c r="N55" s="238"/>
       <c r="O55" s="119" t="s">
         <v>122</v>
       </c>
@@ -5283,12 +5286,12 @@
       <c r="AB55" s="35"/>
     </row>
     <row r="56" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B56" s="271" t="s">
+      <c r="B56" s="334" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="272"/>
-      <c r="D56" s="281"/>
-      <c r="E56" s="288"/>
+      <c r="C56" s="414"/>
+      <c r="D56" s="388"/>
+      <c r="E56" s="395"/>
       <c r="F56" s="35"/>
       <c r="G56" s="119">
         <v>41</v>
@@ -5299,7 +5302,7 @@
       <c r="K56" s="36"/>
       <c r="L56" s="36"/>
       <c r="M56" s="36"/>
-      <c r="N56" s="239"/>
+      <c r="N56" s="238"/>
       <c r="O56" s="119" t="s">
         <v>122</v>
       </c>
@@ -5317,10 +5320,10 @@
       <c r="AB56" s="35"/>
     </row>
     <row r="57" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B57" s="241"/>
-      <c r="C57" s="197"/>
-      <c r="D57" s="197"/>
-      <c r="E57" s="158"/>
+      <c r="B57" s="240"/>
+      <c r="C57" s="196"/>
+      <c r="D57" s="196"/>
+      <c r="E57" s="157"/>
       <c r="F57" s="35"/>
       <c r="G57" s="119">
         <v>42</v>
@@ -5331,7 +5334,7 @@
       <c r="K57" s="36"/>
       <c r="L57" s="36"/>
       <c r="M57" s="36"/>
-      <c r="N57" s="239"/>
+      <c r="N57" s="238"/>
       <c r="O57" s="119" t="s">
         <v>122</v>
       </c>
@@ -5349,12 +5352,12 @@
       <c r="AB57" s="35"/>
     </row>
     <row r="58" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B58" s="285" t="s">
+      <c r="B58" s="392" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="286"/>
-      <c r="D58" s="286"/>
-      <c r="E58" s="287"/>
+      <c r="C58" s="393"/>
+      <c r="D58" s="393"/>
+      <c r="E58" s="394"/>
       <c r="F58" s="35"/>
       <c r="G58" s="119">
         <v>43</v>
@@ -5365,7 +5368,7 @@
       <c r="K58" s="36"/>
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
-      <c r="N58" s="239"/>
+      <c r="N58" s="238"/>
       <c r="O58" s="119" t="s">
         <v>122</v>
       </c>
@@ -5383,14 +5386,14 @@
       <c r="AB58" s="35"/>
     </row>
     <row r="59" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B59" s="165" t="s">
+      <c r="B59" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="283" t="s">
+      <c r="C59" s="390" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="284"/>
-      <c r="E59" s="166" t="s">
+      <c r="D59" s="391"/>
+      <c r="E59" s="165" t="s">
         <v>133</v>
       </c>
       <c r="F59" s="35"/>
@@ -5403,7 +5406,7 @@
       <c r="K59" s="36"/>
       <c r="L59" s="36"/>
       <c r="M59" s="36"/>
-      <c r="N59" s="239"/>
+      <c r="N59" s="238"/>
       <c r="O59" s="119" t="s">
         <v>122</v>
       </c>
@@ -5421,12 +5424,12 @@
       <c r="AB59" s="35"/>
     </row>
     <row r="60" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B60" s="167">
+      <c r="B60" s="166">
         <v>1</v>
       </c>
-      <c r="C60" s="279"/>
-      <c r="D60" s="280"/>
-      <c r="E60" s="168"/>
+      <c r="C60" s="386"/>
+      <c r="D60" s="387"/>
+      <c r="E60" s="167"/>
       <c r="F60" s="35"/>
       <c r="G60" s="119">
         <v>45</v>
@@ -5437,7 +5440,7 @@
       <c r="K60" s="36"/>
       <c r="L60" s="36"/>
       <c r="M60" s="36"/>
-      <c r="N60" s="239"/>
+      <c r="N60" s="238"/>
       <c r="O60" s="119" t="s">
         <v>122</v>
       </c>
@@ -5455,12 +5458,12 @@
       <c r="AB60" s="35"/>
     </row>
     <row r="61" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B61" s="167">
+      <c r="B61" s="166">
         <v>2</v>
       </c>
-      <c r="C61" s="279"/>
-      <c r="D61" s="280"/>
-      <c r="E61" s="168"/>
+      <c r="C61" s="386"/>
+      <c r="D61" s="387"/>
+      <c r="E61" s="167"/>
       <c r="F61" s="35"/>
       <c r="G61" s="119">
         <v>46</v>
@@ -5471,7 +5474,7 @@
       <c r="K61" s="36"/>
       <c r="L61" s="36"/>
       <c r="M61" s="36"/>
-      <c r="N61" s="239"/>
+      <c r="N61" s="238"/>
       <c r="O61" s="119" t="s">
         <v>122</v>
       </c>
@@ -5489,12 +5492,12 @@
       <c r="AB61" s="35"/>
     </row>
     <row r="62" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B62" s="167">
+      <c r="B62" s="166">
         <v>3</v>
       </c>
-      <c r="C62" s="279"/>
-      <c r="D62" s="280"/>
-      <c r="E62" s="168"/>
+      <c r="C62" s="386"/>
+      <c r="D62" s="387"/>
+      <c r="E62" s="167"/>
       <c r="F62" s="35"/>
       <c r="G62" s="119">
         <v>47</v>
@@ -5505,7 +5508,7 @@
       <c r="K62" s="36"/>
       <c r="L62" s="36"/>
       <c r="M62" s="36"/>
-      <c r="N62" s="239"/>
+      <c r="N62" s="238"/>
       <c r="O62" s="119" t="s">
         <v>122</v>
       </c>
@@ -5523,12 +5526,12 @@
       <c r="AB62" s="35"/>
     </row>
     <row r="63" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B63" s="167">
+      <c r="B63" s="166">
         <v>4</v>
       </c>
-      <c r="C63" s="279"/>
-      <c r="D63" s="280"/>
-      <c r="E63" s="168"/>
+      <c r="C63" s="386"/>
+      <c r="D63" s="387"/>
+      <c r="E63" s="167"/>
       <c r="F63" s="35"/>
       <c r="G63" s="119">
         <v>48</v>
@@ -5539,7 +5542,7 @@
       <c r="K63" s="36"/>
       <c r="L63" s="36"/>
       <c r="M63" s="36"/>
-      <c r="N63" s="214"/>
+      <c r="N63" s="213"/>
       <c r="O63" s="119" t="s">
         <v>122</v>
       </c>
@@ -5557,13 +5560,13 @@
       <c r="AB63" s="35"/>
     </row>
     <row r="64" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B64" s="167">
+      <c r="B64" s="166">
         <v>5</v>
       </c>
-      <c r="C64" s="279"/>
-      <c r="D64" s="280"/>
-      <c r="E64" s="168"/>
-      <c r="F64" s="221"/>
+      <c r="C64" s="386"/>
+      <c r="D64" s="387"/>
+      <c r="E64" s="167"/>
+      <c r="F64" s="220"/>
       <c r="G64" s="119">
         <v>49</v>
       </c>
@@ -5573,7 +5576,7 @@
       <c r="K64" s="36"/>
       <c r="L64" s="36"/>
       <c r="M64" s="36"/>
-      <c r="N64" s="214"/>
+      <c r="N64" s="213"/>
       <c r="O64" s="119" t="s">
         <v>122</v>
       </c>
@@ -5591,13 +5594,13 @@
       <c r="AB64" s="35"/>
     </row>
     <row r="65" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B65" s="167">
+      <c r="B65" s="166">
         <v>6</v>
       </c>
-      <c r="C65" s="279"/>
-      <c r="D65" s="280"/>
-      <c r="E65" s="168"/>
-      <c r="F65" s="221"/>
+      <c r="C65" s="386"/>
+      <c r="D65" s="387"/>
+      <c r="E65" s="167"/>
+      <c r="F65" s="220"/>
       <c r="G65" s="119">
         <v>50</v>
       </c>
@@ -5607,8 +5610,8 @@
       <c r="K65" s="29"/>
       <c r="L65" s="29"/>
       <c r="M65" s="29"/>
-      <c r="N65" s="213"/>
-      <c r="O65" s="209" t="s">
+      <c r="N65" s="212"/>
+      <c r="O65" s="208" t="s">
         <v>122</v>
       </c>
       <c r="P65" s="47"/>
@@ -5625,14 +5628,14 @@
       <c r="AB65" s="35"/>
     </row>
     <row r="66" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B66" s="240">
+      <c r="B66" s="239">
         <v>7</v>
       </c>
-      <c r="C66" s="281"/>
-      <c r="D66" s="282"/>
-      <c r="E66" s="242"/>
-      <c r="F66" s="221"/>
-      <c r="G66" s="220" t="s">
+      <c r="C66" s="388"/>
+      <c r="D66" s="389"/>
+      <c r="E66" s="241"/>
+      <c r="F66" s="220"/>
+      <c r="G66" s="219" t="s">
         <v>85</v>
       </c>
       <c r="H66" s="50"/>
@@ -5641,8 +5644,8 @@
       <c r="K66" s="50"/>
       <c r="L66" s="50"/>
       <c r="M66" s="50"/>
-      <c r="N66" s="208"/>
-      <c r="O66" s="210"/>
+      <c r="N66" s="207"/>
+      <c r="O66" s="209"/>
       <c r="P66" s="50" t="str">
         <f t="shared" ref="P66:U66" si="0">IF(SUM(P16:P65)=0,"",SUM(P16:P65))</f>
         <v/>
@@ -5694,7 +5697,7 @@
       <c r="R67" s="35"/>
       <c r="S67" s="35"/>
       <c r="T67" s="35"/>
-      <c r="U67" s="201"/>
+      <c r="U67" s="200"/>
       <c r="W67" s="35"/>
       <c r="X67" s="35"/>
       <c r="Y67" s="35"/>
@@ -5706,33 +5709,33 @@
       <c r="B68" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="277"/>
-      <c r="D68" s="277"/>
-      <c r="E68" s="278"/>
-      <c r="F68" s="258"/>
-      <c r="G68" s="253" t="s">
+      <c r="C68" s="384"/>
+      <c r="D68" s="384"/>
+      <c r="E68" s="385"/>
+      <c r="F68" s="410"/>
+      <c r="G68" s="406" t="s">
         <v>142</v>
       </c>
-      <c r="H68" s="254"/>
-      <c r="I68" s="254"/>
-      <c r="J68" s="254"/>
-      <c r="K68" s="255"/>
-      <c r="M68" s="234" t="s">
+      <c r="H68" s="407"/>
+      <c r="I68" s="407"/>
+      <c r="J68" s="407"/>
+      <c r="K68" s="408"/>
+      <c r="M68" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="N68" s="237" t="s">
+      <c r="N68" s="236" t="s">
         <v>150</v>
       </c>
-      <c r="O68" s="354" t="s">
+      <c r="O68" s="315" t="s">
         <v>144</v>
       </c>
-      <c r="P68" s="355"/>
-      <c r="R68" s="358" t="s">
+      <c r="P68" s="316"/>
+      <c r="R68" s="319" t="s">
         <v>151</v>
       </c>
-      <c r="S68" s="359"/>
-      <c r="T68" s="359"/>
-      <c r="U68" s="360"/>
+      <c r="S68" s="320"/>
+      <c r="T68" s="320"/>
+      <c r="U68" s="321"/>
       <c r="W68" s="35"/>
       <c r="X68" s="35"/>
       <c r="Y68" s="35"/>
@@ -5745,28 +5748,28 @@
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="30"/>
-      <c r="F69" s="258"/>
-      <c r="G69" s="243" t="s">
+      <c r="F69" s="410"/>
+      <c r="G69" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="H69" s="257" t="s">
+      <c r="H69" s="409" t="s">
         <v>134</v>
       </c>
-      <c r="I69" s="257"/>
-      <c r="J69" s="257"/>
-      <c r="K69" s="244" t="s">
+      <c r="I69" s="409"/>
+      <c r="J69" s="409"/>
+      <c r="K69" s="243" t="s">
         <v>133</v>
       </c>
-      <c r="M69" s="235">
+      <c r="M69" s="234">
         <v>1</v>
       </c>
-      <c r="N69" s="236"/>
-      <c r="O69" s="356"/>
-      <c r="P69" s="357"/>
-      <c r="R69" s="361"/>
-      <c r="S69" s="304"/>
-      <c r="T69" s="304"/>
-      <c r="U69" s="362"/>
+      <c r="N69" s="235"/>
+      <c r="O69" s="317"/>
+      <c r="P69" s="318"/>
+      <c r="R69" s="322"/>
+      <c r="S69" s="323"/>
+      <c r="T69" s="323"/>
+      <c r="U69" s="324"/>
       <c r="W69" s="35"/>
       <c r="X69" s="35"/>
       <c r="Y69" s="35"/>
@@ -5780,23 +5783,23 @@
       <c r="D70" s="35"/>
       <c r="E70" s="30"/>
       <c r="F70" s="35"/>
-      <c r="G70" s="167">
+      <c r="G70" s="166">
         <v>1</v>
       </c>
-      <c r="H70" s="256"/>
-      <c r="I70" s="256"/>
-      <c r="J70" s="256"/>
-      <c r="K70" s="168"/>
+      <c r="H70" s="282"/>
+      <c r="I70" s="282"/>
+      <c r="J70" s="282"/>
+      <c r="K70" s="167"/>
       <c r="M70" s="52">
         <v>2</v>
       </c>
-      <c r="N70" s="204"/>
-      <c r="O70" s="245"/>
-      <c r="P70" s="246"/>
-      <c r="R70" s="361"/>
-      <c r="S70" s="304"/>
-      <c r="T70" s="304"/>
-      <c r="U70" s="362"/>
+      <c r="N70" s="203"/>
+      <c r="O70" s="328"/>
+      <c r="P70" s="329"/>
+      <c r="R70" s="322"/>
+      <c r="S70" s="323"/>
+      <c r="T70" s="323"/>
+      <c r="U70" s="324"/>
       <c r="W70" s="35"/>
       <c r="X70" s="35"/>
       <c r="Y70" s="35"/>
@@ -5810,23 +5813,23 @@
       <c r="D71" s="35"/>
       <c r="E71" s="30"/>
       <c r="F71" s="35"/>
-      <c r="G71" s="167">
+      <c r="G71" s="166">
         <v>2</v>
       </c>
-      <c r="H71" s="256"/>
-      <c r="I71" s="256"/>
-      <c r="J71" s="256"/>
-      <c r="K71" s="168"/>
+      <c r="H71" s="282"/>
+      <c r="I71" s="282"/>
+      <c r="J71" s="282"/>
+      <c r="K71" s="167"/>
       <c r="M71" s="52">
         <v>3</v>
       </c>
-      <c r="N71" s="204"/>
-      <c r="O71" s="245"/>
-      <c r="P71" s="246"/>
-      <c r="R71" s="361"/>
-      <c r="S71" s="304"/>
-      <c r="T71" s="304"/>
-      <c r="U71" s="362"/>
+      <c r="N71" s="203"/>
+      <c r="O71" s="328"/>
+      <c r="P71" s="329"/>
+      <c r="R71" s="322"/>
+      <c r="S71" s="323"/>
+      <c r="T71" s="323"/>
+      <c r="U71" s="324"/>
       <c r="W71" s="35"/>
       <c r="X71" s="35"/>
       <c r="Y71" s="35"/>
@@ -5840,23 +5843,23 @@
       <c r="D72" s="35"/>
       <c r="E72" s="30"/>
       <c r="F72" s="35"/>
-      <c r="G72" s="167">
+      <c r="G72" s="166">
         <v>3</v>
       </c>
-      <c r="H72" s="256"/>
-      <c r="I72" s="256"/>
-      <c r="J72" s="256"/>
-      <c r="K72" s="168"/>
+      <c r="H72" s="282"/>
+      <c r="I72" s="282"/>
+      <c r="J72" s="282"/>
+      <c r="K72" s="167"/>
       <c r="M72" s="52">
         <v>4</v>
       </c>
-      <c r="N72" s="204"/>
-      <c r="O72" s="245"/>
-      <c r="P72" s="246"/>
-      <c r="R72" s="361"/>
-      <c r="S72" s="304"/>
-      <c r="T72" s="304"/>
-      <c r="U72" s="362"/>
+      <c r="N72" s="203"/>
+      <c r="O72" s="328"/>
+      <c r="P72" s="329"/>
+      <c r="R72" s="322"/>
+      <c r="S72" s="323"/>
+      <c r="T72" s="323"/>
+      <c r="U72" s="324"/>
       <c r="W72" s="35"/>
       <c r="X72" s="35"/>
       <c r="Y72" s="35"/>
@@ -5870,23 +5873,23 @@
       <c r="D73" s="35"/>
       <c r="E73" s="30"/>
       <c r="F73" s="35"/>
-      <c r="G73" s="167">
+      <c r="G73" s="166">
         <v>4</v>
       </c>
-      <c r="H73" s="256"/>
-      <c r="I73" s="256"/>
-      <c r="J73" s="256"/>
-      <c r="K73" s="168"/>
+      <c r="H73" s="282"/>
+      <c r="I73" s="282"/>
+      <c r="J73" s="282"/>
+      <c r="K73" s="167"/>
       <c r="M73" s="52">
         <v>5</v>
       </c>
-      <c r="N73" s="204"/>
-      <c r="O73" s="245"/>
-      <c r="P73" s="246"/>
-      <c r="R73" s="361"/>
-      <c r="S73" s="304"/>
-      <c r="T73" s="304"/>
-      <c r="U73" s="362"/>
+      <c r="N73" s="203"/>
+      <c r="O73" s="328"/>
+      <c r="P73" s="329"/>
+      <c r="R73" s="322"/>
+      <c r="S73" s="323"/>
+      <c r="T73" s="323"/>
+      <c r="U73" s="324"/>
       <c r="W73" s="35"/>
       <c r="X73" s="35"/>
       <c r="Y73" s="35"/>
@@ -5900,23 +5903,23 @@
       <c r="D74" s="35"/>
       <c r="E74" s="30"/>
       <c r="F74" s="35"/>
-      <c r="G74" s="167">
+      <c r="G74" s="166">
         <v>5</v>
       </c>
-      <c r="H74" s="256"/>
-      <c r="I74" s="256"/>
-      <c r="J74" s="256"/>
-      <c r="K74" s="168"/>
+      <c r="H74" s="282"/>
+      <c r="I74" s="282"/>
+      <c r="J74" s="282"/>
+      <c r="K74" s="167"/>
       <c r="M74" s="52">
         <v>6</v>
       </c>
-      <c r="N74" s="204"/>
-      <c r="O74" s="245"/>
-      <c r="P74" s="246"/>
-      <c r="R74" s="361"/>
-      <c r="S74" s="304"/>
-      <c r="T74" s="304"/>
-      <c r="U74" s="362"/>
+      <c r="N74" s="203"/>
+      <c r="O74" s="328"/>
+      <c r="P74" s="329"/>
+      <c r="R74" s="322"/>
+      <c r="S74" s="323"/>
+      <c r="T74" s="323"/>
+      <c r="U74" s="324"/>
       <c r="W74" s="35"/>
       <c r="X74" s="35"/>
       <c r="Y74" s="35"/>
@@ -5930,91 +5933,91 @@
       <c r="D75" s="35"/>
       <c r="E75" s="30"/>
       <c r="F75" s="35"/>
-      <c r="G75" s="167">
+      <c r="G75" s="166">
         <v>6</v>
       </c>
-      <c r="H75" s="256"/>
-      <c r="I75" s="256"/>
-      <c r="J75" s="256"/>
-      <c r="K75" s="168"/>
+      <c r="H75" s="282"/>
+      <c r="I75" s="282"/>
+      <c r="J75" s="282"/>
+      <c r="K75" s="167"/>
       <c r="M75" s="52">
         <v>7</v>
       </c>
-      <c r="N75" s="204"/>
-      <c r="O75" s="245"/>
-      <c r="P75" s="246"/>
-      <c r="R75" s="361"/>
-      <c r="S75" s="304"/>
-      <c r="T75" s="304"/>
-      <c r="U75" s="362"/>
+      <c r="N75" s="203"/>
+      <c r="O75" s="328"/>
+      <c r="P75" s="329"/>
+      <c r="R75" s="322"/>
+      <c r="S75" s="323"/>
+      <c r="T75" s="323"/>
+      <c r="U75" s="324"/>
     </row>
     <row r="76" spans="2:28" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B76" s="191"/>
-      <c r="C76" s="192"/>
-      <c r="D76" s="192"/>
-      <c r="E76" s="193"/>
-      <c r="F76" s="192"/>
-      <c r="G76" s="240">
+      <c r="B76" s="190"/>
+      <c r="C76" s="191"/>
+      <c r="D76" s="191"/>
+      <c r="E76" s="192"/>
+      <c r="F76" s="191"/>
+      <c r="G76" s="239">
         <v>7</v>
       </c>
-      <c r="H76" s="252"/>
-      <c r="I76" s="252"/>
-      <c r="J76" s="252"/>
-      <c r="K76" s="242"/>
+      <c r="H76" s="405"/>
+      <c r="I76" s="405"/>
+      <c r="J76" s="405"/>
+      <c r="K76" s="241"/>
       <c r="M76" s="53">
         <v>8</v>
       </c>
-      <c r="N76" s="205"/>
-      <c r="O76" s="366"/>
-      <c r="P76" s="367"/>
-      <c r="R76" s="363"/>
-      <c r="S76" s="364"/>
-      <c r="T76" s="364"/>
-      <c r="U76" s="365"/>
+      <c r="N76" s="204"/>
+      <c r="O76" s="330"/>
+      <c r="P76" s="331"/>
+      <c r="R76" s="325"/>
+      <c r="S76" s="326"/>
+      <c r="T76" s="326"/>
+      <c r="U76" s="327"/>
     </row>
     <row r="77" spans="2:28" ht="21.95" customHeight="1">
-      <c r="B77" s="202"/>
-      <c r="C77" s="202"/>
-      <c r="D77" s="202"/>
-      <c r="E77" s="202"/>
-      <c r="F77" s="202"/>
-      <c r="G77" s="203"/>
-      <c r="H77" s="203"/>
-      <c r="I77" s="203"/>
-      <c r="J77" s="203"/>
-      <c r="K77" s="203"/>
-      <c r="L77" s="202"/>
-      <c r="M77" s="202"/>
-      <c r="N77" s="202"/>
-      <c r="O77" s="203"/>
-      <c r="P77" s="203"/>
-      <c r="Q77" s="203"/>
-      <c r="R77" s="203"/>
-      <c r="S77" s="203"/>
-      <c r="T77" s="203"/>
-      <c r="U77" s="203"/>
+      <c r="B77" s="201"/>
+      <c r="C77" s="201"/>
+      <c r="D77" s="201"/>
+      <c r="E77" s="201"/>
+      <c r="F77" s="201"/>
+      <c r="G77" s="202"/>
+      <c r="H77" s="202"/>
+      <c r="I77" s="202"/>
+      <c r="J77" s="202"/>
+      <c r="K77" s="202"/>
+      <c r="L77" s="201"/>
+      <c r="M77" s="201"/>
+      <c r="N77" s="201"/>
+      <c r="O77" s="202"/>
+      <c r="P77" s="202"/>
+      <c r="Q77" s="202"/>
+      <c r="R77" s="202"/>
+      <c r="S77" s="202"/>
+      <c r="T77" s="202"/>
+      <c r="U77" s="202"/>
     </row>
     <row r="78" spans="2:28" ht="30" customHeight="1">
-      <c r="B78" s="203"/>
-      <c r="C78" s="203"/>
-      <c r="D78" s="203"/>
-      <c r="E78" s="203"/>
-      <c r="F78" s="203"/>
-      <c r="G78" s="203"/>
-      <c r="H78" s="203"/>
-      <c r="I78" s="203"/>
-      <c r="J78" s="203"/>
-      <c r="K78" s="203"/>
-      <c r="L78" s="203"/>
-      <c r="M78" s="203"/>
-      <c r="N78" s="203"/>
-      <c r="O78" s="203"/>
-      <c r="P78" s="203"/>
-      <c r="Q78" s="203"/>
-      <c r="R78" s="203"/>
-      <c r="S78" s="203"/>
-      <c r="T78" s="203"/>
-      <c r="U78" s="203"/>
+      <c r="B78" s="202"/>
+      <c r="C78" s="202"/>
+      <c r="D78" s="202"/>
+      <c r="E78" s="202"/>
+      <c r="F78" s="202"/>
+      <c r="G78" s="202"/>
+      <c r="H78" s="202"/>
+      <c r="I78" s="202"/>
+      <c r="J78" s="202"/>
+      <c r="K78" s="202"/>
+      <c r="L78" s="202"/>
+      <c r="M78" s="202"/>
+      <c r="N78" s="202"/>
+      <c r="O78" s="202"/>
+      <c r="P78" s="202"/>
+      <c r="Q78" s="202"/>
+      <c r="R78" s="202"/>
+      <c r="S78" s="202"/>
+      <c r="T78" s="202"/>
+      <c r="U78" s="202"/>
     </row>
     <row r="79" spans="2:28" ht="30" customHeight="1">
       <c r="B79" s="113"/>
@@ -8048,23 +8051,73 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="K9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="G68:K68"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="Z21:AA22"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="R8:R10"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="Q14:U14"/>
     <mergeCell ref="S8:U10"/>
     <mergeCell ref="S12:U13"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:M4"/>
     <mergeCell ref="H70:J70"/>
     <mergeCell ref="S7:U7"/>
     <mergeCell ref="Q7:R7"/>
@@ -8081,69 +8134,19 @@
     <mergeCell ref="R68:U76"/>
     <mergeCell ref="O75:P75"/>
     <mergeCell ref="O76:P76"/>
-    <mergeCell ref="Z21:AA22"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="G68:K68"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="K9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8166,7 +8169,7 @@
   <dimension ref="B1:K48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -8176,42 +8179,42 @@
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="227" customWidth="1"/>
-    <col min="7" max="7" width="10" style="230" customWidth="1"/>
-    <col min="8" max="8" width="9" style="225" customWidth="1"/>
+    <col min="6" max="6" width="10" style="226" customWidth="1"/>
+    <col min="7" max="7" width="10" style="229" customWidth="1"/>
+    <col min="8" max="8" width="9" style="224" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="F1" s="226"/>
-      <c r="G1" s="229">
+      <c r="F1" s="225"/>
+      <c r="G1" s="228">
         <v>12.34</v>
       </c>
-      <c r="H1" s="228">
+      <c r="H1" s="227">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="2:11">
-      <c r="F2" s="226"/>
-      <c r="G2" s="229">
+      <c r="F2" s="225"/>
+      <c r="G2" s="228">
         <v>7.28</v>
       </c>
-      <c r="H2" s="228">
+      <c r="H2" s="227">
         <v>90</v>
       </c>
-      <c r="J2" s="231"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="F3" s="226"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="228">
+      <c r="F3" s="225"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="227">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="18" customHeight="1" thickBot="1">
-      <c r="F4" s="226"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="228">
+      <c r="F4" s="225"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="227">
         <v>90</v>
       </c>
     </row>
@@ -8228,9 +8231,9 @@
       <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="226"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="228">
+      <c r="F5" s="225"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="227">
         <v>90</v>
       </c>
     </row>
@@ -8241,9 +8244,9 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="228">
+      <c r="F6" s="225"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="227">
         <v>90</v>
       </c>
     </row>
@@ -8254,9 +8257,9 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="226"/>
-      <c r="G7" s="229"/>
-      <c r="H7" s="228">
+      <c r="F7" s="225"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="227">
         <v>90</v>
       </c>
     </row>
@@ -8267,9 +8270,9 @@
       <c r="C8" s="9"/>
       <c r="D8" s="21"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="226"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="228">
+      <c r="F8" s="225"/>
+      <c r="G8" s="228"/>
+      <c r="H8" s="227">
         <v>90</v>
       </c>
     </row>
@@ -8280,9 +8283,9 @@
       <c r="C9" s="9"/>
       <c r="D9" s="11"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="226"/>
-      <c r="G9" s="229"/>
-      <c r="H9" s="228">
+      <c r="F9" s="225"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="227">
         <v>90</v>
       </c>
     </row>
@@ -8295,9 +8298,9 @@
       <c r="E10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="226"/>
-      <c r="G10" s="229"/>
-      <c r="H10" s="228">
+      <c r="F10" s="225"/>
+      <c r="G10" s="228"/>
+      <c r="H10" s="227">
         <v>90</v>
       </c>
     </row>
@@ -8310,9 +8313,9 @@
       <c r="E11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="226"/>
-      <c r="G11" s="229"/>
-      <c r="H11" s="228">
+      <c r="F11" s="225"/>
+      <c r="G11" s="228"/>
+      <c r="H11" s="227">
         <v>90</v>
       </c>
       <c r="I11" s="12" t="str">
@@ -8333,9 +8336,9 @@
       <c r="E12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="226"/>
-      <c r="G12" s="229"/>
-      <c r="H12" s="228">
+      <c r="F12" s="225"/>
+      <c r="G12" s="228"/>
+      <c r="H12" s="227">
         <v>90</v>
       </c>
       <c r="I12" s="13" t="str">
@@ -8356,11 +8359,11 @@
       <c r="E13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="226"/>
-      <c r="G13" s="229">
+      <c r="F13" s="225"/>
+      <c r="G13" s="228">
         <v>4.66</v>
       </c>
-      <c r="H13" s="228">
+      <c r="H13" s="227">
         <v>90</v>
       </c>
       <c r="I13" s="12" t="str">
@@ -8375,11 +8378,11 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="226"/>
-      <c r="G14" s="229">
+      <c r="F14" s="225"/>
+      <c r="G14" s="228">
         <v>4.4400000000000004</v>
       </c>
-      <c r="H14" s="228">
+      <c r="H14" s="227">
         <v>70</v>
       </c>
       <c r="I14" s="12">
@@ -8394,9 +8397,9 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="226"/>
-      <c r="G15" s="229"/>
-      <c r="H15" s="228">
+      <c r="F15" s="225"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="227">
         <v>70</v>
       </c>
     </row>
@@ -8407,9 +8410,9 @@
       <c r="C16" s="9"/>
       <c r="D16" s="14"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="226"/>
-      <c r="G16" s="229"/>
-      <c r="H16" s="228">
+      <c r="F16" s="225"/>
+      <c r="G16" s="228"/>
+      <c r="H16" s="227">
         <v>70</v>
       </c>
     </row>
@@ -8420,9 +8423,9 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="226"/>
-      <c r="G17" s="229"/>
-      <c r="H17" s="228">
+      <c r="F17" s="225"/>
+      <c r="G17" s="228"/>
+      <c r="H17" s="227">
         <v>70</v>
       </c>
     </row>
@@ -8433,9 +8436,9 @@
       <c r="C18" s="9"/>
       <c r="D18" s="21"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="226"/>
-      <c r="G18" s="229"/>
-      <c r="H18" s="228">
+      <c r="F18" s="225"/>
+      <c r="G18" s="228"/>
+      <c r="H18" s="227">
         <v>70</v>
       </c>
     </row>
@@ -8448,9 +8451,9 @@
       <c r="E19" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="226"/>
-      <c r="G19" s="229"/>
-      <c r="H19" s="228">
+      <c r="F19" s="225"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="227">
         <v>70</v>
       </c>
     </row>
@@ -8463,9 +8466,9 @@
       <c r="E20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="226"/>
-      <c r="G20" s="229"/>
-      <c r="H20" s="228">
+      <c r="F20" s="225"/>
+      <c r="G20" s="228"/>
+      <c r="H20" s="227">
         <v>70</v>
       </c>
     </row>
@@ -8478,9 +8481,9 @@
       <c r="E21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="226"/>
-      <c r="G21" s="229"/>
-      <c r="H21" s="228">
+      <c r="F21" s="225"/>
+      <c r="G21" s="228"/>
+      <c r="H21" s="227">
         <v>70</v>
       </c>
     </row>
@@ -8493,9 +8496,9 @@
       <c r="E22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="226"/>
-      <c r="G22" s="229"/>
-      <c r="H22" s="228">
+      <c r="F22" s="225"/>
+      <c r="G22" s="228"/>
+      <c r="H22" s="227">
         <v>70</v>
       </c>
     </row>
@@ -8508,9 +8511,9 @@
       <c r="E23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="226"/>
-      <c r="G23" s="229"/>
-      <c r="H23" s="228">
+      <c r="F23" s="225"/>
+      <c r="G23" s="228"/>
+      <c r="H23" s="227">
         <v>70</v>
       </c>
     </row>
@@ -8523,9 +8526,9 @@
       <c r="E24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="226"/>
-      <c r="G24" s="229"/>
-      <c r="H24" s="228">
+      <c r="F24" s="225"/>
+      <c r="G24" s="228"/>
+      <c r="H24" s="227">
         <v>70</v>
       </c>
     </row>
@@ -8538,9 +8541,9 @@
       <c r="E25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="226"/>
-      <c r="G25" s="229"/>
-      <c r="H25" s="228">
+      <c r="F25" s="225"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="227">
         <v>70</v>
       </c>
     </row>
@@ -8553,9 +8556,9 @@
       <c r="E26" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="226"/>
-      <c r="G26" s="229"/>
-      <c r="H26" s="228">
+      <c r="F26" s="225"/>
+      <c r="G26" s="228"/>
+      <c r="H26" s="227">
         <v>70</v>
       </c>
     </row>
@@ -8568,9 +8571,9 @@
       <c r="E27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="226"/>
-      <c r="G27" s="229"/>
-      <c r="H27" s="228">
+      <c r="F27" s="225"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="227">
         <v>70</v>
       </c>
     </row>
@@ -8583,9 +8586,9 @@
       <c r="E28" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="226"/>
-      <c r="G28" s="229"/>
-      <c r="H28" s="228">
+      <c r="F28" s="225"/>
+      <c r="G28" s="228"/>
+      <c r="H28" s="227">
         <v>70</v>
       </c>
     </row>
@@ -8594,13 +8597,13 @@
         <v>69</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="23"/>
+      <c r="D29" s="245"/>
       <c r="E29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="226"/>
-      <c r="G29" s="229"/>
-      <c r="H29" s="228">
+      <c r="F29" s="225"/>
+      <c r="G29" s="228"/>
+      <c r="H29" s="227">
         <v>70</v>
       </c>
     </row>
@@ -8611,9 +8614,9 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="229"/>
-      <c r="H30" s="228">
+      <c r="F30" s="225"/>
+      <c r="G30" s="228"/>
+      <c r="H30" s="227">
         <v>70</v>
       </c>
     </row>
@@ -8626,11 +8629,11 @@
       <c r="E31" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="226"/>
-      <c r="G31" s="229">
+      <c r="F31" s="225"/>
+      <c r="G31" s="228">
         <v>2.95</v>
       </c>
-      <c r="H31" s="228">
+      <c r="H31" s="227">
         <v>70</v>
       </c>
     </row>
@@ -8641,11 +8644,11 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="226"/>
-      <c r="G32" s="229">
+      <c r="F32" s="225"/>
+      <c r="G32" s="228">
         <v>2.64</v>
       </c>
-      <c r="H32" s="228">
+      <c r="H32" s="227">
         <v>50</v>
       </c>
     </row>
@@ -8656,9 +8659,9 @@
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="226"/>
-      <c r="G33" s="229"/>
-      <c r="H33" s="228">
+      <c r="F33" s="225"/>
+      <c r="G33" s="228"/>
+      <c r="H33" s="227">
         <v>50</v>
       </c>
     </row>
@@ -8669,9 +8672,9 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="226"/>
-      <c r="G34" s="229"/>
-      <c r="H34" s="228">
+      <c r="F34" s="225"/>
+      <c r="G34" s="228"/>
+      <c r="H34" s="227">
         <v>50</v>
       </c>
     </row>
@@ -8684,9 +8687,9 @@
       <c r="E35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="226"/>
-      <c r="G35" s="229"/>
-      <c r="H35" s="228">
+      <c r="F35" s="225"/>
+      <c r="G35" s="228"/>
+      <c r="H35" s="227">
         <v>50</v>
       </c>
     </row>
@@ -8697,9 +8700,9 @@
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="226"/>
-      <c r="G36" s="229"/>
-      <c r="H36" s="228">
+      <c r="F36" s="225"/>
+      <c r="G36" s="228"/>
+      <c r="H36" s="227">
         <v>50</v>
       </c>
     </row>
@@ -8710,92 +8713,92 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="226"/>
-      <c r="G37" s="229"/>
-      <c r="H37" s="228">
+      <c r="F37" s="225"/>
+      <c r="G37" s="228"/>
+      <c r="H37" s="227">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="F38" s="226"/>
-      <c r="G38" s="229"/>
-      <c r="H38" s="228">
+      <c r="F38" s="225"/>
+      <c r="G38" s="228"/>
+      <c r="H38" s="227">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="F39" s="226"/>
-      <c r="G39" s="229"/>
-      <c r="H39" s="228">
+      <c r="F39" s="225"/>
+      <c r="G39" s="228"/>
+      <c r="H39" s="227">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="F40" s="226"/>
-      <c r="G40" s="229">
+      <c r="F40" s="225"/>
+      <c r="G40" s="228">
         <v>1.5</v>
       </c>
-      <c r="H40" s="228">
+      <c r="H40" s="227">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="F41" s="226"/>
-      <c r="G41" s="229">
+      <c r="F41" s="225"/>
+      <c r="G41" s="228">
         <v>1.4</v>
       </c>
-      <c r="H41" s="228">
+      <c r="H41" s="227">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="F42" s="226"/>
-      <c r="G42" s="229"/>
-      <c r="H42" s="228">
+      <c r="F42" s="225"/>
+      <c r="G42" s="228"/>
+      <c r="H42" s="227">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="F43" s="226"/>
-      <c r="G43" s="229"/>
-      <c r="H43" s="228">
+      <c r="F43" s="225"/>
+      <c r="G43" s="228"/>
+      <c r="H43" s="227">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="F44" s="226"/>
-      <c r="G44" s="229"/>
-      <c r="H44" s="228">
+      <c r="F44" s="225"/>
+      <c r="G44" s="228"/>
+      <c r="H44" s="227">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="F45" s="226"/>
-      <c r="G45" s="229"/>
-      <c r="H45" s="228">
+      <c r="F45" s="225"/>
+      <c r="G45" s="228"/>
+      <c r="H45" s="227">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="F46" s="226"/>
-      <c r="G46" s="229"/>
-      <c r="H46" s="228">
+      <c r="F46" s="225"/>
+      <c r="G46" s="228"/>
+      <c r="H46" s="227">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="F47" s="226"/>
-      <c r="G47" s="229"/>
-      <c r="H47" s="228">
+      <c r="F47" s="225"/>
+      <c r="G47" s="228"/>
+      <c r="H47" s="227">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="F48" s="226"/>
-      <c r="G48" s="229">
+      <c r="F48" s="225"/>
+      <c r="G48" s="228">
         <v>0.44</v>
       </c>
-      <c r="H48" s="228">
+      <c r="H48" s="227">
         <v>40</v>
       </c>
     </row>

--- a/py/direction_sheet.xlsx
+++ b/py/direction_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diereport\ex0.11\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7E0F6B-ACD4-475A-81D4-07553854BD37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95219B5F-0362-4275-9934-CCA88C422B01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,8 +527,8 @@
     <numFmt numFmtId="182" formatCode="0.0&quot; mm&quot;"/>
     <numFmt numFmtId="183" formatCode="#&quot; mm&quot;"/>
     <numFmt numFmtId="184" formatCode="#.0&quot;m&quot;"/>
-    <numFmt numFmtId="185" formatCode="#&quot; đoạn&quot;"/>
-    <numFmt numFmtId="186" formatCode="0.00&quot;%&quot;"/>
+    <numFmt numFmtId="185" formatCode="0.00&quot;%&quot;"/>
+    <numFmt numFmtId="186" formatCode="#&quot;đoạn&quot;"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2503,7 +2503,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="26" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="26" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2545,15 +2545,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="9" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="9" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="9" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2996,6 +2987,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3447,28 +3447,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B1" s="264" t="s">
+      <c r="B1" s="261" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
-      <c r="N1" s="266"/>
-      <c r="O1" s="265"/>
-      <c r="P1" s="265"/>
-      <c r="Q1" s="265"/>
-      <c r="R1" s="265"/>
-      <c r="S1" s="265"/>
-      <c r="T1" s="265"/>
-      <c r="U1" s="267"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="263"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="262"/>
+      <c r="S1" s="262"/>
+      <c r="T1" s="262"/>
+      <c r="U1" s="264"/>
     </row>
     <row r="2" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B2" s="232" t="s">
@@ -3485,26 +3485,26 @@
         <f>input!D8</f>
         <v>0</v>
       </c>
-      <c r="F2" s="268"/>
-      <c r="G2" s="269"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="266"/>
       <c r="H2" s="220"/>
       <c r="I2" s="124"/>
       <c r="J2" s="220"/>
       <c r="K2" s="125"/>
-      <c r="L2" s="269"/>
-      <c r="M2" s="270"/>
+      <c r="L2" s="266"/>
+      <c r="M2" s="267"/>
       <c r="N2" s="126"/>
-      <c r="O2" s="332" t="s">
+      <c r="O2" s="329" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="333"/>
-      <c r="Q2" s="332" t="s">
+      <c r="P2" s="330"/>
+      <c r="Q2" s="329" t="s">
         <v>123</v>
       </c>
-      <c r="R2" s="336"/>
-      <c r="S2" s="336"/>
-      <c r="T2" s="336"/>
-      <c r="U2" s="333"/>
+      <c r="R2" s="333"/>
+      <c r="S2" s="333"/>
+      <c r="T2" s="333"/>
+      <c r="U2" s="330"/>
     </row>
     <row r="3" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B3" s="217" t="s">
@@ -3521,24 +3521,24 @@
         <f>input!D9</f>
         <v>0</v>
       </c>
-      <c r="F3" s="268"/>
-      <c r="G3" s="269"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="266"/>
       <c r="H3" s="220"/>
       <c r="I3" s="125"/>
       <c r="J3" s="220"/>
       <c r="K3" s="35"/>
-      <c r="L3" s="269"/>
-      <c r="M3" s="270"/>
+      <c r="L3" s="266"/>
+      <c r="M3" s="267"/>
       <c r="N3" s="126"/>
-      <c r="O3" s="334" t="s">
+      <c r="O3" s="331" t="s">
         <v>128</v>
       </c>
-      <c r="P3" s="335"/>
-      <c r="Q3" s="334"/>
-      <c r="R3" s="337"/>
-      <c r="S3" s="337"/>
-      <c r="T3" s="337"/>
-      <c r="U3" s="335"/>
+      <c r="P3" s="332"/>
+      <c r="Q3" s="331"/>
+      <c r="R3" s="334"/>
+      <c r="S3" s="334"/>
+      <c r="T3" s="334"/>
+      <c r="U3" s="332"/>
     </row>
     <row r="4" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B4" s="25"/>
@@ -3546,17 +3546,17 @@
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="193"/>
-      <c r="G4" s="279" t="s">
+      <c r="G4" s="276" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="280"/>
-      <c r="I4" s="280"/>
-      <c r="J4" s="281"/>
-      <c r="K4" s="279" t="s">
+      <c r="H4" s="277"/>
+      <c r="I4" s="277"/>
+      <c r="J4" s="278"/>
+      <c r="K4" s="276" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="280"/>
-      <c r="M4" s="281"/>
+      <c r="L4" s="277"/>
+      <c r="M4" s="278"/>
       <c r="N4" s="128"/>
       <c r="O4" s="183" t="s">
         <v>81</v>
@@ -3564,24 +3564,24 @@
       <c r="P4" s="184" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="332" t="s">
+      <c r="Q4" s="329" t="s">
         <v>124</v>
       </c>
-      <c r="R4" s="336"/>
-      <c r="S4" s="336"/>
-      <c r="T4" s="336"/>
-      <c r="U4" s="333"/>
+      <c r="R4" s="333"/>
+      <c r="S4" s="333"/>
+      <c r="T4" s="333"/>
+      <c r="U4" s="330"/>
     </row>
     <row r="5" spans="2:31" ht="28.5" customHeight="1">
-      <c r="B5" s="271" t="s">
+      <c r="B5" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="273">
+      <c r="C5" s="270">
         <f>input!D6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="274"/>
-      <c r="E5" s="275"/>
+      <c r="D5" s="271"/>
+      <c r="E5" s="272"/>
       <c r="F5" s="121"/>
       <c r="G5" s="130" t="s">
         <v>2</v>
@@ -3602,23 +3602,23 @@
       <c r="L5" s="176" t="s">
         <v>100</v>
       </c>
-      <c r="M5" s="292" t="s">
+      <c r="M5" s="289" t="s">
         <v>130</v>
       </c>
       <c r="N5" s="121"/>
-      <c r="O5" s="288"/>
-      <c r="P5" s="290"/>
-      <c r="Q5" s="296"/>
-      <c r="R5" s="297"/>
-      <c r="S5" s="297"/>
-      <c r="T5" s="297"/>
-      <c r="U5" s="298"/>
+      <c r="O5" s="285"/>
+      <c r="P5" s="287"/>
+      <c r="Q5" s="293"/>
+      <c r="R5" s="294"/>
+      <c r="S5" s="294"/>
+      <c r="T5" s="294"/>
+      <c r="U5" s="295"/>
     </row>
     <row r="6" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B6" s="272"/>
-      <c r="C6" s="276"/>
-      <c r="D6" s="277"/>
-      <c r="E6" s="278"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="273"/>
+      <c r="D6" s="274"/>
+      <c r="E6" s="275"/>
       <c r="F6" s="121"/>
       <c r="G6" s="170">
         <v>6061</v>
@@ -3640,15 +3640,15 @@
         <f>ROUND(input!D14,2)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="293"/>
+      <c r="M6" s="290"/>
       <c r="N6" s="122"/>
-      <c r="O6" s="289"/>
-      <c r="P6" s="291"/>
-      <c r="Q6" s="299"/>
-      <c r="R6" s="300"/>
-      <c r="S6" s="300"/>
-      <c r="T6" s="300"/>
-      <c r="U6" s="301"/>
+      <c r="O6" s="286"/>
+      <c r="P6" s="288"/>
+      <c r="Q6" s="296"/>
+      <c r="R6" s="297"/>
+      <c r="S6" s="297"/>
+      <c r="T6" s="297"/>
+      <c r="U6" s="298"/>
     </row>
     <row r="7" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
       <c r="B7" s="247" t="s">
@@ -3680,24 +3680,24 @@
       <c r="L7" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="M7" s="294">
+      <c r="M7" s="291">
         <f>input!K11</f>
         <v>0</v>
       </c>
       <c r="N7" s="123"/>
-      <c r="O7" s="309" t="s">
+      <c r="O7" s="306" t="s">
         <v>145</v>
       </c>
-      <c r="P7" s="310"/>
-      <c r="Q7" s="286" t="s">
+      <c r="P7" s="307"/>
+      <c r="Q7" s="283" t="s">
         <v>127</v>
       </c>
-      <c r="R7" s="287"/>
-      <c r="S7" s="283" t="s">
+      <c r="R7" s="284"/>
+      <c r="S7" s="280" t="s">
         <v>139</v>
       </c>
-      <c r="T7" s="284"/>
-      <c r="U7" s="285"/>
+      <c r="T7" s="281"/>
+      <c r="U7" s="282"/>
     </row>
     <row r="8" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B8" s="248"/>
@@ -3722,19 +3722,19 @@
         <f>input!D15</f>
         <v>0</v>
       </c>
-      <c r="M8" s="295"/>
+      <c r="M8" s="292"/>
       <c r="N8" s="123"/>
-      <c r="O8" s="311"/>
-      <c r="P8" s="312"/>
-      <c r="Q8" s="302" t="s">
+      <c r="O8" s="308"/>
+      <c r="P8" s="309"/>
+      <c r="Q8" s="299" t="s">
         <v>126</v>
       </c>
-      <c r="R8" s="349" t="s">
+      <c r="R8" s="346" t="s">
         <v>146</v>
       </c>
-      <c r="S8" s="352"/>
-      <c r="T8" s="354"/>
-      <c r="U8" s="356"/>
+      <c r="S8" s="349"/>
+      <c r="T8" s="351"/>
+      <c r="U8" s="353"/>
     </row>
     <row r="9" spans="2:31" ht="6" customHeight="1">
       <c r="B9" s="25"/>
@@ -3750,18 +3750,18 @@
         <v>152</v>
       </c>
       <c r="L9" s="256"/>
-      <c r="M9" s="261">
-        <f>input!D37</f>
-        <v>0</v>
+      <c r="M9" s="412" t="str">
+        <f>input!D36&amp;"-"&amp;input!D37</f>
+        <v>-</v>
       </c>
       <c r="N9" s="30"/>
-      <c r="O9" s="311"/>
-      <c r="P9" s="312"/>
-      <c r="Q9" s="303"/>
-      <c r="R9" s="350"/>
-      <c r="S9" s="357"/>
-      <c r="T9" s="355"/>
-      <c r="U9" s="353"/>
+      <c r="O9" s="308"/>
+      <c r="P9" s="309"/>
+      <c r="Q9" s="300"/>
+      <c r="R9" s="347"/>
+      <c r="S9" s="354"/>
+      <c r="T9" s="352"/>
+      <c r="U9" s="350"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" thickBot="1">
       <c r="B10" s="31"/>
@@ -3775,68 +3775,68 @@
       <c r="J10" s="194"/>
       <c r="K10" s="257"/>
       <c r="L10" s="258"/>
-      <c r="M10" s="262"/>
+      <c r="M10" s="413"/>
       <c r="N10" s="30"/>
-      <c r="O10" s="313"/>
-      <c r="P10" s="314"/>
-      <c r="Q10" s="304"/>
-      <c r="R10" s="351"/>
-      <c r="S10" s="358"/>
-      <c r="T10" s="359"/>
-      <c r="U10" s="360"/>
+      <c r="O10" s="310"/>
+      <c r="P10" s="311"/>
+      <c r="Q10" s="301"/>
+      <c r="R10" s="348"/>
+      <c r="S10" s="355"/>
+      <c r="T10" s="356"/>
+      <c r="U10" s="357"/>
     </row>
     <row r="11" spans="2:31" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B11" s="271" t="s">
+      <c r="B11" s="268" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="371" t="str">
+      <c r="C11" s="368" t="str">
         <f>IF(C13=0,"","DR"&amp;MID(C13,2,4))</f>
         <v/>
       </c>
-      <c r="D11" s="371"/>
-      <c r="E11" s="372"/>
+      <c r="D11" s="368"/>
+      <c r="E11" s="369"/>
       <c r="F11" s="35"/>
       <c r="J11" s="101"/>
       <c r="K11" s="259"/>
       <c r="L11" s="260"/>
-      <c r="M11" s="263"/>
+      <c r="M11" s="414"/>
       <c r="N11" s="30"/>
-      <c r="O11" s="305"/>
-      <c r="P11" s="306"/>
-      <c r="Q11" s="343"/>
-      <c r="R11" s="346"/>
-      <c r="S11" s="340" t="s">
+      <c r="O11" s="302"/>
+      <c r="P11" s="303"/>
+      <c r="Q11" s="340"/>
+      <c r="R11" s="343"/>
+      <c r="S11" s="337" t="s">
         <v>83</v>
       </c>
-      <c r="T11" s="341"/>
-      <c r="U11" s="342"/>
+      <c r="T11" s="338"/>
+      <c r="U11" s="339"/>
     </row>
     <row r="12" spans="2:31" ht="26.25" customHeight="1">
-      <c r="B12" s="272"/>
-      <c r="C12" s="373"/>
-      <c r="D12" s="373"/>
-      <c r="E12" s="374"/>
+      <c r="B12" s="269"/>
+      <c r="C12" s="370"/>
+      <c r="D12" s="370"/>
+      <c r="E12" s="371"/>
       <c r="F12" s="25"/>
       <c r="J12" s="101"/>
       <c r="N12" s="30"/>
-      <c r="O12" s="307"/>
-      <c r="P12" s="308"/>
-      <c r="Q12" s="344"/>
-      <c r="R12" s="347"/>
-      <c r="S12" s="361"/>
-      <c r="T12" s="362"/>
-      <c r="U12" s="363"/>
+      <c r="O12" s="304"/>
+      <c r="P12" s="305"/>
+      <c r="Q12" s="341"/>
+      <c r="R12" s="344"/>
+      <c r="S12" s="358"/>
+      <c r="T12" s="359"/>
+      <c r="U12" s="360"/>
     </row>
     <row r="13" spans="2:31" ht="26.25" customHeight="1" thickBot="1">
       <c r="B13" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="373">
+      <c r="C13" s="370">
         <f>input!D32</f>
         <v>0</v>
       </c>
-      <c r="D13" s="373"/>
-      <c r="E13" s="374"/>
+      <c r="D13" s="370"/>
+      <c r="E13" s="371"/>
       <c r="F13" s="25"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
@@ -3846,19 +3846,19 @@
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
       <c r="N13" s="30"/>
-      <c r="O13" s="299"/>
-      <c r="P13" s="301"/>
-      <c r="Q13" s="345"/>
-      <c r="R13" s="348"/>
-      <c r="S13" s="364"/>
-      <c r="T13" s="365"/>
-      <c r="U13" s="366"/>
+      <c r="O13" s="296"/>
+      <c r="P13" s="298"/>
+      <c r="Q13" s="342"/>
+      <c r="R13" s="345"/>
+      <c r="S13" s="361"/>
+      <c r="T13" s="362"/>
+      <c r="U13" s="363"/>
     </row>
     <row r="14" spans="2:31" ht="27" customHeight="1" thickBot="1">
-      <c r="B14" s="364"/>
-      <c r="C14" s="375"/>
-      <c r="D14" s="375"/>
-      <c r="E14" s="376"/>
+      <c r="B14" s="361"/>
+      <c r="C14" s="372"/>
+      <c r="D14" s="372"/>
+      <c r="E14" s="373"/>
       <c r="F14" s="35"/>
       <c r="G14" s="120" t="s">
         <v>6</v>
@@ -3870,17 +3870,17 @@
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
       <c r="N14" s="30"/>
-      <c r="O14" s="352" t="s">
+      <c r="O14" s="349" t="s">
         <v>80</v>
       </c>
-      <c r="P14" s="353"/>
-      <c r="Q14" s="352" t="s">
+      <c r="P14" s="350"/>
+      <c r="Q14" s="349" t="s">
         <v>147</v>
       </c>
-      <c r="R14" s="354"/>
-      <c r="S14" s="355"/>
-      <c r="T14" s="355"/>
-      <c r="U14" s="353"/>
+      <c r="R14" s="351"/>
+      <c r="S14" s="352"/>
+      <c r="T14" s="352"/>
+      <c r="U14" s="350"/>
     </row>
     <row r="15" spans="2:31" ht="52.5" customHeight="1" thickBot="1">
       <c r="B15" s="195" t="s">
@@ -3937,12 +3937,12 @@
       </c>
     </row>
     <row r="16" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B16" s="377" t="s">
+      <c r="B16" s="374" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="378"/>
-      <c r="D16" s="379"/>
-      <c r="E16" s="342"/>
+      <c r="C16" s="375"/>
+      <c r="D16" s="376"/>
+      <c r="E16" s="339"/>
       <c r="F16" s="35"/>
       <c r="G16" s="119">
         <v>1</v>
@@ -3980,10 +3980,10 @@
       <c r="C17" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="369" t="s">
+      <c r="D17" s="366" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="370"/>
+      <c r="E17" s="367"/>
       <c r="F17" s="35"/>
       <c r="G17" s="119">
         <v>2</v>
@@ -4017,8 +4017,8 @@
     <row r="18" spans="2:31" ht="35.1" customHeight="1">
       <c r="B18" s="114"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="367"/>
-      <c r="E18" s="368"/>
+      <c r="D18" s="364"/>
+      <c r="E18" s="365"/>
       <c r="F18" s="35"/>
       <c r="G18" s="119">
         <v>3</v>
@@ -4052,8 +4052,8 @@
     <row r="19" spans="2:31" ht="35.1" customHeight="1">
       <c r="B19" s="114"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="367"/>
-      <c r="E19" s="368"/>
+      <c r="D19" s="364"/>
+      <c r="E19" s="365"/>
       <c r="F19" s="35"/>
       <c r="G19" s="119">
         <v>4</v>
@@ -4079,10 +4079,10 @@
       <c r="T19" s="37"/>
       <c r="U19" s="38"/>
       <c r="W19" s="39"/>
-      <c r="X19" s="338"/>
-      <c r="Y19" s="270"/>
-      <c r="Z19" s="270"/>
-      <c r="AA19" s="270"/>
+      <c r="X19" s="335"/>
+      <c r="Y19" s="267"/>
+      <c r="Z19" s="267"/>
+      <c r="AA19" s="267"/>
       <c r="AB19" s="35"/>
       <c r="AC19" s="35"/>
       <c r="AD19" s="35"/>
@@ -4091,8 +4091,8 @@
     <row r="20" spans="2:31" ht="35.1" customHeight="1">
       <c r="B20" s="114"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="367"/>
-      <c r="E20" s="368"/>
+      <c r="D20" s="364"/>
+      <c r="E20" s="365"/>
       <c r="F20" s="35"/>
       <c r="G20" s="119">
         <v>5</v>
@@ -4116,8 +4116,8 @@
       <c r="W20" s="35"/>
       <c r="X20" s="116"/>
       <c r="Y20" s="34"/>
-      <c r="Z20" s="339"/>
-      <c r="AA20" s="270"/>
+      <c r="Z20" s="336"/>
+      <c r="AA20" s="267"/>
       <c r="AB20" s="35"/>
       <c r="AC20" s="35"/>
       <c r="AD20" s="35"/>
@@ -4126,8 +4126,8 @@
     <row r="21" spans="2:31" ht="35.1" customHeight="1">
       <c r="B21" s="114"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="367"/>
-      <c r="E21" s="368"/>
+      <c r="D21" s="364"/>
+      <c r="E21" s="365"/>
       <c r="F21" s="35"/>
       <c r="G21" s="119">
         <v>6</v>
@@ -4152,8 +4152,8 @@
       <c r="W21" s="35"/>
       <c r="X21" s="116"/>
       <c r="Y21" s="117"/>
-      <c r="Z21" s="323"/>
-      <c r="AA21" s="270"/>
+      <c r="Z21" s="320"/>
+      <c r="AA21" s="267"/>
       <c r="AB21" s="35"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="35"/>
@@ -4162,8 +4162,8 @@
     <row r="22" spans="2:31" ht="35.1" customHeight="1">
       <c r="B22" s="114"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="367"/>
-      <c r="E22" s="368"/>
+      <c r="D22" s="364"/>
+      <c r="E22" s="365"/>
       <c r="F22" s="35"/>
       <c r="G22" s="119">
         <v>7</v>
@@ -4188,8 +4188,8 @@
       <c r="W22" s="35"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="35"/>
-      <c r="Z22" s="270"/>
-      <c r="AA22" s="270"/>
+      <c r="Z22" s="267"/>
+      <c r="AA22" s="267"/>
       <c r="AB22" s="35"/>
       <c r="AC22" s="35"/>
       <c r="AD22" s="35"/>
@@ -4198,8 +4198,8 @@
     <row r="23" spans="2:31" ht="35.1" customHeight="1">
       <c r="B23" s="114"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="367"/>
-      <c r="E23" s="368"/>
+      <c r="D23" s="364"/>
+      <c r="E23" s="365"/>
       <c r="F23" s="35"/>
       <c r="G23" s="119">
         <v>8</v>
@@ -4234,8 +4234,8 @@
     <row r="24" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
       <c r="B24" s="115"/>
       <c r="C24" s="29"/>
-      <c r="D24" s="398"/>
-      <c r="E24" s="399"/>
+      <c r="D24" s="395"/>
+      <c r="E24" s="396"/>
       <c r="F24" s="35"/>
       <c r="G24" s="119">
         <v>9</v>
@@ -4298,14 +4298,14 @@
       <c r="W25" s="40"/>
     </row>
     <row r="26" spans="2:31" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B26" s="340" t="s">
+      <c r="B26" s="337" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="342"/>
-      <c r="D26" s="340" t="s">
+      <c r="C26" s="339"/>
+      <c r="D26" s="337" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="342"/>
+      <c r="E26" s="339"/>
       <c r="F26" s="35"/>
       <c r="G26" s="119">
         <v>11</v>
@@ -4744,10 +4744,10 @@
       <c r="U38" s="38"/>
     </row>
     <row r="39" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B39" s="396" t="s">
+      <c r="B39" s="393" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="397"/>
+      <c r="C39" s="394"/>
       <c r="D39" s="150"/>
       <c r="E39" s="112"/>
       <c r="F39" s="104"/>
@@ -4914,14 +4914,14 @@
       <c r="U44" s="38"/>
     </row>
     <row r="45" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B45" s="400" t="s">
+      <c r="B45" s="397" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="402" t="s">
+      <c r="C45" s="399" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="403"/>
-      <c r="E45" s="404"/>
+      <c r="D45" s="400"/>
+      <c r="E45" s="401"/>
       <c r="F45" s="104"/>
       <c r="G45" s="119">
         <v>30</v>
@@ -4944,7 +4944,7 @@
       <c r="U45" s="38"/>
     </row>
     <row r="46" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B46" s="401"/>
+      <c r="B46" s="398"/>
       <c r="C46" s="218" t="s">
         <v>95</v>
       </c>
@@ -5044,14 +5044,14 @@
       <c r="AB48" s="104"/>
     </row>
     <row r="49" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B49" s="400" t="s">
+      <c r="B49" s="397" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="402" t="s">
+      <c r="C49" s="399" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="403"/>
-      <c r="E49" s="404"/>
+      <c r="D49" s="400"/>
+      <c r="E49" s="401"/>
       <c r="F49" s="35"/>
       <c r="G49" s="119">
         <v>34</v>
@@ -5080,7 +5080,7 @@
       <c r="AB49" s="35"/>
     </row>
     <row r="50" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B50" s="401"/>
+      <c r="B50" s="398"/>
       <c r="C50" s="218" t="s">
         <v>95</v>
       </c>
@@ -5218,12 +5218,12 @@
       <c r="AB53" s="35"/>
     </row>
     <row r="54" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B54" s="332" t="s">
+      <c r="B54" s="329" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="413"/>
-      <c r="D54" s="380"/>
-      <c r="E54" s="381"/>
+      <c r="C54" s="410"/>
+      <c r="D54" s="377"/>
+      <c r="E54" s="378"/>
       <c r="F54" s="35"/>
       <c r="G54" s="119">
         <v>39</v>
@@ -5252,12 +5252,12 @@
       <c r="AB54" s="35"/>
     </row>
     <row r="55" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B55" s="411" t="s">
+      <c r="B55" s="408" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="412"/>
-      <c r="D55" s="382"/>
-      <c r="E55" s="383"/>
+      <c r="C55" s="409"/>
+      <c r="D55" s="379"/>
+      <c r="E55" s="380"/>
       <c r="F55" s="35"/>
       <c r="G55" s="119">
         <v>40</v>
@@ -5286,12 +5286,12 @@
       <c r="AB55" s="35"/>
     </row>
     <row r="56" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B56" s="334" t="s">
+      <c r="B56" s="331" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="414"/>
-      <c r="D56" s="388"/>
-      <c r="E56" s="395"/>
+      <c r="C56" s="411"/>
+      <c r="D56" s="385"/>
+      <c r="E56" s="392"/>
       <c r="F56" s="35"/>
       <c r="G56" s="119">
         <v>41</v>
@@ -5352,12 +5352,12 @@
       <c r="AB57" s="35"/>
     </row>
     <row r="58" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B58" s="392" t="s">
+      <c r="B58" s="389" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="393"/>
-      <c r="D58" s="393"/>
-      <c r="E58" s="394"/>
+      <c r="C58" s="390"/>
+      <c r="D58" s="390"/>
+      <c r="E58" s="391"/>
       <c r="F58" s="35"/>
       <c r="G58" s="119">
         <v>43</v>
@@ -5389,10 +5389,10 @@
       <c r="B59" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="390" t="s">
+      <c r="C59" s="387" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="391"/>
+      <c r="D59" s="388"/>
       <c r="E59" s="165" t="s">
         <v>133</v>
       </c>
@@ -5427,8 +5427,8 @@
       <c r="B60" s="166">
         <v>1</v>
       </c>
-      <c r="C60" s="386"/>
-      <c r="D60" s="387"/>
+      <c r="C60" s="383"/>
+      <c r="D60" s="384"/>
       <c r="E60" s="167"/>
       <c r="F60" s="35"/>
       <c r="G60" s="119">
@@ -5461,8 +5461,8 @@
       <c r="B61" s="166">
         <v>2</v>
       </c>
-      <c r="C61" s="386"/>
-      <c r="D61" s="387"/>
+      <c r="C61" s="383"/>
+      <c r="D61" s="384"/>
       <c r="E61" s="167"/>
       <c r="F61" s="35"/>
       <c r="G61" s="119">
@@ -5495,8 +5495,8 @@
       <c r="B62" s="166">
         <v>3</v>
       </c>
-      <c r="C62" s="386"/>
-      <c r="D62" s="387"/>
+      <c r="C62" s="383"/>
+      <c r="D62" s="384"/>
       <c r="E62" s="167"/>
       <c r="F62" s="35"/>
       <c r="G62" s="119">
@@ -5529,8 +5529,8 @@
       <c r="B63" s="166">
         <v>4</v>
       </c>
-      <c r="C63" s="386"/>
-      <c r="D63" s="387"/>
+      <c r="C63" s="383"/>
+      <c r="D63" s="384"/>
       <c r="E63" s="167"/>
       <c r="F63" s="35"/>
       <c r="G63" s="119">
@@ -5563,8 +5563,8 @@
       <c r="B64" s="166">
         <v>5</v>
       </c>
-      <c r="C64" s="386"/>
-      <c r="D64" s="387"/>
+      <c r="C64" s="383"/>
+      <c r="D64" s="384"/>
       <c r="E64" s="167"/>
       <c r="F64" s="220"/>
       <c r="G64" s="119">
@@ -5597,8 +5597,8 @@
       <c r="B65" s="166">
         <v>6</v>
       </c>
-      <c r="C65" s="386"/>
-      <c r="D65" s="387"/>
+      <c r="C65" s="383"/>
+      <c r="D65" s="384"/>
       <c r="E65" s="167"/>
       <c r="F65" s="220"/>
       <c r="G65" s="119">
@@ -5631,8 +5631,8 @@
       <c r="B66" s="239">
         <v>7</v>
       </c>
-      <c r="C66" s="388"/>
-      <c r="D66" s="389"/>
+      <c r="C66" s="385"/>
+      <c r="D66" s="386"/>
       <c r="E66" s="241"/>
       <c r="F66" s="220"/>
       <c r="G66" s="219" t="s">
@@ -5709,33 +5709,33 @@
       <c r="B68" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="384"/>
-      <c r="D68" s="384"/>
-      <c r="E68" s="385"/>
-      <c r="F68" s="410"/>
-      <c r="G68" s="406" t="s">
+      <c r="C68" s="381"/>
+      <c r="D68" s="381"/>
+      <c r="E68" s="382"/>
+      <c r="F68" s="407"/>
+      <c r="G68" s="403" t="s">
         <v>142</v>
       </c>
-      <c r="H68" s="407"/>
-      <c r="I68" s="407"/>
-      <c r="J68" s="407"/>
-      <c r="K68" s="408"/>
+      <c r="H68" s="404"/>
+      <c r="I68" s="404"/>
+      <c r="J68" s="404"/>
+      <c r="K68" s="405"/>
       <c r="M68" s="233" t="s">
         <v>8</v>
       </c>
       <c r="N68" s="236" t="s">
         <v>150</v>
       </c>
-      <c r="O68" s="315" t="s">
+      <c r="O68" s="312" t="s">
         <v>144</v>
       </c>
-      <c r="P68" s="316"/>
-      <c r="R68" s="319" t="s">
+      <c r="P68" s="313"/>
+      <c r="R68" s="316" t="s">
         <v>151</v>
       </c>
-      <c r="S68" s="320"/>
-      <c r="T68" s="320"/>
-      <c r="U68" s="321"/>
+      <c r="S68" s="317"/>
+      <c r="T68" s="317"/>
+      <c r="U68" s="318"/>
       <c r="W68" s="35"/>
       <c r="X68" s="35"/>
       <c r="Y68" s="35"/>
@@ -5748,15 +5748,15 @@
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="30"/>
-      <c r="F69" s="410"/>
+      <c r="F69" s="407"/>
       <c r="G69" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="H69" s="409" t="s">
+      <c r="H69" s="406" t="s">
         <v>134</v>
       </c>
-      <c r="I69" s="409"/>
-      <c r="J69" s="409"/>
+      <c r="I69" s="406"/>
+      <c r="J69" s="406"/>
       <c r="K69" s="243" t="s">
         <v>133</v>
       </c>
@@ -5764,12 +5764,12 @@
         <v>1</v>
       </c>
       <c r="N69" s="235"/>
-      <c r="O69" s="317"/>
-      <c r="P69" s="318"/>
-      <c r="R69" s="322"/>
-      <c r="S69" s="323"/>
-      <c r="T69" s="323"/>
-      <c r="U69" s="324"/>
+      <c r="O69" s="314"/>
+      <c r="P69" s="315"/>
+      <c r="R69" s="319"/>
+      <c r="S69" s="320"/>
+      <c r="T69" s="320"/>
+      <c r="U69" s="321"/>
       <c r="W69" s="35"/>
       <c r="X69" s="35"/>
       <c r="Y69" s="35"/>
@@ -5786,20 +5786,20 @@
       <c r="G70" s="166">
         <v>1</v>
       </c>
-      <c r="H70" s="282"/>
-      <c r="I70" s="282"/>
-      <c r="J70" s="282"/>
+      <c r="H70" s="279"/>
+      <c r="I70" s="279"/>
+      <c r="J70" s="279"/>
       <c r="K70" s="167"/>
       <c r="M70" s="52">
         <v>2</v>
       </c>
       <c r="N70" s="203"/>
-      <c r="O70" s="328"/>
-      <c r="P70" s="329"/>
-      <c r="R70" s="322"/>
-      <c r="S70" s="323"/>
-      <c r="T70" s="323"/>
-      <c r="U70" s="324"/>
+      <c r="O70" s="325"/>
+      <c r="P70" s="326"/>
+      <c r="R70" s="319"/>
+      <c r="S70" s="320"/>
+      <c r="T70" s="320"/>
+      <c r="U70" s="321"/>
       <c r="W70" s="35"/>
       <c r="X70" s="35"/>
       <c r="Y70" s="35"/>
@@ -5816,20 +5816,20 @@
       <c r="G71" s="166">
         <v>2</v>
       </c>
-      <c r="H71" s="282"/>
-      <c r="I71" s="282"/>
-      <c r="J71" s="282"/>
+      <c r="H71" s="279"/>
+      <c r="I71" s="279"/>
+      <c r="J71" s="279"/>
       <c r="K71" s="167"/>
       <c r="M71" s="52">
         <v>3</v>
       </c>
       <c r="N71" s="203"/>
-      <c r="O71" s="328"/>
-      <c r="P71" s="329"/>
-      <c r="R71" s="322"/>
-      <c r="S71" s="323"/>
-      <c r="T71" s="323"/>
-      <c r="U71" s="324"/>
+      <c r="O71" s="325"/>
+      <c r="P71" s="326"/>
+      <c r="R71" s="319"/>
+      <c r="S71" s="320"/>
+      <c r="T71" s="320"/>
+      <c r="U71" s="321"/>
       <c r="W71" s="35"/>
       <c r="X71" s="35"/>
       <c r="Y71" s="35"/>
@@ -5846,20 +5846,20 @@
       <c r="G72" s="166">
         <v>3</v>
       </c>
-      <c r="H72" s="282"/>
-      <c r="I72" s="282"/>
-      <c r="J72" s="282"/>
+      <c r="H72" s="279"/>
+      <c r="I72" s="279"/>
+      <c r="J72" s="279"/>
       <c r="K72" s="167"/>
       <c r="M72" s="52">
         <v>4</v>
       </c>
       <c r="N72" s="203"/>
-      <c r="O72" s="328"/>
-      <c r="P72" s="329"/>
-      <c r="R72" s="322"/>
-      <c r="S72" s="323"/>
-      <c r="T72" s="323"/>
-      <c r="U72" s="324"/>
+      <c r="O72" s="325"/>
+      <c r="P72" s="326"/>
+      <c r="R72" s="319"/>
+      <c r="S72" s="320"/>
+      <c r="T72" s="320"/>
+      <c r="U72" s="321"/>
       <c r="W72" s="35"/>
       <c r="X72" s="35"/>
       <c r="Y72" s="35"/>
@@ -5876,20 +5876,20 @@
       <c r="G73" s="166">
         <v>4</v>
       </c>
-      <c r="H73" s="282"/>
-      <c r="I73" s="282"/>
-      <c r="J73" s="282"/>
+      <c r="H73" s="279"/>
+      <c r="I73" s="279"/>
+      <c r="J73" s="279"/>
       <c r="K73" s="167"/>
       <c r="M73" s="52">
         <v>5</v>
       </c>
       <c r="N73" s="203"/>
-      <c r="O73" s="328"/>
-      <c r="P73" s="329"/>
-      <c r="R73" s="322"/>
-      <c r="S73" s="323"/>
-      <c r="T73" s="323"/>
-      <c r="U73" s="324"/>
+      <c r="O73" s="325"/>
+      <c r="P73" s="326"/>
+      <c r="R73" s="319"/>
+      <c r="S73" s="320"/>
+      <c r="T73" s="320"/>
+      <c r="U73" s="321"/>
       <c r="W73" s="35"/>
       <c r="X73" s="35"/>
       <c r="Y73" s="35"/>
@@ -5906,20 +5906,20 @@
       <c r="G74" s="166">
         <v>5</v>
       </c>
-      <c r="H74" s="282"/>
-      <c r="I74" s="282"/>
-      <c r="J74" s="282"/>
+      <c r="H74" s="279"/>
+      <c r="I74" s="279"/>
+      <c r="J74" s="279"/>
       <c r="K74" s="167"/>
       <c r="M74" s="52">
         <v>6</v>
       </c>
       <c r="N74" s="203"/>
-      <c r="O74" s="328"/>
-      <c r="P74" s="329"/>
-      <c r="R74" s="322"/>
-      <c r="S74" s="323"/>
-      <c r="T74" s="323"/>
-      <c r="U74" s="324"/>
+      <c r="O74" s="325"/>
+      <c r="P74" s="326"/>
+      <c r="R74" s="319"/>
+      <c r="S74" s="320"/>
+      <c r="T74" s="320"/>
+      <c r="U74" s="321"/>
       <c r="W74" s="35"/>
       <c r="X74" s="35"/>
       <c r="Y74" s="35"/>
@@ -5936,20 +5936,20 @@
       <c r="G75" s="166">
         <v>6</v>
       </c>
-      <c r="H75" s="282"/>
-      <c r="I75" s="282"/>
-      <c r="J75" s="282"/>
+      <c r="H75" s="279"/>
+      <c r="I75" s="279"/>
+      <c r="J75" s="279"/>
       <c r="K75" s="167"/>
       <c r="M75" s="52">
         <v>7</v>
       </c>
       <c r="N75" s="203"/>
-      <c r="O75" s="328"/>
-      <c r="P75" s="329"/>
-      <c r="R75" s="322"/>
-      <c r="S75" s="323"/>
-      <c r="T75" s="323"/>
-      <c r="U75" s="324"/>
+      <c r="O75" s="325"/>
+      <c r="P75" s="326"/>
+      <c r="R75" s="319"/>
+      <c r="S75" s="320"/>
+      <c r="T75" s="320"/>
+      <c r="U75" s="321"/>
     </row>
     <row r="76" spans="2:28" ht="28.5" customHeight="1" thickBot="1">
       <c r="B76" s="190"/>
@@ -5960,20 +5960,20 @@
       <c r="G76" s="239">
         <v>7</v>
       </c>
-      <c r="H76" s="405"/>
-      <c r="I76" s="405"/>
-      <c r="J76" s="405"/>
+      <c r="H76" s="402"/>
+      <c r="I76" s="402"/>
+      <c r="J76" s="402"/>
       <c r="K76" s="241"/>
       <c r="M76" s="53">
         <v>8</v>
       </c>
       <c r="N76" s="204"/>
-      <c r="O76" s="330"/>
-      <c r="P76" s="331"/>
-      <c r="R76" s="325"/>
-      <c r="S76" s="326"/>
-      <c r="T76" s="326"/>
-      <c r="U76" s="327"/>
+      <c r="O76" s="327"/>
+      <c r="P76" s="328"/>
+      <c r="R76" s="322"/>
+      <c r="S76" s="323"/>
+      <c r="T76" s="323"/>
+      <c r="U76" s="324"/>
     </row>
     <row r="77" spans="2:28" ht="21.95" customHeight="1">
       <c r="B77" s="201"/>
@@ -8169,7 +8169,7 @@
   <dimension ref="B1:K48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>

--- a/py/direction_sheet.xlsx
+++ b/py/direction_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diereport\ex0.11\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95219B5F-0362-4275-9934-CCA88C422B01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CDB0A8-1842-4FA0-B6CF-97638F84162E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="154">
   <si>
     <t>Loại sản xuất</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>Số lần cắt trung bình</t>
+  </si>
+  <si>
+    <t>Chiều dài sản phẩm thực tế</t>
   </si>
 </sst>
 </file>
@@ -774,7 +777,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="79">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -1778,6 +1781,28 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1789,7 +1814,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="415">
+  <cellXfs count="425">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2311,9 +2336,6 @@
     <xf numFmtId="174" fontId="25" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2506,386 +2528,86 @@
     <xf numFmtId="185" fontId="26" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2932,70 +2654,403 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="25" fillId="0" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="80" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3418,7 +3473,7 @@
   <dimension ref="B1:AI172"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:U1"/>
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="20.25"/>
@@ -3447,31 +3502,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B1" s="261" t="s">
+      <c r="B1" s="389" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="263"/>
-      <c r="J1" s="263"/>
-      <c r="K1" s="263"/>
-      <c r="L1" s="263"/>
-      <c r="M1" s="263"/>
-      <c r="N1" s="263"/>
-      <c r="O1" s="262"/>
-      <c r="P1" s="262"/>
-      <c r="Q1" s="262"/>
-      <c r="R1" s="262"/>
-      <c r="S1" s="262"/>
-      <c r="T1" s="262"/>
-      <c r="U1" s="264"/>
+      <c r="C1" s="390"/>
+      <c r="D1" s="390"/>
+      <c r="E1" s="390"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
+      <c r="H1" s="391"/>
+      <c r="I1" s="391"/>
+      <c r="J1" s="391"/>
+      <c r="K1" s="391"/>
+      <c r="L1" s="391"/>
+      <c r="M1" s="391"/>
+      <c r="N1" s="391"/>
+      <c r="O1" s="390"/>
+      <c r="P1" s="390"/>
+      <c r="Q1" s="390"/>
+      <c r="R1" s="390"/>
+      <c r="S1" s="390"/>
+      <c r="T1" s="390"/>
+      <c r="U1" s="392"/>
     </row>
     <row r="2" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="231" t="s">
         <v>148</v>
       </c>
       <c r="C2" s="131">
@@ -3485,103 +3540,103 @@
         <f>input!D8</f>
         <v>0</v>
       </c>
-      <c r="F2" s="265"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="220"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="219"/>
       <c r="I2" s="124"/>
-      <c r="J2" s="220"/>
+      <c r="J2" s="219"/>
       <c r="K2" s="125"/>
-      <c r="L2" s="266"/>
-      <c r="M2" s="267"/>
+      <c r="L2" s="394"/>
+      <c r="M2" s="306"/>
       <c r="N2" s="126"/>
-      <c r="O2" s="329" t="s">
+      <c r="O2" s="262" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="330"/>
-      <c r="Q2" s="329" t="s">
+      <c r="P2" s="307"/>
+      <c r="Q2" s="262" t="s">
         <v>123</v>
       </c>
-      <c r="R2" s="333"/>
-      <c r="S2" s="333"/>
-      <c r="T2" s="333"/>
-      <c r="U2" s="330"/>
+      <c r="R2" s="309"/>
+      <c r="S2" s="309"/>
+      <c r="T2" s="309"/>
+      <c r="U2" s="307"/>
     </row>
     <row r="3" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="216" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="221">
+      <c r="C3" s="220">
         <f>input!D17</f>
         <v>0</v>
       </c>
-      <c r="D3" s="221" t="s">
+      <c r="D3" s="220" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="134">
         <f>input!D9</f>
         <v>0</v>
       </c>
-      <c r="F3" s="265"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="220"/>
+      <c r="F3" s="393"/>
+      <c r="G3" s="394"/>
+      <c r="H3" s="219"/>
       <c r="I3" s="125"/>
-      <c r="J3" s="220"/>
+      <c r="J3" s="219"/>
       <c r="K3" s="35"/>
-      <c r="L3" s="266"/>
-      <c r="M3" s="267"/>
+      <c r="L3" s="394"/>
+      <c r="M3" s="306"/>
       <c r="N3" s="126"/>
-      <c r="O3" s="331" t="s">
+      <c r="O3" s="264" t="s">
         <v>128</v>
       </c>
-      <c r="P3" s="332"/>
-      <c r="Q3" s="331"/>
-      <c r="R3" s="334"/>
-      <c r="S3" s="334"/>
-      <c r="T3" s="334"/>
-      <c r="U3" s="332"/>
+      <c r="P3" s="308"/>
+      <c r="Q3" s="264"/>
+      <c r="R3" s="310"/>
+      <c r="S3" s="310"/>
+      <c r="T3" s="310"/>
+      <c r="U3" s="308"/>
     </row>
     <row r="4" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B4" s="25"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="276" t="s">
+      <c r="F4" s="192"/>
+      <c r="G4" s="401" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="277"/>
-      <c r="I4" s="277"/>
-      <c r="J4" s="278"/>
-      <c r="K4" s="276" t="s">
+      <c r="H4" s="402"/>
+      <c r="I4" s="402"/>
+      <c r="J4" s="403"/>
+      <c r="K4" s="401" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="277"/>
-      <c r="M4" s="278"/>
+      <c r="L4" s="402"/>
+      <c r="M4" s="403"/>
       <c r="N4" s="128"/>
-      <c r="O4" s="183" t="s">
+      <c r="O4" s="182" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="184" t="s">
+      <c r="P4" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="329" t="s">
+      <c r="Q4" s="262" t="s">
         <v>124</v>
       </c>
-      <c r="R4" s="333"/>
-      <c r="S4" s="333"/>
-      <c r="T4" s="333"/>
-      <c r="U4" s="330"/>
+      <c r="R4" s="309"/>
+      <c r="S4" s="309"/>
+      <c r="T4" s="309"/>
+      <c r="U4" s="307"/>
     </row>
     <row r="5" spans="2:31" ht="28.5" customHeight="1">
-      <c r="B5" s="268" t="s">
+      <c r="B5" s="290" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="270">
+      <c r="C5" s="395">
         <f>input!D6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="271"/>
-      <c r="E5" s="272"/>
+      <c r="D5" s="396"/>
+      <c r="E5" s="397"/>
       <c r="F5" s="121"/>
       <c r="G5" s="130" t="s">
         <v>2</v>
@@ -3596,29 +3651,29 @@
       <c r="J5" s="175" t="s">
         <v>135</v>
       </c>
-      <c r="K5" s="205" t="s">
+      <c r="K5" s="204" t="s">
         <v>129</v>
       </c>
       <c r="L5" s="176" t="s">
         <v>100</v>
       </c>
-      <c r="M5" s="289" t="s">
+      <c r="M5" s="346" t="s">
         <v>130</v>
       </c>
       <c r="N5" s="121"/>
-      <c r="O5" s="285"/>
-      <c r="P5" s="287"/>
-      <c r="Q5" s="293"/>
-      <c r="R5" s="294"/>
-      <c r="S5" s="294"/>
-      <c r="T5" s="294"/>
-      <c r="U5" s="295"/>
+      <c r="O5" s="342"/>
+      <c r="P5" s="344"/>
+      <c r="Q5" s="349"/>
+      <c r="R5" s="350"/>
+      <c r="S5" s="350"/>
+      <c r="T5" s="350"/>
+      <c r="U5" s="351"/>
     </row>
     <row r="6" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B6" s="269"/>
-      <c r="C6" s="273"/>
-      <c r="D6" s="274"/>
-      <c r="E6" s="275"/>
+      <c r="B6" s="291"/>
+      <c r="C6" s="398"/>
+      <c r="D6" s="399"/>
+      <c r="E6" s="400"/>
       <c r="F6" s="121"/>
       <c r="G6" s="170">
         <v>6061</v>
@@ -3636,30 +3691,30 @@
         <f>input!D13</f>
         <v>0</v>
       </c>
-      <c r="L6" s="237">
+      <c r="L6" s="236">
         <f>ROUND(input!D14,2)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="290"/>
+      <c r="M6" s="347"/>
       <c r="N6" s="122"/>
-      <c r="O6" s="286"/>
-      <c r="P6" s="288"/>
-      <c r="Q6" s="296"/>
-      <c r="R6" s="297"/>
-      <c r="S6" s="297"/>
-      <c r="T6" s="297"/>
-      <c r="U6" s="298"/>
+      <c r="O6" s="343"/>
+      <c r="P6" s="345"/>
+      <c r="Q6" s="352"/>
+      <c r="R6" s="353"/>
+      <c r="S6" s="353"/>
+      <c r="T6" s="353"/>
+      <c r="U6" s="354"/>
     </row>
     <row r="7" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B7" s="247" t="s">
+      <c r="B7" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="249">
+      <c r="C7" s="383">
         <f>input!D7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="250"/>
-      <c r="E7" s="251"/>
+      <c r="D7" s="384"/>
+      <c r="E7" s="385"/>
       <c r="F7" s="121"/>
       <c r="G7" s="170">
         <v>6063</v>
@@ -3674,38 +3729,38 @@
       <c r="J7" s="179" t="s">
         <v>136</v>
       </c>
-      <c r="K7" s="205" t="s">
+      <c r="K7" s="204" t="s">
         <v>101</v>
       </c>
       <c r="L7" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="M7" s="291">
+      <c r="M7" s="348">
         <f>input!K11</f>
         <v>0</v>
       </c>
       <c r="N7" s="123"/>
-      <c r="O7" s="306" t="s">
+      <c r="O7" s="362" t="s">
         <v>145</v>
       </c>
-      <c r="P7" s="307"/>
-      <c r="Q7" s="283" t="s">
+      <c r="P7" s="363"/>
+      <c r="Q7" s="340" t="s">
         <v>127</v>
       </c>
-      <c r="R7" s="284"/>
-      <c r="S7" s="280" t="s">
+      <c r="R7" s="341"/>
+      <c r="S7" s="337" t="s">
         <v>139</v>
       </c>
-      <c r="T7" s="281"/>
-      <c r="U7" s="282"/>
+      <c r="T7" s="338"/>
+      <c r="U7" s="339"/>
     </row>
     <row r="8" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B8" s="248"/>
-      <c r="C8" s="252"/>
-      <c r="D8" s="253"/>
-      <c r="E8" s="254"/>
+      <c r="B8" s="382"/>
+      <c r="C8" s="386"/>
+      <c r="D8" s="387"/>
+      <c r="E8" s="388"/>
       <c r="F8" s="121"/>
-      <c r="G8" s="244" t="s">
+      <c r="G8" s="243" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="174"/>
@@ -3714,27 +3769,27 @@
         <f>input!D31</f>
         <v>0</v>
       </c>
-      <c r="K8" s="182">
+      <c r="K8" s="413">
         <f>input!D10*1</f>
         <v>0</v>
       </c>
-      <c r="L8" s="172">
+      <c r="L8" s="414">
         <f>input!D15</f>
         <v>0</v>
       </c>
-      <c r="M8" s="292"/>
+      <c r="M8" s="415"/>
       <c r="N8" s="123"/>
-      <c r="O8" s="308"/>
-      <c r="P8" s="309"/>
-      <c r="Q8" s="299" t="s">
+      <c r="O8" s="364"/>
+      <c r="P8" s="365"/>
+      <c r="Q8" s="355" t="s">
         <v>126</v>
       </c>
-      <c r="R8" s="346" t="s">
+      <c r="R8" s="320" t="s">
         <v>146</v>
       </c>
-      <c r="S8" s="349"/>
-      <c r="T8" s="351"/>
-      <c r="U8" s="353"/>
+      <c r="S8" s="323"/>
+      <c r="T8" s="325"/>
+      <c r="U8" s="327"/>
     </row>
     <row r="9" spans="2:31" ht="6" customHeight="1">
       <c r="B9" s="25"/>
@@ -3743,25 +3798,27 @@
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="255" t="s">
+      <c r="H9" s="404" t="s">
         <v>152</v>
       </c>
-      <c r="L9" s="256"/>
-      <c r="M9" s="412" t="str">
+      <c r="I9" s="405"/>
+      <c r="J9" s="410" t="str">
         <f>input!D36&amp;"-"&amp;input!D37</f>
         <v>-</v>
       </c>
+      <c r="K9" s="417" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" s="418"/>
+      <c r="M9" s="419"/>
       <c r="N9" s="30"/>
-      <c r="O9" s="308"/>
-      <c r="P9" s="309"/>
-      <c r="Q9" s="300"/>
-      <c r="R9" s="347"/>
-      <c r="S9" s="354"/>
-      <c r="T9" s="352"/>
-      <c r="U9" s="350"/>
+      <c r="O9" s="364"/>
+      <c r="P9" s="365"/>
+      <c r="Q9" s="356"/>
+      <c r="R9" s="321"/>
+      <c r="S9" s="328"/>
+      <c r="T9" s="326"/>
+      <c r="U9" s="324"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" thickBot="1">
       <c r="B10" s="31"/>
@@ -3769,74 +3826,76 @@
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="257"/>
-      <c r="L10" s="258"/>
-      <c r="M10" s="413"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="406"/>
+      <c r="I10" s="407"/>
+      <c r="J10" s="411"/>
+      <c r="K10" s="420"/>
+      <c r="L10" s="416"/>
+      <c r="M10" s="421"/>
       <c r="N10" s="30"/>
-      <c r="O10" s="310"/>
-      <c r="P10" s="311"/>
-      <c r="Q10" s="301"/>
-      <c r="R10" s="348"/>
-      <c r="S10" s="355"/>
-      <c r="T10" s="356"/>
-      <c r="U10" s="357"/>
+      <c r="O10" s="366"/>
+      <c r="P10" s="367"/>
+      <c r="Q10" s="357"/>
+      <c r="R10" s="322"/>
+      <c r="S10" s="329"/>
+      <c r="T10" s="330"/>
+      <c r="U10" s="331"/>
     </row>
     <row r="11" spans="2:31" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B11" s="268" t="s">
+      <c r="B11" s="290" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="368" t="str">
+      <c r="C11" s="296" t="str">
         <f>IF(C13=0,"","DR"&amp;MID(C13,2,4))</f>
         <v/>
       </c>
-      <c r="D11" s="368"/>
-      <c r="E11" s="369"/>
+      <c r="D11" s="296"/>
+      <c r="E11" s="297"/>
       <c r="F11" s="35"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="259"/>
-      <c r="L11" s="260"/>
-      <c r="M11" s="414"/>
+      <c r="H11" s="408"/>
+      <c r="I11" s="409"/>
+      <c r="J11" s="412"/>
+      <c r="K11" s="422"/>
+      <c r="L11" s="423"/>
+      <c r="M11" s="424"/>
       <c r="N11" s="30"/>
-      <c r="O11" s="302"/>
-      <c r="P11" s="303"/>
-      <c r="Q11" s="340"/>
-      <c r="R11" s="343"/>
-      <c r="S11" s="337" t="s">
+      <c r="O11" s="358"/>
+      <c r="P11" s="359"/>
+      <c r="Q11" s="314"/>
+      <c r="R11" s="317"/>
+      <c r="S11" s="272" t="s">
         <v>83</v>
       </c>
-      <c r="T11" s="338"/>
-      <c r="U11" s="339"/>
+      <c r="T11" s="313"/>
+      <c r="U11" s="273"/>
     </row>
     <row r="12" spans="2:31" ht="26.25" customHeight="1">
-      <c r="B12" s="269"/>
-      <c r="C12" s="370"/>
-      <c r="D12" s="370"/>
-      <c r="E12" s="371"/>
+      <c r="B12" s="291"/>
+      <c r="C12" s="298"/>
+      <c r="D12" s="298"/>
+      <c r="E12" s="299"/>
       <c r="F12" s="25"/>
       <c r="J12" s="101"/>
       <c r="N12" s="30"/>
-      <c r="O12" s="304"/>
-      <c r="P12" s="305"/>
-      <c r="Q12" s="341"/>
-      <c r="R12" s="344"/>
-      <c r="S12" s="358"/>
-      <c r="T12" s="359"/>
-      <c r="U12" s="360"/>
+      <c r="O12" s="360"/>
+      <c r="P12" s="361"/>
+      <c r="Q12" s="315"/>
+      <c r="R12" s="318"/>
+      <c r="S12" s="332"/>
+      <c r="T12" s="333"/>
+      <c r="U12" s="334"/>
     </row>
     <row r="13" spans="2:31" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B13" s="247" t="s">
+      <c r="B13" s="292" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="370">
+      <c r="C13" s="298">
         <f>input!D32</f>
         <v>0</v>
       </c>
-      <c r="D13" s="370"/>
-      <c r="E13" s="371"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="299"/>
       <c r="F13" s="25"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
@@ -3846,19 +3905,19 @@
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
       <c r="N13" s="30"/>
-      <c r="O13" s="296"/>
-      <c r="P13" s="298"/>
-      <c r="Q13" s="342"/>
-      <c r="R13" s="345"/>
-      <c r="S13" s="361"/>
-      <c r="T13" s="362"/>
-      <c r="U13" s="363"/>
+      <c r="O13" s="352"/>
+      <c r="P13" s="354"/>
+      <c r="Q13" s="316"/>
+      <c r="R13" s="319"/>
+      <c r="S13" s="293"/>
+      <c r="T13" s="335"/>
+      <c r="U13" s="336"/>
     </row>
     <row r="14" spans="2:31" ht="27" customHeight="1" thickBot="1">
-      <c r="B14" s="361"/>
-      <c r="C14" s="372"/>
-      <c r="D14" s="372"/>
-      <c r="E14" s="373"/>
+      <c r="B14" s="293"/>
+      <c r="C14" s="300"/>
+      <c r="D14" s="300"/>
+      <c r="E14" s="301"/>
       <c r="F14" s="35"/>
       <c r="G14" s="120" t="s">
         <v>6</v>
@@ -3870,79 +3929,79 @@
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
       <c r="N14" s="30"/>
-      <c r="O14" s="349" t="s">
+      <c r="O14" s="323" t="s">
         <v>80</v>
       </c>
-      <c r="P14" s="350"/>
-      <c r="Q14" s="349" t="s">
+      <c r="P14" s="324"/>
+      <c r="Q14" s="323" t="s">
         <v>147</v>
       </c>
-      <c r="R14" s="351"/>
-      <c r="S14" s="352"/>
-      <c r="T14" s="352"/>
-      <c r="U14" s="350"/>
+      <c r="R14" s="325"/>
+      <c r="S14" s="326"/>
+      <c r="T14" s="326"/>
+      <c r="U14" s="324"/>
     </row>
     <row r="15" spans="2:31" ht="52.5" customHeight="1" thickBot="1">
-      <c r="B15" s="195" t="s">
+      <c r="B15" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="220"/>
-      <c r="G15" s="185" t="s">
+      <c r="C15" s="195"/>
+      <c r="D15" s="195"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="186" t="s">
+      <c r="H15" s="185" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="186" t="s">
+      <c r="I15" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="186" t="s">
+      <c r="J15" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="K15" s="187" t="s">
+      <c r="K15" s="186" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="186" t="s">
+      <c r="L15" s="185" t="s">
         <v>141</v>
       </c>
-      <c r="M15" s="186" t="s">
+      <c r="M15" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="187" t="s">
+      <c r="N15" s="186" t="s">
         <v>140</v>
       </c>
-      <c r="O15" s="206" t="s">
+      <c r="O15" s="205" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="186" t="s">
+      <c r="P15" s="185" t="s">
         <v>121</v>
       </c>
-      <c r="Q15" s="188">
+      <c r="Q15" s="187">
         <v>302</v>
       </c>
-      <c r="R15" s="188">
+      <c r="R15" s="187">
         <v>304</v>
       </c>
-      <c r="S15" s="188">
+      <c r="S15" s="187">
         <v>314</v>
       </c>
-      <c r="T15" s="188">
+      <c r="T15" s="187">
         <v>316</v>
       </c>
-      <c r="U15" s="189">
+      <c r="U15" s="188">
         <v>318</v>
       </c>
     </row>
     <row r="16" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B16" s="374" t="s">
+      <c r="B16" s="302" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="375"/>
-      <c r="D16" s="376"/>
-      <c r="E16" s="339"/>
+      <c r="C16" s="303"/>
+      <c r="D16" s="304"/>
+      <c r="E16" s="273"/>
       <c r="F16" s="35"/>
       <c r="G16" s="119">
         <v>1</v>
@@ -3980,10 +4039,10 @@
       <c r="C17" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="366" t="s">
+      <c r="D17" s="294" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="367"/>
+      <c r="E17" s="295"/>
       <c r="F17" s="35"/>
       <c r="G17" s="119">
         <v>2</v>
@@ -4017,8 +4076,8 @@
     <row r="18" spans="2:31" ht="35.1" customHeight="1">
       <c r="B18" s="114"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="364"/>
-      <c r="E18" s="365"/>
+      <c r="D18" s="270"/>
+      <c r="E18" s="271"/>
       <c r="F18" s="35"/>
       <c r="G18" s="119">
         <v>3</v>
@@ -4052,8 +4111,8 @@
     <row r="19" spans="2:31" ht="35.1" customHeight="1">
       <c r="B19" s="114"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="364"/>
-      <c r="E19" s="365"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="271"/>
       <c r="F19" s="35"/>
       <c r="G19" s="119">
         <v>4</v>
@@ -4079,10 +4138,10 @@
       <c r="T19" s="37"/>
       <c r="U19" s="38"/>
       <c r="W19" s="39"/>
-      <c r="X19" s="335"/>
-      <c r="Y19" s="267"/>
-      <c r="Z19" s="267"/>
-      <c r="AA19" s="267"/>
+      <c r="X19" s="311"/>
+      <c r="Y19" s="306"/>
+      <c r="Z19" s="306"/>
+      <c r="AA19" s="306"/>
       <c r="AB19" s="35"/>
       <c r="AC19" s="35"/>
       <c r="AD19" s="35"/>
@@ -4091,8 +4150,8 @@
     <row r="20" spans="2:31" ht="35.1" customHeight="1">
       <c r="B20" s="114"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="364"/>
-      <c r="E20" s="365"/>
+      <c r="D20" s="270"/>
+      <c r="E20" s="271"/>
       <c r="F20" s="35"/>
       <c r="G20" s="119">
         <v>5</v>
@@ -4116,8 +4175,8 @@
       <c r="W20" s="35"/>
       <c r="X20" s="116"/>
       <c r="Y20" s="34"/>
-      <c r="Z20" s="336"/>
-      <c r="AA20" s="267"/>
+      <c r="Z20" s="312"/>
+      <c r="AA20" s="306"/>
       <c r="AB20" s="35"/>
       <c r="AC20" s="35"/>
       <c r="AD20" s="35"/>
@@ -4126,8 +4185,8 @@
     <row r="21" spans="2:31" ht="35.1" customHeight="1">
       <c r="B21" s="114"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="364"/>
-      <c r="E21" s="365"/>
+      <c r="D21" s="270"/>
+      <c r="E21" s="271"/>
       <c r="F21" s="35"/>
       <c r="G21" s="119">
         <v>6</v>
@@ -4152,8 +4211,8 @@
       <c r="W21" s="35"/>
       <c r="X21" s="116"/>
       <c r="Y21" s="117"/>
-      <c r="Z21" s="320"/>
-      <c r="AA21" s="267"/>
+      <c r="Z21" s="305"/>
+      <c r="AA21" s="306"/>
       <c r="AB21" s="35"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="35"/>
@@ -4162,8 +4221,8 @@
     <row r="22" spans="2:31" ht="35.1" customHeight="1">
       <c r="B22" s="114"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="364"/>
-      <c r="E22" s="365"/>
+      <c r="D22" s="270"/>
+      <c r="E22" s="271"/>
       <c r="F22" s="35"/>
       <c r="G22" s="119">
         <v>7</v>
@@ -4174,7 +4233,7 @@
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
       <c r="M22" s="27"/>
-      <c r="N22" s="213"/>
+      <c r="N22" s="212"/>
       <c r="O22" s="119" t="s">
         <v>122</v>
       </c>
@@ -4188,8 +4247,8 @@
       <c r="W22" s="35"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="35"/>
-      <c r="Z22" s="267"/>
-      <c r="AA22" s="267"/>
+      <c r="Z22" s="306"/>
+      <c r="AA22" s="306"/>
       <c r="AB22" s="35"/>
       <c r="AC22" s="35"/>
       <c r="AD22" s="35"/>
@@ -4198,8 +4257,8 @@
     <row r="23" spans="2:31" ht="35.1" customHeight="1">
       <c r="B23" s="114"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="364"/>
-      <c r="E23" s="365"/>
+      <c r="D23" s="270"/>
+      <c r="E23" s="271"/>
       <c r="F23" s="35"/>
       <c r="G23" s="119">
         <v>8</v>
@@ -4210,7 +4269,7 @@
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="213"/>
+      <c r="N23" s="212"/>
       <c r="O23" s="119" t="s">
         <v>122</v>
       </c>
@@ -4234,8 +4293,8 @@
     <row r="24" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
       <c r="B24" s="115"/>
       <c r="C24" s="29"/>
-      <c r="D24" s="395"/>
-      <c r="E24" s="396"/>
+      <c r="D24" s="268"/>
+      <c r="E24" s="269"/>
       <c r="F24" s="35"/>
       <c r="G24" s="119">
         <v>9</v>
@@ -4246,7 +4305,7 @@
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
       <c r="M24" s="27"/>
-      <c r="N24" s="213"/>
+      <c r="N24" s="212"/>
       <c r="O24" s="119" t="s">
         <v>122</v>
       </c>
@@ -4268,12 +4327,12 @@
       <c r="AE24" s="35"/>
     </row>
     <row r="25" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B25" s="197" t="s">
+      <c r="B25" s="196" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="196"/>
-      <c r="D25" s="196"/>
-      <c r="E25" s="196"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="195"/>
       <c r="F25" s="35"/>
       <c r="G25" s="119">
         <v>10</v>
@@ -4284,7 +4343,7 @@
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
       <c r="M25" s="27"/>
-      <c r="N25" s="213"/>
+      <c r="N25" s="212"/>
       <c r="O25" s="119" t="s">
         <v>122</v>
       </c>
@@ -4298,14 +4357,14 @@
       <c r="W25" s="40"/>
     </row>
     <row r="26" spans="2:31" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B26" s="337" t="s">
+      <c r="B26" s="272" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="339"/>
-      <c r="D26" s="337" t="s">
+      <c r="C26" s="273"/>
+      <c r="D26" s="272" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="339"/>
+      <c r="E26" s="273"/>
       <c r="F26" s="35"/>
       <c r="G26" s="119">
         <v>11</v>
@@ -4316,7 +4375,7 @@
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
       <c r="M26" s="36"/>
-      <c r="N26" s="213"/>
+      <c r="N26" s="212"/>
       <c r="O26" s="119" t="s">
         <v>122</v>
       </c>
@@ -4340,7 +4399,7 @@
       <c r="D27" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="211" t="s">
+      <c r="E27" s="210" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="35"/>
@@ -4353,7 +4412,7 @@
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
       <c r="M27" s="36"/>
-      <c r="N27" s="213"/>
+      <c r="N27" s="212"/>
       <c r="O27" s="119" t="s">
         <v>122</v>
       </c>
@@ -4388,7 +4447,7 @@
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
       <c r="M28" s="36"/>
-      <c r="N28" s="213"/>
+      <c r="N28" s="212"/>
       <c r="O28" s="119" t="s">
         <v>122</v>
       </c>
@@ -4423,7 +4482,7 @@
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
       <c r="M29" s="36"/>
-      <c r="N29" s="213"/>
+      <c r="N29" s="212"/>
       <c r="O29" s="119" t="s">
         <v>122</v>
       </c>
@@ -4458,7 +4517,7 @@
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
-      <c r="N30" s="213"/>
+      <c r="N30" s="212"/>
       <c r="O30" s="119" t="s">
         <v>122</v>
       </c>
@@ -4493,7 +4552,7 @@
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
       <c r="M31" s="36"/>
-      <c r="N31" s="213"/>
+      <c r="N31" s="212"/>
       <c r="O31" s="119" t="s">
         <v>122</v>
       </c>
@@ -4528,7 +4587,7 @@
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
-      <c r="N32" s="213"/>
+      <c r="N32" s="212"/>
       <c r="O32" s="119" t="s">
         <v>122</v>
       </c>
@@ -4563,7 +4622,7 @@
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
       <c r="M33" s="36"/>
-      <c r="N33" s="213"/>
+      <c r="N33" s="212"/>
       <c r="O33" s="119" t="s">
         <v>122</v>
       </c>
@@ -4580,7 +4639,7 @@
       <c r="B34" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="246">
+      <c r="C34" s="245">
         <f>input!D29</f>
         <v>0</v>
       </c>
@@ -4598,7 +4657,7 @@
       <c r="K34" s="36"/>
       <c r="L34" s="36"/>
       <c r="M34" s="36"/>
-      <c r="N34" s="213"/>
+      <c r="N34" s="212"/>
       <c r="O34" s="119" t="s">
         <v>122</v>
       </c>
@@ -4622,7 +4681,7 @@
       <c r="D35" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="210" t="s">
+      <c r="E35" s="209" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="35"/>
@@ -4635,7 +4694,7 @@
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
       <c r="M35" s="36"/>
-      <c r="N35" s="213"/>
+      <c r="N35" s="212"/>
       <c r="O35" s="119" t="s">
         <v>122</v>
       </c>
@@ -4670,7 +4729,7 @@
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
       <c r="M36" s="36"/>
-      <c r="N36" s="213"/>
+      <c r="N36" s="212"/>
       <c r="O36" s="119" t="s">
         <v>122</v>
       </c>
@@ -4685,14 +4744,14 @@
       <c r="B37" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="231">
+      <c r="C37" s="230">
         <f>input!I14</f>
         <v>50</v>
       </c>
       <c r="D37" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="222">
+      <c r="E37" s="221">
         <f>input!D33</f>
         <v>0</v>
       </c>
@@ -4706,7 +4765,7 @@
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
-      <c r="N37" s="213"/>
+      <c r="N37" s="212"/>
       <c r="O37" s="119" t="s">
         <v>122</v>
       </c>
@@ -4718,7 +4777,7 @@
       <c r="U37" s="38"/>
     </row>
     <row r="38" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B38" s="198"/>
+      <c r="B38" s="197"/>
       <c r="C38" s="104"/>
       <c r="D38" s="104"/>
       <c r="E38" s="104"/>
@@ -4732,7 +4791,7 @@
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
       <c r="M38" s="36"/>
-      <c r="N38" s="213"/>
+      <c r="N38" s="212"/>
       <c r="O38" s="119" t="s">
         <v>122</v>
       </c>
@@ -4744,10 +4803,10 @@
       <c r="U38" s="38"/>
     </row>
     <row r="39" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B39" s="393" t="s">
+      <c r="B39" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="394"/>
+      <c r="C39" s="267"/>
       <c r="D39" s="150"/>
       <c r="E39" s="112"/>
       <c r="F39" s="104"/>
@@ -4760,7 +4819,7 @@
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
       <c r="M39" s="36"/>
-      <c r="N39" s="213"/>
+      <c r="N39" s="212"/>
       <c r="O39" s="119" t="s">
         <v>122</v>
       </c>
@@ -4772,7 +4831,7 @@
       <c r="U39" s="38"/>
     </row>
     <row r="40" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B40" s="215" t="s">
+      <c r="B40" s="214" t="s">
         <v>27</v>
       </c>
       <c r="C40" s="151" t="s">
@@ -4792,7 +4851,7 @@
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
-      <c r="N40" s="213"/>
+      <c r="N40" s="212"/>
       <c r="O40" s="119" t="s">
         <v>122</v>
       </c>
@@ -4804,7 +4863,7 @@
       <c r="U40" s="38"/>
     </row>
     <row r="41" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B41" s="216" t="s">
+      <c r="B41" s="215" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="153"/>
@@ -4820,7 +4879,7 @@
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
       <c r="M41" s="36"/>
-      <c r="N41" s="213"/>
+      <c r="N41" s="212"/>
       <c r="O41" s="119" t="s">
         <v>122</v>
       </c>
@@ -4832,7 +4891,7 @@
       <c r="U41" s="38"/>
     </row>
     <row r="42" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B42" s="217" t="s">
+      <c r="B42" s="216" t="s">
         <v>30</v>
       </c>
       <c r="C42" s="155"/>
@@ -4848,7 +4907,7 @@
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
-      <c r="N42" s="213"/>
+      <c r="N42" s="212"/>
       <c r="O42" s="119" t="s">
         <v>122</v>
       </c>
@@ -4860,7 +4919,7 @@
       <c r="U42" s="38"/>
     </row>
     <row r="43" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B43" s="199"/>
+      <c r="B43" s="198"/>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
@@ -4874,7 +4933,7 @@
       <c r="K43" s="36"/>
       <c r="L43" s="36"/>
       <c r="M43" s="36"/>
-      <c r="N43" s="213"/>
+      <c r="N43" s="212"/>
       <c r="O43" s="119" t="s">
         <v>122</v>
       </c>
@@ -4886,7 +4945,7 @@
       <c r="U43" s="38"/>
     </row>
     <row r="44" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B44" s="197" t="s">
+      <c r="B44" s="196" t="s">
         <v>110</v>
       </c>
       <c r="C44" s="157"/>
@@ -4902,7 +4961,7 @@
       <c r="K44" s="36"/>
       <c r="L44" s="36"/>
       <c r="M44" s="36"/>
-      <c r="N44" s="213"/>
+      <c r="N44" s="212"/>
       <c r="O44" s="119" t="s">
         <v>122</v>
       </c>
@@ -4914,14 +4973,14 @@
       <c r="U44" s="38"/>
     </row>
     <row r="45" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B45" s="397" t="s">
+      <c r="B45" s="248" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="399" t="s">
+      <c r="C45" s="250" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="400"/>
-      <c r="E45" s="401"/>
+      <c r="D45" s="251"/>
+      <c r="E45" s="252"/>
       <c r="F45" s="104"/>
       <c r="G45" s="119">
         <v>30</v>
@@ -4932,7 +4991,7 @@
       <c r="K45" s="36"/>
       <c r="L45" s="36"/>
       <c r="M45" s="36"/>
-      <c r="N45" s="213"/>
+      <c r="N45" s="212"/>
       <c r="O45" s="119" t="s">
         <v>122</v>
       </c>
@@ -4944,14 +5003,14 @@
       <c r="U45" s="38"/>
     </row>
     <row r="46" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B46" s="398"/>
-      <c r="C46" s="218" t="s">
+      <c r="B46" s="249"/>
+      <c r="C46" s="217" t="s">
         <v>95</v>
       </c>
       <c r="D46" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="E46" s="223" t="s">
+      <c r="E46" s="222" t="s">
         <v>26</v>
       </c>
       <c r="F46" s="104"/>
@@ -4964,7 +5023,7 @@
       <c r="K46" s="36"/>
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
-      <c r="N46" s="213"/>
+      <c r="N46" s="212"/>
       <c r="O46" s="119" t="s">
         <v>122</v>
       </c>
@@ -4992,7 +5051,7 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="213"/>
+      <c r="N47" s="212"/>
       <c r="O47" s="119" t="s">
         <v>122</v>
       </c>
@@ -5013,7 +5072,7 @@
       <c r="B48" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="214"/>
+      <c r="C48" s="213"/>
       <c r="D48" s="155"/>
       <c r="E48" s="156"/>
       <c r="F48" s="104"/>
@@ -5026,7 +5085,7 @@
       <c r="K48" s="36"/>
       <c r="L48" s="36"/>
       <c r="M48" s="36"/>
-      <c r="N48" s="213"/>
+      <c r="N48" s="212"/>
       <c r="O48" s="119" t="s">
         <v>122</v>
       </c>
@@ -5044,14 +5103,14 @@
       <c r="AB48" s="104"/>
     </row>
     <row r="49" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B49" s="397" t="s">
+      <c r="B49" s="248" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="399" t="s">
+      <c r="C49" s="250" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="400"/>
-      <c r="E49" s="401"/>
+      <c r="D49" s="251"/>
+      <c r="E49" s="252"/>
       <c r="F49" s="35"/>
       <c r="G49" s="119">
         <v>34</v>
@@ -5062,7 +5121,7 @@
       <c r="K49" s="36"/>
       <c r="L49" s="36"/>
       <c r="M49" s="36"/>
-      <c r="N49" s="213"/>
+      <c r="N49" s="212"/>
       <c r="O49" s="119" t="s">
         <v>122</v>
       </c>
@@ -5080,8 +5139,8 @@
       <c r="AB49" s="35"/>
     </row>
     <row r="50" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B50" s="398"/>
-      <c r="C50" s="218" t="s">
+      <c r="B50" s="249"/>
+      <c r="C50" s="217" t="s">
         <v>95</v>
       </c>
       <c r="D50" s="147" t="s">
@@ -5100,7 +5159,7 @@
       <c r="K50" s="36"/>
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
-      <c r="N50" s="213"/>
+      <c r="N50" s="212"/>
       <c r="O50" s="119" t="s">
         <v>122</v>
       </c>
@@ -5134,7 +5193,7 @@
       <c r="K51" s="36"/>
       <c r="L51" s="36"/>
       <c r="M51" s="36"/>
-      <c r="N51" s="213"/>
+      <c r="N51" s="212"/>
       <c r="O51" s="119" t="s">
         <v>122</v>
       </c>
@@ -5155,7 +5214,7 @@
       <c r="B52" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="214"/>
+      <c r="C52" s="213"/>
       <c r="D52" s="155"/>
       <c r="E52" s="162"/>
       <c r="F52" s="35"/>
@@ -5168,7 +5227,7 @@
       <c r="K52" s="36"/>
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
-      <c r="N52" s="213"/>
+      <c r="N52" s="212"/>
       <c r="O52" s="119" t="s">
         <v>122</v>
       </c>
@@ -5186,9 +5245,9 @@
       <c r="AB52" s="35"/>
     </row>
     <row r="53" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B53" s="240"/>
-      <c r="C53" s="196"/>
-      <c r="D53" s="196"/>
+      <c r="B53" s="239"/>
+      <c r="C53" s="195"/>
+      <c r="D53" s="195"/>
       <c r="E53" s="157"/>
       <c r="F53" s="35"/>
       <c r="G53" s="119">
@@ -5200,7 +5259,7 @@
       <c r="K53" s="36"/>
       <c r="L53" s="36"/>
       <c r="M53" s="36"/>
-      <c r="N53" s="238"/>
+      <c r="N53" s="237"/>
       <c r="O53" s="119" t="s">
         <v>122</v>
       </c>
@@ -5218,12 +5277,12 @@
       <c r="AB53" s="35"/>
     </row>
     <row r="54" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B54" s="329" t="s">
+      <c r="B54" s="262" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="410"/>
-      <c r="D54" s="377"/>
-      <c r="E54" s="378"/>
+      <c r="C54" s="263"/>
+      <c r="D54" s="274"/>
+      <c r="E54" s="275"/>
       <c r="F54" s="35"/>
       <c r="G54" s="119">
         <v>39</v>
@@ -5234,7 +5293,7 @@
       <c r="K54" s="36"/>
       <c r="L54" s="36"/>
       <c r="M54" s="36"/>
-      <c r="N54" s="238"/>
+      <c r="N54" s="237"/>
       <c r="O54" s="119" t="s">
         <v>122</v>
       </c>
@@ -5252,12 +5311,12 @@
       <c r="AB54" s="35"/>
     </row>
     <row r="55" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B55" s="408" t="s">
+      <c r="B55" s="260" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="409"/>
-      <c r="D55" s="379"/>
-      <c r="E55" s="380"/>
+      <c r="C55" s="261"/>
+      <c r="D55" s="276"/>
+      <c r="E55" s="277"/>
       <c r="F55" s="35"/>
       <c r="G55" s="119">
         <v>40</v>
@@ -5268,7 +5327,7 @@
       <c r="K55" s="36"/>
       <c r="L55" s="36"/>
       <c r="M55" s="36"/>
-      <c r="N55" s="238"/>
+      <c r="N55" s="237"/>
       <c r="O55" s="119" t="s">
         <v>122</v>
       </c>
@@ -5286,12 +5345,12 @@
       <c r="AB55" s="35"/>
     </row>
     <row r="56" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B56" s="331" t="s">
+      <c r="B56" s="264" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="411"/>
-      <c r="D56" s="385"/>
-      <c r="E56" s="392"/>
+      <c r="C56" s="265"/>
+      <c r="D56" s="282"/>
+      <c r="E56" s="289"/>
       <c r="F56" s="35"/>
       <c r="G56" s="119">
         <v>41</v>
@@ -5302,7 +5361,7 @@
       <c r="K56" s="36"/>
       <c r="L56" s="36"/>
       <c r="M56" s="36"/>
-      <c r="N56" s="238"/>
+      <c r="N56" s="237"/>
       <c r="O56" s="119" t="s">
         <v>122</v>
       </c>
@@ -5320,9 +5379,9 @@
       <c r="AB56" s="35"/>
     </row>
     <row r="57" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B57" s="240"/>
-      <c r="C57" s="196"/>
-      <c r="D57" s="196"/>
+      <c r="B57" s="239"/>
+      <c r="C57" s="195"/>
+      <c r="D57" s="195"/>
       <c r="E57" s="157"/>
       <c r="F57" s="35"/>
       <c r="G57" s="119">
@@ -5334,7 +5393,7 @@
       <c r="K57" s="36"/>
       <c r="L57" s="36"/>
       <c r="M57" s="36"/>
-      <c r="N57" s="238"/>
+      <c r="N57" s="237"/>
       <c r="O57" s="119" t="s">
         <v>122</v>
       </c>
@@ -5352,12 +5411,12 @@
       <c r="AB57" s="35"/>
     </row>
     <row r="58" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B58" s="389" t="s">
+      <c r="B58" s="286" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="390"/>
-      <c r="D58" s="390"/>
-      <c r="E58" s="391"/>
+      <c r="C58" s="287"/>
+      <c r="D58" s="287"/>
+      <c r="E58" s="288"/>
       <c r="F58" s="35"/>
       <c r="G58" s="119">
         <v>43</v>
@@ -5368,7 +5427,7 @@
       <c r="K58" s="36"/>
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
-      <c r="N58" s="238"/>
+      <c r="N58" s="237"/>
       <c r="O58" s="119" t="s">
         <v>122</v>
       </c>
@@ -5389,10 +5448,10 @@
       <c r="B59" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="387" t="s">
+      <c r="C59" s="284" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="388"/>
+      <c r="D59" s="285"/>
       <c r="E59" s="165" t="s">
         <v>133</v>
       </c>
@@ -5406,7 +5465,7 @@
       <c r="K59" s="36"/>
       <c r="L59" s="36"/>
       <c r="M59" s="36"/>
-      <c r="N59" s="238"/>
+      <c r="N59" s="237"/>
       <c r="O59" s="119" t="s">
         <v>122</v>
       </c>
@@ -5427,8 +5486,8 @@
       <c r="B60" s="166">
         <v>1</v>
       </c>
-      <c r="C60" s="383"/>
-      <c r="D60" s="384"/>
+      <c r="C60" s="280"/>
+      <c r="D60" s="281"/>
       <c r="E60" s="167"/>
       <c r="F60" s="35"/>
       <c r="G60" s="119">
@@ -5440,7 +5499,7 @@
       <c r="K60" s="36"/>
       <c r="L60" s="36"/>
       <c r="M60" s="36"/>
-      <c r="N60" s="238"/>
+      <c r="N60" s="237"/>
       <c r="O60" s="119" t="s">
         <v>122</v>
       </c>
@@ -5461,8 +5520,8 @@
       <c r="B61" s="166">
         <v>2</v>
       </c>
-      <c r="C61" s="383"/>
-      <c r="D61" s="384"/>
+      <c r="C61" s="280"/>
+      <c r="D61" s="281"/>
       <c r="E61" s="167"/>
       <c r="F61" s="35"/>
       <c r="G61" s="119">
@@ -5474,7 +5533,7 @@
       <c r="K61" s="36"/>
       <c r="L61" s="36"/>
       <c r="M61" s="36"/>
-      <c r="N61" s="238"/>
+      <c r="N61" s="237"/>
       <c r="O61" s="119" t="s">
         <v>122</v>
       </c>
@@ -5495,8 +5554,8 @@
       <c r="B62" s="166">
         <v>3</v>
       </c>
-      <c r="C62" s="383"/>
-      <c r="D62" s="384"/>
+      <c r="C62" s="280"/>
+      <c r="D62" s="281"/>
       <c r="E62" s="167"/>
       <c r="F62" s="35"/>
       <c r="G62" s="119">
@@ -5508,7 +5567,7 @@
       <c r="K62" s="36"/>
       <c r="L62" s="36"/>
       <c r="M62" s="36"/>
-      <c r="N62" s="238"/>
+      <c r="N62" s="237"/>
       <c r="O62" s="119" t="s">
         <v>122</v>
       </c>
@@ -5529,8 +5588,8 @@
       <c r="B63" s="166">
         <v>4</v>
       </c>
-      <c r="C63" s="383"/>
-      <c r="D63" s="384"/>
+      <c r="C63" s="280"/>
+      <c r="D63" s="281"/>
       <c r="E63" s="167"/>
       <c r="F63" s="35"/>
       <c r="G63" s="119">
@@ -5542,7 +5601,7 @@
       <c r="K63" s="36"/>
       <c r="L63" s="36"/>
       <c r="M63" s="36"/>
-      <c r="N63" s="213"/>
+      <c r="N63" s="212"/>
       <c r="O63" s="119" t="s">
         <v>122</v>
       </c>
@@ -5563,10 +5622,10 @@
       <c r="B64" s="166">
         <v>5</v>
       </c>
-      <c r="C64" s="383"/>
-      <c r="D64" s="384"/>
+      <c r="C64" s="280"/>
+      <c r="D64" s="281"/>
       <c r="E64" s="167"/>
-      <c r="F64" s="220"/>
+      <c r="F64" s="219"/>
       <c r="G64" s="119">
         <v>49</v>
       </c>
@@ -5576,7 +5635,7 @@
       <c r="K64" s="36"/>
       <c r="L64" s="36"/>
       <c r="M64" s="36"/>
-      <c r="N64" s="213"/>
+      <c r="N64" s="212"/>
       <c r="O64" s="119" t="s">
         <v>122</v>
       </c>
@@ -5597,10 +5656,10 @@
       <c r="B65" s="166">
         <v>6</v>
       </c>
-      <c r="C65" s="383"/>
-      <c r="D65" s="384"/>
+      <c r="C65" s="280"/>
+      <c r="D65" s="281"/>
       <c r="E65" s="167"/>
-      <c r="F65" s="220"/>
+      <c r="F65" s="219"/>
       <c r="G65" s="119">
         <v>50</v>
       </c>
@@ -5610,8 +5669,8 @@
       <c r="K65" s="29"/>
       <c r="L65" s="29"/>
       <c r="M65" s="29"/>
-      <c r="N65" s="212"/>
-      <c r="O65" s="208" t="s">
+      <c r="N65" s="211"/>
+      <c r="O65" s="207" t="s">
         <v>122</v>
       </c>
       <c r="P65" s="47"/>
@@ -5628,14 +5687,14 @@
       <c r="AB65" s="35"/>
     </row>
     <row r="66" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B66" s="239">
+      <c r="B66" s="238">
         <v>7</v>
       </c>
-      <c r="C66" s="385"/>
-      <c r="D66" s="386"/>
-      <c r="E66" s="241"/>
-      <c r="F66" s="220"/>
-      <c r="G66" s="219" t="s">
+      <c r="C66" s="282"/>
+      <c r="D66" s="283"/>
+      <c r="E66" s="240"/>
+      <c r="F66" s="219"/>
+      <c r="G66" s="218" t="s">
         <v>85</v>
       </c>
       <c r="H66" s="50"/>
@@ -5644,8 +5703,8 @@
       <c r="K66" s="50"/>
       <c r="L66" s="50"/>
       <c r="M66" s="50"/>
-      <c r="N66" s="207"/>
-      <c r="O66" s="209"/>
+      <c r="N66" s="206"/>
+      <c r="O66" s="208"/>
       <c r="P66" s="50" t="str">
         <f t="shared" ref="P66:U66" si="0">IF(SUM(P16:P65)=0,"",SUM(P16:P65))</f>
         <v/>
@@ -5697,7 +5756,7 @@
       <c r="R67" s="35"/>
       <c r="S67" s="35"/>
       <c r="T67" s="35"/>
-      <c r="U67" s="200"/>
+      <c r="U67" s="199"/>
       <c r="W67" s="35"/>
       <c r="X67" s="35"/>
       <c r="Y67" s="35"/>
@@ -5709,33 +5768,33 @@
       <c r="B68" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="381"/>
-      <c r="D68" s="381"/>
-      <c r="E68" s="382"/>
-      <c r="F68" s="407"/>
-      <c r="G68" s="403" t="s">
+      <c r="C68" s="278"/>
+      <c r="D68" s="278"/>
+      <c r="E68" s="279"/>
+      <c r="F68" s="259"/>
+      <c r="G68" s="254" t="s">
         <v>142</v>
       </c>
-      <c r="H68" s="404"/>
-      <c r="I68" s="404"/>
-      <c r="J68" s="404"/>
-      <c r="K68" s="405"/>
-      <c r="M68" s="233" t="s">
+      <c r="H68" s="255"/>
+      <c r="I68" s="255"/>
+      <c r="J68" s="255"/>
+      <c r="K68" s="256"/>
+      <c r="M68" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="N68" s="236" t="s">
+      <c r="N68" s="235" t="s">
         <v>150</v>
       </c>
-      <c r="O68" s="312" t="s">
+      <c r="O68" s="368" t="s">
         <v>144</v>
       </c>
-      <c r="P68" s="313"/>
-      <c r="R68" s="316" t="s">
+      <c r="P68" s="369"/>
+      <c r="R68" s="372" t="s">
         <v>151</v>
       </c>
-      <c r="S68" s="317"/>
-      <c r="T68" s="317"/>
-      <c r="U68" s="318"/>
+      <c r="S68" s="373"/>
+      <c r="T68" s="373"/>
+      <c r="U68" s="374"/>
       <c r="W68" s="35"/>
       <c r="X68" s="35"/>
       <c r="Y68" s="35"/>
@@ -5748,28 +5807,28 @@
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="30"/>
-      <c r="F69" s="407"/>
-      <c r="G69" s="242" t="s">
+      <c r="F69" s="259"/>
+      <c r="G69" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="H69" s="406" t="s">
+      <c r="H69" s="258" t="s">
         <v>134</v>
       </c>
-      <c r="I69" s="406"/>
-      <c r="J69" s="406"/>
-      <c r="K69" s="243" t="s">
+      <c r="I69" s="258"/>
+      <c r="J69" s="258"/>
+      <c r="K69" s="242" t="s">
         <v>133</v>
       </c>
-      <c r="M69" s="234">
+      <c r="M69" s="233">
         <v>1</v>
       </c>
-      <c r="N69" s="235"/>
-      <c r="O69" s="314"/>
-      <c r="P69" s="315"/>
-      <c r="R69" s="319"/>
-      <c r="S69" s="320"/>
-      <c r="T69" s="320"/>
-      <c r="U69" s="321"/>
+      <c r="N69" s="234"/>
+      <c r="O69" s="370"/>
+      <c r="P69" s="371"/>
+      <c r="R69" s="375"/>
+      <c r="S69" s="305"/>
+      <c r="T69" s="305"/>
+      <c r="U69" s="376"/>
       <c r="W69" s="35"/>
       <c r="X69" s="35"/>
       <c r="Y69" s="35"/>
@@ -5786,20 +5845,20 @@
       <c r="G70" s="166">
         <v>1</v>
       </c>
-      <c r="H70" s="279"/>
-      <c r="I70" s="279"/>
-      <c r="J70" s="279"/>
+      <c r="H70" s="257"/>
+      <c r="I70" s="257"/>
+      <c r="J70" s="257"/>
       <c r="K70" s="167"/>
       <c r="M70" s="52">
         <v>2</v>
       </c>
-      <c r="N70" s="203"/>
-      <c r="O70" s="325"/>
-      <c r="P70" s="326"/>
-      <c r="R70" s="319"/>
-      <c r="S70" s="320"/>
-      <c r="T70" s="320"/>
-      <c r="U70" s="321"/>
+      <c r="N70" s="202"/>
+      <c r="O70" s="246"/>
+      <c r="P70" s="247"/>
+      <c r="R70" s="375"/>
+      <c r="S70" s="305"/>
+      <c r="T70" s="305"/>
+      <c r="U70" s="376"/>
       <c r="W70" s="35"/>
       <c r="X70" s="35"/>
       <c r="Y70" s="35"/>
@@ -5816,20 +5875,20 @@
       <c r="G71" s="166">
         <v>2</v>
       </c>
-      <c r="H71" s="279"/>
-      <c r="I71" s="279"/>
-      <c r="J71" s="279"/>
+      <c r="H71" s="257"/>
+      <c r="I71" s="257"/>
+      <c r="J71" s="257"/>
       <c r="K71" s="167"/>
       <c r="M71" s="52">
         <v>3</v>
       </c>
-      <c r="N71" s="203"/>
-      <c r="O71" s="325"/>
-      <c r="P71" s="326"/>
-      <c r="R71" s="319"/>
-      <c r="S71" s="320"/>
-      <c r="T71" s="320"/>
-      <c r="U71" s="321"/>
+      <c r="N71" s="202"/>
+      <c r="O71" s="246"/>
+      <c r="P71" s="247"/>
+      <c r="R71" s="375"/>
+      <c r="S71" s="305"/>
+      <c r="T71" s="305"/>
+      <c r="U71" s="376"/>
       <c r="W71" s="35"/>
       <c r="X71" s="35"/>
       <c r="Y71" s="35"/>
@@ -5846,20 +5905,20 @@
       <c r="G72" s="166">
         <v>3</v>
       </c>
-      <c r="H72" s="279"/>
-      <c r="I72" s="279"/>
-      <c r="J72" s="279"/>
+      <c r="H72" s="257"/>
+      <c r="I72" s="257"/>
+      <c r="J72" s="257"/>
       <c r="K72" s="167"/>
       <c r="M72" s="52">
         <v>4</v>
       </c>
-      <c r="N72" s="203"/>
-      <c r="O72" s="325"/>
-      <c r="P72" s="326"/>
-      <c r="R72" s="319"/>
-      <c r="S72" s="320"/>
-      <c r="T72" s="320"/>
-      <c r="U72" s="321"/>
+      <c r="N72" s="202"/>
+      <c r="O72" s="246"/>
+      <c r="P72" s="247"/>
+      <c r="R72" s="375"/>
+      <c r="S72" s="305"/>
+      <c r="T72" s="305"/>
+      <c r="U72" s="376"/>
       <c r="W72" s="35"/>
       <c r="X72" s="35"/>
       <c r="Y72" s="35"/>
@@ -5876,20 +5935,20 @@
       <c r="G73" s="166">
         <v>4</v>
       </c>
-      <c r="H73" s="279"/>
-      <c r="I73" s="279"/>
-      <c r="J73" s="279"/>
+      <c r="H73" s="257"/>
+      <c r="I73" s="257"/>
+      <c r="J73" s="257"/>
       <c r="K73" s="167"/>
       <c r="M73" s="52">
         <v>5</v>
       </c>
-      <c r="N73" s="203"/>
-      <c r="O73" s="325"/>
-      <c r="P73" s="326"/>
-      <c r="R73" s="319"/>
-      <c r="S73" s="320"/>
-      <c r="T73" s="320"/>
-      <c r="U73" s="321"/>
+      <c r="N73" s="202"/>
+      <c r="O73" s="246"/>
+      <c r="P73" s="247"/>
+      <c r="R73" s="375"/>
+      <c r="S73" s="305"/>
+      <c r="T73" s="305"/>
+      <c r="U73" s="376"/>
       <c r="W73" s="35"/>
       <c r="X73" s="35"/>
       <c r="Y73" s="35"/>
@@ -5906,20 +5965,20 @@
       <c r="G74" s="166">
         <v>5</v>
       </c>
-      <c r="H74" s="279"/>
-      <c r="I74" s="279"/>
-      <c r="J74" s="279"/>
+      <c r="H74" s="257"/>
+      <c r="I74" s="257"/>
+      <c r="J74" s="257"/>
       <c r="K74" s="167"/>
       <c r="M74" s="52">
         <v>6</v>
       </c>
-      <c r="N74" s="203"/>
-      <c r="O74" s="325"/>
-      <c r="P74" s="326"/>
-      <c r="R74" s="319"/>
-      <c r="S74" s="320"/>
-      <c r="T74" s="320"/>
-      <c r="U74" s="321"/>
+      <c r="N74" s="202"/>
+      <c r="O74" s="246"/>
+      <c r="P74" s="247"/>
+      <c r="R74" s="375"/>
+      <c r="S74" s="305"/>
+      <c r="T74" s="305"/>
+      <c r="U74" s="376"/>
       <c r="W74" s="35"/>
       <c r="X74" s="35"/>
       <c r="Y74" s="35"/>
@@ -5936,88 +5995,88 @@
       <c r="G75" s="166">
         <v>6</v>
       </c>
-      <c r="H75" s="279"/>
-      <c r="I75" s="279"/>
-      <c r="J75" s="279"/>
+      <c r="H75" s="257"/>
+      <c r="I75" s="257"/>
+      <c r="J75" s="257"/>
       <c r="K75" s="167"/>
       <c r="M75" s="52">
         <v>7</v>
       </c>
-      <c r="N75" s="203"/>
-      <c r="O75" s="325"/>
-      <c r="P75" s="326"/>
-      <c r="R75" s="319"/>
-      <c r="S75" s="320"/>
-      <c r="T75" s="320"/>
-      <c r="U75" s="321"/>
+      <c r="N75" s="202"/>
+      <c r="O75" s="246"/>
+      <c r="P75" s="247"/>
+      <c r="R75" s="375"/>
+      <c r="S75" s="305"/>
+      <c r="T75" s="305"/>
+      <c r="U75" s="376"/>
     </row>
     <row r="76" spans="2:28" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B76" s="190"/>
-      <c r="C76" s="191"/>
-      <c r="D76" s="191"/>
-      <c r="E76" s="192"/>
-      <c r="F76" s="191"/>
-      <c r="G76" s="239">
+      <c r="B76" s="189"/>
+      <c r="C76" s="190"/>
+      <c r="D76" s="190"/>
+      <c r="E76" s="191"/>
+      <c r="F76" s="190"/>
+      <c r="G76" s="238">
         <v>7</v>
       </c>
-      <c r="H76" s="402"/>
-      <c r="I76" s="402"/>
-      <c r="J76" s="402"/>
-      <c r="K76" s="241"/>
+      <c r="H76" s="253"/>
+      <c r="I76" s="253"/>
+      <c r="J76" s="253"/>
+      <c r="K76" s="240"/>
       <c r="M76" s="53">
         <v>8</v>
       </c>
-      <c r="N76" s="204"/>
-      <c r="O76" s="327"/>
-      <c r="P76" s="328"/>
-      <c r="R76" s="322"/>
-      <c r="S76" s="323"/>
-      <c r="T76" s="323"/>
-      <c r="U76" s="324"/>
+      <c r="N76" s="203"/>
+      <c r="O76" s="380"/>
+      <c r="P76" s="381"/>
+      <c r="R76" s="377"/>
+      <c r="S76" s="378"/>
+      <c r="T76" s="378"/>
+      <c r="U76" s="379"/>
     </row>
     <row r="77" spans="2:28" ht="21.95" customHeight="1">
-      <c r="B77" s="201"/>
-      <c r="C77" s="201"/>
-      <c r="D77" s="201"/>
-      <c r="E77" s="201"/>
-      <c r="F77" s="201"/>
-      <c r="G77" s="202"/>
-      <c r="H77" s="202"/>
-      <c r="I77" s="202"/>
-      <c r="J77" s="202"/>
-      <c r="K77" s="202"/>
-      <c r="L77" s="201"/>
-      <c r="M77" s="201"/>
-      <c r="N77" s="201"/>
-      <c r="O77" s="202"/>
-      <c r="P77" s="202"/>
-      <c r="Q77" s="202"/>
-      <c r="R77" s="202"/>
-      <c r="S77" s="202"/>
-      <c r="T77" s="202"/>
-      <c r="U77" s="202"/>
+      <c r="B77" s="200"/>
+      <c r="C77" s="200"/>
+      <c r="D77" s="200"/>
+      <c r="E77" s="200"/>
+      <c r="F77" s="200"/>
+      <c r="G77" s="201"/>
+      <c r="H77" s="201"/>
+      <c r="I77" s="201"/>
+      <c r="J77" s="201"/>
+      <c r="K77" s="201"/>
+      <c r="L77" s="200"/>
+      <c r="M77" s="200"/>
+      <c r="N77" s="200"/>
+      <c r="O77" s="201"/>
+      <c r="P77" s="201"/>
+      <c r="Q77" s="201"/>
+      <c r="R77" s="201"/>
+      <c r="S77" s="201"/>
+      <c r="T77" s="201"/>
+      <c r="U77" s="201"/>
     </row>
     <row r="78" spans="2:28" ht="30" customHeight="1">
-      <c r="B78" s="202"/>
-      <c r="C78" s="202"/>
-      <c r="D78" s="202"/>
-      <c r="E78" s="202"/>
-      <c r="F78" s="202"/>
-      <c r="G78" s="202"/>
-      <c r="H78" s="202"/>
-      <c r="I78" s="202"/>
-      <c r="J78" s="202"/>
-      <c r="K78" s="202"/>
-      <c r="L78" s="202"/>
-      <c r="M78" s="202"/>
-      <c r="N78" s="202"/>
-      <c r="O78" s="202"/>
-      <c r="P78" s="202"/>
-      <c r="Q78" s="202"/>
-      <c r="R78" s="202"/>
-      <c r="S78" s="202"/>
-      <c r="T78" s="202"/>
-      <c r="U78" s="202"/>
+      <c r="B78" s="201"/>
+      <c r="C78" s="201"/>
+      <c r="D78" s="201"/>
+      <c r="E78" s="201"/>
+      <c r="F78" s="201"/>
+      <c r="G78" s="201"/>
+      <c r="H78" s="201"/>
+      <c r="I78" s="201"/>
+      <c r="J78" s="201"/>
+      <c r="K78" s="201"/>
+      <c r="L78" s="201"/>
+      <c r="M78" s="201"/>
+      <c r="N78" s="201"/>
+      <c r="O78" s="201"/>
+      <c r="P78" s="201"/>
+      <c r="Q78" s="201"/>
+      <c r="R78" s="201"/>
+      <c r="S78" s="201"/>
+      <c r="T78" s="201"/>
+      <c r="U78" s="201"/>
     </row>
     <row r="79" spans="2:28" ht="30" customHeight="1">
       <c r="B79" s="113"/>
@@ -8050,12 +8109,84 @@
       <c r="D172" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="O74:P74"/>
+  <mergeCells count="98">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="H9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="Q5:U6"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="O11:P13"/>
+    <mergeCell ref="O7:P10"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="R68:U76"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="Z21:AA22"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="S8:U10"/>
+    <mergeCell ref="S12:U13"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C45:E45"/>
@@ -8072,81 +8203,11 @@
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="Z21:AA22"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="S8:U10"/>
-    <mergeCell ref="S12:U13"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="Q5:U6"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="O11:P13"/>
-    <mergeCell ref="O7:P10"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="R68:U76"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="K9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="O74:P74"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8179,42 +8240,42 @@
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="226" customWidth="1"/>
-    <col min="7" max="7" width="10" style="229" customWidth="1"/>
-    <col min="8" max="8" width="9" style="224" customWidth="1"/>
+    <col min="6" max="6" width="10" style="225" customWidth="1"/>
+    <col min="7" max="7" width="10" style="228" customWidth="1"/>
+    <col min="8" max="8" width="9" style="223" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="F1" s="225"/>
-      <c r="G1" s="228">
+      <c r="F1" s="224"/>
+      <c r="G1" s="227">
         <v>12.34</v>
       </c>
-      <c r="H1" s="227">
+      <c r="H1" s="226">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="2:11">
-      <c r="F2" s="225"/>
-      <c r="G2" s="228">
+      <c r="F2" s="224"/>
+      <c r="G2" s="227">
         <v>7.28</v>
       </c>
-      <c r="H2" s="227">
+      <c r="H2" s="226">
         <v>90</v>
       </c>
-      <c r="J2" s="230"/>
+      <c r="J2" s="229"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="F3" s="225"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="227">
+      <c r="F3" s="224"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="226">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="18" customHeight="1" thickBot="1">
-      <c r="F4" s="225"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="227">
+      <c r="F4" s="224"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="226">
         <v>90</v>
       </c>
     </row>
@@ -8231,9 +8292,9 @@
       <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="225"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="227">
+      <c r="F5" s="224"/>
+      <c r="G5" s="227"/>
+      <c r="H5" s="226">
         <v>90</v>
       </c>
     </row>
@@ -8244,9 +8305,9 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="228"/>
-      <c r="H6" s="227">
+      <c r="F6" s="224"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="226">
         <v>90</v>
       </c>
     </row>
@@ -8257,9 +8318,9 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="227">
+      <c r="F7" s="224"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="226">
         <v>90</v>
       </c>
     </row>
@@ -8270,9 +8331,9 @@
       <c r="C8" s="9"/>
       <c r="D8" s="21"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="228"/>
-      <c r="H8" s="227">
+      <c r="F8" s="224"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="226">
         <v>90</v>
       </c>
     </row>
@@ -8283,9 +8344,9 @@
       <c r="C9" s="9"/>
       <c r="D9" s="11"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="225"/>
-      <c r="G9" s="228"/>
-      <c r="H9" s="227">
+      <c r="F9" s="224"/>
+      <c r="G9" s="227"/>
+      <c r="H9" s="226">
         <v>90</v>
       </c>
     </row>
@@ -8298,9 +8359,9 @@
       <c r="E10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="225"/>
-      <c r="G10" s="228"/>
-      <c r="H10" s="227">
+      <c r="F10" s="224"/>
+      <c r="G10" s="227"/>
+      <c r="H10" s="226">
         <v>90</v>
       </c>
     </row>
@@ -8313,9 +8374,9 @@
       <c r="E11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="225"/>
-      <c r="G11" s="228"/>
-      <c r="H11" s="227">
+      <c r="F11" s="224"/>
+      <c r="G11" s="227"/>
+      <c r="H11" s="226">
         <v>90</v>
       </c>
       <c r="I11" s="12" t="str">
@@ -8336,9 +8397,9 @@
       <c r="E12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="225"/>
-      <c r="G12" s="228"/>
-      <c r="H12" s="227">
+      <c r="F12" s="224"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="226">
         <v>90</v>
       </c>
       <c r="I12" s="13" t="str">
@@ -8359,11 +8420,11 @@
       <c r="E13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="225"/>
-      <c r="G13" s="228">
+      <c r="F13" s="224"/>
+      <c r="G13" s="227">
         <v>4.66</v>
       </c>
-      <c r="H13" s="227">
+      <c r="H13" s="226">
         <v>90</v>
       </c>
       <c r="I13" s="12" t="str">
@@ -8378,11 +8439,11 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="225"/>
-      <c r="G14" s="228">
+      <c r="F14" s="224"/>
+      <c r="G14" s="227">
         <v>4.4400000000000004</v>
       </c>
-      <c r="H14" s="227">
+      <c r="H14" s="226">
         <v>70</v>
       </c>
       <c r="I14" s="12">
@@ -8397,9 +8458,9 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="225"/>
-      <c r="G15" s="228"/>
-      <c r="H15" s="227">
+      <c r="F15" s="224"/>
+      <c r="G15" s="227"/>
+      <c r="H15" s="226">
         <v>70</v>
       </c>
     </row>
@@ -8410,9 +8471,9 @@
       <c r="C16" s="9"/>
       <c r="D16" s="14"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="225"/>
-      <c r="G16" s="228"/>
-      <c r="H16" s="227">
+      <c r="F16" s="224"/>
+      <c r="G16" s="227"/>
+      <c r="H16" s="226">
         <v>70</v>
       </c>
     </row>
@@ -8423,9 +8484,9 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="225"/>
-      <c r="G17" s="228"/>
-      <c r="H17" s="227">
+      <c r="F17" s="224"/>
+      <c r="G17" s="227"/>
+      <c r="H17" s="226">
         <v>70</v>
       </c>
     </row>
@@ -8436,9 +8497,9 @@
       <c r="C18" s="9"/>
       <c r="D18" s="21"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="225"/>
-      <c r="G18" s="228"/>
-      <c r="H18" s="227">
+      <c r="F18" s="224"/>
+      <c r="G18" s="227"/>
+      <c r="H18" s="226">
         <v>70</v>
       </c>
     </row>
@@ -8451,9 +8512,9 @@
       <c r="E19" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="225"/>
-      <c r="G19" s="228"/>
-      <c r="H19" s="227">
+      <c r="F19" s="224"/>
+      <c r="G19" s="227"/>
+      <c r="H19" s="226">
         <v>70</v>
       </c>
     </row>
@@ -8466,9 +8527,9 @@
       <c r="E20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="225"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="227">
+      <c r="F20" s="224"/>
+      <c r="G20" s="227"/>
+      <c r="H20" s="226">
         <v>70</v>
       </c>
     </row>
@@ -8481,9 +8542,9 @@
       <c r="E21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="225"/>
-      <c r="G21" s="228"/>
-      <c r="H21" s="227">
+      <c r="F21" s="224"/>
+      <c r="G21" s="227"/>
+      <c r="H21" s="226">
         <v>70</v>
       </c>
     </row>
@@ -8496,9 +8557,9 @@
       <c r="E22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="225"/>
-      <c r="G22" s="228"/>
-      <c r="H22" s="227">
+      <c r="F22" s="224"/>
+      <c r="G22" s="227"/>
+      <c r="H22" s="226">
         <v>70</v>
       </c>
     </row>
@@ -8511,9 +8572,9 @@
       <c r="E23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="225"/>
-      <c r="G23" s="228"/>
-      <c r="H23" s="227">
+      <c r="F23" s="224"/>
+      <c r="G23" s="227"/>
+      <c r="H23" s="226">
         <v>70</v>
       </c>
     </row>
@@ -8526,9 +8587,9 @@
       <c r="E24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="225"/>
-      <c r="G24" s="228"/>
-      <c r="H24" s="227">
+      <c r="F24" s="224"/>
+      <c r="G24" s="227"/>
+      <c r="H24" s="226">
         <v>70</v>
       </c>
     </row>
@@ -8541,9 +8602,9 @@
       <c r="E25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="225"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="227">
+      <c r="F25" s="224"/>
+      <c r="G25" s="227"/>
+      <c r="H25" s="226">
         <v>70</v>
       </c>
     </row>
@@ -8556,9 +8617,9 @@
       <c r="E26" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="225"/>
-      <c r="G26" s="228"/>
-      <c r="H26" s="227">
+      <c r="F26" s="224"/>
+      <c r="G26" s="227"/>
+      <c r="H26" s="226">
         <v>70</v>
       </c>
     </row>
@@ -8571,9 +8632,9 @@
       <c r="E27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="225"/>
-      <c r="G27" s="228"/>
-      <c r="H27" s="227">
+      <c r="F27" s="224"/>
+      <c r="G27" s="227"/>
+      <c r="H27" s="226">
         <v>70</v>
       </c>
     </row>
@@ -8586,9 +8647,9 @@
       <c r="E28" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="225"/>
-      <c r="G28" s="228"/>
-      <c r="H28" s="227">
+      <c r="F28" s="224"/>
+      <c r="G28" s="227"/>
+      <c r="H28" s="226">
         <v>70</v>
       </c>
     </row>
@@ -8597,13 +8658,13 @@
         <v>69</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="245"/>
+      <c r="D29" s="244"/>
       <c r="E29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="225"/>
-      <c r="G29" s="228"/>
-      <c r="H29" s="227">
+      <c r="F29" s="224"/>
+      <c r="G29" s="227"/>
+      <c r="H29" s="226">
         <v>70</v>
       </c>
     </row>
@@ -8614,9 +8675,9 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="225"/>
-      <c r="G30" s="228"/>
-      <c r="H30" s="227">
+      <c r="F30" s="224"/>
+      <c r="G30" s="227"/>
+      <c r="H30" s="226">
         <v>70</v>
       </c>
     </row>
@@ -8629,11 +8690,11 @@
       <c r="E31" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="225"/>
-      <c r="G31" s="228">
+      <c r="F31" s="224"/>
+      <c r="G31" s="227">
         <v>2.95</v>
       </c>
-      <c r="H31" s="227">
+      <c r="H31" s="226">
         <v>70</v>
       </c>
     </row>
@@ -8644,11 +8705,11 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="225"/>
-      <c r="G32" s="228">
+      <c r="F32" s="224"/>
+      <c r="G32" s="227">
         <v>2.64</v>
       </c>
-      <c r="H32" s="227">
+      <c r="H32" s="226">
         <v>50</v>
       </c>
     </row>
@@ -8659,9 +8720,9 @@
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="225"/>
-      <c r="G33" s="228"/>
-      <c r="H33" s="227">
+      <c r="F33" s="224"/>
+      <c r="G33" s="227"/>
+      <c r="H33" s="226">
         <v>50</v>
       </c>
     </row>
@@ -8672,9 +8733,9 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="225"/>
-      <c r="G34" s="228"/>
-      <c r="H34" s="227">
+      <c r="F34" s="224"/>
+      <c r="G34" s="227"/>
+      <c r="H34" s="226">
         <v>50</v>
       </c>
     </row>
@@ -8687,9 +8748,9 @@
       <c r="E35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="225"/>
-      <c r="G35" s="228"/>
-      <c r="H35" s="227">
+      <c r="F35" s="224"/>
+      <c r="G35" s="227"/>
+      <c r="H35" s="226">
         <v>50</v>
       </c>
     </row>
@@ -8700,9 +8761,9 @@
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="225"/>
-      <c r="G36" s="228"/>
-      <c r="H36" s="227">
+      <c r="F36" s="224"/>
+      <c r="G36" s="227"/>
+      <c r="H36" s="226">
         <v>50</v>
       </c>
     </row>
@@ -8713,92 +8774,92 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="225"/>
-      <c r="G37" s="228"/>
-      <c r="H37" s="227">
+      <c r="F37" s="224"/>
+      <c r="G37" s="227"/>
+      <c r="H37" s="226">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="F38" s="225"/>
-      <c r="G38" s="228"/>
-      <c r="H38" s="227">
+      <c r="F38" s="224"/>
+      <c r="G38" s="227"/>
+      <c r="H38" s="226">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="F39" s="225"/>
-      <c r="G39" s="228"/>
-      <c r="H39" s="227">
+      <c r="F39" s="224"/>
+      <c r="G39" s="227"/>
+      <c r="H39" s="226">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="F40" s="225"/>
-      <c r="G40" s="228">
+      <c r="F40" s="224"/>
+      <c r="G40" s="227">
         <v>1.5</v>
       </c>
-      <c r="H40" s="227">
+      <c r="H40" s="226">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="F41" s="225"/>
-      <c r="G41" s="228">
+      <c r="F41" s="224"/>
+      <c r="G41" s="227">
         <v>1.4</v>
       </c>
-      <c r="H41" s="227">
+      <c r="H41" s="226">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="F42" s="225"/>
-      <c r="G42" s="228"/>
-      <c r="H42" s="227">
+      <c r="F42" s="224"/>
+      <c r="G42" s="227"/>
+      <c r="H42" s="226">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="F43" s="225"/>
-      <c r="G43" s="228"/>
-      <c r="H43" s="227">
+      <c r="F43" s="224"/>
+      <c r="G43" s="227"/>
+      <c r="H43" s="226">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="F44" s="225"/>
-      <c r="G44" s="228"/>
-      <c r="H44" s="227">
+      <c r="F44" s="224"/>
+      <c r="G44" s="227"/>
+      <c r="H44" s="226">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="F45" s="225"/>
-      <c r="G45" s="228"/>
-      <c r="H45" s="227">
+      <c r="F45" s="224"/>
+      <c r="G45" s="227"/>
+      <c r="H45" s="226">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="F46" s="225"/>
-      <c r="G46" s="228"/>
-      <c r="H46" s="227">
+      <c r="F46" s="224"/>
+      <c r="G46" s="227"/>
+      <c r="H46" s="226">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="F47" s="225"/>
-      <c r="G47" s="228"/>
-      <c r="H47" s="227">
+      <c r="F47" s="224"/>
+      <c r="G47" s="227"/>
+      <c r="H47" s="226">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="F48" s="225"/>
-      <c r="G48" s="228">
+      <c r="F48" s="224"/>
+      <c r="G48" s="227">
         <v>0.44</v>
       </c>
-      <c r="H48" s="227">
+      <c r="H48" s="226">
         <v>40</v>
       </c>
     </row>

--- a/py/direction_sheet.xlsx
+++ b/py/direction_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diereport\ex0.11\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CDB0A8-1842-4FA0-B6CF-97638F84162E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7083F0-188D-4D54-9549-BB851F6F51E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="input" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">print!$B$1:$U$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">print!$B$1:$U$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="176">
   <si>
     <t>Loại sản xuất</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>STT</t>
-  </si>
-  <si>
-    <t>Ngoại quan</t>
   </si>
   <si>
     <t>～</t>
@@ -460,9 +457,6 @@
   <si>
     <t>Dấu
 khuôn</t>
-  </si>
-  <si>
-    <t>Dừng máy cắt</t>
   </si>
   <si>
     <t>PHIẾU THÔNG TIN SẢN XUẤT</t>
@@ -502,6 +496,78 @@
   </si>
   <si>
     <t>Chiều dài sản phẩm thực tế</t>
+  </si>
+  <si>
+    <t>Gián đoạn</t>
+  </si>
+  <si>
+    <t>121   Sản phẩm bị cuốn vào băng tải</t>
+  </si>
+  <si>
+    <t>122   Sản phẩm cuốn vào lưỡi cưa</t>
+  </si>
+  <si>
+    <t>130   Điều kiện gia nhiệt sai</t>
+  </si>
+  <si>
+    <t>131   Sai loại vật liệu</t>
+  </si>
+  <si>
+    <t>132   Tiếp điểm gia nhiệt bị lỗi</t>
+  </si>
+  <si>
+    <t>133   Chạy gia nhiệt thử sau khi sửa lỗi</t>
+  </si>
+  <si>
+    <t>134   Thay nước làm mát</t>
+  </si>
+  <si>
+    <t>140   Bàn chải hư, diều chỉnh bàn chải</t>
+  </si>
+  <si>
+    <t>141   Thay mới bàn chải</t>
+  </si>
+  <si>
+    <t>142   Billet bị kẹt phần cấp phôi</t>
+  </si>
+  <si>
+    <t>150   Cài đặt giờ không phù hợp</t>
+  </si>
+  <si>
+    <t>101   Họp buổi sáng, check máy, in phiếu</t>
+  </si>
+  <si>
+    <t>102   Vệ sinh, dọn dẹp KV làm việc</t>
+  </si>
+  <si>
+    <t>103   Tháo lắp khuôn (1 khuôn)</t>
+  </si>
+  <si>
+    <t>110   Thiết lập chạy tự động</t>
+  </si>
+  <si>
+    <t>111   Máy vận hành tự động</t>
+  </si>
+  <si>
+    <t>112   RAM không lùi về hoàn toàn</t>
+  </si>
+  <si>
+    <t>113   Dính nhôm dummy, container</t>
+  </si>
+  <si>
+    <t>114   Billet pusher không lùi về hoàn toàn</t>
+  </si>
+  <si>
+    <t>115   main-shear cắt discard bị dính</t>
+  </si>
+  <si>
+    <t>116   Xử lý discard không rơi</t>
+  </si>
+  <si>
+    <t>117   HE/OK tắt, không chạy tự động được</t>
+  </si>
+  <si>
+    <t>120   Không bật auto của runout</t>
   </si>
 </sst>
 </file>
@@ -777,7 +843,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="81">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -1800,6 +1866,17 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1814,7 +1891,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="425">
+  <cellXfs count="429">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2357,15 +2434,6 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2390,18 +2458,12 @@
     <xf numFmtId="22" fontId="9" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2486,18 +2548,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2513,12 +2563,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2526,6 +2570,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="185" fontId="26" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="25" fillId="0" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="80" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2534,6 +2584,114 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="81" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2549,22 +2707,6 @@
     <xf numFmtId="166" fontId="29" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2598,9 +2740,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2609,12 +2748,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2654,49 +2787,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2785,10 +2875,219 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2806,54 +3105,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2866,192 +3117,32 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="80" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3472,8 +3563,8 @@
   </sheetPr>
   <dimension ref="B1:AI172"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="20.25"/>
@@ -3491,152 +3582,155 @@
     <col min="11" max="11" width="16.125" style="24" customWidth="1"/>
     <col min="12" max="12" width="14.5" style="24" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.625" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.75" style="24" customWidth="1"/>
+    <col min="15" max="15" width="16.875" style="24" customWidth="1"/>
+    <col min="16" max="16" width="17.125" style="24" customWidth="1"/>
+    <col min="17" max="17" width="13.5" style="24" customWidth="1"/>
+    <col min="18" max="18" width="10.375" style="24" customWidth="1"/>
     <col min="19" max="21" width="9.75" style="24" customWidth="1"/>
-    <col min="22" max="71" width="8.75" style="24" customWidth="1"/>
+    <col min="22" max="28" width="8.75" style="24" customWidth="1"/>
+    <col min="29" max="29" width="37.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="30" max="71" width="8.75" style="24" customWidth="1"/>
     <col min="72" max="72" width="2.375" style="24" customWidth="1"/>
     <col min="73" max="16384" width="2.375" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B1" s="389" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="390"/>
-      <c r="D1" s="390"/>
-      <c r="E1" s="390"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
-      <c r="H1" s="391"/>
-      <c r="I1" s="391"/>
-      <c r="J1" s="391"/>
-      <c r="K1" s="391"/>
-      <c r="L1" s="391"/>
-      <c r="M1" s="391"/>
-      <c r="N1" s="391"/>
-      <c r="O1" s="390"/>
-      <c r="P1" s="390"/>
-      <c r="Q1" s="390"/>
-      <c r="R1" s="390"/>
-      <c r="S1" s="390"/>
-      <c r="T1" s="390"/>
-      <c r="U1" s="392"/>
+      <c r="B1" s="388" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="389"/>
+      <c r="F1" s="390"/>
+      <c r="G1" s="390"/>
+      <c r="H1" s="390"/>
+      <c r="I1" s="390"/>
+      <c r="J1" s="390"/>
+      <c r="K1" s="390"/>
+      <c r="L1" s="390"/>
+      <c r="M1" s="390"/>
+      <c r="N1" s="390"/>
+      <c r="O1" s="389"/>
+      <c r="P1" s="389"/>
+      <c r="Q1" s="389"/>
+      <c r="R1" s="389"/>
+      <c r="S1" s="389"/>
+      <c r="T1" s="389"/>
+      <c r="U1" s="391"/>
     </row>
     <row r="2" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B2" s="231" t="s">
-        <v>148</v>
+      <c r="B2" s="226" t="s">
+        <v>146</v>
       </c>
       <c r="C2" s="131">
         <f>input!D18</f>
         <v>0</v>
       </c>
       <c r="D2" s="132" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="133">
         <f>input!D8</f>
         <v>0</v>
       </c>
-      <c r="F2" s="393"/>
-      <c r="G2" s="394"/>
-      <c r="H2" s="219"/>
+      <c r="F2" s="392"/>
+      <c r="G2" s="393"/>
+      <c r="H2" s="214"/>
       <c r="I2" s="124"/>
-      <c r="J2" s="219"/>
+      <c r="J2" s="214"/>
       <c r="K2" s="125"/>
-      <c r="L2" s="394"/>
-      <c r="M2" s="306"/>
+      <c r="L2" s="393"/>
+      <c r="M2" s="309"/>
       <c r="N2" s="126"/>
-      <c r="O2" s="262" t="s">
-        <v>86</v>
-      </c>
-      <c r="P2" s="307"/>
-      <c r="Q2" s="262" t="s">
-        <v>123</v>
-      </c>
-      <c r="R2" s="309"/>
-      <c r="S2" s="309"/>
-      <c r="T2" s="309"/>
-      <c r="U2" s="307"/>
+      <c r="O2" s="283" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="310"/>
+      <c r="Q2" s="283" t="s">
+        <v>122</v>
+      </c>
+      <c r="R2" s="312"/>
+      <c r="S2" s="312"/>
+      <c r="T2" s="312"/>
+      <c r="U2" s="310"/>
     </row>
     <row r="3" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B3" s="216" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="220">
+      <c r="B3" s="211" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="215">
         <f>input!D17</f>
         <v>0</v>
       </c>
-      <c r="D3" s="220" t="s">
+      <c r="D3" s="215" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="134">
         <f>input!D9</f>
         <v>0</v>
       </c>
-      <c r="F3" s="393"/>
-      <c r="G3" s="394"/>
-      <c r="H3" s="219"/>
+      <c r="F3" s="392"/>
+      <c r="G3" s="393"/>
+      <c r="H3" s="214"/>
       <c r="I3" s="125"/>
-      <c r="J3" s="219"/>
+      <c r="J3" s="214"/>
       <c r="K3" s="35"/>
-      <c r="L3" s="394"/>
-      <c r="M3" s="306"/>
+      <c r="L3" s="393"/>
+      <c r="M3" s="309"/>
       <c r="N3" s="126"/>
-      <c r="O3" s="264" t="s">
-        <v>128</v>
-      </c>
-      <c r="P3" s="308"/>
-      <c r="Q3" s="264"/>
-      <c r="R3" s="310"/>
-      <c r="S3" s="310"/>
-      <c r="T3" s="310"/>
-      <c r="U3" s="308"/>
+      <c r="O3" s="285" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="311"/>
+      <c r="Q3" s="285"/>
+      <c r="R3" s="313"/>
+      <c r="S3" s="313"/>
+      <c r="T3" s="313"/>
+      <c r="U3" s="311"/>
     </row>
     <row r="4" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B4" s="25"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="401" t="s">
+      <c r="F4" s="189"/>
+      <c r="G4" s="372" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="373"/>
+      <c r="I4" s="373"/>
+      <c r="J4" s="374"/>
+      <c r="K4" s="372" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="402"/>
-      <c r="I4" s="402"/>
-      <c r="J4" s="403"/>
-      <c r="K4" s="401" t="s">
-        <v>138</v>
-      </c>
-      <c r="L4" s="402"/>
-      <c r="M4" s="403"/>
+      <c r="L4" s="373"/>
+      <c r="M4" s="374"/>
       <c r="N4" s="128"/>
       <c r="O4" s="182" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="183" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q4" s="262" t="s">
-        <v>124</v>
-      </c>
-      <c r="R4" s="309"/>
-      <c r="S4" s="309"/>
-      <c r="T4" s="309"/>
-      <c r="U4" s="307"/>
+      <c r="Q4" s="283" t="s">
+        <v>123</v>
+      </c>
+      <c r="R4" s="312"/>
+      <c r="S4" s="312"/>
+      <c r="T4" s="312"/>
+      <c r="U4" s="310"/>
     </row>
     <row r="5" spans="2:31" ht="28.5" customHeight="1">
-      <c r="B5" s="290" t="s">
+      <c r="B5" s="364" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="395">
+      <c r="C5" s="366">
         <f>input!D6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="396"/>
-      <c r="E5" s="397"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="368"/>
       <c r="F5" s="121"/>
       <c r="G5" s="130" t="s">
         <v>2</v>
@@ -3646,23 +3740,23 @@
         <v/>
       </c>
       <c r="I5" s="169" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J5" s="175" t="s">
-        <v>135</v>
-      </c>
-      <c r="K5" s="204" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="199" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="176" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="345" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="176" t="s">
-        <v>100</v>
-      </c>
-      <c r="M5" s="346" t="s">
-        <v>130</v>
-      </c>
       <c r="N5" s="121"/>
-      <c r="O5" s="342"/>
-      <c r="P5" s="344"/>
+      <c r="O5" s="341"/>
+      <c r="P5" s="343"/>
       <c r="Q5" s="349"/>
       <c r="R5" s="350"/>
       <c r="S5" s="350"/>
@@ -3670,10 +3764,10 @@
       <c r="U5" s="351"/>
     </row>
     <row r="6" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B6" s="291"/>
-      <c r="C6" s="398"/>
-      <c r="D6" s="399"/>
-      <c r="E6" s="400"/>
+      <c r="B6" s="365"/>
+      <c r="C6" s="369"/>
+      <c r="D6" s="370"/>
+      <c r="E6" s="371"/>
       <c r="F6" s="121"/>
       <c r="G6" s="170">
         <v>6061</v>
@@ -3691,14 +3785,14 @@
         <f>input!D13</f>
         <v>0</v>
       </c>
-      <c r="L6" s="236">
+      <c r="L6" s="227">
         <f>ROUND(input!D14,2)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="347"/>
+      <c r="M6" s="346"/>
       <c r="N6" s="122"/>
-      <c r="O6" s="343"/>
-      <c r="P6" s="345"/>
+      <c r="O6" s="342"/>
+      <c r="P6" s="344"/>
       <c r="Q6" s="352"/>
       <c r="R6" s="353"/>
       <c r="S6" s="353"/>
@@ -3706,15 +3800,15 @@
       <c r="U6" s="354"/>
     </row>
     <row r="7" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B7" s="292" t="s">
+      <c r="B7" s="394" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="383">
+      <c r="C7" s="396">
         <f>input!D7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="384"/>
-      <c r="E7" s="385"/>
+      <c r="D7" s="397"/>
+      <c r="E7" s="398"/>
       <c r="F7" s="121"/>
       <c r="G7" s="170">
         <v>6063</v>
@@ -3727,40 +3821,40 @@
         <v>4</v>
       </c>
       <c r="J7" s="179" t="s">
-        <v>136</v>
-      </c>
-      <c r="K7" s="204" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="199" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="180" t="s">
         <v>101</v>
       </c>
-      <c r="L7" s="180" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" s="348">
+      <c r="M7" s="347">
         <f>input!K11</f>
         <v>0</v>
       </c>
       <c r="N7" s="123"/>
-      <c r="O7" s="362" t="s">
-        <v>145</v>
-      </c>
-      <c r="P7" s="363"/>
-      <c r="Q7" s="340" t="s">
-        <v>127</v>
-      </c>
-      <c r="R7" s="341"/>
-      <c r="S7" s="337" t="s">
-        <v>139</v>
-      </c>
-      <c r="T7" s="338"/>
-      <c r="U7" s="339"/>
+      <c r="O7" s="358" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="359"/>
+      <c r="Q7" s="414" t="s">
+        <v>126</v>
+      </c>
+      <c r="R7" s="415"/>
+      <c r="S7" s="411" t="s">
+        <v>138</v>
+      </c>
+      <c r="T7" s="412"/>
+      <c r="U7" s="413"/>
     </row>
     <row r="8" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B8" s="382"/>
-      <c r="C8" s="386"/>
-      <c r="D8" s="387"/>
-      <c r="E8" s="388"/>
+      <c r="B8" s="395"/>
+      <c r="C8" s="399"/>
+      <c r="D8" s="400"/>
+      <c r="E8" s="401"/>
       <c r="F8" s="121"/>
-      <c r="G8" s="243" t="s">
+      <c r="G8" s="232" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="174"/>
@@ -3769,27 +3863,27 @@
         <f>input!D31</f>
         <v>0</v>
       </c>
-      <c r="K8" s="413">
+      <c r="K8" s="235">
         <f>input!D10*1</f>
         <v>0</v>
       </c>
-      <c r="L8" s="414">
+      <c r="L8" s="236">
         <f>input!D15</f>
         <v>0</v>
       </c>
-      <c r="M8" s="415"/>
+      <c r="M8" s="348"/>
       <c r="N8" s="123"/>
-      <c r="O8" s="364"/>
-      <c r="P8" s="365"/>
+      <c r="O8" s="360"/>
+      <c r="P8" s="361"/>
       <c r="Q8" s="355" t="s">
-        <v>126</v>
-      </c>
-      <c r="R8" s="320" t="s">
-        <v>146</v>
-      </c>
-      <c r="S8" s="323"/>
-      <c r="T8" s="325"/>
-      <c r="U8" s="327"/>
+        <v>125</v>
+      </c>
+      <c r="R8" s="323" t="s">
+        <v>144</v>
+      </c>
+      <c r="S8" s="326"/>
+      <c r="T8" s="328"/>
+      <c r="U8" s="330"/>
     </row>
     <row r="9" spans="2:31" ht="6" customHeight="1">
       <c r="B9" s="25"/>
@@ -3798,27 +3892,27 @@
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="404" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9" s="405"/>
-      <c r="J9" s="410" t="str">
+      <c r="H9" s="402" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="403"/>
+      <c r="J9" s="408" t="str">
         <f>input!D36&amp;"-"&amp;input!D37</f>
         <v>-</v>
       </c>
-      <c r="K9" s="417" t="s">
-        <v>153</v>
-      </c>
-      <c r="L9" s="418"/>
-      <c r="M9" s="419"/>
+      <c r="K9" s="375" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="376"/>
+      <c r="M9" s="381"/>
       <c r="N9" s="30"/>
-      <c r="O9" s="364"/>
-      <c r="P9" s="365"/>
+      <c r="O9" s="360"/>
+      <c r="P9" s="361"/>
       <c r="Q9" s="356"/>
-      <c r="R9" s="321"/>
-      <c r="S9" s="328"/>
-      <c r="T9" s="326"/>
-      <c r="U9" s="324"/>
+      <c r="R9" s="324"/>
+      <c r="S9" s="331"/>
+      <c r="T9" s="329"/>
+      <c r="U9" s="327"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" thickBot="1">
       <c r="B10" s="31"/>
@@ -3826,76 +3920,76 @@
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="406"/>
-      <c r="I10" s="407"/>
-      <c r="J10" s="411"/>
-      <c r="K10" s="420"/>
-      <c r="L10" s="416"/>
-      <c r="M10" s="421"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="404"/>
+      <c r="I10" s="405"/>
+      <c r="J10" s="409"/>
+      <c r="K10" s="377"/>
+      <c r="L10" s="378"/>
+      <c r="M10" s="382"/>
       <c r="N10" s="30"/>
-      <c r="O10" s="366"/>
-      <c r="P10" s="367"/>
+      <c r="O10" s="362"/>
+      <c r="P10" s="363"/>
       <c r="Q10" s="357"/>
-      <c r="R10" s="322"/>
-      <c r="S10" s="329"/>
-      <c r="T10" s="330"/>
-      <c r="U10" s="331"/>
-    </row>
-    <row r="11" spans="2:31" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B11" s="290" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="296" t="str">
+      <c r="R10" s="325"/>
+      <c r="S10" s="332"/>
+      <c r="T10" s="333"/>
+      <c r="U10" s="334"/>
+    </row>
+    <row r="11" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B11" s="364" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="384" t="str">
         <f>IF(C13=0,"","DR"&amp;MID(C13,2,4))</f>
         <v/>
       </c>
-      <c r="D11" s="296"/>
-      <c r="E11" s="297"/>
+      <c r="D11" s="384"/>
+      <c r="E11" s="385"/>
       <c r="F11" s="35"/>
-      <c r="H11" s="408"/>
-      <c r="I11" s="409"/>
-      <c r="J11" s="412"/>
-      <c r="K11" s="422"/>
-      <c r="L11" s="423"/>
-      <c r="M11" s="424"/>
+      <c r="H11" s="406"/>
+      <c r="I11" s="407"/>
+      <c r="J11" s="410"/>
+      <c r="K11" s="379"/>
+      <c r="L11" s="380"/>
+      <c r="M11" s="383"/>
       <c r="N11" s="30"/>
-      <c r="O11" s="358"/>
-      <c r="P11" s="359"/>
-      <c r="Q11" s="314"/>
-      <c r="R11" s="317"/>
-      <c r="S11" s="272" t="s">
-        <v>83</v>
-      </c>
-      <c r="T11" s="313"/>
-      <c r="U11" s="273"/>
-    </row>
-    <row r="12" spans="2:31" ht="26.25" customHeight="1">
-      <c r="B12" s="291"/>
-      <c r="C12" s="298"/>
-      <c r="D12" s="298"/>
-      <c r="E12" s="299"/>
+      <c r="O11" s="416"/>
+      <c r="P11" s="417"/>
+      <c r="Q11" s="317"/>
+      <c r="R11" s="320"/>
+      <c r="S11" s="292" t="s">
+        <v>82</v>
+      </c>
+      <c r="T11" s="316"/>
+      <c r="U11" s="293"/>
+    </row>
+    <row r="12" spans="2:31" ht="27.75" customHeight="1">
+      <c r="B12" s="365"/>
+      <c r="C12" s="386"/>
+      <c r="D12" s="386"/>
+      <c r="E12" s="387"/>
       <c r="F12" s="25"/>
       <c r="J12" s="101"/>
       <c r="N12" s="30"/>
-      <c r="O12" s="360"/>
-      <c r="P12" s="361"/>
-      <c r="Q12" s="315"/>
-      <c r="R12" s="318"/>
-      <c r="S12" s="332"/>
-      <c r="T12" s="333"/>
-      <c r="U12" s="334"/>
-    </row>
-    <row r="13" spans="2:31" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B13" s="292" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="298">
+      <c r="O12" s="418"/>
+      <c r="P12" s="419"/>
+      <c r="Q12" s="318"/>
+      <c r="R12" s="321"/>
+      <c r="S12" s="335"/>
+      <c r="T12" s="336"/>
+      <c r="U12" s="337"/>
+    </row>
+    <row r="13" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B13" s="394" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="386">
         <f>input!D32</f>
         <v>0</v>
       </c>
-      <c r="D13" s="298"/>
-      <c r="E13" s="299"/>
+      <c r="D13" s="386"/>
+      <c r="E13" s="387"/>
       <c r="F13" s="25"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
@@ -3907,17 +4001,17 @@
       <c r="N13" s="30"/>
       <c r="O13" s="352"/>
       <c r="P13" s="354"/>
-      <c r="Q13" s="316"/>
-      <c r="R13" s="319"/>
-      <c r="S13" s="293"/>
-      <c r="T13" s="335"/>
-      <c r="U13" s="336"/>
-    </row>
-    <row r="14" spans="2:31" ht="27" customHeight="1" thickBot="1">
-      <c r="B14" s="293"/>
-      <c r="C14" s="300"/>
-      <c r="D14" s="300"/>
-      <c r="E14" s="301"/>
+      <c r="Q13" s="319"/>
+      <c r="R13" s="322"/>
+      <c r="S13" s="338"/>
+      <c r="T13" s="339"/>
+      <c r="U13" s="340"/>
+    </row>
+    <row r="14" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B14" s="338"/>
+      <c r="C14" s="422"/>
+      <c r="D14" s="422"/>
+      <c r="E14" s="423"/>
       <c r="F14" s="35"/>
       <c r="G14" s="120" t="s">
         <v>6</v>
@@ -3929,55 +4023,55 @@
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
       <c r="N14" s="30"/>
-      <c r="O14" s="323" t="s">
-        <v>80</v>
-      </c>
-      <c r="P14" s="324"/>
-      <c r="Q14" s="323" t="s">
-        <v>147</v>
-      </c>
-      <c r="R14" s="325"/>
-      <c r="S14" s="326"/>
-      <c r="T14" s="326"/>
-      <c r="U14" s="324"/>
+      <c r="O14" s="326" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="327"/>
+      <c r="Q14" s="326" t="s">
+        <v>145</v>
+      </c>
+      <c r="R14" s="328"/>
+      <c r="S14" s="329"/>
+      <c r="T14" s="329"/>
+      <c r="U14" s="327"/>
     </row>
     <row r="15" spans="2:31" ht="52.5" customHeight="1" thickBot="1">
-      <c r="B15" s="194" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="195"/>
-      <c r="D15" s="195"/>
-      <c r="E15" s="195"/>
-      <c r="F15" s="219"/>
+      <c r="B15" s="191" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="192"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="214"/>
       <c r="G15" s="184" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="185" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="185" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="185" t="s">
+      <c r="J15" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="185" t="s">
+      <c r="K15" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="K15" s="186" t="s">
+      <c r="L15" s="185" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" s="185" t="s">
+        <v>152</v>
+      </c>
+      <c r="N15" s="186" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" s="200" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="185" t="s">
-        <v>141</v>
-      </c>
-      <c r="M15" s="185" t="s">
-        <v>9</v>
-      </c>
-      <c r="N15" s="186" t="s">
-        <v>140</v>
-      </c>
-      <c r="O15" s="205" t="s">
+      <c r="P15" s="185" t="s">
         <v>120</v>
-      </c>
-      <c r="P15" s="185" t="s">
-        <v>121</v>
       </c>
       <c r="Q15" s="187">
         <v>302</v>
@@ -3996,12 +4090,12 @@
       </c>
     </row>
     <row r="16" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B16" s="302" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="303"/>
-      <c r="D16" s="304"/>
-      <c r="E16" s="273"/>
+      <c r="B16" s="424" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="425"/>
+      <c r="D16" s="426"/>
+      <c r="E16" s="293"/>
       <c r="F16" s="35"/>
       <c r="G16" s="119">
         <v>1</v>
@@ -4014,7 +4108,7 @@
       <c r="M16" s="27"/>
       <c r="N16" s="28"/>
       <c r="O16" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P16" s="27"/>
       <c r="Q16" s="36"/>
@@ -4034,15 +4128,15 @@
     </row>
     <row r="17" spans="2:31" ht="35.1" customHeight="1">
       <c r="B17" s="135" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="294" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="295"/>
+        <v>83</v>
+      </c>
+      <c r="D17" s="420" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="421"/>
       <c r="F17" s="35"/>
       <c r="G17" s="119">
         <v>2</v>
@@ -4055,7 +4149,7 @@
       <c r="M17" s="27"/>
       <c r="N17" s="28"/>
       <c r="O17" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P17" s="27"/>
       <c r="Q17" s="36"/>
@@ -4077,7 +4171,7 @@
       <c r="B18" s="114"/>
       <c r="C18" s="36"/>
       <c r="D18" s="270"/>
-      <c r="E18" s="271"/>
+      <c r="E18" s="291"/>
       <c r="F18" s="35"/>
       <c r="G18" s="119">
         <v>3</v>
@@ -4090,7 +4184,7 @@
       <c r="M18" s="27"/>
       <c r="N18" s="28"/>
       <c r="O18" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="36"/>
@@ -4112,7 +4206,7 @@
       <c r="B19" s="114"/>
       <c r="C19" s="36"/>
       <c r="D19" s="270"/>
-      <c r="E19" s="271"/>
+      <c r="E19" s="291"/>
       <c r="F19" s="35"/>
       <c r="G19" s="119">
         <v>4</v>
@@ -4120,17 +4214,17 @@
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
       <c r="M19" s="27"/>
       <c r="N19" s="28"/>
       <c r="O19" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P19" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="36"/>
       <c r="R19" s="36"/>
@@ -4138,10 +4232,10 @@
       <c r="T19" s="37"/>
       <c r="U19" s="38"/>
       <c r="W19" s="39"/>
-      <c r="X19" s="311"/>
-      <c r="Y19" s="306"/>
-      <c r="Z19" s="306"/>
-      <c r="AA19" s="306"/>
+      <c r="X19" s="314"/>
+      <c r="Y19" s="309"/>
+      <c r="Z19" s="309"/>
+      <c r="AA19" s="309"/>
       <c r="AB19" s="35"/>
       <c r="AC19" s="35"/>
       <c r="AD19" s="35"/>
@@ -4151,7 +4245,7 @@
       <c r="B20" s="114"/>
       <c r="C20" s="36"/>
       <c r="D20" s="270"/>
-      <c r="E20" s="271"/>
+      <c r="E20" s="291"/>
       <c r="F20" s="35"/>
       <c r="G20" s="119">
         <v>5</v>
@@ -4164,7 +4258,7 @@
       <c r="M20" s="27"/>
       <c r="N20" s="28"/>
       <c r="O20" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P20" s="27"/>
       <c r="Q20" s="36"/>
@@ -4175,8 +4269,8 @@
       <c r="W20" s="35"/>
       <c r="X20" s="116"/>
       <c r="Y20" s="34"/>
-      <c r="Z20" s="312"/>
-      <c r="AA20" s="306"/>
+      <c r="Z20" s="315"/>
+      <c r="AA20" s="309"/>
       <c r="AB20" s="35"/>
       <c r="AC20" s="35"/>
       <c r="AD20" s="35"/>
@@ -4186,7 +4280,7 @@
       <c r="B21" s="114"/>
       <c r="C21" s="36"/>
       <c r="D21" s="270"/>
-      <c r="E21" s="271"/>
+      <c r="E21" s="291"/>
       <c r="F21" s="35"/>
       <c r="G21" s="119">
         <v>6</v>
@@ -4199,7 +4293,7 @@
       <c r="M21" s="27"/>
       <c r="N21" s="28"/>
       <c r="O21" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P21" s="27"/>
       <c r="Q21" s="36"/>
@@ -4211,8 +4305,8 @@
       <c r="W21" s="35"/>
       <c r="X21" s="116"/>
       <c r="Y21" s="117"/>
-      <c r="Z21" s="305"/>
-      <c r="AA21" s="306"/>
+      <c r="Z21" s="308"/>
+      <c r="AA21" s="309"/>
       <c r="AB21" s="35"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="35"/>
@@ -4222,7 +4316,7 @@
       <c r="B22" s="114"/>
       <c r="C22" s="36"/>
       <c r="D22" s="270"/>
-      <c r="E22" s="271"/>
+      <c r="E22" s="291"/>
       <c r="F22" s="35"/>
       <c r="G22" s="119">
         <v>7</v>
@@ -4233,9 +4327,9 @@
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
       <c r="M22" s="27"/>
-      <c r="N22" s="212"/>
+      <c r="N22" s="207"/>
       <c r="O22" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="36"/>
@@ -4247,8 +4341,8 @@
       <c r="W22" s="35"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="35"/>
-      <c r="Z22" s="306"/>
-      <c r="AA22" s="306"/>
+      <c r="Z22" s="309"/>
+      <c r="AA22" s="309"/>
       <c r="AB22" s="35"/>
       <c r="AC22" s="35"/>
       <c r="AD22" s="35"/>
@@ -4258,7 +4352,7 @@
       <c r="B23" s="114"/>
       <c r="C23" s="36"/>
       <c r="D23" s="270"/>
-      <c r="E23" s="271"/>
+      <c r="E23" s="291"/>
       <c r="F23" s="35"/>
       <c r="G23" s="119">
         <v>8</v>
@@ -4269,9 +4363,9 @@
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="212"/>
+      <c r="N23" s="207"/>
       <c r="O23" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P23" s="36"/>
       <c r="Q23" s="36"/>
@@ -4293,8 +4387,8 @@
     <row r="24" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
       <c r="B24" s="115"/>
       <c r="C24" s="29"/>
-      <c r="D24" s="268"/>
-      <c r="E24" s="269"/>
+      <c r="D24" s="289"/>
+      <c r="E24" s="290"/>
       <c r="F24" s="35"/>
       <c r="G24" s="119">
         <v>9</v>
@@ -4305,9 +4399,9 @@
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
       <c r="M24" s="27"/>
-      <c r="N24" s="212"/>
+      <c r="N24" s="207"/>
       <c r="O24" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="36"/>
@@ -4327,12 +4421,12 @@
       <c r="AE24" s="35"/>
     </row>
     <row r="25" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B25" s="196" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="195"/>
-      <c r="D25" s="195"/>
-      <c r="E25" s="195"/>
+      <c r="B25" s="193" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
       <c r="F25" s="35"/>
       <c r="G25" s="119">
         <v>10</v>
@@ -4343,9 +4437,9 @@
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
       <c r="M25" s="27"/>
-      <c r="N25" s="212"/>
+      <c r="N25" s="207"/>
       <c r="O25" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P25" s="41"/>
       <c r="Q25" s="36"/>
@@ -4357,14 +4451,14 @@
       <c r="W25" s="40"/>
     </row>
     <row r="26" spans="2:31" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B26" s="272" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="273"/>
-      <c r="D26" s="272" t="s">
+      <c r="B26" s="292" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="293"/>
+      <c r="D26" s="292" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="273"/>
+      <c r="E26" s="293"/>
       <c r="F26" s="35"/>
       <c r="G26" s="119">
         <v>11</v>
@@ -4375,9 +4469,9 @@
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
       <c r="M26" s="36"/>
-      <c r="N26" s="212"/>
+      <c r="N26" s="207"/>
       <c r="O26" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P26" s="36"/>
       <c r="Q26" s="36"/>
@@ -4390,17 +4484,17 @@
     </row>
     <row r="27" spans="2:31" ht="39.75" customHeight="1">
       <c r="B27" s="137" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="138" t="str">
         <f>input!I12</f>
         <v/>
       </c>
       <c r="D27" s="137" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="210" t="s">
-        <v>10</v>
+        <v>104</v>
+      </c>
+      <c r="E27" s="205" t="s">
+        <v>9</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="119">
@@ -4412,9 +4506,9 @@
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
       <c r="M27" s="36"/>
-      <c r="N27" s="212"/>
+      <c r="N27" s="207"/>
       <c r="O27" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
@@ -4427,14 +4521,14 @@
     </row>
     <row r="28" spans="2:31" ht="39.75" customHeight="1">
       <c r="B28" s="139" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="140">
         <f>input!D20</f>
         <v>0</v>
       </c>
       <c r="D28" s="139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="141"/>
       <c r="F28" s="35"/>
@@ -4447,9 +4541,9 @@
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
       <c r="M28" s="36"/>
-      <c r="N28" s="212"/>
+      <c r="N28" s="207"/>
       <c r="O28" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P28" s="36"/>
       <c r="Q28" s="36"/>
@@ -4462,14 +4556,14 @@
     </row>
     <row r="29" spans="2:31" ht="39.75" customHeight="1">
       <c r="B29" s="139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="142">
         <f>input!D24</f>
         <v>0</v>
       </c>
       <c r="D29" s="139" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="141"/>
       <c r="F29" s="35"/>
@@ -4482,9 +4576,9 @@
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
       <c r="M29" s="36"/>
-      <c r="N29" s="212"/>
+      <c r="N29" s="207"/>
       <c r="O29" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P29" s="36"/>
       <c r="Q29" s="36"/>
@@ -4497,14 +4591,14 @@
     </row>
     <row r="30" spans="2:31" ht="39.75" customHeight="1">
       <c r="B30" s="139" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="129">
         <f>input!D23</f>
         <v>0</v>
       </c>
       <c r="D30" s="139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="141"/>
       <c r="F30" s="35"/>
@@ -4517,9 +4611,9 @@
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
-      <c r="N30" s="212"/>
+      <c r="N30" s="207"/>
       <c r="O30" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P30" s="36"/>
       <c r="Q30" s="36"/>
@@ -4532,14 +4626,14 @@
     </row>
     <row r="31" spans="2:31" ht="39.75" customHeight="1">
       <c r="B31" s="139" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="143" t="str">
         <f>input!I13</f>
         <v>°-℃/m</v>
       </c>
       <c r="D31" s="139" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E31" s="144"/>
       <c r="F31" s="35"/>
@@ -4552,9 +4646,9 @@
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
       <c r="M31" s="36"/>
-      <c r="N31" s="212"/>
+      <c r="N31" s="207"/>
       <c r="O31" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P31" s="36"/>
       <c r="Q31" s="36"/>
@@ -4567,14 +4661,14 @@
     </row>
     <row r="32" spans="2:31" ht="39.75" customHeight="1">
       <c r="B32" s="139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="145">
         <f>input!D22</f>
         <v>0</v>
       </c>
       <c r="D32" s="139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="141"/>
       <c r="F32" s="35"/>
@@ -4587,9 +4681,9 @@
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
-      <c r="N32" s="212"/>
+      <c r="N32" s="207"/>
       <c r="O32" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P32" s="36"/>
       <c r="Q32" s="36"/>
@@ -4602,14 +4696,14 @@
     </row>
     <row r="33" spans="2:28" ht="39.75" customHeight="1">
       <c r="B33" s="139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="143">
         <f>input!D27</f>
         <v>0</v>
       </c>
       <c r="D33" s="139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" s="141"/>
       <c r="F33" s="35"/>
@@ -4622,9 +4716,9 @@
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
       <c r="M33" s="36"/>
-      <c r="N33" s="212"/>
+      <c r="N33" s="207"/>
       <c r="O33" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P33" s="36"/>
       <c r="Q33" s="36"/>
@@ -4637,14 +4731,14 @@
     </row>
     <row r="34" spans="2:28" ht="36" customHeight="1">
       <c r="B34" s="139" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="245">
+        <v>103</v>
+      </c>
+      <c r="C34" s="234">
         <f>input!D29</f>
         <v>0</v>
       </c>
       <c r="D34" s="139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="141"/>
       <c r="F34" s="35"/>
@@ -4657,9 +4751,9 @@
       <c r="K34" s="36"/>
       <c r="L34" s="36"/>
       <c r="M34" s="36"/>
-      <c r="N34" s="212"/>
+      <c r="N34" s="207"/>
       <c r="O34" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P34" s="36"/>
       <c r="Q34" s="36"/>
@@ -4672,17 +4766,17 @@
     </row>
     <row r="35" spans="2:28" ht="34.5" customHeight="1">
       <c r="B35" s="139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="146">
         <f>input!D28</f>
         <v>0</v>
       </c>
       <c r="D35" s="139" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="209" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="E35" s="204" t="s">
+        <v>9</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="119">
@@ -4694,9 +4788,9 @@
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
       <c r="M35" s="36"/>
-      <c r="N35" s="212"/>
+      <c r="N35" s="207"/>
       <c r="O35" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P35" s="36"/>
       <c r="Q35" s="36"/>
@@ -4707,17 +4801,17 @@
     </row>
     <row r="36" spans="2:28" ht="35.1" customHeight="1">
       <c r="B36" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="147" t="str">
         <f>IF(input!D30&lt;&gt;"",input!D30,"Air")</f>
         <v>Air</v>
       </c>
       <c r="D36" s="139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" s="148" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="119">
@@ -4729,9 +4823,9 @@
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
       <c r="M36" s="36"/>
-      <c r="N36" s="212"/>
+      <c r="N36" s="207"/>
       <c r="O36" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P36" s="36"/>
       <c r="Q36" s="36"/>
@@ -4742,16 +4836,16 @@
     </row>
     <row r="37" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
       <c r="B37" s="149" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="230">
+        <v>147</v>
+      </c>
+      <c r="C37" s="225">
         <f>input!I14</f>
         <v>50</v>
       </c>
       <c r="D37" s="149" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="221">
+        <v>20</v>
+      </c>
+      <c r="E37" s="216">
         <f>input!D33</f>
         <v>0</v>
       </c>
@@ -4765,9 +4859,9 @@
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
-      <c r="N37" s="212"/>
+      <c r="N37" s="207"/>
       <c r="O37" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P37" s="36"/>
       <c r="Q37" s="36"/>
@@ -4777,7 +4871,7 @@
       <c r="U37" s="38"/>
     </row>
     <row r="38" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B38" s="197"/>
+      <c r="B38" s="194"/>
       <c r="C38" s="104"/>
       <c r="D38" s="104"/>
       <c r="E38" s="104"/>
@@ -4791,9 +4885,9 @@
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
       <c r="M38" s="36"/>
-      <c r="N38" s="212"/>
+      <c r="N38" s="207"/>
       <c r="O38" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P38" s="36"/>
       <c r="Q38" s="36"/>
@@ -4803,10 +4897,10 @@
       <c r="U38" s="38"/>
     </row>
     <row r="39" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B39" s="266" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="267"/>
+      <c r="B39" s="287" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="288"/>
       <c r="D39" s="150"/>
       <c r="E39" s="112"/>
       <c r="F39" s="104"/>
@@ -4819,9 +4913,9 @@
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
       <c r="M39" s="36"/>
-      <c r="N39" s="212"/>
+      <c r="N39" s="207"/>
       <c r="O39" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P39" s="36"/>
       <c r="Q39" s="36"/>
@@ -4831,14 +4925,14 @@
       <c r="U39" s="38"/>
     </row>
     <row r="40" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B40" s="214" t="s">
+      <c r="B40" s="209" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="151" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="152" t="s">
         <v>27</v>
-      </c>
-      <c r="C40" s="151" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="152" t="s">
-        <v>28</v>
       </c>
       <c r="E40" s="45"/>
       <c r="F40" s="104"/>
@@ -4851,9 +4945,9 @@
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
-      <c r="N40" s="212"/>
+      <c r="N40" s="207"/>
       <c r="O40" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P40" s="36"/>
       <c r="Q40" s="36"/>
@@ -4863,8 +4957,8 @@
       <c r="U40" s="38"/>
     </row>
     <row r="41" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B41" s="215" t="s">
-        <v>29</v>
+      <c r="B41" s="210" t="s">
+        <v>28</v>
       </c>
       <c r="C41" s="153"/>
       <c r="D41" s="154"/>
@@ -4879,9 +4973,9 @@
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
       <c r="M41" s="36"/>
-      <c r="N41" s="212"/>
+      <c r="N41" s="207"/>
       <c r="O41" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P41" s="36"/>
       <c r="Q41" s="36"/>
@@ -4891,8 +4985,8 @@
       <c r="U41" s="38"/>
     </row>
     <row r="42" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B42" s="216" t="s">
-        <v>30</v>
+      <c r="B42" s="211" t="s">
+        <v>29</v>
       </c>
       <c r="C42" s="155"/>
       <c r="D42" s="156"/>
@@ -4907,9 +5001,9 @@
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
-      <c r="N42" s="212"/>
+      <c r="N42" s="207"/>
       <c r="O42" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P42" s="36"/>
       <c r="Q42" s="36"/>
@@ -4919,7 +5013,7 @@
       <c r="U42" s="38"/>
     </row>
     <row r="43" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B43" s="198"/>
+      <c r="B43" s="195"/>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
@@ -4933,9 +5027,9 @@
       <c r="K43" s="36"/>
       <c r="L43" s="36"/>
       <c r="M43" s="36"/>
-      <c r="N43" s="212"/>
+      <c r="N43" s="207"/>
       <c r="O43" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P43" s="36"/>
       <c r="Q43" s="36"/>
@@ -4945,8 +5039,8 @@
       <c r="U43" s="38"/>
     </row>
     <row r="44" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B44" s="196" t="s">
-        <v>110</v>
+      <c r="B44" s="193" t="s">
+        <v>109</v>
       </c>
       <c r="C44" s="157"/>
       <c r="D44" s="157"/>
@@ -4961,9 +5055,9 @@
       <c r="K44" s="36"/>
       <c r="L44" s="36"/>
       <c r="M44" s="36"/>
-      <c r="N44" s="212"/>
+      <c r="N44" s="207"/>
       <c r="O44" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P44" s="36"/>
       <c r="Q44" s="36"/>
@@ -4973,14 +5067,14 @@
       <c r="U44" s="38"/>
     </row>
     <row r="45" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B45" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="250" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="251"/>
-      <c r="E45" s="252"/>
+      <c r="B45" s="275" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="277" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="278"/>
+      <c r="E45" s="279"/>
       <c r="F45" s="104"/>
       <c r="G45" s="119">
         <v>30</v>
@@ -4991,9 +5085,9 @@
       <c r="K45" s="36"/>
       <c r="L45" s="36"/>
       <c r="M45" s="36"/>
-      <c r="N45" s="212"/>
+      <c r="N45" s="207"/>
       <c r="O45" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P45" s="36"/>
       <c r="Q45" s="36"/>
@@ -5003,15 +5097,15 @@
       <c r="U45" s="38"/>
     </row>
     <row r="46" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B46" s="249"/>
-      <c r="C46" s="217" t="s">
-        <v>95</v>
+      <c r="B46" s="276"/>
+      <c r="C46" s="212" t="s">
+        <v>94</v>
       </c>
       <c r="D46" s="147" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="222" t="s">
-        <v>26</v>
+        <v>106</v>
+      </c>
+      <c r="E46" s="217" t="s">
+        <v>25</v>
       </c>
       <c r="F46" s="104"/>
       <c r="G46" s="119">
@@ -5023,9 +5117,9 @@
       <c r="K46" s="36"/>
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
-      <c r="N46" s="212"/>
+      <c r="N46" s="207"/>
       <c r="O46" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P46" s="36"/>
       <c r="Q46" s="36"/>
@@ -5036,7 +5130,7 @@
     </row>
     <row r="47" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
       <c r="B47" s="158" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" s="159"/>
       <c r="D47" s="153"/>
@@ -5051,9 +5145,9 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="212"/>
+      <c r="N47" s="207"/>
       <c r="O47" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P47" s="36"/>
       <c r="Q47" s="36"/>
@@ -5070,9 +5164,9 @@
     </row>
     <row r="48" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
       <c r="B48" s="160" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="213"/>
+        <v>108</v>
+      </c>
+      <c r="C48" s="208"/>
       <c r="D48" s="155"/>
       <c r="E48" s="156"/>
       <c r="F48" s="104"/>
@@ -5085,9 +5179,9 @@
       <c r="K48" s="36"/>
       <c r="L48" s="36"/>
       <c r="M48" s="36"/>
-      <c r="N48" s="212"/>
+      <c r="N48" s="207"/>
       <c r="O48" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P48" s="36"/>
       <c r="Q48" s="36"/>
@@ -5103,14 +5197,14 @@
       <c r="AB48" s="104"/>
     </row>
     <row r="49" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B49" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="250" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="251"/>
-      <c r="E49" s="252"/>
+      <c r="B49" s="275" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="277" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="278"/>
+      <c r="E49" s="279"/>
       <c r="F49" s="35"/>
       <c r="G49" s="119">
         <v>34</v>
@@ -5121,9 +5215,9 @@
       <c r="K49" s="36"/>
       <c r="L49" s="36"/>
       <c r="M49" s="36"/>
-      <c r="N49" s="212"/>
+      <c r="N49" s="207"/>
       <c r="O49" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P49" s="36"/>
       <c r="Q49" s="36"/>
@@ -5139,15 +5233,15 @@
       <c r="AB49" s="35"/>
     </row>
     <row r="50" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B50" s="249"/>
-      <c r="C50" s="217" t="s">
-        <v>95</v>
+      <c r="B50" s="276"/>
+      <c r="C50" s="212" t="s">
+        <v>94</v>
       </c>
       <c r="D50" s="147" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E50" s="163" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="119">
@@ -5159,9 +5253,9 @@
       <c r="K50" s="36"/>
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
-      <c r="N50" s="212"/>
+      <c r="N50" s="207"/>
       <c r="O50" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P50" s="36"/>
       <c r="Q50" s="36"/>
@@ -5178,7 +5272,7 @@
     </row>
     <row r="51" spans="2:28" ht="35.1" customHeight="1">
       <c r="B51" s="158" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" s="159"/>
       <c r="D51" s="153"/>
@@ -5193,9 +5287,9 @@
       <c r="K51" s="36"/>
       <c r="L51" s="36"/>
       <c r="M51" s="36"/>
-      <c r="N51" s="212"/>
+      <c r="N51" s="207"/>
       <c r="O51" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P51" s="36"/>
       <c r="Q51" s="36"/>
@@ -5212,9 +5306,9 @@
     </row>
     <row r="52" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
       <c r="B52" s="160" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="213"/>
+        <v>108</v>
+      </c>
+      <c r="C52" s="208"/>
       <c r="D52" s="155"/>
       <c r="E52" s="162"/>
       <c r="F52" s="35"/>
@@ -5227,9 +5321,9 @@
       <c r="K52" s="36"/>
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
-      <c r="N52" s="212"/>
+      <c r="N52" s="207"/>
       <c r="O52" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P52" s="36"/>
       <c r="Q52" s="36"/>
@@ -5245,9 +5339,9 @@
       <c r="AB52" s="35"/>
     </row>
     <row r="53" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B53" s="239"/>
-      <c r="C53" s="195"/>
-      <c r="D53" s="195"/>
+      <c r="B53" s="230"/>
+      <c r="C53" s="192"/>
+      <c r="D53" s="192"/>
       <c r="E53" s="157"/>
       <c r="F53" s="35"/>
       <c r="G53" s="119">
@@ -5259,9 +5353,9 @@
       <c r="K53" s="36"/>
       <c r="L53" s="36"/>
       <c r="M53" s="36"/>
-      <c r="N53" s="237"/>
+      <c r="N53" s="228"/>
       <c r="O53" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P53" s="36"/>
       <c r="Q53" s="36"/>
@@ -5277,12 +5371,12 @@
       <c r="AB53" s="35"/>
     </row>
     <row r="54" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B54" s="262" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="263"/>
-      <c r="D54" s="274"/>
-      <c r="E54" s="275"/>
+      <c r="B54" s="283" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="284"/>
+      <c r="D54" s="427"/>
+      <c r="E54" s="428"/>
       <c r="F54" s="35"/>
       <c r="G54" s="119">
         <v>39</v>
@@ -5293,9 +5387,9 @@
       <c r="K54" s="36"/>
       <c r="L54" s="36"/>
       <c r="M54" s="36"/>
-      <c r="N54" s="237"/>
+      <c r="N54" s="228"/>
       <c r="O54" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P54" s="36"/>
       <c r="Q54" s="36"/>
@@ -5311,12 +5405,12 @@
       <c r="AB54" s="35"/>
     </row>
     <row r="55" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B55" s="260" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="261"/>
-      <c r="D55" s="276"/>
-      <c r="E55" s="277"/>
+      <c r="B55" s="281" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="282"/>
+      <c r="D55" s="294"/>
+      <c r="E55" s="295"/>
       <c r="F55" s="35"/>
       <c r="G55" s="119">
         <v>40</v>
@@ -5327,9 +5421,9 @@
       <c r="K55" s="36"/>
       <c r="L55" s="36"/>
       <c r="M55" s="36"/>
-      <c r="N55" s="237"/>
+      <c r="N55" s="228"/>
       <c r="O55" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P55" s="36"/>
       <c r="Q55" s="36"/>
@@ -5345,12 +5439,12 @@
       <c r="AB55" s="35"/>
     </row>
     <row r="56" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B56" s="264" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="265"/>
-      <c r="D56" s="282"/>
-      <c r="E56" s="289"/>
+      <c r="B56" s="285" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="286"/>
+      <c r="D56" s="300"/>
+      <c r="E56" s="307"/>
       <c r="F56" s="35"/>
       <c r="G56" s="119">
         <v>41</v>
@@ -5361,9 +5455,9 @@
       <c r="K56" s="36"/>
       <c r="L56" s="36"/>
       <c r="M56" s="36"/>
-      <c r="N56" s="237"/>
+      <c r="N56" s="228"/>
       <c r="O56" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P56" s="36"/>
       <c r="Q56" s="36"/>
@@ -5379,9 +5473,9 @@
       <c r="AB56" s="35"/>
     </row>
     <row r="57" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B57" s="239"/>
-      <c r="C57" s="195"/>
-      <c r="D57" s="195"/>
+      <c r="B57" s="230"/>
+      <c r="C57" s="192"/>
+      <c r="D57" s="192"/>
       <c r="E57" s="157"/>
       <c r="F57" s="35"/>
       <c r="G57" s="119">
@@ -5393,9 +5487,9 @@
       <c r="K57" s="36"/>
       <c r="L57" s="36"/>
       <c r="M57" s="36"/>
-      <c r="N57" s="237"/>
+      <c r="N57" s="228"/>
       <c r="O57" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P57" s="36"/>
       <c r="Q57" s="36"/>
@@ -5411,12 +5505,12 @@
       <c r="AB57" s="35"/>
     </row>
     <row r="58" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B58" s="286" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="287"/>
-      <c r="D58" s="287"/>
-      <c r="E58" s="288"/>
+      <c r="B58" s="304" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="305"/>
+      <c r="D58" s="305"/>
+      <c r="E58" s="306"/>
       <c r="F58" s="35"/>
       <c r="G58" s="119">
         <v>43</v>
@@ -5427,9 +5521,9 @@
       <c r="K58" s="36"/>
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
-      <c r="N58" s="237"/>
+      <c r="N58" s="228"/>
       <c r="O58" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P58" s="36"/>
       <c r="Q58" s="36"/>
@@ -5448,12 +5542,12 @@
       <c r="B59" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="284" t="s">
-        <v>134</v>
-      </c>
-      <c r="D59" s="285"/>
+      <c r="C59" s="302" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="303"/>
       <c r="E59" s="165" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F59" s="35"/>
       <c r="G59" s="119">
@@ -5465,9 +5559,9 @@
       <c r="K59" s="36"/>
       <c r="L59" s="36"/>
       <c r="M59" s="36"/>
-      <c r="N59" s="237"/>
+      <c r="N59" s="228"/>
       <c r="O59" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P59" s="36"/>
       <c r="Q59" s="36"/>
@@ -5486,8 +5580,8 @@
       <c r="B60" s="166">
         <v>1</v>
       </c>
-      <c r="C60" s="280"/>
-      <c r="D60" s="281"/>
+      <c r="C60" s="298"/>
+      <c r="D60" s="299"/>
       <c r="E60" s="167"/>
       <c r="F60" s="35"/>
       <c r="G60" s="119">
@@ -5499,9 +5593,9 @@
       <c r="K60" s="36"/>
       <c r="L60" s="36"/>
       <c r="M60" s="36"/>
-      <c r="N60" s="237"/>
+      <c r="N60" s="228"/>
       <c r="O60" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P60" s="36"/>
       <c r="Q60" s="36"/>
@@ -5520,8 +5614,8 @@
       <c r="B61" s="166">
         <v>2</v>
       </c>
-      <c r="C61" s="280"/>
-      <c r="D61" s="281"/>
+      <c r="C61" s="298"/>
+      <c r="D61" s="299"/>
       <c r="E61" s="167"/>
       <c r="F61" s="35"/>
       <c r="G61" s="119">
@@ -5533,9 +5627,9 @@
       <c r="K61" s="36"/>
       <c r="L61" s="36"/>
       <c r="M61" s="36"/>
-      <c r="N61" s="237"/>
+      <c r="N61" s="228"/>
       <c r="O61" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P61" s="36"/>
       <c r="Q61" s="36"/>
@@ -5554,8 +5648,8 @@
       <c r="B62" s="166">
         <v>3</v>
       </c>
-      <c r="C62" s="280"/>
-      <c r="D62" s="281"/>
+      <c r="C62" s="298"/>
+      <c r="D62" s="299"/>
       <c r="E62" s="167"/>
       <c r="F62" s="35"/>
       <c r="G62" s="119">
@@ -5567,9 +5661,9 @@
       <c r="K62" s="36"/>
       <c r="L62" s="36"/>
       <c r="M62" s="36"/>
-      <c r="N62" s="237"/>
+      <c r="N62" s="228"/>
       <c r="O62" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P62" s="36"/>
       <c r="Q62" s="36"/>
@@ -5588,8 +5682,8 @@
       <c r="B63" s="166">
         <v>4</v>
       </c>
-      <c r="C63" s="280"/>
-      <c r="D63" s="281"/>
+      <c r="C63" s="298"/>
+      <c r="D63" s="299"/>
       <c r="E63" s="167"/>
       <c r="F63" s="35"/>
       <c r="G63" s="119">
@@ -5601,9 +5695,9 @@
       <c r="K63" s="36"/>
       <c r="L63" s="36"/>
       <c r="M63" s="36"/>
-      <c r="N63" s="212"/>
+      <c r="N63" s="207"/>
       <c r="O63" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P63" s="36"/>
       <c r="Q63" s="36"/>
@@ -5616,16 +5710,15 @@
       <c r="Y63" s="35"/>
       <c r="Z63" s="35"/>
       <c r="AA63" s="35"/>
-      <c r="AB63" s="35"/>
     </row>
     <row r="64" spans="2:28" ht="35.1" customHeight="1">
       <c r="B64" s="166">
         <v>5</v>
       </c>
-      <c r="C64" s="280"/>
-      <c r="D64" s="281"/>
+      <c r="C64" s="298"/>
+      <c r="D64" s="299"/>
       <c r="E64" s="167"/>
-      <c r="F64" s="219"/>
+      <c r="F64" s="214"/>
       <c r="G64" s="119">
         <v>49</v>
       </c>
@@ -5635,9 +5728,9 @@
       <c r="K64" s="36"/>
       <c r="L64" s="36"/>
       <c r="M64" s="36"/>
-      <c r="N64" s="212"/>
+      <c r="N64" s="207"/>
       <c r="O64" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P64" s="36"/>
       <c r="Q64" s="36"/>
@@ -5650,16 +5743,15 @@
       <c r="Y64" s="35"/>
       <c r="Z64" s="35"/>
       <c r="AA64" s="35"/>
-      <c r="AB64" s="35"/>
-    </row>
-    <row r="65" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
+    </row>
+    <row r="65" spans="2:29" ht="35.1" customHeight="1" thickBot="1">
       <c r="B65" s="166">
         <v>6</v>
       </c>
-      <c r="C65" s="280"/>
-      <c r="D65" s="281"/>
+      <c r="C65" s="298"/>
+      <c r="D65" s="299"/>
       <c r="E65" s="167"/>
-      <c r="F65" s="219"/>
+      <c r="F65" s="214"/>
       <c r="G65" s="119">
         <v>50</v>
       </c>
@@ -5669,9 +5761,9 @@
       <c r="K65" s="29"/>
       <c r="L65" s="29"/>
       <c r="M65" s="29"/>
-      <c r="N65" s="211"/>
-      <c r="O65" s="207" t="s">
-        <v>122</v>
+      <c r="N65" s="206"/>
+      <c r="O65" s="202" t="s">
+        <v>121</v>
       </c>
       <c r="P65" s="47"/>
       <c r="Q65" s="47"/>
@@ -5684,18 +5776,17 @@
       <c r="Y65" s="35"/>
       <c r="Z65" s="35"/>
       <c r="AA65" s="35"/>
-      <c r="AB65" s="35"/>
-    </row>
-    <row r="66" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B66" s="238">
+    </row>
+    <row r="66" spans="2:29" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B66" s="229">
         <v>7</v>
       </c>
-      <c r="C66" s="282"/>
-      <c r="D66" s="283"/>
-      <c r="E66" s="240"/>
-      <c r="F66" s="219"/>
-      <c r="G66" s="218" t="s">
-        <v>85</v>
+      <c r="C66" s="300"/>
+      <c r="D66" s="301"/>
+      <c r="E66" s="231"/>
+      <c r="F66" s="214"/>
+      <c r="G66" s="213" t="s">
+        <v>84</v>
       </c>
       <c r="H66" s="50"/>
       <c r="I66" s="50"/>
@@ -5703,8 +5794,8 @@
       <c r="K66" s="50"/>
       <c r="L66" s="50"/>
       <c r="M66" s="50"/>
-      <c r="N66" s="206"/>
-      <c r="O66" s="208"/>
+      <c r="N66" s="201"/>
+      <c r="O66" s="203"/>
       <c r="P66" s="50" t="str">
         <f t="shared" ref="P66:U66" si="0">IF(SUM(P16:P65)=0,"",SUM(P16:P65))</f>
         <v/>
@@ -5734,9 +5825,8 @@
       <c r="Y66" s="35"/>
       <c r="Z66" s="35"/>
       <c r="AA66" s="35"/>
-      <c r="AB66" s="35"/>
-    </row>
-    <row r="67" spans="2:28" ht="14.25" customHeight="1" thickBot="1">
+    </row>
+    <row r="67" spans="2:29" ht="14.25" customHeight="1" thickBot="1">
       <c r="B67" s="25"/>
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
@@ -5756,344 +5846,394 @@
       <c r="R67" s="35"/>
       <c r="S67" s="35"/>
       <c r="T67" s="35"/>
-      <c r="U67" s="199"/>
+      <c r="U67" s="196"/>
       <c r="W67" s="35"/>
       <c r="X67" s="35"/>
       <c r="Y67" s="35"/>
       <c r="Z67" s="35"/>
       <c r="AA67" s="35"/>
-      <c r="AB67" s="35"/>
-    </row>
-    <row r="68" spans="2:28" ht="24.95" customHeight="1" thickBot="1">
+    </row>
+    <row r="68" spans="2:29" ht="24.95" customHeight="1" thickBot="1">
       <c r="B68" s="127" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" s="278"/>
-      <c r="D68" s="278"/>
-      <c r="E68" s="279"/>
-      <c r="F68" s="259"/>
-      <c r="G68" s="254" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="296"/>
+      <c r="D68" s="296"/>
+      <c r="E68" s="297"/>
+      <c r="F68" s="280"/>
+      <c r="G68" s="271" t="s">
+        <v>164</v>
+      </c>
+      <c r="H68" s="272"/>
+      <c r="I68" s="272"/>
+      <c r="J68" s="272"/>
+      <c r="K68" s="272" t="s">
+        <v>153</v>
+      </c>
+      <c r="L68" s="272"/>
+      <c r="M68" s="274"/>
+      <c r="N68" s="247" t="s">
+        <v>8</v>
+      </c>
+      <c r="O68" s="248" t="s">
+        <v>148</v>
+      </c>
+      <c r="P68" s="248" t="s">
         <v>142</v>
       </c>
-      <c r="H68" s="255"/>
-      <c r="I68" s="255"/>
-      <c r="J68" s="255"/>
-      <c r="K68" s="256"/>
-      <c r="M68" s="232" t="s">
-        <v>8</v>
-      </c>
-      <c r="N68" s="235" t="s">
-        <v>150</v>
-      </c>
-      <c r="O68" s="368" t="s">
-        <v>144</v>
-      </c>
-      <c r="P68" s="369"/>
-      <c r="R68" s="372" t="s">
-        <v>151</v>
-      </c>
-      <c r="S68" s="373"/>
-      <c r="T68" s="373"/>
-      <c r="U68" s="374"/>
+      <c r="Q68" s="249"/>
+      <c r="S68" s="260" t="s">
+        <v>149</v>
+      </c>
+      <c r="T68" s="261"/>
+      <c r="U68" s="262"/>
       <c r="W68" s="35"/>
       <c r="X68" s="35"/>
       <c r="Y68" s="35"/>
       <c r="Z68" s="35"/>
       <c r="AA68" s="35"/>
-      <c r="AB68" s="35"/>
-    </row>
-    <row r="69" spans="2:28" ht="28.5" customHeight="1">
+    </row>
+    <row r="69" spans="2:29" ht="28.5" customHeight="1">
       <c r="B69" s="25"/>
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="30"/>
-      <c r="F69" s="259"/>
-      <c r="G69" s="241" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" s="258" t="s">
-        <v>134</v>
-      </c>
-      <c r="I69" s="258"/>
-      <c r="J69" s="258"/>
-      <c r="K69" s="242" t="s">
-        <v>133</v>
-      </c>
-      <c r="M69" s="233">
+      <c r="F69" s="280"/>
+      <c r="G69" s="273" t="s">
+        <v>165</v>
+      </c>
+      <c r="H69" s="269"/>
+      <c r="I69" s="269"/>
+      <c r="J69" s="269"/>
+      <c r="K69" s="269" t="s">
+        <v>154</v>
+      </c>
+      <c r="L69" s="269"/>
+      <c r="M69" s="270"/>
+      <c r="N69" s="251">
         <v>1</v>
       </c>
-      <c r="N69" s="234"/>
-      <c r="O69" s="370"/>
-      <c r="P69" s="371"/>
-      <c r="R69" s="375"/>
-      <c r="S69" s="305"/>
-      <c r="T69" s="305"/>
-      <c r="U69" s="376"/>
+      <c r="O69" s="252"/>
+      <c r="P69" s="253"/>
+      <c r="Q69" s="254"/>
+      <c r="R69" s="246"/>
+      <c r="S69" s="263"/>
+      <c r="T69" s="264"/>
+      <c r="U69" s="265"/>
       <c r="W69" s="35"/>
       <c r="X69" s="35"/>
       <c r="Y69" s="35"/>
       <c r="Z69" s="35"/>
       <c r="AA69" s="35"/>
-      <c r="AB69" s="35"/>
-    </row>
-    <row r="70" spans="2:28" ht="28.5" customHeight="1">
+    </row>
+    <row r="70" spans="2:29" ht="28.5" customHeight="1">
       <c r="B70" s="25"/>
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
       <c r="E70" s="30"/>
       <c r="F70" s="35"/>
-      <c r="G70" s="166">
-        <v>1</v>
-      </c>
-      <c r="H70" s="257"/>
-      <c r="I70" s="257"/>
-      <c r="J70" s="257"/>
-      <c r="K70" s="167"/>
-      <c r="M70" s="52">
+      <c r="G70" s="273" t="s">
+        <v>166</v>
+      </c>
+      <c r="H70" s="269"/>
+      <c r="I70" s="269"/>
+      <c r="J70" s="269"/>
+      <c r="K70" s="269" t="s">
+        <v>155</v>
+      </c>
+      <c r="L70" s="269"/>
+      <c r="M70" s="270"/>
+      <c r="N70" s="52">
         <v>2</v>
       </c>
-      <c r="N70" s="202"/>
-      <c r="O70" s="246"/>
-      <c r="P70" s="247"/>
-      <c r="R70" s="375"/>
-      <c r="S70" s="305"/>
-      <c r="T70" s="305"/>
-      <c r="U70" s="376"/>
+      <c r="O70" s="198"/>
+      <c r="P70" s="237"/>
+      <c r="Q70" s="238"/>
+      <c r="R70" s="246"/>
+      <c r="S70" s="263"/>
+      <c r="T70" s="264"/>
+      <c r="U70" s="265"/>
       <c r="W70" s="35"/>
       <c r="X70" s="35"/>
       <c r="Y70" s="35"/>
       <c r="Z70" s="35"/>
       <c r="AA70" s="35"/>
-      <c r="AB70" s="35"/>
-    </row>
-    <row r="71" spans="2:28" ht="28.5" customHeight="1">
+    </row>
+    <row r="71" spans="2:29" ht="28.5" customHeight="1">
       <c r="B71" s="25"/>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="30"/>
       <c r="F71" s="35"/>
-      <c r="G71" s="166">
-        <v>2</v>
-      </c>
-      <c r="H71" s="257"/>
-      <c r="I71" s="257"/>
-      <c r="J71" s="257"/>
-      <c r="K71" s="167"/>
-      <c r="M71" s="52">
+      <c r="G71" s="273" t="s">
+        <v>167</v>
+      </c>
+      <c r="H71" s="269"/>
+      <c r="I71" s="269"/>
+      <c r="J71" s="269"/>
+      <c r="K71" s="269" t="s">
+        <v>156</v>
+      </c>
+      <c r="L71" s="269"/>
+      <c r="M71" s="270"/>
+      <c r="N71" s="52">
         <v>3</v>
       </c>
-      <c r="N71" s="202"/>
-      <c r="O71" s="246"/>
-      <c r="P71" s="247"/>
-      <c r="R71" s="375"/>
-      <c r="S71" s="305"/>
-      <c r="T71" s="305"/>
-      <c r="U71" s="376"/>
+      <c r="O71" s="198"/>
+      <c r="P71" s="237"/>
+      <c r="Q71" s="238"/>
+      <c r="R71" s="246"/>
+      <c r="S71" s="263"/>
+      <c r="T71" s="264"/>
+      <c r="U71" s="265"/>
       <c r="W71" s="35"/>
       <c r="X71" s="35"/>
       <c r="Y71" s="35"/>
       <c r="Z71" s="35"/>
       <c r="AA71" s="35"/>
-      <c r="AB71" s="35"/>
-    </row>
-    <row r="72" spans="2:28" ht="28.5" customHeight="1">
+    </row>
+    <row r="72" spans="2:29" ht="28.5" customHeight="1">
       <c r="B72" s="25"/>
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
       <c r="E72" s="30"/>
       <c r="F72" s="35"/>
-      <c r="G72" s="166">
-        <v>3</v>
-      </c>
-      <c r="H72" s="257"/>
-      <c r="I72" s="257"/>
-      <c r="J72" s="257"/>
-      <c r="K72" s="167"/>
-      <c r="M72" s="52">
+      <c r="G72" s="273" t="s">
+        <v>168</v>
+      </c>
+      <c r="H72" s="269"/>
+      <c r="I72" s="269"/>
+      <c r="J72" s="269"/>
+      <c r="K72" s="269" t="s">
+        <v>157</v>
+      </c>
+      <c r="L72" s="269"/>
+      <c r="M72" s="270"/>
+      <c r="N72" s="52">
         <v>4</v>
       </c>
-      <c r="N72" s="202"/>
-      <c r="O72" s="246"/>
-      <c r="P72" s="247"/>
-      <c r="R72" s="375"/>
-      <c r="S72" s="305"/>
-      <c r="T72" s="305"/>
-      <c r="U72" s="376"/>
+      <c r="O72" s="198"/>
+      <c r="P72" s="237"/>
+      <c r="Q72" s="238"/>
+      <c r="R72" s="246"/>
+      <c r="S72" s="263"/>
+      <c r="T72" s="264"/>
+      <c r="U72" s="265"/>
       <c r="W72" s="35"/>
       <c r="X72" s="35"/>
       <c r="Y72" s="35"/>
       <c r="Z72" s="35"/>
       <c r="AA72" s="35"/>
-      <c r="AB72" s="35"/>
-    </row>
-    <row r="73" spans="2:28" ht="28.5" customHeight="1">
+    </row>
+    <row r="73" spans="2:29" ht="28.5" customHeight="1">
       <c r="B73" s="25"/>
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="30"/>
       <c r="F73" s="35"/>
-      <c r="G73" s="166">
-        <v>4</v>
-      </c>
-      <c r="H73" s="257"/>
-      <c r="I73" s="257"/>
-      <c r="J73" s="257"/>
-      <c r="K73" s="167"/>
-      <c r="M73" s="52">
+      <c r="G73" s="273" t="s">
+        <v>169</v>
+      </c>
+      <c r="H73" s="269"/>
+      <c r="I73" s="269"/>
+      <c r="J73" s="269"/>
+      <c r="K73" s="269" t="s">
+        <v>158</v>
+      </c>
+      <c r="L73" s="269"/>
+      <c r="M73" s="270"/>
+      <c r="N73" s="52">
         <v>5</v>
       </c>
-      <c r="N73" s="202"/>
-      <c r="O73" s="246"/>
-      <c r="P73" s="247"/>
-      <c r="R73" s="375"/>
-      <c r="S73" s="305"/>
-      <c r="T73" s="305"/>
-      <c r="U73" s="376"/>
+      <c r="O73" s="198"/>
+      <c r="P73" s="237"/>
+      <c r="Q73" s="238"/>
+      <c r="R73" s="246"/>
+      <c r="S73" s="263"/>
+      <c r="T73" s="264"/>
+      <c r="U73" s="265"/>
       <c r="W73" s="35"/>
       <c r="X73" s="35"/>
       <c r="Y73" s="35"/>
       <c r="Z73" s="35"/>
       <c r="AA73" s="35"/>
-      <c r="AB73" s="35"/>
-    </row>
-    <row r="74" spans="2:28" ht="28.5" customHeight="1">
+    </row>
+    <row r="74" spans="2:29" ht="28.5" customHeight="1">
       <c r="B74" s="25"/>
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="30"/>
       <c r="F74" s="35"/>
-      <c r="G74" s="166">
-        <v>5</v>
-      </c>
-      <c r="H74" s="257"/>
-      <c r="I74" s="257"/>
-      <c r="J74" s="257"/>
-      <c r="K74" s="167"/>
-      <c r="M74" s="52">
+      <c r="G74" s="273" t="s">
+        <v>170</v>
+      </c>
+      <c r="H74" s="269"/>
+      <c r="I74" s="269"/>
+      <c r="J74" s="269"/>
+      <c r="K74" s="269" t="s">
+        <v>159</v>
+      </c>
+      <c r="L74" s="269"/>
+      <c r="M74" s="270"/>
+      <c r="N74" s="52">
         <v>6</v>
       </c>
-      <c r="N74" s="202"/>
-      <c r="O74" s="246"/>
-      <c r="P74" s="247"/>
-      <c r="R74" s="375"/>
-      <c r="S74" s="305"/>
-      <c r="T74" s="305"/>
-      <c r="U74" s="376"/>
+      <c r="O74" s="198"/>
+      <c r="P74" s="237"/>
+      <c r="Q74" s="238"/>
+      <c r="R74" s="246"/>
+      <c r="S74" s="263"/>
+      <c r="T74" s="264"/>
+      <c r="U74" s="265"/>
       <c r="W74" s="35"/>
       <c r="X74" s="35"/>
       <c r="Y74" s="35"/>
       <c r="Z74" s="35"/>
       <c r="AA74" s="35"/>
-      <c r="AB74" s="35"/>
-    </row>
-    <row r="75" spans="2:28" ht="28.5" customHeight="1">
+    </row>
+    <row r="75" spans="2:29" ht="28.5" customHeight="1">
       <c r="B75" s="25"/>
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
       <c r="E75" s="30"/>
       <c r="F75" s="35"/>
-      <c r="G75" s="166">
-        <v>6</v>
-      </c>
-      <c r="H75" s="257"/>
-      <c r="I75" s="257"/>
-      <c r="J75" s="257"/>
-      <c r="K75" s="167"/>
-      <c r="M75" s="52">
+      <c r="G75" s="273" t="s">
+        <v>171</v>
+      </c>
+      <c r="H75" s="269"/>
+      <c r="I75" s="269"/>
+      <c r="J75" s="269"/>
+      <c r="K75" s="269" t="s">
+        <v>160</v>
+      </c>
+      <c r="L75" s="269"/>
+      <c r="M75" s="270"/>
+      <c r="N75" s="52">
         <v>7</v>
       </c>
-      <c r="N75" s="202"/>
-      <c r="O75" s="246"/>
-      <c r="P75" s="247"/>
-      <c r="R75" s="375"/>
-      <c r="S75" s="305"/>
-      <c r="T75" s="305"/>
-      <c r="U75" s="376"/>
-    </row>
-    <row r="76" spans="2:28" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B76" s="189"/>
-      <c r="C76" s="190"/>
-      <c r="D76" s="190"/>
-      <c r="E76" s="191"/>
-      <c r="F76" s="190"/>
-      <c r="G76" s="238">
-        <v>7</v>
-      </c>
-      <c r="H76" s="253"/>
-      <c r="I76" s="253"/>
-      <c r="J76" s="253"/>
-      <c r="K76" s="240"/>
-      <c r="M76" s="53">
+      <c r="O75" s="198"/>
+      <c r="P75" s="237"/>
+      <c r="Q75" s="238"/>
+      <c r="R75" s="246"/>
+      <c r="S75" s="263"/>
+      <c r="T75" s="264"/>
+      <c r="U75" s="265"/>
+      <c r="X75" s="35"/>
+    </row>
+    <row r="76" spans="2:29" ht="28.5" customHeight="1">
+      <c r="B76" s="25"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="273" t="s">
+        <v>172</v>
+      </c>
+      <c r="H76" s="269"/>
+      <c r="I76" s="269"/>
+      <c r="J76" s="269"/>
+      <c r="K76" s="269" t="s">
+        <v>161</v>
+      </c>
+      <c r="L76" s="269"/>
+      <c r="M76" s="270"/>
+      <c r="N76" s="52">
         <v>8</v>
       </c>
-      <c r="N76" s="203"/>
-      <c r="O76" s="380"/>
-      <c r="P76" s="381"/>
-      <c r="R76" s="377"/>
-      <c r="S76" s="378"/>
-      <c r="T76" s="378"/>
-      <c r="U76" s="379"/>
-    </row>
-    <row r="77" spans="2:28" ht="21.95" customHeight="1">
-      <c r="B77" s="200"/>
-      <c r="C77" s="200"/>
-      <c r="D77" s="200"/>
-      <c r="E77" s="200"/>
-      <c r="F77" s="200"/>
-      <c r="G77" s="201"/>
-      <c r="H77" s="201"/>
-      <c r="I77" s="201"/>
-      <c r="J77" s="201"/>
-      <c r="K77" s="201"/>
-      <c r="L77" s="200"/>
-      <c r="M77" s="200"/>
-      <c r="N77" s="200"/>
-      <c r="O77" s="201"/>
-      <c r="P77" s="201"/>
-      <c r="Q77" s="201"/>
-      <c r="R77" s="201"/>
-      <c r="S77" s="201"/>
-      <c r="T77" s="201"/>
-      <c r="U77" s="201"/>
-    </row>
-    <row r="78" spans="2:28" ht="30" customHeight="1">
-      <c r="B78" s="201"/>
-      <c r="C78" s="201"/>
-      <c r="D78" s="201"/>
-      <c r="E78" s="201"/>
-      <c r="F78" s="201"/>
-      <c r="G78" s="201"/>
-      <c r="H78" s="201"/>
-      <c r="I78" s="201"/>
-      <c r="J78" s="201"/>
-      <c r="K78" s="201"/>
-      <c r="L78" s="201"/>
-      <c r="M78" s="201"/>
-      <c r="N78" s="201"/>
-      <c r="O78" s="201"/>
-      <c r="P78" s="201"/>
-      <c r="Q78" s="201"/>
-      <c r="R78" s="201"/>
-      <c r="S78" s="201"/>
-      <c r="T78" s="201"/>
-      <c r="U78" s="201"/>
-    </row>
-    <row r="79" spans="2:28" ht="30" customHeight="1">
-      <c r="B79" s="113"/>
-      <c r="C79" s="113"/>
-      <c r="D79" s="113"/>
-      <c r="E79" s="113"/>
+      <c r="O76" s="198"/>
+      <c r="P76" s="237"/>
+      <c r="Q76" s="238"/>
+      <c r="R76" s="246"/>
+      <c r="S76" s="263"/>
+      <c r="T76" s="264"/>
+      <c r="U76" s="265"/>
+      <c r="X76" s="35"/>
+    </row>
+    <row r="77" spans="2:29" ht="21.95" customHeight="1">
+      <c r="B77" s="240"/>
+      <c r="C77" s="197"/>
+      <c r="D77" s="197"/>
+      <c r="E77" s="241"/>
+      <c r="F77" s="197"/>
+      <c r="G77" s="273" t="s">
+        <v>173</v>
+      </c>
+      <c r="H77" s="269"/>
+      <c r="I77" s="269"/>
+      <c r="J77" s="269"/>
+      <c r="K77" s="269" t="s">
+        <v>162</v>
+      </c>
+      <c r="L77" s="269"/>
+      <c r="M77" s="270"/>
+      <c r="N77" s="52">
+        <v>9</v>
+      </c>
+      <c r="O77" s="250"/>
+      <c r="P77" s="250"/>
+      <c r="Q77" s="255"/>
+      <c r="R77" s="197"/>
+      <c r="S77" s="263"/>
+      <c r="T77" s="264"/>
+      <c r="U77" s="265"/>
+      <c r="X77" s="35"/>
+    </row>
+    <row r="78" spans="2:29" ht="30" customHeight="1">
+      <c r="B78" s="240"/>
+      <c r="C78" s="197"/>
+      <c r="D78" s="197"/>
+      <c r="E78" s="241"/>
+      <c r="F78" s="197"/>
+      <c r="G78" s="273" t="s">
+        <v>174</v>
+      </c>
+      <c r="H78" s="269"/>
+      <c r="I78" s="269"/>
+      <c r="J78" s="269"/>
+      <c r="K78" s="269" t="s">
+        <v>163</v>
+      </c>
+      <c r="L78" s="269"/>
+      <c r="M78" s="270"/>
+      <c r="N78" s="52">
+        <v>10</v>
+      </c>
+      <c r="O78" s="250"/>
+      <c r="P78" s="250"/>
+      <c r="Q78" s="255"/>
+      <c r="R78" s="197"/>
+      <c r="S78" s="263"/>
+      <c r="T78" s="264"/>
+      <c r="U78" s="265"/>
+      <c r="X78" s="35"/>
+    </row>
+    <row r="79" spans="2:29" ht="30" customHeight="1" thickBot="1">
+      <c r="B79" s="242"/>
+      <c r="C79" s="243"/>
+      <c r="D79" s="243"/>
+      <c r="E79" s="244"/>
       <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="35"/>
-      <c r="K79" s="35"/>
-      <c r="L79" s="35"/>
-      <c r="M79" s="35"/>
-      <c r="N79" s="35"/>
-    </row>
-    <row r="80" spans="2:28" ht="30" customHeight="1">
+      <c r="G79" s="256" t="s">
+        <v>175</v>
+      </c>
+      <c r="H79" s="257"/>
+      <c r="I79" s="257"/>
+      <c r="J79" s="257"/>
+      <c r="K79" s="258"/>
+      <c r="L79" s="259"/>
+      <c r="M79" s="259"/>
+      <c r="N79" s="53">
+        <v>11</v>
+      </c>
+      <c r="O79" s="29"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="245"/>
+      <c r="S79" s="266"/>
+      <c r="T79" s="267"/>
+      <c r="U79" s="268"/>
+      <c r="X79" s="35"/>
+    </row>
+    <row r="80" spans="2:29" ht="30" customHeight="1">
       <c r="B80" s="113"/>
       <c r="C80" s="113"/>
       <c r="D80" s="113"/>
@@ -6107,6 +6247,9 @@
       <c r="L80" s="35"/>
       <c r="M80" s="35"/>
       <c r="N80" s="35"/>
+      <c r="X80" s="35"/>
+      <c r="AB80" s="239"/>
+      <c r="AC80" s="239"/>
     </row>
     <row r="81" spans="2:35" ht="30" customHeight="1">
       <c r="B81"/>
@@ -6114,18 +6257,28 @@
       <c r="D81" s="54"/>
       <c r="E81" s="54"/>
       <c r="N81" s="55"/>
+      <c r="AB81" s="239"/>
+      <c r="AC81" s="239"/>
     </row>
     <row r="82" spans="2:35" ht="30" customHeight="1">
       <c r="N82" s="55"/>
+      <c r="AB82" s="239"/>
+      <c r="AC82" s="239"/>
     </row>
     <row r="83" spans="2:35" ht="30" customHeight="1">
       <c r="N83" s="55"/>
+      <c r="AB83" s="239"/>
+      <c r="AC83" s="239"/>
     </row>
     <row r="84" spans="2:35" ht="20.25" customHeight="1">
       <c r="N84" s="55"/>
+      <c r="AB84" s="239"/>
+      <c r="AC84" s="239"/>
     </row>
     <row r="85" spans="2:35">
       <c r="N85" s="55"/>
+      <c r="AB85" s="239"/>
+      <c r="AC85" s="239"/>
     </row>
     <row r="86" spans="2:35" ht="45.75" customHeight="1">
       <c r="C86" s="46"/>
@@ -8109,38 +8262,40 @@
       <c r="D172" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="H9:I11"/>
-    <mergeCell ref="J9:J11"/>
+  <mergeCells count="104">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="H9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="O11:P13"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="Q5:U6"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="O7:P10"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:E6"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="K9:L11"/>
     <mergeCell ref="M9:M11"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="Q5:U6"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="O11:P13"/>
-    <mergeCell ref="O7:P10"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="R68:U76"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E12"/>
     <mergeCell ref="Z21:AA22"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
@@ -8157,17 +8312,26 @@
     <mergeCell ref="Q14:U14"/>
     <mergeCell ref="S8:U10"/>
     <mergeCell ref="S12:U13"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:C56"/>
     <mergeCell ref="C68:E68"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C62:D62"/>
@@ -8179,44 +8343,44 @@
     <mergeCell ref="B58:E58"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="G68:K68"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="S68:U79"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K68:M68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="31" fitToWidth="0" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="3" manualBreakCount="3">
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="31" orientation="portrait" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <rowBreaks count="4" manualBreakCount="4">
+    <brk id="79" min="1" max="28" man="1"/>
     <brk id="85" max="16383" man="1"/>
     <brk id="170" min="1" max="13" man="1"/>
     <brk id="171" min="1" max="12" man="1"/>
   </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="21" max="78" man="1"/>
+  </colBreaks>
   <ignoredErrors>
     <ignoredError sqref="Q66:U66" formulaRange="1"/>
   </ignoredErrors>
@@ -8240,143 +8404,143 @@
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="225" customWidth="1"/>
-    <col min="7" max="7" width="10" style="228" customWidth="1"/>
-    <col min="8" max="8" width="9" style="223" customWidth="1"/>
+    <col min="6" max="6" width="10" style="220" customWidth="1"/>
+    <col min="7" max="7" width="10" style="223" customWidth="1"/>
+    <col min="8" max="8" width="9" style="218" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="F1" s="224"/>
-      <c r="G1" s="227">
+      <c r="F1" s="219"/>
+      <c r="G1" s="222">
         <v>12.34</v>
       </c>
-      <c r="H1" s="226">
+      <c r="H1" s="221">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="2:11">
-      <c r="F2" s="224"/>
-      <c r="G2" s="227">
+      <c r="F2" s="219"/>
+      <c r="G2" s="222">
         <v>7.28</v>
       </c>
-      <c r="H2" s="226">
+      <c r="H2" s="221">
         <v>90</v>
       </c>
-      <c r="J2" s="229"/>
+      <c r="J2" s="224"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="F3" s="224"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="226">
+      <c r="F3" s="219"/>
+      <c r="G3" s="222"/>
+      <c r="H3" s="221">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="18" customHeight="1" thickBot="1">
-      <c r="F4" s="224"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="226">
+      <c r="F4" s="219"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="221">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1">
       <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="224"/>
-      <c r="G5" s="227"/>
-      <c r="H5" s="226">
+      <c r="F5" s="219"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="221">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="20.25" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="227"/>
-      <c r="H6" s="226">
+      <c r="F6" s="219"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="221">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="20.25" customHeight="1">
       <c r="B7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="227"/>
-      <c r="H7" s="226">
+      <c r="F7" s="219"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="221">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="20.25" customHeight="1">
       <c r="B8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="21"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="227"/>
-      <c r="H8" s="226">
+      <c r="F8" s="219"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="221">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="20.25" customHeight="1">
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="11"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="227"/>
-      <c r="H9" s="226">
+      <c r="F9" s="219"/>
+      <c r="G9" s="222"/>
+      <c r="H9" s="221">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="20.25" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="224"/>
-      <c r="G10" s="227"/>
-      <c r="H10" s="226">
+        <v>39</v>
+      </c>
+      <c r="F10" s="219"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="221">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="20.25" customHeight="1">
       <c r="B11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="224"/>
-      <c r="G11" s="227"/>
-      <c r="H11" s="226">
+        <v>39</v>
+      </c>
+      <c r="F11" s="219"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="221">
         <v>90</v>
       </c>
       <c r="I11" s="12" t="str">
@@ -8390,16 +8554,16 @@
     </row>
     <row r="12" spans="2:11" ht="20.25" customHeight="1">
       <c r="B12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="224"/>
-      <c r="G12" s="227"/>
-      <c r="H12" s="226">
+        <v>42</v>
+      </c>
+      <c r="F12" s="219"/>
+      <c r="G12" s="222"/>
+      <c r="H12" s="221">
         <v>90</v>
       </c>
       <c r="I12" s="13" t="str">
@@ -8413,18 +8577,18 @@
     </row>
     <row r="13" spans="2:11" ht="20.25" customHeight="1">
       <c r="B13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="224"/>
-      <c r="G13" s="227">
+        <v>44</v>
+      </c>
+      <c r="F13" s="219"/>
+      <c r="G13" s="222">
         <v>4.66</v>
       </c>
-      <c r="H13" s="226">
+      <c r="H13" s="221">
         <v>90</v>
       </c>
       <c r="I13" s="12" t="str">
@@ -8434,16 +8598,16 @@
     </row>
     <row r="14" spans="2:11" ht="20.25" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="227">
+      <c r="F14" s="219"/>
+      <c r="G14" s="222">
         <v>4.4400000000000004</v>
       </c>
-      <c r="H14" s="226">
+      <c r="H14" s="221">
         <v>70</v>
       </c>
       <c r="I14" s="12">
@@ -8453,413 +8617,413 @@
     </row>
     <row r="15" spans="2:11" ht="20.25" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="227"/>
-      <c r="H15" s="226">
+      <c r="F15" s="219"/>
+      <c r="G15" s="222"/>
+      <c r="H15" s="221">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="25.5" customHeight="1">
       <c r="B16" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="14"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="227"/>
-      <c r="H16" s="226">
+      <c r="F16" s="219"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="221">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="224"/>
-      <c r="G17" s="227"/>
-      <c r="H17" s="226">
+      <c r="F17" s="219"/>
+      <c r="G17" s="222"/>
+      <c r="H17" s="221">
         <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="21"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="224"/>
-      <c r="G18" s="227"/>
-      <c r="H18" s="226">
+      <c r="F18" s="219"/>
+      <c r="G18" s="222"/>
+      <c r="H18" s="221">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="224"/>
-      <c r="G19" s="227"/>
-      <c r="H19" s="226">
+        <v>51</v>
+      </c>
+      <c r="F19" s="219"/>
+      <c r="G19" s="222"/>
+      <c r="H19" s="221">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="224"/>
-      <c r="G20" s="227"/>
-      <c r="H20" s="226">
+        <v>53</v>
+      </c>
+      <c r="F20" s="219"/>
+      <c r="G20" s="222"/>
+      <c r="H20" s="221">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="224"/>
-      <c r="G21" s="227"/>
-      <c r="H21" s="226">
+        <v>55</v>
+      </c>
+      <c r="F21" s="219"/>
+      <c r="G21" s="222"/>
+      <c r="H21" s="221">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="224"/>
-      <c r="G22" s="227"/>
-      <c r="H22" s="226">
+        <v>55</v>
+      </c>
+      <c r="F22" s="219"/>
+      <c r="G22" s="222"/>
+      <c r="H22" s="221">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="224"/>
-      <c r="G23" s="227"/>
-      <c r="H23" s="226">
+        <v>58</v>
+      </c>
+      <c r="F23" s="219"/>
+      <c r="G23" s="222"/>
+      <c r="H23" s="221">
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="22"/>
       <c r="E24" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="224"/>
-      <c r="G24" s="227"/>
-      <c r="H24" s="226">
+        <v>60</v>
+      </c>
+      <c r="F24" s="219"/>
+      <c r="G24" s="222"/>
+      <c r="H24" s="221">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="224"/>
-      <c r="G25" s="227"/>
-      <c r="H25" s="226">
+        <v>62</v>
+      </c>
+      <c r="F25" s="219"/>
+      <c r="G25" s="222"/>
+      <c r="H25" s="221">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="224"/>
-      <c r="G26" s="227"/>
-      <c r="H26" s="226">
+        <v>64</v>
+      </c>
+      <c r="F26" s="219"/>
+      <c r="G26" s="222"/>
+      <c r="H26" s="221">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="224"/>
-      <c r="G27" s="227"/>
-      <c r="H27" s="226">
+        <v>62</v>
+      </c>
+      <c r="F27" s="219"/>
+      <c r="G27" s="222"/>
+      <c r="H27" s="221">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="23"/>
       <c r="E28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="224"/>
-      <c r="G28" s="227"/>
-      <c r="H28" s="226">
+        <v>67</v>
+      </c>
+      <c r="F28" s="219"/>
+      <c r="G28" s="222"/>
+      <c r="H28" s="221">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="233"/>
+      <c r="E29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="244"/>
-      <c r="E29" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="224"/>
-      <c r="G29" s="227"/>
-      <c r="H29" s="226">
+      <c r="F29" s="219"/>
+      <c r="G29" s="222"/>
+      <c r="H29" s="221">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="224"/>
-      <c r="G30" s="227"/>
-      <c r="H30" s="226">
+      <c r="F30" s="219"/>
+      <c r="G30" s="222"/>
+      <c r="H30" s="221">
         <v>70</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="224"/>
-      <c r="G31" s="227">
+        <v>72</v>
+      </c>
+      <c r="F31" s="219"/>
+      <c r="G31" s="222">
         <v>2.95</v>
       </c>
-      <c r="H31" s="226">
+      <c r="H31" s="221">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="224"/>
-      <c r="G32" s="227">
+      <c r="F32" s="219"/>
+      <c r="G32" s="222">
         <v>2.64</v>
       </c>
-      <c r="H32" s="226">
+      <c r="H32" s="221">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="224"/>
-      <c r="G33" s="227"/>
-      <c r="H33" s="226">
+      <c r="F33" s="219"/>
+      <c r="G33" s="222"/>
+      <c r="H33" s="221">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="224"/>
-      <c r="G34" s="227"/>
-      <c r="H34" s="226">
+      <c r="F34" s="219"/>
+      <c r="G34" s="222"/>
+      <c r="H34" s="221">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="224"/>
-      <c r="G35" s="227"/>
-      <c r="H35" s="226">
+        <v>39</v>
+      </c>
+      <c r="F35" s="219"/>
+      <c r="G35" s="222"/>
+      <c r="H35" s="221">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="224"/>
-      <c r="G36" s="227"/>
-      <c r="H36" s="226">
+      <c r="F36" s="219"/>
+      <c r="G36" s="222"/>
+      <c r="H36" s="221">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="18" customHeight="1" thickBot="1">
       <c r="B37" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="224"/>
-      <c r="G37" s="227"/>
-      <c r="H37" s="226">
+      <c r="F37" s="219"/>
+      <c r="G37" s="222"/>
+      <c r="H37" s="221">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="F38" s="224"/>
-      <c r="G38" s="227"/>
-      <c r="H38" s="226">
+      <c r="F38" s="219"/>
+      <c r="G38" s="222"/>
+      <c r="H38" s="221">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="F39" s="224"/>
-      <c r="G39" s="227"/>
-      <c r="H39" s="226">
+      <c r="F39" s="219"/>
+      <c r="G39" s="222"/>
+      <c r="H39" s="221">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="F40" s="224"/>
-      <c r="G40" s="227">
+      <c r="F40" s="219"/>
+      <c r="G40" s="222">
         <v>1.5</v>
       </c>
-      <c r="H40" s="226">
+      <c r="H40" s="221">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="F41" s="224"/>
-      <c r="G41" s="227">
+      <c r="F41" s="219"/>
+      <c r="G41" s="222">
         <v>1.4</v>
       </c>
-      <c r="H41" s="226">
+      <c r="H41" s="221">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="F42" s="224"/>
-      <c r="G42" s="227"/>
-      <c r="H42" s="226">
+      <c r="F42" s="219"/>
+      <c r="G42" s="222"/>
+      <c r="H42" s="221">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="F43" s="224"/>
-      <c r="G43" s="227"/>
-      <c r="H43" s="226">
+      <c r="F43" s="219"/>
+      <c r="G43" s="222"/>
+      <c r="H43" s="221">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="F44" s="224"/>
-      <c r="G44" s="227"/>
-      <c r="H44" s="226">
+      <c r="F44" s="219"/>
+      <c r="G44" s="222"/>
+      <c r="H44" s="221">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="F45" s="224"/>
-      <c r="G45" s="227"/>
-      <c r="H45" s="226">
+      <c r="F45" s="219"/>
+      <c r="G45" s="222"/>
+      <c r="H45" s="221">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="F46" s="224"/>
-      <c r="G46" s="227"/>
-      <c r="H46" s="226">
+      <c r="F46" s="219"/>
+      <c r="G46" s="222"/>
+      <c r="H46" s="221">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="F47" s="224"/>
-      <c r="G47" s="227"/>
-      <c r="H47" s="226">
+      <c r="F47" s="219"/>
+      <c r="G47" s="222"/>
+      <c r="H47" s="221">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="F48" s="224"/>
-      <c r="G48" s="227">
+      <c r="F48" s="219"/>
+      <c r="G48" s="222">
         <v>0.44</v>
       </c>
-      <c r="H48" s="226">
+      <c r="H48" s="221">
         <v>40</v>
       </c>
     </row>

--- a/py/direction_sheet.xlsx
+++ b/py/direction_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diereport\ex0.11\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7083F0-188D-4D54-9549-BB851F6F51E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C424A3-1B86-4661-920C-25802FE10FB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Dubai</t>
   </si>
   <si>
-    <t>A6N01A</t>
-  </si>
-  <si>
     <t>Xác nhận sản phẩm:</t>
   </si>
   <si>
@@ -568,6 +565,9 @@
   </si>
   <si>
     <t>120   Không bật auto của runout</t>
+  </si>
+  <si>
+    <t>6N01A</t>
   </si>
 </sst>
 </file>
@@ -1891,7 +1891,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="429">
+  <cellXfs count="428">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2389,9 +2389,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2727,33 +2724,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2787,6 +2757,33 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2896,6 +2893,221 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2917,13 +3129,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2934,215 +3140,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3563,7 +3560,7 @@
   </sheetPr>
   <dimension ref="B1:AI172"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:U1"/>
     </sheetView>
   </sheetViews>
@@ -3596,141 +3593,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B1" s="388" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="389"/>
-      <c r="D1" s="389"/>
-      <c r="E1" s="389"/>
-      <c r="F1" s="390"/>
-      <c r="G1" s="390"/>
-      <c r="H1" s="390"/>
-      <c r="I1" s="390"/>
-      <c r="J1" s="390"/>
-      <c r="K1" s="390"/>
-      <c r="L1" s="390"/>
-      <c r="M1" s="390"/>
-      <c r="N1" s="390"/>
-      <c r="O1" s="389"/>
-      <c r="P1" s="389"/>
-      <c r="Q1" s="389"/>
-      <c r="R1" s="389"/>
-      <c r="S1" s="389"/>
-      <c r="T1" s="389"/>
-      <c r="U1" s="391"/>
+      <c r="B1" s="384" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="385"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="385"/>
+      <c r="F1" s="386"/>
+      <c r="G1" s="386"/>
+      <c r="H1" s="386"/>
+      <c r="I1" s="386"/>
+      <c r="J1" s="386"/>
+      <c r="K1" s="386"/>
+      <c r="L1" s="386"/>
+      <c r="M1" s="386"/>
+      <c r="N1" s="386"/>
+      <c r="O1" s="385"/>
+      <c r="P1" s="385"/>
+      <c r="Q1" s="385"/>
+      <c r="R1" s="385"/>
+      <c r="S1" s="385"/>
+      <c r="T1" s="385"/>
+      <c r="U1" s="387"/>
     </row>
     <row r="2" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="s">
-        <v>146</v>
+      <c r="B2" s="225" t="s">
+        <v>145</v>
       </c>
       <c r="C2" s="131">
         <f>input!D18</f>
         <v>0</v>
       </c>
       <c r="D2" s="132" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="133">
         <f>input!D8</f>
         <v>0</v>
       </c>
-      <c r="F2" s="392"/>
-      <c r="G2" s="393"/>
-      <c r="H2" s="214"/>
+      <c r="F2" s="388"/>
+      <c r="G2" s="389"/>
+      <c r="H2" s="213"/>
       <c r="I2" s="124"/>
-      <c r="J2" s="214"/>
+      <c r="J2" s="213"/>
       <c r="K2" s="125"/>
-      <c r="L2" s="393"/>
-      <c r="M2" s="309"/>
+      <c r="L2" s="389"/>
+      <c r="M2" s="308"/>
       <c r="N2" s="126"/>
-      <c r="O2" s="283" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="310"/>
-      <c r="Q2" s="283" t="s">
-        <v>122</v>
-      </c>
-      <c r="R2" s="312"/>
-      <c r="S2" s="312"/>
-      <c r="T2" s="312"/>
-      <c r="U2" s="310"/>
+      <c r="O2" s="282" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="309"/>
+      <c r="Q2" s="282" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" s="311"/>
+      <c r="S2" s="311"/>
+      <c r="T2" s="311"/>
+      <c r="U2" s="309"/>
     </row>
     <row r="3" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B3" s="211" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="215">
+      <c r="B3" s="210" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="214">
         <f>input!D17</f>
         <v>0</v>
       </c>
-      <c r="D3" s="215" t="s">
+      <c r="D3" s="214" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="134">
         <f>input!D9</f>
         <v>0</v>
       </c>
-      <c r="F3" s="392"/>
-      <c r="G3" s="393"/>
-      <c r="H3" s="214"/>
+      <c r="F3" s="388"/>
+      <c r="G3" s="389"/>
+      <c r="H3" s="213"/>
       <c r="I3" s="125"/>
-      <c r="J3" s="214"/>
+      <c r="J3" s="213"/>
       <c r="K3" s="35"/>
-      <c r="L3" s="393"/>
-      <c r="M3" s="309"/>
+      <c r="L3" s="389"/>
+      <c r="M3" s="308"/>
       <c r="N3" s="126"/>
-      <c r="O3" s="285" t="s">
-        <v>127</v>
-      </c>
-      <c r="P3" s="311"/>
-      <c r="Q3" s="285"/>
-      <c r="R3" s="313"/>
-      <c r="S3" s="313"/>
-      <c r="T3" s="313"/>
-      <c r="U3" s="311"/>
+      <c r="O3" s="284" t="s">
+        <v>126</v>
+      </c>
+      <c r="P3" s="310"/>
+      <c r="Q3" s="284"/>
+      <c r="R3" s="312"/>
+      <c r="S3" s="312"/>
+      <c r="T3" s="312"/>
+      <c r="U3" s="310"/>
     </row>
     <row r="4" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B4" s="25"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="372" t="s">
+      <c r="F4" s="188"/>
+      <c r="G4" s="358" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="359"/>
+      <c r="I4" s="359"/>
+      <c r="J4" s="360"/>
+      <c r="K4" s="358" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="373"/>
-      <c r="I4" s="373"/>
-      <c r="J4" s="374"/>
-      <c r="K4" s="372" t="s">
-        <v>137</v>
-      </c>
-      <c r="L4" s="373"/>
-      <c r="M4" s="374"/>
+      <c r="L4" s="359"/>
+      <c r="M4" s="360"/>
       <c r="N4" s="128"/>
-      <c r="O4" s="182" t="s">
+      <c r="O4" s="181" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="183" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" s="283" t="s">
-        <v>123</v>
-      </c>
-      <c r="R4" s="312"/>
-      <c r="S4" s="312"/>
-      <c r="T4" s="312"/>
-      <c r="U4" s="310"/>
+      <c r="Q4" s="282" t="s">
+        <v>122</v>
+      </c>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="309"/>
     </row>
     <row r="5" spans="2:31" ht="28.5" customHeight="1">
-      <c r="B5" s="364" t="s">
+      <c r="B5" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="366">
+      <c r="C5" s="352">
         <f>input!D6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="367"/>
-      <c r="E5" s="368"/>
+      <c r="D5" s="353"/>
+      <c r="E5" s="354"/>
       <c r="F5" s="121"/>
       <c r="G5" s="130" t="s">
         <v>2</v>
@@ -3740,34 +3737,34 @@
         <v/>
       </c>
       <c r="I5" s="169" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5" s="175" t="s">
-        <v>134</v>
-      </c>
-      <c r="K5" s="199" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="174" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="198" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="175" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="417" t="s">
         <v>128</v>
       </c>
-      <c r="L5" s="176" t="s">
-        <v>99</v>
-      </c>
-      <c r="M5" s="345" t="s">
-        <v>129</v>
-      </c>
       <c r="N5" s="121"/>
-      <c r="O5" s="341"/>
-      <c r="P5" s="343"/>
-      <c r="Q5" s="349"/>
-      <c r="R5" s="350"/>
-      <c r="S5" s="350"/>
-      <c r="T5" s="350"/>
-      <c r="U5" s="351"/>
+      <c r="O5" s="340"/>
+      <c r="P5" s="342"/>
+      <c r="Q5" s="421"/>
+      <c r="R5" s="422"/>
+      <c r="S5" s="422"/>
+      <c r="T5" s="422"/>
+      <c r="U5" s="423"/>
     </row>
     <row r="6" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B6" s="365"/>
-      <c r="C6" s="369"/>
-      <c r="D6" s="370"/>
-      <c r="E6" s="371"/>
+      <c r="B6" s="351"/>
+      <c r="C6" s="355"/>
+      <c r="D6" s="356"/>
+      <c r="E6" s="357"/>
       <c r="F6" s="121"/>
       <c r="G6" s="170">
         <v>6061</v>
@@ -3777,38 +3774,38 @@
         <v/>
       </c>
       <c r="I6" s="172"/>
-      <c r="J6" s="177">
+      <c r="J6" s="176">
         <f>input!D21</f>
         <v>0</v>
       </c>
-      <c r="K6" s="178">
+      <c r="K6" s="177">
         <f>input!D13</f>
         <v>0</v>
       </c>
-      <c r="L6" s="227">
+      <c r="L6" s="226">
         <f>ROUND(input!D14,2)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="346"/>
+      <c r="M6" s="418"/>
       <c r="N6" s="122"/>
-      <c r="O6" s="342"/>
-      <c r="P6" s="344"/>
-      <c r="Q6" s="352"/>
-      <c r="R6" s="353"/>
-      <c r="S6" s="353"/>
-      <c r="T6" s="353"/>
-      <c r="U6" s="354"/>
+      <c r="O6" s="341"/>
+      <c r="P6" s="343"/>
+      <c r="Q6" s="415"/>
+      <c r="R6" s="424"/>
+      <c r="S6" s="424"/>
+      <c r="T6" s="424"/>
+      <c r="U6" s="416"/>
     </row>
     <row r="7" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B7" s="394" t="s">
+      <c r="B7" s="374" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="396">
+      <c r="C7" s="391">
         <f>input!D7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="397"/>
-      <c r="E7" s="398"/>
+      <c r="D7" s="392"/>
+      <c r="E7" s="393"/>
       <c r="F7" s="121"/>
       <c r="G7" s="170">
         <v>6063</v>
@@ -3820,70 +3817,73 @@
       <c r="I7" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="179" t="s">
-        <v>135</v>
-      </c>
-      <c r="K7" s="199" t="s">
+      <c r="J7" s="178" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="198" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="179" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="180" t="s">
-        <v>101</v>
-      </c>
-      <c r="M7" s="347">
+      <c r="M7" s="419">
         <f>input!K11</f>
         <v>0</v>
       </c>
       <c r="N7" s="123"/>
-      <c r="O7" s="358" t="s">
-        <v>143</v>
-      </c>
-      <c r="P7" s="359"/>
-      <c r="Q7" s="414" t="s">
-        <v>126</v>
-      </c>
-      <c r="R7" s="415"/>
-      <c r="S7" s="411" t="s">
-        <v>138</v>
-      </c>
-      <c r="T7" s="412"/>
-      <c r="U7" s="413"/>
+      <c r="O7" s="344" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" s="345"/>
+      <c r="Q7" s="409" t="s">
+        <v>125</v>
+      </c>
+      <c r="R7" s="410"/>
+      <c r="S7" s="406" t="s">
+        <v>137</v>
+      </c>
+      <c r="T7" s="407"/>
+      <c r="U7" s="408"/>
     </row>
     <row r="8" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B8" s="395"/>
-      <c r="C8" s="399"/>
-      <c r="D8" s="400"/>
-      <c r="E8" s="401"/>
+      <c r="B8" s="390"/>
+      <c r="C8" s="394"/>
+      <c r="D8" s="395"/>
+      <c r="E8" s="396"/>
       <c r="F8" s="121"/>
-      <c r="G8" s="232" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="174"/>
+      <c r="G8" s="231" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="171" t="str">
+        <f>IF(input!D12="6N01A","●","")</f>
+        <v/>
+      </c>
       <c r="I8" s="172"/>
-      <c r="J8" s="181">
+      <c r="J8" s="180">
         <f>input!D31</f>
         <v>0</v>
       </c>
-      <c r="K8" s="235">
+      <c r="K8" s="234">
         <f>input!D10*1</f>
         <v>0</v>
       </c>
-      <c r="L8" s="236">
+      <c r="L8" s="235">
         <f>input!D15</f>
         <v>0</v>
       </c>
-      <c r="M8" s="348"/>
+      <c r="M8" s="420"/>
       <c r="N8" s="123"/>
-      <c r="O8" s="360"/>
-      <c r="P8" s="361"/>
-      <c r="Q8" s="355" t="s">
-        <v>125</v>
-      </c>
-      <c r="R8" s="323" t="s">
-        <v>144</v>
-      </c>
-      <c r="S8" s="326"/>
-      <c r="T8" s="328"/>
-      <c r="U8" s="330"/>
+      <c r="O8" s="346"/>
+      <c r="P8" s="347"/>
+      <c r="Q8" s="425" t="s">
+        <v>124</v>
+      </c>
+      <c r="R8" s="322" t="s">
+        <v>143</v>
+      </c>
+      <c r="S8" s="325"/>
+      <c r="T8" s="327"/>
+      <c r="U8" s="329"/>
     </row>
     <row r="9" spans="2:31" ht="6" customHeight="1">
       <c r="B9" s="25"/>
@@ -3892,27 +3892,27 @@
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="402" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" s="403"/>
-      <c r="J9" s="408" t="str">
+      <c r="H9" s="397" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="398"/>
+      <c r="J9" s="403" t="str">
         <f>input!D36&amp;"-"&amp;input!D37</f>
         <v>-</v>
       </c>
-      <c r="K9" s="375" t="s">
-        <v>151</v>
-      </c>
-      <c r="L9" s="376"/>
-      <c r="M9" s="381"/>
+      <c r="K9" s="361" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" s="362"/>
+      <c r="M9" s="367"/>
       <c r="N9" s="30"/>
-      <c r="O9" s="360"/>
-      <c r="P9" s="361"/>
-      <c r="Q9" s="356"/>
-      <c r="R9" s="324"/>
-      <c r="S9" s="331"/>
-      <c r="T9" s="329"/>
-      <c r="U9" s="327"/>
+      <c r="O9" s="346"/>
+      <c r="P9" s="347"/>
+      <c r="Q9" s="426"/>
+      <c r="R9" s="323"/>
+      <c r="S9" s="330"/>
+      <c r="T9" s="328"/>
+      <c r="U9" s="326"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" thickBot="1">
       <c r="B10" s="31"/>
@@ -3920,76 +3920,76 @@
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="190"/>
-      <c r="H10" s="404"/>
-      <c r="I10" s="405"/>
-      <c r="J10" s="409"/>
-      <c r="K10" s="377"/>
-      <c r="L10" s="378"/>
-      <c r="M10" s="382"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="399"/>
+      <c r="I10" s="400"/>
+      <c r="J10" s="404"/>
+      <c r="K10" s="363"/>
+      <c r="L10" s="364"/>
+      <c r="M10" s="368"/>
       <c r="N10" s="30"/>
-      <c r="O10" s="362"/>
-      <c r="P10" s="363"/>
-      <c r="Q10" s="357"/>
-      <c r="R10" s="325"/>
-      <c r="S10" s="332"/>
-      <c r="T10" s="333"/>
-      <c r="U10" s="334"/>
+      <c r="O10" s="348"/>
+      <c r="P10" s="349"/>
+      <c r="Q10" s="427"/>
+      <c r="R10" s="324"/>
+      <c r="S10" s="331"/>
+      <c r="T10" s="332"/>
+      <c r="U10" s="333"/>
     </row>
     <row r="11" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B11" s="364" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="384" t="str">
+      <c r="B11" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="370" t="str">
         <f>IF(C13=0,"","DR"&amp;MID(C13,2,4))</f>
         <v/>
       </c>
-      <c r="D11" s="384"/>
-      <c r="E11" s="385"/>
+      <c r="D11" s="370"/>
+      <c r="E11" s="371"/>
       <c r="F11" s="35"/>
-      <c r="H11" s="406"/>
-      <c r="I11" s="407"/>
-      <c r="J11" s="410"/>
-      <c r="K11" s="379"/>
-      <c r="L11" s="380"/>
-      <c r="M11" s="383"/>
+      <c r="H11" s="401"/>
+      <c r="I11" s="402"/>
+      <c r="J11" s="405"/>
+      <c r="K11" s="365"/>
+      <c r="L11" s="366"/>
+      <c r="M11" s="369"/>
       <c r="N11" s="30"/>
-      <c r="O11" s="416"/>
-      <c r="P11" s="417"/>
-      <c r="Q11" s="317"/>
-      <c r="R11" s="320"/>
-      <c r="S11" s="292" t="s">
-        <v>82</v>
-      </c>
-      <c r="T11" s="316"/>
-      <c r="U11" s="293"/>
+      <c r="O11" s="411"/>
+      <c r="P11" s="412"/>
+      <c r="Q11" s="316"/>
+      <c r="R11" s="319"/>
+      <c r="S11" s="303" t="s">
+        <v>81</v>
+      </c>
+      <c r="T11" s="315"/>
+      <c r="U11" s="304"/>
     </row>
     <row r="12" spans="2:31" ht="27.75" customHeight="1">
-      <c r="B12" s="365"/>
-      <c r="C12" s="386"/>
-      <c r="D12" s="386"/>
-      <c r="E12" s="387"/>
+      <c r="B12" s="351"/>
+      <c r="C12" s="372"/>
+      <c r="D12" s="372"/>
+      <c r="E12" s="373"/>
       <c r="F12" s="25"/>
       <c r="J12" s="101"/>
       <c r="N12" s="30"/>
-      <c r="O12" s="418"/>
-      <c r="P12" s="419"/>
-      <c r="Q12" s="318"/>
-      <c r="R12" s="321"/>
-      <c r="S12" s="335"/>
-      <c r="T12" s="336"/>
-      <c r="U12" s="337"/>
+      <c r="O12" s="413"/>
+      <c r="P12" s="414"/>
+      <c r="Q12" s="317"/>
+      <c r="R12" s="320"/>
+      <c r="S12" s="334"/>
+      <c r="T12" s="335"/>
+      <c r="U12" s="336"/>
     </row>
     <row r="13" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B13" s="394" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="386">
+      <c r="B13" s="374" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="372">
         <f>input!D32</f>
         <v>0</v>
       </c>
-      <c r="D13" s="386"/>
-      <c r="E13" s="387"/>
+      <c r="D13" s="372"/>
+      <c r="E13" s="373"/>
       <c r="F13" s="25"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
@@ -3999,22 +3999,22 @@
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
       <c r="N13" s="30"/>
-      <c r="O13" s="352"/>
-      <c r="P13" s="354"/>
-      <c r="Q13" s="319"/>
-      <c r="R13" s="322"/>
-      <c r="S13" s="338"/>
-      <c r="T13" s="339"/>
-      <c r="U13" s="340"/>
+      <c r="O13" s="415"/>
+      <c r="P13" s="416"/>
+      <c r="Q13" s="318"/>
+      <c r="R13" s="321"/>
+      <c r="S13" s="337"/>
+      <c r="T13" s="338"/>
+      <c r="U13" s="339"/>
     </row>
     <row r="14" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B14" s="338"/>
-      <c r="C14" s="422"/>
-      <c r="D14" s="422"/>
-      <c r="E14" s="423"/>
+      <c r="B14" s="337"/>
+      <c r="C14" s="377"/>
+      <c r="D14" s="377"/>
+      <c r="E14" s="378"/>
       <c r="F14" s="35"/>
       <c r="G14" s="120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
@@ -4023,79 +4023,79 @@
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
       <c r="N14" s="30"/>
-      <c r="O14" s="326" t="s">
-        <v>79</v>
-      </c>
-      <c r="P14" s="327"/>
-      <c r="Q14" s="326" t="s">
-        <v>145</v>
-      </c>
-      <c r="R14" s="328"/>
-      <c r="S14" s="329"/>
-      <c r="T14" s="329"/>
-      <c r="U14" s="327"/>
+      <c r="O14" s="325" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="326"/>
+      <c r="Q14" s="325" t="s">
+        <v>144</v>
+      </c>
+      <c r="R14" s="327"/>
+      <c r="S14" s="328"/>
+      <c r="T14" s="328"/>
+      <c r="U14" s="326"/>
     </row>
     <row r="15" spans="2:31" ht="52.5" customHeight="1" thickBot="1">
-      <c r="B15" s="191" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="192"/>
-      <c r="D15" s="192"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="184" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="185" t="s">
+      <c r="B15" s="190" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="191"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="183" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="184" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="184" t="s">
         <v>115</v>
       </c>
-      <c r="I15" s="185" t="s">
+      <c r="J15" s="184" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="185" t="s">
+      <c r="K15" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="K15" s="186" t="s">
+      <c r="L15" s="184" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" s="184" t="s">
+        <v>151</v>
+      </c>
+      <c r="N15" s="185" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="L15" s="185" t="s">
-        <v>140</v>
-      </c>
-      <c r="M15" s="185" t="s">
-        <v>152</v>
-      </c>
-      <c r="N15" s="186" t="s">
-        <v>139</v>
-      </c>
-      <c r="O15" s="200" t="s">
+      <c r="P15" s="184" t="s">
         <v>119</v>
       </c>
-      <c r="P15" s="185" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q15" s="187">
+      <c r="Q15" s="186">
         <v>302</v>
       </c>
-      <c r="R15" s="187">
+      <c r="R15" s="186">
         <v>304</v>
       </c>
-      <c r="S15" s="187">
+      <c r="S15" s="186">
         <v>314</v>
       </c>
-      <c r="T15" s="187">
+      <c r="T15" s="186">
         <v>316</v>
       </c>
-      <c r="U15" s="188">
+      <c r="U15" s="187">
         <v>318</v>
       </c>
     </row>
     <row r="16" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B16" s="424" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="425"/>
-      <c r="D16" s="426"/>
-      <c r="E16" s="293"/>
+      <c r="B16" s="379" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="380"/>
+      <c r="D16" s="381"/>
+      <c r="E16" s="304"/>
       <c r="F16" s="35"/>
       <c r="G16" s="119">
         <v>1</v>
@@ -4108,7 +4108,7 @@
       <c r="M16" s="27"/>
       <c r="N16" s="28"/>
       <c r="O16" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P16" s="27"/>
       <c r="Q16" s="36"/>
@@ -4128,15 +4128,15 @@
     </row>
     <row r="17" spans="2:31" ht="35.1" customHeight="1">
       <c r="B17" s="135" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="420" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="421"/>
+        <v>82</v>
+      </c>
+      <c r="D17" s="375" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="376"/>
       <c r="F17" s="35"/>
       <c r="G17" s="119">
         <v>2</v>
@@ -4149,7 +4149,7 @@
       <c r="M17" s="27"/>
       <c r="N17" s="28"/>
       <c r="O17" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P17" s="27"/>
       <c r="Q17" s="36"/>
@@ -4170,8 +4170,8 @@
     <row r="18" spans="2:31" ht="35.1" customHeight="1">
       <c r="B18" s="114"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="270"/>
-      <c r="E18" s="291"/>
+      <c r="D18" s="269"/>
+      <c r="E18" s="302"/>
       <c r="F18" s="35"/>
       <c r="G18" s="119">
         <v>3</v>
@@ -4184,7 +4184,7 @@
       <c r="M18" s="27"/>
       <c r="N18" s="28"/>
       <c r="O18" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="36"/>
@@ -4205,8 +4205,8 @@
     <row r="19" spans="2:31" ht="35.1" customHeight="1">
       <c r="B19" s="114"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="270"/>
-      <c r="E19" s="291"/>
+      <c r="D19" s="269"/>
+      <c r="E19" s="302"/>
       <c r="F19" s="35"/>
       <c r="G19" s="119">
         <v>4</v>
@@ -4214,17 +4214,17 @@
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
       <c r="M19" s="27"/>
       <c r="N19" s="28"/>
       <c r="O19" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P19" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="36"/>
       <c r="R19" s="36"/>
@@ -4232,10 +4232,10 @@
       <c r="T19" s="37"/>
       <c r="U19" s="38"/>
       <c r="W19" s="39"/>
-      <c r="X19" s="314"/>
-      <c r="Y19" s="309"/>
-      <c r="Z19" s="309"/>
-      <c r="AA19" s="309"/>
+      <c r="X19" s="313"/>
+      <c r="Y19" s="308"/>
+      <c r="Z19" s="308"/>
+      <c r="AA19" s="308"/>
       <c r="AB19" s="35"/>
       <c r="AC19" s="35"/>
       <c r="AD19" s="35"/>
@@ -4244,8 +4244,8 @@
     <row r="20" spans="2:31" ht="35.1" customHeight="1">
       <c r="B20" s="114"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="270"/>
-      <c r="E20" s="291"/>
+      <c r="D20" s="269"/>
+      <c r="E20" s="302"/>
       <c r="F20" s="35"/>
       <c r="G20" s="119">
         <v>5</v>
@@ -4258,7 +4258,7 @@
       <c r="M20" s="27"/>
       <c r="N20" s="28"/>
       <c r="O20" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P20" s="27"/>
       <c r="Q20" s="36"/>
@@ -4269,8 +4269,8 @@
       <c r="W20" s="35"/>
       <c r="X20" s="116"/>
       <c r="Y20" s="34"/>
-      <c r="Z20" s="315"/>
-      <c r="AA20" s="309"/>
+      <c r="Z20" s="314"/>
+      <c r="AA20" s="308"/>
       <c r="AB20" s="35"/>
       <c r="AC20" s="35"/>
       <c r="AD20" s="35"/>
@@ -4279,8 +4279,8 @@
     <row r="21" spans="2:31" ht="35.1" customHeight="1">
       <c r="B21" s="114"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="270"/>
-      <c r="E21" s="291"/>
+      <c r="D21" s="269"/>
+      <c r="E21" s="302"/>
       <c r="F21" s="35"/>
       <c r="G21" s="119">
         <v>6</v>
@@ -4293,7 +4293,7 @@
       <c r="M21" s="27"/>
       <c r="N21" s="28"/>
       <c r="O21" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P21" s="27"/>
       <c r="Q21" s="36"/>
@@ -4305,8 +4305,8 @@
       <c r="W21" s="35"/>
       <c r="X21" s="116"/>
       <c r="Y21" s="117"/>
-      <c r="Z21" s="308"/>
-      <c r="AA21" s="309"/>
+      <c r="Z21" s="307"/>
+      <c r="AA21" s="308"/>
       <c r="AB21" s="35"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="35"/>
@@ -4315,8 +4315,8 @@
     <row r="22" spans="2:31" ht="35.1" customHeight="1">
       <c r="B22" s="114"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="270"/>
-      <c r="E22" s="291"/>
+      <c r="D22" s="269"/>
+      <c r="E22" s="302"/>
       <c r="F22" s="35"/>
       <c r="G22" s="119">
         <v>7</v>
@@ -4327,9 +4327,9 @@
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
       <c r="M22" s="27"/>
-      <c r="N22" s="207"/>
+      <c r="N22" s="206"/>
       <c r="O22" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="36"/>
@@ -4341,8 +4341,8 @@
       <c r="W22" s="35"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="35"/>
-      <c r="Z22" s="309"/>
-      <c r="AA22" s="309"/>
+      <c r="Z22" s="308"/>
+      <c r="AA22" s="308"/>
       <c r="AB22" s="35"/>
       <c r="AC22" s="35"/>
       <c r="AD22" s="35"/>
@@ -4351,8 +4351,8 @@
     <row r="23" spans="2:31" ht="35.1" customHeight="1">
       <c r="B23" s="114"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="270"/>
-      <c r="E23" s="291"/>
+      <c r="D23" s="269"/>
+      <c r="E23" s="302"/>
       <c r="F23" s="35"/>
       <c r="G23" s="119">
         <v>8</v>
@@ -4363,9 +4363,9 @@
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="207"/>
+      <c r="N23" s="206"/>
       <c r="O23" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P23" s="36"/>
       <c r="Q23" s="36"/>
@@ -4387,8 +4387,8 @@
     <row r="24" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
       <c r="B24" s="115"/>
       <c r="C24" s="29"/>
-      <c r="D24" s="289"/>
-      <c r="E24" s="290"/>
+      <c r="D24" s="300"/>
+      <c r="E24" s="301"/>
       <c r="F24" s="35"/>
       <c r="G24" s="119">
         <v>9</v>
@@ -4399,9 +4399,9 @@
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
       <c r="M24" s="27"/>
-      <c r="N24" s="207"/>
+      <c r="N24" s="206"/>
       <c r="O24" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="36"/>
@@ -4421,12 +4421,12 @@
       <c r="AE24" s="35"/>
     </row>
     <row r="25" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B25" s="193" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
+      <c r="B25" s="192" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="191"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="191"/>
       <c r="F25" s="35"/>
       <c r="G25" s="119">
         <v>10</v>
@@ -4437,9 +4437,9 @@
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
       <c r="M25" s="27"/>
-      <c r="N25" s="207"/>
+      <c r="N25" s="206"/>
       <c r="O25" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P25" s="41"/>
       <c r="Q25" s="36"/>
@@ -4451,14 +4451,14 @@
       <c r="W25" s="40"/>
     </row>
     <row r="26" spans="2:31" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B26" s="292" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="293"/>
-      <c r="D26" s="292" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="293"/>
+      <c r="B26" s="303" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="304"/>
+      <c r="D26" s="303" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="304"/>
       <c r="F26" s="35"/>
       <c r="G26" s="119">
         <v>11</v>
@@ -4469,9 +4469,9 @@
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
       <c r="M26" s="36"/>
-      <c r="N26" s="207"/>
+      <c r="N26" s="206"/>
       <c r="O26" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P26" s="36"/>
       <c r="Q26" s="36"/>
@@ -4484,17 +4484,17 @@
     </row>
     <row r="27" spans="2:31" ht="39.75" customHeight="1">
       <c r="B27" s="137" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="138" t="str">
         <f>input!I12</f>
         <v/>
       </c>
       <c r="D27" s="137" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="205" t="s">
-        <v>9</v>
+        <v>103</v>
+      </c>
+      <c r="E27" s="204" t="s">
+        <v>8</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="119">
@@ -4506,9 +4506,9 @@
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
       <c r="M27" s="36"/>
-      <c r="N27" s="207"/>
+      <c r="N27" s="206"/>
       <c r="O27" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
@@ -4521,14 +4521,14 @@
     </row>
     <row r="28" spans="2:31" ht="39.75" customHeight="1">
       <c r="B28" s="139" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="140">
         <f>input!D20</f>
         <v>0</v>
       </c>
       <c r="D28" s="139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="141"/>
       <c r="F28" s="35"/>
@@ -4541,9 +4541,9 @@
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
       <c r="M28" s="36"/>
-      <c r="N28" s="207"/>
+      <c r="N28" s="206"/>
       <c r="O28" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P28" s="36"/>
       <c r="Q28" s="36"/>
@@ -4556,14 +4556,14 @@
     </row>
     <row r="29" spans="2:31" ht="39.75" customHeight="1">
       <c r="B29" s="139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="142">
         <f>input!D24</f>
         <v>0</v>
       </c>
       <c r="D29" s="139" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29" s="141"/>
       <c r="F29" s="35"/>
@@ -4576,9 +4576,9 @@
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
       <c r="M29" s="36"/>
-      <c r="N29" s="207"/>
+      <c r="N29" s="206"/>
       <c r="O29" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P29" s="36"/>
       <c r="Q29" s="36"/>
@@ -4591,14 +4591,14 @@
     </row>
     <row r="30" spans="2:31" ht="39.75" customHeight="1">
       <c r="B30" s="139" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="129">
         <f>input!D23</f>
         <v>0</v>
       </c>
       <c r="D30" s="139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="141"/>
       <c r="F30" s="35"/>
@@ -4611,9 +4611,9 @@
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
-      <c r="N30" s="207"/>
+      <c r="N30" s="206"/>
       <c r="O30" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P30" s="36"/>
       <c r="Q30" s="36"/>
@@ -4626,14 +4626,14 @@
     </row>
     <row r="31" spans="2:31" ht="39.75" customHeight="1">
       <c r="B31" s="139" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" s="143" t="str">
         <f>input!I13</f>
         <v>°-℃/m</v>
       </c>
       <c r="D31" s="139" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E31" s="144"/>
       <c r="F31" s="35"/>
@@ -4646,9 +4646,9 @@
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
       <c r="M31" s="36"/>
-      <c r="N31" s="207"/>
+      <c r="N31" s="206"/>
       <c r="O31" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P31" s="36"/>
       <c r="Q31" s="36"/>
@@ -4661,14 +4661,14 @@
     </row>
     <row r="32" spans="2:31" ht="39.75" customHeight="1">
       <c r="B32" s="139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="145">
         <f>input!D22</f>
         <v>0</v>
       </c>
       <c r="D32" s="139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="141"/>
       <c r="F32" s="35"/>
@@ -4681,9 +4681,9 @@
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
-      <c r="N32" s="207"/>
+      <c r="N32" s="206"/>
       <c r="O32" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P32" s="36"/>
       <c r="Q32" s="36"/>
@@ -4696,14 +4696,14 @@
     </row>
     <row r="33" spans="2:28" ht="39.75" customHeight="1">
       <c r="B33" s="139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="143">
         <f>input!D27</f>
         <v>0</v>
       </c>
       <c r="D33" s="139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="141"/>
       <c r="F33" s="35"/>
@@ -4716,9 +4716,9 @@
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
       <c r="M33" s="36"/>
-      <c r="N33" s="207"/>
+      <c r="N33" s="206"/>
       <c r="O33" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P33" s="36"/>
       <c r="Q33" s="36"/>
@@ -4731,14 +4731,14 @@
     </row>
     <row r="34" spans="2:28" ht="36" customHeight="1">
       <c r="B34" s="139" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="234">
+        <v>102</v>
+      </c>
+      <c r="C34" s="233">
         <f>input!D29</f>
         <v>0</v>
       </c>
       <c r="D34" s="139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34" s="141"/>
       <c r="F34" s="35"/>
@@ -4751,9 +4751,9 @@
       <c r="K34" s="36"/>
       <c r="L34" s="36"/>
       <c r="M34" s="36"/>
-      <c r="N34" s="207"/>
+      <c r="N34" s="206"/>
       <c r="O34" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P34" s="36"/>
       <c r="Q34" s="36"/>
@@ -4766,17 +4766,17 @@
     </row>
     <row r="35" spans="2:28" ht="34.5" customHeight="1">
       <c r="B35" s="139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="146">
         <f>input!D28</f>
         <v>0</v>
       </c>
       <c r="D35" s="139" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="204" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="E35" s="203" t="s">
+        <v>8</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="119">
@@ -4788,9 +4788,9 @@
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
       <c r="M35" s="36"/>
-      <c r="N35" s="207"/>
+      <c r="N35" s="206"/>
       <c r="O35" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P35" s="36"/>
       <c r="Q35" s="36"/>
@@ -4801,17 +4801,17 @@
     </row>
     <row r="36" spans="2:28" ht="35.1" customHeight="1">
       <c r="B36" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="147" t="str">
         <f>IF(input!D30&lt;&gt;"",input!D30,"Air")</f>
         <v>Air</v>
       </c>
       <c r="D36" s="139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="148" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="119">
@@ -4823,9 +4823,9 @@
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
       <c r="M36" s="36"/>
-      <c r="N36" s="207"/>
+      <c r="N36" s="206"/>
       <c r="O36" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P36" s="36"/>
       <c r="Q36" s="36"/>
@@ -4836,16 +4836,16 @@
     </row>
     <row r="37" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
       <c r="B37" s="149" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="225">
+        <v>146</v>
+      </c>
+      <c r="C37" s="224">
         <f>input!I14</f>
         <v>50</v>
       </c>
       <c r="D37" s="149" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="216">
+        <v>19</v>
+      </c>
+      <c r="E37" s="215">
         <f>input!D33</f>
         <v>0</v>
       </c>
@@ -4859,9 +4859,9 @@
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
-      <c r="N37" s="207"/>
+      <c r="N37" s="206"/>
       <c r="O37" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P37" s="36"/>
       <c r="Q37" s="36"/>
@@ -4871,7 +4871,7 @@
       <c r="U37" s="38"/>
     </row>
     <row r="38" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B38" s="194"/>
+      <c r="B38" s="193"/>
       <c r="C38" s="104"/>
       <c r="D38" s="104"/>
       <c r="E38" s="104"/>
@@ -4885,9 +4885,9 @@
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
       <c r="M38" s="36"/>
-      <c r="N38" s="207"/>
+      <c r="N38" s="206"/>
       <c r="O38" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P38" s="36"/>
       <c r="Q38" s="36"/>
@@ -4897,10 +4897,10 @@
       <c r="U38" s="38"/>
     </row>
     <row r="39" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B39" s="287" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="288"/>
+      <c r="B39" s="298" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="299"/>
       <c r="D39" s="150"/>
       <c r="E39" s="112"/>
       <c r="F39" s="104"/>
@@ -4913,9 +4913,9 @@
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
       <c r="M39" s="36"/>
-      <c r="N39" s="207"/>
+      <c r="N39" s="206"/>
       <c r="O39" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P39" s="36"/>
       <c r="Q39" s="36"/>
@@ -4925,14 +4925,14 @@
       <c r="U39" s="38"/>
     </row>
     <row r="40" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B40" s="209" t="s">
+      <c r="B40" s="208" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="151" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="152" t="s">
         <v>26</v>
-      </c>
-      <c r="C40" s="151" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="152" t="s">
-        <v>27</v>
       </c>
       <c r="E40" s="45"/>
       <c r="F40" s="104"/>
@@ -4945,9 +4945,9 @@
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
-      <c r="N40" s="207"/>
+      <c r="N40" s="206"/>
       <c r="O40" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P40" s="36"/>
       <c r="Q40" s="36"/>
@@ -4957,8 +4957,8 @@
       <c r="U40" s="38"/>
     </row>
     <row r="41" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B41" s="210" t="s">
-        <v>28</v>
+      <c r="B41" s="209" t="s">
+        <v>27</v>
       </c>
       <c r="C41" s="153"/>
       <c r="D41" s="154"/>
@@ -4973,9 +4973,9 @@
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
       <c r="M41" s="36"/>
-      <c r="N41" s="207"/>
+      <c r="N41" s="206"/>
       <c r="O41" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P41" s="36"/>
       <c r="Q41" s="36"/>
@@ -4985,8 +4985,8 @@
       <c r="U41" s="38"/>
     </row>
     <row r="42" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B42" s="211" t="s">
-        <v>29</v>
+      <c r="B42" s="210" t="s">
+        <v>28</v>
       </c>
       <c r="C42" s="155"/>
       <c r="D42" s="156"/>
@@ -5001,9 +5001,9 @@
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
-      <c r="N42" s="207"/>
+      <c r="N42" s="206"/>
       <c r="O42" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P42" s="36"/>
       <c r="Q42" s="36"/>
@@ -5013,7 +5013,7 @@
       <c r="U42" s="38"/>
     </row>
     <row r="43" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B43" s="195"/>
+      <c r="B43" s="194"/>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
@@ -5027,9 +5027,9 @@
       <c r="K43" s="36"/>
       <c r="L43" s="36"/>
       <c r="M43" s="36"/>
-      <c r="N43" s="207"/>
+      <c r="N43" s="206"/>
       <c r="O43" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P43" s="36"/>
       <c r="Q43" s="36"/>
@@ -5039,8 +5039,8 @@
       <c r="U43" s="38"/>
     </row>
     <row r="44" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B44" s="193" t="s">
-        <v>109</v>
+      <c r="B44" s="192" t="s">
+        <v>108</v>
       </c>
       <c r="C44" s="157"/>
       <c r="D44" s="157"/>
@@ -5055,9 +5055,9 @@
       <c r="K44" s="36"/>
       <c r="L44" s="36"/>
       <c r="M44" s="36"/>
-      <c r="N44" s="207"/>
+      <c r="N44" s="206"/>
       <c r="O44" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P44" s="36"/>
       <c r="Q44" s="36"/>
@@ -5067,14 +5067,14 @@
       <c r="U44" s="38"/>
     </row>
     <row r="45" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B45" s="275" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="277" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="278"/>
-      <c r="E45" s="279"/>
+      <c r="B45" s="274" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="276" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="277"/>
+      <c r="E45" s="278"/>
       <c r="F45" s="104"/>
       <c r="G45" s="119">
         <v>30</v>
@@ -5085,9 +5085,9 @@
       <c r="K45" s="36"/>
       <c r="L45" s="36"/>
       <c r="M45" s="36"/>
-      <c r="N45" s="207"/>
+      <c r="N45" s="206"/>
       <c r="O45" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P45" s="36"/>
       <c r="Q45" s="36"/>
@@ -5097,15 +5097,15 @@
       <c r="U45" s="38"/>
     </row>
     <row r="46" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B46" s="276"/>
-      <c r="C46" s="212" t="s">
-        <v>94</v>
+      <c r="B46" s="275"/>
+      <c r="C46" s="211" t="s">
+        <v>93</v>
       </c>
       <c r="D46" s="147" t="s">
-        <v>106</v>
-      </c>
-      <c r="E46" s="217" t="s">
-        <v>25</v>
+        <v>105</v>
+      </c>
+      <c r="E46" s="216" t="s">
+        <v>24</v>
       </c>
       <c r="F46" s="104"/>
       <c r="G46" s="119">
@@ -5117,9 +5117,9 @@
       <c r="K46" s="36"/>
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
-      <c r="N46" s="207"/>
+      <c r="N46" s="206"/>
       <c r="O46" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P46" s="36"/>
       <c r="Q46" s="36"/>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="47" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
       <c r="B47" s="158" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47" s="159"/>
       <c r="D47" s="153"/>
@@ -5145,9 +5145,9 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="207"/>
+      <c r="N47" s="206"/>
       <c r="O47" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P47" s="36"/>
       <c r="Q47" s="36"/>
@@ -5164,9 +5164,9 @@
     </row>
     <row r="48" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
       <c r="B48" s="160" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="208"/>
+        <v>107</v>
+      </c>
+      <c r="C48" s="207"/>
       <c r="D48" s="155"/>
       <c r="E48" s="156"/>
       <c r="F48" s="104"/>
@@ -5179,9 +5179,9 @@
       <c r="K48" s="36"/>
       <c r="L48" s="36"/>
       <c r="M48" s="36"/>
-      <c r="N48" s="207"/>
+      <c r="N48" s="206"/>
       <c r="O48" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P48" s="36"/>
       <c r="Q48" s="36"/>
@@ -5197,14 +5197,14 @@
       <c r="AB48" s="104"/>
     </row>
     <row r="49" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B49" s="275" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="277" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49" s="278"/>
-      <c r="E49" s="279"/>
+      <c r="B49" s="274" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="276" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="277"/>
+      <c r="E49" s="278"/>
       <c r="F49" s="35"/>
       <c r="G49" s="119">
         <v>34</v>
@@ -5215,9 +5215,9 @@
       <c r="K49" s="36"/>
       <c r="L49" s="36"/>
       <c r="M49" s="36"/>
-      <c r="N49" s="207"/>
+      <c r="N49" s="206"/>
       <c r="O49" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P49" s="36"/>
       <c r="Q49" s="36"/>
@@ -5233,15 +5233,15 @@
       <c r="AB49" s="35"/>
     </row>
     <row r="50" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B50" s="276"/>
-      <c r="C50" s="212" t="s">
-        <v>94</v>
+      <c r="B50" s="275"/>
+      <c r="C50" s="211" t="s">
+        <v>93</v>
       </c>
       <c r="D50" s="147" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E50" s="163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="119">
@@ -5253,9 +5253,9 @@
       <c r="K50" s="36"/>
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
-      <c r="N50" s="207"/>
+      <c r="N50" s="206"/>
       <c r="O50" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P50" s="36"/>
       <c r="Q50" s="36"/>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="51" spans="2:28" ht="35.1" customHeight="1">
       <c r="B51" s="158" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="159"/>
       <c r="D51" s="153"/>
@@ -5287,9 +5287,9 @@
       <c r="K51" s="36"/>
       <c r="L51" s="36"/>
       <c r="M51" s="36"/>
-      <c r="N51" s="207"/>
+      <c r="N51" s="206"/>
       <c r="O51" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P51" s="36"/>
       <c r="Q51" s="36"/>
@@ -5306,9 +5306,9 @@
     </row>
     <row r="52" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
       <c r="B52" s="160" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="208"/>
+        <v>107</v>
+      </c>
+      <c r="C52" s="207"/>
       <c r="D52" s="155"/>
       <c r="E52" s="162"/>
       <c r="F52" s="35"/>
@@ -5321,9 +5321,9 @@
       <c r="K52" s="36"/>
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
-      <c r="N52" s="207"/>
+      <c r="N52" s="206"/>
       <c r="O52" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P52" s="36"/>
       <c r="Q52" s="36"/>
@@ -5339,9 +5339,9 @@
       <c r="AB52" s="35"/>
     </row>
     <row r="53" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B53" s="230"/>
-      <c r="C53" s="192"/>
-      <c r="D53" s="192"/>
+      <c r="B53" s="229"/>
+      <c r="C53" s="191"/>
+      <c r="D53" s="191"/>
       <c r="E53" s="157"/>
       <c r="F53" s="35"/>
       <c r="G53" s="119">
@@ -5353,9 +5353,9 @@
       <c r="K53" s="36"/>
       <c r="L53" s="36"/>
       <c r="M53" s="36"/>
-      <c r="N53" s="228"/>
+      <c r="N53" s="227"/>
       <c r="O53" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P53" s="36"/>
       <c r="Q53" s="36"/>
@@ -5371,12 +5371,12 @@
       <c r="AB53" s="35"/>
     </row>
     <row r="54" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B54" s="283" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="284"/>
-      <c r="D54" s="427"/>
-      <c r="E54" s="428"/>
+      <c r="B54" s="282" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="283"/>
+      <c r="D54" s="382"/>
+      <c r="E54" s="383"/>
       <c r="F54" s="35"/>
       <c r="G54" s="119">
         <v>39</v>
@@ -5387,9 +5387,9 @@
       <c r="K54" s="36"/>
       <c r="L54" s="36"/>
       <c r="M54" s="36"/>
-      <c r="N54" s="228"/>
+      <c r="N54" s="227"/>
       <c r="O54" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P54" s="36"/>
       <c r="Q54" s="36"/>
@@ -5405,12 +5405,12 @@
       <c r="AB54" s="35"/>
     </row>
     <row r="55" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B55" s="281" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="282"/>
-      <c r="D55" s="294"/>
-      <c r="E55" s="295"/>
+      <c r="B55" s="280" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="281"/>
+      <c r="D55" s="305"/>
+      <c r="E55" s="306"/>
       <c r="F55" s="35"/>
       <c r="G55" s="119">
         <v>40</v>
@@ -5421,9 +5421,9 @@
       <c r="K55" s="36"/>
       <c r="L55" s="36"/>
       <c r="M55" s="36"/>
-      <c r="N55" s="228"/>
+      <c r="N55" s="227"/>
       <c r="O55" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P55" s="36"/>
       <c r="Q55" s="36"/>
@@ -5439,12 +5439,12 @@
       <c r="AB55" s="35"/>
     </row>
     <row r="56" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B56" s="285" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="286"/>
-      <c r="D56" s="300"/>
-      <c r="E56" s="307"/>
+      <c r="B56" s="284" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="285"/>
+      <c r="D56" s="290"/>
+      <c r="E56" s="297"/>
       <c r="F56" s="35"/>
       <c r="G56" s="119">
         <v>41</v>
@@ -5455,9 +5455,9 @@
       <c r="K56" s="36"/>
       <c r="L56" s="36"/>
       <c r="M56" s="36"/>
-      <c r="N56" s="228"/>
+      <c r="N56" s="227"/>
       <c r="O56" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P56" s="36"/>
       <c r="Q56" s="36"/>
@@ -5473,9 +5473,9 @@
       <c r="AB56" s="35"/>
     </row>
     <row r="57" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B57" s="230"/>
-      <c r="C57" s="192"/>
-      <c r="D57" s="192"/>
+      <c r="B57" s="229"/>
+      <c r="C57" s="191"/>
+      <c r="D57" s="191"/>
       <c r="E57" s="157"/>
       <c r="F57" s="35"/>
       <c r="G57" s="119">
@@ -5487,9 +5487,9 @@
       <c r="K57" s="36"/>
       <c r="L57" s="36"/>
       <c r="M57" s="36"/>
-      <c r="N57" s="228"/>
+      <c r="N57" s="227"/>
       <c r="O57" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P57" s="36"/>
       <c r="Q57" s="36"/>
@@ -5505,12 +5505,12 @@
       <c r="AB57" s="35"/>
     </row>
     <row r="58" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B58" s="304" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" s="305"/>
-      <c r="D58" s="305"/>
-      <c r="E58" s="306"/>
+      <c r="B58" s="294" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="295"/>
+      <c r="D58" s="295"/>
+      <c r="E58" s="296"/>
       <c r="F58" s="35"/>
       <c r="G58" s="119">
         <v>43</v>
@@ -5521,9 +5521,9 @@
       <c r="K58" s="36"/>
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
-      <c r="N58" s="228"/>
+      <c r="N58" s="227"/>
       <c r="O58" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P58" s="36"/>
       <c r="Q58" s="36"/>
@@ -5540,14 +5540,14 @@
     </row>
     <row r="59" spans="2:28" ht="35.1" customHeight="1">
       <c r="B59" s="164" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="302" t="s">
-        <v>133</v>
-      </c>
-      <c r="D59" s="303"/>
+        <v>7</v>
+      </c>
+      <c r="C59" s="292" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="293"/>
       <c r="E59" s="165" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F59" s="35"/>
       <c r="G59" s="119">
@@ -5559,9 +5559,9 @@
       <c r="K59" s="36"/>
       <c r="L59" s="36"/>
       <c r="M59" s="36"/>
-      <c r="N59" s="228"/>
+      <c r="N59" s="227"/>
       <c r="O59" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P59" s="36"/>
       <c r="Q59" s="36"/>
@@ -5580,8 +5580,8 @@
       <c r="B60" s="166">
         <v>1</v>
       </c>
-      <c r="C60" s="298"/>
-      <c r="D60" s="299"/>
+      <c r="C60" s="288"/>
+      <c r="D60" s="289"/>
       <c r="E60" s="167"/>
       <c r="F60" s="35"/>
       <c r="G60" s="119">
@@ -5593,9 +5593,9 @@
       <c r="K60" s="36"/>
       <c r="L60" s="36"/>
       <c r="M60" s="36"/>
-      <c r="N60" s="228"/>
+      <c r="N60" s="227"/>
       <c r="O60" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P60" s="36"/>
       <c r="Q60" s="36"/>
@@ -5614,8 +5614,8 @@
       <c r="B61" s="166">
         <v>2</v>
       </c>
-      <c r="C61" s="298"/>
-      <c r="D61" s="299"/>
+      <c r="C61" s="288"/>
+      <c r="D61" s="289"/>
       <c r="E61" s="167"/>
       <c r="F61" s="35"/>
       <c r="G61" s="119">
@@ -5627,9 +5627,9 @@
       <c r="K61" s="36"/>
       <c r="L61" s="36"/>
       <c r="M61" s="36"/>
-      <c r="N61" s="228"/>
+      <c r="N61" s="227"/>
       <c r="O61" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P61" s="36"/>
       <c r="Q61" s="36"/>
@@ -5648,8 +5648,8 @@
       <c r="B62" s="166">
         <v>3</v>
       </c>
-      <c r="C62" s="298"/>
-      <c r="D62" s="299"/>
+      <c r="C62" s="288"/>
+      <c r="D62" s="289"/>
       <c r="E62" s="167"/>
       <c r="F62" s="35"/>
       <c r="G62" s="119">
@@ -5661,9 +5661,9 @@
       <c r="K62" s="36"/>
       <c r="L62" s="36"/>
       <c r="M62" s="36"/>
-      <c r="N62" s="228"/>
+      <c r="N62" s="227"/>
       <c r="O62" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P62" s="36"/>
       <c r="Q62" s="36"/>
@@ -5682,8 +5682,8 @@
       <c r="B63" s="166">
         <v>4</v>
       </c>
-      <c r="C63" s="298"/>
-      <c r="D63" s="299"/>
+      <c r="C63" s="288"/>
+      <c r="D63" s="289"/>
       <c r="E63" s="167"/>
       <c r="F63" s="35"/>
       <c r="G63" s="119">
@@ -5695,9 +5695,9 @@
       <c r="K63" s="36"/>
       <c r="L63" s="36"/>
       <c r="M63" s="36"/>
-      <c r="N63" s="207"/>
+      <c r="N63" s="206"/>
       <c r="O63" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P63" s="36"/>
       <c r="Q63" s="36"/>
@@ -5715,10 +5715,10 @@
       <c r="B64" s="166">
         <v>5</v>
       </c>
-      <c r="C64" s="298"/>
-      <c r="D64" s="299"/>
+      <c r="C64" s="288"/>
+      <c r="D64" s="289"/>
       <c r="E64" s="167"/>
-      <c r="F64" s="214"/>
+      <c r="F64" s="213"/>
       <c r="G64" s="119">
         <v>49</v>
       </c>
@@ -5728,9 +5728,9 @@
       <c r="K64" s="36"/>
       <c r="L64" s="36"/>
       <c r="M64" s="36"/>
-      <c r="N64" s="207"/>
+      <c r="N64" s="206"/>
       <c r="O64" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P64" s="36"/>
       <c r="Q64" s="36"/>
@@ -5748,10 +5748,10 @@
       <c r="B65" s="166">
         <v>6</v>
       </c>
-      <c r="C65" s="298"/>
-      <c r="D65" s="299"/>
+      <c r="C65" s="288"/>
+      <c r="D65" s="289"/>
       <c r="E65" s="167"/>
-      <c r="F65" s="214"/>
+      <c r="F65" s="213"/>
       <c r="G65" s="119">
         <v>50</v>
       </c>
@@ -5761,9 +5761,9 @@
       <c r="K65" s="29"/>
       <c r="L65" s="29"/>
       <c r="M65" s="29"/>
-      <c r="N65" s="206"/>
-      <c r="O65" s="202" t="s">
-        <v>121</v>
+      <c r="N65" s="205"/>
+      <c r="O65" s="201" t="s">
+        <v>120</v>
       </c>
       <c r="P65" s="47"/>
       <c r="Q65" s="47"/>
@@ -5778,15 +5778,15 @@
       <c r="AA65" s="35"/>
     </row>
     <row r="66" spans="2:29" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B66" s="229">
+      <c r="B66" s="228">
         <v>7</v>
       </c>
-      <c r="C66" s="300"/>
-      <c r="D66" s="301"/>
-      <c r="E66" s="231"/>
-      <c r="F66" s="214"/>
-      <c r="G66" s="213" t="s">
-        <v>84</v>
+      <c r="C66" s="290"/>
+      <c r="D66" s="291"/>
+      <c r="E66" s="230"/>
+      <c r="F66" s="213"/>
+      <c r="G66" s="212" t="s">
+        <v>83</v>
       </c>
       <c r="H66" s="50"/>
       <c r="I66" s="50"/>
@@ -5794,8 +5794,8 @@
       <c r="K66" s="50"/>
       <c r="L66" s="50"/>
       <c r="M66" s="50"/>
-      <c r="N66" s="201"/>
-      <c r="O66" s="203"/>
+      <c r="N66" s="200"/>
+      <c r="O66" s="202"/>
       <c r="P66" s="50" t="str">
         <f t="shared" ref="P66:U66" si="0">IF(SUM(P16:P65)=0,"",SUM(P16:P65))</f>
         <v/>
@@ -5846,7 +5846,7 @@
       <c r="R67" s="35"/>
       <c r="S67" s="35"/>
       <c r="T67" s="35"/>
-      <c r="U67" s="196"/>
+      <c r="U67" s="195"/>
       <c r="W67" s="35"/>
       <c r="X67" s="35"/>
       <c r="Y67" s="35"/>
@@ -5855,38 +5855,38 @@
     </row>
     <row r="68" spans="2:29" ht="24.95" customHeight="1" thickBot="1">
       <c r="B68" s="127" t="s">
-        <v>130</v>
-      </c>
-      <c r="C68" s="296"/>
-      <c r="D68" s="296"/>
-      <c r="E68" s="297"/>
-      <c r="F68" s="280"/>
-      <c r="G68" s="271" t="s">
-        <v>164</v>
-      </c>
-      <c r="H68" s="272"/>
-      <c r="I68" s="272"/>
-      <c r="J68" s="272"/>
-      <c r="K68" s="272" t="s">
-        <v>153</v>
-      </c>
-      <c r="L68" s="272"/>
-      <c r="M68" s="274"/>
-      <c r="N68" s="247" t="s">
-        <v>8</v>
-      </c>
-      <c r="O68" s="248" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="286"/>
+      <c r="D68" s="286"/>
+      <c r="E68" s="287"/>
+      <c r="F68" s="279"/>
+      <c r="G68" s="270" t="s">
+        <v>163</v>
+      </c>
+      <c r="H68" s="271"/>
+      <c r="I68" s="271"/>
+      <c r="J68" s="271"/>
+      <c r="K68" s="271" t="s">
+        <v>152</v>
+      </c>
+      <c r="L68" s="271"/>
+      <c r="M68" s="273"/>
+      <c r="N68" s="246" t="s">
+        <v>7</v>
+      </c>
+      <c r="O68" s="247" t="s">
+        <v>147</v>
+      </c>
+      <c r="P68" s="247" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q68" s="248"/>
+      <c r="S68" s="259" t="s">
         <v>148</v>
       </c>
-      <c r="P68" s="248" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q68" s="249"/>
-      <c r="S68" s="260" t="s">
-        <v>149</v>
-      </c>
-      <c r="T68" s="261"/>
-      <c r="U68" s="262"/>
+      <c r="T68" s="260"/>
+      <c r="U68" s="261"/>
       <c r="W68" s="35"/>
       <c r="X68" s="35"/>
       <c r="Y68" s="35"/>
@@ -5898,28 +5898,28 @@
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="30"/>
-      <c r="F69" s="280"/>
-      <c r="G69" s="273" t="s">
-        <v>165</v>
-      </c>
-      <c r="H69" s="269"/>
-      <c r="I69" s="269"/>
-      <c r="J69" s="269"/>
-      <c r="K69" s="269" t="s">
-        <v>154</v>
-      </c>
-      <c r="L69" s="269"/>
-      <c r="M69" s="270"/>
-      <c r="N69" s="251">
+      <c r="F69" s="279"/>
+      <c r="G69" s="272" t="s">
+        <v>164</v>
+      </c>
+      <c r="H69" s="268"/>
+      <c r="I69" s="268"/>
+      <c r="J69" s="268"/>
+      <c r="K69" s="268" t="s">
+        <v>153</v>
+      </c>
+      <c r="L69" s="268"/>
+      <c r="M69" s="269"/>
+      <c r="N69" s="250">
         <v>1</v>
       </c>
-      <c r="O69" s="252"/>
-      <c r="P69" s="253"/>
-      <c r="Q69" s="254"/>
-      <c r="R69" s="246"/>
-      <c r="S69" s="263"/>
-      <c r="T69" s="264"/>
-      <c r="U69" s="265"/>
+      <c r="O69" s="251"/>
+      <c r="P69" s="252"/>
+      <c r="Q69" s="253"/>
+      <c r="R69" s="245"/>
+      <c r="S69" s="262"/>
+      <c r="T69" s="263"/>
+      <c r="U69" s="264"/>
       <c r="W69" s="35"/>
       <c r="X69" s="35"/>
       <c r="Y69" s="35"/>
@@ -5932,27 +5932,27 @@
       <c r="D70" s="35"/>
       <c r="E70" s="30"/>
       <c r="F70" s="35"/>
-      <c r="G70" s="273" t="s">
-        <v>166</v>
-      </c>
-      <c r="H70" s="269"/>
-      <c r="I70" s="269"/>
-      <c r="J70" s="269"/>
-      <c r="K70" s="269" t="s">
-        <v>155</v>
-      </c>
-      <c r="L70" s="269"/>
-      <c r="M70" s="270"/>
+      <c r="G70" s="272" t="s">
+        <v>165</v>
+      </c>
+      <c r="H70" s="268"/>
+      <c r="I70" s="268"/>
+      <c r="J70" s="268"/>
+      <c r="K70" s="268" t="s">
+        <v>154</v>
+      </c>
+      <c r="L70" s="268"/>
+      <c r="M70" s="269"/>
       <c r="N70" s="52">
         <v>2</v>
       </c>
-      <c r="O70" s="198"/>
-      <c r="P70" s="237"/>
-      <c r="Q70" s="238"/>
-      <c r="R70" s="246"/>
-      <c r="S70" s="263"/>
-      <c r="T70" s="264"/>
-      <c r="U70" s="265"/>
+      <c r="O70" s="197"/>
+      <c r="P70" s="236"/>
+      <c r="Q70" s="237"/>
+      <c r="R70" s="245"/>
+      <c r="S70" s="262"/>
+      <c r="T70" s="263"/>
+      <c r="U70" s="264"/>
       <c r="W70" s="35"/>
       <c r="X70" s="35"/>
       <c r="Y70" s="35"/>
@@ -5965,27 +5965,27 @@
       <c r="D71" s="35"/>
       <c r="E71" s="30"/>
       <c r="F71" s="35"/>
-      <c r="G71" s="273" t="s">
-        <v>167</v>
-      </c>
-      <c r="H71" s="269"/>
-      <c r="I71" s="269"/>
-      <c r="J71" s="269"/>
-      <c r="K71" s="269" t="s">
-        <v>156</v>
-      </c>
-      <c r="L71" s="269"/>
-      <c r="M71" s="270"/>
+      <c r="G71" s="272" t="s">
+        <v>166</v>
+      </c>
+      <c r="H71" s="268"/>
+      <c r="I71" s="268"/>
+      <c r="J71" s="268"/>
+      <c r="K71" s="268" t="s">
+        <v>155</v>
+      </c>
+      <c r="L71" s="268"/>
+      <c r="M71" s="269"/>
       <c r="N71" s="52">
         <v>3</v>
       </c>
-      <c r="O71" s="198"/>
-      <c r="P71" s="237"/>
-      <c r="Q71" s="238"/>
-      <c r="R71" s="246"/>
-      <c r="S71" s="263"/>
-      <c r="T71" s="264"/>
-      <c r="U71" s="265"/>
+      <c r="O71" s="197"/>
+      <c r="P71" s="236"/>
+      <c r="Q71" s="237"/>
+      <c r="R71" s="245"/>
+      <c r="S71" s="262"/>
+      <c r="T71" s="263"/>
+      <c r="U71" s="264"/>
       <c r="W71" s="35"/>
       <c r="X71" s="35"/>
       <c r="Y71" s="35"/>
@@ -5998,27 +5998,27 @@
       <c r="D72" s="35"/>
       <c r="E72" s="30"/>
       <c r="F72" s="35"/>
-      <c r="G72" s="273" t="s">
-        <v>168</v>
-      </c>
-      <c r="H72" s="269"/>
-      <c r="I72" s="269"/>
-      <c r="J72" s="269"/>
-      <c r="K72" s="269" t="s">
-        <v>157</v>
-      </c>
-      <c r="L72" s="269"/>
-      <c r="M72" s="270"/>
+      <c r="G72" s="272" t="s">
+        <v>167</v>
+      </c>
+      <c r="H72" s="268"/>
+      <c r="I72" s="268"/>
+      <c r="J72" s="268"/>
+      <c r="K72" s="268" t="s">
+        <v>156</v>
+      </c>
+      <c r="L72" s="268"/>
+      <c r="M72" s="269"/>
       <c r="N72" s="52">
         <v>4</v>
       </c>
-      <c r="O72" s="198"/>
-      <c r="P72" s="237"/>
-      <c r="Q72" s="238"/>
-      <c r="R72" s="246"/>
-      <c r="S72" s="263"/>
-      <c r="T72" s="264"/>
-      <c r="U72" s="265"/>
+      <c r="O72" s="197"/>
+      <c r="P72" s="236"/>
+      <c r="Q72" s="237"/>
+      <c r="R72" s="245"/>
+      <c r="S72" s="262"/>
+      <c r="T72" s="263"/>
+      <c r="U72" s="264"/>
       <c r="W72" s="35"/>
       <c r="X72" s="35"/>
       <c r="Y72" s="35"/>
@@ -6031,27 +6031,27 @@
       <c r="D73" s="35"/>
       <c r="E73" s="30"/>
       <c r="F73" s="35"/>
-      <c r="G73" s="273" t="s">
-        <v>169</v>
-      </c>
-      <c r="H73" s="269"/>
-      <c r="I73" s="269"/>
-      <c r="J73" s="269"/>
-      <c r="K73" s="269" t="s">
-        <v>158</v>
-      </c>
-      <c r="L73" s="269"/>
-      <c r="M73" s="270"/>
+      <c r="G73" s="272" t="s">
+        <v>168</v>
+      </c>
+      <c r="H73" s="268"/>
+      <c r="I73" s="268"/>
+      <c r="J73" s="268"/>
+      <c r="K73" s="268" t="s">
+        <v>157</v>
+      </c>
+      <c r="L73" s="268"/>
+      <c r="M73" s="269"/>
       <c r="N73" s="52">
         <v>5</v>
       </c>
-      <c r="O73" s="198"/>
-      <c r="P73" s="237"/>
-      <c r="Q73" s="238"/>
-      <c r="R73" s="246"/>
-      <c r="S73" s="263"/>
-      <c r="T73" s="264"/>
-      <c r="U73" s="265"/>
+      <c r="O73" s="197"/>
+      <c r="P73" s="236"/>
+      <c r="Q73" s="237"/>
+      <c r="R73" s="245"/>
+      <c r="S73" s="262"/>
+      <c r="T73" s="263"/>
+      <c r="U73" s="264"/>
       <c r="W73" s="35"/>
       <c r="X73" s="35"/>
       <c r="Y73" s="35"/>
@@ -6064,27 +6064,27 @@
       <c r="D74" s="35"/>
       <c r="E74" s="30"/>
       <c r="F74" s="35"/>
-      <c r="G74" s="273" t="s">
-        <v>170</v>
-      </c>
-      <c r="H74" s="269"/>
-      <c r="I74" s="269"/>
-      <c r="J74" s="269"/>
-      <c r="K74" s="269" t="s">
-        <v>159</v>
-      </c>
-      <c r="L74" s="269"/>
-      <c r="M74" s="270"/>
+      <c r="G74" s="272" t="s">
+        <v>169</v>
+      </c>
+      <c r="H74" s="268"/>
+      <c r="I74" s="268"/>
+      <c r="J74" s="268"/>
+      <c r="K74" s="268" t="s">
+        <v>158</v>
+      </c>
+      <c r="L74" s="268"/>
+      <c r="M74" s="269"/>
       <c r="N74" s="52">
         <v>6</v>
       </c>
-      <c r="O74" s="198"/>
-      <c r="P74" s="237"/>
-      <c r="Q74" s="238"/>
-      <c r="R74" s="246"/>
-      <c r="S74" s="263"/>
-      <c r="T74" s="264"/>
-      <c r="U74" s="265"/>
+      <c r="O74" s="197"/>
+      <c r="P74" s="236"/>
+      <c r="Q74" s="237"/>
+      <c r="R74" s="245"/>
+      <c r="S74" s="262"/>
+      <c r="T74" s="263"/>
+      <c r="U74" s="264"/>
       <c r="W74" s="35"/>
       <c r="X74" s="35"/>
       <c r="Y74" s="35"/>
@@ -6097,27 +6097,27 @@
       <c r="D75" s="35"/>
       <c r="E75" s="30"/>
       <c r="F75" s="35"/>
-      <c r="G75" s="273" t="s">
-        <v>171</v>
-      </c>
-      <c r="H75" s="269"/>
-      <c r="I75" s="269"/>
-      <c r="J75" s="269"/>
-      <c r="K75" s="269" t="s">
-        <v>160</v>
-      </c>
-      <c r="L75" s="269"/>
-      <c r="M75" s="270"/>
+      <c r="G75" s="272" t="s">
+        <v>170</v>
+      </c>
+      <c r="H75" s="268"/>
+      <c r="I75" s="268"/>
+      <c r="J75" s="268"/>
+      <c r="K75" s="268" t="s">
+        <v>159</v>
+      </c>
+      <c r="L75" s="268"/>
+      <c r="M75" s="269"/>
       <c r="N75" s="52">
         <v>7</v>
       </c>
-      <c r="O75" s="198"/>
-      <c r="P75" s="237"/>
-      <c r="Q75" s="238"/>
-      <c r="R75" s="246"/>
-      <c r="S75" s="263"/>
-      <c r="T75" s="264"/>
-      <c r="U75" s="265"/>
+      <c r="O75" s="197"/>
+      <c r="P75" s="236"/>
+      <c r="Q75" s="237"/>
+      <c r="R75" s="245"/>
+      <c r="S75" s="262"/>
+      <c r="T75" s="263"/>
+      <c r="U75" s="264"/>
       <c r="X75" s="35"/>
     </row>
     <row r="76" spans="2:29" ht="28.5" customHeight="1">
@@ -6126,111 +6126,111 @@
       <c r="D76" s="35"/>
       <c r="E76" s="30"/>
       <c r="F76" s="35"/>
-      <c r="G76" s="273" t="s">
-        <v>172</v>
-      </c>
-      <c r="H76" s="269"/>
-      <c r="I76" s="269"/>
-      <c r="J76" s="269"/>
-      <c r="K76" s="269" t="s">
-        <v>161</v>
-      </c>
-      <c r="L76" s="269"/>
-      <c r="M76" s="270"/>
+      <c r="G76" s="272" t="s">
+        <v>171</v>
+      </c>
+      <c r="H76" s="268"/>
+      <c r="I76" s="268"/>
+      <c r="J76" s="268"/>
+      <c r="K76" s="268" t="s">
+        <v>160</v>
+      </c>
+      <c r="L76" s="268"/>
+      <c r="M76" s="269"/>
       <c r="N76" s="52">
         <v>8</v>
       </c>
-      <c r="O76" s="198"/>
-      <c r="P76" s="237"/>
-      <c r="Q76" s="238"/>
-      <c r="R76" s="246"/>
-      <c r="S76" s="263"/>
-      <c r="T76" s="264"/>
-      <c r="U76" s="265"/>
+      <c r="O76" s="197"/>
+      <c r="P76" s="236"/>
+      <c r="Q76" s="237"/>
+      <c r="R76" s="245"/>
+      <c r="S76" s="262"/>
+      <c r="T76" s="263"/>
+      <c r="U76" s="264"/>
       <c r="X76" s="35"/>
     </row>
     <row r="77" spans="2:29" ht="21.95" customHeight="1">
-      <c r="B77" s="240"/>
-      <c r="C77" s="197"/>
-      <c r="D77" s="197"/>
-      <c r="E77" s="241"/>
-      <c r="F77" s="197"/>
-      <c r="G77" s="273" t="s">
-        <v>173</v>
-      </c>
-      <c r="H77" s="269"/>
-      <c r="I77" s="269"/>
-      <c r="J77" s="269"/>
-      <c r="K77" s="269" t="s">
-        <v>162</v>
-      </c>
-      <c r="L77" s="269"/>
-      <c r="M77" s="270"/>
+      <c r="B77" s="239"/>
+      <c r="C77" s="196"/>
+      <c r="D77" s="196"/>
+      <c r="E77" s="240"/>
+      <c r="F77" s="196"/>
+      <c r="G77" s="272" t="s">
+        <v>172</v>
+      </c>
+      <c r="H77" s="268"/>
+      <c r="I77" s="268"/>
+      <c r="J77" s="268"/>
+      <c r="K77" s="268" t="s">
+        <v>161</v>
+      </c>
+      <c r="L77" s="268"/>
+      <c r="M77" s="269"/>
       <c r="N77" s="52">
         <v>9</v>
       </c>
-      <c r="O77" s="250"/>
-      <c r="P77" s="250"/>
-      <c r="Q77" s="255"/>
-      <c r="R77" s="197"/>
-      <c r="S77" s="263"/>
-      <c r="T77" s="264"/>
-      <c r="U77" s="265"/>
+      <c r="O77" s="249"/>
+      <c r="P77" s="249"/>
+      <c r="Q77" s="254"/>
+      <c r="R77" s="196"/>
+      <c r="S77" s="262"/>
+      <c r="T77" s="263"/>
+      <c r="U77" s="264"/>
       <c r="X77" s="35"/>
     </row>
     <row r="78" spans="2:29" ht="30" customHeight="1">
-      <c r="B78" s="240"/>
-      <c r="C78" s="197"/>
-      <c r="D78" s="197"/>
-      <c r="E78" s="241"/>
-      <c r="F78" s="197"/>
-      <c r="G78" s="273" t="s">
-        <v>174</v>
-      </c>
-      <c r="H78" s="269"/>
-      <c r="I78" s="269"/>
-      <c r="J78" s="269"/>
-      <c r="K78" s="269" t="s">
-        <v>163</v>
-      </c>
-      <c r="L78" s="269"/>
-      <c r="M78" s="270"/>
+      <c r="B78" s="239"/>
+      <c r="C78" s="196"/>
+      <c r="D78" s="196"/>
+      <c r="E78" s="240"/>
+      <c r="F78" s="196"/>
+      <c r="G78" s="272" t="s">
+        <v>173</v>
+      </c>
+      <c r="H78" s="268"/>
+      <c r="I78" s="268"/>
+      <c r="J78" s="268"/>
+      <c r="K78" s="268" t="s">
+        <v>162</v>
+      </c>
+      <c r="L78" s="268"/>
+      <c r="M78" s="269"/>
       <c r="N78" s="52">
         <v>10</v>
       </c>
-      <c r="O78" s="250"/>
-      <c r="P78" s="250"/>
-      <c r="Q78" s="255"/>
-      <c r="R78" s="197"/>
-      <c r="S78" s="263"/>
-      <c r="T78" s="264"/>
-      <c r="U78" s="265"/>
+      <c r="O78" s="249"/>
+      <c r="P78" s="249"/>
+      <c r="Q78" s="254"/>
+      <c r="R78" s="196"/>
+      <c r="S78" s="262"/>
+      <c r="T78" s="263"/>
+      <c r="U78" s="264"/>
       <c r="X78" s="35"/>
     </row>
     <row r="79" spans="2:29" ht="30" customHeight="1" thickBot="1">
-      <c r="B79" s="242"/>
-      <c r="C79" s="243"/>
-      <c r="D79" s="243"/>
-      <c r="E79" s="244"/>
+      <c r="B79" s="241"/>
+      <c r="C79" s="242"/>
+      <c r="D79" s="242"/>
+      <c r="E79" s="243"/>
       <c r="F79" s="35"/>
-      <c r="G79" s="256" t="s">
-        <v>175</v>
-      </c>
-      <c r="H79" s="257"/>
-      <c r="I79" s="257"/>
-      <c r="J79" s="257"/>
-      <c r="K79" s="258"/>
-      <c r="L79" s="259"/>
-      <c r="M79" s="259"/>
+      <c r="G79" s="255" t="s">
+        <v>174</v>
+      </c>
+      <c r="H79" s="256"/>
+      <c r="I79" s="256"/>
+      <c r="J79" s="256"/>
+      <c r="K79" s="257"/>
+      <c r="L79" s="258"/>
+      <c r="M79" s="258"/>
       <c r="N79" s="53">
         <v>11</v>
       </c>
       <c r="O79" s="29"/>
       <c r="P79" s="29"/>
-      <c r="Q79" s="245"/>
-      <c r="S79" s="266"/>
-      <c r="T79" s="267"/>
-      <c r="U79" s="268"/>
+      <c r="Q79" s="244"/>
+      <c r="S79" s="265"/>
+      <c r="T79" s="266"/>
+      <c r="U79" s="267"/>
       <c r="X79" s="35"/>
     </row>
     <row r="80" spans="2:29" ht="30" customHeight="1">
@@ -6248,8 +6248,8 @@
       <c r="M80" s="35"/>
       <c r="N80" s="35"/>
       <c r="X80" s="35"/>
-      <c r="AB80" s="239"/>
-      <c r="AC80" s="239"/>
+      <c r="AB80" s="238"/>
+      <c r="AC80" s="238"/>
     </row>
     <row r="81" spans="2:35" ht="30" customHeight="1">
       <c r="B81"/>
@@ -6257,28 +6257,28 @@
       <c r="D81" s="54"/>
       <c r="E81" s="54"/>
       <c r="N81" s="55"/>
-      <c r="AB81" s="239"/>
-      <c r="AC81" s="239"/>
+      <c r="AB81" s="238"/>
+      <c r="AC81" s="238"/>
     </row>
     <row r="82" spans="2:35" ht="30" customHeight="1">
       <c r="N82" s="55"/>
-      <c r="AB82" s="239"/>
-      <c r="AC82" s="239"/>
+      <c r="AB82" s="238"/>
+      <c r="AC82" s="238"/>
     </row>
     <row r="83" spans="2:35" ht="30" customHeight="1">
       <c r="N83" s="55"/>
-      <c r="AB83" s="239"/>
-      <c r="AC83" s="239"/>
+      <c r="AB83" s="238"/>
+      <c r="AC83" s="238"/>
     </row>
     <row r="84" spans="2:35" ht="20.25" customHeight="1">
       <c r="N84" s="55"/>
-      <c r="AB84" s="239"/>
-      <c r="AC84" s="239"/>
+      <c r="AB84" s="238"/>
+      <c r="AC84" s="238"/>
     </row>
     <row r="85" spans="2:35">
       <c r="N85" s="55"/>
-      <c r="AB85" s="239"/>
-      <c r="AC85" s="239"/>
+      <c r="AB85" s="238"/>
+      <c r="AC85" s="238"/>
     </row>
     <row r="86" spans="2:35" ht="45.75" customHeight="1">
       <c r="C86" s="46"/>
@@ -8263,14 +8263,6 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D54:E54"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
@@ -8287,7 +8279,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="Q5:U6"/>
     <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="O7:P10"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:E6"/>
     <mergeCell ref="G4:J4"/>
@@ -8296,6 +8287,13 @@
     <mergeCell ref="M9:M11"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:E12"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="Z21:AA22"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
@@ -8314,6 +8312,7 @@
     <mergeCell ref="S12:U13"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
+    <mergeCell ref="O7:P10"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D20:E20"/>
@@ -8323,6 +8322,7 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="K69:M69"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B49:B50"/>
@@ -8404,143 +8404,143 @@
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="220" customWidth="1"/>
-    <col min="7" max="7" width="10" style="223" customWidth="1"/>
-    <col min="8" max="8" width="9" style="218" customWidth="1"/>
+    <col min="6" max="6" width="10" style="219" customWidth="1"/>
+    <col min="7" max="7" width="10" style="222" customWidth="1"/>
+    <col min="8" max="8" width="9" style="217" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="F1" s="219"/>
-      <c r="G1" s="222">
+      <c r="F1" s="218"/>
+      <c r="G1" s="221">
         <v>12.34</v>
       </c>
-      <c r="H1" s="221">
+      <c r="H1" s="220">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="2:11">
-      <c r="F2" s="219"/>
-      <c r="G2" s="222">
+      <c r="F2" s="218"/>
+      <c r="G2" s="221">
         <v>7.28</v>
       </c>
-      <c r="H2" s="221">
+      <c r="H2" s="220">
         <v>90</v>
       </c>
-      <c r="J2" s="224"/>
+      <c r="J2" s="223"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="F3" s="219"/>
-      <c r="G3" s="222"/>
-      <c r="H3" s="221">
+      <c r="F3" s="218"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="220">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="18" customHeight="1" thickBot="1">
-      <c r="F4" s="219"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="221">
+      <c r="F4" s="218"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="220">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1">
       <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="221">
+      <c r="F5" s="218"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="220">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="20.25" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="221">
+      <c r="F6" s="218"/>
+      <c r="G6" s="221"/>
+      <c r="H6" s="220">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="20.25" customHeight="1">
       <c r="B7" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="221">
+      <c r="F7" s="218"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="220">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="20.25" customHeight="1">
       <c r="B8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="21"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="222"/>
-      <c r="H8" s="221">
+      <c r="F8" s="218"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="220">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="20.25" customHeight="1">
       <c r="B9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="11"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="222"/>
-      <c r="H9" s="221">
+      <c r="F9" s="218"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="220">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="20.25" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="219"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="221">
+        <v>38</v>
+      </c>
+      <c r="F10" s="218"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="220">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="20.25" customHeight="1">
       <c r="B11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="219"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="221">
+        <v>38</v>
+      </c>
+      <c r="F11" s="218"/>
+      <c r="G11" s="221"/>
+      <c r="H11" s="220">
         <v>90</v>
       </c>
       <c r="I11" s="12" t="str">
@@ -8554,16 +8554,16 @@
     </row>
     <row r="12" spans="2:11" ht="20.25" customHeight="1">
       <c r="B12" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="219"/>
-      <c r="G12" s="222"/>
-      <c r="H12" s="221">
+        <v>41</v>
+      </c>
+      <c r="F12" s="218"/>
+      <c r="G12" s="221"/>
+      <c r="H12" s="220">
         <v>90</v>
       </c>
       <c r="I12" s="13" t="str">
@@ -8577,18 +8577,18 @@
     </row>
     <row r="13" spans="2:11" ht="20.25" customHeight="1">
       <c r="B13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="219"/>
-      <c r="G13" s="222">
+        <v>43</v>
+      </c>
+      <c r="F13" s="218"/>
+      <c r="G13" s="221">
         <v>4.66</v>
       </c>
-      <c r="H13" s="221">
+      <c r="H13" s="220">
         <v>90</v>
       </c>
       <c r="I13" s="12" t="str">
@@ -8598,16 +8598,16 @@
     </row>
     <row r="14" spans="2:11" ht="20.25" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="219"/>
-      <c r="G14" s="222">
+      <c r="F14" s="218"/>
+      <c r="G14" s="221">
         <v>4.4400000000000004</v>
       </c>
-      <c r="H14" s="221">
+      <c r="H14" s="220">
         <v>70</v>
       </c>
       <c r="I14" s="12">
@@ -8617,413 +8617,413 @@
     </row>
     <row r="15" spans="2:11" ht="20.25" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="219"/>
-      <c r="G15" s="222"/>
-      <c r="H15" s="221">
+      <c r="F15" s="218"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="220">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="25.5" customHeight="1">
       <c r="B16" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="14"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="222"/>
-      <c r="H16" s="221">
+      <c r="F16" s="218"/>
+      <c r="G16" s="221"/>
+      <c r="H16" s="220">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="219"/>
-      <c r="G17" s="222"/>
-      <c r="H17" s="221">
+      <c r="F17" s="218"/>
+      <c r="G17" s="221"/>
+      <c r="H17" s="220">
         <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="21"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="222"/>
-      <c r="H18" s="221">
+      <c r="F18" s="218"/>
+      <c r="G18" s="221"/>
+      <c r="H18" s="220">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="219"/>
-      <c r="G19" s="222"/>
-      <c r="H19" s="221">
+        <v>50</v>
+      </c>
+      <c r="F19" s="218"/>
+      <c r="G19" s="221"/>
+      <c r="H19" s="220">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="219"/>
-      <c r="G20" s="222"/>
-      <c r="H20" s="221">
+        <v>52</v>
+      </c>
+      <c r="F20" s="218"/>
+      <c r="G20" s="221"/>
+      <c r="H20" s="220">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="219"/>
-      <c r="G21" s="222"/>
-      <c r="H21" s="221">
+        <v>54</v>
+      </c>
+      <c r="F21" s="218"/>
+      <c r="G21" s="221"/>
+      <c r="H21" s="220">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="219"/>
-      <c r="G22" s="222"/>
-      <c r="H22" s="221">
+        <v>54</v>
+      </c>
+      <c r="F22" s="218"/>
+      <c r="G22" s="221"/>
+      <c r="H22" s="220">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="219"/>
-      <c r="G23" s="222"/>
-      <c r="H23" s="221">
+        <v>57</v>
+      </c>
+      <c r="F23" s="218"/>
+      <c r="G23" s="221"/>
+      <c r="H23" s="220">
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="22"/>
       <c r="E24" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="219"/>
-      <c r="G24" s="222"/>
-      <c r="H24" s="221">
+        <v>59</v>
+      </c>
+      <c r="F24" s="218"/>
+      <c r="G24" s="221"/>
+      <c r="H24" s="220">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="219"/>
-      <c r="G25" s="222"/>
-      <c r="H25" s="221">
+        <v>61</v>
+      </c>
+      <c r="F25" s="218"/>
+      <c r="G25" s="221"/>
+      <c r="H25" s="220">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="219"/>
-      <c r="G26" s="222"/>
-      <c r="H26" s="221">
+        <v>63</v>
+      </c>
+      <c r="F26" s="218"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="220">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="219"/>
-      <c r="G27" s="222"/>
-      <c r="H27" s="221">
+        <v>61</v>
+      </c>
+      <c r="F27" s="218"/>
+      <c r="G27" s="221"/>
+      <c r="H27" s="220">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="23"/>
       <c r="E28" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="219"/>
-      <c r="G28" s="222"/>
-      <c r="H28" s="221">
+        <v>66</v>
+      </c>
+      <c r="F28" s="218"/>
+      <c r="G28" s="221"/>
+      <c r="H28" s="220">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="232"/>
+      <c r="E29" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="233"/>
-      <c r="E29" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="219"/>
-      <c r="G29" s="222"/>
-      <c r="H29" s="221">
+      <c r="F29" s="218"/>
+      <c r="G29" s="221"/>
+      <c r="H29" s="220">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="219"/>
-      <c r="G30" s="222"/>
-      <c r="H30" s="221">
+      <c r="F30" s="218"/>
+      <c r="G30" s="221"/>
+      <c r="H30" s="220">
         <v>70</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="219"/>
-      <c r="G31" s="222">
+        <v>71</v>
+      </c>
+      <c r="F31" s="218"/>
+      <c r="G31" s="221">
         <v>2.95</v>
       </c>
-      <c r="H31" s="221">
+      <c r="H31" s="220">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="222">
+      <c r="F32" s="218"/>
+      <c r="G32" s="221">
         <v>2.64</v>
       </c>
-      <c r="H32" s="221">
+      <c r="H32" s="220">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="219"/>
-      <c r="G33" s="222"/>
-      <c r="H33" s="221">
+      <c r="F33" s="218"/>
+      <c r="G33" s="221"/>
+      <c r="H33" s="220">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="219"/>
-      <c r="G34" s="222"/>
-      <c r="H34" s="221">
+      <c r="F34" s="218"/>
+      <c r="G34" s="221"/>
+      <c r="H34" s="220">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="219"/>
-      <c r="G35" s="222"/>
-      <c r="H35" s="221">
+        <v>38</v>
+      </c>
+      <c r="F35" s="218"/>
+      <c r="G35" s="221"/>
+      <c r="H35" s="220">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="219"/>
-      <c r="G36" s="222"/>
-      <c r="H36" s="221">
+      <c r="F36" s="218"/>
+      <c r="G36" s="221"/>
+      <c r="H36" s="220">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="18" customHeight="1" thickBot="1">
       <c r="B37" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="219"/>
-      <c r="G37" s="222"/>
-      <c r="H37" s="221">
+      <c r="F37" s="218"/>
+      <c r="G37" s="221"/>
+      <c r="H37" s="220">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="F38" s="219"/>
-      <c r="G38" s="222"/>
-      <c r="H38" s="221">
+      <c r="F38" s="218"/>
+      <c r="G38" s="221"/>
+      <c r="H38" s="220">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="F39" s="219"/>
-      <c r="G39" s="222"/>
-      <c r="H39" s="221">
+      <c r="F39" s="218"/>
+      <c r="G39" s="221"/>
+      <c r="H39" s="220">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="F40" s="219"/>
-      <c r="G40" s="222">
+      <c r="F40" s="218"/>
+      <c r="G40" s="221">
         <v>1.5</v>
       </c>
-      <c r="H40" s="221">
+      <c r="H40" s="220">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="F41" s="219"/>
-      <c r="G41" s="222">
+      <c r="F41" s="218"/>
+      <c r="G41" s="221">
         <v>1.4</v>
       </c>
-      <c r="H41" s="221">
+      <c r="H41" s="220">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="F42" s="219"/>
-      <c r="G42" s="222"/>
-      <c r="H42" s="221">
+      <c r="F42" s="218"/>
+      <c r="G42" s="221"/>
+      <c r="H42" s="220">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="F43" s="219"/>
-      <c r="G43" s="222"/>
-      <c r="H43" s="221">
+      <c r="F43" s="218"/>
+      <c r="G43" s="221"/>
+      <c r="H43" s="220">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="F44" s="219"/>
-      <c r="G44" s="222"/>
-      <c r="H44" s="221">
+      <c r="F44" s="218"/>
+      <c r="G44" s="221"/>
+      <c r="H44" s="220">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="F45" s="219"/>
-      <c r="G45" s="222"/>
-      <c r="H45" s="221">
+      <c r="F45" s="218"/>
+      <c r="G45" s="221"/>
+      <c r="H45" s="220">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="F46" s="219"/>
-      <c r="G46" s="222"/>
-      <c r="H46" s="221">
+      <c r="F46" s="218"/>
+      <c r="G46" s="221"/>
+      <c r="H46" s="220">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="F47" s="219"/>
-      <c r="G47" s="222"/>
-      <c r="H47" s="221">
+      <c r="F47" s="218"/>
+      <c r="G47" s="221"/>
+      <c r="H47" s="220">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="F48" s="219"/>
-      <c r="G48" s="222">
+      <c r="F48" s="218"/>
+      <c r="G48" s="221">
         <v>0.44</v>
       </c>
-      <c r="H48" s="221">
+      <c r="H48" s="220">
         <v>40</v>
       </c>
     </row>

--- a/py/direction_sheet.xlsx
+++ b/py/direction_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diereport\ex0.11\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C424A3-1B86-4661-920C-25802FE10FB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F250DF-EAC0-4E71-9F99-90ABAEEA3982}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="672" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="print" sheetId="1" r:id="rId1"/>
@@ -2632,61 +2632,400 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2713,13 +3052,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2757,389 +3090,56 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3560,7 +3560,7 @@
   </sheetPr>
   <dimension ref="B1:AI172"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:U1"/>
     </sheetView>
   </sheetViews>
@@ -3593,28 +3593,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B1" s="384" t="s">
+      <c r="B1" s="255" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="385"/>
-      <c r="D1" s="385"/>
-      <c r="E1" s="385"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
-      <c r="J1" s="386"/>
-      <c r="K1" s="386"/>
-      <c r="L1" s="386"/>
-      <c r="M1" s="386"/>
-      <c r="N1" s="386"/>
-      <c r="O1" s="385"/>
-      <c r="P1" s="385"/>
-      <c r="Q1" s="385"/>
-      <c r="R1" s="385"/>
-      <c r="S1" s="385"/>
-      <c r="T1" s="385"/>
-      <c r="U1" s="387"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="256"/>
+      <c r="P1" s="256"/>
+      <c r="Q1" s="256"/>
+      <c r="R1" s="256"/>
+      <c r="S1" s="256"/>
+      <c r="T1" s="256"/>
+      <c r="U1" s="258"/>
     </row>
     <row r="2" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B2" s="225" t="s">
@@ -3631,26 +3631,26 @@
         <f>input!D8</f>
         <v>0</v>
       </c>
-      <c r="F2" s="388"/>
-      <c r="G2" s="389"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="260"/>
       <c r="H2" s="213"/>
       <c r="I2" s="124"/>
       <c r="J2" s="213"/>
       <c r="K2" s="125"/>
-      <c r="L2" s="389"/>
-      <c r="M2" s="308"/>
+      <c r="L2" s="260"/>
+      <c r="M2" s="261"/>
       <c r="N2" s="126"/>
-      <c r="O2" s="282" t="s">
+      <c r="O2" s="337" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="309"/>
-      <c r="Q2" s="282" t="s">
+      <c r="P2" s="338"/>
+      <c r="Q2" s="337" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="311"/>
-      <c r="S2" s="311"/>
-      <c r="T2" s="311"/>
-      <c r="U2" s="309"/>
+      <c r="R2" s="341"/>
+      <c r="S2" s="341"/>
+      <c r="T2" s="341"/>
+      <c r="U2" s="338"/>
     </row>
     <row r="3" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B3" s="210" t="s">
@@ -3667,24 +3667,24 @@
         <f>input!D9</f>
         <v>0</v>
       </c>
-      <c r="F3" s="388"/>
-      <c r="G3" s="389"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="260"/>
       <c r="H3" s="213"/>
       <c r="I3" s="125"/>
       <c r="J3" s="213"/>
       <c r="K3" s="35"/>
-      <c r="L3" s="389"/>
-      <c r="M3" s="308"/>
+      <c r="L3" s="260"/>
+      <c r="M3" s="261"/>
       <c r="N3" s="126"/>
-      <c r="O3" s="284" t="s">
+      <c r="O3" s="339" t="s">
         <v>126</v>
       </c>
-      <c r="P3" s="310"/>
-      <c r="Q3" s="284"/>
-      <c r="R3" s="312"/>
-      <c r="S3" s="312"/>
-      <c r="T3" s="312"/>
-      <c r="U3" s="310"/>
+      <c r="P3" s="340"/>
+      <c r="Q3" s="339"/>
+      <c r="R3" s="342"/>
+      <c r="S3" s="342"/>
+      <c r="T3" s="342"/>
+      <c r="U3" s="340"/>
     </row>
     <row r="4" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B4" s="25"/>
@@ -3692,17 +3692,17 @@
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="188"/>
-      <c r="G4" s="358" t="s">
+      <c r="G4" s="309" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="359"/>
-      <c r="I4" s="359"/>
-      <c r="J4" s="360"/>
-      <c r="K4" s="358" t="s">
+      <c r="H4" s="310"/>
+      <c r="I4" s="310"/>
+      <c r="J4" s="311"/>
+      <c r="K4" s="309" t="s">
         <v>136</v>
       </c>
-      <c r="L4" s="359"/>
-      <c r="M4" s="360"/>
+      <c r="L4" s="310"/>
+      <c r="M4" s="311"/>
       <c r="N4" s="128"/>
       <c r="O4" s="181" t="s">
         <v>79</v>
@@ -3710,24 +3710,24 @@
       <c r="P4" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="282" t="s">
+      <c r="Q4" s="337" t="s">
         <v>122</v>
       </c>
-      <c r="R4" s="311"/>
-      <c r="S4" s="311"/>
-      <c r="T4" s="311"/>
-      <c r="U4" s="309"/>
+      <c r="R4" s="341"/>
+      <c r="S4" s="341"/>
+      <c r="T4" s="341"/>
+      <c r="U4" s="338"/>
     </row>
     <row r="5" spans="2:31" ht="28.5" customHeight="1">
-      <c r="B5" s="350" t="s">
+      <c r="B5" s="301" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="352">
+      <c r="C5" s="303">
         <f>input!D6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="353"/>
-      <c r="E5" s="354"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="305"/>
       <c r="F5" s="121"/>
       <c r="G5" s="130" t="s">
         <v>2</v>
@@ -3748,23 +3748,23 @@
       <c r="L5" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="M5" s="417" t="s">
+      <c r="M5" s="290" t="s">
         <v>128</v>
       </c>
       <c r="N5" s="121"/>
-      <c r="O5" s="340"/>
-      <c r="P5" s="342"/>
-      <c r="Q5" s="421"/>
-      <c r="R5" s="422"/>
-      <c r="S5" s="422"/>
-      <c r="T5" s="422"/>
-      <c r="U5" s="423"/>
+      <c r="O5" s="370"/>
+      <c r="P5" s="372"/>
+      <c r="Q5" s="294"/>
+      <c r="R5" s="295"/>
+      <c r="S5" s="295"/>
+      <c r="T5" s="295"/>
+      <c r="U5" s="296"/>
     </row>
     <row r="6" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B6" s="351"/>
-      <c r="C6" s="355"/>
-      <c r="D6" s="356"/>
-      <c r="E6" s="357"/>
+      <c r="B6" s="302"/>
+      <c r="C6" s="306"/>
+      <c r="D6" s="307"/>
+      <c r="E6" s="308"/>
       <c r="F6" s="121"/>
       <c r="G6" s="170">
         <v>6061</v>
@@ -3786,26 +3786,26 @@
         <f>ROUND(input!D14,2)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="418"/>
+      <c r="M6" s="291"/>
       <c r="N6" s="122"/>
-      <c r="O6" s="341"/>
-      <c r="P6" s="343"/>
-      <c r="Q6" s="415"/>
-      <c r="R6" s="424"/>
-      <c r="S6" s="424"/>
-      <c r="T6" s="424"/>
-      <c r="U6" s="416"/>
+      <c r="O6" s="371"/>
+      <c r="P6" s="373"/>
+      <c r="Q6" s="288"/>
+      <c r="R6" s="297"/>
+      <c r="S6" s="297"/>
+      <c r="T6" s="297"/>
+      <c r="U6" s="289"/>
     </row>
     <row r="7" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B7" s="374" t="s">
+      <c r="B7" s="262" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="391">
+      <c r="C7" s="264">
         <f>input!D7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="392"/>
-      <c r="E7" s="393"/>
+      <c r="D7" s="265"/>
+      <c r="E7" s="266"/>
       <c r="F7" s="121"/>
       <c r="G7" s="170">
         <v>6063</v>
@@ -3826,30 +3826,30 @@
       <c r="L7" s="179" t="s">
         <v>100</v>
       </c>
-      <c r="M7" s="419">
+      <c r="M7" s="292">
         <f>input!K11</f>
         <v>0</v>
       </c>
       <c r="N7" s="123"/>
-      <c r="O7" s="344" t="s">
+      <c r="O7" s="374" t="s">
         <v>142</v>
       </c>
-      <c r="P7" s="345"/>
-      <c r="Q7" s="409" t="s">
+      <c r="P7" s="375"/>
+      <c r="Q7" s="282" t="s">
         <v>125</v>
       </c>
-      <c r="R7" s="410"/>
-      <c r="S7" s="406" t="s">
+      <c r="R7" s="283"/>
+      <c r="S7" s="279" t="s">
         <v>137</v>
       </c>
-      <c r="T7" s="407"/>
-      <c r="U7" s="408"/>
+      <c r="T7" s="280"/>
+      <c r="U7" s="281"/>
     </row>
     <row r="8" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B8" s="390"/>
-      <c r="C8" s="394"/>
-      <c r="D8" s="395"/>
-      <c r="E8" s="396"/>
+      <c r="B8" s="263"/>
+      <c r="C8" s="267"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="269"/>
       <c r="F8" s="121"/>
       <c r="G8" s="231" t="s">
         <v>175</v>
@@ -3871,19 +3871,19 @@
         <f>input!D15</f>
         <v>0</v>
       </c>
-      <c r="M8" s="420"/>
+      <c r="M8" s="293"/>
       <c r="N8" s="123"/>
-      <c r="O8" s="346"/>
-      <c r="P8" s="347"/>
-      <c r="Q8" s="425" t="s">
+      <c r="O8" s="376"/>
+      <c r="P8" s="377"/>
+      <c r="Q8" s="298" t="s">
         <v>124</v>
       </c>
-      <c r="R8" s="322" t="s">
+      <c r="R8" s="353" t="s">
         <v>143</v>
       </c>
-      <c r="S8" s="325"/>
-      <c r="T8" s="327"/>
-      <c r="U8" s="329"/>
+      <c r="S8" s="356"/>
+      <c r="T8" s="358"/>
+      <c r="U8" s="360"/>
     </row>
     <row r="9" spans="2:31" ht="6" customHeight="1">
       <c r="B9" s="25"/>
@@ -3892,27 +3892,27 @@
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="397" t="s">
+      <c r="H9" s="270" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="398"/>
-      <c r="J9" s="403" t="str">
+      <c r="I9" s="271"/>
+      <c r="J9" s="276" t="str">
         <f>input!D36&amp;"-"&amp;input!D37</f>
         <v>-</v>
       </c>
-      <c r="K9" s="361" t="s">
+      <c r="K9" s="312" t="s">
         <v>150</v>
       </c>
-      <c r="L9" s="362"/>
-      <c r="M9" s="367"/>
+      <c r="L9" s="313"/>
+      <c r="M9" s="318"/>
       <c r="N9" s="30"/>
-      <c r="O9" s="346"/>
-      <c r="P9" s="347"/>
-      <c r="Q9" s="426"/>
-      <c r="R9" s="323"/>
-      <c r="S9" s="330"/>
-      <c r="T9" s="328"/>
-      <c r="U9" s="326"/>
+      <c r="O9" s="376"/>
+      <c r="P9" s="377"/>
+      <c r="Q9" s="299"/>
+      <c r="R9" s="354"/>
+      <c r="S9" s="361"/>
+      <c r="T9" s="359"/>
+      <c r="U9" s="357"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" thickBot="1">
       <c r="B10" s="31"/>
@@ -3921,75 +3921,75 @@
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
       <c r="G10" s="189"/>
-      <c r="H10" s="399"/>
-      <c r="I10" s="400"/>
-      <c r="J10" s="404"/>
-      <c r="K10" s="363"/>
-      <c r="L10" s="364"/>
-      <c r="M10" s="368"/>
+      <c r="H10" s="272"/>
+      <c r="I10" s="273"/>
+      <c r="J10" s="277"/>
+      <c r="K10" s="314"/>
+      <c r="L10" s="315"/>
+      <c r="M10" s="319"/>
       <c r="N10" s="30"/>
-      <c r="O10" s="348"/>
-      <c r="P10" s="349"/>
-      <c r="Q10" s="427"/>
-      <c r="R10" s="324"/>
-      <c r="S10" s="331"/>
-      <c r="T10" s="332"/>
-      <c r="U10" s="333"/>
+      <c r="O10" s="378"/>
+      <c r="P10" s="379"/>
+      <c r="Q10" s="300"/>
+      <c r="R10" s="355"/>
+      <c r="S10" s="362"/>
+      <c r="T10" s="363"/>
+      <c r="U10" s="364"/>
     </row>
     <row r="11" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B11" s="350" t="s">
+      <c r="B11" s="301" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="370" t="str">
+      <c r="C11" s="321" t="str">
         <f>IF(C13=0,"","DR"&amp;MID(C13,2,4))</f>
         <v/>
       </c>
-      <c r="D11" s="370"/>
-      <c r="E11" s="371"/>
+      <c r="D11" s="321"/>
+      <c r="E11" s="322"/>
       <c r="F11" s="35"/>
-      <c r="H11" s="401"/>
-      <c r="I11" s="402"/>
-      <c r="J11" s="405"/>
-      <c r="K11" s="365"/>
-      <c r="L11" s="366"/>
-      <c r="M11" s="369"/>
+      <c r="H11" s="274"/>
+      <c r="I11" s="275"/>
+      <c r="J11" s="278"/>
+      <c r="K11" s="316"/>
+      <c r="L11" s="317"/>
+      <c r="M11" s="320"/>
       <c r="N11" s="30"/>
-      <c r="O11" s="411"/>
-      <c r="P11" s="412"/>
-      <c r="Q11" s="316"/>
-      <c r="R11" s="319"/>
-      <c r="S11" s="303" t="s">
+      <c r="O11" s="284"/>
+      <c r="P11" s="285"/>
+      <c r="Q11" s="347"/>
+      <c r="R11" s="350"/>
+      <c r="S11" s="345" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="315"/>
-      <c r="U11" s="304"/>
+      <c r="T11" s="346"/>
+      <c r="U11" s="335"/>
     </row>
     <row r="12" spans="2:31" ht="27.75" customHeight="1">
-      <c r="B12" s="351"/>
-      <c r="C12" s="372"/>
-      <c r="D12" s="372"/>
-      <c r="E12" s="373"/>
+      <c r="B12" s="302"/>
+      <c r="C12" s="323"/>
+      <c r="D12" s="323"/>
+      <c r="E12" s="324"/>
       <c r="F12" s="25"/>
       <c r="J12" s="101"/>
       <c r="N12" s="30"/>
-      <c r="O12" s="413"/>
-      <c r="P12" s="414"/>
-      <c r="Q12" s="317"/>
-      <c r="R12" s="320"/>
-      <c r="S12" s="334"/>
-      <c r="T12" s="335"/>
-      <c r="U12" s="336"/>
+      <c r="O12" s="286"/>
+      <c r="P12" s="287"/>
+      <c r="Q12" s="348"/>
+      <c r="R12" s="351"/>
+      <c r="S12" s="365"/>
+      <c r="T12" s="366"/>
+      <c r="U12" s="367"/>
     </row>
     <row r="13" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B13" s="374" t="s">
+      <c r="B13" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="372">
+      <c r="C13" s="323">
         <f>input!D32</f>
         <v>0</v>
       </c>
-      <c r="D13" s="372"/>
-      <c r="E13" s="373"/>
+      <c r="D13" s="323"/>
+      <c r="E13" s="324"/>
       <c r="F13" s="25"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
@@ -3999,19 +3999,19 @@
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
       <c r="N13" s="30"/>
-      <c r="O13" s="415"/>
-      <c r="P13" s="416"/>
-      <c r="Q13" s="318"/>
-      <c r="R13" s="321"/>
-      <c r="S13" s="337"/>
-      <c r="T13" s="338"/>
-      <c r="U13" s="339"/>
+      <c r="O13" s="288"/>
+      <c r="P13" s="289"/>
+      <c r="Q13" s="349"/>
+      <c r="R13" s="352"/>
+      <c r="S13" s="327"/>
+      <c r="T13" s="368"/>
+      <c r="U13" s="369"/>
     </row>
     <row r="14" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B14" s="337"/>
-      <c r="C14" s="377"/>
-      <c r="D14" s="377"/>
-      <c r="E14" s="378"/>
+      <c r="B14" s="327"/>
+      <c r="C14" s="330"/>
+      <c r="D14" s="330"/>
+      <c r="E14" s="331"/>
       <c r="F14" s="35"/>
       <c r="G14" s="120" t="s">
         <v>5</v>
@@ -4023,17 +4023,17 @@
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
       <c r="N14" s="30"/>
-      <c r="O14" s="325" t="s">
+      <c r="O14" s="356" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="326"/>
-      <c r="Q14" s="325" t="s">
+      <c r="P14" s="357"/>
+      <c r="Q14" s="356" t="s">
         <v>144</v>
       </c>
-      <c r="R14" s="327"/>
-      <c r="S14" s="328"/>
-      <c r="T14" s="328"/>
-      <c r="U14" s="326"/>
+      <c r="R14" s="358"/>
+      <c r="S14" s="359"/>
+      <c r="T14" s="359"/>
+      <c r="U14" s="357"/>
     </row>
     <row r="15" spans="2:31" ht="52.5" customHeight="1" thickBot="1">
       <c r="B15" s="190" t="s">
@@ -4090,12 +4090,12 @@
       </c>
     </row>
     <row r="16" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B16" s="379" t="s">
+      <c r="B16" s="332" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="380"/>
-      <c r="D16" s="381"/>
-      <c r="E16" s="304"/>
+      <c r="C16" s="333"/>
+      <c r="D16" s="334"/>
+      <c r="E16" s="335"/>
       <c r="F16" s="35"/>
       <c r="G16" s="119">
         <v>1</v>
@@ -4133,10 +4133,10 @@
       <c r="C17" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="375" t="s">
+      <c r="D17" s="328" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="376"/>
+      <c r="E17" s="329"/>
       <c r="F17" s="35"/>
       <c r="G17" s="119">
         <v>2</v>
@@ -4170,8 +4170,8 @@
     <row r="18" spans="2:31" ht="35.1" customHeight="1">
       <c r="B18" s="114"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="269"/>
-      <c r="E18" s="302"/>
+      <c r="D18" s="325"/>
+      <c r="E18" s="326"/>
       <c r="F18" s="35"/>
       <c r="G18" s="119">
         <v>3</v>
@@ -4205,8 +4205,8 @@
     <row r="19" spans="2:31" ht="35.1" customHeight="1">
       <c r="B19" s="114"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="269"/>
-      <c r="E19" s="302"/>
+      <c r="D19" s="325"/>
+      <c r="E19" s="326"/>
       <c r="F19" s="35"/>
       <c r="G19" s="119">
         <v>4</v>
@@ -4232,10 +4232,10 @@
       <c r="T19" s="37"/>
       <c r="U19" s="38"/>
       <c r="W19" s="39"/>
-      <c r="X19" s="313"/>
-      <c r="Y19" s="308"/>
-      <c r="Z19" s="308"/>
-      <c r="AA19" s="308"/>
+      <c r="X19" s="343"/>
+      <c r="Y19" s="261"/>
+      <c r="Z19" s="261"/>
+      <c r="AA19" s="261"/>
       <c r="AB19" s="35"/>
       <c r="AC19" s="35"/>
       <c r="AD19" s="35"/>
@@ -4244,8 +4244,8 @@
     <row r="20" spans="2:31" ht="35.1" customHeight="1">
       <c r="B20" s="114"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="269"/>
-      <c r="E20" s="302"/>
+      <c r="D20" s="325"/>
+      <c r="E20" s="326"/>
       <c r="F20" s="35"/>
       <c r="G20" s="119">
         <v>5</v>
@@ -4269,8 +4269,8 @@
       <c r="W20" s="35"/>
       <c r="X20" s="116"/>
       <c r="Y20" s="34"/>
-      <c r="Z20" s="314"/>
-      <c r="AA20" s="308"/>
+      <c r="Z20" s="344"/>
+      <c r="AA20" s="261"/>
       <c r="AB20" s="35"/>
       <c r="AC20" s="35"/>
       <c r="AD20" s="35"/>
@@ -4279,8 +4279,8 @@
     <row r="21" spans="2:31" ht="35.1" customHeight="1">
       <c r="B21" s="114"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="269"/>
-      <c r="E21" s="302"/>
+      <c r="D21" s="325"/>
+      <c r="E21" s="326"/>
       <c r="F21" s="35"/>
       <c r="G21" s="119">
         <v>6</v>
@@ -4305,8 +4305,8 @@
       <c r="W21" s="35"/>
       <c r="X21" s="116"/>
       <c r="Y21" s="117"/>
-      <c r="Z21" s="307"/>
-      <c r="AA21" s="308"/>
+      <c r="Z21" s="336"/>
+      <c r="AA21" s="261"/>
       <c r="AB21" s="35"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="35"/>
@@ -4315,8 +4315,8 @@
     <row r="22" spans="2:31" ht="35.1" customHeight="1">
       <c r="B22" s="114"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="269"/>
-      <c r="E22" s="302"/>
+      <c r="D22" s="325"/>
+      <c r="E22" s="326"/>
       <c r="F22" s="35"/>
       <c r="G22" s="119">
         <v>7</v>
@@ -4341,8 +4341,8 @@
       <c r="W22" s="35"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="35"/>
-      <c r="Z22" s="308"/>
-      <c r="AA22" s="308"/>
+      <c r="Z22" s="261"/>
+      <c r="AA22" s="261"/>
       <c r="AB22" s="35"/>
       <c r="AC22" s="35"/>
       <c r="AD22" s="35"/>
@@ -4351,8 +4351,8 @@
     <row r="23" spans="2:31" ht="35.1" customHeight="1">
       <c r="B23" s="114"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="269"/>
-      <c r="E23" s="302"/>
+      <c r="D23" s="325"/>
+      <c r="E23" s="326"/>
       <c r="F23" s="35"/>
       <c r="G23" s="119">
         <v>8</v>
@@ -4387,8 +4387,8 @@
     <row r="24" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
       <c r="B24" s="115"/>
       <c r="C24" s="29"/>
-      <c r="D24" s="300"/>
-      <c r="E24" s="301"/>
+      <c r="D24" s="382"/>
+      <c r="E24" s="383"/>
       <c r="F24" s="35"/>
       <c r="G24" s="119">
         <v>9</v>
@@ -4451,14 +4451,14 @@
       <c r="W25" s="40"/>
     </row>
     <row r="26" spans="2:31" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B26" s="303" t="s">
+      <c r="B26" s="345" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="304"/>
-      <c r="D26" s="303" t="s">
+      <c r="C26" s="335"/>
+      <c r="D26" s="345" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="304"/>
+      <c r="E26" s="335"/>
       <c r="F26" s="35"/>
       <c r="G26" s="119">
         <v>11</v>
@@ -4897,10 +4897,10 @@
       <c r="U38" s="38"/>
     </row>
     <row r="39" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B39" s="298" t="s">
+      <c r="B39" s="380" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="299"/>
+      <c r="C39" s="381"/>
       <c r="D39" s="150"/>
       <c r="E39" s="112"/>
       <c r="F39" s="104"/>
@@ -5067,14 +5067,14 @@
       <c r="U44" s="38"/>
     </row>
     <row r="45" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B45" s="274" t="s">
+      <c r="B45" s="389" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="276" t="s">
+      <c r="C45" s="391" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="277"/>
-      <c r="E45" s="278"/>
+      <c r="D45" s="392"/>
+      <c r="E45" s="393"/>
       <c r="F45" s="104"/>
       <c r="G45" s="119">
         <v>30</v>
@@ -5097,7 +5097,7 @@
       <c r="U45" s="38"/>
     </row>
     <row r="46" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B46" s="275"/>
+      <c r="B46" s="390"/>
       <c r="C46" s="211" t="s">
         <v>93</v>
       </c>
@@ -5197,14 +5197,14 @@
       <c r="AB48" s="104"/>
     </row>
     <row r="49" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B49" s="274" t="s">
+      <c r="B49" s="389" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="276" t="s">
+      <c r="C49" s="391" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="277"/>
-      <c r="E49" s="278"/>
+      <c r="D49" s="392"/>
+      <c r="E49" s="393"/>
       <c r="F49" s="35"/>
       <c r="G49" s="119">
         <v>34</v>
@@ -5233,7 +5233,7 @@
       <c r="AB49" s="35"/>
     </row>
     <row r="50" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B50" s="275"/>
+      <c r="B50" s="390"/>
       <c r="C50" s="211" t="s">
         <v>93</v>
       </c>
@@ -5371,12 +5371,12 @@
       <c r="AB53" s="35"/>
     </row>
     <row r="54" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B54" s="282" t="s">
+      <c r="B54" s="337" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="283"/>
-      <c r="D54" s="382"/>
-      <c r="E54" s="383"/>
+      <c r="C54" s="397"/>
+      <c r="D54" s="386"/>
+      <c r="E54" s="387"/>
       <c r="F54" s="35"/>
       <c r="G54" s="119">
         <v>39</v>
@@ -5405,12 +5405,12 @@
       <c r="AB54" s="35"/>
     </row>
     <row r="55" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B55" s="280" t="s">
+      <c r="B55" s="395" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="281"/>
-      <c r="D55" s="305"/>
-      <c r="E55" s="306"/>
+      <c r="C55" s="396"/>
+      <c r="D55" s="384"/>
+      <c r="E55" s="385"/>
       <c r="F55" s="35"/>
       <c r="G55" s="119">
         <v>40</v>
@@ -5439,12 +5439,12 @@
       <c r="AB55" s="35"/>
     </row>
     <row r="56" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B56" s="284" t="s">
+      <c r="B56" s="339" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="285"/>
-      <c r="D56" s="290"/>
-      <c r="E56" s="297"/>
+      <c r="C56" s="398"/>
+      <c r="D56" s="403"/>
+      <c r="E56" s="410"/>
       <c r="F56" s="35"/>
       <c r="G56" s="119">
         <v>41</v>
@@ -5505,12 +5505,12 @@
       <c r="AB57" s="35"/>
     </row>
     <row r="58" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B58" s="294" t="s">
+      <c r="B58" s="407" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="295"/>
-      <c r="D58" s="295"/>
-      <c r="E58" s="296"/>
+      <c r="C58" s="408"/>
+      <c r="D58" s="408"/>
+      <c r="E58" s="409"/>
       <c r="F58" s="35"/>
       <c r="G58" s="119">
         <v>43</v>
@@ -5542,10 +5542,10 @@
       <c r="B59" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="292" t="s">
+      <c r="C59" s="405" t="s">
         <v>132</v>
       </c>
-      <c r="D59" s="293"/>
+      <c r="D59" s="406"/>
       <c r="E59" s="165" t="s">
         <v>131</v>
       </c>
@@ -5580,8 +5580,8 @@
       <c r="B60" s="166">
         <v>1</v>
       </c>
-      <c r="C60" s="288"/>
-      <c r="D60" s="289"/>
+      <c r="C60" s="401"/>
+      <c r="D60" s="402"/>
       <c r="E60" s="167"/>
       <c r="F60" s="35"/>
       <c r="G60" s="119">
@@ -5614,8 +5614,8 @@
       <c r="B61" s="166">
         <v>2</v>
       </c>
-      <c r="C61" s="288"/>
-      <c r="D61" s="289"/>
+      <c r="C61" s="401"/>
+      <c r="D61" s="402"/>
       <c r="E61" s="167"/>
       <c r="F61" s="35"/>
       <c r="G61" s="119">
@@ -5648,8 +5648,8 @@
       <c r="B62" s="166">
         <v>3</v>
       </c>
-      <c r="C62" s="288"/>
-      <c r="D62" s="289"/>
+      <c r="C62" s="401"/>
+      <c r="D62" s="402"/>
       <c r="E62" s="167"/>
       <c r="F62" s="35"/>
       <c r="G62" s="119">
@@ -5682,8 +5682,8 @@
       <c r="B63" s="166">
         <v>4</v>
       </c>
-      <c r="C63" s="288"/>
-      <c r="D63" s="289"/>
+      <c r="C63" s="401"/>
+      <c r="D63" s="402"/>
       <c r="E63" s="167"/>
       <c r="F63" s="35"/>
       <c r="G63" s="119">
@@ -5715,8 +5715,8 @@
       <c r="B64" s="166">
         <v>5</v>
       </c>
-      <c r="C64" s="288"/>
-      <c r="D64" s="289"/>
+      <c r="C64" s="401"/>
+      <c r="D64" s="402"/>
       <c r="E64" s="167"/>
       <c r="F64" s="213"/>
       <c r="G64" s="119">
@@ -5748,8 +5748,8 @@
       <c r="B65" s="166">
         <v>6</v>
       </c>
-      <c r="C65" s="288"/>
-      <c r="D65" s="289"/>
+      <c r="C65" s="401"/>
+      <c r="D65" s="402"/>
       <c r="E65" s="167"/>
       <c r="F65" s="213"/>
       <c r="G65" s="119">
@@ -5781,8 +5781,8 @@
       <c r="B66" s="228">
         <v>7</v>
       </c>
-      <c r="C66" s="290"/>
-      <c r="D66" s="291"/>
+      <c r="C66" s="403"/>
+      <c r="D66" s="404"/>
       <c r="E66" s="230"/>
       <c r="F66" s="213"/>
       <c r="G66" s="212" t="s">
@@ -5857,21 +5857,21 @@
       <c r="B68" s="127" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="286"/>
-      <c r="D68" s="286"/>
-      <c r="E68" s="287"/>
-      <c r="F68" s="279"/>
-      <c r="G68" s="270" t="s">
+      <c r="C68" s="399"/>
+      <c r="D68" s="399"/>
+      <c r="E68" s="400"/>
+      <c r="F68" s="394"/>
+      <c r="G68" s="424" t="s">
         <v>163</v>
       </c>
-      <c r="H68" s="271"/>
-      <c r="I68" s="271"/>
-      <c r="J68" s="271"/>
-      <c r="K68" s="271" t="s">
+      <c r="H68" s="425"/>
+      <c r="I68" s="425"/>
+      <c r="J68" s="425"/>
+      <c r="K68" s="425" t="s">
         <v>152</v>
       </c>
-      <c r="L68" s="271"/>
-      <c r="M68" s="273"/>
+      <c r="L68" s="425"/>
+      <c r="M68" s="427"/>
       <c r="N68" s="246" t="s">
         <v>7</v>
       </c>
@@ -5882,11 +5882,11 @@
         <v>141</v>
       </c>
       <c r="Q68" s="248"/>
-      <c r="S68" s="259" t="s">
+      <c r="S68" s="415" t="s">
         <v>148</v>
       </c>
-      <c r="T68" s="260"/>
-      <c r="U68" s="261"/>
+      <c r="T68" s="416"/>
+      <c r="U68" s="417"/>
       <c r="W68" s="35"/>
       <c r="X68" s="35"/>
       <c r="Y68" s="35"/>
@@ -5898,18 +5898,18 @@
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="30"/>
-      <c r="F69" s="279"/>
-      <c r="G69" s="272" t="s">
+      <c r="F69" s="394"/>
+      <c r="G69" s="426" t="s">
         <v>164</v>
       </c>
-      <c r="H69" s="268"/>
-      <c r="I69" s="268"/>
-      <c r="J69" s="268"/>
-      <c r="K69" s="268" t="s">
+      <c r="H69" s="388"/>
+      <c r="I69" s="388"/>
+      <c r="J69" s="388"/>
+      <c r="K69" s="388" t="s">
         <v>153</v>
       </c>
-      <c r="L69" s="268"/>
-      <c r="M69" s="269"/>
+      <c r="L69" s="388"/>
+      <c r="M69" s="325"/>
       <c r="N69" s="250">
         <v>1</v>
       </c>
@@ -5917,9 +5917,9 @@
       <c r="P69" s="252"/>
       <c r="Q69" s="253"/>
       <c r="R69" s="245"/>
-      <c r="S69" s="262"/>
-      <c r="T69" s="263"/>
-      <c r="U69" s="264"/>
+      <c r="S69" s="418"/>
+      <c r="T69" s="419"/>
+      <c r="U69" s="420"/>
       <c r="W69" s="35"/>
       <c r="X69" s="35"/>
       <c r="Y69" s="35"/>
@@ -5932,17 +5932,17 @@
       <c r="D70" s="35"/>
       <c r="E70" s="30"/>
       <c r="F70" s="35"/>
-      <c r="G70" s="272" t="s">
+      <c r="G70" s="426" t="s">
         <v>165</v>
       </c>
-      <c r="H70" s="268"/>
-      <c r="I70" s="268"/>
-      <c r="J70" s="268"/>
-      <c r="K70" s="268" t="s">
+      <c r="H70" s="388"/>
+      <c r="I70" s="388"/>
+      <c r="J70" s="388"/>
+      <c r="K70" s="388" t="s">
         <v>154</v>
       </c>
-      <c r="L70" s="268"/>
-      <c r="M70" s="269"/>
+      <c r="L70" s="388"/>
+      <c r="M70" s="325"/>
       <c r="N70" s="52">
         <v>2</v>
       </c>
@@ -5950,9 +5950,9 @@
       <c r="P70" s="236"/>
       <c r="Q70" s="237"/>
       <c r="R70" s="245"/>
-      <c r="S70" s="262"/>
-      <c r="T70" s="263"/>
-      <c r="U70" s="264"/>
+      <c r="S70" s="418"/>
+      <c r="T70" s="419"/>
+      <c r="U70" s="420"/>
       <c r="W70" s="35"/>
       <c r="X70" s="35"/>
       <c r="Y70" s="35"/>
@@ -5965,17 +5965,17 @@
       <c r="D71" s="35"/>
       <c r="E71" s="30"/>
       <c r="F71" s="35"/>
-      <c r="G71" s="272" t="s">
+      <c r="G71" s="426" t="s">
         <v>166</v>
       </c>
-      <c r="H71" s="268"/>
-      <c r="I71" s="268"/>
-      <c r="J71" s="268"/>
-      <c r="K71" s="268" t="s">
+      <c r="H71" s="388"/>
+      <c r="I71" s="388"/>
+      <c r="J71" s="388"/>
+      <c r="K71" s="388" t="s">
         <v>155</v>
       </c>
-      <c r="L71" s="268"/>
-      <c r="M71" s="269"/>
+      <c r="L71" s="388"/>
+      <c r="M71" s="325"/>
       <c r="N71" s="52">
         <v>3</v>
       </c>
@@ -5983,9 +5983,9 @@
       <c r="P71" s="236"/>
       <c r="Q71" s="237"/>
       <c r="R71" s="245"/>
-      <c r="S71" s="262"/>
-      <c r="T71" s="263"/>
-      <c r="U71" s="264"/>
+      <c r="S71" s="418"/>
+      <c r="T71" s="419"/>
+      <c r="U71" s="420"/>
       <c r="W71" s="35"/>
       <c r="X71" s="35"/>
       <c r="Y71" s="35"/>
@@ -5998,17 +5998,17 @@
       <c r="D72" s="35"/>
       <c r="E72" s="30"/>
       <c r="F72" s="35"/>
-      <c r="G72" s="272" t="s">
+      <c r="G72" s="426" t="s">
         <v>167</v>
       </c>
-      <c r="H72" s="268"/>
-      <c r="I72" s="268"/>
-      <c r="J72" s="268"/>
-      <c r="K72" s="268" t="s">
+      <c r="H72" s="388"/>
+      <c r="I72" s="388"/>
+      <c r="J72" s="388"/>
+      <c r="K72" s="388" t="s">
         <v>156</v>
       </c>
-      <c r="L72" s="268"/>
-      <c r="M72" s="269"/>
+      <c r="L72" s="388"/>
+      <c r="M72" s="325"/>
       <c r="N72" s="52">
         <v>4</v>
       </c>
@@ -6016,9 +6016,9 @@
       <c r="P72" s="236"/>
       <c r="Q72" s="237"/>
       <c r="R72" s="245"/>
-      <c r="S72" s="262"/>
-      <c r="T72" s="263"/>
-      <c r="U72" s="264"/>
+      <c r="S72" s="418"/>
+      <c r="T72" s="419"/>
+      <c r="U72" s="420"/>
       <c r="W72" s="35"/>
       <c r="X72" s="35"/>
       <c r="Y72" s="35"/>
@@ -6031,17 +6031,17 @@
       <c r="D73" s="35"/>
       <c r="E73" s="30"/>
       <c r="F73" s="35"/>
-      <c r="G73" s="272" t="s">
+      <c r="G73" s="426" t="s">
         <v>168</v>
       </c>
-      <c r="H73" s="268"/>
-      <c r="I73" s="268"/>
-      <c r="J73" s="268"/>
-      <c r="K73" s="268" t="s">
+      <c r="H73" s="388"/>
+      <c r="I73" s="388"/>
+      <c r="J73" s="388"/>
+      <c r="K73" s="388" t="s">
         <v>157</v>
       </c>
-      <c r="L73" s="268"/>
-      <c r="M73" s="269"/>
+      <c r="L73" s="388"/>
+      <c r="M73" s="325"/>
       <c r="N73" s="52">
         <v>5</v>
       </c>
@@ -6049,9 +6049,9 @@
       <c r="P73" s="236"/>
       <c r="Q73" s="237"/>
       <c r="R73" s="245"/>
-      <c r="S73" s="262"/>
-      <c r="T73" s="263"/>
-      <c r="U73" s="264"/>
+      <c r="S73" s="418"/>
+      <c r="T73" s="419"/>
+      <c r="U73" s="420"/>
       <c r="W73" s="35"/>
       <c r="X73" s="35"/>
       <c r="Y73" s="35"/>
@@ -6064,17 +6064,17 @@
       <c r="D74" s="35"/>
       <c r="E74" s="30"/>
       <c r="F74" s="35"/>
-      <c r="G74" s="272" t="s">
+      <c r="G74" s="426" t="s">
         <v>169</v>
       </c>
-      <c r="H74" s="268"/>
-      <c r="I74" s="268"/>
-      <c r="J74" s="268"/>
-      <c r="K74" s="268" t="s">
+      <c r="H74" s="388"/>
+      <c r="I74" s="388"/>
+      <c r="J74" s="388"/>
+      <c r="K74" s="388" t="s">
         <v>158</v>
       </c>
-      <c r="L74" s="268"/>
-      <c r="M74" s="269"/>
+      <c r="L74" s="388"/>
+      <c r="M74" s="325"/>
       <c r="N74" s="52">
         <v>6</v>
       </c>
@@ -6082,9 +6082,9 @@
       <c r="P74" s="236"/>
       <c r="Q74" s="237"/>
       <c r="R74" s="245"/>
-      <c r="S74" s="262"/>
-      <c r="T74" s="263"/>
-      <c r="U74" s="264"/>
+      <c r="S74" s="418"/>
+      <c r="T74" s="419"/>
+      <c r="U74" s="420"/>
       <c r="W74" s="35"/>
       <c r="X74" s="35"/>
       <c r="Y74" s="35"/>
@@ -6097,17 +6097,17 @@
       <c r="D75" s="35"/>
       <c r="E75" s="30"/>
       <c r="F75" s="35"/>
-      <c r="G75" s="272" t="s">
+      <c r="G75" s="426" t="s">
         <v>170</v>
       </c>
-      <c r="H75" s="268"/>
-      <c r="I75" s="268"/>
-      <c r="J75" s="268"/>
-      <c r="K75" s="268" t="s">
+      <c r="H75" s="388"/>
+      <c r="I75" s="388"/>
+      <c r="J75" s="388"/>
+      <c r="K75" s="388" t="s">
         <v>159</v>
       </c>
-      <c r="L75" s="268"/>
-      <c r="M75" s="269"/>
+      <c r="L75" s="388"/>
+      <c r="M75" s="325"/>
       <c r="N75" s="52">
         <v>7</v>
       </c>
@@ -6115,9 +6115,9 @@
       <c r="P75" s="236"/>
       <c r="Q75" s="237"/>
       <c r="R75" s="245"/>
-      <c r="S75" s="262"/>
-      <c r="T75" s="263"/>
-      <c r="U75" s="264"/>
+      <c r="S75" s="418"/>
+      <c r="T75" s="419"/>
+      <c r="U75" s="420"/>
       <c r="X75" s="35"/>
     </row>
     <row r="76" spans="2:29" ht="28.5" customHeight="1">
@@ -6126,17 +6126,17 @@
       <c r="D76" s="35"/>
       <c r="E76" s="30"/>
       <c r="F76" s="35"/>
-      <c r="G76" s="272" t="s">
+      <c r="G76" s="426" t="s">
         <v>171</v>
       </c>
-      <c r="H76" s="268"/>
-      <c r="I76" s="268"/>
-      <c r="J76" s="268"/>
-      <c r="K76" s="268" t="s">
+      <c r="H76" s="388"/>
+      <c r="I76" s="388"/>
+      <c r="J76" s="388"/>
+      <c r="K76" s="388" t="s">
         <v>160</v>
       </c>
-      <c r="L76" s="268"/>
-      <c r="M76" s="269"/>
+      <c r="L76" s="388"/>
+      <c r="M76" s="325"/>
       <c r="N76" s="52">
         <v>8</v>
       </c>
@@ -6144,9 +6144,9 @@
       <c r="P76" s="236"/>
       <c r="Q76" s="237"/>
       <c r="R76" s="245"/>
-      <c r="S76" s="262"/>
-      <c r="T76" s="263"/>
-      <c r="U76" s="264"/>
+      <c r="S76" s="418"/>
+      <c r="T76" s="419"/>
+      <c r="U76" s="420"/>
       <c r="X76" s="35"/>
     </row>
     <row r="77" spans="2:29" ht="21.95" customHeight="1">
@@ -6155,17 +6155,17 @@
       <c r="D77" s="196"/>
       <c r="E77" s="240"/>
       <c r="F77" s="196"/>
-      <c r="G77" s="272" t="s">
+      <c r="G77" s="426" t="s">
         <v>172</v>
       </c>
-      <c r="H77" s="268"/>
-      <c r="I77" s="268"/>
-      <c r="J77" s="268"/>
-      <c r="K77" s="268" t="s">
+      <c r="H77" s="388"/>
+      <c r="I77" s="388"/>
+      <c r="J77" s="388"/>
+      <c r="K77" s="388" t="s">
         <v>161</v>
       </c>
-      <c r="L77" s="268"/>
-      <c r="M77" s="269"/>
+      <c r="L77" s="388"/>
+      <c r="M77" s="325"/>
       <c r="N77" s="52">
         <v>9</v>
       </c>
@@ -6173,9 +6173,9 @@
       <c r="P77" s="249"/>
       <c r="Q77" s="254"/>
       <c r="R77" s="196"/>
-      <c r="S77" s="262"/>
-      <c r="T77" s="263"/>
-      <c r="U77" s="264"/>
+      <c r="S77" s="418"/>
+      <c r="T77" s="419"/>
+      <c r="U77" s="420"/>
       <c r="X77" s="35"/>
     </row>
     <row r="78" spans="2:29" ht="30" customHeight="1">
@@ -6184,17 +6184,17 @@
       <c r="D78" s="196"/>
       <c r="E78" s="240"/>
       <c r="F78" s="196"/>
-      <c r="G78" s="272" t="s">
+      <c r="G78" s="426" t="s">
         <v>173</v>
       </c>
-      <c r="H78" s="268"/>
-      <c r="I78" s="268"/>
-      <c r="J78" s="268"/>
-      <c r="K78" s="268" t="s">
+      <c r="H78" s="388"/>
+      <c r="I78" s="388"/>
+      <c r="J78" s="388"/>
+      <c r="K78" s="388" t="s">
         <v>162</v>
       </c>
-      <c r="L78" s="268"/>
-      <c r="M78" s="269"/>
+      <c r="L78" s="388"/>
+      <c r="M78" s="325"/>
       <c r="N78" s="52">
         <v>10</v>
       </c>
@@ -6202,9 +6202,9 @@
       <c r="P78" s="249"/>
       <c r="Q78" s="254"/>
       <c r="R78" s="196"/>
-      <c r="S78" s="262"/>
-      <c r="T78" s="263"/>
-      <c r="U78" s="264"/>
+      <c r="S78" s="418"/>
+      <c r="T78" s="419"/>
+      <c r="U78" s="420"/>
       <c r="X78" s="35"/>
     </row>
     <row r="79" spans="2:29" ht="30" customHeight="1" thickBot="1">
@@ -6213,24 +6213,24 @@
       <c r="D79" s="242"/>
       <c r="E79" s="243"/>
       <c r="F79" s="35"/>
-      <c r="G79" s="255" t="s">
+      <c r="G79" s="411" t="s">
         <v>174</v>
       </c>
-      <c r="H79" s="256"/>
-      <c r="I79" s="256"/>
-      <c r="J79" s="256"/>
-      <c r="K79" s="257"/>
-      <c r="L79" s="258"/>
-      <c r="M79" s="258"/>
+      <c r="H79" s="412"/>
+      <c r="I79" s="412"/>
+      <c r="J79" s="412"/>
+      <c r="K79" s="413"/>
+      <c r="L79" s="414"/>
+      <c r="M79" s="414"/>
       <c r="N79" s="53">
         <v>11</v>
       </c>
       <c r="O79" s="29"/>
       <c r="P79" s="29"/>
       <c r="Q79" s="244"/>
-      <c r="S79" s="265"/>
-      <c r="T79" s="266"/>
-      <c r="U79" s="267"/>
+      <c r="S79" s="421"/>
+      <c r="T79" s="422"/>
+      <c r="U79" s="423"/>
       <c r="X79" s="35"/>
     </row>
     <row r="80" spans="2:29" ht="30" customHeight="1">
@@ -8263,6 +8263,86 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="S68:U79"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="O7:P10"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="Z21:AA22"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="S8:U10"/>
+    <mergeCell ref="S12:U13"/>
+    <mergeCell ref="O5:O6"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
@@ -8287,86 +8367,6 @@
     <mergeCell ref="M9:M11"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:E12"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="Z21:AA22"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="S8:U10"/>
-    <mergeCell ref="S12:U13"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="O7:P10"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="S68:U79"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K68:M68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8393,8 +8393,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:K48"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -8571,8 +8571,7 @@
         <v/>
       </c>
       <c r="J12" s="13">
-        <f>IF(D20&lt;5,2,IF(AND(D20&gt;3,D20&lt;7),10,(D20/3)*5))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="20.25" customHeight="1">

--- a/py/direction_sheet.xlsx
+++ b/py/direction_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diereport\ex0.11\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F250DF-EAC0-4E71-9F99-90ABAEEA3982}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586D7099-6B08-4339-99FA-BE3D432A5D4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="672" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="print" sheetId="1" r:id="rId1"/>
@@ -1891,7 +1891,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="428">
+  <cellXfs count="430">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2238,9 +2238,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2259,17 +2256,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2509,9 +2496,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2540,9 +2524,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2632,8 +2613,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2644,9 +2631,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2836,39 +2820,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2902,6 +2853,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2965,6 +2919,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3012,6 +2969,33 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3140,6 +3124,28 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3560,8 +3566,8 @@
   </sheetPr>
   <dimension ref="B1:AI172"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:U1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="20.25"/>
@@ -3593,297 +3599,297 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B1" s="255" t="s">
+      <c r="B1" s="426" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="256"/>
-      <c r="P1" s="256"/>
-      <c r="Q1" s="256"/>
-      <c r="R1" s="256"/>
-      <c r="S1" s="256"/>
-      <c r="T1" s="256"/>
-      <c r="U1" s="258"/>
-    </row>
-    <row r="2" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B2" s="225" t="s">
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="252"/>
+      <c r="P1" s="252"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="252"/>
+      <c r="S1" s="252"/>
+      <c r="T1" s="252"/>
+      <c r="U1" s="254"/>
+    </row>
+    <row r="2" spans="2:31" ht="28.5" customHeight="1">
+      <c r="B2" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="131">
+      <c r="C2" s="423">
         <f>input!D18</f>
         <v>0</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="423"/>
+      <c r="E2" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="133">
+      <c r="F2" s="428">
         <f>input!D8</f>
         <v>0</v>
       </c>
-      <c r="F2" s="259"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="260"/>
-      <c r="M2" s="261"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="337" t="s">
+      <c r="G2" s="428"/>
+      <c r="H2" s="429"/>
+      <c r="I2" s="425"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="321" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="338"/>
-      <c r="Q2" s="337" t="s">
+      <c r="P2" s="322"/>
+      <c r="Q2" s="321" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="341"/>
-      <c r="S2" s="341"/>
-      <c r="T2" s="341"/>
-      <c r="U2" s="338"/>
+      <c r="R2" s="325"/>
+      <c r="S2" s="325"/>
+      <c r="T2" s="325"/>
+      <c r="U2" s="322"/>
     </row>
     <row r="3" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="249" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="214">
+      <c r="C3" s="354">
         <f>input!D17</f>
         <v>0</v>
       </c>
-      <c r="D3" s="214" t="s">
+      <c r="D3" s="354"/>
+      <c r="E3" s="250" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="134">
+      <c r="F3" s="354">
         <f>input!D9</f>
         <v>0</v>
       </c>
-      <c r="F3" s="259"/>
-      <c r="G3" s="260"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="213"/>
+      <c r="G3" s="354"/>
+      <c r="H3" s="355"/>
+      <c r="I3" s="425"/>
+      <c r="J3" s="209"/>
       <c r="K3" s="35"/>
-      <c r="L3" s="260"/>
-      <c r="M3" s="261"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="339" t="s">
+      <c r="L3" s="255"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="323" t="s">
         <v>126</v>
       </c>
-      <c r="P3" s="340"/>
-      <c r="Q3" s="339"/>
-      <c r="R3" s="342"/>
-      <c r="S3" s="342"/>
-      <c r="T3" s="342"/>
-      <c r="U3" s="340"/>
+      <c r="P3" s="324"/>
+      <c r="Q3" s="323"/>
+      <c r="R3" s="326"/>
+      <c r="S3" s="326"/>
+      <c r="T3" s="326"/>
+      <c r="U3" s="324"/>
     </row>
     <row r="4" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B4" s="25"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="309" t="s">
+      <c r="F4" s="184"/>
+      <c r="G4" s="427" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="310"/>
-      <c r="I4" s="310"/>
-      <c r="J4" s="311"/>
-      <c r="K4" s="309" t="s">
+      <c r="H4" s="424"/>
+      <c r="I4" s="305"/>
+      <c r="J4" s="306"/>
+      <c r="K4" s="304" t="s">
         <v>136</v>
       </c>
-      <c r="L4" s="310"/>
-      <c r="M4" s="311"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="181" t="s">
+      <c r="L4" s="305"/>
+      <c r="M4" s="306"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="177" t="s">
         <v>79</v>
       </c>
-      <c r="P4" s="182" t="s">
+      <c r="P4" s="178" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="337" t="s">
+      <c r="Q4" s="321" t="s">
         <v>122</v>
       </c>
-      <c r="R4" s="341"/>
-      <c r="S4" s="341"/>
-      <c r="T4" s="341"/>
-      <c r="U4" s="338"/>
+      <c r="R4" s="325"/>
+      <c r="S4" s="325"/>
+      <c r="T4" s="325"/>
+      <c r="U4" s="322"/>
     </row>
     <row r="5" spans="2:31" ht="28.5" customHeight="1">
-      <c r="B5" s="301" t="s">
+      <c r="B5" s="296" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="303">
+      <c r="C5" s="298">
         <f>input!D6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="304"/>
-      <c r="E5" s="305"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="300"/>
       <c r="F5" s="121"/>
-      <c r="G5" s="130" t="s">
+      <c r="G5" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="168" t="str">
+      <c r="H5" s="164" t="str">
         <f>IF(input!D12="6N01","●","")</f>
         <v/>
       </c>
-      <c r="I5" s="169" t="s">
+      <c r="I5" s="165" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="174" t="s">
+      <c r="J5" s="170" t="s">
         <v>133</v>
       </c>
-      <c r="K5" s="198" t="s">
+      <c r="K5" s="194" t="s">
         <v>127</v>
       </c>
-      <c r="L5" s="175" t="s">
+      <c r="L5" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="M5" s="290" t="s">
+      <c r="M5" s="285" t="s">
         <v>128</v>
       </c>
       <c r="N5" s="121"/>
-      <c r="O5" s="370"/>
-      <c r="P5" s="372"/>
-      <c r="Q5" s="294"/>
-      <c r="R5" s="295"/>
-      <c r="S5" s="295"/>
-      <c r="T5" s="295"/>
-      <c r="U5" s="296"/>
+      <c r="O5" s="356"/>
+      <c r="P5" s="358"/>
+      <c r="Q5" s="289"/>
+      <c r="R5" s="290"/>
+      <c r="S5" s="290"/>
+      <c r="T5" s="290"/>
+      <c r="U5" s="291"/>
     </row>
     <row r="6" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B6" s="302"/>
-      <c r="C6" s="306"/>
-      <c r="D6" s="307"/>
-      <c r="E6" s="308"/>
+      <c r="B6" s="297"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="303"/>
       <c r="F6" s="121"/>
-      <c r="G6" s="170">
+      <c r="G6" s="166">
         <v>6061</v>
       </c>
-      <c r="H6" s="171" t="str">
+      <c r="H6" s="167" t="str">
         <f>IF(input!D12="6061","●","")</f>
         <v/>
       </c>
-      <c r="I6" s="172"/>
-      <c r="J6" s="176">
+      <c r="I6" s="168"/>
+      <c r="J6" s="172">
         <f>input!D21</f>
         <v>0</v>
       </c>
-      <c r="K6" s="177">
+      <c r="K6" s="173">
         <f>input!D13</f>
         <v>0</v>
       </c>
-      <c r="L6" s="226">
+      <c r="L6" s="220">
         <f>ROUND(input!D14,2)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="291"/>
+      <c r="M6" s="286"/>
       <c r="N6" s="122"/>
-      <c r="O6" s="371"/>
-      <c r="P6" s="373"/>
-      <c r="Q6" s="288"/>
-      <c r="R6" s="297"/>
-      <c r="S6" s="297"/>
-      <c r="T6" s="297"/>
-      <c r="U6" s="289"/>
+      <c r="O6" s="357"/>
+      <c r="P6" s="359"/>
+      <c r="Q6" s="283"/>
+      <c r="R6" s="292"/>
+      <c r="S6" s="292"/>
+      <c r="T6" s="292"/>
+      <c r="U6" s="284"/>
     </row>
     <row r="7" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B7" s="262" t="s">
+      <c r="B7" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="264">
+      <c r="C7" s="259">
         <f>input!D7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="265"/>
-      <c r="E7" s="266"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="261"/>
       <c r="F7" s="121"/>
-      <c r="G7" s="170">
+      <c r="G7" s="166">
         <v>6063</v>
       </c>
-      <c r="H7" s="171" t="str">
+      <c r="H7" s="167" t="str">
         <f>IF(input!D12="6063","●","")</f>
         <v/>
       </c>
-      <c r="I7" s="173" t="s">
+      <c r="I7" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="178" t="s">
+      <c r="J7" s="174" t="s">
         <v>134</v>
       </c>
-      <c r="K7" s="198" t="s">
+      <c r="K7" s="194" t="s">
         <v>99</v>
       </c>
-      <c r="L7" s="179" t="s">
+      <c r="L7" s="175" t="s">
         <v>100</v>
       </c>
-      <c r="M7" s="292">
+      <c r="M7" s="287">
         <f>input!K11</f>
         <v>0</v>
       </c>
       <c r="N7" s="123"/>
-      <c r="O7" s="374" t="s">
+      <c r="O7" s="360" t="s">
         <v>142</v>
       </c>
-      <c r="P7" s="375"/>
-      <c r="Q7" s="282" t="s">
+      <c r="P7" s="361"/>
+      <c r="Q7" s="277" t="s">
         <v>125</v>
       </c>
-      <c r="R7" s="283"/>
-      <c r="S7" s="279" t="s">
+      <c r="R7" s="278"/>
+      <c r="S7" s="274" t="s">
         <v>137</v>
       </c>
-      <c r="T7" s="280"/>
-      <c r="U7" s="281"/>
+      <c r="T7" s="275"/>
+      <c r="U7" s="276"/>
     </row>
     <row r="8" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B8" s="263"/>
-      <c r="C8" s="267"/>
-      <c r="D8" s="268"/>
-      <c r="E8" s="269"/>
+      <c r="B8" s="258"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="264"/>
       <c r="F8" s="121"/>
-      <c r="G8" s="231" t="s">
+      <c r="G8" s="225" t="s">
         <v>175</v>
       </c>
-      <c r="H8" s="171" t="str">
+      <c r="H8" s="167" t="str">
         <f>IF(input!D12="6N01A","●","")</f>
         <v/>
       </c>
-      <c r="I8" s="172"/>
-      <c r="J8" s="180">
+      <c r="I8" s="168"/>
+      <c r="J8" s="176">
         <f>input!D31</f>
         <v>0</v>
       </c>
-      <c r="K8" s="234">
+      <c r="K8" s="228">
         <f>input!D10*1</f>
         <v>0</v>
       </c>
-      <c r="L8" s="235">
+      <c r="L8" s="229">
         <f>input!D15</f>
         <v>0</v>
       </c>
-      <c r="M8" s="293"/>
+      <c r="M8" s="288"/>
       <c r="N8" s="123"/>
-      <c r="O8" s="376"/>
-      <c r="P8" s="377"/>
-      <c r="Q8" s="298" t="s">
+      <c r="O8" s="362"/>
+      <c r="P8" s="363"/>
+      <c r="Q8" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="R8" s="353" t="s">
+      <c r="R8" s="338" t="s">
         <v>143</v>
       </c>
-      <c r="S8" s="356"/>
-      <c r="T8" s="358"/>
-      <c r="U8" s="360"/>
+      <c r="S8" s="341"/>
+      <c r="T8" s="343"/>
+      <c r="U8" s="345"/>
     </row>
     <row r="9" spans="2:31" ht="6" customHeight="1">
       <c r="B9" s="25"/>
@@ -3892,27 +3898,27 @@
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="270" t="s">
+      <c r="H9" s="265" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="271"/>
-      <c r="J9" s="276" t="str">
+      <c r="I9" s="266"/>
+      <c r="J9" s="271" t="str">
         <f>input!D36&amp;"-"&amp;input!D37</f>
         <v>-</v>
       </c>
-      <c r="K9" s="312" t="s">
+      <c r="K9" s="307" t="s">
         <v>150</v>
       </c>
-      <c r="L9" s="313"/>
-      <c r="M9" s="318"/>
+      <c r="L9" s="308"/>
+      <c r="M9" s="313"/>
       <c r="N9" s="30"/>
-      <c r="O9" s="376"/>
-      <c r="P9" s="377"/>
-      <c r="Q9" s="299"/>
-      <c r="R9" s="354"/>
-      <c r="S9" s="361"/>
-      <c r="T9" s="359"/>
-      <c r="U9" s="357"/>
+      <c r="O9" s="362"/>
+      <c r="P9" s="363"/>
+      <c r="Q9" s="294"/>
+      <c r="R9" s="339"/>
+      <c r="S9" s="346"/>
+      <c r="T9" s="344"/>
+      <c r="U9" s="342"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" thickBot="1">
       <c r="B10" s="31"/>
@@ -3920,76 +3926,76 @@
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="272"/>
-      <c r="I10" s="273"/>
-      <c r="J10" s="277"/>
-      <c r="K10" s="314"/>
-      <c r="L10" s="315"/>
-      <c r="M10" s="319"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="267"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="272"/>
+      <c r="K10" s="309"/>
+      <c r="L10" s="310"/>
+      <c r="M10" s="314"/>
       <c r="N10" s="30"/>
-      <c r="O10" s="378"/>
-      <c r="P10" s="379"/>
-      <c r="Q10" s="300"/>
-      <c r="R10" s="355"/>
-      <c r="S10" s="362"/>
-      <c r="T10" s="363"/>
-      <c r="U10" s="364"/>
+      <c r="O10" s="364"/>
+      <c r="P10" s="365"/>
+      <c r="Q10" s="295"/>
+      <c r="R10" s="340"/>
+      <c r="S10" s="347"/>
+      <c r="T10" s="348"/>
+      <c r="U10" s="349"/>
     </row>
     <row r="11" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B11" s="301" t="s">
+      <c r="B11" s="296" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="321" t="str">
+      <c r="C11" s="316" t="str">
         <f>IF(C13=0,"","DR"&amp;MID(C13,2,4))</f>
         <v/>
       </c>
-      <c r="D11" s="321"/>
-      <c r="E11" s="322"/>
+      <c r="D11" s="316"/>
+      <c r="E11" s="317"/>
       <c r="F11" s="35"/>
-      <c r="H11" s="274"/>
-      <c r="I11" s="275"/>
-      <c r="J11" s="278"/>
-      <c r="K11" s="316"/>
-      <c r="L11" s="317"/>
-      <c r="M11" s="320"/>
+      <c r="H11" s="269"/>
+      <c r="I11" s="270"/>
+      <c r="J11" s="273"/>
+      <c r="K11" s="311"/>
+      <c r="L11" s="312"/>
+      <c r="M11" s="315"/>
       <c r="N11" s="30"/>
-      <c r="O11" s="284"/>
-      <c r="P11" s="285"/>
-      <c r="Q11" s="347"/>
-      <c r="R11" s="350"/>
-      <c r="S11" s="345" t="s">
+      <c r="O11" s="279"/>
+      <c r="P11" s="280"/>
+      <c r="Q11" s="332"/>
+      <c r="R11" s="335"/>
+      <c r="S11" s="329" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="346"/>
-      <c r="U11" s="335"/>
+      <c r="T11" s="330"/>
+      <c r="U11" s="331"/>
     </row>
     <row r="12" spans="2:31" ht="27.75" customHeight="1">
-      <c r="B12" s="302"/>
-      <c r="C12" s="323"/>
-      <c r="D12" s="323"/>
-      <c r="E12" s="324"/>
+      <c r="B12" s="297"/>
+      <c r="C12" s="318"/>
+      <c r="D12" s="318"/>
+      <c r="E12" s="319"/>
       <c r="F12" s="25"/>
       <c r="J12" s="101"/>
       <c r="N12" s="30"/>
-      <c r="O12" s="286"/>
-      <c r="P12" s="287"/>
-      <c r="Q12" s="348"/>
-      <c r="R12" s="351"/>
-      <c r="S12" s="365"/>
-      <c r="T12" s="366"/>
-      <c r="U12" s="367"/>
+      <c r="O12" s="281"/>
+      <c r="P12" s="282"/>
+      <c r="Q12" s="333"/>
+      <c r="R12" s="336"/>
+      <c r="S12" s="350"/>
+      <c r="T12" s="351"/>
+      <c r="U12" s="352"/>
     </row>
     <row r="13" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B13" s="262" t="s">
+      <c r="B13" s="257" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="323">
+      <c r="C13" s="318">
         <f>input!D32</f>
         <v>0</v>
       </c>
-      <c r="D13" s="323"/>
-      <c r="E13" s="324"/>
+      <c r="D13" s="318"/>
+      <c r="E13" s="319"/>
       <c r="F13" s="25"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
@@ -3999,19 +4005,19 @@
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
       <c r="N13" s="30"/>
-      <c r="O13" s="288"/>
-      <c r="P13" s="289"/>
-      <c r="Q13" s="349"/>
-      <c r="R13" s="352"/>
-      <c r="S13" s="327"/>
-      <c r="T13" s="368"/>
-      <c r="U13" s="369"/>
+      <c r="O13" s="283"/>
+      <c r="P13" s="284"/>
+      <c r="Q13" s="334"/>
+      <c r="R13" s="337"/>
+      <c r="S13" s="353"/>
+      <c r="T13" s="354"/>
+      <c r="U13" s="355"/>
     </row>
     <row r="14" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B14" s="327"/>
-      <c r="C14" s="330"/>
-      <c r="D14" s="330"/>
-      <c r="E14" s="331"/>
+      <c r="B14" s="353"/>
+      <c r="C14" s="374"/>
+      <c r="D14" s="374"/>
+      <c r="E14" s="375"/>
       <c r="F14" s="35"/>
       <c r="G14" s="120" t="s">
         <v>5</v>
@@ -4023,79 +4029,79 @@
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
       <c r="N14" s="30"/>
-      <c r="O14" s="356" t="s">
+      <c r="O14" s="341" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="357"/>
-      <c r="Q14" s="356" t="s">
+      <c r="P14" s="342"/>
+      <c r="Q14" s="341" t="s">
         <v>144</v>
       </c>
-      <c r="R14" s="358"/>
-      <c r="S14" s="359"/>
-      <c r="T14" s="359"/>
-      <c r="U14" s="357"/>
+      <c r="R14" s="343"/>
+      <c r="S14" s="344"/>
+      <c r="T14" s="344"/>
+      <c r="U14" s="342"/>
     </row>
     <row r="15" spans="2:31" ht="52.5" customHeight="1" thickBot="1">
-      <c r="B15" s="190" t="s">
+      <c r="B15" s="186" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="191"/>
-      <c r="D15" s="191"/>
-      <c r="E15" s="191"/>
-      <c r="F15" s="213"/>
-      <c r="G15" s="183" t="s">
+      <c r="C15" s="187"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="209"/>
+      <c r="G15" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="184" t="s">
+      <c r="H15" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="184" t="s">
+      <c r="I15" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="J15" s="184" t="s">
+      <c r="J15" s="180" t="s">
         <v>116</v>
       </c>
-      <c r="K15" s="185" t="s">
+      <c r="K15" s="181" t="s">
         <v>117</v>
       </c>
-      <c r="L15" s="184" t="s">
+      <c r="L15" s="180" t="s">
         <v>139</v>
       </c>
-      <c r="M15" s="184" t="s">
+      <c r="M15" s="180" t="s">
         <v>151</v>
       </c>
-      <c r="N15" s="185" t="s">
+      <c r="N15" s="181" t="s">
         <v>138</v>
       </c>
-      <c r="O15" s="199" t="s">
+      <c r="O15" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="P15" s="184" t="s">
+      <c r="P15" s="180" t="s">
         <v>119</v>
       </c>
-      <c r="Q15" s="186">
+      <c r="Q15" s="182">
         <v>302</v>
       </c>
-      <c r="R15" s="186">
+      <c r="R15" s="182">
         <v>304</v>
       </c>
-      <c r="S15" s="186">
+      <c r="S15" s="182">
         <v>314</v>
       </c>
-      <c r="T15" s="186">
+      <c r="T15" s="182">
         <v>316</v>
       </c>
-      <c r="U15" s="187">
+      <c r="U15" s="183">
         <v>318</v>
       </c>
     </row>
     <row r="16" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B16" s="332" t="s">
+      <c r="B16" s="376" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="333"/>
-      <c r="D16" s="334"/>
-      <c r="E16" s="335"/>
+      <c r="C16" s="377"/>
+      <c r="D16" s="378"/>
+      <c r="E16" s="331"/>
       <c r="F16" s="35"/>
       <c r="G16" s="119">
         <v>1</v>
@@ -4127,16 +4133,16 @@
       <c r="AE16" s="35"/>
     </row>
     <row r="17" spans="2:31" ht="35.1" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="136" t="s">
+      <c r="C17" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="328" t="s">
+      <c r="D17" s="372" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="329"/>
+      <c r="E17" s="373"/>
       <c r="F17" s="35"/>
       <c r="G17" s="119">
         <v>2</v>
@@ -4170,8 +4176,8 @@
     <row r="18" spans="2:31" ht="35.1" customHeight="1">
       <c r="B18" s="114"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="325"/>
-      <c r="E18" s="326"/>
+      <c r="D18" s="370"/>
+      <c r="E18" s="371"/>
       <c r="F18" s="35"/>
       <c r="G18" s="119">
         <v>3</v>
@@ -4205,8 +4211,8 @@
     <row r="19" spans="2:31" ht="35.1" customHeight="1">
       <c r="B19" s="114"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="325"/>
-      <c r="E19" s="326"/>
+      <c r="D19" s="370"/>
+      <c r="E19" s="371"/>
       <c r="F19" s="35"/>
       <c r="G19" s="119">
         <v>4</v>
@@ -4232,10 +4238,10 @@
       <c r="T19" s="37"/>
       <c r="U19" s="38"/>
       <c r="W19" s="39"/>
-      <c r="X19" s="343"/>
-      <c r="Y19" s="261"/>
-      <c r="Z19" s="261"/>
-      <c r="AA19" s="261"/>
+      <c r="X19" s="327"/>
+      <c r="Y19" s="256"/>
+      <c r="Z19" s="256"/>
+      <c r="AA19" s="256"/>
       <c r="AB19" s="35"/>
       <c r="AC19" s="35"/>
       <c r="AD19" s="35"/>
@@ -4244,8 +4250,8 @@
     <row r="20" spans="2:31" ht="35.1" customHeight="1">
       <c r="B20" s="114"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="325"/>
-      <c r="E20" s="326"/>
+      <c r="D20" s="370"/>
+      <c r="E20" s="371"/>
       <c r="F20" s="35"/>
       <c r="G20" s="119">
         <v>5</v>
@@ -4269,8 +4275,8 @@
       <c r="W20" s="35"/>
       <c r="X20" s="116"/>
       <c r="Y20" s="34"/>
-      <c r="Z20" s="344"/>
-      <c r="AA20" s="261"/>
+      <c r="Z20" s="328"/>
+      <c r="AA20" s="256"/>
       <c r="AB20" s="35"/>
       <c r="AC20" s="35"/>
       <c r="AD20" s="35"/>
@@ -4279,8 +4285,8 @@
     <row r="21" spans="2:31" ht="35.1" customHeight="1">
       <c r="B21" s="114"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="325"/>
-      <c r="E21" s="326"/>
+      <c r="D21" s="370"/>
+      <c r="E21" s="371"/>
       <c r="F21" s="35"/>
       <c r="G21" s="119">
         <v>6</v>
@@ -4305,8 +4311,8 @@
       <c r="W21" s="35"/>
       <c r="X21" s="116"/>
       <c r="Y21" s="117"/>
-      <c r="Z21" s="336"/>
-      <c r="AA21" s="261"/>
+      <c r="Z21" s="320"/>
+      <c r="AA21" s="256"/>
       <c r="AB21" s="35"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="35"/>
@@ -4315,8 +4321,8 @@
     <row r="22" spans="2:31" ht="35.1" customHeight="1">
       <c r="B22" s="114"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="325"/>
-      <c r="E22" s="326"/>
+      <c r="D22" s="370"/>
+      <c r="E22" s="371"/>
       <c r="F22" s="35"/>
       <c r="G22" s="119">
         <v>7</v>
@@ -4327,7 +4333,7 @@
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
       <c r="M22" s="27"/>
-      <c r="N22" s="206"/>
+      <c r="N22" s="202"/>
       <c r="O22" s="119" t="s">
         <v>120</v>
       </c>
@@ -4341,8 +4347,8 @@
       <c r="W22" s="35"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="35"/>
-      <c r="Z22" s="261"/>
-      <c r="AA22" s="261"/>
+      <c r="Z22" s="256"/>
+      <c r="AA22" s="256"/>
       <c r="AB22" s="35"/>
       <c r="AC22" s="35"/>
       <c r="AD22" s="35"/>
@@ -4351,8 +4357,8 @@
     <row r="23" spans="2:31" ht="35.1" customHeight="1">
       <c r="B23" s="114"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="325"/>
-      <c r="E23" s="326"/>
+      <c r="D23" s="370"/>
+      <c r="E23" s="371"/>
       <c r="F23" s="35"/>
       <c r="G23" s="119">
         <v>8</v>
@@ -4363,7 +4369,7 @@
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="206"/>
+      <c r="N23" s="202"/>
       <c r="O23" s="119" t="s">
         <v>120</v>
       </c>
@@ -4387,8 +4393,8 @@
     <row r="24" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
       <c r="B24" s="115"/>
       <c r="C24" s="29"/>
-      <c r="D24" s="382"/>
-      <c r="E24" s="383"/>
+      <c r="D24" s="368"/>
+      <c r="E24" s="369"/>
       <c r="F24" s="35"/>
       <c r="G24" s="119">
         <v>9</v>
@@ -4399,7 +4405,7 @@
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
       <c r="M24" s="27"/>
-      <c r="N24" s="206"/>
+      <c r="N24" s="202"/>
       <c r="O24" s="119" t="s">
         <v>120</v>
       </c>
@@ -4421,12 +4427,12 @@
       <c r="AE24" s="35"/>
     </row>
     <row r="25" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B25" s="192" t="s">
+      <c r="B25" s="188" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="191"/>
-      <c r="D25" s="191"/>
-      <c r="E25" s="191"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="187"/>
       <c r="F25" s="35"/>
       <c r="G25" s="119">
         <v>10</v>
@@ -4437,7 +4443,7 @@
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
       <c r="M25" s="27"/>
-      <c r="N25" s="206"/>
+      <c r="N25" s="202"/>
       <c r="O25" s="119" t="s">
         <v>120</v>
       </c>
@@ -4451,14 +4457,14 @@
       <c r="W25" s="40"/>
     </row>
     <row r="26" spans="2:31" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B26" s="345" t="s">
+      <c r="B26" s="329" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="335"/>
-      <c r="D26" s="345" t="s">
+      <c r="C26" s="331"/>
+      <c r="D26" s="329" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="335"/>
+      <c r="E26" s="331"/>
       <c r="F26" s="35"/>
       <c r="G26" s="119">
         <v>11</v>
@@ -4469,7 +4475,7 @@
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
       <c r="M26" s="36"/>
-      <c r="N26" s="206"/>
+      <c r="N26" s="202"/>
       <c r="O26" s="119" t="s">
         <v>120</v>
       </c>
@@ -4483,17 +4489,17 @@
       <c r="W26" s="40"/>
     </row>
     <row r="27" spans="2:31" ht="39.75" customHeight="1">
-      <c r="B27" s="137" t="s">
+      <c r="B27" s="133" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="138" t="str">
+      <c r="C27" s="134" t="str">
         <f>input!I12</f>
         <v/>
       </c>
-      <c r="D27" s="137" t="s">
+      <c r="D27" s="133" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="204" t="s">
+      <c r="E27" s="200" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="35"/>
@@ -4506,7 +4512,7 @@
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
       <c r="M27" s="36"/>
-      <c r="N27" s="206"/>
+      <c r="N27" s="202"/>
       <c r="O27" s="119" t="s">
         <v>120</v>
       </c>
@@ -4520,17 +4526,17 @@
       <c r="W27" s="40"/>
     </row>
     <row r="28" spans="2:31" ht="39.75" customHeight="1">
-      <c r="B28" s="139" t="s">
+      <c r="B28" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="140">
+      <c r="C28" s="136">
         <f>input!D20</f>
         <v>0</v>
       </c>
-      <c r="D28" s="139" t="s">
+      <c r="D28" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="141"/>
+      <c r="E28" s="137"/>
       <c r="F28" s="35"/>
       <c r="G28" s="119">
         <v>13</v>
@@ -4541,7 +4547,7 @@
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
       <c r="M28" s="36"/>
-      <c r="N28" s="206"/>
+      <c r="N28" s="202"/>
       <c r="O28" s="119" t="s">
         <v>120</v>
       </c>
@@ -4555,17 +4561,17 @@
       <c r="W28" s="40"/>
     </row>
     <row r="29" spans="2:31" ht="39.75" customHeight="1">
-      <c r="B29" s="139" t="s">
+      <c r="B29" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="142">
+      <c r="C29" s="138">
         <f>input!D24</f>
         <v>0</v>
       </c>
-      <c r="D29" s="139" t="s">
+      <c r="D29" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="141"/>
+      <c r="E29" s="137"/>
       <c r="F29" s="35"/>
       <c r="G29" s="119">
         <v>14</v>
@@ -4576,7 +4582,7 @@
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
       <c r="M29" s="36"/>
-      <c r="N29" s="206"/>
+      <c r="N29" s="202"/>
       <c r="O29" s="119" t="s">
         <v>120</v>
       </c>
@@ -4590,17 +4596,17 @@
       <c r="W29" s="40"/>
     </row>
     <row r="30" spans="2:31" ht="39.75" customHeight="1">
-      <c r="B30" s="139" t="s">
+      <c r="B30" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="129">
+      <c r="C30" s="128">
         <f>input!D23</f>
         <v>0</v>
       </c>
-      <c r="D30" s="139" t="s">
+      <c r="D30" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="141"/>
+      <c r="E30" s="137"/>
       <c r="F30" s="35"/>
       <c r="G30" s="119">
         <v>15</v>
@@ -4611,7 +4617,7 @@
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
-      <c r="N30" s="206"/>
+      <c r="N30" s="202"/>
       <c r="O30" s="119" t="s">
         <v>120</v>
       </c>
@@ -4625,17 +4631,17 @@
       <c r="W30" s="40"/>
     </row>
     <row r="31" spans="2:31" ht="39.75" customHeight="1">
-      <c r="B31" s="139" t="s">
+      <c r="B31" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="143" t="str">
+      <c r="C31" s="139" t="str">
         <f>input!I13</f>
         <v>°-℃/m</v>
       </c>
-      <c r="D31" s="139" t="s">
+      <c r="D31" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="144"/>
+      <c r="E31" s="140"/>
       <c r="F31" s="35"/>
       <c r="G31" s="119">
         <v>16</v>
@@ -4646,7 +4652,7 @@
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
       <c r="M31" s="36"/>
-      <c r="N31" s="206"/>
+      <c r="N31" s="202"/>
       <c r="O31" s="119" t="s">
         <v>120</v>
       </c>
@@ -4660,17 +4666,17 @@
       <c r="W31" s="40"/>
     </row>
     <row r="32" spans="2:31" ht="39.75" customHeight="1">
-      <c r="B32" s="139" t="s">
+      <c r="B32" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="145">
+      <c r="C32" s="141">
         <f>input!D22</f>
         <v>0</v>
       </c>
-      <c r="D32" s="139" t="s">
+      <c r="D32" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="141"/>
+      <c r="E32" s="137"/>
       <c r="F32" s="35"/>
       <c r="G32" s="119">
         <v>17</v>
@@ -4681,7 +4687,7 @@
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
-      <c r="N32" s="206"/>
+      <c r="N32" s="202"/>
       <c r="O32" s="119" t="s">
         <v>120</v>
       </c>
@@ -4695,17 +4701,17 @@
       <c r="W32" s="40"/>
     </row>
     <row r="33" spans="2:28" ht="39.75" customHeight="1">
-      <c r="B33" s="139" t="s">
+      <c r="B33" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="143">
+      <c r="C33" s="139">
         <f>input!D27</f>
         <v>0</v>
       </c>
-      <c r="D33" s="139" t="s">
+      <c r="D33" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="141"/>
+      <c r="E33" s="137"/>
       <c r="F33" s="35"/>
       <c r="G33" s="119">
         <v>18</v>
@@ -4716,7 +4722,7 @@
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
       <c r="M33" s="36"/>
-      <c r="N33" s="206"/>
+      <c r="N33" s="202"/>
       <c r="O33" s="119" t="s">
         <v>120</v>
       </c>
@@ -4730,17 +4736,17 @@
       <c r="W33" s="40"/>
     </row>
     <row r="34" spans="2:28" ht="36" customHeight="1">
-      <c r="B34" s="139" t="s">
+      <c r="B34" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="233">
+      <c r="C34" s="227">
         <f>input!D29</f>
         <v>0</v>
       </c>
-      <c r="D34" s="139" t="s">
+      <c r="D34" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="141"/>
+      <c r="E34" s="137"/>
       <c r="F34" s="35"/>
       <c r="G34" s="119">
         <v>19</v>
@@ -4751,7 +4757,7 @@
       <c r="K34" s="36"/>
       <c r="L34" s="36"/>
       <c r="M34" s="36"/>
-      <c r="N34" s="206"/>
+      <c r="N34" s="202"/>
       <c r="O34" s="119" t="s">
         <v>120</v>
       </c>
@@ -4765,17 +4771,17 @@
       <c r="W34" s="43"/>
     </row>
     <row r="35" spans="2:28" ht="34.5" customHeight="1">
-      <c r="B35" s="139" t="s">
+      <c r="B35" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="146">
+      <c r="C35" s="142">
         <f>input!D28</f>
         <v>0</v>
       </c>
-      <c r="D35" s="139" t="s">
+      <c r="D35" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="203" t="s">
+      <c r="E35" s="199" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="35"/>
@@ -4788,7 +4794,7 @@
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
       <c r="M35" s="36"/>
-      <c r="N35" s="206"/>
+      <c r="N35" s="202"/>
       <c r="O35" s="119" t="s">
         <v>120</v>
       </c>
@@ -4800,17 +4806,17 @@
       <c r="U35" s="38"/>
     </row>
     <row r="36" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B36" s="139" t="s">
+      <c r="B36" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="147" t="str">
+      <c r="C36" s="143" t="str">
         <f>IF(input!D30&lt;&gt;"",input!D30,"Air")</f>
         <v>Air</v>
       </c>
-      <c r="D36" s="139" t="s">
+      <c r="D36" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="148" t="s">
+      <c r="E36" s="144" t="s">
         <v>86</v>
       </c>
       <c r="F36" s="35"/>
@@ -4823,7 +4829,7 @@
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
       <c r="M36" s="36"/>
-      <c r="N36" s="206"/>
+      <c r="N36" s="202"/>
       <c r="O36" s="119" t="s">
         <v>120</v>
       </c>
@@ -4835,17 +4841,17 @@
       <c r="U36" s="38"/>
     </row>
     <row r="37" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="C37" s="224">
+      <c r="C37" s="219">
         <f>input!I14</f>
         <v>50</v>
       </c>
-      <c r="D37" s="149" t="s">
+      <c r="D37" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="215">
+      <c r="E37" s="210">
         <f>input!D33</f>
         <v>0</v>
       </c>
@@ -4859,7 +4865,7 @@
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
-      <c r="N37" s="206"/>
+      <c r="N37" s="202"/>
       <c r="O37" s="119" t="s">
         <v>120</v>
       </c>
@@ -4871,7 +4877,7 @@
       <c r="U37" s="38"/>
     </row>
     <row r="38" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B38" s="193"/>
+      <c r="B38" s="189"/>
       <c r="C38" s="104"/>
       <c r="D38" s="104"/>
       <c r="E38" s="104"/>
@@ -4885,7 +4891,7 @@
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
       <c r="M38" s="36"/>
-      <c r="N38" s="206"/>
+      <c r="N38" s="202"/>
       <c r="O38" s="119" t="s">
         <v>120</v>
       </c>
@@ -4897,11 +4903,11 @@
       <c r="U38" s="38"/>
     </row>
     <row r="39" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B39" s="380" t="s">
+      <c r="B39" s="366" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="381"/>
-      <c r="D39" s="150"/>
+      <c r="C39" s="367"/>
+      <c r="D39" s="146"/>
       <c r="E39" s="112"/>
       <c r="F39" s="104"/>
       <c r="G39" s="119">
@@ -4913,7 +4919,7 @@
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
       <c r="M39" s="36"/>
-      <c r="N39" s="206"/>
+      <c r="N39" s="202"/>
       <c r="O39" s="119" t="s">
         <v>120</v>
       </c>
@@ -4925,13 +4931,13 @@
       <c r="U39" s="38"/>
     </row>
     <row r="40" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B40" s="208" t="s">
+      <c r="B40" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="151" t="s">
+      <c r="C40" s="147" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="152" t="s">
+      <c r="D40" s="148" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="45"/>
@@ -4945,7 +4951,7 @@
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
-      <c r="N40" s="206"/>
+      <c r="N40" s="202"/>
       <c r="O40" s="119" t="s">
         <v>120</v>
       </c>
@@ -4957,11 +4963,11 @@
       <c r="U40" s="38"/>
     </row>
     <row r="41" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B41" s="209" t="s">
+      <c r="B41" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="153"/>
-      <c r="D41" s="154"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="150"/>
       <c r="E41" s="45"/>
       <c r="F41" s="104"/>
       <c r="G41" s="119">
@@ -4973,7 +4979,7 @@
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
       <c r="M41" s="36"/>
-      <c r="N41" s="206"/>
+      <c r="N41" s="202"/>
       <c r="O41" s="119" t="s">
         <v>120</v>
       </c>
@@ -4985,11 +4991,11 @@
       <c r="U41" s="38"/>
     </row>
     <row r="42" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B42" s="210" t="s">
+      <c r="B42" s="206" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="155"/>
-      <c r="D42" s="156"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="152"/>
       <c r="E42" s="45"/>
       <c r="F42" s="104"/>
       <c r="G42" s="119">
@@ -5001,7 +5007,7 @@
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
-      <c r="N42" s="206"/>
+      <c r="N42" s="202"/>
       <c r="O42" s="119" t="s">
         <v>120</v>
       </c>
@@ -5013,7 +5019,7 @@
       <c r="U42" s="38"/>
     </row>
     <row r="43" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B43" s="194"/>
+      <c r="B43" s="190"/>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
@@ -5027,7 +5033,7 @@
       <c r="K43" s="36"/>
       <c r="L43" s="36"/>
       <c r="M43" s="36"/>
-      <c r="N43" s="206"/>
+      <c r="N43" s="202"/>
       <c r="O43" s="119" t="s">
         <v>120</v>
       </c>
@@ -5039,12 +5045,12 @@
       <c r="U43" s="38"/>
     </row>
     <row r="44" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B44" s="192" t="s">
+      <c r="B44" s="188" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="157"/>
-      <c r="D44" s="157"/>
-      <c r="E44" s="157"/>
+      <c r="C44" s="153"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="153"/>
       <c r="F44" s="104"/>
       <c r="G44" s="119">
         <v>29</v>
@@ -5055,7 +5061,7 @@
       <c r="K44" s="36"/>
       <c r="L44" s="36"/>
       <c r="M44" s="36"/>
-      <c r="N44" s="206"/>
+      <c r="N44" s="202"/>
       <c r="O44" s="119" t="s">
         <v>120</v>
       </c>
@@ -5067,14 +5073,14 @@
       <c r="U44" s="38"/>
     </row>
     <row r="45" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B45" s="389" t="s">
+      <c r="B45" s="384" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="391" t="s">
+      <c r="C45" s="386" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="392"/>
-      <c r="E45" s="393"/>
+      <c r="D45" s="387"/>
+      <c r="E45" s="388"/>
       <c r="F45" s="104"/>
       <c r="G45" s="119">
         <v>30</v>
@@ -5085,7 +5091,7 @@
       <c r="K45" s="36"/>
       <c r="L45" s="36"/>
       <c r="M45" s="36"/>
-      <c r="N45" s="206"/>
+      <c r="N45" s="202"/>
       <c r="O45" s="119" t="s">
         <v>120</v>
       </c>
@@ -5097,14 +5103,14 @@
       <c r="U45" s="38"/>
     </row>
     <row r="46" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B46" s="390"/>
-      <c r="C46" s="211" t="s">
+      <c r="B46" s="385"/>
+      <c r="C46" s="207" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="147" t="s">
+      <c r="D46" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="216" t="s">
+      <c r="E46" s="211" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="104"/>
@@ -5117,7 +5123,7 @@
       <c r="K46" s="36"/>
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
-      <c r="N46" s="206"/>
+      <c r="N46" s="202"/>
       <c r="O46" s="119" t="s">
         <v>120</v>
       </c>
@@ -5129,12 +5135,12 @@
       <c r="U46" s="38"/>
     </row>
     <row r="47" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B47" s="158" t="s">
+      <c r="B47" s="154" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="159"/>
-      <c r="D47" s="153"/>
-      <c r="E47" s="154"/>
+      <c r="C47" s="155"/>
+      <c r="D47" s="149"/>
+      <c r="E47" s="150"/>
       <c r="F47" s="104"/>
       <c r="G47" s="119">
         <v>32</v>
@@ -5145,7 +5151,7 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="206"/>
+      <c r="N47" s="202"/>
       <c r="O47" s="119" t="s">
         <v>120</v>
       </c>
@@ -5163,12 +5169,12 @@
       <c r="AB47" s="104"/>
     </row>
     <row r="48" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B48" s="160" t="s">
+      <c r="B48" s="156" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="207"/>
-      <c r="D48" s="155"/>
-      <c r="E48" s="156"/>
+      <c r="C48" s="203"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="152"/>
       <c r="F48" s="104"/>
       <c r="G48" s="119">
         <v>33</v>
@@ -5179,7 +5185,7 @@
       <c r="K48" s="36"/>
       <c r="L48" s="36"/>
       <c r="M48" s="36"/>
-      <c r="N48" s="206"/>
+      <c r="N48" s="202"/>
       <c r="O48" s="119" t="s">
         <v>120</v>
       </c>
@@ -5197,14 +5203,14 @@
       <c r="AB48" s="104"/>
     </row>
     <row r="49" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B49" s="389" t="s">
+      <c r="B49" s="384" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="391" t="s">
+      <c r="C49" s="386" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="392"/>
-      <c r="E49" s="393"/>
+      <c r="D49" s="387"/>
+      <c r="E49" s="388"/>
       <c r="F49" s="35"/>
       <c r="G49" s="119">
         <v>34</v>
@@ -5215,7 +5221,7 @@
       <c r="K49" s="36"/>
       <c r="L49" s="36"/>
       <c r="M49" s="36"/>
-      <c r="N49" s="206"/>
+      <c r="N49" s="202"/>
       <c r="O49" s="119" t="s">
         <v>120</v>
       </c>
@@ -5233,14 +5239,14 @@
       <c r="AB49" s="35"/>
     </row>
     <row r="50" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B50" s="390"/>
-      <c r="C50" s="211" t="s">
+      <c r="B50" s="385"/>
+      <c r="C50" s="207" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="147" t="s">
+      <c r="D50" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="163" t="s">
+      <c r="E50" s="159" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="35"/>
@@ -5253,7 +5259,7 @@
       <c r="K50" s="36"/>
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
-      <c r="N50" s="206"/>
+      <c r="N50" s="202"/>
       <c r="O50" s="119" t="s">
         <v>120</v>
       </c>
@@ -5271,12 +5277,12 @@
       <c r="AB50" s="35"/>
     </row>
     <row r="51" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B51" s="158" t="s">
+      <c r="B51" s="154" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="159"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="161"/>
+      <c r="C51" s="155"/>
+      <c r="D51" s="149"/>
+      <c r="E51" s="157"/>
       <c r="F51" s="35"/>
       <c r="G51" s="119">
         <v>36</v>
@@ -5287,7 +5293,7 @@
       <c r="K51" s="36"/>
       <c r="L51" s="36"/>
       <c r="M51" s="36"/>
-      <c r="N51" s="206"/>
+      <c r="N51" s="202"/>
       <c r="O51" s="119" t="s">
         <v>120</v>
       </c>
@@ -5305,12 +5311,12 @@
       <c r="AB51" s="35"/>
     </row>
     <row r="52" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B52" s="160" t="s">
+      <c r="B52" s="156" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="207"/>
-      <c r="D52" s="155"/>
-      <c r="E52" s="162"/>
+      <c r="C52" s="203"/>
+      <c r="D52" s="151"/>
+      <c r="E52" s="158"/>
       <c r="F52" s="35"/>
       <c r="G52" s="119">
         <v>37</v>
@@ -5321,7 +5327,7 @@
       <c r="K52" s="36"/>
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
-      <c r="N52" s="206"/>
+      <c r="N52" s="202"/>
       <c r="O52" s="119" t="s">
         <v>120</v>
       </c>
@@ -5339,10 +5345,10 @@
       <c r="AB52" s="35"/>
     </row>
     <row r="53" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B53" s="229"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="157"/>
+      <c r="B53" s="223"/>
+      <c r="C53" s="187"/>
+      <c r="D53" s="187"/>
+      <c r="E53" s="153"/>
       <c r="F53" s="35"/>
       <c r="G53" s="119">
         <v>38</v>
@@ -5353,7 +5359,7 @@
       <c r="K53" s="36"/>
       <c r="L53" s="36"/>
       <c r="M53" s="36"/>
-      <c r="N53" s="227"/>
+      <c r="N53" s="221"/>
       <c r="O53" s="119" t="s">
         <v>120</v>
       </c>
@@ -5371,12 +5377,12 @@
       <c r="AB53" s="35"/>
     </row>
     <row r="54" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B54" s="337" t="s">
+      <c r="B54" s="321" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="397"/>
-      <c r="D54" s="386"/>
-      <c r="E54" s="387"/>
+      <c r="C54" s="392"/>
+      <c r="D54" s="381"/>
+      <c r="E54" s="382"/>
       <c r="F54" s="35"/>
       <c r="G54" s="119">
         <v>39</v>
@@ -5387,7 +5393,7 @@
       <c r="K54" s="36"/>
       <c r="L54" s="36"/>
       <c r="M54" s="36"/>
-      <c r="N54" s="227"/>
+      <c r="N54" s="221"/>
       <c r="O54" s="119" t="s">
         <v>120</v>
       </c>
@@ -5405,12 +5411,12 @@
       <c r="AB54" s="35"/>
     </row>
     <row r="55" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B55" s="395" t="s">
+      <c r="B55" s="390" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="396"/>
-      <c r="D55" s="384"/>
-      <c r="E55" s="385"/>
+      <c r="C55" s="391"/>
+      <c r="D55" s="379"/>
+      <c r="E55" s="380"/>
       <c r="F55" s="35"/>
       <c r="G55" s="119">
         <v>40</v>
@@ -5421,7 +5427,7 @@
       <c r="K55" s="36"/>
       <c r="L55" s="36"/>
       <c r="M55" s="36"/>
-      <c r="N55" s="227"/>
+      <c r="N55" s="221"/>
       <c r="O55" s="119" t="s">
         <v>120</v>
       </c>
@@ -5439,12 +5445,12 @@
       <c r="AB55" s="35"/>
     </row>
     <row r="56" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B56" s="339" t="s">
+      <c r="B56" s="323" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="398"/>
-      <c r="D56" s="403"/>
-      <c r="E56" s="410"/>
+      <c r="C56" s="393"/>
+      <c r="D56" s="398"/>
+      <c r="E56" s="405"/>
       <c r="F56" s="35"/>
       <c r="G56" s="119">
         <v>41</v>
@@ -5455,7 +5461,7 @@
       <c r="K56" s="36"/>
       <c r="L56" s="36"/>
       <c r="M56" s="36"/>
-      <c r="N56" s="227"/>
+      <c r="N56" s="221"/>
       <c r="O56" s="119" t="s">
         <v>120</v>
       </c>
@@ -5473,10 +5479,10 @@
       <c r="AB56" s="35"/>
     </row>
     <row r="57" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B57" s="229"/>
-      <c r="C57" s="191"/>
-      <c r="D57" s="191"/>
-      <c r="E57" s="157"/>
+      <c r="B57" s="223"/>
+      <c r="C57" s="187"/>
+      <c r="D57" s="187"/>
+      <c r="E57" s="153"/>
       <c r="F57" s="35"/>
       <c r="G57" s="119">
         <v>42</v>
@@ -5487,7 +5493,7 @@
       <c r="K57" s="36"/>
       <c r="L57" s="36"/>
       <c r="M57" s="36"/>
-      <c r="N57" s="227"/>
+      <c r="N57" s="221"/>
       <c r="O57" s="119" t="s">
         <v>120</v>
       </c>
@@ -5505,12 +5511,12 @@
       <c r="AB57" s="35"/>
     </row>
     <row r="58" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B58" s="407" t="s">
+      <c r="B58" s="402" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="408"/>
-      <c r="D58" s="408"/>
-      <c r="E58" s="409"/>
+      <c r="C58" s="403"/>
+      <c r="D58" s="403"/>
+      <c r="E58" s="404"/>
       <c r="F58" s="35"/>
       <c r="G58" s="119">
         <v>43</v>
@@ -5521,7 +5527,7 @@
       <c r="K58" s="36"/>
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
-      <c r="N58" s="227"/>
+      <c r="N58" s="221"/>
       <c r="O58" s="119" t="s">
         <v>120</v>
       </c>
@@ -5539,14 +5545,14 @@
       <c r="AB58" s="35"/>
     </row>
     <row r="59" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B59" s="164" t="s">
+      <c r="B59" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="405" t="s">
+      <c r="C59" s="400" t="s">
         <v>132</v>
       </c>
-      <c r="D59" s="406"/>
-      <c r="E59" s="165" t="s">
+      <c r="D59" s="401"/>
+      <c r="E59" s="161" t="s">
         <v>131</v>
       </c>
       <c r="F59" s="35"/>
@@ -5559,7 +5565,7 @@
       <c r="K59" s="36"/>
       <c r="L59" s="36"/>
       <c r="M59" s="36"/>
-      <c r="N59" s="227"/>
+      <c r="N59" s="221"/>
       <c r="O59" s="119" t="s">
         <v>120</v>
       </c>
@@ -5577,12 +5583,12 @@
       <c r="AB59" s="35"/>
     </row>
     <row r="60" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B60" s="166">
+      <c r="B60" s="162">
         <v>1</v>
       </c>
-      <c r="C60" s="401"/>
-      <c r="D60" s="402"/>
-      <c r="E60" s="167"/>
+      <c r="C60" s="396"/>
+      <c r="D60" s="397"/>
+      <c r="E60" s="163"/>
       <c r="F60" s="35"/>
       <c r="G60" s="119">
         <v>45</v>
@@ -5593,7 +5599,7 @@
       <c r="K60" s="36"/>
       <c r="L60" s="36"/>
       <c r="M60" s="36"/>
-      <c r="N60" s="227"/>
+      <c r="N60" s="221"/>
       <c r="O60" s="119" t="s">
         <v>120</v>
       </c>
@@ -5611,12 +5617,12 @@
       <c r="AB60" s="35"/>
     </row>
     <row r="61" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B61" s="166">
+      <c r="B61" s="162">
         <v>2</v>
       </c>
-      <c r="C61" s="401"/>
-      <c r="D61" s="402"/>
-      <c r="E61" s="167"/>
+      <c r="C61" s="396"/>
+      <c r="D61" s="397"/>
+      <c r="E61" s="163"/>
       <c r="F61" s="35"/>
       <c r="G61" s="119">
         <v>46</v>
@@ -5627,7 +5633,7 @@
       <c r="K61" s="36"/>
       <c r="L61" s="36"/>
       <c r="M61" s="36"/>
-      <c r="N61" s="227"/>
+      <c r="N61" s="221"/>
       <c r="O61" s="119" t="s">
         <v>120</v>
       </c>
@@ -5645,12 +5651,12 @@
       <c r="AB61" s="35"/>
     </row>
     <row r="62" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B62" s="166">
+      <c r="B62" s="162">
         <v>3</v>
       </c>
-      <c r="C62" s="401"/>
-      <c r="D62" s="402"/>
-      <c r="E62" s="167"/>
+      <c r="C62" s="396"/>
+      <c r="D62" s="397"/>
+      <c r="E62" s="163"/>
       <c r="F62" s="35"/>
       <c r="G62" s="119">
         <v>47</v>
@@ -5661,7 +5667,7 @@
       <c r="K62" s="36"/>
       <c r="L62" s="36"/>
       <c r="M62" s="36"/>
-      <c r="N62" s="227"/>
+      <c r="N62" s="221"/>
       <c r="O62" s="119" t="s">
         <v>120</v>
       </c>
@@ -5679,12 +5685,12 @@
       <c r="AB62" s="35"/>
     </row>
     <row r="63" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B63" s="166">
+      <c r="B63" s="162">
         <v>4</v>
       </c>
-      <c r="C63" s="401"/>
-      <c r="D63" s="402"/>
-      <c r="E63" s="167"/>
+      <c r="C63" s="396"/>
+      <c r="D63" s="397"/>
+      <c r="E63" s="163"/>
       <c r="F63" s="35"/>
       <c r="G63" s="119">
         <v>48</v>
@@ -5695,7 +5701,7 @@
       <c r="K63" s="36"/>
       <c r="L63" s="36"/>
       <c r="M63" s="36"/>
-      <c r="N63" s="206"/>
+      <c r="N63" s="202"/>
       <c r="O63" s="119" t="s">
         <v>120</v>
       </c>
@@ -5712,13 +5718,13 @@
       <c r="AA63" s="35"/>
     </row>
     <row r="64" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B64" s="166">
+      <c r="B64" s="162">
         <v>5</v>
       </c>
-      <c r="C64" s="401"/>
-      <c r="D64" s="402"/>
-      <c r="E64" s="167"/>
-      <c r="F64" s="213"/>
+      <c r="C64" s="396"/>
+      <c r="D64" s="397"/>
+      <c r="E64" s="163"/>
+      <c r="F64" s="209"/>
       <c r="G64" s="119">
         <v>49</v>
       </c>
@@ -5728,7 +5734,7 @@
       <c r="K64" s="36"/>
       <c r="L64" s="36"/>
       <c r="M64" s="36"/>
-      <c r="N64" s="206"/>
+      <c r="N64" s="202"/>
       <c r="O64" s="119" t="s">
         <v>120</v>
       </c>
@@ -5745,13 +5751,13 @@
       <c r="AA64" s="35"/>
     </row>
     <row r="65" spans="2:29" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B65" s="166">
+      <c r="B65" s="162">
         <v>6</v>
       </c>
-      <c r="C65" s="401"/>
-      <c r="D65" s="402"/>
-      <c r="E65" s="167"/>
-      <c r="F65" s="213"/>
+      <c r="C65" s="396"/>
+      <c r="D65" s="397"/>
+      <c r="E65" s="163"/>
+      <c r="F65" s="209"/>
       <c r="G65" s="119">
         <v>50</v>
       </c>
@@ -5761,8 +5767,8 @@
       <c r="K65" s="29"/>
       <c r="L65" s="29"/>
       <c r="M65" s="29"/>
-      <c r="N65" s="205"/>
-      <c r="O65" s="201" t="s">
+      <c r="N65" s="201"/>
+      <c r="O65" s="197" t="s">
         <v>120</v>
       </c>
       <c r="P65" s="47"/>
@@ -5778,14 +5784,14 @@
       <c r="AA65" s="35"/>
     </row>
     <row r="66" spans="2:29" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B66" s="228">
+      <c r="B66" s="222">
         <v>7</v>
       </c>
-      <c r="C66" s="403"/>
-      <c r="D66" s="404"/>
-      <c r="E66" s="230"/>
-      <c r="F66" s="213"/>
-      <c r="G66" s="212" t="s">
+      <c r="C66" s="398"/>
+      <c r="D66" s="399"/>
+      <c r="E66" s="224"/>
+      <c r="F66" s="209"/>
+      <c r="G66" s="208" t="s">
         <v>83</v>
       </c>
       <c r="H66" s="50"/>
@@ -5794,8 +5800,8 @@
       <c r="K66" s="50"/>
       <c r="L66" s="50"/>
       <c r="M66" s="50"/>
-      <c r="N66" s="200"/>
-      <c r="O66" s="202"/>
+      <c r="N66" s="196"/>
+      <c r="O66" s="198"/>
       <c r="P66" s="50" t="str">
         <f t="shared" ref="P66:U66" si="0">IF(SUM(P16:P65)=0,"",SUM(P16:P65))</f>
         <v/>
@@ -5846,7 +5852,7 @@
       <c r="R67" s="35"/>
       <c r="S67" s="35"/>
       <c r="T67" s="35"/>
-      <c r="U67" s="195"/>
+      <c r="U67" s="191"/>
       <c r="W67" s="35"/>
       <c r="X67" s="35"/>
       <c r="Y67" s="35"/>
@@ -5854,39 +5860,39 @@
       <c r="AA67" s="35"/>
     </row>
     <row r="68" spans="2:29" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B68" s="127" t="s">
+      <c r="B68" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="399"/>
-      <c r="D68" s="399"/>
-      <c r="E68" s="400"/>
-      <c r="F68" s="394"/>
-      <c r="G68" s="424" t="s">
+      <c r="C68" s="394"/>
+      <c r="D68" s="394"/>
+      <c r="E68" s="395"/>
+      <c r="F68" s="389"/>
+      <c r="G68" s="419" t="s">
         <v>163</v>
       </c>
-      <c r="H68" s="425"/>
-      <c r="I68" s="425"/>
-      <c r="J68" s="425"/>
-      <c r="K68" s="425" t="s">
+      <c r="H68" s="420"/>
+      <c r="I68" s="420"/>
+      <c r="J68" s="420"/>
+      <c r="K68" s="420" t="s">
         <v>152</v>
       </c>
-      <c r="L68" s="425"/>
-      <c r="M68" s="427"/>
-      <c r="N68" s="246" t="s">
+      <c r="L68" s="420"/>
+      <c r="M68" s="422"/>
+      <c r="N68" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="O68" s="247" t="s">
+      <c r="O68" s="241" t="s">
         <v>147</v>
       </c>
-      <c r="P68" s="247" t="s">
+      <c r="P68" s="241" t="s">
         <v>141</v>
       </c>
-      <c r="Q68" s="248"/>
-      <c r="S68" s="415" t="s">
+      <c r="Q68" s="242"/>
+      <c r="S68" s="410" t="s">
         <v>148</v>
       </c>
-      <c r="T68" s="416"/>
-      <c r="U68" s="417"/>
+      <c r="T68" s="411"/>
+      <c r="U68" s="412"/>
       <c r="W68" s="35"/>
       <c r="X68" s="35"/>
       <c r="Y68" s="35"/>
@@ -5898,28 +5904,28 @@
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="30"/>
-      <c r="F69" s="394"/>
-      <c r="G69" s="426" t="s">
+      <c r="F69" s="389"/>
+      <c r="G69" s="421" t="s">
         <v>164</v>
       </c>
-      <c r="H69" s="388"/>
-      <c r="I69" s="388"/>
-      <c r="J69" s="388"/>
-      <c r="K69" s="388" t="s">
+      <c r="H69" s="383"/>
+      <c r="I69" s="383"/>
+      <c r="J69" s="383"/>
+      <c r="K69" s="383" t="s">
         <v>153</v>
       </c>
-      <c r="L69" s="388"/>
-      <c r="M69" s="325"/>
-      <c r="N69" s="250">
+      <c r="L69" s="383"/>
+      <c r="M69" s="370"/>
+      <c r="N69" s="244">
         <v>1</v>
       </c>
-      <c r="O69" s="251"/>
-      <c r="P69" s="252"/>
-      <c r="Q69" s="253"/>
-      <c r="R69" s="245"/>
-      <c r="S69" s="418"/>
-      <c r="T69" s="419"/>
-      <c r="U69" s="420"/>
+      <c r="O69" s="245"/>
+      <c r="P69" s="246"/>
+      <c r="Q69" s="247"/>
+      <c r="R69" s="239"/>
+      <c r="S69" s="413"/>
+      <c r="T69" s="414"/>
+      <c r="U69" s="415"/>
       <c r="W69" s="35"/>
       <c r="X69" s="35"/>
       <c r="Y69" s="35"/>
@@ -5932,27 +5938,27 @@
       <c r="D70" s="35"/>
       <c r="E70" s="30"/>
       <c r="F70" s="35"/>
-      <c r="G70" s="426" t="s">
+      <c r="G70" s="421" t="s">
         <v>165</v>
       </c>
-      <c r="H70" s="388"/>
-      <c r="I70" s="388"/>
-      <c r="J70" s="388"/>
-      <c r="K70" s="388" t="s">
+      <c r="H70" s="383"/>
+      <c r="I70" s="383"/>
+      <c r="J70" s="383"/>
+      <c r="K70" s="383" t="s">
         <v>154</v>
       </c>
-      <c r="L70" s="388"/>
-      <c r="M70" s="325"/>
+      <c r="L70" s="383"/>
+      <c r="M70" s="370"/>
       <c r="N70" s="52">
         <v>2</v>
       </c>
-      <c r="O70" s="197"/>
-      <c r="P70" s="236"/>
-      <c r="Q70" s="237"/>
-      <c r="R70" s="245"/>
-      <c r="S70" s="418"/>
-      <c r="T70" s="419"/>
-      <c r="U70" s="420"/>
+      <c r="O70" s="193"/>
+      <c r="P70" s="230"/>
+      <c r="Q70" s="231"/>
+      <c r="R70" s="239"/>
+      <c r="S70" s="413"/>
+      <c r="T70" s="414"/>
+      <c r="U70" s="415"/>
       <c r="W70" s="35"/>
       <c r="X70" s="35"/>
       <c r="Y70" s="35"/>
@@ -5965,27 +5971,27 @@
       <c r="D71" s="35"/>
       <c r="E71" s="30"/>
       <c r="F71" s="35"/>
-      <c r="G71" s="426" t="s">
+      <c r="G71" s="421" t="s">
         <v>166</v>
       </c>
-      <c r="H71" s="388"/>
-      <c r="I71" s="388"/>
-      <c r="J71" s="388"/>
-      <c r="K71" s="388" t="s">
+      <c r="H71" s="383"/>
+      <c r="I71" s="383"/>
+      <c r="J71" s="383"/>
+      <c r="K71" s="383" t="s">
         <v>155</v>
       </c>
-      <c r="L71" s="388"/>
-      <c r="M71" s="325"/>
+      <c r="L71" s="383"/>
+      <c r="M71" s="370"/>
       <c r="N71" s="52">
         <v>3</v>
       </c>
-      <c r="O71" s="197"/>
-      <c r="P71" s="236"/>
-      <c r="Q71" s="237"/>
-      <c r="R71" s="245"/>
-      <c r="S71" s="418"/>
-      <c r="T71" s="419"/>
-      <c r="U71" s="420"/>
+      <c r="O71" s="193"/>
+      <c r="P71" s="230"/>
+      <c r="Q71" s="231"/>
+      <c r="R71" s="239"/>
+      <c r="S71" s="413"/>
+      <c r="T71" s="414"/>
+      <c r="U71" s="415"/>
       <c r="W71" s="35"/>
       <c r="X71" s="35"/>
       <c r="Y71" s="35"/>
@@ -5998,27 +6004,27 @@
       <c r="D72" s="35"/>
       <c r="E72" s="30"/>
       <c r="F72" s="35"/>
-      <c r="G72" s="426" t="s">
+      <c r="G72" s="421" t="s">
         <v>167</v>
       </c>
-      <c r="H72" s="388"/>
-      <c r="I72" s="388"/>
-      <c r="J72" s="388"/>
-      <c r="K72" s="388" t="s">
+      <c r="H72" s="383"/>
+      <c r="I72" s="383"/>
+      <c r="J72" s="383"/>
+      <c r="K72" s="383" t="s">
         <v>156</v>
       </c>
-      <c r="L72" s="388"/>
-      <c r="M72" s="325"/>
+      <c r="L72" s="383"/>
+      <c r="M72" s="370"/>
       <c r="N72" s="52">
         <v>4</v>
       </c>
-      <c r="O72" s="197"/>
-      <c r="P72" s="236"/>
-      <c r="Q72" s="237"/>
-      <c r="R72" s="245"/>
-      <c r="S72" s="418"/>
-      <c r="T72" s="419"/>
-      <c r="U72" s="420"/>
+      <c r="O72" s="193"/>
+      <c r="P72" s="230"/>
+      <c r="Q72" s="231"/>
+      <c r="R72" s="239"/>
+      <c r="S72" s="413"/>
+      <c r="T72" s="414"/>
+      <c r="U72" s="415"/>
       <c r="W72" s="35"/>
       <c r="X72" s="35"/>
       <c r="Y72" s="35"/>
@@ -6031,27 +6037,27 @@
       <c r="D73" s="35"/>
       <c r="E73" s="30"/>
       <c r="F73" s="35"/>
-      <c r="G73" s="426" t="s">
+      <c r="G73" s="421" t="s">
         <v>168</v>
       </c>
-      <c r="H73" s="388"/>
-      <c r="I73" s="388"/>
-      <c r="J73" s="388"/>
-      <c r="K73" s="388" t="s">
+      <c r="H73" s="383"/>
+      <c r="I73" s="383"/>
+      <c r="J73" s="383"/>
+      <c r="K73" s="383" t="s">
         <v>157</v>
       </c>
-      <c r="L73" s="388"/>
-      <c r="M73" s="325"/>
+      <c r="L73" s="383"/>
+      <c r="M73" s="370"/>
       <c r="N73" s="52">
         <v>5</v>
       </c>
-      <c r="O73" s="197"/>
-      <c r="P73" s="236"/>
-      <c r="Q73" s="237"/>
-      <c r="R73" s="245"/>
-      <c r="S73" s="418"/>
-      <c r="T73" s="419"/>
-      <c r="U73" s="420"/>
+      <c r="O73" s="193"/>
+      <c r="P73" s="230"/>
+      <c r="Q73" s="231"/>
+      <c r="R73" s="239"/>
+      <c r="S73" s="413"/>
+      <c r="T73" s="414"/>
+      <c r="U73" s="415"/>
       <c r="W73" s="35"/>
       <c r="X73" s="35"/>
       <c r="Y73" s="35"/>
@@ -6064,27 +6070,27 @@
       <c r="D74" s="35"/>
       <c r="E74" s="30"/>
       <c r="F74" s="35"/>
-      <c r="G74" s="426" t="s">
+      <c r="G74" s="421" t="s">
         <v>169</v>
       </c>
-      <c r="H74" s="388"/>
-      <c r="I74" s="388"/>
-      <c r="J74" s="388"/>
-      <c r="K74" s="388" t="s">
+      <c r="H74" s="383"/>
+      <c r="I74" s="383"/>
+      <c r="J74" s="383"/>
+      <c r="K74" s="383" t="s">
         <v>158</v>
       </c>
-      <c r="L74" s="388"/>
-      <c r="M74" s="325"/>
+      <c r="L74" s="383"/>
+      <c r="M74" s="370"/>
       <c r="N74" s="52">
         <v>6</v>
       </c>
-      <c r="O74" s="197"/>
-      <c r="P74" s="236"/>
-      <c r="Q74" s="237"/>
-      <c r="R74" s="245"/>
-      <c r="S74" s="418"/>
-      <c r="T74" s="419"/>
-      <c r="U74" s="420"/>
+      <c r="O74" s="193"/>
+      <c r="P74" s="230"/>
+      <c r="Q74" s="231"/>
+      <c r="R74" s="239"/>
+      <c r="S74" s="413"/>
+      <c r="T74" s="414"/>
+      <c r="U74" s="415"/>
       <c r="W74" s="35"/>
       <c r="X74" s="35"/>
       <c r="Y74" s="35"/>
@@ -6097,27 +6103,27 @@
       <c r="D75" s="35"/>
       <c r="E75" s="30"/>
       <c r="F75" s="35"/>
-      <c r="G75" s="426" t="s">
+      <c r="G75" s="421" t="s">
         <v>170</v>
       </c>
-      <c r="H75" s="388"/>
-      <c r="I75" s="388"/>
-      <c r="J75" s="388"/>
-      <c r="K75" s="388" t="s">
+      <c r="H75" s="383"/>
+      <c r="I75" s="383"/>
+      <c r="J75" s="383"/>
+      <c r="K75" s="383" t="s">
         <v>159</v>
       </c>
-      <c r="L75" s="388"/>
-      <c r="M75" s="325"/>
+      <c r="L75" s="383"/>
+      <c r="M75" s="370"/>
       <c r="N75" s="52">
         <v>7</v>
       </c>
-      <c r="O75" s="197"/>
-      <c r="P75" s="236"/>
-      <c r="Q75" s="237"/>
-      <c r="R75" s="245"/>
-      <c r="S75" s="418"/>
-      <c r="T75" s="419"/>
-      <c r="U75" s="420"/>
+      <c r="O75" s="193"/>
+      <c r="P75" s="230"/>
+      <c r="Q75" s="231"/>
+      <c r="R75" s="239"/>
+      <c r="S75" s="413"/>
+      <c r="T75" s="414"/>
+      <c r="U75" s="415"/>
       <c r="X75" s="35"/>
     </row>
     <row r="76" spans="2:29" ht="28.5" customHeight="1">
@@ -6126,111 +6132,111 @@
       <c r="D76" s="35"/>
       <c r="E76" s="30"/>
       <c r="F76" s="35"/>
-      <c r="G76" s="426" t="s">
+      <c r="G76" s="421" t="s">
         <v>171</v>
       </c>
-      <c r="H76" s="388"/>
-      <c r="I76" s="388"/>
-      <c r="J76" s="388"/>
-      <c r="K76" s="388" t="s">
+      <c r="H76" s="383"/>
+      <c r="I76" s="383"/>
+      <c r="J76" s="383"/>
+      <c r="K76" s="383" t="s">
         <v>160</v>
       </c>
-      <c r="L76" s="388"/>
-      <c r="M76" s="325"/>
+      <c r="L76" s="383"/>
+      <c r="M76" s="370"/>
       <c r="N76" s="52">
         <v>8</v>
       </c>
-      <c r="O76" s="197"/>
-      <c r="P76" s="236"/>
-      <c r="Q76" s="237"/>
-      <c r="R76" s="245"/>
-      <c r="S76" s="418"/>
-      <c r="T76" s="419"/>
-      <c r="U76" s="420"/>
+      <c r="O76" s="193"/>
+      <c r="P76" s="230"/>
+      <c r="Q76" s="231"/>
+      <c r="R76" s="239"/>
+      <c r="S76" s="413"/>
+      <c r="T76" s="414"/>
+      <c r="U76" s="415"/>
       <c r="X76" s="35"/>
     </row>
     <row r="77" spans="2:29" ht="21.95" customHeight="1">
-      <c r="B77" s="239"/>
-      <c r="C77" s="196"/>
-      <c r="D77" s="196"/>
-      <c r="E77" s="240"/>
-      <c r="F77" s="196"/>
-      <c r="G77" s="426" t="s">
+      <c r="B77" s="233"/>
+      <c r="C77" s="192"/>
+      <c r="D77" s="192"/>
+      <c r="E77" s="234"/>
+      <c r="F77" s="192"/>
+      <c r="G77" s="421" t="s">
         <v>172</v>
       </c>
-      <c r="H77" s="388"/>
-      <c r="I77" s="388"/>
-      <c r="J77" s="388"/>
-      <c r="K77" s="388" t="s">
+      <c r="H77" s="383"/>
+      <c r="I77" s="383"/>
+      <c r="J77" s="383"/>
+      <c r="K77" s="383" t="s">
         <v>161</v>
       </c>
-      <c r="L77" s="388"/>
-      <c r="M77" s="325"/>
+      <c r="L77" s="383"/>
+      <c r="M77" s="370"/>
       <c r="N77" s="52">
         <v>9</v>
       </c>
-      <c r="O77" s="249"/>
-      <c r="P77" s="249"/>
-      <c r="Q77" s="254"/>
-      <c r="R77" s="196"/>
-      <c r="S77" s="418"/>
-      <c r="T77" s="419"/>
-      <c r="U77" s="420"/>
+      <c r="O77" s="243"/>
+      <c r="P77" s="243"/>
+      <c r="Q77" s="248"/>
+      <c r="R77" s="192"/>
+      <c r="S77" s="413"/>
+      <c r="T77" s="414"/>
+      <c r="U77" s="415"/>
       <c r="X77" s="35"/>
     </row>
     <row r="78" spans="2:29" ht="30" customHeight="1">
-      <c r="B78" s="239"/>
-      <c r="C78" s="196"/>
-      <c r="D78" s="196"/>
-      <c r="E78" s="240"/>
-      <c r="F78" s="196"/>
-      <c r="G78" s="426" t="s">
+      <c r="B78" s="233"/>
+      <c r="C78" s="192"/>
+      <c r="D78" s="192"/>
+      <c r="E78" s="234"/>
+      <c r="F78" s="192"/>
+      <c r="G78" s="421" t="s">
         <v>173</v>
       </c>
-      <c r="H78" s="388"/>
-      <c r="I78" s="388"/>
-      <c r="J78" s="388"/>
-      <c r="K78" s="388" t="s">
+      <c r="H78" s="383"/>
+      <c r="I78" s="383"/>
+      <c r="J78" s="383"/>
+      <c r="K78" s="383" t="s">
         <v>162</v>
       </c>
-      <c r="L78" s="388"/>
-      <c r="M78" s="325"/>
+      <c r="L78" s="383"/>
+      <c r="M78" s="370"/>
       <c r="N78" s="52">
         <v>10</v>
       </c>
-      <c r="O78" s="249"/>
-      <c r="P78" s="249"/>
-      <c r="Q78" s="254"/>
-      <c r="R78" s="196"/>
-      <c r="S78" s="418"/>
-      <c r="T78" s="419"/>
-      <c r="U78" s="420"/>
+      <c r="O78" s="243"/>
+      <c r="P78" s="243"/>
+      <c r="Q78" s="248"/>
+      <c r="R78" s="192"/>
+      <c r="S78" s="413"/>
+      <c r="T78" s="414"/>
+      <c r="U78" s="415"/>
       <c r="X78" s="35"/>
     </row>
     <row r="79" spans="2:29" ht="30" customHeight="1" thickBot="1">
-      <c r="B79" s="241"/>
-      <c r="C79" s="242"/>
-      <c r="D79" s="242"/>
-      <c r="E79" s="243"/>
+      <c r="B79" s="235"/>
+      <c r="C79" s="236"/>
+      <c r="D79" s="236"/>
+      <c r="E79" s="237"/>
       <c r="F79" s="35"/>
-      <c r="G79" s="411" t="s">
+      <c r="G79" s="406" t="s">
         <v>174</v>
       </c>
-      <c r="H79" s="412"/>
-      <c r="I79" s="412"/>
-      <c r="J79" s="412"/>
-      <c r="K79" s="413"/>
-      <c r="L79" s="414"/>
-      <c r="M79" s="414"/>
+      <c r="H79" s="407"/>
+      <c r="I79" s="407"/>
+      <c r="J79" s="407"/>
+      <c r="K79" s="408"/>
+      <c r="L79" s="409"/>
+      <c r="M79" s="409"/>
       <c r="N79" s="53">
         <v>11</v>
       </c>
       <c r="O79" s="29"/>
       <c r="P79" s="29"/>
-      <c r="Q79" s="244"/>
-      <c r="S79" s="421"/>
-      <c r="T79" s="422"/>
-      <c r="U79" s="423"/>
+      <c r="Q79" s="238"/>
+      <c r="S79" s="416"/>
+      <c r="T79" s="417"/>
+      <c r="U79" s="418"/>
       <c r="X79" s="35"/>
     </row>
     <row r="80" spans="2:29" ht="30" customHeight="1">
@@ -6248,8 +6254,8 @@
       <c r="M80" s="35"/>
       <c r="N80" s="35"/>
       <c r="X80" s="35"/>
-      <c r="AB80" s="238"/>
-      <c r="AC80" s="238"/>
+      <c r="AB80" s="232"/>
+      <c r="AC80" s="232"/>
     </row>
     <row r="81" spans="2:35" ht="30" customHeight="1">
       <c r="B81"/>
@@ -6257,28 +6263,28 @@
       <c r="D81" s="54"/>
       <c r="E81" s="54"/>
       <c r="N81" s="55"/>
-      <c r="AB81" s="238"/>
-      <c r="AC81" s="238"/>
+      <c r="AB81" s="232"/>
+      <c r="AC81" s="232"/>
     </row>
     <row r="82" spans="2:35" ht="30" customHeight="1">
       <c r="N82" s="55"/>
-      <c r="AB82" s="238"/>
-      <c r="AC82" s="238"/>
+      <c r="AB82" s="232"/>
+      <c r="AC82" s="232"/>
     </row>
     <row r="83" spans="2:35" ht="30" customHeight="1">
       <c r="N83" s="55"/>
-      <c r="AB83" s="238"/>
-      <c r="AC83" s="238"/>
+      <c r="AB83" s="232"/>
+      <c r="AC83" s="232"/>
     </row>
     <row r="84" spans="2:35" ht="20.25" customHeight="1">
       <c r="N84" s="55"/>
-      <c r="AB84" s="238"/>
-      <c r="AC84" s="238"/>
+      <c r="AB84" s="232"/>
+      <c r="AC84" s="232"/>
     </row>
     <row r="85" spans="2:35">
       <c r="N85" s="55"/>
-      <c r="AB85" s="238"/>
-      <c r="AC85" s="238"/>
+      <c r="AB85" s="232"/>
+      <c r="AC85" s="232"/>
     </row>
     <row r="86" spans="2:35" ht="45.75" customHeight="1">
       <c r="C86" s="46"/>
@@ -8262,7 +8268,19 @@
       <c r="D172" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="104">
+  <mergeCells count="106">
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="D56:E56"/>
     <mergeCell ref="G79:J79"/>
     <mergeCell ref="K79:M79"/>
     <mergeCell ref="S68:U79"/>
@@ -8283,10 +8301,12 @@
     <mergeCell ref="G78:J78"/>
     <mergeCell ref="K70:M70"/>
     <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="K69:M69"/>
@@ -8305,12 +8325,6 @@
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="O7:P10"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D20:E20"/>
@@ -8320,12 +8334,6 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
     <mergeCell ref="Z21:AA22"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
@@ -8343,9 +8351,9 @@
     <mergeCell ref="S8:U10"/>
     <mergeCell ref="S12:U13"/>
     <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="O7:P10"/>
     <mergeCell ref="B1:U1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="B7:B8"/>
@@ -8393,7 +8401,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -8404,42 +8412,42 @@
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="219" customWidth="1"/>
-    <col min="7" max="7" width="10" style="222" customWidth="1"/>
-    <col min="8" max="8" width="9" style="217" customWidth="1"/>
+    <col min="6" max="6" width="10" style="214" customWidth="1"/>
+    <col min="7" max="7" width="10" style="217" customWidth="1"/>
+    <col min="8" max="8" width="9" style="212" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="F1" s="218"/>
-      <c r="G1" s="221">
+      <c r="F1" s="213"/>
+      <c r="G1" s="216">
         <v>12.34</v>
       </c>
-      <c r="H1" s="220">
+      <c r="H1" s="215">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="2:11">
-      <c r="F2" s="218"/>
-      <c r="G2" s="221">
+      <c r="F2" s="213"/>
+      <c r="G2" s="216">
         <v>7.28</v>
       </c>
-      <c r="H2" s="220">
+      <c r="H2" s="215">
         <v>90</v>
       </c>
-      <c r="J2" s="223"/>
+      <c r="J2" s="218"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="F3" s="218"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="220">
+      <c r="F3" s="213"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="215">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="18" customHeight="1" thickBot="1">
-      <c r="F4" s="218"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="220">
+      <c r="F4" s="213"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="215">
         <v>90</v>
       </c>
     </row>
@@ -8456,9 +8464,9 @@
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="218"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="220">
+      <c r="F5" s="213"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="215">
         <v>90</v>
       </c>
     </row>
@@ -8469,9 +8477,9 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="221"/>
-      <c r="H6" s="220">
+      <c r="F6" s="213"/>
+      <c r="G6" s="216"/>
+      <c r="H6" s="215">
         <v>90</v>
       </c>
     </row>
@@ -8482,9 +8490,9 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="220">
+      <c r="F7" s="213"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="215">
         <v>90</v>
       </c>
     </row>
@@ -8495,9 +8503,9 @@
       <c r="C8" s="9"/>
       <c r="D8" s="21"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="220">
+      <c r="F8" s="213"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="215">
         <v>90</v>
       </c>
     </row>
@@ -8508,9 +8516,9 @@
       <c r="C9" s="9"/>
       <c r="D9" s="11"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="218"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="220">
+      <c r="F9" s="213"/>
+      <c r="G9" s="216"/>
+      <c r="H9" s="215">
         <v>90</v>
       </c>
     </row>
@@ -8523,9 +8531,9 @@
       <c r="E10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="218"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="220">
+      <c r="F10" s="213"/>
+      <c r="G10" s="216"/>
+      <c r="H10" s="215">
         <v>90</v>
       </c>
     </row>
@@ -8538,9 +8546,9 @@
       <c r="E11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="218"/>
-      <c r="G11" s="221"/>
-      <c r="H11" s="220">
+      <c r="F11" s="213"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="215">
         <v>90</v>
       </c>
       <c r="I11" s="12" t="str">
@@ -8561,9 +8569,9 @@
       <c r="E12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="218"/>
-      <c r="G12" s="221"/>
-      <c r="H12" s="220">
+      <c r="F12" s="213"/>
+      <c r="G12" s="216"/>
+      <c r="H12" s="215">
         <v>90</v>
       </c>
       <c r="I12" s="13" t="str">
@@ -8583,11 +8591,11 @@
       <c r="E13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="218"/>
-      <c r="G13" s="221">
+      <c r="F13" s="213"/>
+      <c r="G13" s="216">
         <v>4.66</v>
       </c>
-      <c r="H13" s="220">
+      <c r="H13" s="215">
         <v>90</v>
       </c>
       <c r="I13" s="12" t="str">
@@ -8602,11 +8610,11 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="218"/>
-      <c r="G14" s="221">
+      <c r="F14" s="213"/>
+      <c r="G14" s="216">
         <v>4.4400000000000004</v>
       </c>
-      <c r="H14" s="220">
+      <c r="H14" s="215">
         <v>70</v>
       </c>
       <c r="I14" s="12">
@@ -8621,9 +8629,9 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="218"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="220">
+      <c r="F15" s="213"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="215">
         <v>70</v>
       </c>
     </row>
@@ -8634,9 +8642,9 @@
       <c r="C16" s="9"/>
       <c r="D16" s="14"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="218"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="220">
+      <c r="F16" s="213"/>
+      <c r="G16" s="216"/>
+      <c r="H16" s="215">
         <v>70</v>
       </c>
     </row>
@@ -8647,9 +8655,9 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="218"/>
-      <c r="G17" s="221"/>
-      <c r="H17" s="220">
+      <c r="F17" s="213"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="215">
         <v>70</v>
       </c>
     </row>
@@ -8660,9 +8668,9 @@
       <c r="C18" s="9"/>
       <c r="D18" s="21"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="221"/>
-      <c r="H18" s="220">
+      <c r="F18" s="213"/>
+      <c r="G18" s="216"/>
+      <c r="H18" s="215">
         <v>70</v>
       </c>
     </row>
@@ -8675,9 +8683,9 @@
       <c r="E19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="218"/>
-      <c r="G19" s="221"/>
-      <c r="H19" s="220">
+      <c r="F19" s="213"/>
+      <c r="G19" s="216"/>
+      <c r="H19" s="215">
         <v>70</v>
       </c>
     </row>
@@ -8690,9 +8698,9 @@
       <c r="E20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="218"/>
-      <c r="G20" s="221"/>
-      <c r="H20" s="220">
+      <c r="F20" s="213"/>
+      <c r="G20" s="216"/>
+      <c r="H20" s="215">
         <v>70</v>
       </c>
     </row>
@@ -8705,9 +8713,9 @@
       <c r="E21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="218"/>
-      <c r="G21" s="221"/>
-      <c r="H21" s="220">
+      <c r="F21" s="213"/>
+      <c r="G21" s="216"/>
+      <c r="H21" s="215">
         <v>70</v>
       </c>
     </row>
@@ -8720,9 +8728,9 @@
       <c r="E22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="218"/>
-      <c r="G22" s="221"/>
-      <c r="H22" s="220">
+      <c r="F22" s="213"/>
+      <c r="G22" s="216"/>
+      <c r="H22" s="215">
         <v>70</v>
       </c>
     </row>
@@ -8735,9 +8743,9 @@
       <c r="E23" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="218"/>
-      <c r="G23" s="221"/>
-      <c r="H23" s="220">
+      <c r="F23" s="213"/>
+      <c r="G23" s="216"/>
+      <c r="H23" s="215">
         <v>70</v>
       </c>
     </row>
@@ -8750,9 +8758,9 @@
       <c r="E24" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="218"/>
-      <c r="G24" s="221"/>
-      <c r="H24" s="220">
+      <c r="F24" s="213"/>
+      <c r="G24" s="216"/>
+      <c r="H24" s="215">
         <v>70</v>
       </c>
     </row>
@@ -8765,9 +8773,9 @@
       <c r="E25" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="218"/>
-      <c r="G25" s="221"/>
-      <c r="H25" s="220">
+      <c r="F25" s="213"/>
+      <c r="G25" s="216"/>
+      <c r="H25" s="215">
         <v>70</v>
       </c>
     </row>
@@ -8780,9 +8788,9 @@
       <c r="E26" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="218"/>
-      <c r="G26" s="221"/>
-      <c r="H26" s="220">
+      <c r="F26" s="213"/>
+      <c r="G26" s="216"/>
+      <c r="H26" s="215">
         <v>70</v>
       </c>
     </row>
@@ -8795,9 +8803,9 @@
       <c r="E27" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="218"/>
-      <c r="G27" s="221"/>
-      <c r="H27" s="220">
+      <c r="F27" s="213"/>
+      <c r="G27" s="216"/>
+      <c r="H27" s="215">
         <v>70</v>
       </c>
     </row>
@@ -8810,9 +8818,9 @@
       <c r="E28" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="218"/>
-      <c r="G28" s="221"/>
-      <c r="H28" s="220">
+      <c r="F28" s="213"/>
+      <c r="G28" s="216"/>
+      <c r="H28" s="215">
         <v>70</v>
       </c>
     </row>
@@ -8821,13 +8829,13 @@
         <v>67</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="232"/>
+      <c r="D29" s="226"/>
       <c r="E29" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="218"/>
-      <c r="G29" s="221"/>
-      <c r="H29" s="220">
+      <c r="F29" s="213"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="215">
         <v>70</v>
       </c>
     </row>
@@ -8838,9 +8846,9 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="218"/>
-      <c r="G30" s="221"/>
-      <c r="H30" s="220">
+      <c r="F30" s="213"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="215">
         <v>70</v>
       </c>
     </row>
@@ -8853,11 +8861,11 @@
       <c r="E31" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="218"/>
-      <c r="G31" s="221">
+      <c r="F31" s="213"/>
+      <c r="G31" s="216">
         <v>2.95</v>
       </c>
-      <c r="H31" s="220">
+      <c r="H31" s="215">
         <v>70</v>
       </c>
     </row>
@@ -8868,11 +8876,11 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="218"/>
-      <c r="G32" s="221">
+      <c r="F32" s="213"/>
+      <c r="G32" s="216">
         <v>2.64</v>
       </c>
-      <c r="H32" s="220">
+      <c r="H32" s="215">
         <v>50</v>
       </c>
     </row>
@@ -8883,9 +8891,9 @@
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="218"/>
-      <c r="G33" s="221"/>
-      <c r="H33" s="220">
+      <c r="F33" s="213"/>
+      <c r="G33" s="216"/>
+      <c r="H33" s="215">
         <v>50</v>
       </c>
     </row>
@@ -8896,9 +8904,9 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="218"/>
-      <c r="G34" s="221"/>
-      <c r="H34" s="220">
+      <c r="F34" s="213"/>
+      <c r="G34" s="216"/>
+      <c r="H34" s="215">
         <v>50</v>
       </c>
     </row>
@@ -8911,9 +8919,9 @@
       <c r="E35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="218"/>
-      <c r="G35" s="221"/>
-      <c r="H35" s="220">
+      <c r="F35" s="213"/>
+      <c r="G35" s="216"/>
+      <c r="H35" s="215">
         <v>50</v>
       </c>
     </row>
@@ -8924,9 +8932,9 @@
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="218"/>
-      <c r="G36" s="221"/>
-      <c r="H36" s="220">
+      <c r="F36" s="213"/>
+      <c r="G36" s="216"/>
+      <c r="H36" s="215">
         <v>50</v>
       </c>
     </row>
@@ -8937,92 +8945,92 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="218"/>
-      <c r="G37" s="221"/>
-      <c r="H37" s="220">
+      <c r="F37" s="213"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="215">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="F38" s="218"/>
-      <c r="G38" s="221"/>
-      <c r="H38" s="220">
+      <c r="F38" s="213"/>
+      <c r="G38" s="216"/>
+      <c r="H38" s="215">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="F39" s="218"/>
-      <c r="G39" s="221"/>
-      <c r="H39" s="220">
+      <c r="F39" s="213"/>
+      <c r="G39" s="216"/>
+      <c r="H39" s="215">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="F40" s="218"/>
-      <c r="G40" s="221">
+      <c r="F40" s="213"/>
+      <c r="G40" s="216">
         <v>1.5</v>
       </c>
-      <c r="H40" s="220">
+      <c r="H40" s="215">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="F41" s="218"/>
-      <c r="G41" s="221">
+      <c r="F41" s="213"/>
+      <c r="G41" s="216">
         <v>1.4</v>
       </c>
-      <c r="H41" s="220">
+      <c r="H41" s="215">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="F42" s="218"/>
-      <c r="G42" s="221"/>
-      <c r="H42" s="220">
+      <c r="F42" s="213"/>
+      <c r="G42" s="216"/>
+      <c r="H42" s="215">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="F43" s="218"/>
-      <c r="G43" s="221"/>
-      <c r="H43" s="220">
+      <c r="F43" s="213"/>
+      <c r="G43" s="216"/>
+      <c r="H43" s="215">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="F44" s="218"/>
-      <c r="G44" s="221"/>
-      <c r="H44" s="220">
+      <c r="F44" s="213"/>
+      <c r="G44" s="216"/>
+      <c r="H44" s="215">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="F45" s="218"/>
-      <c r="G45" s="221"/>
-      <c r="H45" s="220">
+      <c r="F45" s="213"/>
+      <c r="G45" s="216"/>
+      <c r="H45" s="215">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="F46" s="218"/>
-      <c r="G46" s="221"/>
-      <c r="H46" s="220">
+      <c r="F46" s="213"/>
+      <c r="G46" s="216"/>
+      <c r="H46" s="215">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="F47" s="218"/>
-      <c r="G47" s="221"/>
-      <c r="H47" s="220">
+      <c r="F47" s="213"/>
+      <c r="G47" s="216"/>
+      <c r="H47" s="215">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="F48" s="218"/>
-      <c r="G48" s="221">
+      <c r="F48" s="213"/>
+      <c r="G48" s="216">
         <v>0.44</v>
       </c>
-      <c r="H48" s="220">
+      <c r="H48" s="215">
         <v>40</v>
       </c>
     </row>

--- a/py/direction_sheet.xlsx
+++ b/py/direction_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diereport\ex0.11\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586D7099-6B08-4339-99FA-BE3D432A5D4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0759E7D-1F92-462C-88EE-66B8FC644719}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1891,7 +1891,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="430">
+  <cellXfs count="431">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2622,455 +2622,57 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3116,36 +2718,437 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3567,7 +3570,7 @@
   <dimension ref="B1:AI172"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E14"/>
+      <selection activeCell="B1" sqref="B1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="20.25"/>
@@ -3599,98 +3602,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B1" s="426" t="s">
+      <c r="B1" s="363" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="252"/>
-      <c r="P1" s="252"/>
-      <c r="Q1" s="252"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="252"/>
-      <c r="T1" s="252"/>
-      <c r="U1" s="254"/>
+      <c r="C1" s="364"/>
+      <c r="D1" s="364"/>
+      <c r="E1" s="364"/>
+      <c r="F1" s="364"/>
+      <c r="G1" s="364"/>
+      <c r="H1" s="364"/>
+      <c r="I1" s="364"/>
+      <c r="J1" s="364"/>
+      <c r="K1" s="364"/>
+      <c r="L1" s="364"/>
+      <c r="M1" s="364"/>
+      <c r="N1" s="364"/>
+      <c r="O1" s="365"/>
+      <c r="P1" s="365"/>
+      <c r="Q1" s="365"/>
+      <c r="R1" s="365"/>
+      <c r="S1" s="365"/>
+      <c r="T1" s="365"/>
+      <c r="U1" s="366"/>
     </row>
     <row r="2" spans="2:31" ht="28.5" customHeight="1">
       <c r="B2" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="423">
+      <c r="C2" s="257">
         <f>input!D18</f>
         <v>0</v>
       </c>
-      <c r="D2" s="423"/>
+      <c r="D2" s="257"/>
       <c r="E2" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="428">
+      <c r="F2" s="259">
         <f>input!D8</f>
         <v>0</v>
       </c>
-      <c r="G2" s="428"/>
-      <c r="H2" s="429"/>
-      <c r="I2" s="425"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="260"/>
+      <c r="I2" s="252"/>
       <c r="J2" s="209"/>
       <c r="K2" s="124"/>
-      <c r="L2" s="255"/>
-      <c r="M2" s="256"/>
+      <c r="L2" s="367"/>
+      <c r="M2" s="324"/>
       <c r="N2" s="125"/>
-      <c r="O2" s="321" t="s">
+      <c r="O2" s="311" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="322"/>
-      <c r="Q2" s="321" t="s">
+      <c r="P2" s="325"/>
+      <c r="Q2" s="311" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="325"/>
-      <c r="S2" s="325"/>
-      <c r="T2" s="325"/>
-      <c r="U2" s="322"/>
+      <c r="R2" s="327"/>
+      <c r="S2" s="327"/>
+      <c r="T2" s="327"/>
+      <c r="U2" s="325"/>
     </row>
     <row r="3" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B3" s="249" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="354">
+      <c r="C3" s="258">
         <f>input!D17</f>
         <v>0</v>
       </c>
-      <c r="D3" s="354"/>
+      <c r="D3" s="258"/>
       <c r="E3" s="250" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="354">
+      <c r="F3" s="258">
         <f>input!D9</f>
         <v>0</v>
       </c>
-      <c r="G3" s="354"/>
-      <c r="H3" s="355"/>
-      <c r="I3" s="425"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="261"/>
+      <c r="I3" s="252"/>
       <c r="J3" s="209"/>
       <c r="K3" s="35"/>
-      <c r="L3" s="255"/>
-      <c r="M3" s="256"/>
+      <c r="L3" s="367"/>
+      <c r="M3" s="324"/>
       <c r="N3" s="125"/>
-      <c r="O3" s="323" t="s">
+      <c r="O3" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="P3" s="324"/>
-      <c r="Q3" s="323"/>
-      <c r="R3" s="326"/>
-      <c r="S3" s="326"/>
-      <c r="T3" s="326"/>
-      <c r="U3" s="324"/>
+      <c r="P3" s="326"/>
+      <c r="Q3" s="313"/>
+      <c r="R3" s="328"/>
+      <c r="S3" s="328"/>
+      <c r="T3" s="328"/>
+      <c r="U3" s="326"/>
     </row>
     <row r="4" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B4" s="25"/>
@@ -3698,17 +3701,17 @@
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="184"/>
-      <c r="G4" s="427" t="s">
+      <c r="G4" s="414" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="424"/>
-      <c r="I4" s="305"/>
-      <c r="J4" s="306"/>
-      <c r="K4" s="304" t="s">
+      <c r="H4" s="415"/>
+      <c r="I4" s="416"/>
+      <c r="J4" s="417"/>
+      <c r="K4" s="418" t="s">
         <v>136</v>
       </c>
-      <c r="L4" s="305"/>
-      <c r="M4" s="306"/>
+      <c r="L4" s="416"/>
+      <c r="M4" s="417"/>
       <c r="N4" s="127"/>
       <c r="O4" s="177" t="s">
         <v>79</v>
@@ -3716,24 +3719,24 @@
       <c r="P4" s="178" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="321" t="s">
+      <c r="Q4" s="311" t="s">
         <v>122</v>
       </c>
-      <c r="R4" s="325"/>
-      <c r="S4" s="325"/>
-      <c r="T4" s="325"/>
-      <c r="U4" s="322"/>
+      <c r="R4" s="327"/>
+      <c r="S4" s="327"/>
+      <c r="T4" s="327"/>
+      <c r="U4" s="325"/>
     </row>
     <row r="5" spans="2:31" ht="28.5" customHeight="1">
-      <c r="B5" s="296" t="s">
+      <c r="B5" s="406" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="298">
+      <c r="C5" s="408">
         <f>input!D6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="300"/>
+      <c r="D5" s="409"/>
+      <c r="E5" s="410"/>
       <c r="F5" s="121"/>
       <c r="G5" s="129" t="s">
         <v>2</v>
@@ -3754,23 +3757,23 @@
       <c r="L5" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="M5" s="285" t="s">
+      <c r="M5" s="395" t="s">
         <v>128</v>
       </c>
       <c r="N5" s="121"/>
-      <c r="O5" s="356"/>
-      <c r="P5" s="358"/>
-      <c r="Q5" s="289"/>
-      <c r="R5" s="290"/>
-      <c r="S5" s="290"/>
-      <c r="T5" s="290"/>
-      <c r="U5" s="291"/>
+      <c r="O5" s="353"/>
+      <c r="P5" s="355"/>
+      <c r="Q5" s="399"/>
+      <c r="R5" s="400"/>
+      <c r="S5" s="400"/>
+      <c r="T5" s="400"/>
+      <c r="U5" s="401"/>
     </row>
     <row r="6" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B6" s="297"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="302"/>
-      <c r="E6" s="303"/>
+      <c r="B6" s="407"/>
+      <c r="C6" s="411"/>
+      <c r="D6" s="412"/>
+      <c r="E6" s="413"/>
       <c r="F6" s="121"/>
       <c r="G6" s="166">
         <v>6061</v>
@@ -3792,26 +3795,26 @@
         <f>ROUND(input!D14,2)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="286"/>
+      <c r="M6" s="396"/>
       <c r="N6" s="122"/>
-      <c r="O6" s="357"/>
-      <c r="P6" s="359"/>
-      <c r="Q6" s="283"/>
-      <c r="R6" s="292"/>
-      <c r="S6" s="292"/>
-      <c r="T6" s="292"/>
-      <c r="U6" s="284"/>
+      <c r="O6" s="354"/>
+      <c r="P6" s="356"/>
+      <c r="Q6" s="393"/>
+      <c r="R6" s="402"/>
+      <c r="S6" s="402"/>
+      <c r="T6" s="402"/>
+      <c r="U6" s="394"/>
     </row>
     <row r="7" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B7" s="257" t="s">
+      <c r="B7" s="287" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="259">
+      <c r="C7" s="369">
         <f>input!D7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="261"/>
+      <c r="D7" s="370"/>
+      <c r="E7" s="371"/>
       <c r="F7" s="121"/>
       <c r="G7" s="166">
         <v>6063</v>
@@ -3832,30 +3835,30 @@
       <c r="L7" s="175" t="s">
         <v>100</v>
       </c>
-      <c r="M7" s="287">
+      <c r="M7" s="397">
         <f>input!K11</f>
         <v>0</v>
       </c>
       <c r="N7" s="123"/>
-      <c r="O7" s="360" t="s">
+      <c r="O7" s="357" t="s">
         <v>142</v>
       </c>
-      <c r="P7" s="361"/>
-      <c r="Q7" s="277" t="s">
+      <c r="P7" s="358"/>
+      <c r="Q7" s="387" t="s">
         <v>125</v>
       </c>
-      <c r="R7" s="278"/>
-      <c r="S7" s="274" t="s">
+      <c r="R7" s="388"/>
+      <c r="S7" s="384" t="s">
         <v>137</v>
       </c>
-      <c r="T7" s="275"/>
-      <c r="U7" s="276"/>
+      <c r="T7" s="385"/>
+      <c r="U7" s="386"/>
     </row>
     <row r="8" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B8" s="258"/>
-      <c r="C8" s="262"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="264"/>
+      <c r="B8" s="368"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="373"/>
+      <c r="E8" s="374"/>
       <c r="F8" s="121"/>
       <c r="G8" s="225" t="s">
         <v>175</v>
@@ -3877,11 +3880,11 @@
         <f>input!D15</f>
         <v>0</v>
       </c>
-      <c r="M8" s="288"/>
+      <c r="M8" s="398"/>
       <c r="N8" s="123"/>
-      <c r="O8" s="362"/>
-      <c r="P8" s="363"/>
-      <c r="Q8" s="293" t="s">
+      <c r="O8" s="359"/>
+      <c r="P8" s="360"/>
+      <c r="Q8" s="403" t="s">
         <v>124</v>
       </c>
       <c r="R8" s="338" t="s">
@@ -3898,23 +3901,23 @@
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="265" t="s">
+      <c r="H9" s="375" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="266"/>
-      <c r="J9" s="271" t="str">
+      <c r="I9" s="376"/>
+      <c r="J9" s="381" t="str">
         <f>input!D36&amp;"-"&amp;input!D37</f>
         <v>-</v>
       </c>
-      <c r="K9" s="307" t="s">
+      <c r="K9" s="419" t="s">
         <v>150</v>
       </c>
-      <c r="L9" s="308"/>
-      <c r="M9" s="313"/>
+      <c r="L9" s="420"/>
+      <c r="M9" s="425"/>
       <c r="N9" s="30"/>
-      <c r="O9" s="362"/>
-      <c r="P9" s="363"/>
-      <c r="Q9" s="294"/>
+      <c r="O9" s="359"/>
+      <c r="P9" s="360"/>
+      <c r="Q9" s="404"/>
       <c r="R9" s="339"/>
       <c r="S9" s="346"/>
       <c r="T9" s="344"/>
@@ -3927,59 +3930,59 @@
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
       <c r="G10" s="185"/>
-      <c r="H10" s="267"/>
-      <c r="I10" s="268"/>
-      <c r="J10" s="272"/>
-      <c r="K10" s="309"/>
-      <c r="L10" s="310"/>
-      <c r="M10" s="314"/>
+      <c r="H10" s="377"/>
+      <c r="I10" s="378"/>
+      <c r="J10" s="382"/>
+      <c r="K10" s="421"/>
+      <c r="L10" s="422"/>
+      <c r="M10" s="426"/>
       <c r="N10" s="30"/>
-      <c r="O10" s="364"/>
-      <c r="P10" s="365"/>
-      <c r="Q10" s="295"/>
+      <c r="O10" s="361"/>
+      <c r="P10" s="362"/>
+      <c r="Q10" s="405"/>
       <c r="R10" s="340"/>
       <c r="S10" s="347"/>
       <c r="T10" s="348"/>
       <c r="U10" s="349"/>
     </row>
     <row r="11" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B11" s="296" t="s">
+      <c r="B11" s="406" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="316" t="str">
+      <c r="C11" s="428" t="str">
         <f>IF(C13=0,"","DR"&amp;MID(C13,2,4))</f>
         <v/>
       </c>
-      <c r="D11" s="316"/>
-      <c r="E11" s="317"/>
+      <c r="D11" s="428"/>
+      <c r="E11" s="429"/>
       <c r="F11" s="35"/>
-      <c r="H11" s="269"/>
-      <c r="I11" s="270"/>
-      <c r="J11" s="273"/>
-      <c r="K11" s="311"/>
-      <c r="L11" s="312"/>
-      <c r="M11" s="315"/>
+      <c r="H11" s="379"/>
+      <c r="I11" s="380"/>
+      <c r="J11" s="383"/>
+      <c r="K11" s="423"/>
+      <c r="L11" s="424"/>
+      <c r="M11" s="427"/>
       <c r="N11" s="30"/>
-      <c r="O11" s="279"/>
-      <c r="P11" s="280"/>
+      <c r="O11" s="389"/>
+      <c r="P11" s="390"/>
       <c r="Q11" s="332"/>
       <c r="R11" s="335"/>
-      <c r="S11" s="329" t="s">
+      <c r="S11" s="322" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="330"/>
-      <c r="U11" s="331"/>
+      <c r="T11" s="331"/>
+      <c r="U11" s="298"/>
     </row>
     <row r="12" spans="2:31" ht="27.75" customHeight="1">
-      <c r="B12" s="297"/>
-      <c r="C12" s="318"/>
-      <c r="D12" s="318"/>
-      <c r="E12" s="319"/>
+      <c r="B12" s="407"/>
+      <c r="C12" s="291"/>
+      <c r="D12" s="291"/>
+      <c r="E12" s="292"/>
       <c r="F12" s="25"/>
       <c r="J12" s="101"/>
       <c r="N12" s="30"/>
-      <c r="O12" s="281"/>
-      <c r="P12" s="282"/>
+      <c r="O12" s="391"/>
+      <c r="P12" s="392"/>
       <c r="Q12" s="333"/>
       <c r="R12" s="336"/>
       <c r="S12" s="350"/>
@@ -3987,15 +3990,15 @@
       <c r="U12" s="352"/>
     </row>
     <row r="13" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B13" s="257" t="s">
+      <c r="B13" s="287" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="318">
+      <c r="C13" s="291">
         <f>input!D32</f>
         <v>0</v>
       </c>
-      <c r="D13" s="318"/>
-      <c r="E13" s="319"/>
+      <c r="D13" s="291"/>
+      <c r="E13" s="292"/>
       <c r="F13" s="25"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
@@ -4005,19 +4008,19 @@
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
       <c r="N13" s="30"/>
-      <c r="O13" s="283"/>
-      <c r="P13" s="284"/>
+      <c r="O13" s="393"/>
+      <c r="P13" s="394"/>
       <c r="Q13" s="334"/>
       <c r="R13" s="337"/>
-      <c r="S13" s="353"/>
-      <c r="T13" s="354"/>
-      <c r="U13" s="355"/>
+      <c r="S13" s="288"/>
+      <c r="T13" s="258"/>
+      <c r="U13" s="261"/>
     </row>
     <row r="14" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B14" s="353"/>
-      <c r="C14" s="374"/>
-      <c r="D14" s="374"/>
-      <c r="E14" s="375"/>
+      <c r="B14" s="288"/>
+      <c r="C14" s="293"/>
+      <c r="D14" s="293"/>
+      <c r="E14" s="294"/>
       <c r="F14" s="35"/>
       <c r="G14" s="120" t="s">
         <v>5</v>
@@ -4096,12 +4099,12 @@
       </c>
     </row>
     <row r="16" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B16" s="376" t="s">
+      <c r="B16" s="295" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="377"/>
-      <c r="D16" s="378"/>
-      <c r="E16" s="331"/>
+      <c r="C16" s="296"/>
+      <c r="D16" s="297"/>
+      <c r="E16" s="298"/>
       <c r="F16" s="35"/>
       <c r="G16" s="119">
         <v>1</v>
@@ -4139,10 +4142,10 @@
       <c r="C17" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="372" t="s">
+      <c r="D17" s="289" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="373"/>
+      <c r="E17" s="290"/>
       <c r="F17" s="35"/>
       <c r="G17" s="119">
         <v>2</v>
@@ -4176,8 +4179,8 @@
     <row r="18" spans="2:31" ht="35.1" customHeight="1">
       <c r="B18" s="114"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="370"/>
-      <c r="E18" s="371"/>
+      <c r="D18" s="254"/>
+      <c r="E18" s="286"/>
       <c r="F18" s="35"/>
       <c r="G18" s="119">
         <v>3</v>
@@ -4211,8 +4214,8 @@
     <row r="19" spans="2:31" ht="35.1" customHeight="1">
       <c r="B19" s="114"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="370"/>
-      <c r="E19" s="371"/>
+      <c r="D19" s="254"/>
+      <c r="E19" s="286"/>
       <c r="F19" s="35"/>
       <c r="G19" s="119">
         <v>4</v>
@@ -4238,10 +4241,10 @@
       <c r="T19" s="37"/>
       <c r="U19" s="38"/>
       <c r="W19" s="39"/>
-      <c r="X19" s="327"/>
-      <c r="Y19" s="256"/>
-      <c r="Z19" s="256"/>
-      <c r="AA19" s="256"/>
+      <c r="X19" s="329"/>
+      <c r="Y19" s="324"/>
+      <c r="Z19" s="324"/>
+      <c r="AA19" s="324"/>
       <c r="AB19" s="35"/>
       <c r="AC19" s="35"/>
       <c r="AD19" s="35"/>
@@ -4250,8 +4253,8 @@
     <row r="20" spans="2:31" ht="35.1" customHeight="1">
       <c r="B20" s="114"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="370"/>
-      <c r="E20" s="371"/>
+      <c r="D20" s="254"/>
+      <c r="E20" s="286"/>
       <c r="F20" s="35"/>
       <c r="G20" s="119">
         <v>5</v>
@@ -4275,8 +4278,8 @@
       <c r="W20" s="35"/>
       <c r="X20" s="116"/>
       <c r="Y20" s="34"/>
-      <c r="Z20" s="328"/>
-      <c r="AA20" s="256"/>
+      <c r="Z20" s="330"/>
+      <c r="AA20" s="324"/>
       <c r="AB20" s="35"/>
       <c r="AC20" s="35"/>
       <c r="AD20" s="35"/>
@@ -4285,8 +4288,8 @@
     <row r="21" spans="2:31" ht="35.1" customHeight="1">
       <c r="B21" s="114"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="370"/>
-      <c r="E21" s="371"/>
+      <c r="D21" s="254"/>
+      <c r="E21" s="286"/>
       <c r="F21" s="35"/>
       <c r="G21" s="119">
         <v>6</v>
@@ -4311,8 +4314,8 @@
       <c r="W21" s="35"/>
       <c r="X21" s="116"/>
       <c r="Y21" s="117"/>
-      <c r="Z21" s="320"/>
-      <c r="AA21" s="256"/>
+      <c r="Z21" s="323"/>
+      <c r="AA21" s="324"/>
       <c r="AB21" s="35"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="35"/>
@@ -4321,8 +4324,8 @@
     <row r="22" spans="2:31" ht="35.1" customHeight="1">
       <c r="B22" s="114"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="370"/>
-      <c r="E22" s="371"/>
+      <c r="D22" s="254"/>
+      <c r="E22" s="286"/>
       <c r="F22" s="35"/>
       <c r="G22" s="119">
         <v>7</v>
@@ -4347,8 +4350,8 @@
       <c r="W22" s="35"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="35"/>
-      <c r="Z22" s="256"/>
-      <c r="AA22" s="256"/>
+      <c r="Z22" s="324"/>
+      <c r="AA22" s="324"/>
       <c r="AB22" s="35"/>
       <c r="AC22" s="35"/>
       <c r="AD22" s="35"/>
@@ -4357,8 +4360,8 @@
     <row r="23" spans="2:31" ht="35.1" customHeight="1">
       <c r="B23" s="114"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="370"/>
-      <c r="E23" s="371"/>
+      <c r="D23" s="254"/>
+      <c r="E23" s="286"/>
       <c r="F23" s="35"/>
       <c r="G23" s="119">
         <v>8</v>
@@ -4393,8 +4396,8 @@
     <row r="24" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
       <c r="B24" s="115"/>
       <c r="C24" s="29"/>
-      <c r="D24" s="368"/>
-      <c r="E24" s="369"/>
+      <c r="D24" s="320"/>
+      <c r="E24" s="321"/>
       <c r="F24" s="35"/>
       <c r="G24" s="119">
         <v>9</v>
@@ -4457,14 +4460,14 @@
       <c r="W25" s="40"/>
     </row>
     <row r="26" spans="2:31" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B26" s="329" t="s">
+      <c r="B26" s="322" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="331"/>
-      <c r="D26" s="329" t="s">
+      <c r="C26" s="298"/>
+      <c r="D26" s="322" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="331"/>
+      <c r="E26" s="298"/>
       <c r="F26" s="35"/>
       <c r="G26" s="119">
         <v>11</v>
@@ -4903,10 +4906,10 @@
       <c r="U38" s="38"/>
     </row>
     <row r="39" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B39" s="366" t="s">
+      <c r="B39" s="318" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="367"/>
+      <c r="C39" s="319"/>
       <c r="D39" s="146"/>
       <c r="E39" s="112"/>
       <c r="F39" s="104"/>
@@ -5073,14 +5076,14 @@
       <c r="U44" s="38"/>
     </row>
     <row r="45" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B45" s="384" t="s">
+      <c r="B45" s="303" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="386" t="s">
+      <c r="C45" s="305" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="387"/>
-      <c r="E45" s="388"/>
+      <c r="D45" s="306"/>
+      <c r="E45" s="307"/>
       <c r="F45" s="104"/>
       <c r="G45" s="119">
         <v>30</v>
@@ -5103,7 +5106,7 @@
       <c r="U45" s="38"/>
     </row>
     <row r="46" spans="2:28" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B46" s="385"/>
+      <c r="B46" s="304"/>
       <c r="C46" s="207" t="s">
         <v>93</v>
       </c>
@@ -5203,14 +5206,14 @@
       <c r="AB48" s="104"/>
     </row>
     <row r="49" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B49" s="384" t="s">
+      <c r="B49" s="303" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="386" t="s">
+      <c r="C49" s="305" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="387"/>
-      <c r="E49" s="388"/>
+      <c r="D49" s="306"/>
+      <c r="E49" s="307"/>
       <c r="F49" s="35"/>
       <c r="G49" s="119">
         <v>34</v>
@@ -5239,7 +5242,7 @@
       <c r="AB49" s="35"/>
     </row>
     <row r="50" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B50" s="385"/>
+      <c r="B50" s="304"/>
       <c r="C50" s="207" t="s">
         <v>93</v>
       </c>
@@ -5377,12 +5380,12 @@
       <c r="AB53" s="35"/>
     </row>
     <row r="54" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B54" s="321" t="s">
+      <c r="B54" s="311" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="392"/>
-      <c r="D54" s="381"/>
-      <c r="E54" s="382"/>
+      <c r="C54" s="312"/>
+      <c r="D54" s="301"/>
+      <c r="E54" s="302"/>
       <c r="F54" s="35"/>
       <c r="G54" s="119">
         <v>39</v>
@@ -5411,12 +5414,12 @@
       <c r="AB54" s="35"/>
     </row>
     <row r="55" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B55" s="390" t="s">
+      <c r="B55" s="309" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="391"/>
-      <c r="D55" s="379"/>
-      <c r="E55" s="380"/>
+      <c r="C55" s="310"/>
+      <c r="D55" s="299"/>
+      <c r="E55" s="300"/>
       <c r="F55" s="35"/>
       <c r="G55" s="119">
         <v>40</v>
@@ -5445,12 +5448,12 @@
       <c r="AB55" s="35"/>
     </row>
     <row r="56" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B56" s="323" t="s">
+      <c r="B56" s="313" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="393"/>
-      <c r="D56" s="398"/>
-      <c r="E56" s="405"/>
+      <c r="C56" s="314"/>
+      <c r="D56" s="269"/>
+      <c r="E56" s="270"/>
       <c r="F56" s="35"/>
       <c r="G56" s="119">
         <v>41</v>
@@ -5511,12 +5514,12 @@
       <c r="AB57" s="35"/>
     </row>
     <row r="58" spans="2:28" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B58" s="402" t="s">
+      <c r="B58" s="264" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="403"/>
-      <c r="D58" s="403"/>
-      <c r="E58" s="404"/>
+      <c r="C58" s="265"/>
+      <c r="D58" s="265"/>
+      <c r="E58" s="266"/>
       <c r="F58" s="35"/>
       <c r="G58" s="119">
         <v>43</v>
@@ -5548,10 +5551,10 @@
       <c r="B59" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="400" t="s">
+      <c r="C59" s="262" t="s">
         <v>132</v>
       </c>
-      <c r="D59" s="401"/>
+      <c r="D59" s="263"/>
       <c r="E59" s="161" t="s">
         <v>131</v>
       </c>
@@ -5586,8 +5589,8 @@
       <c r="B60" s="162">
         <v>1</v>
       </c>
-      <c r="C60" s="396"/>
-      <c r="D60" s="397"/>
+      <c r="C60" s="267"/>
+      <c r="D60" s="268"/>
       <c r="E60" s="163"/>
       <c r="F60" s="35"/>
       <c r="G60" s="119">
@@ -5620,8 +5623,8 @@
       <c r="B61" s="162">
         <v>2</v>
       </c>
-      <c r="C61" s="396"/>
-      <c r="D61" s="397"/>
+      <c r="C61" s="267"/>
+      <c r="D61" s="268"/>
       <c r="E61" s="163"/>
       <c r="F61" s="35"/>
       <c r="G61" s="119">
@@ -5654,8 +5657,8 @@
       <c r="B62" s="162">
         <v>3</v>
       </c>
-      <c r="C62" s="396"/>
-      <c r="D62" s="397"/>
+      <c r="C62" s="267"/>
+      <c r="D62" s="268"/>
       <c r="E62" s="163"/>
       <c r="F62" s="35"/>
       <c r="G62" s="119">
@@ -5688,8 +5691,8 @@
       <c r="B63" s="162">
         <v>4</v>
       </c>
-      <c r="C63" s="396"/>
-      <c r="D63" s="397"/>
+      <c r="C63" s="267"/>
+      <c r="D63" s="268"/>
       <c r="E63" s="163"/>
       <c r="F63" s="35"/>
       <c r="G63" s="119">
@@ -5721,8 +5724,8 @@
       <c r="B64" s="162">
         <v>5</v>
       </c>
-      <c r="C64" s="396"/>
-      <c r="D64" s="397"/>
+      <c r="C64" s="267"/>
+      <c r="D64" s="268"/>
       <c r="E64" s="163"/>
       <c r="F64" s="209"/>
       <c r="G64" s="119">
@@ -5754,8 +5757,8 @@
       <c r="B65" s="162">
         <v>6</v>
       </c>
-      <c r="C65" s="396"/>
-      <c r="D65" s="397"/>
+      <c r="C65" s="267"/>
+      <c r="D65" s="268"/>
       <c r="E65" s="163"/>
       <c r="F65" s="209"/>
       <c r="G65" s="119">
@@ -5787,8 +5790,8 @@
       <c r="B66" s="222">
         <v>7</v>
       </c>
-      <c r="C66" s="398"/>
-      <c r="D66" s="399"/>
+      <c r="C66" s="269"/>
+      <c r="D66" s="317"/>
       <c r="E66" s="224"/>
       <c r="F66" s="209"/>
       <c r="G66" s="208" t="s">
@@ -5863,21 +5866,21 @@
       <c r="B68" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="394"/>
-      <c r="D68" s="394"/>
-      <c r="E68" s="395"/>
-      <c r="F68" s="389"/>
-      <c r="G68" s="419" t="s">
+      <c r="C68" s="315"/>
+      <c r="D68" s="315"/>
+      <c r="E68" s="316"/>
+      <c r="F68" s="308"/>
+      <c r="G68" s="284" t="s">
         <v>163</v>
       </c>
-      <c r="H68" s="420"/>
-      <c r="I68" s="420"/>
-      <c r="J68" s="420"/>
-      <c r="K68" s="420" t="s">
+      <c r="H68" s="255"/>
+      <c r="I68" s="255"/>
+      <c r="J68" s="255"/>
+      <c r="K68" s="255" t="s">
         <v>152</v>
       </c>
-      <c r="L68" s="420"/>
-      <c r="M68" s="422"/>
+      <c r="L68" s="255"/>
+      <c r="M68" s="256"/>
       <c r="N68" s="240" t="s">
         <v>7</v>
       </c>
@@ -5888,11 +5891,11 @@
         <v>141</v>
       </c>
       <c r="Q68" s="242"/>
-      <c r="S68" s="410" t="s">
+      <c r="S68" s="275" t="s">
         <v>148</v>
       </c>
-      <c r="T68" s="411"/>
-      <c r="U68" s="412"/>
+      <c r="T68" s="276"/>
+      <c r="U68" s="277"/>
       <c r="W68" s="35"/>
       <c r="X68" s="35"/>
       <c r="Y68" s="35"/>
@@ -5904,18 +5907,18 @@
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="30"/>
-      <c r="F69" s="389"/>
-      <c r="G69" s="421" t="s">
+      <c r="F69" s="308"/>
+      <c r="G69" s="285" t="s">
         <v>164</v>
       </c>
-      <c r="H69" s="383"/>
-      <c r="I69" s="383"/>
-      <c r="J69" s="383"/>
-      <c r="K69" s="383" t="s">
+      <c r="H69" s="253"/>
+      <c r="I69" s="253"/>
+      <c r="J69" s="253"/>
+      <c r="K69" s="253" t="s">
         <v>153</v>
       </c>
-      <c r="L69" s="383"/>
-      <c r="M69" s="370"/>
+      <c r="L69" s="253"/>
+      <c r="M69" s="254"/>
       <c r="N69" s="244">
         <v>1</v>
       </c>
@@ -5923,9 +5926,9 @@
       <c r="P69" s="246"/>
       <c r="Q69" s="247"/>
       <c r="R69" s="239"/>
-      <c r="S69" s="413"/>
-      <c r="T69" s="414"/>
-      <c r="U69" s="415"/>
+      <c r="S69" s="278"/>
+      <c r="T69" s="279"/>
+      <c r="U69" s="280"/>
       <c r="W69" s="35"/>
       <c r="X69" s="35"/>
       <c r="Y69" s="35"/>
@@ -5938,17 +5941,17 @@
       <c r="D70" s="35"/>
       <c r="E70" s="30"/>
       <c r="F70" s="35"/>
-      <c r="G70" s="421" t="s">
+      <c r="G70" s="285" t="s">
         <v>165</v>
       </c>
-      <c r="H70" s="383"/>
-      <c r="I70" s="383"/>
-      <c r="J70" s="383"/>
-      <c r="K70" s="383" t="s">
+      <c r="H70" s="253"/>
+      <c r="I70" s="253"/>
+      <c r="J70" s="253"/>
+      <c r="K70" s="253" t="s">
         <v>154</v>
       </c>
-      <c r="L70" s="383"/>
-      <c r="M70" s="370"/>
+      <c r="L70" s="253"/>
+      <c r="M70" s="254"/>
       <c r="N70" s="52">
         <v>2</v>
       </c>
@@ -5956,9 +5959,9 @@
       <c r="P70" s="230"/>
       <c r="Q70" s="231"/>
       <c r="R70" s="239"/>
-      <c r="S70" s="413"/>
-      <c r="T70" s="414"/>
-      <c r="U70" s="415"/>
+      <c r="S70" s="278"/>
+      <c r="T70" s="279"/>
+      <c r="U70" s="280"/>
       <c r="W70" s="35"/>
       <c r="X70" s="35"/>
       <c r="Y70" s="35"/>
@@ -5971,17 +5974,17 @@
       <c r="D71" s="35"/>
       <c r="E71" s="30"/>
       <c r="F71" s="35"/>
-      <c r="G71" s="421" t="s">
+      <c r="G71" s="285" t="s">
         <v>166</v>
       </c>
-      <c r="H71" s="383"/>
-      <c r="I71" s="383"/>
-      <c r="J71" s="383"/>
-      <c r="K71" s="383" t="s">
+      <c r="H71" s="253"/>
+      <c r="I71" s="253"/>
+      <c r="J71" s="253"/>
+      <c r="K71" s="253" t="s">
         <v>155</v>
       </c>
-      <c r="L71" s="383"/>
-      <c r="M71" s="370"/>
+      <c r="L71" s="253"/>
+      <c r="M71" s="254"/>
       <c r="N71" s="52">
         <v>3</v>
       </c>
@@ -5989,9 +5992,9 @@
       <c r="P71" s="230"/>
       <c r="Q71" s="231"/>
       <c r="R71" s="239"/>
-      <c r="S71" s="413"/>
-      <c r="T71" s="414"/>
-      <c r="U71" s="415"/>
+      <c r="S71" s="278"/>
+      <c r="T71" s="279"/>
+      <c r="U71" s="280"/>
       <c r="W71" s="35"/>
       <c r="X71" s="35"/>
       <c r="Y71" s="35"/>
@@ -6004,17 +6007,17 @@
       <c r="D72" s="35"/>
       <c r="E72" s="30"/>
       <c r="F72" s="35"/>
-      <c r="G72" s="421" t="s">
+      <c r="G72" s="285" t="s">
         <v>167</v>
       </c>
-      <c r="H72" s="383"/>
-      <c r="I72" s="383"/>
-      <c r="J72" s="383"/>
-      <c r="K72" s="383" t="s">
+      <c r="H72" s="253"/>
+      <c r="I72" s="253"/>
+      <c r="J72" s="253"/>
+      <c r="K72" s="253" t="s">
         <v>156</v>
       </c>
-      <c r="L72" s="383"/>
-      <c r="M72" s="370"/>
+      <c r="L72" s="253"/>
+      <c r="M72" s="254"/>
       <c r="N72" s="52">
         <v>4</v>
       </c>
@@ -6022,9 +6025,9 @@
       <c r="P72" s="230"/>
       <c r="Q72" s="231"/>
       <c r="R72" s="239"/>
-      <c r="S72" s="413"/>
-      <c r="T72" s="414"/>
-      <c r="U72" s="415"/>
+      <c r="S72" s="278"/>
+      <c r="T72" s="279"/>
+      <c r="U72" s="280"/>
       <c r="W72" s="35"/>
       <c r="X72" s="35"/>
       <c r="Y72" s="35"/>
@@ -6037,17 +6040,17 @@
       <c r="D73" s="35"/>
       <c r="E73" s="30"/>
       <c r="F73" s="35"/>
-      <c r="G73" s="421" t="s">
+      <c r="G73" s="285" t="s">
         <v>168</v>
       </c>
-      <c r="H73" s="383"/>
-      <c r="I73" s="383"/>
-      <c r="J73" s="383"/>
-      <c r="K73" s="383" t="s">
+      <c r="H73" s="253"/>
+      <c r="I73" s="253"/>
+      <c r="J73" s="253"/>
+      <c r="K73" s="253" t="s">
         <v>157</v>
       </c>
-      <c r="L73" s="383"/>
-      <c r="M73" s="370"/>
+      <c r="L73" s="253"/>
+      <c r="M73" s="254"/>
       <c r="N73" s="52">
         <v>5</v>
       </c>
@@ -6055,9 +6058,9 @@
       <c r="P73" s="230"/>
       <c r="Q73" s="231"/>
       <c r="R73" s="239"/>
-      <c r="S73" s="413"/>
-      <c r="T73" s="414"/>
-      <c r="U73" s="415"/>
+      <c r="S73" s="278"/>
+      <c r="T73" s="279"/>
+      <c r="U73" s="280"/>
       <c r="W73" s="35"/>
       <c r="X73" s="35"/>
       <c r="Y73" s="35"/>
@@ -6070,17 +6073,17 @@
       <c r="D74" s="35"/>
       <c r="E74" s="30"/>
       <c r="F74" s="35"/>
-      <c r="G74" s="421" t="s">
+      <c r="G74" s="285" t="s">
         <v>169</v>
       </c>
-      <c r="H74" s="383"/>
-      <c r="I74" s="383"/>
-      <c r="J74" s="383"/>
-      <c r="K74" s="383" t="s">
+      <c r="H74" s="253"/>
+      <c r="I74" s="253"/>
+      <c r="J74" s="253"/>
+      <c r="K74" s="253" t="s">
         <v>158</v>
       </c>
-      <c r="L74" s="383"/>
-      <c r="M74" s="370"/>
+      <c r="L74" s="253"/>
+      <c r="M74" s="254"/>
       <c r="N74" s="52">
         <v>6</v>
       </c>
@@ -6088,9 +6091,9 @@
       <c r="P74" s="230"/>
       <c r="Q74" s="231"/>
       <c r="R74" s="239"/>
-      <c r="S74" s="413"/>
-      <c r="T74" s="414"/>
-      <c r="U74" s="415"/>
+      <c r="S74" s="278"/>
+      <c r="T74" s="279"/>
+      <c r="U74" s="280"/>
       <c r="W74" s="35"/>
       <c r="X74" s="35"/>
       <c r="Y74" s="35"/>
@@ -6103,17 +6106,17 @@
       <c r="D75" s="35"/>
       <c r="E75" s="30"/>
       <c r="F75" s="35"/>
-      <c r="G75" s="421" t="s">
+      <c r="G75" s="285" t="s">
         <v>170</v>
       </c>
-      <c r="H75" s="383"/>
-      <c r="I75" s="383"/>
-      <c r="J75" s="383"/>
-      <c r="K75" s="383" t="s">
+      <c r="H75" s="253"/>
+      <c r="I75" s="253"/>
+      <c r="J75" s="253"/>
+      <c r="K75" s="253" t="s">
         <v>159</v>
       </c>
-      <c r="L75" s="383"/>
-      <c r="M75" s="370"/>
+      <c r="L75" s="253"/>
+      <c r="M75" s="254"/>
       <c r="N75" s="52">
         <v>7</v>
       </c>
@@ -6121,9 +6124,9 @@
       <c r="P75" s="230"/>
       <c r="Q75" s="231"/>
       <c r="R75" s="239"/>
-      <c r="S75" s="413"/>
-      <c r="T75" s="414"/>
-      <c r="U75" s="415"/>
+      <c r="S75" s="278"/>
+      <c r="T75" s="279"/>
+      <c r="U75" s="280"/>
       <c r="X75" s="35"/>
     </row>
     <row r="76" spans="2:29" ht="28.5" customHeight="1">
@@ -6132,17 +6135,17 @@
       <c r="D76" s="35"/>
       <c r="E76" s="30"/>
       <c r="F76" s="35"/>
-      <c r="G76" s="421" t="s">
+      <c r="G76" s="285" t="s">
         <v>171</v>
       </c>
-      <c r="H76" s="383"/>
-      <c r="I76" s="383"/>
-      <c r="J76" s="383"/>
-      <c r="K76" s="383" t="s">
+      <c r="H76" s="253"/>
+      <c r="I76" s="253"/>
+      <c r="J76" s="253"/>
+      <c r="K76" s="253" t="s">
         <v>160</v>
       </c>
-      <c r="L76" s="383"/>
-      <c r="M76" s="370"/>
+      <c r="L76" s="253"/>
+      <c r="M76" s="254"/>
       <c r="N76" s="52">
         <v>8</v>
       </c>
@@ -6150,9 +6153,9 @@
       <c r="P76" s="230"/>
       <c r="Q76" s="231"/>
       <c r="R76" s="239"/>
-      <c r="S76" s="413"/>
-      <c r="T76" s="414"/>
-      <c r="U76" s="415"/>
+      <c r="S76" s="278"/>
+      <c r="T76" s="279"/>
+      <c r="U76" s="280"/>
       <c r="X76" s="35"/>
     </row>
     <row r="77" spans="2:29" ht="21.95" customHeight="1">
@@ -6161,17 +6164,17 @@
       <c r="D77" s="192"/>
       <c r="E77" s="234"/>
       <c r="F77" s="192"/>
-      <c r="G77" s="421" t="s">
+      <c r="G77" s="285" t="s">
         <v>172</v>
       </c>
-      <c r="H77" s="383"/>
-      <c r="I77" s="383"/>
-      <c r="J77" s="383"/>
-      <c r="K77" s="383" t="s">
+      <c r="H77" s="253"/>
+      <c r="I77" s="253"/>
+      <c r="J77" s="253"/>
+      <c r="K77" s="253" t="s">
         <v>161</v>
       </c>
-      <c r="L77" s="383"/>
-      <c r="M77" s="370"/>
+      <c r="L77" s="253"/>
+      <c r="M77" s="254"/>
       <c r="N77" s="52">
         <v>9</v>
       </c>
@@ -6179,9 +6182,9 @@
       <c r="P77" s="243"/>
       <c r="Q77" s="248"/>
       <c r="R77" s="192"/>
-      <c r="S77" s="413"/>
-      <c r="T77" s="414"/>
-      <c r="U77" s="415"/>
+      <c r="S77" s="278"/>
+      <c r="T77" s="279"/>
+      <c r="U77" s="280"/>
       <c r="X77" s="35"/>
     </row>
     <row r="78" spans="2:29" ht="30" customHeight="1">
@@ -6190,17 +6193,17 @@
       <c r="D78" s="192"/>
       <c r="E78" s="234"/>
       <c r="F78" s="192"/>
-      <c r="G78" s="421" t="s">
+      <c r="G78" s="285" t="s">
         <v>173</v>
       </c>
-      <c r="H78" s="383"/>
-      <c r="I78" s="383"/>
-      <c r="J78" s="383"/>
-      <c r="K78" s="383" t="s">
+      <c r="H78" s="253"/>
+      <c r="I78" s="253"/>
+      <c r="J78" s="253"/>
+      <c r="K78" s="253" t="s">
         <v>162</v>
       </c>
-      <c r="L78" s="383"/>
-      <c r="M78" s="370"/>
+      <c r="L78" s="253"/>
+      <c r="M78" s="254"/>
       <c r="N78" s="52">
         <v>10</v>
       </c>
@@ -6208,9 +6211,9 @@
       <c r="P78" s="243"/>
       <c r="Q78" s="248"/>
       <c r="R78" s="192"/>
-      <c r="S78" s="413"/>
-      <c r="T78" s="414"/>
-      <c r="U78" s="415"/>
+      <c r="S78" s="278"/>
+      <c r="T78" s="279"/>
+      <c r="U78" s="280"/>
       <c r="X78" s="35"/>
     </row>
     <row r="79" spans="2:29" ht="30" customHeight="1" thickBot="1">
@@ -6219,24 +6222,24 @@
       <c r="D79" s="236"/>
       <c r="E79" s="237"/>
       <c r="F79" s="35"/>
-      <c r="G79" s="406" t="s">
+      <c r="G79" s="271" t="s">
         <v>174</v>
       </c>
-      <c r="H79" s="407"/>
-      <c r="I79" s="407"/>
-      <c r="J79" s="407"/>
-      <c r="K79" s="408"/>
-      <c r="L79" s="409"/>
-      <c r="M79" s="409"/>
+      <c r="H79" s="272"/>
+      <c r="I79" s="272"/>
+      <c r="J79" s="272"/>
+      <c r="K79" s="273"/>
+      <c r="L79" s="274"/>
+      <c r="M79" s="274"/>
       <c r="N79" s="53">
         <v>11</v>
       </c>
       <c r="O79" s="29"/>
       <c r="P79" s="29"/>
       <c r="Q79" s="238"/>
-      <c r="S79" s="416"/>
-      <c r="T79" s="417"/>
-      <c r="U79" s="418"/>
+      <c r="S79" s="281"/>
+      <c r="T79" s="282"/>
+      <c r="U79" s="283"/>
       <c r="X79" s="35"/>
     </row>
     <row r="80" spans="2:29" ht="30" customHeight="1">
@@ -8269,90 +8272,6 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="S68:U79"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="Z21:AA22"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="S8:U10"/>
-    <mergeCell ref="S12:U13"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="O7:P10"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
@@ -8375,6 +8294,90 @@
     <mergeCell ref="M9:M11"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:E12"/>
+    <mergeCell ref="Z21:AA22"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="S8:U10"/>
+    <mergeCell ref="S12:U13"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="O7:P10"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="S68:U79"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C49:E49"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8402,7 +8405,7 @@
   <dimension ref="B1:K48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -8608,7 +8611,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="430"/>
       <c r="E14" s="10"/>
       <c r="F14" s="213"/>
       <c r="G14" s="216">

--- a/py/direction_sheet.xlsx
+++ b/py/direction_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diereport\ex0.11\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88DDDF9-680F-4F78-8538-97A611C23CDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFCF8C2-A766-4BA3-AD9B-7E137987F661}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="147">
   <si>
     <t>Loại sản xuất</t>
   </si>
@@ -494,6 +494,9 @@
 [316] : Rỗ bề mặt
 [318] : Đen bề mặt</t>
     </r>
+  </si>
+  <si>
+    <t>50 mm</t>
   </si>
 </sst>
 </file>
@@ -2429,15 +2432,424 @@
     <xf numFmtId="166" fontId="28" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2491,415 +2903,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3406,98 +3409,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B1" s="319" t="s">
+      <c r="B1" s="265" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
-      <c r="F1" s="320"/>
-      <c r="G1" s="320"/>
-      <c r="H1" s="320"/>
-      <c r="I1" s="320"/>
-      <c r="J1" s="320"/>
-      <c r="K1" s="320"/>
-      <c r="L1" s="320"/>
-      <c r="M1" s="320"/>
-      <c r="N1" s="320"/>
-      <c r="O1" s="320"/>
-      <c r="P1" s="320"/>
-      <c r="Q1" s="320"/>
-      <c r="R1" s="320"/>
-      <c r="S1" s="320"/>
-      <c r="T1" s="320"/>
-      <c r="U1" s="321"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="M1" s="266"/>
+      <c r="N1" s="266"/>
+      <c r="O1" s="266"/>
+      <c r="P1" s="266"/>
+      <c r="Q1" s="266"/>
+      <c r="R1" s="266"/>
+      <c r="S1" s="266"/>
+      <c r="T1" s="266"/>
+      <c r="U1" s="267"/>
     </row>
     <row r="2" spans="2:31" ht="28.5" customHeight="1">
       <c r="B2" s="198" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="247">
+      <c r="C2" s="363">
         <f>input!D18</f>
         <v>0</v>
       </c>
-      <c r="D2" s="247"/>
+      <c r="D2" s="363"/>
       <c r="E2" s="199" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="249">
+      <c r="F2" s="340">
         <f>input!D8</f>
         <v>0</v>
       </c>
-      <c r="G2" s="249"/>
-      <c r="H2" s="250"/>
+      <c r="G2" s="340"/>
+      <c r="H2" s="341"/>
       <c r="I2" s="187"/>
       <c r="J2" s="200"/>
       <c r="K2" s="114"/>
-      <c r="L2" s="322"/>
-      <c r="M2" s="279"/>
+      <c r="L2" s="268"/>
+      <c r="M2" s="269"/>
       <c r="N2" s="115"/>
-      <c r="O2" s="280" t="s">
+      <c r="O2" s="307" t="s">
         <v>83</v>
       </c>
-      <c r="P2" s="281"/>
-      <c r="Q2" s="280" t="s">
+      <c r="P2" s="308"/>
+      <c r="Q2" s="307" t="s">
         <v>118</v>
       </c>
-      <c r="R2" s="283"/>
-      <c r="S2" s="283"/>
-      <c r="T2" s="283"/>
-      <c r="U2" s="281"/>
+      <c r="R2" s="311"/>
+      <c r="S2" s="311"/>
+      <c r="T2" s="311"/>
+      <c r="U2" s="308"/>
     </row>
     <row r="3" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B3" s="194" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="248">
+      <c r="C3" s="343">
         <f>input!D17</f>
         <v>0</v>
       </c>
-      <c r="D3" s="248"/>
+      <c r="D3" s="343"/>
       <c r="E3" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="248">
+      <c r="F3" s="343">
         <f>input!D9</f>
         <v>0</v>
       </c>
-      <c r="G3" s="248"/>
-      <c r="H3" s="251"/>
+      <c r="G3" s="343"/>
+      <c r="H3" s="344"/>
       <c r="I3" s="187"/>
       <c r="J3" s="200"/>
       <c r="K3" s="34"/>
-      <c r="L3" s="322"/>
-      <c r="M3" s="279"/>
+      <c r="L3" s="268"/>
+      <c r="M3" s="269"/>
       <c r="N3" s="115"/>
-      <c r="O3" s="272" t="s">
+      <c r="O3" s="309" t="s">
         <v>122</v>
       </c>
-      <c r="P3" s="282"/>
-      <c r="Q3" s="272"/>
-      <c r="R3" s="284"/>
-      <c r="S3" s="284"/>
-      <c r="T3" s="284"/>
-      <c r="U3" s="282"/>
+      <c r="P3" s="310"/>
+      <c r="Q3" s="309"/>
+      <c r="R3" s="312"/>
+      <c r="S3" s="312"/>
+      <c r="T3" s="312"/>
+      <c r="U3" s="310"/>
     </row>
     <row r="4" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B4" s="25"/>
@@ -3505,17 +3508,17 @@
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
       <c r="F4" s="162"/>
-      <c r="G4" s="369" t="s">
+      <c r="G4" s="237" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="370"/>
-      <c r="I4" s="371"/>
-      <c r="J4" s="372"/>
-      <c r="K4" s="373" t="s">
+      <c r="H4" s="238"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="240"/>
+      <c r="K4" s="241" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="371"/>
-      <c r="M4" s="372"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="240"/>
       <c r="N4" s="116"/>
       <c r="O4" s="155" t="s">
         <v>79</v>
@@ -3523,24 +3526,24 @@
       <c r="P4" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="270" t="s">
+      <c r="Q4" s="313" t="s">
         <v>119</v>
       </c>
-      <c r="R4" s="285"/>
-      <c r="S4" s="285"/>
-      <c r="T4" s="285"/>
-      <c r="U4" s="286"/>
+      <c r="R4" s="314"/>
+      <c r="S4" s="314"/>
+      <c r="T4" s="314"/>
+      <c r="U4" s="315"/>
     </row>
     <row r="5" spans="2:31" ht="28.5" customHeight="1">
-      <c r="B5" s="361" t="s">
+      <c r="B5" s="229" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="363">
+      <c r="C5" s="231">
         <f>input!D6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="364"/>
-      <c r="E5" s="365"/>
+      <c r="D5" s="232"/>
+      <c r="E5" s="233"/>
       <c r="F5" s="111"/>
       <c r="G5" s="118" t="s">
         <v>2</v>
@@ -3561,23 +3564,23 @@
       <c r="L5" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="M5" s="350" t="s">
+      <c r="M5" s="298" t="s">
         <v>124</v>
       </c>
       <c r="N5" s="111"/>
-      <c r="O5" s="309"/>
-      <c r="P5" s="311"/>
-      <c r="Q5" s="354"/>
-      <c r="R5" s="355"/>
-      <c r="S5" s="355"/>
-      <c r="T5" s="355"/>
-      <c r="U5" s="356"/>
+      <c r="O5" s="255"/>
+      <c r="P5" s="257"/>
+      <c r="Q5" s="302"/>
+      <c r="R5" s="303"/>
+      <c r="S5" s="303"/>
+      <c r="T5" s="303"/>
+      <c r="U5" s="304"/>
     </row>
     <row r="6" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B6" s="362"/>
-      <c r="C6" s="366"/>
-      <c r="D6" s="367"/>
-      <c r="E6" s="368"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="236"/>
       <c r="F6" s="111"/>
       <c r="G6" s="144">
         <v>6061</v>
@@ -3599,26 +3602,26 @@
         <f>ROUND(input!D14,2)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="351"/>
+      <c r="M6" s="299"/>
       <c r="N6" s="112"/>
-      <c r="O6" s="310"/>
-      <c r="P6" s="312"/>
-      <c r="Q6" s="348"/>
-      <c r="R6" s="357"/>
-      <c r="S6" s="357"/>
-      <c r="T6" s="357"/>
-      <c r="U6" s="349"/>
+      <c r="O6" s="256"/>
+      <c r="P6" s="258"/>
+      <c r="Q6" s="296"/>
+      <c r="R6" s="305"/>
+      <c r="S6" s="305"/>
+      <c r="T6" s="305"/>
+      <c r="U6" s="297"/>
     </row>
     <row r="7" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B7" s="254" t="s">
+      <c r="B7" s="270" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="324">
+      <c r="C7" s="272">
         <f>input!D7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="325"/>
-      <c r="E7" s="326"/>
+      <c r="D7" s="273"/>
+      <c r="E7" s="274"/>
       <c r="F7" s="111"/>
       <c r="G7" s="144">
         <v>6063</v>
@@ -3639,30 +3642,30 @@
       <c r="L7" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="M7" s="352">
+      <c r="M7" s="300">
         <f>input!K11</f>
         <v>0</v>
       </c>
       <c r="N7" s="113"/>
-      <c r="O7" s="313" t="s">
+      <c r="O7" s="259" t="s">
         <v>135</v>
       </c>
-      <c r="P7" s="314"/>
-      <c r="Q7" s="342" t="s">
+      <c r="P7" s="260"/>
+      <c r="Q7" s="290" t="s">
         <v>121</v>
       </c>
-      <c r="R7" s="343"/>
-      <c r="S7" s="339" t="s">
+      <c r="R7" s="291"/>
+      <c r="S7" s="287" t="s">
         <v>130</v>
       </c>
-      <c r="T7" s="340"/>
-      <c r="U7" s="341"/>
+      <c r="T7" s="288"/>
+      <c r="U7" s="289"/>
     </row>
     <row r="8" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B8" s="323"/>
-      <c r="C8" s="327"/>
-      <c r="D8" s="328"/>
-      <c r="E8" s="329"/>
+      <c r="B8" s="271"/>
+      <c r="C8" s="275"/>
+      <c r="D8" s="276"/>
+      <c r="E8" s="277"/>
       <c r="F8" s="111"/>
       <c r="G8" s="180" t="s">
         <v>144</v>
@@ -3684,19 +3687,19 @@
         <f>input!D15</f>
         <v>0</v>
       </c>
-      <c r="M8" s="353"/>
+      <c r="M8" s="301"/>
       <c r="N8" s="113"/>
-      <c r="O8" s="315"/>
-      <c r="P8" s="316"/>
-      <c r="Q8" s="358" t="s">
+      <c r="O8" s="261"/>
+      <c r="P8" s="262"/>
+      <c r="Q8" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="R8" s="296" t="s">
+      <c r="R8" s="327" t="s">
         <v>136</v>
       </c>
-      <c r="S8" s="299"/>
-      <c r="T8" s="301"/>
-      <c r="U8" s="303"/>
+      <c r="S8" s="330"/>
+      <c r="T8" s="332"/>
+      <c r="U8" s="334"/>
     </row>
     <row r="9" spans="2:31" ht="6" customHeight="1">
       <c r="B9" s="25"/>
@@ -3705,27 +3708,27 @@
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
-      <c r="H9" s="330" t="s">
+      <c r="H9" s="278" t="s">
         <v>141</v>
       </c>
-      <c r="I9" s="331"/>
-      <c r="J9" s="336" t="str">
+      <c r="I9" s="279"/>
+      <c r="J9" s="284" t="str">
         <f>input!D36&amp;"-"&amp;input!D37</f>
         <v>-</v>
       </c>
-      <c r="K9" s="374" t="s">
+      <c r="K9" s="242" t="s">
         <v>142</v>
       </c>
-      <c r="L9" s="375"/>
-      <c r="M9" s="380"/>
+      <c r="L9" s="243"/>
+      <c r="M9" s="248"/>
       <c r="N9" s="29"/>
-      <c r="O9" s="315"/>
-      <c r="P9" s="316"/>
-      <c r="Q9" s="359"/>
-      <c r="R9" s="297"/>
-      <c r="S9" s="304"/>
-      <c r="T9" s="302"/>
-      <c r="U9" s="300"/>
+      <c r="O9" s="261"/>
+      <c r="P9" s="262"/>
+      <c r="Q9" s="227"/>
+      <c r="R9" s="328"/>
+      <c r="S9" s="335"/>
+      <c r="T9" s="333"/>
+      <c r="U9" s="331"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" thickBot="1">
       <c r="B10" s="30"/>
@@ -3734,55 +3737,57 @@
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
       <c r="G10" s="163"/>
-      <c r="H10" s="332"/>
-      <c r="I10" s="333"/>
-      <c r="J10" s="337"/>
-      <c r="K10" s="376"/>
-      <c r="L10" s="377"/>
-      <c r="M10" s="381"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="281"/>
+      <c r="J10" s="285"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="245"/>
+      <c r="M10" s="249"/>
       <c r="N10" s="29"/>
-      <c r="O10" s="317"/>
-      <c r="P10" s="318"/>
-      <c r="Q10" s="360"/>
-      <c r="R10" s="298"/>
-      <c r="S10" s="305"/>
-      <c r="T10" s="306"/>
-      <c r="U10" s="307"/>
+      <c r="O10" s="263"/>
+      <c r="P10" s="264"/>
+      <c r="Q10" s="228"/>
+      <c r="R10" s="329"/>
+      <c r="S10" s="336"/>
+      <c r="T10" s="337"/>
+      <c r="U10" s="338"/>
     </row>
     <row r="11" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B11" s="361" t="s">
+      <c r="B11" s="229" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="383" t="str">
+      <c r="C11" s="251" t="str">
         <f>IF(C13=0,"","DR"&amp;MID(C13,2,4))</f>
         <v/>
       </c>
-      <c r="D11" s="383"/>
-      <c r="E11" s="384"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="252"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
-      <c r="H11" s="334"/>
-      <c r="I11" s="335"/>
-      <c r="J11" s="338"/>
-      <c r="K11" s="378"/>
-      <c r="L11" s="379"/>
-      <c r="M11" s="382"/>
+      <c r="H11" s="282"/>
+      <c r="I11" s="283"/>
+      <c r="J11" s="286"/>
+      <c r="K11" s="246"/>
+      <c r="L11" s="247"/>
+      <c r="M11" s="250"/>
       <c r="N11" s="29"/>
-      <c r="O11" s="344"/>
-      <c r="P11" s="345"/>
-      <c r="Q11" s="290"/>
-      <c r="R11" s="293"/>
-      <c r="S11" s="276" t="s">
+      <c r="O11" s="292"/>
+      <c r="P11" s="293"/>
+      <c r="Q11" s="321"/>
+      <c r="R11" s="324" t="s">
+        <v>146</v>
+      </c>
+      <c r="S11" s="318" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="289"/>
-      <c r="U11" s="277"/>
+      <c r="T11" s="319"/>
+      <c r="U11" s="320"/>
     </row>
     <row r="12" spans="2:31" ht="27.75" customHeight="1">
-      <c r="B12" s="362"/>
-      <c r="C12" s="258"/>
-      <c r="D12" s="258"/>
-      <c r="E12" s="259"/>
+      <c r="B12" s="230"/>
+      <c r="C12" s="253"/>
+      <c r="D12" s="253"/>
+      <c r="E12" s="254"/>
       <c r="F12" s="25"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
@@ -3792,24 +3797,24 @@
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
       <c r="N12" s="29"/>
-      <c r="O12" s="346"/>
-      <c r="P12" s="347"/>
-      <c r="Q12" s="291"/>
-      <c r="R12" s="294"/>
-      <c r="S12" s="308"/>
-      <c r="T12" s="249"/>
-      <c r="U12" s="250"/>
+      <c r="O12" s="294"/>
+      <c r="P12" s="295"/>
+      <c r="Q12" s="322"/>
+      <c r="R12" s="325"/>
+      <c r="S12" s="339"/>
+      <c r="T12" s="340"/>
+      <c r="U12" s="341"/>
     </row>
     <row r="13" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B13" s="254" t="s">
+      <c r="B13" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="258">
+      <c r="C13" s="253">
         <f>input!D32</f>
         <v>0</v>
       </c>
-      <c r="D13" s="258"/>
-      <c r="E13" s="259"/>
+      <c r="D13" s="253"/>
+      <c r="E13" s="254"/>
       <c r="F13" s="25"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
@@ -3819,19 +3824,19 @@
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="29"/>
-      <c r="O13" s="348"/>
-      <c r="P13" s="349"/>
-      <c r="Q13" s="292"/>
-      <c r="R13" s="295"/>
-      <c r="S13" s="255"/>
-      <c r="T13" s="248"/>
-      <c r="U13" s="251"/>
+      <c r="O13" s="296"/>
+      <c r="P13" s="297"/>
+      <c r="Q13" s="323"/>
+      <c r="R13" s="326"/>
+      <c r="S13" s="342"/>
+      <c r="T13" s="343"/>
+      <c r="U13" s="344"/>
     </row>
     <row r="14" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B14" s="255"/>
-      <c r="C14" s="260"/>
-      <c r="D14" s="260"/>
-      <c r="E14" s="261"/>
+      <c r="B14" s="342"/>
+      <c r="C14" s="354"/>
+      <c r="D14" s="354"/>
+      <c r="E14" s="355"/>
       <c r="F14" s="34"/>
       <c r="G14" s="110" t="s">
         <v>5</v>
@@ -3843,17 +3848,17 @@
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="29"/>
-      <c r="O14" s="299" t="s">
+      <c r="O14" s="330" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="300"/>
-      <c r="Q14" s="299" t="s">
+      <c r="P14" s="331"/>
+      <c r="Q14" s="330" t="s">
         <v>137</v>
       </c>
-      <c r="R14" s="301"/>
-      <c r="S14" s="302"/>
-      <c r="T14" s="302"/>
-      <c r="U14" s="300"/>
+      <c r="R14" s="332"/>
+      <c r="S14" s="333"/>
+      <c r="T14" s="333"/>
+      <c r="U14" s="331"/>
     </row>
     <row r="15" spans="2:31" ht="52.5" customHeight="1" thickBot="1">
       <c r="B15" s="225" t="s">
@@ -3862,10 +3867,10 @@
       <c r="C15" s="204" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="226" t="s">
+      <c r="D15" s="366" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="226"/>
+      <c r="E15" s="366"/>
       <c r="F15" s="200"/>
       <c r="G15" s="157" t="s">
         <v>7</v>
@@ -3916,8 +3921,8 @@
     <row r="16" spans="2:31" ht="35.1" customHeight="1">
       <c r="B16" s="205"/>
       <c r="C16" s="119"/>
-      <c r="D16" s="262"/>
-      <c r="E16" s="263"/>
+      <c r="D16" s="356"/>
+      <c r="E16" s="357"/>
       <c r="F16" s="34"/>
       <c r="G16" s="109">
         <v>1</v>
@@ -3951,8 +3956,8 @@
     <row r="17" spans="2:31" ht="35.1" customHeight="1">
       <c r="B17" s="193"/>
       <c r="C17" s="203"/>
-      <c r="D17" s="256"/>
-      <c r="E17" s="257"/>
+      <c r="D17" s="352"/>
+      <c r="E17" s="353"/>
       <c r="F17" s="34"/>
       <c r="G17" s="109">
         <v>2</v>
@@ -3986,8 +3991,8 @@
     <row r="18" spans="2:31" ht="35.1" customHeight="1">
       <c r="B18" s="206"/>
       <c r="C18" s="188"/>
-      <c r="D18" s="227"/>
-      <c r="E18" s="228"/>
+      <c r="D18" s="350"/>
+      <c r="E18" s="351"/>
       <c r="F18" s="34"/>
       <c r="G18" s="109">
         <v>3</v>
@@ -4021,8 +4026,8 @@
     <row r="19" spans="2:31" ht="35.1" customHeight="1">
       <c r="B19" s="193"/>
       <c r="C19" s="188"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="228"/>
+      <c r="D19" s="350"/>
+      <c r="E19" s="351"/>
       <c r="F19" s="34"/>
       <c r="G19" s="109">
         <v>4</v>
@@ -4048,10 +4053,10 @@
       <c r="T19" s="35"/>
       <c r="U19" s="36"/>
       <c r="W19" s="37"/>
-      <c r="X19" s="287"/>
-      <c r="Y19" s="279"/>
-      <c r="Z19" s="279"/>
-      <c r="AA19" s="279"/>
+      <c r="X19" s="316"/>
+      <c r="Y19" s="269"/>
+      <c r="Z19" s="269"/>
+      <c r="AA19" s="269"/>
       <c r="AB19" s="34"/>
       <c r="AC19" s="34"/>
       <c r="AD19" s="34"/>
@@ -4060,8 +4065,8 @@
     <row r="20" spans="2:31" ht="35.1" customHeight="1">
       <c r="B20" s="206"/>
       <c r="C20" s="188"/>
-      <c r="D20" s="227"/>
-      <c r="E20" s="228"/>
+      <c r="D20" s="350"/>
+      <c r="E20" s="351"/>
       <c r="F20" s="34"/>
       <c r="G20" s="109">
         <v>5</v>
@@ -4085,8 +4090,8 @@
       <c r="W20" s="34"/>
       <c r="X20" s="106"/>
       <c r="Y20" s="33"/>
-      <c r="Z20" s="288"/>
-      <c r="AA20" s="279"/>
+      <c r="Z20" s="317"/>
+      <c r="AA20" s="269"/>
       <c r="AB20" s="34"/>
       <c r="AC20" s="34"/>
       <c r="AD20" s="34"/>
@@ -4095,8 +4100,8 @@
     <row r="21" spans="2:31" ht="35.1" customHeight="1">
       <c r="B21" s="193"/>
       <c r="C21" s="188"/>
-      <c r="D21" s="227"/>
-      <c r="E21" s="228"/>
+      <c r="D21" s="350"/>
+      <c r="E21" s="351"/>
       <c r="F21" s="34"/>
       <c r="G21" s="109">
         <v>6</v>
@@ -4121,8 +4126,8 @@
       <c r="W21" s="34"/>
       <c r="X21" s="106"/>
       <c r="Y21" s="107"/>
-      <c r="Z21" s="278"/>
-      <c r="AA21" s="279"/>
+      <c r="Z21" s="306"/>
+      <c r="AA21" s="269"/>
       <c r="AB21" s="34"/>
       <c r="AC21" s="34"/>
       <c r="AD21" s="34"/>
@@ -4131,8 +4136,8 @@
     <row r="22" spans="2:31" ht="35.1" customHeight="1">
       <c r="B22" s="206"/>
       <c r="C22" s="188"/>
-      <c r="D22" s="227"/>
-      <c r="E22" s="228"/>
+      <c r="D22" s="350"/>
+      <c r="E22" s="351"/>
       <c r="F22" s="34"/>
       <c r="G22" s="109">
         <v>7</v>
@@ -4157,8 +4162,8 @@
       <c r="W22" s="34"/>
       <c r="X22" s="33"/>
       <c r="Y22" s="34"/>
-      <c r="Z22" s="279"/>
-      <c r="AA22" s="279"/>
+      <c r="Z22" s="269"/>
+      <c r="AA22" s="269"/>
       <c r="AB22" s="34"/>
       <c r="AC22" s="34"/>
       <c r="AD22" s="34"/>
@@ -4167,8 +4172,8 @@
     <row r="23" spans="2:31" ht="35.1" customHeight="1">
       <c r="B23" s="193"/>
       <c r="C23" s="188"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="228"/>
+      <c r="D23" s="350"/>
+      <c r="E23" s="351"/>
       <c r="F23" s="34"/>
       <c r="G23" s="109">
         <v>8</v>
@@ -4203,8 +4208,8 @@
     <row r="24" spans="2:31" ht="35.1" customHeight="1">
       <c r="B24" s="206"/>
       <c r="C24" s="188"/>
-      <c r="D24" s="227"/>
-      <c r="E24" s="228"/>
+      <c r="D24" s="350"/>
+      <c r="E24" s="351"/>
       <c r="F24" s="34"/>
       <c r="G24" s="109">
         <v>9</v>
@@ -4239,8 +4244,8 @@
     <row r="25" spans="2:31" ht="35.1" customHeight="1">
       <c r="B25" s="193"/>
       <c r="C25" s="132"/>
-      <c r="D25" s="245"/>
-      <c r="E25" s="246"/>
+      <c r="D25" s="383"/>
+      <c r="E25" s="384"/>
       <c r="F25" s="34"/>
       <c r="G25" s="109">
         <v>10</v>
@@ -4267,8 +4272,8 @@
     <row r="26" spans="2:31" ht="35.1" customHeight="1">
       <c r="B26" s="206"/>
       <c r="C26" s="188"/>
-      <c r="D26" s="227"/>
-      <c r="E26" s="228"/>
+      <c r="D26" s="350"/>
+      <c r="E26" s="351"/>
       <c r="F26" s="34"/>
       <c r="G26" s="109">
         <v>11</v>
@@ -4295,8 +4300,8 @@
     <row r="27" spans="2:31" ht="35.1" customHeight="1">
       <c r="B27" s="193"/>
       <c r="C27" s="188"/>
-      <c r="D27" s="227"/>
-      <c r="E27" s="228"/>
+      <c r="D27" s="350"/>
+      <c r="E27" s="351"/>
       <c r="F27" s="34"/>
       <c r="G27" s="109">
         <v>12</v>
@@ -4323,8 +4328,8 @@
     <row r="28" spans="2:31" ht="35.1" customHeight="1">
       <c r="B28" s="206"/>
       <c r="C28" s="188"/>
-      <c r="D28" s="227"/>
-      <c r="E28" s="228"/>
+      <c r="D28" s="350"/>
+      <c r="E28" s="351"/>
       <c r="F28" s="34"/>
       <c r="G28" s="109">
         <v>13</v>
@@ -4351,8 +4356,8 @@
     <row r="29" spans="2:31" ht="35.1" customHeight="1">
       <c r="B29" s="193"/>
       <c r="C29" s="188"/>
-      <c r="D29" s="227"/>
-      <c r="E29" s="228"/>
+      <c r="D29" s="350"/>
+      <c r="E29" s="351"/>
       <c r="F29" s="34"/>
       <c r="G29" s="109">
         <v>14</v>
@@ -4379,8 +4384,8 @@
     <row r="30" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
       <c r="B30" s="209"/>
       <c r="C30" s="192"/>
-      <c r="D30" s="229"/>
-      <c r="E30" s="230"/>
+      <c r="D30" s="367"/>
+      <c r="E30" s="368"/>
       <c r="F30" s="34"/>
       <c r="G30" s="109">
         <v>15</v>
@@ -4435,14 +4440,14 @@
       <c r="W31" s="38"/>
     </row>
     <row r="32" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B32" s="276" t="s">
+      <c r="B32" s="318" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="277"/>
-      <c r="D32" s="276" t="s">
+      <c r="C32" s="320"/>
+      <c r="D32" s="318" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="277"/>
+      <c r="E32" s="320"/>
       <c r="F32" s="34"/>
       <c r="G32" s="109">
         <v>17</v>
@@ -4843,10 +4848,10 @@
       <c r="U43" s="36"/>
     </row>
     <row r="44" spans="2:28" s="42" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B44" s="243" t="s">
+      <c r="B44" s="381" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="244"/>
+      <c r="C44" s="382"/>
       <c r="D44" s="97"/>
       <c r="E44" s="34"/>
       <c r="F44" s="97"/>
@@ -4999,14 +5004,14 @@
       <c r="AB48" s="97"/>
     </row>
     <row r="49" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B49" s="264" t="s">
+      <c r="B49" s="358" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="266" t="s">
+      <c r="C49" s="360" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="267"/>
-      <c r="E49" s="268"/>
+      <c r="D49" s="361"/>
+      <c r="E49" s="362"/>
       <c r="F49" s="34"/>
       <c r="G49" s="109">
         <v>34</v>
@@ -5032,7 +5037,7 @@
       <c r="Y49" s="34"/>
     </row>
     <row r="50" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B50" s="265"/>
+      <c r="B50" s="359"/>
       <c r="C50" s="195" t="s">
         <v>92</v>
       </c>
@@ -5129,14 +5134,14 @@
       <c r="Y52" s="34"/>
     </row>
     <row r="53" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B53" s="264" t="s">
+      <c r="B53" s="358" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="266" t="s">
+      <c r="C53" s="360" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="267"/>
-      <c r="E53" s="268"/>
+      <c r="D53" s="361"/>
+      <c r="E53" s="362"/>
       <c r="F53" s="34"/>
       <c r="G53" s="109">
         <v>38</v>
@@ -5162,7 +5167,7 @@
       <c r="Y53" s="34"/>
     </row>
     <row r="54" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B54" s="265"/>
+      <c r="B54" s="359"/>
       <c r="C54" s="195" t="s">
         <v>92</v>
       </c>
@@ -5259,12 +5264,12 @@
       <c r="Y56" s="34"/>
     </row>
     <row r="57" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B57" s="270" t="s">
+      <c r="B57" s="313" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="271"/>
-      <c r="D57" s="252"/>
-      <c r="E57" s="253"/>
+      <c r="C57" s="346"/>
+      <c r="D57" s="364"/>
+      <c r="E57" s="365"/>
       <c r="F57" s="34"/>
       <c r="G57" s="109">
         <v>42</v>
@@ -5290,12 +5295,12 @@
       <c r="Y57" s="34"/>
     </row>
     <row r="58" spans="2:25" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B58" s="272" t="s">
+      <c r="B58" s="309" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="273"/>
-      <c r="D58" s="274"/>
-      <c r="E58" s="275"/>
+      <c r="C58" s="347"/>
+      <c r="D58" s="348"/>
+      <c r="E58" s="349"/>
       <c r="F58" s="34"/>
       <c r="G58" s="109">
         <v>43</v>
@@ -5321,12 +5326,12 @@
       <c r="Y58" s="34"/>
     </row>
     <row r="59" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B59" s="234" t="s">
+      <c r="B59" s="372" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="235"/>
-      <c r="D59" s="235"/>
-      <c r="E59" s="236"/>
+      <c r="C59" s="373"/>
+      <c r="D59" s="373"/>
+      <c r="E59" s="374"/>
       <c r="F59" s="34"/>
       <c r="G59" s="109">
         <v>44</v>
@@ -5352,10 +5357,10 @@
       <c r="Y59" s="34"/>
     </row>
     <row r="60" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B60" s="237"/>
-      <c r="C60" s="238"/>
-      <c r="D60" s="238"/>
-      <c r="E60" s="239"/>
+      <c r="B60" s="375"/>
+      <c r="C60" s="376"/>
+      <c r="D60" s="376"/>
+      <c r="E60" s="377"/>
       <c r="F60" s="34"/>
       <c r="G60" s="109">
         <v>45</v>
@@ -5381,10 +5386,10 @@
       <c r="Y60" s="34"/>
     </row>
     <row r="61" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B61" s="237"/>
-      <c r="C61" s="238"/>
-      <c r="D61" s="238"/>
-      <c r="E61" s="239"/>
+      <c r="B61" s="375"/>
+      <c r="C61" s="376"/>
+      <c r="D61" s="376"/>
+      <c r="E61" s="377"/>
       <c r="F61" s="34"/>
       <c r="G61" s="109">
         <v>46</v>
@@ -5410,10 +5415,10 @@
       <c r="Y61" s="34"/>
     </row>
     <row r="62" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B62" s="237"/>
-      <c r="C62" s="238"/>
-      <c r="D62" s="238"/>
-      <c r="E62" s="239"/>
+      <c r="B62" s="375"/>
+      <c r="C62" s="376"/>
+      <c r="D62" s="376"/>
+      <c r="E62" s="377"/>
       <c r="F62" s="34"/>
       <c r="G62" s="109">
         <v>47</v>
@@ -5439,10 +5444,10 @@
       <c r="Y62" s="34"/>
     </row>
     <row r="63" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B63" s="237"/>
-      <c r="C63" s="238"/>
-      <c r="D63" s="238"/>
-      <c r="E63" s="239"/>
+      <c r="B63" s="375"/>
+      <c r="C63" s="376"/>
+      <c r="D63" s="376"/>
+      <c r="E63" s="377"/>
       <c r="F63" s="34"/>
       <c r="G63" s="109">
         <v>48</v>
@@ -5468,10 +5473,10 @@
       <c r="Y63" s="34"/>
     </row>
     <row r="64" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B64" s="237"/>
-      <c r="C64" s="238"/>
-      <c r="D64" s="238"/>
-      <c r="E64" s="239"/>
+      <c r="B64" s="375"/>
+      <c r="C64" s="376"/>
+      <c r="D64" s="376"/>
+      <c r="E64" s="377"/>
       <c r="F64" s="200"/>
       <c r="G64" s="109">
         <v>49</v>
@@ -5497,10 +5502,10 @@
       <c r="Y64" s="34"/>
     </row>
     <row r="65" spans="2:29" ht="35.1" customHeight="1">
-      <c r="B65" s="237"/>
-      <c r="C65" s="238"/>
-      <c r="D65" s="238"/>
-      <c r="E65" s="239"/>
+      <c r="B65" s="375"/>
+      <c r="C65" s="376"/>
+      <c r="D65" s="376"/>
+      <c r="E65" s="377"/>
       <c r="F65" s="200"/>
       <c r="G65" s="109">
         <v>50</v>
@@ -5526,10 +5531,10 @@
       <c r="Y65" s="34"/>
     </row>
     <row r="66" spans="2:29" ht="35.1" customHeight="1">
-      <c r="B66" s="237"/>
-      <c r="C66" s="238"/>
-      <c r="D66" s="238"/>
-      <c r="E66" s="239"/>
+      <c r="B66" s="375"/>
+      <c r="C66" s="376"/>
+      <c r="D66" s="376"/>
+      <c r="E66" s="377"/>
       <c r="F66" s="200"/>
       <c r="G66" s="109">
         <v>51</v>
@@ -5557,10 +5562,10 @@
       <c r="AA66" s="34"/>
     </row>
     <row r="67" spans="2:29" ht="35.1" customHeight="1">
-      <c r="B67" s="237"/>
-      <c r="C67" s="238"/>
-      <c r="D67" s="238"/>
-      <c r="E67" s="239"/>
+      <c r="B67" s="375"/>
+      <c r="C67" s="376"/>
+      <c r="D67" s="376"/>
+      <c r="E67" s="377"/>
       <c r="F67" s="94"/>
       <c r="G67" s="109">
         <v>52</v>
@@ -5588,11 +5593,11 @@
       <c r="AA67" s="34"/>
     </row>
     <row r="68" spans="2:29" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B68" s="240"/>
-      <c r="C68" s="241"/>
-      <c r="D68" s="241"/>
-      <c r="E68" s="242"/>
-      <c r="F68" s="269"/>
+      <c r="B68" s="378"/>
+      <c r="C68" s="379"/>
+      <c r="D68" s="379"/>
+      <c r="E68" s="380"/>
+      <c r="F68" s="345"/>
       <c r="G68" s="109">
         <v>53</v>
       </c>
@@ -5628,10 +5633,10 @@
       <c r="D69" s="217" t="s">
         <v>134</v>
       </c>
-      <c r="E69" s="231" t="s">
+      <c r="E69" s="369" t="s">
         <v>145</v>
       </c>
-      <c r="F69" s="269"/>
+      <c r="F69" s="345"/>
       <c r="G69" s="109">
         <v>54</v>
       </c>
@@ -5663,7 +5668,7 @@
       </c>
       <c r="C70" s="215"/>
       <c r="D70" s="218"/>
-      <c r="E70" s="232"/>
+      <c r="E70" s="370"/>
       <c r="F70" s="34"/>
       <c r="G70" s="109">
         <v>55</v>
@@ -5696,7 +5701,7 @@
       </c>
       <c r="C71" s="166"/>
       <c r="D71" s="219"/>
-      <c r="E71" s="232"/>
+      <c r="E71" s="370"/>
       <c r="F71" s="34"/>
       <c r="G71" s="109">
         <v>56</v>
@@ -5729,7 +5734,7 @@
       </c>
       <c r="C72" s="166"/>
       <c r="D72" s="219"/>
-      <c r="E72" s="232"/>
+      <c r="E72" s="370"/>
       <c r="F72" s="34"/>
       <c r="G72" s="109">
         <v>57</v>
@@ -5762,7 +5767,7 @@
       </c>
       <c r="C73" s="166"/>
       <c r="D73" s="219"/>
-      <c r="E73" s="232"/>
+      <c r="E73" s="370"/>
       <c r="F73" s="34"/>
       <c r="G73" s="109">
         <v>58</v>
@@ -5795,7 +5800,7 @@
       </c>
       <c r="C74" s="166"/>
       <c r="D74" s="219"/>
-      <c r="E74" s="232"/>
+      <c r="E74" s="370"/>
       <c r="F74" s="34"/>
       <c r="G74" s="109">
         <v>59</v>
@@ -5828,7 +5833,7 @@
       </c>
       <c r="C75" s="166"/>
       <c r="D75" s="219"/>
-      <c r="E75" s="232"/>
+      <c r="E75" s="370"/>
       <c r="F75" s="34"/>
       <c r="G75" s="109">
         <v>60</v>
@@ -5857,7 +5862,7 @@
       </c>
       <c r="C76" s="166"/>
       <c r="D76" s="219"/>
-      <c r="E76" s="232"/>
+      <c r="E76" s="370"/>
       <c r="F76" s="34"/>
       <c r="G76" s="109">
         <v>61</v>
@@ -5886,7 +5891,7 @@
       </c>
       <c r="C77" s="166"/>
       <c r="D77" s="219"/>
-      <c r="E77" s="232"/>
+      <c r="E77" s="370"/>
       <c r="F77" s="165"/>
       <c r="G77" s="109">
         <v>62</v>
@@ -5915,7 +5920,7 @@
       </c>
       <c r="C78" s="186"/>
       <c r="D78" s="220"/>
-      <c r="E78" s="232"/>
+      <c r="E78" s="370"/>
       <c r="F78" s="165"/>
       <c r="G78" s="109">
         <v>63</v>
@@ -5944,7 +5949,7 @@
       </c>
       <c r="C79" s="213"/>
       <c r="D79" s="221"/>
-      <c r="E79" s="233"/>
+      <c r="E79" s="371"/>
       <c r="F79" s="224"/>
       <c r="G79" s="180">
         <v>64</v>
@@ -7997,31 +8002,37 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="O7:P10"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="H9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="O11:P13"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="Q5:U6"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="E69:E79"/>
+    <mergeCell ref="B59:E68"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B53:B54"/>
     <mergeCell ref="Z21:AA22"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
@@ -8038,42 +8049,36 @@
     <mergeCell ref="Q14:U14"/>
     <mergeCell ref="S8:U10"/>
     <mergeCell ref="S12:U13"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="Q5:U6"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="E69:E79"/>
-    <mergeCell ref="B59:E68"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="O7:P10"/>
+    <mergeCell ref="H9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="O11:P13"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/py/direction_sheet.xlsx
+++ b/py/direction_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diereport\ex0.11\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFCF8C2-A766-4BA3-AD9B-7E137987F661}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C3AD0B-5FAA-455E-9D7B-D35CFCB2387D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -772,7 +772,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="79">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -1725,15 +1725,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1766,6 +1757,37 @@
       <right/>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1779,7 +1801,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="385">
+  <cellXfs count="399">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2247,9 +2269,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2307,10 +2326,10 @@
     <xf numFmtId="185" fontId="26" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="76" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="25" fillId="0" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2432,6 +2451,276 @@
     <xf numFmtId="166" fontId="28" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2445,231 +2734,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2738,11 +2806,41 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2768,58 +2866,52 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2828,24 +2920,11 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2856,53 +2935,38 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3409,98 +3473,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B1" s="265" t="s">
+      <c r="B1" s="285" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
-      <c r="N1" s="266"/>
-      <c r="O1" s="266"/>
-      <c r="P1" s="266"/>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="266"/>
-      <c r="S1" s="266"/>
-      <c r="T1" s="266"/>
-      <c r="U1" s="267"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
+      <c r="N1" s="286"/>
+      <c r="O1" s="286"/>
+      <c r="P1" s="286"/>
+      <c r="Q1" s="286"/>
+      <c r="R1" s="286"/>
+      <c r="S1" s="286"/>
+      <c r="T1" s="286"/>
+      <c r="U1" s="287"/>
     </row>
     <row r="2" spans="2:31" ht="28.5" customHeight="1">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="197" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="363">
+      <c r="C2" s="311">
         <f>input!D18</f>
         <v>0</v>
       </c>
-      <c r="D2" s="363"/>
-      <c r="E2" s="199" t="s">
+      <c r="D2" s="311"/>
+      <c r="E2" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="340">
+      <c r="F2" s="313">
         <f>input!D8</f>
         <v>0</v>
       </c>
-      <c r="G2" s="340"/>
-      <c r="H2" s="341"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="200"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="314"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="199"/>
       <c r="K2" s="114"/>
-      <c r="L2" s="268"/>
-      <c r="M2" s="269"/>
+      <c r="L2" s="288"/>
+      <c r="M2" s="289"/>
       <c r="N2" s="115"/>
-      <c r="O2" s="307" t="s">
+      <c r="O2" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="P2" s="308"/>
-      <c r="Q2" s="307" t="s">
+      <c r="P2" s="323"/>
+      <c r="Q2" s="322" t="s">
         <v>118</v>
       </c>
-      <c r="R2" s="311"/>
-      <c r="S2" s="311"/>
-      <c r="T2" s="311"/>
-      <c r="U2" s="308"/>
+      <c r="R2" s="326"/>
+      <c r="S2" s="326"/>
+      <c r="T2" s="326"/>
+      <c r="U2" s="323"/>
     </row>
     <row r="3" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="193" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="343">
+      <c r="C3" s="312">
         <f>input!D17</f>
         <v>0</v>
       </c>
-      <c r="D3" s="343"/>
-      <c r="E3" s="190" t="s">
+      <c r="D3" s="312"/>
+      <c r="E3" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="343">
+      <c r="F3" s="312">
         <f>input!D9</f>
         <v>0</v>
       </c>
-      <c r="G3" s="343"/>
-      <c r="H3" s="344"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="200"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="315"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="199"/>
       <c r="K3" s="34"/>
-      <c r="L3" s="268"/>
-      <c r="M3" s="269"/>
+      <c r="L3" s="288"/>
+      <c r="M3" s="289"/>
       <c r="N3" s="115"/>
-      <c r="O3" s="309" t="s">
+      <c r="O3" s="324" t="s">
         <v>122</v>
       </c>
-      <c r="P3" s="310"/>
-      <c r="Q3" s="309"/>
-      <c r="R3" s="312"/>
-      <c r="S3" s="312"/>
-      <c r="T3" s="312"/>
-      <c r="U3" s="310"/>
+      <c r="P3" s="325"/>
+      <c r="Q3" s="324"/>
+      <c r="R3" s="327"/>
+      <c r="S3" s="327"/>
+      <c r="T3" s="327"/>
+      <c r="U3" s="325"/>
     </row>
     <row r="4" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B4" s="25"/>
@@ -3508,17 +3572,17 @@
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
       <c r="F4" s="162"/>
-      <c r="G4" s="237" t="s">
+      <c r="G4" s="271" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="238"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="240"/>
-      <c r="K4" s="241" t="s">
+      <c r="H4" s="272"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="274"/>
+      <c r="K4" s="275" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="239"/>
-      <c r="M4" s="240"/>
+      <c r="L4" s="273"/>
+      <c r="M4" s="274"/>
       <c r="N4" s="116"/>
       <c r="O4" s="155" t="s">
         <v>79</v>
@@ -3526,24 +3590,24 @@
       <c r="P4" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="313" t="s">
+      <c r="Q4" s="328" t="s">
         <v>119</v>
       </c>
-      <c r="R4" s="314"/>
-      <c r="S4" s="314"/>
-      <c r="T4" s="314"/>
-      <c r="U4" s="315"/>
+      <c r="R4" s="329"/>
+      <c r="S4" s="329"/>
+      <c r="T4" s="329"/>
+      <c r="U4" s="330"/>
     </row>
     <row r="5" spans="2:31" ht="28.5" customHeight="1">
-      <c r="B5" s="229" t="s">
+      <c r="B5" s="319" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="231">
+      <c r="C5" s="225">
         <f>input!D6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="232"/>
-      <c r="E5" s="233"/>
+      <c r="D5" s="226"/>
+      <c r="E5" s="227"/>
       <c r="F5" s="111"/>
       <c r="G5" s="118" t="s">
         <v>2</v>
@@ -3558,29 +3622,29 @@
       <c r="J5" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="167" t="s">
+      <c r="K5" s="166" t="s">
         <v>123</v>
       </c>
       <c r="L5" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="M5" s="298" t="s">
+      <c r="M5" s="303" t="s">
         <v>124</v>
       </c>
       <c r="N5" s="111"/>
-      <c r="O5" s="255"/>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="302"/>
-      <c r="R5" s="303"/>
-      <c r="S5" s="303"/>
-      <c r="T5" s="303"/>
-      <c r="U5" s="304"/>
+      <c r="O5" s="237"/>
+      <c r="P5" s="239"/>
+      <c r="Q5" s="307"/>
+      <c r="R5" s="308"/>
+      <c r="S5" s="308"/>
+      <c r="T5" s="308"/>
+      <c r="U5" s="309"/>
     </row>
     <row r="6" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B6" s="230"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="235"/>
-      <c r="E6" s="236"/>
+      <c r="B6" s="320"/>
+      <c r="C6" s="228"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="230"/>
       <c r="F6" s="111"/>
       <c r="G6" s="144">
         <v>6061</v>
@@ -3598,30 +3662,30 @@
         <f>input!D13</f>
         <v>0</v>
       </c>
-      <c r="L6" s="179">
+      <c r="L6" s="178">
         <f>ROUND(input!D14,2)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="299"/>
+      <c r="M6" s="304"/>
       <c r="N6" s="112"/>
-      <c r="O6" s="256"/>
-      <c r="P6" s="258"/>
-      <c r="Q6" s="296"/>
-      <c r="R6" s="305"/>
-      <c r="S6" s="305"/>
-      <c r="T6" s="305"/>
-      <c r="U6" s="297"/>
+      <c r="O6" s="238"/>
+      <c r="P6" s="240"/>
+      <c r="Q6" s="254"/>
+      <c r="R6" s="310"/>
+      <c r="S6" s="310"/>
+      <c r="T6" s="310"/>
+      <c r="U6" s="255"/>
     </row>
     <row r="7" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B7" s="270" t="s">
+      <c r="B7" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="272">
+      <c r="C7" s="292">
         <f>input!D7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="273"/>
-      <c r="E7" s="274"/>
+      <c r="D7" s="293"/>
+      <c r="E7" s="294"/>
       <c r="F7" s="111"/>
       <c r="G7" s="144">
         <v>6063</v>
@@ -3636,38 +3700,38 @@
       <c r="J7" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="K7" s="167" t="s">
+      <c r="K7" s="166" t="s">
         <v>97</v>
       </c>
       <c r="L7" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="M7" s="300">
+      <c r="M7" s="305">
         <f>input!K11</f>
         <v>0</v>
       </c>
       <c r="N7" s="113"/>
-      <c r="O7" s="259" t="s">
+      <c r="O7" s="241" t="s">
         <v>135</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="290" t="s">
+      <c r="P7" s="242"/>
+      <c r="Q7" s="301" t="s">
         <v>121</v>
       </c>
-      <c r="R7" s="291"/>
-      <c r="S7" s="287" t="s">
+      <c r="R7" s="302"/>
+      <c r="S7" s="298" t="s">
         <v>130</v>
       </c>
-      <c r="T7" s="288"/>
-      <c r="U7" s="289"/>
+      <c r="T7" s="299"/>
+      <c r="U7" s="300"/>
     </row>
     <row r="8" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B8" s="271"/>
-      <c r="C8" s="275"/>
-      <c r="D8" s="276"/>
-      <c r="E8" s="277"/>
+      <c r="B8" s="291"/>
+      <c r="C8" s="295"/>
+      <c r="D8" s="296"/>
+      <c r="E8" s="297"/>
       <c r="F8" s="111"/>
-      <c r="G8" s="180" t="s">
+      <c r="G8" s="179" t="s">
         <v>144</v>
       </c>
       <c r="H8" s="145" t="str">
@@ -3679,27 +3743,27 @@
         <f>input!D31</f>
         <v>0</v>
       </c>
-      <c r="K8" s="183">
+      <c r="K8" s="182">
         <f>input!D10*1</f>
         <v>0</v>
       </c>
-      <c r="L8" s="184">
+      <c r="L8" s="183">
         <f>input!D15</f>
         <v>0</v>
       </c>
-      <c r="M8" s="301"/>
+      <c r="M8" s="306"/>
       <c r="N8" s="113"/>
-      <c r="O8" s="261"/>
-      <c r="P8" s="262"/>
-      <c r="Q8" s="226" t="s">
+      <c r="O8" s="243"/>
+      <c r="P8" s="244"/>
+      <c r="Q8" s="316" t="s">
         <v>120</v>
       </c>
-      <c r="R8" s="327" t="s">
+      <c r="R8" s="342" t="s">
         <v>136</v>
       </c>
-      <c r="S8" s="330"/>
-      <c r="T8" s="332"/>
-      <c r="U8" s="334"/>
+      <c r="S8" s="231"/>
+      <c r="T8" s="357"/>
+      <c r="U8" s="359"/>
     </row>
     <row r="9" spans="2:31" ht="6" customHeight="1">
       <c r="B9" s="25"/>
@@ -3707,28 +3771,28 @@
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="278" t="s">
+      <c r="G9" s="262" t="s">
         <v>141</v>
       </c>
-      <c r="I9" s="279"/>
-      <c r="J9" s="284" t="str">
+      <c r="H9" s="263"/>
+      <c r="I9" s="264"/>
+      <c r="J9" s="247" t="str">
         <f>input!D36&amp;"-"&amp;input!D37</f>
         <v>-</v>
       </c>
-      <c r="K9" s="242" t="s">
+      <c r="K9" s="276" t="s">
         <v>142</v>
       </c>
-      <c r="L9" s="243"/>
-      <c r="M9" s="248"/>
+      <c r="L9" s="277"/>
+      <c r="M9" s="282"/>
       <c r="N9" s="29"/>
-      <c r="O9" s="261"/>
-      <c r="P9" s="262"/>
-      <c r="Q9" s="227"/>
-      <c r="R9" s="328"/>
-      <c r="S9" s="335"/>
-      <c r="T9" s="333"/>
-      <c r="U9" s="331"/>
+      <c r="O9" s="243"/>
+      <c r="P9" s="244"/>
+      <c r="Q9" s="317"/>
+      <c r="R9" s="343"/>
+      <c r="S9" s="360"/>
+      <c r="T9" s="358"/>
+      <c r="U9" s="232"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" thickBot="1">
       <c r="B10" s="30"/>
@@ -3736,107 +3800,113 @@
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="280"/>
-      <c r="I10" s="281"/>
-      <c r="J10" s="285"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="245"/>
-      <c r="M10" s="249"/>
+      <c r="G10" s="265"/>
+      <c r="H10" s="266"/>
+      <c r="I10" s="267"/>
+      <c r="J10" s="248"/>
+      <c r="K10" s="278"/>
+      <c r="L10" s="279"/>
+      <c r="M10" s="283"/>
       <c r="N10" s="29"/>
-      <c r="O10" s="263"/>
-      <c r="P10" s="264"/>
-      <c r="Q10" s="228"/>
-      <c r="R10" s="329"/>
-      <c r="S10" s="336"/>
-      <c r="T10" s="337"/>
-      <c r="U10" s="338"/>
+      <c r="O10" s="245"/>
+      <c r="P10" s="246"/>
+      <c r="Q10" s="318"/>
+      <c r="R10" s="344"/>
+      <c r="S10" s="361"/>
+      <c r="T10" s="362"/>
+      <c r="U10" s="363"/>
     </row>
     <row r="11" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B11" s="229" t="s">
+      <c r="B11" s="319" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="251" t="str">
+      <c r="C11" s="379" t="str">
         <f>IF(C13=0,"","DR"&amp;MID(C13,2,4))</f>
         <v/>
       </c>
-      <c r="D11" s="251"/>
-      <c r="E11" s="252"/>
+      <c r="D11" s="379"/>
+      <c r="E11" s="380"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="282"/>
-      <c r="I11" s="283"/>
-      <c r="J11" s="286"/>
-      <c r="K11" s="246"/>
-      <c r="L11" s="247"/>
-      <c r="M11" s="250"/>
+      <c r="G11" s="268"/>
+      <c r="H11" s="269"/>
+      <c r="I11" s="270"/>
+      <c r="J11" s="249"/>
+      <c r="K11" s="280"/>
+      <c r="L11" s="281"/>
+      <c r="M11" s="284"/>
       <c r="N11" s="29"/>
-      <c r="O11" s="292"/>
-      <c r="P11" s="293"/>
-      <c r="Q11" s="321"/>
-      <c r="R11" s="324" t="s">
+      <c r="O11" s="250"/>
+      <c r="P11" s="251"/>
+      <c r="Q11" s="336"/>
+      <c r="R11" s="339" t="s">
         <v>146</v>
       </c>
-      <c r="S11" s="318" t="s">
+      <c r="S11" s="333" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="319"/>
-      <c r="U11" s="320"/>
+      <c r="T11" s="334"/>
+      <c r="U11" s="335"/>
     </row>
     <row r="12" spans="2:31" ht="27.75" customHeight="1">
-      <c r="B12" s="230"/>
-      <c r="C12" s="253"/>
-      <c r="D12" s="253"/>
-      <c r="E12" s="254"/>
+      <c r="B12" s="320"/>
+      <c r="C12" s="233"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="234"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
+      <c r="G12" s="256">
+        <f>input!D16</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="257"/>
+      <c r="I12" s="258"/>
+      <c r="J12" s="393">
+        <f>input!D38</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="394"/>
+      <c r="L12" s="394"/>
+      <c r="M12" s="395"/>
       <c r="N12" s="29"/>
-      <c r="O12" s="294"/>
-      <c r="P12" s="295"/>
-      <c r="Q12" s="322"/>
-      <c r="R12" s="325"/>
-      <c r="S12" s="339"/>
-      <c r="T12" s="340"/>
-      <c r="U12" s="341"/>
+      <c r="O12" s="252"/>
+      <c r="P12" s="253"/>
+      <c r="Q12" s="337"/>
+      <c r="R12" s="340"/>
+      <c r="S12" s="364"/>
+      <c r="T12" s="313"/>
+      <c r="U12" s="314"/>
     </row>
     <row r="13" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B13" s="270" t="s">
+      <c r="B13" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="253">
+      <c r="C13" s="233">
         <f>input!D32</f>
         <v>0</v>
       </c>
-      <c r="D13" s="253"/>
-      <c r="E13" s="254"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="234"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
+      <c r="G13" s="259"/>
+      <c r="H13" s="260"/>
+      <c r="I13" s="261"/>
+      <c r="J13" s="396"/>
+      <c r="K13" s="397"/>
+      <c r="L13" s="397"/>
+      <c r="M13" s="398"/>
       <c r="N13" s="29"/>
-      <c r="O13" s="296"/>
-      <c r="P13" s="297"/>
-      <c r="Q13" s="323"/>
-      <c r="R13" s="326"/>
-      <c r="S13" s="342"/>
-      <c r="T13" s="343"/>
-      <c r="U13" s="344"/>
+      <c r="O13" s="254"/>
+      <c r="P13" s="255"/>
+      <c r="Q13" s="338"/>
+      <c r="R13" s="341"/>
+      <c r="S13" s="365"/>
+      <c r="T13" s="312"/>
+      <c r="U13" s="315"/>
     </row>
     <row r="14" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B14" s="342"/>
-      <c r="C14" s="354"/>
-      <c r="D14" s="354"/>
-      <c r="E14" s="355"/>
+      <c r="B14" s="365"/>
+      <c r="C14" s="235"/>
+      <c r="D14" s="235"/>
+      <c r="E14" s="236"/>
       <c r="F14" s="34"/>
       <c r="G14" s="110" t="s">
         <v>5</v>
@@ -3848,30 +3918,30 @@
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="29"/>
-      <c r="O14" s="330" t="s">
+      <c r="O14" s="231" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="331"/>
-      <c r="Q14" s="330" t="s">
+      <c r="P14" s="232"/>
+      <c r="Q14" s="231" t="s">
         <v>137</v>
       </c>
-      <c r="R14" s="332"/>
-      <c r="S14" s="333"/>
-      <c r="T14" s="333"/>
-      <c r="U14" s="331"/>
+      <c r="R14" s="357"/>
+      <c r="S14" s="358"/>
+      <c r="T14" s="358"/>
+      <c r="U14" s="232"/>
     </row>
     <row r="15" spans="2:31" ht="52.5" customHeight="1" thickBot="1">
-      <c r="B15" s="225" t="s">
+      <c r="B15" s="224" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="204" t="s">
+      <c r="C15" s="203" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="366" t="s">
+      <c r="D15" s="385" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="366"/>
-      <c r="F15" s="200"/>
+      <c r="E15" s="385"/>
+      <c r="F15" s="199"/>
       <c r="G15" s="157" t="s">
         <v>7</v>
       </c>
@@ -3896,7 +3966,7 @@
       <c r="N15" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="O15" s="168" t="s">
+      <c r="O15" s="167" t="s">
         <v>115</v>
       </c>
       <c r="P15" s="158" t="s">
@@ -3919,10 +3989,10 @@
       </c>
     </row>
     <row r="16" spans="2:31" ht="35.1" customHeight="1">
-      <c r="B16" s="205"/>
+      <c r="B16" s="204"/>
       <c r="C16" s="119"/>
-      <c r="D16" s="356"/>
-      <c r="E16" s="357"/>
+      <c r="D16" s="391"/>
+      <c r="E16" s="392"/>
       <c r="F16" s="34"/>
       <c r="G16" s="109">
         <v>1</v>
@@ -3930,16 +4000,16 @@
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
-      <c r="K16" s="188"/>
-      <c r="L16" s="188"/>
+      <c r="K16" s="187"/>
+      <c r="L16" s="187"/>
       <c r="M16" s="27"/>
       <c r="N16" s="28"/>
       <c r="O16" s="109" t="s">
         <v>117</v>
       </c>
       <c r="P16" s="27"/>
-      <c r="Q16" s="188"/>
-      <c r="R16" s="188"/>
+      <c r="Q16" s="187"/>
+      <c r="R16" s="187"/>
       <c r="S16" s="27"/>
       <c r="T16" s="35"/>
       <c r="U16" s="36"/>
@@ -3954,10 +4024,10 @@
       <c r="AE16" s="34"/>
     </row>
     <row r="17" spans="2:31" ht="35.1" customHeight="1">
-      <c r="B17" s="193"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="352"/>
-      <c r="E17" s="353"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="383"/>
+      <c r="E17" s="384"/>
       <c r="F17" s="34"/>
       <c r="G17" s="109">
         <v>2</v>
@@ -3965,16 +4035,16 @@
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
-      <c r="K17" s="188"/>
-      <c r="L17" s="188"/>
+      <c r="K17" s="187"/>
+      <c r="L17" s="187"/>
       <c r="M17" s="27"/>
       <c r="N17" s="28"/>
       <c r="O17" s="109" t="s">
         <v>117</v>
       </c>
       <c r="P17" s="27"/>
-      <c r="Q17" s="188"/>
-      <c r="R17" s="188"/>
+      <c r="Q17" s="187"/>
+      <c r="R17" s="187"/>
       <c r="S17" s="27"/>
       <c r="T17" s="35"/>
       <c r="U17" s="36"/>
@@ -3989,10 +4059,10 @@
       <c r="AE17" s="34"/>
     </row>
     <row r="18" spans="2:31" ht="35.1" customHeight="1">
-      <c r="B18" s="206"/>
-      <c r="C18" s="188"/>
-      <c r="D18" s="350"/>
-      <c r="E18" s="351"/>
+      <c r="B18" s="205"/>
+      <c r="C18" s="187"/>
+      <c r="D18" s="348"/>
+      <c r="E18" s="349"/>
       <c r="F18" s="34"/>
       <c r="G18" s="109">
         <v>3</v>
@@ -4000,16 +4070,16 @@
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
-      <c r="K18" s="188"/>
-      <c r="L18" s="188"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="187"/>
       <c r="M18" s="27"/>
       <c r="N18" s="28"/>
       <c r="O18" s="109" t="s">
         <v>117</v>
       </c>
       <c r="P18" s="27"/>
-      <c r="Q18" s="188"/>
-      <c r="R18" s="188"/>
+      <c r="Q18" s="187"/>
+      <c r="R18" s="187"/>
       <c r="S18" s="27"/>
       <c r="T18" s="35"/>
       <c r="U18" s="36"/>
@@ -4024,10 +4094,10 @@
       <c r="AE18" s="34"/>
     </row>
     <row r="19" spans="2:31" ht="35.1" customHeight="1">
-      <c r="B19" s="193"/>
-      <c r="C19" s="188"/>
-      <c r="D19" s="350"/>
-      <c r="E19" s="351"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="348"/>
+      <c r="E19" s="349"/>
       <c r="F19" s="34"/>
       <c r="G19" s="109">
         <v>4</v>
@@ -4037,8 +4107,8 @@
       <c r="J19" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="188"/>
-      <c r="L19" s="188"/>
+      <c r="K19" s="187"/>
+      <c r="L19" s="187"/>
       <c r="M19" s="27"/>
       <c r="N19" s="28"/>
       <c r="O19" s="109" t="s">
@@ -4047,26 +4117,26 @@
       <c r="P19" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="Q19" s="188"/>
-      <c r="R19" s="188"/>
+      <c r="Q19" s="187"/>
+      <c r="R19" s="187"/>
       <c r="S19" s="27"/>
       <c r="T19" s="35"/>
       <c r="U19" s="36"/>
       <c r="W19" s="37"/>
-      <c r="X19" s="316"/>
-      <c r="Y19" s="269"/>
-      <c r="Z19" s="269"/>
-      <c r="AA19" s="269"/>
+      <c r="X19" s="331"/>
+      <c r="Y19" s="289"/>
+      <c r="Z19" s="289"/>
+      <c r="AA19" s="289"/>
       <c r="AB19" s="34"/>
       <c r="AC19" s="34"/>
       <c r="AD19" s="34"/>
       <c r="AE19" s="34"/>
     </row>
     <row r="20" spans="2:31" ht="35.1" customHeight="1">
-      <c r="B20" s="206"/>
-      <c r="C20" s="188"/>
-      <c r="D20" s="350"/>
-      <c r="E20" s="351"/>
+      <c r="B20" s="205"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="348"/>
+      <c r="E20" s="349"/>
       <c r="F20" s="34"/>
       <c r="G20" s="109">
         <v>5</v>
@@ -4074,34 +4144,34 @@
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
-      <c r="K20" s="188"/>
-      <c r="L20" s="188"/>
+      <c r="K20" s="187"/>
+      <c r="L20" s="187"/>
       <c r="M20" s="27"/>
       <c r="N20" s="28"/>
       <c r="O20" s="109" t="s">
         <v>117</v>
       </c>
       <c r="P20" s="27"/>
-      <c r="Q20" s="188"/>
-      <c r="R20" s="188"/>
+      <c r="Q20" s="187"/>
+      <c r="R20" s="187"/>
       <c r="S20" s="27"/>
       <c r="T20" s="35"/>
       <c r="U20" s="36"/>
       <c r="W20" s="34"/>
       <c r="X20" s="106"/>
       <c r="Y20" s="33"/>
-      <c r="Z20" s="317"/>
-      <c r="AA20" s="269"/>
+      <c r="Z20" s="332"/>
+      <c r="AA20" s="289"/>
       <c r="AB20" s="34"/>
       <c r="AC20" s="34"/>
       <c r="AD20" s="34"/>
       <c r="AE20" s="34"/>
     </row>
     <row r="21" spans="2:31" ht="35.1" customHeight="1">
-      <c r="B21" s="193"/>
-      <c r="C21" s="188"/>
-      <c r="D21" s="350"/>
-      <c r="E21" s="351"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="187"/>
+      <c r="D21" s="348"/>
+      <c r="E21" s="349"/>
       <c r="F21" s="34"/>
       <c r="G21" s="109">
         <v>6</v>
@@ -4109,16 +4179,16 @@
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
-      <c r="K21" s="188"/>
-      <c r="L21" s="188"/>
+      <c r="K21" s="187"/>
+      <c r="L21" s="187"/>
       <c r="M21" s="27"/>
       <c r="N21" s="28"/>
       <c r="O21" s="109" t="s">
         <v>117</v>
       </c>
       <c r="P21" s="27"/>
-      <c r="Q21" s="188"/>
-      <c r="R21" s="188"/>
+      <c r="Q21" s="187"/>
+      <c r="R21" s="187"/>
       <c r="S21" s="27"/>
       <c r="T21" s="35"/>
       <c r="U21" s="36"/>
@@ -4126,18 +4196,18 @@
       <c r="W21" s="34"/>
       <c r="X21" s="106"/>
       <c r="Y21" s="107"/>
-      <c r="Z21" s="306"/>
-      <c r="AA21" s="269"/>
+      <c r="Z21" s="321"/>
+      <c r="AA21" s="289"/>
       <c r="AB21" s="34"/>
       <c r="AC21" s="34"/>
       <c r="AD21" s="34"/>
       <c r="AE21" s="34"/>
     </row>
     <row r="22" spans="2:31" ht="35.1" customHeight="1">
-      <c r="B22" s="206"/>
-      <c r="C22" s="188"/>
-      <c r="D22" s="350"/>
-      <c r="E22" s="351"/>
+      <c r="B22" s="205"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="348"/>
+      <c r="E22" s="349"/>
       <c r="F22" s="34"/>
       <c r="G22" s="109">
         <v>7</v>
@@ -4145,16 +4215,16 @@
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="39"/>
-      <c r="K22" s="188"/>
-      <c r="L22" s="188"/>
+      <c r="K22" s="187"/>
+      <c r="L22" s="187"/>
       <c r="M22" s="27"/>
-      <c r="N22" s="189"/>
+      <c r="N22" s="188"/>
       <c r="O22" s="109" t="s">
         <v>117</v>
       </c>
       <c r="P22" s="39"/>
-      <c r="Q22" s="188"/>
-      <c r="R22" s="188"/>
+      <c r="Q22" s="187"/>
+      <c r="R22" s="187"/>
       <c r="S22" s="27"/>
       <c r="T22" s="35"/>
       <c r="U22" s="36"/>
@@ -4162,36 +4232,36 @@
       <c r="W22" s="34"/>
       <c r="X22" s="33"/>
       <c r="Y22" s="34"/>
-      <c r="Z22" s="269"/>
-      <c r="AA22" s="269"/>
+      <c r="Z22" s="289"/>
+      <c r="AA22" s="289"/>
       <c r="AB22" s="34"/>
       <c r="AC22" s="34"/>
       <c r="AD22" s="34"/>
       <c r="AE22" s="34"/>
     </row>
     <row r="23" spans="2:31" ht="35.1" customHeight="1">
-      <c r="B23" s="193"/>
-      <c r="C23" s="188"/>
-      <c r="D23" s="350"/>
-      <c r="E23" s="351"/>
+      <c r="B23" s="192"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="348"/>
+      <c r="E23" s="349"/>
       <c r="F23" s="34"/>
       <c r="G23" s="109">
         <v>8</v>
       </c>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="188"/>
-      <c r="K23" s="188"/>
-      <c r="L23" s="188"/>
-      <c r="M23" s="188"/>
-      <c r="N23" s="189"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="187"/>
+      <c r="L23" s="187"/>
+      <c r="M23" s="187"/>
+      <c r="N23" s="188"/>
       <c r="O23" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P23" s="188"/>
-      <c r="Q23" s="188"/>
-      <c r="R23" s="188"/>
-      <c r="S23" s="188"/>
+      <c r="P23" s="187"/>
+      <c r="Q23" s="187"/>
+      <c r="R23" s="187"/>
+      <c r="S23" s="187"/>
       <c r="T23" s="35"/>
       <c r="U23" s="36"/>
       <c r="V23" s="38"/>
@@ -4206,10 +4276,10 @@
       <c r="AE23" s="34"/>
     </row>
     <row r="24" spans="2:31" ht="35.1" customHeight="1">
-      <c r="B24" s="206"/>
-      <c r="C24" s="188"/>
-      <c r="D24" s="350"/>
-      <c r="E24" s="351"/>
+      <c r="B24" s="205"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="348"/>
+      <c r="E24" s="349"/>
       <c r="F24" s="34"/>
       <c r="G24" s="109">
         <v>9</v>
@@ -4217,16 +4287,16 @@
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
-      <c r="K24" s="188"/>
-      <c r="L24" s="188"/>
+      <c r="K24" s="187"/>
+      <c r="L24" s="187"/>
       <c r="M24" s="27"/>
-      <c r="N24" s="189"/>
+      <c r="N24" s="188"/>
       <c r="O24" s="109" t="s">
         <v>117</v>
       </c>
       <c r="P24" s="27"/>
-      <c r="Q24" s="188"/>
-      <c r="R24" s="188"/>
+      <c r="Q24" s="187"/>
+      <c r="R24" s="187"/>
       <c r="S24" s="27"/>
       <c r="T24" s="35"/>
       <c r="U24" s="36"/>
@@ -4242,10 +4312,10 @@
       <c r="AE24" s="34"/>
     </row>
     <row r="25" spans="2:31" ht="35.1" customHeight="1">
-      <c r="B25" s="193"/>
+      <c r="B25" s="192"/>
       <c r="C25" s="132"/>
-      <c r="D25" s="383"/>
-      <c r="E25" s="384"/>
+      <c r="D25" s="355"/>
+      <c r="E25" s="356"/>
       <c r="F25" s="34"/>
       <c r="G25" s="109">
         <v>10</v>
@@ -4253,16 +4323,16 @@
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="39"/>
-      <c r="K25" s="188"/>
-      <c r="L25" s="188"/>
+      <c r="K25" s="187"/>
+      <c r="L25" s="187"/>
       <c r="M25" s="27"/>
-      <c r="N25" s="189"/>
+      <c r="N25" s="188"/>
       <c r="O25" s="109" t="s">
         <v>117</v>
       </c>
       <c r="P25" s="39"/>
-      <c r="Q25" s="188"/>
-      <c r="R25" s="188"/>
+      <c r="Q25" s="187"/>
+      <c r="R25" s="187"/>
       <c r="S25" s="27"/>
       <c r="T25" s="35"/>
       <c r="U25" s="36"/>
@@ -4270,147 +4340,147 @@
       <c r="W25" s="38"/>
     </row>
     <row r="26" spans="2:31" ht="35.1" customHeight="1">
-      <c r="B26" s="206"/>
-      <c r="C26" s="188"/>
-      <c r="D26" s="350"/>
-      <c r="E26" s="351"/>
+      <c r="B26" s="205"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="348"/>
+      <c r="E26" s="349"/>
       <c r="F26" s="34"/>
       <c r="G26" s="109">
         <v>11</v>
       </c>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="188"/>
-      <c r="K26" s="188"/>
-      <c r="L26" s="188"/>
-      <c r="M26" s="188"/>
-      <c r="N26" s="189"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="187"/>
+      <c r="K26" s="187"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="187"/>
+      <c r="N26" s="188"/>
       <c r="O26" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P26" s="188"/>
-      <c r="Q26" s="188"/>
-      <c r="R26" s="188"/>
-      <c r="S26" s="188"/>
+      <c r="P26" s="187"/>
+      <c r="Q26" s="187"/>
+      <c r="R26" s="187"/>
+      <c r="S26" s="187"/>
       <c r="T26" s="35"/>
       <c r="U26" s="36"/>
       <c r="V26" s="38"/>
       <c r="W26" s="38"/>
     </row>
     <row r="27" spans="2:31" ht="35.1" customHeight="1">
-      <c r="B27" s="193"/>
-      <c r="C27" s="188"/>
-      <c r="D27" s="350"/>
-      <c r="E27" s="351"/>
+      <c r="B27" s="192"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="348"/>
+      <c r="E27" s="349"/>
       <c r="F27" s="34"/>
       <c r="G27" s="109">
         <v>12</v>
       </c>
-      <c r="H27" s="188"/>
-      <c r="I27" s="188"/>
-      <c r="J27" s="188"/>
-      <c r="K27" s="188"/>
-      <c r="L27" s="188"/>
-      <c r="M27" s="188"/>
-      <c r="N27" s="189"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="187"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="188"/>
       <c r="O27" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P27" s="188"/>
-      <c r="Q27" s="188"/>
-      <c r="R27" s="188"/>
-      <c r="S27" s="188"/>
+      <c r="P27" s="187"/>
+      <c r="Q27" s="187"/>
+      <c r="R27" s="187"/>
+      <c r="S27" s="187"/>
       <c r="T27" s="35"/>
       <c r="U27" s="36"/>
       <c r="V27" s="38"/>
       <c r="W27" s="38"/>
     </row>
     <row r="28" spans="2:31" ht="35.1" customHeight="1">
-      <c r="B28" s="206"/>
-      <c r="C28" s="188"/>
-      <c r="D28" s="350"/>
-      <c r="E28" s="351"/>
+      <c r="B28" s="205"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="348"/>
+      <c r="E28" s="349"/>
       <c r="F28" s="34"/>
       <c r="G28" s="109">
         <v>13</v>
       </c>
-      <c r="H28" s="188"/>
-      <c r="I28" s="188"/>
-      <c r="J28" s="188"/>
-      <c r="K28" s="188"/>
-      <c r="L28" s="188"/>
-      <c r="M28" s="188"/>
-      <c r="N28" s="189"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="187"/>
+      <c r="J28" s="187"/>
+      <c r="K28" s="187"/>
+      <c r="L28" s="187"/>
+      <c r="M28" s="187"/>
+      <c r="N28" s="188"/>
       <c r="O28" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P28" s="188"/>
-      <c r="Q28" s="188"/>
-      <c r="R28" s="188"/>
-      <c r="S28" s="188"/>
+      <c r="P28" s="187"/>
+      <c r="Q28" s="187"/>
+      <c r="R28" s="187"/>
+      <c r="S28" s="187"/>
       <c r="T28" s="35"/>
       <c r="U28" s="36"/>
       <c r="V28" s="38"/>
       <c r="W28" s="38"/>
     </row>
     <row r="29" spans="2:31" ht="35.1" customHeight="1">
-      <c r="B29" s="193"/>
-      <c r="C29" s="188"/>
-      <c r="D29" s="350"/>
-      <c r="E29" s="351"/>
+      <c r="B29" s="192"/>
+      <c r="C29" s="187"/>
+      <c r="D29" s="348"/>
+      <c r="E29" s="349"/>
       <c r="F29" s="34"/>
       <c r="G29" s="109">
         <v>14</v>
       </c>
-      <c r="H29" s="188"/>
-      <c r="I29" s="188"/>
-      <c r="J29" s="188"/>
-      <c r="K29" s="188"/>
-      <c r="L29" s="188"/>
-      <c r="M29" s="188"/>
-      <c r="N29" s="189"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="187"/>
+      <c r="K29" s="187"/>
+      <c r="L29" s="187"/>
+      <c r="M29" s="187"/>
+      <c r="N29" s="188"/>
       <c r="O29" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P29" s="188"/>
-      <c r="Q29" s="188"/>
-      <c r="R29" s="188"/>
-      <c r="S29" s="188"/>
+      <c r="P29" s="187"/>
+      <c r="Q29" s="187"/>
+      <c r="R29" s="187"/>
+      <c r="S29" s="187"/>
       <c r="T29" s="35"/>
       <c r="U29" s="36"/>
       <c r="V29" s="38"/>
       <c r="W29" s="38"/>
     </row>
     <row r="30" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B30" s="209"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="367"/>
-      <c r="E30" s="368"/>
+      <c r="B30" s="208"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="386"/>
+      <c r="E30" s="387"/>
       <c r="F30" s="34"/>
       <c r="G30" s="109">
         <v>15</v>
       </c>
-      <c r="H30" s="188"/>
-      <c r="I30" s="188"/>
-      <c r="J30" s="188"/>
-      <c r="K30" s="188"/>
-      <c r="L30" s="188"/>
-      <c r="M30" s="188"/>
-      <c r="N30" s="189"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="187"/>
+      <c r="K30" s="187"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="187"/>
+      <c r="N30" s="188"/>
       <c r="O30" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P30" s="188"/>
-      <c r="Q30" s="188"/>
-      <c r="R30" s="188"/>
-      <c r="S30" s="188"/>
+      <c r="P30" s="187"/>
+      <c r="Q30" s="187"/>
+      <c r="R30" s="187"/>
+      <c r="S30" s="187"/>
       <c r="T30" s="35"/>
       <c r="U30" s="36"/>
       <c r="V30" s="38"/>
       <c r="W30" s="38"/>
     </row>
     <row r="31" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B31" s="164" t="s">
+      <c r="B31" s="163" t="s">
         <v>99</v>
       </c>
       <c r="C31" s="34"/>
@@ -4420,89 +4490,89 @@
       <c r="G31" s="109">
         <v>16</v>
       </c>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="188"/>
-      <c r="K31" s="188"/>
-      <c r="L31" s="188"/>
-      <c r="M31" s="188"/>
-      <c r="N31" s="189"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="187"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="187"/>
+      <c r="M31" s="187"/>
+      <c r="N31" s="188"/>
       <c r="O31" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P31" s="188"/>
-      <c r="Q31" s="188"/>
-      <c r="R31" s="188"/>
-      <c r="S31" s="188"/>
+      <c r="P31" s="187"/>
+      <c r="Q31" s="187"/>
+      <c r="R31" s="187"/>
+      <c r="S31" s="187"/>
       <c r="T31" s="35"/>
       <c r="U31" s="36"/>
       <c r="V31" s="38"/>
       <c r="W31" s="38"/>
     </row>
     <row r="32" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B32" s="318" t="s">
+      <c r="B32" s="333" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="320"/>
-      <c r="D32" s="318" t="s">
+      <c r="C32" s="335"/>
+      <c r="D32" s="333" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="320"/>
+      <c r="E32" s="335"/>
       <c r="F32" s="34"/>
       <c r="G32" s="109">
         <v>17</v>
       </c>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="188"/>
-      <c r="K32" s="188"/>
-      <c r="L32" s="188"/>
-      <c r="M32" s="188"/>
-      <c r="N32" s="189"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="187"/>
+      <c r="K32" s="187"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="187"/>
+      <c r="N32" s="188"/>
       <c r="O32" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P32" s="188"/>
-      <c r="Q32" s="188"/>
-      <c r="R32" s="188"/>
-      <c r="S32" s="188"/>
+      <c r="P32" s="187"/>
+      <c r="Q32" s="187"/>
+      <c r="R32" s="187"/>
+      <c r="S32" s="187"/>
       <c r="T32" s="35"/>
       <c r="U32" s="36"/>
       <c r="V32" s="38"/>
       <c r="W32" s="38"/>
     </row>
     <row r="33" spans="2:28" ht="35.1" customHeight="1">
-      <c r="B33" s="210" t="s">
+      <c r="B33" s="209" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="211" t="str">
+      <c r="C33" s="210" t="str">
         <f>input!I12</f>
         <v/>
       </c>
-      <c r="D33" s="210" t="s">
+      <c r="D33" s="209" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="212" t="s">
+      <c r="E33" s="211" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="109">
         <v>18</v>
       </c>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="188"/>
-      <c r="K33" s="188"/>
-      <c r="L33" s="188"/>
-      <c r="M33" s="188"/>
-      <c r="N33" s="189"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="187"/>
+      <c r="K33" s="187"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="187"/>
+      <c r="N33" s="188"/>
       <c r="O33" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P33" s="188"/>
-      <c r="Q33" s="188"/>
-      <c r="R33" s="188"/>
-      <c r="S33" s="188"/>
+      <c r="P33" s="187"/>
+      <c r="Q33" s="187"/>
+      <c r="R33" s="187"/>
+      <c r="S33" s="187"/>
       <c r="T33" s="35"/>
       <c r="U33" s="36"/>
       <c r="V33" s="38"/>
@@ -4524,20 +4594,20 @@
       <c r="G34" s="109">
         <v>19</v>
       </c>
-      <c r="H34" s="188"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="188"/>
-      <c r="K34" s="188"/>
-      <c r="L34" s="188"/>
-      <c r="M34" s="188"/>
-      <c r="N34" s="189"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="187"/>
+      <c r="K34" s="187"/>
+      <c r="L34" s="187"/>
+      <c r="M34" s="187"/>
+      <c r="N34" s="188"/>
       <c r="O34" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P34" s="188"/>
-      <c r="Q34" s="188"/>
-      <c r="R34" s="188"/>
-      <c r="S34" s="188"/>
+      <c r="P34" s="187"/>
+      <c r="Q34" s="187"/>
+      <c r="R34" s="187"/>
+      <c r="S34" s="187"/>
       <c r="T34" s="35"/>
       <c r="U34" s="36"/>
       <c r="V34" s="41"/>
@@ -4559,20 +4629,20 @@
       <c r="G35" s="109">
         <v>20</v>
       </c>
-      <c r="H35" s="188"/>
-      <c r="I35" s="188"/>
-      <c r="J35" s="188"/>
-      <c r="K35" s="188"/>
-      <c r="L35" s="188"/>
-      <c r="M35" s="188"/>
-      <c r="N35" s="189"/>
+      <c r="H35" s="187"/>
+      <c r="I35" s="187"/>
+      <c r="J35" s="187"/>
+      <c r="K35" s="187"/>
+      <c r="L35" s="187"/>
+      <c r="M35" s="187"/>
+      <c r="N35" s="188"/>
       <c r="O35" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P35" s="188"/>
-      <c r="Q35" s="188"/>
-      <c r="R35" s="188"/>
-      <c r="S35" s="188"/>
+      <c r="P35" s="187"/>
+      <c r="Q35" s="187"/>
+      <c r="R35" s="187"/>
+      <c r="S35" s="187"/>
       <c r="T35" s="35"/>
       <c r="U35" s="36"/>
     </row>
@@ -4592,20 +4662,20 @@
       <c r="G36" s="109">
         <v>21</v>
       </c>
-      <c r="H36" s="188"/>
-      <c r="I36" s="188"/>
-      <c r="J36" s="188"/>
-      <c r="K36" s="188"/>
-      <c r="L36" s="188"/>
-      <c r="M36" s="188"/>
-      <c r="N36" s="189"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="187"/>
+      <c r="K36" s="187"/>
+      <c r="L36" s="187"/>
+      <c r="M36" s="187"/>
+      <c r="N36" s="188"/>
       <c r="O36" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P36" s="188"/>
-      <c r="Q36" s="188"/>
-      <c r="R36" s="188"/>
-      <c r="S36" s="188"/>
+      <c r="P36" s="187"/>
+      <c r="Q36" s="187"/>
+      <c r="R36" s="187"/>
+      <c r="S36" s="187"/>
       <c r="T36" s="35"/>
       <c r="U36" s="36"/>
     </row>
@@ -4625,20 +4695,20 @@
       <c r="G37" s="109">
         <v>22</v>
       </c>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="188"/>
-      <c r="K37" s="188"/>
-      <c r="L37" s="188"/>
-      <c r="M37" s="188"/>
-      <c r="N37" s="189"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="187"/>
+      <c r="J37" s="187"/>
+      <c r="K37" s="187"/>
+      <c r="L37" s="187"/>
+      <c r="M37" s="187"/>
+      <c r="N37" s="188"/>
       <c r="O37" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P37" s="188"/>
-      <c r="Q37" s="188"/>
-      <c r="R37" s="188"/>
-      <c r="S37" s="188"/>
+      <c r="P37" s="187"/>
+      <c r="Q37" s="187"/>
+      <c r="R37" s="187"/>
+      <c r="S37" s="187"/>
       <c r="T37" s="35"/>
       <c r="U37" s="36"/>
     </row>
@@ -4658,20 +4728,20 @@
       <c r="G38" s="109">
         <v>23</v>
       </c>
-      <c r="H38" s="188"/>
-      <c r="I38" s="188"/>
-      <c r="J38" s="188"/>
-      <c r="K38" s="188"/>
-      <c r="L38" s="188"/>
-      <c r="M38" s="188"/>
-      <c r="N38" s="189"/>
+      <c r="H38" s="187"/>
+      <c r="I38" s="187"/>
+      <c r="J38" s="187"/>
+      <c r="K38" s="187"/>
+      <c r="L38" s="187"/>
+      <c r="M38" s="187"/>
+      <c r="N38" s="188"/>
       <c r="O38" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P38" s="188"/>
-      <c r="Q38" s="188"/>
-      <c r="R38" s="188"/>
-      <c r="S38" s="188"/>
+      <c r="P38" s="187"/>
+      <c r="Q38" s="187"/>
+      <c r="R38" s="187"/>
+      <c r="S38" s="187"/>
       <c r="T38" s="35"/>
       <c r="U38" s="36"/>
     </row>
@@ -4691,20 +4761,20 @@
       <c r="G39" s="109">
         <v>24</v>
       </c>
-      <c r="H39" s="188"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="188"/>
-      <c r="K39" s="188"/>
-      <c r="L39" s="188"/>
-      <c r="M39" s="188"/>
-      <c r="N39" s="189"/>
+      <c r="H39" s="187"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="187"/>
+      <c r="K39" s="187"/>
+      <c r="L39" s="187"/>
+      <c r="M39" s="187"/>
+      <c r="N39" s="188"/>
       <c r="O39" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P39" s="188"/>
-      <c r="Q39" s="188"/>
-      <c r="R39" s="188"/>
-      <c r="S39" s="188"/>
+      <c r="P39" s="187"/>
+      <c r="Q39" s="187"/>
+      <c r="R39" s="187"/>
+      <c r="S39" s="187"/>
       <c r="T39" s="35"/>
       <c r="U39" s="36"/>
     </row>
@@ -4712,7 +4782,7 @@
       <c r="B40" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="182">
+      <c r="C40" s="181">
         <f>input!D29</f>
         <v>0</v>
       </c>
@@ -4724,20 +4794,20 @@
       <c r="G40" s="109">
         <v>25</v>
       </c>
-      <c r="H40" s="188"/>
-      <c r="I40" s="188"/>
-      <c r="J40" s="188"/>
-      <c r="K40" s="188"/>
-      <c r="L40" s="188"/>
-      <c r="M40" s="188"/>
-      <c r="N40" s="189"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="187"/>
+      <c r="K40" s="187"/>
+      <c r="L40" s="187"/>
+      <c r="M40" s="187"/>
+      <c r="N40" s="188"/>
       <c r="O40" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P40" s="188"/>
-      <c r="Q40" s="188"/>
-      <c r="R40" s="188"/>
-      <c r="S40" s="188"/>
+      <c r="P40" s="187"/>
+      <c r="Q40" s="187"/>
+      <c r="R40" s="187"/>
+      <c r="S40" s="187"/>
       <c r="T40" s="35"/>
       <c r="U40" s="36"/>
     </row>
@@ -4752,27 +4822,27 @@
       <c r="D41" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="169" t="s">
+      <c r="E41" s="168" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="97"/>
       <c r="G41" s="109">
         <v>26</v>
       </c>
-      <c r="H41" s="188"/>
-      <c r="I41" s="188"/>
-      <c r="J41" s="188"/>
-      <c r="K41" s="188"/>
-      <c r="L41" s="188"/>
-      <c r="M41" s="188"/>
-      <c r="N41" s="189"/>
+      <c r="H41" s="187"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="187"/>
+      <c r="K41" s="187"/>
+      <c r="L41" s="187"/>
+      <c r="M41" s="187"/>
+      <c r="N41" s="188"/>
       <c r="O41" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P41" s="188"/>
-      <c r="Q41" s="188"/>
-      <c r="R41" s="188"/>
-      <c r="S41" s="188"/>
+      <c r="P41" s="187"/>
+      <c r="Q41" s="187"/>
+      <c r="R41" s="187"/>
+      <c r="S41" s="187"/>
       <c r="T41" s="35"/>
       <c r="U41" s="36"/>
     </row>
@@ -4794,20 +4864,20 @@
       <c r="G42" s="109">
         <v>27</v>
       </c>
-      <c r="H42" s="188"/>
-      <c r="I42" s="188"/>
-      <c r="J42" s="188"/>
-      <c r="K42" s="188"/>
-      <c r="L42" s="188"/>
-      <c r="M42" s="188"/>
-      <c r="N42" s="189"/>
+      <c r="H42" s="187"/>
+      <c r="I42" s="187"/>
+      <c r="J42" s="187"/>
+      <c r="K42" s="187"/>
+      <c r="L42" s="187"/>
+      <c r="M42" s="187"/>
+      <c r="N42" s="188"/>
       <c r="O42" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P42" s="188"/>
-      <c r="Q42" s="188"/>
-      <c r="R42" s="188"/>
-      <c r="S42" s="188"/>
+      <c r="P42" s="187"/>
+      <c r="Q42" s="187"/>
+      <c r="R42" s="187"/>
+      <c r="S42" s="187"/>
       <c r="T42" s="35"/>
       <c r="U42" s="36"/>
     </row>
@@ -4815,14 +4885,14 @@
       <c r="B43" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="178">
+      <c r="C43" s="177">
         <f>input!I14</f>
         <v>50</v>
       </c>
       <c r="D43" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="191">
+      <c r="E43" s="190">
         <f>input!D33</f>
         <v>0</v>
       </c>
@@ -4830,56 +4900,56 @@
       <c r="G43" s="109">
         <v>28</v>
       </c>
-      <c r="H43" s="188"/>
-      <c r="I43" s="188"/>
-      <c r="J43" s="188"/>
-      <c r="K43" s="188"/>
-      <c r="L43" s="188"/>
-      <c r="M43" s="188"/>
-      <c r="N43" s="189"/>
+      <c r="H43" s="187"/>
+      <c r="I43" s="187"/>
+      <c r="J43" s="187"/>
+      <c r="K43" s="187"/>
+      <c r="L43" s="187"/>
+      <c r="M43" s="187"/>
+      <c r="N43" s="188"/>
       <c r="O43" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P43" s="188"/>
-      <c r="Q43" s="188"/>
-      <c r="R43" s="188"/>
-      <c r="S43" s="188"/>
+      <c r="P43" s="187"/>
+      <c r="Q43" s="187"/>
+      <c r="R43" s="187"/>
+      <c r="S43" s="187"/>
       <c r="T43" s="35"/>
       <c r="U43" s="36"/>
     </row>
     <row r="44" spans="2:28" s="42" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B44" s="381" t="s">
+      <c r="B44" s="388" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="382"/>
+      <c r="C44" s="389"/>
       <c r="D44" s="97"/>
       <c r="E44" s="34"/>
       <c r="F44" s="97"/>
       <c r="G44" s="109">
         <v>29</v>
       </c>
-      <c r="H44" s="188"/>
-      <c r="I44" s="188"/>
-      <c r="J44" s="188"/>
-      <c r="K44" s="188"/>
-      <c r="L44" s="188"/>
-      <c r="M44" s="188"/>
-      <c r="N44" s="189"/>
+      <c r="H44" s="187"/>
+      <c r="I44" s="187"/>
+      <c r="J44" s="187"/>
+      <c r="K44" s="187"/>
+      <c r="L44" s="187"/>
+      <c r="M44" s="187"/>
+      <c r="N44" s="188"/>
       <c r="O44" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P44" s="188"/>
-      <c r="Q44" s="188"/>
-      <c r="R44" s="188"/>
-      <c r="S44" s="188"/>
+      <c r="P44" s="187"/>
+      <c r="Q44" s="187"/>
+      <c r="R44" s="187"/>
+      <c r="S44" s="187"/>
       <c r="T44" s="35"/>
       <c r="U44" s="36"/>
     </row>
     <row r="45" spans="2:28" s="42" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B45" s="208" t="s">
+      <c r="B45" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="207" t="s">
+      <c r="C45" s="206" t="s">
         <v>102</v>
       </c>
       <c r="D45" s="131" t="s">
@@ -4890,20 +4960,20 @@
       <c r="G45" s="109">
         <v>30</v>
       </c>
-      <c r="H45" s="188"/>
-      <c r="I45" s="188"/>
-      <c r="J45" s="188"/>
-      <c r="K45" s="188"/>
-      <c r="L45" s="188"/>
-      <c r="M45" s="188"/>
-      <c r="N45" s="189"/>
+      <c r="H45" s="187"/>
+      <c r="I45" s="187"/>
+      <c r="J45" s="187"/>
+      <c r="K45" s="187"/>
+      <c r="L45" s="187"/>
+      <c r="M45" s="187"/>
+      <c r="N45" s="188"/>
       <c r="O45" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P45" s="188"/>
-      <c r="Q45" s="188"/>
-      <c r="R45" s="188"/>
-      <c r="S45" s="188"/>
+      <c r="P45" s="187"/>
+      <c r="Q45" s="187"/>
+      <c r="R45" s="187"/>
+      <c r="S45" s="187"/>
       <c r="T45" s="35"/>
       <c r="U45" s="36"/>
     </row>
@@ -4918,20 +4988,20 @@
       <c r="G46" s="109">
         <v>31</v>
       </c>
-      <c r="H46" s="188"/>
-      <c r="I46" s="188"/>
-      <c r="J46" s="188"/>
-      <c r="K46" s="188"/>
-      <c r="L46" s="188"/>
-      <c r="M46" s="188"/>
-      <c r="N46" s="189"/>
+      <c r="H46" s="187"/>
+      <c r="I46" s="187"/>
+      <c r="J46" s="187"/>
+      <c r="K46" s="187"/>
+      <c r="L46" s="187"/>
+      <c r="M46" s="187"/>
+      <c r="N46" s="188"/>
       <c r="O46" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P46" s="188"/>
-      <c r="Q46" s="188"/>
-      <c r="R46" s="188"/>
-      <c r="S46" s="188"/>
+      <c r="P46" s="187"/>
+      <c r="Q46" s="187"/>
+      <c r="R46" s="187"/>
+      <c r="S46" s="187"/>
       <c r="T46" s="35"/>
       <c r="U46" s="36"/>
     </row>
@@ -4939,27 +5009,27 @@
       <c r="B47" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="196"/>
+      <c r="C47" s="195"/>
       <c r="D47" s="135"/>
       <c r="E47" s="34"/>
       <c r="F47" s="97"/>
       <c r="G47" s="109">
         <v>32</v>
       </c>
-      <c r="H47" s="188"/>
-      <c r="I47" s="188"/>
-      <c r="J47" s="188"/>
-      <c r="K47" s="188"/>
-      <c r="L47" s="188"/>
-      <c r="M47" s="188"/>
-      <c r="N47" s="189"/>
+      <c r="H47" s="187"/>
+      <c r="I47" s="187"/>
+      <c r="J47" s="187"/>
+      <c r="K47" s="187"/>
+      <c r="L47" s="187"/>
+      <c r="M47" s="187"/>
+      <c r="N47" s="188"/>
       <c r="O47" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P47" s="188"/>
-      <c r="Q47" s="188"/>
-      <c r="R47" s="188"/>
-      <c r="S47" s="188"/>
+      <c r="P47" s="187"/>
+      <c r="Q47" s="187"/>
+      <c r="R47" s="187"/>
+      <c r="S47" s="187"/>
       <c r="T47" s="35"/>
       <c r="U47" s="36"/>
       <c r="W47" s="97"/>
@@ -4970,7 +5040,7 @@
       <c r="AB47" s="97"/>
     </row>
     <row r="48" spans="2:28" s="42" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B48" s="164" t="s">
+      <c r="B48" s="163" t="s">
         <v>106</v>
       </c>
       <c r="C48" s="97"/>
@@ -4980,20 +5050,20 @@
       <c r="G48" s="109">
         <v>33</v>
       </c>
-      <c r="H48" s="188"/>
-      <c r="I48" s="188"/>
-      <c r="J48" s="188"/>
-      <c r="K48" s="188"/>
-      <c r="L48" s="188"/>
-      <c r="M48" s="188"/>
-      <c r="N48" s="189"/>
+      <c r="H48" s="187"/>
+      <c r="I48" s="187"/>
+      <c r="J48" s="187"/>
+      <c r="K48" s="187"/>
+      <c r="L48" s="187"/>
+      <c r="M48" s="187"/>
+      <c r="N48" s="188"/>
       <c r="O48" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P48" s="188"/>
-      <c r="Q48" s="188"/>
-      <c r="R48" s="188"/>
-      <c r="S48" s="188"/>
+      <c r="P48" s="187"/>
+      <c r="Q48" s="187"/>
+      <c r="R48" s="187"/>
+      <c r="S48" s="187"/>
       <c r="T48" s="35"/>
       <c r="U48" s="36"/>
       <c r="W48" s="97"/>
@@ -5004,32 +5074,32 @@
       <c r="AB48" s="97"/>
     </row>
     <row r="49" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B49" s="358" t="s">
+      <c r="B49" s="381" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="360" t="s">
+      <c r="C49" s="352" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="361"/>
-      <c r="E49" s="362"/>
+      <c r="D49" s="353"/>
+      <c r="E49" s="354"/>
       <c r="F49" s="34"/>
       <c r="G49" s="109">
         <v>34</v>
       </c>
-      <c r="H49" s="188"/>
-      <c r="I49" s="188"/>
-      <c r="J49" s="188"/>
-      <c r="K49" s="188"/>
-      <c r="L49" s="188"/>
-      <c r="M49" s="188"/>
-      <c r="N49" s="189"/>
+      <c r="H49" s="187"/>
+      <c r="I49" s="187"/>
+      <c r="J49" s="187"/>
+      <c r="K49" s="187"/>
+      <c r="L49" s="187"/>
+      <c r="M49" s="187"/>
+      <c r="N49" s="188"/>
       <c r="O49" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P49" s="188"/>
-      <c r="Q49" s="188"/>
-      <c r="R49" s="188"/>
-      <c r="S49" s="188"/>
+      <c r="P49" s="187"/>
+      <c r="Q49" s="187"/>
+      <c r="R49" s="187"/>
+      <c r="S49" s="187"/>
       <c r="T49" s="35"/>
       <c r="U49" s="36"/>
       <c r="W49" s="34"/>
@@ -5037,34 +5107,34 @@
       <c r="Y49" s="34"/>
     </row>
     <row r="50" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B50" s="359"/>
-      <c r="C50" s="195" t="s">
+      <c r="B50" s="382"/>
+      <c r="C50" s="194" t="s">
         <v>92</v>
       </c>
       <c r="D50" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="201" t="s">
+      <c r="E50" s="200" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="109">
         <v>35</v>
       </c>
-      <c r="H50" s="188"/>
-      <c r="I50" s="188"/>
-      <c r="J50" s="188"/>
-      <c r="K50" s="188"/>
-      <c r="L50" s="188"/>
-      <c r="M50" s="188"/>
-      <c r="N50" s="189"/>
+      <c r="H50" s="187"/>
+      <c r="I50" s="187"/>
+      <c r="J50" s="187"/>
+      <c r="K50" s="187"/>
+      <c r="L50" s="187"/>
+      <c r="M50" s="187"/>
+      <c r="N50" s="188"/>
       <c r="O50" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P50" s="188"/>
-      <c r="Q50" s="188"/>
-      <c r="R50" s="188"/>
-      <c r="S50" s="188"/>
+      <c r="P50" s="187"/>
+      <c r="Q50" s="187"/>
+      <c r="R50" s="187"/>
+      <c r="S50" s="187"/>
       <c r="T50" s="35"/>
       <c r="U50" s="36"/>
       <c r="W50" s="34"/>
@@ -5082,20 +5152,20 @@
       <c r="G51" s="109">
         <v>36</v>
       </c>
-      <c r="H51" s="188"/>
-      <c r="I51" s="188"/>
-      <c r="J51" s="188"/>
-      <c r="K51" s="188"/>
-      <c r="L51" s="188"/>
-      <c r="M51" s="188"/>
-      <c r="N51" s="189"/>
+      <c r="H51" s="187"/>
+      <c r="I51" s="187"/>
+      <c r="J51" s="187"/>
+      <c r="K51" s="187"/>
+      <c r="L51" s="187"/>
+      <c r="M51" s="187"/>
+      <c r="N51" s="188"/>
       <c r="O51" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P51" s="188"/>
-      <c r="Q51" s="188"/>
-      <c r="R51" s="188"/>
-      <c r="S51" s="188"/>
+      <c r="P51" s="187"/>
+      <c r="Q51" s="187"/>
+      <c r="R51" s="187"/>
+      <c r="S51" s="187"/>
       <c r="T51" s="35"/>
       <c r="U51" s="36"/>
       <c r="W51" s="34"/>
@@ -5106,27 +5176,27 @@
       <c r="B52" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="196"/>
+      <c r="C52" s="195"/>
       <c r="D52" s="134"/>
       <c r="E52" s="135"/>
       <c r="F52" s="34"/>
       <c r="G52" s="109">
         <v>37</v>
       </c>
-      <c r="H52" s="188"/>
-      <c r="I52" s="188"/>
-      <c r="J52" s="188"/>
-      <c r="K52" s="188"/>
-      <c r="L52" s="188"/>
-      <c r="M52" s="188"/>
-      <c r="N52" s="189"/>
+      <c r="H52" s="187"/>
+      <c r="I52" s="187"/>
+      <c r="J52" s="187"/>
+      <c r="K52" s="187"/>
+      <c r="L52" s="187"/>
+      <c r="M52" s="187"/>
+      <c r="N52" s="188"/>
       <c r="O52" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P52" s="188"/>
-      <c r="Q52" s="188"/>
-      <c r="R52" s="188"/>
-      <c r="S52" s="188"/>
+      <c r="P52" s="187"/>
+      <c r="Q52" s="187"/>
+      <c r="R52" s="187"/>
+      <c r="S52" s="187"/>
       <c r="T52" s="35"/>
       <c r="U52" s="36"/>
       <c r="W52" s="34"/>
@@ -5134,32 +5204,32 @@
       <c r="Y52" s="34"/>
     </row>
     <row r="53" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B53" s="358" t="s">
+      <c r="B53" s="381" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="360" t="s">
+      <c r="C53" s="352" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="361"/>
-      <c r="E53" s="362"/>
+      <c r="D53" s="353"/>
+      <c r="E53" s="354"/>
       <c r="F53" s="34"/>
       <c r="G53" s="109">
         <v>38</v>
       </c>
-      <c r="H53" s="188"/>
-      <c r="I53" s="188"/>
-      <c r="J53" s="188"/>
-      <c r="K53" s="188"/>
-      <c r="L53" s="188"/>
-      <c r="M53" s="188"/>
-      <c r="N53" s="189"/>
+      <c r="H53" s="187"/>
+      <c r="I53" s="187"/>
+      <c r="J53" s="187"/>
+      <c r="K53" s="187"/>
+      <c r="L53" s="187"/>
+      <c r="M53" s="187"/>
+      <c r="N53" s="188"/>
       <c r="O53" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P53" s="188"/>
-      <c r="Q53" s="188"/>
-      <c r="R53" s="188"/>
-      <c r="S53" s="188"/>
+      <c r="P53" s="187"/>
+      <c r="Q53" s="187"/>
+      <c r="R53" s="187"/>
+      <c r="S53" s="187"/>
       <c r="T53" s="35"/>
       <c r="U53" s="36"/>
       <c r="W53" s="34"/>
@@ -5167,8 +5237,8 @@
       <c r="Y53" s="34"/>
     </row>
     <row r="54" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B54" s="359"/>
-      <c r="C54" s="195" t="s">
+      <c r="B54" s="382"/>
+      <c r="C54" s="194" t="s">
         <v>92</v>
       </c>
       <c r="D54" s="128" t="s">
@@ -5181,20 +5251,20 @@
       <c r="G54" s="109">
         <v>39</v>
       </c>
-      <c r="H54" s="188"/>
-      <c r="I54" s="188"/>
-      <c r="J54" s="188"/>
-      <c r="K54" s="188"/>
-      <c r="L54" s="188"/>
-      <c r="M54" s="188"/>
-      <c r="N54" s="189"/>
+      <c r="H54" s="187"/>
+      <c r="I54" s="187"/>
+      <c r="J54" s="187"/>
+      <c r="K54" s="187"/>
+      <c r="L54" s="187"/>
+      <c r="M54" s="187"/>
+      <c r="N54" s="188"/>
       <c r="O54" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P54" s="188"/>
-      <c r="Q54" s="188"/>
-      <c r="R54" s="188"/>
-      <c r="S54" s="188"/>
+      <c r="P54" s="187"/>
+      <c r="Q54" s="187"/>
+      <c r="R54" s="187"/>
+      <c r="S54" s="187"/>
       <c r="T54" s="35"/>
       <c r="U54" s="36"/>
       <c r="W54" s="34"/>
@@ -5212,20 +5282,20 @@
       <c r="G55" s="109">
         <v>40</v>
       </c>
-      <c r="H55" s="188"/>
-      <c r="I55" s="188"/>
-      <c r="J55" s="188"/>
-      <c r="K55" s="188"/>
-      <c r="L55" s="188"/>
-      <c r="M55" s="188"/>
-      <c r="N55" s="189"/>
+      <c r="H55" s="187"/>
+      <c r="I55" s="187"/>
+      <c r="J55" s="187"/>
+      <c r="K55" s="187"/>
+      <c r="L55" s="187"/>
+      <c r="M55" s="187"/>
+      <c r="N55" s="188"/>
       <c r="O55" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P55" s="188"/>
-      <c r="Q55" s="188"/>
-      <c r="R55" s="188"/>
-      <c r="S55" s="188"/>
+      <c r="P55" s="187"/>
+      <c r="Q55" s="187"/>
+      <c r="R55" s="187"/>
+      <c r="S55" s="187"/>
       <c r="T55" s="35"/>
       <c r="U55" s="36"/>
       <c r="W55" s="34"/>
@@ -5236,27 +5306,27 @@
       <c r="B56" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="196"/>
+      <c r="C56" s="195"/>
       <c r="D56" s="134"/>
       <c r="E56" s="140"/>
       <c r="F56" s="34"/>
       <c r="G56" s="109">
         <v>41</v>
       </c>
-      <c r="H56" s="188"/>
-      <c r="I56" s="188"/>
-      <c r="J56" s="188"/>
-      <c r="K56" s="188"/>
-      <c r="L56" s="188"/>
-      <c r="M56" s="188"/>
-      <c r="N56" s="189"/>
+      <c r="H56" s="187"/>
+      <c r="I56" s="187"/>
+      <c r="J56" s="187"/>
+      <c r="K56" s="187"/>
+      <c r="L56" s="187"/>
+      <c r="M56" s="187"/>
+      <c r="N56" s="188"/>
       <c r="O56" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P56" s="188"/>
-      <c r="Q56" s="188"/>
-      <c r="R56" s="188"/>
-      <c r="S56" s="188"/>
+      <c r="P56" s="187"/>
+      <c r="Q56" s="187"/>
+      <c r="R56" s="187"/>
+      <c r="S56" s="187"/>
       <c r="T56" s="35"/>
       <c r="U56" s="36"/>
       <c r="W56" s="34"/>
@@ -5264,30 +5334,30 @@
       <c r="Y56" s="34"/>
     </row>
     <row r="57" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B57" s="313" t="s">
+      <c r="B57" s="328" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="346"/>
-      <c r="D57" s="364"/>
-      <c r="E57" s="365"/>
+      <c r="C57" s="390"/>
+      <c r="D57" s="350"/>
+      <c r="E57" s="351"/>
       <c r="F57" s="34"/>
       <c r="G57" s="109">
         <v>42</v>
       </c>
-      <c r="H57" s="188"/>
-      <c r="I57" s="188"/>
-      <c r="J57" s="188"/>
-      <c r="K57" s="188"/>
-      <c r="L57" s="188"/>
-      <c r="M57" s="188"/>
-      <c r="N57" s="189"/>
+      <c r="H57" s="187"/>
+      <c r="I57" s="187"/>
+      <c r="J57" s="187"/>
+      <c r="K57" s="187"/>
+      <c r="L57" s="187"/>
+      <c r="M57" s="187"/>
+      <c r="N57" s="188"/>
       <c r="O57" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P57" s="188"/>
-      <c r="Q57" s="188"/>
-      <c r="R57" s="188"/>
-      <c r="S57" s="188"/>
+      <c r="P57" s="187"/>
+      <c r="Q57" s="187"/>
+      <c r="R57" s="187"/>
+      <c r="S57" s="187"/>
       <c r="T57" s="35"/>
       <c r="U57" s="36"/>
       <c r="W57" s="34"/>
@@ -5295,30 +5365,30 @@
       <c r="Y57" s="34"/>
     </row>
     <row r="58" spans="2:25" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B58" s="309" t="s">
+      <c r="B58" s="324" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="347"/>
-      <c r="D58" s="348"/>
-      <c r="E58" s="349"/>
+      <c r="C58" s="345"/>
+      <c r="D58" s="346"/>
+      <c r="E58" s="347"/>
       <c r="F58" s="34"/>
       <c r="G58" s="109">
         <v>43</v>
       </c>
-      <c r="H58" s="188"/>
-      <c r="I58" s="188"/>
-      <c r="J58" s="188"/>
-      <c r="K58" s="188"/>
-      <c r="L58" s="188"/>
-      <c r="M58" s="188"/>
-      <c r="N58" s="189"/>
+      <c r="H58" s="187"/>
+      <c r="I58" s="187"/>
+      <c r="J58" s="187"/>
+      <c r="K58" s="187"/>
+      <c r="L58" s="187"/>
+      <c r="M58" s="187"/>
+      <c r="N58" s="188"/>
       <c r="O58" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P58" s="188"/>
-      <c r="Q58" s="188"/>
-      <c r="R58" s="188"/>
-      <c r="S58" s="188"/>
+      <c r="P58" s="187"/>
+      <c r="Q58" s="187"/>
+      <c r="R58" s="187"/>
+      <c r="S58" s="187"/>
       <c r="T58" s="35"/>
       <c r="U58" s="36"/>
       <c r="W58" s="34"/>
@@ -5326,30 +5396,30 @@
       <c r="Y58" s="34"/>
     </row>
     <row r="59" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B59" s="372" t="s">
+      <c r="B59" s="370" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="373"/>
-      <c r="D59" s="373"/>
-      <c r="E59" s="374"/>
+      <c r="C59" s="371"/>
+      <c r="D59" s="371"/>
+      <c r="E59" s="372"/>
       <c r="F59" s="34"/>
       <c r="G59" s="109">
         <v>44</v>
       </c>
-      <c r="H59" s="188"/>
-      <c r="I59" s="188"/>
-      <c r="J59" s="188"/>
-      <c r="K59" s="188"/>
-      <c r="L59" s="188"/>
-      <c r="M59" s="188"/>
-      <c r="N59" s="189"/>
+      <c r="H59" s="187"/>
+      <c r="I59" s="187"/>
+      <c r="J59" s="187"/>
+      <c r="K59" s="187"/>
+      <c r="L59" s="187"/>
+      <c r="M59" s="187"/>
+      <c r="N59" s="188"/>
       <c r="O59" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P59" s="188"/>
-      <c r="Q59" s="188"/>
-      <c r="R59" s="188"/>
-      <c r="S59" s="188"/>
+      <c r="P59" s="187"/>
+      <c r="Q59" s="187"/>
+      <c r="R59" s="187"/>
+      <c r="S59" s="187"/>
       <c r="T59" s="35"/>
       <c r="U59" s="36"/>
       <c r="W59" s="34"/>
@@ -5357,28 +5427,28 @@
       <c r="Y59" s="34"/>
     </row>
     <row r="60" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B60" s="375"/>
-      <c r="C60" s="376"/>
-      <c r="D60" s="376"/>
-      <c r="E60" s="377"/>
+      <c r="B60" s="373"/>
+      <c r="C60" s="374"/>
+      <c r="D60" s="374"/>
+      <c r="E60" s="375"/>
       <c r="F60" s="34"/>
       <c r="G60" s="109">
         <v>45</v>
       </c>
-      <c r="H60" s="188"/>
-      <c r="I60" s="188"/>
-      <c r="J60" s="188"/>
-      <c r="K60" s="188"/>
-      <c r="L60" s="188"/>
-      <c r="M60" s="188"/>
-      <c r="N60" s="189"/>
+      <c r="H60" s="187"/>
+      <c r="I60" s="187"/>
+      <c r="J60" s="187"/>
+      <c r="K60" s="187"/>
+      <c r="L60" s="187"/>
+      <c r="M60" s="187"/>
+      <c r="N60" s="188"/>
       <c r="O60" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P60" s="188"/>
-      <c r="Q60" s="188"/>
-      <c r="R60" s="188"/>
-      <c r="S60" s="188"/>
+      <c r="P60" s="187"/>
+      <c r="Q60" s="187"/>
+      <c r="R60" s="187"/>
+      <c r="S60" s="187"/>
       <c r="T60" s="35"/>
       <c r="U60" s="36"/>
       <c r="W60" s="34"/>
@@ -5386,28 +5456,28 @@
       <c r="Y60" s="34"/>
     </row>
     <row r="61" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B61" s="375"/>
-      <c r="C61" s="376"/>
-      <c r="D61" s="376"/>
-      <c r="E61" s="377"/>
+      <c r="B61" s="373"/>
+      <c r="C61" s="374"/>
+      <c r="D61" s="374"/>
+      <c r="E61" s="375"/>
       <c r="F61" s="34"/>
       <c r="G61" s="109">
         <v>46</v>
       </c>
-      <c r="H61" s="188"/>
-      <c r="I61" s="188"/>
-      <c r="J61" s="188"/>
-      <c r="K61" s="188"/>
-      <c r="L61" s="188"/>
-      <c r="M61" s="188"/>
-      <c r="N61" s="189"/>
+      <c r="H61" s="187"/>
+      <c r="I61" s="187"/>
+      <c r="J61" s="187"/>
+      <c r="K61" s="187"/>
+      <c r="L61" s="187"/>
+      <c r="M61" s="187"/>
+      <c r="N61" s="188"/>
       <c r="O61" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P61" s="188"/>
-      <c r="Q61" s="188"/>
-      <c r="R61" s="188"/>
-      <c r="S61" s="188"/>
+      <c r="P61" s="187"/>
+      <c r="Q61" s="187"/>
+      <c r="R61" s="187"/>
+      <c r="S61" s="187"/>
       <c r="T61" s="35"/>
       <c r="U61" s="36"/>
       <c r="W61" s="34"/>
@@ -5415,28 +5485,28 @@
       <c r="Y61" s="34"/>
     </row>
     <row r="62" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B62" s="375"/>
-      <c r="C62" s="376"/>
-      <c r="D62" s="376"/>
-      <c r="E62" s="377"/>
+      <c r="B62" s="373"/>
+      <c r="C62" s="374"/>
+      <c r="D62" s="374"/>
+      <c r="E62" s="375"/>
       <c r="F62" s="34"/>
       <c r="G62" s="109">
         <v>47</v>
       </c>
-      <c r="H62" s="188"/>
-      <c r="I62" s="188"/>
-      <c r="J62" s="188"/>
-      <c r="K62" s="188"/>
-      <c r="L62" s="188"/>
-      <c r="M62" s="188"/>
-      <c r="N62" s="189"/>
+      <c r="H62" s="187"/>
+      <c r="I62" s="187"/>
+      <c r="J62" s="187"/>
+      <c r="K62" s="187"/>
+      <c r="L62" s="187"/>
+      <c r="M62" s="187"/>
+      <c r="N62" s="188"/>
       <c r="O62" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P62" s="188"/>
-      <c r="Q62" s="188"/>
-      <c r="R62" s="188"/>
-      <c r="S62" s="188"/>
+      <c r="P62" s="187"/>
+      <c r="Q62" s="187"/>
+      <c r="R62" s="187"/>
+      <c r="S62" s="187"/>
       <c r="T62" s="35"/>
       <c r="U62" s="36"/>
       <c r="W62" s="34"/>
@@ -5444,28 +5514,28 @@
       <c r="Y62" s="34"/>
     </row>
     <row r="63" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B63" s="375"/>
-      <c r="C63" s="376"/>
-      <c r="D63" s="376"/>
-      <c r="E63" s="377"/>
+      <c r="B63" s="373"/>
+      <c r="C63" s="374"/>
+      <c r="D63" s="374"/>
+      <c r="E63" s="375"/>
       <c r="F63" s="34"/>
       <c r="G63" s="109">
         <v>48</v>
       </c>
-      <c r="H63" s="188"/>
-      <c r="I63" s="188"/>
-      <c r="J63" s="188"/>
-      <c r="K63" s="188"/>
-      <c r="L63" s="188"/>
-      <c r="M63" s="188"/>
-      <c r="N63" s="189"/>
+      <c r="H63" s="187"/>
+      <c r="I63" s="187"/>
+      <c r="J63" s="187"/>
+      <c r="K63" s="187"/>
+      <c r="L63" s="187"/>
+      <c r="M63" s="187"/>
+      <c r="N63" s="188"/>
       <c r="O63" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P63" s="188"/>
-      <c r="Q63" s="188"/>
-      <c r="R63" s="188"/>
-      <c r="S63" s="188"/>
+      <c r="P63" s="187"/>
+      <c r="Q63" s="187"/>
+      <c r="R63" s="187"/>
+      <c r="S63" s="187"/>
       <c r="T63" s="35"/>
       <c r="U63" s="36"/>
       <c r="W63" s="34"/>
@@ -5473,28 +5543,28 @@
       <c r="Y63" s="34"/>
     </row>
     <row r="64" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B64" s="375"/>
-      <c r="C64" s="376"/>
-      <c r="D64" s="376"/>
-      <c r="E64" s="377"/>
-      <c r="F64" s="200"/>
+      <c r="B64" s="373"/>
+      <c r="C64" s="374"/>
+      <c r="D64" s="374"/>
+      <c r="E64" s="375"/>
+      <c r="F64" s="199"/>
       <c r="G64" s="109">
         <v>49</v>
       </c>
-      <c r="H64" s="188"/>
-      <c r="I64" s="188"/>
-      <c r="J64" s="188"/>
-      <c r="K64" s="188"/>
-      <c r="L64" s="188"/>
-      <c r="M64" s="188"/>
-      <c r="N64" s="189"/>
+      <c r="H64" s="187"/>
+      <c r="I64" s="187"/>
+      <c r="J64" s="187"/>
+      <c r="K64" s="187"/>
+      <c r="L64" s="187"/>
+      <c r="M64" s="187"/>
+      <c r="N64" s="188"/>
       <c r="O64" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P64" s="188"/>
-      <c r="Q64" s="188"/>
-      <c r="R64" s="188"/>
-      <c r="S64" s="188"/>
+      <c r="P64" s="187"/>
+      <c r="Q64" s="187"/>
+      <c r="R64" s="187"/>
+      <c r="S64" s="187"/>
       <c r="T64" s="35"/>
       <c r="U64" s="36"/>
       <c r="W64" s="34"/>
@@ -5502,28 +5572,28 @@
       <c r="Y64" s="34"/>
     </row>
     <row r="65" spans="2:29" ht="35.1" customHeight="1">
-      <c r="B65" s="375"/>
-      <c r="C65" s="376"/>
-      <c r="D65" s="376"/>
-      <c r="E65" s="377"/>
-      <c r="F65" s="200"/>
+      <c r="B65" s="373"/>
+      <c r="C65" s="374"/>
+      <c r="D65" s="374"/>
+      <c r="E65" s="375"/>
+      <c r="F65" s="199"/>
       <c r="G65" s="109">
         <v>50</v>
       </c>
-      <c r="H65" s="188"/>
-      <c r="I65" s="188"/>
-      <c r="J65" s="188"/>
-      <c r="K65" s="188"/>
-      <c r="L65" s="188"/>
-      <c r="M65" s="188"/>
-      <c r="N65" s="189"/>
+      <c r="H65" s="187"/>
+      <c r="I65" s="187"/>
+      <c r="J65" s="187"/>
+      <c r="K65" s="187"/>
+      <c r="L65" s="187"/>
+      <c r="M65" s="187"/>
+      <c r="N65" s="188"/>
       <c r="O65" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P65" s="188"/>
-      <c r="Q65" s="188"/>
-      <c r="R65" s="188"/>
-      <c r="S65" s="188"/>
+      <c r="P65" s="187"/>
+      <c r="Q65" s="187"/>
+      <c r="R65" s="187"/>
+      <c r="S65" s="187"/>
       <c r="T65" s="35"/>
       <c r="U65" s="36"/>
       <c r="W65" s="34"/>
@@ -5531,28 +5601,28 @@
       <c r="Y65" s="34"/>
     </row>
     <row r="66" spans="2:29" ht="35.1" customHeight="1">
-      <c r="B66" s="375"/>
-      <c r="C66" s="376"/>
-      <c r="D66" s="376"/>
-      <c r="E66" s="377"/>
-      <c r="F66" s="200"/>
+      <c r="B66" s="373"/>
+      <c r="C66" s="374"/>
+      <c r="D66" s="374"/>
+      <c r="E66" s="375"/>
+      <c r="F66" s="199"/>
       <c r="G66" s="109">
         <v>51</v>
       </c>
-      <c r="H66" s="188"/>
-      <c r="I66" s="188"/>
-      <c r="J66" s="188"/>
-      <c r="K66" s="188"/>
-      <c r="L66" s="188"/>
-      <c r="M66" s="188"/>
-      <c r="N66" s="189"/>
+      <c r="H66" s="187"/>
+      <c r="I66" s="187"/>
+      <c r="J66" s="187"/>
+      <c r="K66" s="187"/>
+      <c r="L66" s="187"/>
+      <c r="M66" s="187"/>
+      <c r="N66" s="188"/>
       <c r="O66" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P66" s="188"/>
-      <c r="Q66" s="188"/>
-      <c r="R66" s="188"/>
-      <c r="S66" s="188"/>
+      <c r="P66" s="187"/>
+      <c r="Q66" s="187"/>
+      <c r="R66" s="187"/>
+      <c r="S66" s="187"/>
       <c r="T66" s="35"/>
       <c r="U66" s="36"/>
       <c r="W66" s="34"/>
@@ -5562,28 +5632,28 @@
       <c r="AA66" s="34"/>
     </row>
     <row r="67" spans="2:29" ht="35.1" customHeight="1">
-      <c r="B67" s="375"/>
-      <c r="C67" s="376"/>
-      <c r="D67" s="376"/>
-      <c r="E67" s="377"/>
+      <c r="B67" s="373"/>
+      <c r="C67" s="374"/>
+      <c r="D67" s="374"/>
+      <c r="E67" s="375"/>
       <c r="F67" s="94"/>
       <c r="G67" s="109">
         <v>52</v>
       </c>
-      <c r="H67" s="188"/>
-      <c r="I67" s="188"/>
-      <c r="J67" s="188"/>
-      <c r="K67" s="188"/>
-      <c r="L67" s="188"/>
-      <c r="M67" s="188"/>
-      <c r="N67" s="189"/>
+      <c r="H67" s="187"/>
+      <c r="I67" s="187"/>
+      <c r="J67" s="187"/>
+      <c r="K67" s="187"/>
+      <c r="L67" s="187"/>
+      <c r="M67" s="187"/>
+      <c r="N67" s="188"/>
       <c r="O67" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P67" s="188"/>
-      <c r="Q67" s="188"/>
-      <c r="R67" s="188"/>
-      <c r="S67" s="188"/>
+      <c r="P67" s="187"/>
+      <c r="Q67" s="187"/>
+      <c r="R67" s="187"/>
+      <c r="S67" s="187"/>
       <c r="T67" s="35"/>
       <c r="U67" s="36"/>
       <c r="W67" s="34"/>
@@ -5593,28 +5663,28 @@
       <c r="AA67" s="34"/>
     </row>
     <row r="68" spans="2:29" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B68" s="378"/>
-      <c r="C68" s="379"/>
-      <c r="D68" s="379"/>
-      <c r="E68" s="380"/>
-      <c r="F68" s="345"/>
+      <c r="B68" s="376"/>
+      <c r="C68" s="377"/>
+      <c r="D68" s="377"/>
+      <c r="E68" s="378"/>
+      <c r="F68" s="366"/>
       <c r="G68" s="109">
         <v>53</v>
       </c>
-      <c r="H68" s="188"/>
-      <c r="I68" s="188"/>
-      <c r="J68" s="188"/>
-      <c r="K68" s="188"/>
-      <c r="L68" s="188"/>
-      <c r="M68" s="188"/>
-      <c r="N68" s="189"/>
+      <c r="H68" s="187"/>
+      <c r="I68" s="187"/>
+      <c r="J68" s="187"/>
+      <c r="K68" s="187"/>
+      <c r="L68" s="187"/>
+      <c r="M68" s="187"/>
+      <c r="N68" s="188"/>
       <c r="O68" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P68" s="188"/>
-      <c r="Q68" s="188"/>
-      <c r="R68" s="188"/>
-      <c r="S68" s="188"/>
+      <c r="P68" s="187"/>
+      <c r="Q68" s="187"/>
+      <c r="R68" s="187"/>
+      <c r="S68" s="187"/>
       <c r="T68" s="35"/>
       <c r="U68" s="36"/>
       <c r="W68" s="34"/>
@@ -5624,36 +5694,36 @@
       <c r="AA68" s="34"/>
     </row>
     <row r="69" spans="2:29" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B69" s="170" t="s">
+      <c r="B69" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="216" t="s">
+      <c r="C69" s="215" t="s">
         <v>140</v>
       </c>
-      <c r="D69" s="217" t="s">
+      <c r="D69" s="216" t="s">
         <v>134</v>
       </c>
-      <c r="E69" s="369" t="s">
+      <c r="E69" s="367" t="s">
         <v>145</v>
       </c>
-      <c r="F69" s="345"/>
+      <c r="F69" s="366"/>
       <c r="G69" s="109">
         <v>54</v>
       </c>
-      <c r="H69" s="188"/>
-      <c r="I69" s="188"/>
-      <c r="J69" s="188"/>
-      <c r="K69" s="188"/>
-      <c r="L69" s="188"/>
-      <c r="M69" s="188"/>
-      <c r="N69" s="189"/>
+      <c r="H69" s="187"/>
+      <c r="I69" s="187"/>
+      <c r="J69" s="187"/>
+      <c r="K69" s="187"/>
+      <c r="L69" s="187"/>
+      <c r="M69" s="187"/>
+      <c r="N69" s="188"/>
       <c r="O69" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P69" s="188"/>
-      <c r="Q69" s="188"/>
-      <c r="R69" s="188"/>
-      <c r="S69" s="188"/>
+      <c r="P69" s="187"/>
+      <c r="Q69" s="187"/>
+      <c r="R69" s="187"/>
+      <c r="S69" s="187"/>
       <c r="T69" s="35"/>
       <c r="U69" s="36"/>
       <c r="W69" s="34"/>
@@ -5663,30 +5733,30 @@
       <c r="AA69" s="34"/>
     </row>
     <row r="70" spans="2:29" ht="35.1" customHeight="1">
-      <c r="B70" s="214">
+      <c r="B70" s="213">
         <v>1</v>
       </c>
-      <c r="C70" s="215"/>
-      <c r="D70" s="218"/>
-      <c r="E70" s="370"/>
+      <c r="C70" s="214"/>
+      <c r="D70" s="217"/>
+      <c r="E70" s="368"/>
       <c r="F70" s="34"/>
       <c r="G70" s="109">
         <v>55</v>
       </c>
-      <c r="H70" s="188"/>
-      <c r="I70" s="188"/>
-      <c r="J70" s="188"/>
-      <c r="K70" s="188"/>
-      <c r="L70" s="188"/>
-      <c r="M70" s="188"/>
-      <c r="N70" s="189"/>
+      <c r="H70" s="187"/>
+      <c r="I70" s="187"/>
+      <c r="J70" s="187"/>
+      <c r="K70" s="187"/>
+      <c r="L70" s="187"/>
+      <c r="M70" s="187"/>
+      <c r="N70" s="188"/>
       <c r="O70" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P70" s="188"/>
-      <c r="Q70" s="188"/>
-      <c r="R70" s="188"/>
-      <c r="S70" s="188"/>
+      <c r="P70" s="187"/>
+      <c r="Q70" s="187"/>
+      <c r="R70" s="187"/>
+      <c r="S70" s="187"/>
       <c r="T70" s="35"/>
       <c r="U70" s="36"/>
       <c r="W70" s="34"/>
@@ -5699,27 +5769,27 @@
       <c r="B71" s="45">
         <v>2</v>
       </c>
-      <c r="C71" s="166"/>
-      <c r="D71" s="219"/>
-      <c r="E71" s="370"/>
+      <c r="C71" s="165"/>
+      <c r="D71" s="218"/>
+      <c r="E71" s="368"/>
       <c r="F71" s="34"/>
       <c r="G71" s="109">
         <v>56</v>
       </c>
-      <c r="H71" s="188"/>
-      <c r="I71" s="188"/>
-      <c r="J71" s="188"/>
-      <c r="K71" s="188"/>
-      <c r="L71" s="188"/>
-      <c r="M71" s="188"/>
-      <c r="N71" s="189"/>
+      <c r="H71" s="187"/>
+      <c r="I71" s="187"/>
+      <c r="J71" s="187"/>
+      <c r="K71" s="187"/>
+      <c r="L71" s="187"/>
+      <c r="M71" s="187"/>
+      <c r="N71" s="188"/>
       <c r="O71" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P71" s="188"/>
-      <c r="Q71" s="188"/>
-      <c r="R71" s="188"/>
-      <c r="S71" s="188"/>
+      <c r="P71" s="187"/>
+      <c r="Q71" s="187"/>
+      <c r="R71" s="187"/>
+      <c r="S71" s="187"/>
       <c r="T71" s="35"/>
       <c r="U71" s="36"/>
       <c r="W71" s="34"/>
@@ -5732,27 +5802,27 @@
       <c r="B72" s="45">
         <v>3</v>
       </c>
-      <c r="C72" s="166"/>
-      <c r="D72" s="219"/>
-      <c r="E72" s="370"/>
+      <c r="C72" s="165"/>
+      <c r="D72" s="218"/>
+      <c r="E72" s="368"/>
       <c r="F72" s="34"/>
       <c r="G72" s="109">
         <v>57</v>
       </c>
-      <c r="H72" s="188"/>
-      <c r="I72" s="188"/>
-      <c r="J72" s="188"/>
-      <c r="K72" s="188"/>
-      <c r="L72" s="188"/>
-      <c r="M72" s="188"/>
-      <c r="N72" s="189"/>
+      <c r="H72" s="187"/>
+      <c r="I72" s="187"/>
+      <c r="J72" s="187"/>
+      <c r="K72" s="187"/>
+      <c r="L72" s="187"/>
+      <c r="M72" s="187"/>
+      <c r="N72" s="188"/>
       <c r="O72" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P72" s="188"/>
-      <c r="Q72" s="188"/>
-      <c r="R72" s="188"/>
-      <c r="S72" s="188"/>
+      <c r="P72" s="187"/>
+      <c r="Q72" s="187"/>
+      <c r="R72" s="187"/>
+      <c r="S72" s="187"/>
       <c r="T72" s="35"/>
       <c r="U72" s="36"/>
       <c r="W72" s="34"/>
@@ -5765,27 +5835,27 @@
       <c r="B73" s="45">
         <v>4</v>
       </c>
-      <c r="C73" s="166"/>
-      <c r="D73" s="219"/>
-      <c r="E73" s="370"/>
+      <c r="C73" s="165"/>
+      <c r="D73" s="218"/>
+      <c r="E73" s="368"/>
       <c r="F73" s="34"/>
       <c r="G73" s="109">
         <v>58</v>
       </c>
-      <c r="H73" s="188"/>
-      <c r="I73" s="188"/>
-      <c r="J73" s="188"/>
-      <c r="K73" s="188"/>
-      <c r="L73" s="188"/>
-      <c r="M73" s="188"/>
-      <c r="N73" s="189"/>
+      <c r="H73" s="187"/>
+      <c r="I73" s="187"/>
+      <c r="J73" s="187"/>
+      <c r="K73" s="187"/>
+      <c r="L73" s="187"/>
+      <c r="M73" s="187"/>
+      <c r="N73" s="188"/>
       <c r="O73" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P73" s="188"/>
-      <c r="Q73" s="188"/>
-      <c r="R73" s="188"/>
-      <c r="S73" s="188"/>
+      <c r="P73" s="187"/>
+      <c r="Q73" s="187"/>
+      <c r="R73" s="187"/>
+      <c r="S73" s="187"/>
       <c r="T73" s="35"/>
       <c r="U73" s="36"/>
       <c r="W73" s="34"/>
@@ -5798,27 +5868,27 @@
       <c r="B74" s="45">
         <v>5</v>
       </c>
-      <c r="C74" s="166"/>
-      <c r="D74" s="219"/>
-      <c r="E74" s="370"/>
+      <c r="C74" s="165"/>
+      <c r="D74" s="218"/>
+      <c r="E74" s="368"/>
       <c r="F74" s="34"/>
       <c r="G74" s="109">
         <v>59</v>
       </c>
-      <c r="H74" s="188"/>
-      <c r="I74" s="188"/>
-      <c r="J74" s="188"/>
-      <c r="K74" s="188"/>
-      <c r="L74" s="188"/>
-      <c r="M74" s="188"/>
-      <c r="N74" s="189"/>
+      <c r="H74" s="187"/>
+      <c r="I74" s="187"/>
+      <c r="J74" s="187"/>
+      <c r="K74" s="187"/>
+      <c r="L74" s="187"/>
+      <c r="M74" s="187"/>
+      <c r="N74" s="188"/>
       <c r="O74" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P74" s="188"/>
-      <c r="Q74" s="188"/>
-      <c r="R74" s="188"/>
-      <c r="S74" s="188"/>
+      <c r="P74" s="187"/>
+      <c r="Q74" s="187"/>
+      <c r="R74" s="187"/>
+      <c r="S74" s="187"/>
       <c r="T74" s="35"/>
       <c r="U74" s="36"/>
       <c r="W74" s="34"/>
@@ -5831,27 +5901,27 @@
       <c r="B75" s="45">
         <v>6</v>
       </c>
-      <c r="C75" s="166"/>
-      <c r="D75" s="219"/>
-      <c r="E75" s="370"/>
+      <c r="C75" s="165"/>
+      <c r="D75" s="218"/>
+      <c r="E75" s="368"/>
       <c r="F75" s="34"/>
       <c r="G75" s="109">
         <v>60</v>
       </c>
-      <c r="H75" s="188"/>
-      <c r="I75" s="188"/>
-      <c r="J75" s="188"/>
-      <c r="K75" s="188"/>
-      <c r="L75" s="188"/>
-      <c r="M75" s="188"/>
-      <c r="N75" s="189"/>
+      <c r="H75" s="187"/>
+      <c r="I75" s="187"/>
+      <c r="J75" s="187"/>
+      <c r="K75" s="187"/>
+      <c r="L75" s="187"/>
+      <c r="M75" s="187"/>
+      <c r="N75" s="188"/>
       <c r="O75" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P75" s="188"/>
-      <c r="Q75" s="188"/>
-      <c r="R75" s="188"/>
-      <c r="S75" s="188"/>
+      <c r="P75" s="187"/>
+      <c r="Q75" s="187"/>
+      <c r="R75" s="187"/>
+      <c r="S75" s="187"/>
       <c r="T75" s="35"/>
       <c r="U75" s="36"/>
       <c r="X75" s="34"/>
@@ -5860,27 +5930,27 @@
       <c r="B76" s="45">
         <v>7</v>
       </c>
-      <c r="C76" s="166"/>
-      <c r="D76" s="219"/>
-      <c r="E76" s="370"/>
+      <c r="C76" s="165"/>
+      <c r="D76" s="218"/>
+      <c r="E76" s="368"/>
       <c r="F76" s="34"/>
       <c r="G76" s="109">
         <v>61</v>
       </c>
-      <c r="H76" s="188"/>
-      <c r="I76" s="188"/>
-      <c r="J76" s="188"/>
-      <c r="K76" s="188"/>
-      <c r="L76" s="188"/>
-      <c r="M76" s="188"/>
-      <c r="N76" s="189"/>
+      <c r="H76" s="187"/>
+      <c r="I76" s="187"/>
+      <c r="J76" s="187"/>
+      <c r="K76" s="187"/>
+      <c r="L76" s="187"/>
+      <c r="M76" s="187"/>
+      <c r="N76" s="188"/>
       <c r="O76" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P76" s="188"/>
-      <c r="Q76" s="188"/>
-      <c r="R76" s="188"/>
-      <c r="S76" s="188"/>
+      <c r="P76" s="187"/>
+      <c r="Q76" s="187"/>
+      <c r="R76" s="187"/>
+      <c r="S76" s="187"/>
       <c r="T76" s="35"/>
       <c r="U76" s="36"/>
       <c r="X76" s="34"/>
@@ -5889,27 +5959,27 @@
       <c r="B77" s="45">
         <v>8</v>
       </c>
-      <c r="C77" s="166"/>
-      <c r="D77" s="219"/>
-      <c r="E77" s="370"/>
-      <c r="F77" s="165"/>
+      <c r="C77" s="165"/>
+      <c r="D77" s="218"/>
+      <c r="E77" s="368"/>
+      <c r="F77" s="164"/>
       <c r="G77" s="109">
         <v>62</v>
       </c>
-      <c r="H77" s="188"/>
-      <c r="I77" s="188"/>
-      <c r="J77" s="188"/>
-      <c r="K77" s="188"/>
-      <c r="L77" s="188"/>
-      <c r="M77" s="188"/>
-      <c r="N77" s="189"/>
+      <c r="H77" s="187"/>
+      <c r="I77" s="187"/>
+      <c r="J77" s="187"/>
+      <c r="K77" s="187"/>
+      <c r="L77" s="187"/>
+      <c r="M77" s="187"/>
+      <c r="N77" s="188"/>
       <c r="O77" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P77" s="188"/>
-      <c r="Q77" s="188"/>
-      <c r="R77" s="188"/>
-      <c r="S77" s="188"/>
+      <c r="P77" s="187"/>
+      <c r="Q77" s="187"/>
+      <c r="R77" s="187"/>
+      <c r="S77" s="187"/>
       <c r="T77" s="35"/>
       <c r="U77" s="36"/>
       <c r="X77" s="34"/>
@@ -5918,27 +5988,27 @@
       <c r="B78" s="45">
         <v>9</v>
       </c>
-      <c r="C78" s="186"/>
-      <c r="D78" s="220"/>
-      <c r="E78" s="370"/>
-      <c r="F78" s="165"/>
+      <c r="C78" s="185"/>
+      <c r="D78" s="219"/>
+      <c r="E78" s="368"/>
+      <c r="F78" s="164"/>
       <c r="G78" s="109">
         <v>63</v>
       </c>
-      <c r="H78" s="188"/>
-      <c r="I78" s="188"/>
-      <c r="J78" s="188"/>
-      <c r="K78" s="188"/>
-      <c r="L78" s="188"/>
-      <c r="M78" s="188"/>
-      <c r="N78" s="189"/>
+      <c r="H78" s="187"/>
+      <c r="I78" s="187"/>
+      <c r="J78" s="187"/>
+      <c r="K78" s="187"/>
+      <c r="L78" s="187"/>
+      <c r="M78" s="187"/>
+      <c r="N78" s="188"/>
       <c r="O78" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="P78" s="188"/>
-      <c r="Q78" s="188"/>
-      <c r="R78" s="188"/>
-      <c r="S78" s="188"/>
+      <c r="P78" s="187"/>
+      <c r="Q78" s="187"/>
+      <c r="R78" s="187"/>
+      <c r="S78" s="187"/>
       <c r="T78" s="35"/>
       <c r="U78" s="36"/>
       <c r="X78" s="34"/>
@@ -5947,29 +6017,29 @@
       <c r="B79" s="46">
         <v>10</v>
       </c>
-      <c r="C79" s="213"/>
-      <c r="D79" s="221"/>
-      <c r="E79" s="371"/>
-      <c r="F79" s="224"/>
-      <c r="G79" s="180">
+      <c r="C79" s="212"/>
+      <c r="D79" s="220"/>
+      <c r="E79" s="369"/>
+      <c r="F79" s="223"/>
+      <c r="G79" s="179">
         <v>64</v>
       </c>
-      <c r="H79" s="192"/>
-      <c r="I79" s="192"/>
-      <c r="J79" s="192"/>
-      <c r="K79" s="192"/>
-      <c r="L79" s="192"/>
-      <c r="M79" s="192"/>
-      <c r="N79" s="197"/>
-      <c r="O79" s="180" t="s">
+      <c r="H79" s="191"/>
+      <c r="I79" s="191"/>
+      <c r="J79" s="191"/>
+      <c r="K79" s="191"/>
+      <c r="L79" s="191"/>
+      <c r="M79" s="191"/>
+      <c r="N79" s="196"/>
+      <c r="O79" s="179" t="s">
         <v>117</v>
       </c>
-      <c r="P79" s="192"/>
-      <c r="Q79" s="192"/>
-      <c r="R79" s="192"/>
-      <c r="S79" s="192"/>
-      <c r="T79" s="222"/>
-      <c r="U79" s="223"/>
+      <c r="P79" s="191"/>
+      <c r="Q79" s="191"/>
+      <c r="R79" s="191"/>
+      <c r="S79" s="191"/>
+      <c r="T79" s="221"/>
+      <c r="U79" s="222"/>
       <c r="X79" s="34"/>
     </row>
     <row r="80" spans="2:29" ht="30" customHeight="1">
@@ -5987,8 +6057,8 @@
       <c r="M80" s="34"/>
       <c r="N80" s="34"/>
       <c r="X80" s="34"/>
-      <c r="AB80" s="185"/>
-      <c r="AC80" s="185"/>
+      <c r="AB80" s="184"/>
+      <c r="AC80" s="184"/>
     </row>
     <row r="81" spans="2:35" ht="30" customHeight="1">
       <c r="B81"/>
@@ -5996,28 +6066,28 @@
       <c r="D81" s="47"/>
       <c r="E81" s="47"/>
       <c r="N81" s="48"/>
-      <c r="AB81" s="185"/>
-      <c r="AC81" s="185"/>
+      <c r="AB81" s="184"/>
+      <c r="AC81" s="184"/>
     </row>
     <row r="82" spans="2:35" ht="30" customHeight="1">
       <c r="N82" s="48"/>
-      <c r="AB82" s="185"/>
-      <c r="AC82" s="185"/>
+      <c r="AB82" s="184"/>
+      <c r="AC82" s="184"/>
     </row>
     <row r="83" spans="2:35" ht="30" customHeight="1">
       <c r="N83" s="48"/>
-      <c r="AB83" s="185"/>
-      <c r="AC83" s="185"/>
+      <c r="AB83" s="184"/>
+      <c r="AC83" s="184"/>
     </row>
     <row r="84" spans="2:35" ht="20.25" customHeight="1">
       <c r="N84" s="48"/>
-      <c r="AB84" s="185"/>
-      <c r="AC84" s="185"/>
+      <c r="AB84" s="184"/>
+      <c r="AC84" s="184"/>
     </row>
     <row r="85" spans="2:35">
       <c r="N85" s="48"/>
-      <c r="AB85" s="185"/>
-      <c r="AC85" s="185"/>
+      <c r="AB85" s="184"/>
+      <c r="AC85" s="184"/>
     </row>
     <row r="86" spans="2:35" ht="45.75" customHeight="1">
       <c r="C86" s="44"/>
@@ -8001,9 +8071,7 @@
       <c r="D172" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C13:E14"/>
+  <mergeCells count="79">
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:E49"/>
@@ -8013,12 +8081,21 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D18:E18"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="S8:U10"/>
+    <mergeCell ref="S12:U13"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="E69:E79"/>
+    <mergeCell ref="B59:E68"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F68:F69"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D58:E58"/>
@@ -8027,12 +8104,14 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="C53:E53"/>
-    <mergeCell ref="E69:E79"/>
-    <mergeCell ref="B59:E68"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="Z21:AA22"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
@@ -8045,10 +8124,10 @@
     <mergeCell ref="Q11:Q13"/>
     <mergeCell ref="R11:R13"/>
     <mergeCell ref="R8:R10"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="S8:U10"/>
-    <mergeCell ref="S12:U13"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K9:L11"/>
+    <mergeCell ref="M9:M11"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
@@ -8061,24 +8140,17 @@
     <mergeCell ref="Q5:U6"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:E6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="C13:E14"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="O7:P10"/>
-    <mergeCell ref="H9:I11"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="O11:P13"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="J12:M13"/>
+    <mergeCell ref="G9:I11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8103,7 +8175,7 @@
   <dimension ref="B1:K48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -8113,42 +8185,42 @@
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="173" customWidth="1"/>
-    <col min="7" max="7" width="10" style="176" customWidth="1"/>
-    <col min="8" max="8" width="9" style="171" customWidth="1"/>
+    <col min="6" max="6" width="10" style="172" customWidth="1"/>
+    <col min="7" max="7" width="10" style="175" customWidth="1"/>
+    <col min="8" max="8" width="9" style="170" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="F1" s="172"/>
-      <c r="G1" s="175">
+      <c r="F1" s="171"/>
+      <c r="G1" s="174">
         <v>12.34</v>
       </c>
-      <c r="H1" s="174">
+      <c r="H1" s="173">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="2:11">
-      <c r="F2" s="172"/>
-      <c r="G2" s="175">
+      <c r="F2" s="171"/>
+      <c r="G2" s="174">
         <v>7.28</v>
       </c>
-      <c r="H2" s="174">
+      <c r="H2" s="173">
         <v>90</v>
       </c>
-      <c r="J2" s="177"/>
+      <c r="J2" s="176"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="F3" s="172"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="174">
+      <c r="F3" s="171"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="173">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="18" customHeight="1" thickBot="1">
-      <c r="F4" s="172"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="174">
+      <c r="F4" s="171"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="173">
         <v>90</v>
       </c>
     </row>
@@ -8165,9 +8237,9 @@
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="172"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="174">
+      <c r="F5" s="171"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="173">
         <v>90</v>
       </c>
     </row>
@@ -8178,9 +8250,9 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="174">
+      <c r="F6" s="171"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="173">
         <v>90</v>
       </c>
     </row>
@@ -8191,9 +8263,9 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="174">
+      <c r="F7" s="171"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="173">
         <v>90</v>
       </c>
     </row>
@@ -8204,9 +8276,9 @@
       <c r="C8" s="9"/>
       <c r="D8" s="21"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="174">
+      <c r="F8" s="171"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="173">
         <v>90</v>
       </c>
     </row>
@@ -8217,9 +8289,9 @@
       <c r="C9" s="9"/>
       <c r="D9" s="11"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="174">
+      <c r="F9" s="171"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="173">
         <v>90</v>
       </c>
     </row>
@@ -8232,9 +8304,9 @@
       <c r="E10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="172"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="174">
+      <c r="F10" s="171"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="173">
         <v>90</v>
       </c>
     </row>
@@ -8247,9 +8319,9 @@
       <c r="E11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="172"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="174">
+      <c r="F11" s="171"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="173">
         <v>90</v>
       </c>
       <c r="I11" s="12" t="str">
@@ -8270,9 +8342,9 @@
       <c r="E12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="172"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="174">
+      <c r="F12" s="171"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="173">
         <v>90</v>
       </c>
       <c r="I12" s="13" t="str">
@@ -8292,11 +8364,11 @@
       <c r="E13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="172"/>
-      <c r="G13" s="175">
+      <c r="F13" s="171"/>
+      <c r="G13" s="174">
         <v>4.66</v>
       </c>
-      <c r="H13" s="174">
+      <c r="H13" s="173">
         <v>90</v>
       </c>
       <c r="I13" s="12" t="str">
@@ -8309,13 +8381,13 @@
         <v>44</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="202"/>
+      <c r="D14" s="201"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="175">
+      <c r="F14" s="171"/>
+      <c r="G14" s="174">
         <v>4.4400000000000004</v>
       </c>
-      <c r="H14" s="174">
+      <c r="H14" s="173">
         <v>70</v>
       </c>
       <c r="I14" s="12">
@@ -8330,9 +8402,9 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="174">
+      <c r="F15" s="171"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="173">
         <v>70</v>
       </c>
     </row>
@@ -8343,9 +8415,9 @@
       <c r="C16" s="9"/>
       <c r="D16" s="14"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="174">
+      <c r="F16" s="171"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="173">
         <v>70</v>
       </c>
     </row>
@@ -8356,9 +8428,9 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="174">
+      <c r="F17" s="171"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="173">
         <v>70</v>
       </c>
     </row>
@@ -8369,9 +8441,9 @@
       <c r="C18" s="9"/>
       <c r="D18" s="21"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="174">
+      <c r="F18" s="171"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="173">
         <v>70</v>
       </c>
     </row>
@@ -8384,9 +8456,9 @@
       <c r="E19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="172"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="174">
+      <c r="F19" s="171"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="173">
         <v>70</v>
       </c>
     </row>
@@ -8399,9 +8471,9 @@
       <c r="E20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="172"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="174">
+      <c r="F20" s="171"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="173">
         <v>70</v>
       </c>
     </row>
@@ -8414,9 +8486,9 @@
       <c r="E21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="172"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="174">
+      <c r="F21" s="171"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="173">
         <v>70</v>
       </c>
     </row>
@@ -8429,9 +8501,9 @@
       <c r="E22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="172"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="174">
+      <c r="F22" s="171"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="173">
         <v>70</v>
       </c>
     </row>
@@ -8444,9 +8516,9 @@
       <c r="E23" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="172"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="174">
+      <c r="F23" s="171"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="173">
         <v>70</v>
       </c>
     </row>
@@ -8459,9 +8531,9 @@
       <c r="E24" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="172"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="174">
+      <c r="F24" s="171"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="173">
         <v>70</v>
       </c>
     </row>
@@ -8474,9 +8546,9 @@
       <c r="E25" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="172"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="174">
+      <c r="F25" s="171"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="173">
         <v>70</v>
       </c>
     </row>
@@ -8489,9 +8561,9 @@
       <c r="E26" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="172"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="174">
+      <c r="F26" s="171"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="173">
         <v>70</v>
       </c>
     </row>
@@ -8504,9 +8576,9 @@
       <c r="E27" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="172"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="174">
+      <c r="F27" s="171"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="173">
         <v>70</v>
       </c>
     </row>
@@ -8519,9 +8591,9 @@
       <c r="E28" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="172"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="174">
+      <c r="F28" s="171"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="173">
         <v>70</v>
       </c>
     </row>
@@ -8530,13 +8602,13 @@
         <v>67</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="181"/>
+      <c r="D29" s="180"/>
       <c r="E29" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="172"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="174">
+      <c r="F29" s="171"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="173">
         <v>70</v>
       </c>
     </row>
@@ -8547,9 +8619,9 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="174">
+      <c r="F30" s="171"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="173">
         <v>70</v>
       </c>
     </row>
@@ -8562,11 +8634,11 @@
       <c r="E31" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="172"/>
-      <c r="G31" s="175">
+      <c r="F31" s="171"/>
+      <c r="G31" s="174">
         <v>2.95</v>
       </c>
-      <c r="H31" s="174">
+      <c r="H31" s="173">
         <v>70</v>
       </c>
     </row>
@@ -8577,11 +8649,11 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="175">
+      <c r="F32" s="171"/>
+      <c r="G32" s="174">
         <v>2.64</v>
       </c>
-      <c r="H32" s="174">
+      <c r="H32" s="173">
         <v>50</v>
       </c>
     </row>
@@ -8592,9 +8664,9 @@
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="174">
+      <c r="F33" s="171"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="173">
         <v>50</v>
       </c>
     </row>
@@ -8605,9 +8677,9 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="175"/>
-      <c r="H34" s="174">
+      <c r="F34" s="171"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="173">
         <v>50</v>
       </c>
     </row>
@@ -8620,9 +8692,9 @@
       <c r="E35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="172"/>
-      <c r="G35" s="175"/>
-      <c r="H35" s="174">
+      <c r="F35" s="171"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="173">
         <v>50</v>
       </c>
     </row>
@@ -8633,9 +8705,9 @@
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="174">
+      <c r="F36" s="171"/>
+      <c r="G36" s="174"/>
+      <c r="H36" s="173">
         <v>50</v>
       </c>
     </row>
@@ -8646,92 +8718,92 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="175"/>
-      <c r="H37" s="174">
+      <c r="F37" s="171"/>
+      <c r="G37" s="174"/>
+      <c r="H37" s="173">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="F38" s="172"/>
-      <c r="G38" s="175"/>
-      <c r="H38" s="174">
+      <c r="F38" s="171"/>
+      <c r="G38" s="174"/>
+      <c r="H38" s="173">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="F39" s="172"/>
-      <c r="G39" s="175"/>
-      <c r="H39" s="174">
+      <c r="F39" s="171"/>
+      <c r="G39" s="174"/>
+      <c r="H39" s="173">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="F40" s="172"/>
-      <c r="G40" s="175">
+      <c r="F40" s="171"/>
+      <c r="G40" s="174">
         <v>1.5</v>
       </c>
-      <c r="H40" s="174">
+      <c r="H40" s="173">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="F41" s="172"/>
-      <c r="G41" s="175">
+      <c r="F41" s="171"/>
+      <c r="G41" s="174">
         <v>1.4</v>
       </c>
-      <c r="H41" s="174">
+      <c r="H41" s="173">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="F42" s="172"/>
-      <c r="G42" s="175"/>
-      <c r="H42" s="174">
+      <c r="F42" s="171"/>
+      <c r="G42" s="174"/>
+      <c r="H42" s="173">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="F43" s="172"/>
-      <c r="G43" s="175"/>
-      <c r="H43" s="174">
+      <c r="F43" s="171"/>
+      <c r="G43" s="174"/>
+      <c r="H43" s="173">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="F44" s="172"/>
-      <c r="G44" s="175"/>
-      <c r="H44" s="174">
+      <c r="F44" s="171"/>
+      <c r="G44" s="174"/>
+      <c r="H44" s="173">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="F45" s="172"/>
-      <c r="G45" s="175"/>
-      <c r="H45" s="174">
+      <c r="F45" s="171"/>
+      <c r="G45" s="174"/>
+      <c r="H45" s="173">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="F46" s="172"/>
-      <c r="G46" s="175"/>
-      <c r="H46" s="174">
+      <c r="F46" s="171"/>
+      <c r="G46" s="174"/>
+      <c r="H46" s="173">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="F47" s="172"/>
-      <c r="G47" s="175"/>
-      <c r="H47" s="174">
+      <c r="F47" s="171"/>
+      <c r="G47" s="174"/>
+      <c r="H47" s="173">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="F48" s="172"/>
-      <c r="G48" s="175">
+      <c r="F48" s="171"/>
+      <c r="G48" s="174">
         <v>0.44</v>
       </c>
-      <c r="H48" s="174">
+      <c r="H48" s="173">
         <v>40</v>
       </c>
     </row>

--- a/py/direction_sheet.xlsx
+++ b/py/direction_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diereport\ex0.11\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C3AD0B-5FAA-455E-9D7B-D35CFCB2387D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D5FF0E-8125-4DE5-B72D-898644F30C39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="146">
   <si>
     <t>Loại sản xuất</t>
   </si>
@@ -407,9 +407,6 @@
   <si>
     <t>Chiều dài
 sản phẩm</t>
-  </si>
-  <si>
-    <t>Lưu ý</t>
   </si>
   <si>
     <t>Chiều dài</t>
@@ -2451,6 +2448,385 @@
     <xf numFmtId="166" fontId="28" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2467,18 +2843,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2538,12 +2902,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2562,6 +2920,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2588,385 +2964,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3473,98 +3470,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B1" s="285" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
-      <c r="N1" s="286"/>
-      <c r="O1" s="286"/>
-      <c r="P1" s="286"/>
-      <c r="Q1" s="286"/>
-      <c r="R1" s="286"/>
-      <c r="S1" s="286"/>
-      <c r="T1" s="286"/>
-      <c r="U1" s="287"/>
+      <c r="B1" s="326" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
+      <c r="M1" s="327"/>
+      <c r="N1" s="327"/>
+      <c r="O1" s="327"/>
+      <c r="P1" s="327"/>
+      <c r="Q1" s="327"/>
+      <c r="R1" s="327"/>
+      <c r="S1" s="327"/>
+      <c r="T1" s="327"/>
+      <c r="U1" s="328"/>
     </row>
     <row r="2" spans="2:31" ht="28.5" customHeight="1">
       <c r="B2" s="197" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="311">
+        <v>137</v>
+      </c>
+      <c r="C2" s="352">
         <f>input!D18</f>
         <v>0</v>
       </c>
-      <c r="D2" s="311"/>
+      <c r="D2" s="352"/>
       <c r="E2" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="313">
+      <c r="F2" s="244">
         <f>input!D8</f>
         <v>0</v>
       </c>
-      <c r="G2" s="313"/>
-      <c r="H2" s="314"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="245"/>
       <c r="I2" s="186"/>
       <c r="J2" s="199"/>
       <c r="K2" s="114"/>
-      <c r="L2" s="288"/>
-      <c r="M2" s="289"/>
+      <c r="L2" s="329"/>
+      <c r="M2" s="292"/>
       <c r="N2" s="115"/>
-      <c r="O2" s="322" t="s">
+      <c r="O2" s="293" t="s">
         <v>83</v>
       </c>
-      <c r="P2" s="323"/>
-      <c r="Q2" s="322" t="s">
+      <c r="P2" s="294"/>
+      <c r="Q2" s="293" t="s">
         <v>118</v>
       </c>
-      <c r="R2" s="326"/>
-      <c r="S2" s="326"/>
-      <c r="T2" s="326"/>
-      <c r="U2" s="323"/>
+      <c r="R2" s="296"/>
+      <c r="S2" s="296"/>
+      <c r="T2" s="296"/>
+      <c r="U2" s="294"/>
     </row>
     <row r="3" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B3" s="193" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="312">
+      <c r="C3" s="247">
         <f>input!D17</f>
         <v>0</v>
       </c>
-      <c r="D3" s="312"/>
+      <c r="D3" s="247"/>
       <c r="E3" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="312">
+      <c r="F3" s="247">
         <f>input!D9</f>
         <v>0</v>
       </c>
-      <c r="G3" s="312"/>
-      <c r="H3" s="315"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="248"/>
       <c r="I3" s="186"/>
       <c r="J3" s="199"/>
       <c r="K3" s="34"/>
-      <c r="L3" s="288"/>
-      <c r="M3" s="289"/>
+      <c r="L3" s="329"/>
+      <c r="M3" s="292"/>
       <c r="N3" s="115"/>
-      <c r="O3" s="324" t="s">
+      <c r="O3" s="278" t="s">
         <v>122</v>
       </c>
-      <c r="P3" s="325"/>
-      <c r="Q3" s="324"/>
-      <c r="R3" s="327"/>
-      <c r="S3" s="327"/>
-      <c r="T3" s="327"/>
-      <c r="U3" s="325"/>
+      <c r="P3" s="295"/>
+      <c r="Q3" s="278"/>
+      <c r="R3" s="297"/>
+      <c r="S3" s="297"/>
+      <c r="T3" s="297"/>
+      <c r="U3" s="295"/>
     </row>
     <row r="4" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B4" s="25"/>
@@ -3572,17 +3569,17 @@
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
       <c r="F4" s="162"/>
-      <c r="G4" s="271" t="s">
+      <c r="G4" s="312" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="313"/>
+      <c r="I4" s="314"/>
+      <c r="J4" s="315"/>
+      <c r="K4" s="316" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="272"/>
-      <c r="I4" s="273"/>
-      <c r="J4" s="274"/>
-      <c r="K4" s="275" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="273"/>
-      <c r="M4" s="274"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="315"/>
       <c r="N4" s="116"/>
       <c r="O4" s="155" t="s">
         <v>79</v>
@@ -3590,24 +3587,24 @@
       <c r="P4" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="328" t="s">
+      <c r="Q4" s="276" t="s">
         <v>119</v>
       </c>
-      <c r="R4" s="329"/>
-      <c r="S4" s="329"/>
-      <c r="T4" s="329"/>
-      <c r="U4" s="330"/>
+      <c r="R4" s="298"/>
+      <c r="S4" s="298"/>
+      <c r="T4" s="298"/>
+      <c r="U4" s="299"/>
     </row>
     <row r="5" spans="2:31" ht="28.5" customHeight="1">
-      <c r="B5" s="319" t="s">
+      <c r="B5" s="262" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="225">
+      <c r="C5" s="353">
         <f>input!D6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="226"/>
-      <c r="E5" s="227"/>
+      <c r="D5" s="354"/>
+      <c r="E5" s="355"/>
       <c r="F5" s="111"/>
       <c r="G5" s="118" t="s">
         <v>2</v>
@@ -3620,7 +3617,7 @@
         <v>88</v>
       </c>
       <c r="J5" s="148" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K5" s="166" t="s">
         <v>123</v>
@@ -3628,23 +3625,23 @@
       <c r="L5" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="M5" s="303" t="s">
+      <c r="M5" s="342" t="s">
         <v>124</v>
       </c>
       <c r="N5" s="111"/>
-      <c r="O5" s="237"/>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="307"/>
-      <c r="R5" s="308"/>
-      <c r="S5" s="308"/>
-      <c r="T5" s="308"/>
-      <c r="U5" s="309"/>
+      <c r="O5" s="361"/>
+      <c r="P5" s="363"/>
+      <c r="Q5" s="346"/>
+      <c r="R5" s="347"/>
+      <c r="S5" s="347"/>
+      <c r="T5" s="347"/>
+      <c r="U5" s="348"/>
     </row>
     <row r="6" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B6" s="320"/>
-      <c r="C6" s="228"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="230"/>
+      <c r="B6" s="263"/>
+      <c r="C6" s="356"/>
+      <c r="D6" s="357"/>
+      <c r="E6" s="358"/>
       <c r="F6" s="111"/>
       <c r="G6" s="144">
         <v>6061</v>
@@ -3666,26 +3663,26 @@
         <f>ROUND(input!D14,2)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="304"/>
+      <c r="M6" s="343"/>
       <c r="N6" s="112"/>
-      <c r="O6" s="238"/>
-      <c r="P6" s="240"/>
-      <c r="Q6" s="254"/>
-      <c r="R6" s="310"/>
-      <c r="S6" s="310"/>
-      <c r="T6" s="310"/>
-      <c r="U6" s="255"/>
+      <c r="O6" s="362"/>
+      <c r="P6" s="364"/>
+      <c r="Q6" s="349"/>
+      <c r="R6" s="350"/>
+      <c r="S6" s="350"/>
+      <c r="T6" s="350"/>
+      <c r="U6" s="351"/>
     </row>
     <row r="7" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B7" s="290" t="s">
+      <c r="B7" s="268" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="292">
+      <c r="C7" s="331">
         <f>input!D7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="294"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="333"/>
       <c r="F7" s="111"/>
       <c r="G7" s="144">
         <v>6063</v>
@@ -3698,7 +3695,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="152" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K7" s="166" t="s">
         <v>97</v>
@@ -3706,33 +3703,33 @@
       <c r="L7" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="M7" s="305">
+      <c r="M7" s="344">
         <f>input!K11</f>
         <v>0</v>
       </c>
       <c r="N7" s="113"/>
-      <c r="O7" s="241" t="s">
-        <v>135</v>
-      </c>
-      <c r="P7" s="242"/>
-      <c r="Q7" s="301" t="s">
+      <c r="O7" s="365" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" s="366"/>
+      <c r="Q7" s="340" t="s">
         <v>121</v>
       </c>
-      <c r="R7" s="302"/>
-      <c r="S7" s="298" t="s">
-        <v>130</v>
-      </c>
-      <c r="T7" s="299"/>
-      <c r="U7" s="300"/>
+      <c r="R7" s="341"/>
+      <c r="S7" s="337" t="s">
+        <v>129</v>
+      </c>
+      <c r="T7" s="338"/>
+      <c r="U7" s="339"/>
     </row>
     <row r="8" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B8" s="291"/>
-      <c r="C8" s="295"/>
-      <c r="D8" s="296"/>
-      <c r="E8" s="297"/>
+      <c r="B8" s="330"/>
+      <c r="C8" s="334"/>
+      <c r="D8" s="335"/>
+      <c r="E8" s="336"/>
       <c r="F8" s="111"/>
       <c r="G8" s="179" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="145" t="str">
         <f>IF(input!D12="6N01A","●","")</f>
@@ -3751,19 +3748,19 @@
         <f>input!D15</f>
         <v>0</v>
       </c>
-      <c r="M8" s="306"/>
+      <c r="M8" s="345"/>
       <c r="N8" s="113"/>
-      <c r="O8" s="243"/>
-      <c r="P8" s="244"/>
-      <c r="Q8" s="316" t="s">
+      <c r="O8" s="367"/>
+      <c r="P8" s="368"/>
+      <c r="Q8" s="288" t="s">
         <v>120</v>
       </c>
-      <c r="R8" s="342" t="s">
-        <v>136</v>
-      </c>
-      <c r="S8" s="231"/>
-      <c r="T8" s="357"/>
-      <c r="U8" s="359"/>
+      <c r="R8" s="309" t="s">
+        <v>135</v>
+      </c>
+      <c r="S8" s="234"/>
+      <c r="T8" s="235"/>
+      <c r="U8" s="238"/>
     </row>
     <row r="9" spans="2:31" ht="6" customHeight="1">
       <c r="B9" s="25"/>
@@ -3771,28 +3768,28 @@
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
-      <c r="G9" s="262" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="263"/>
-      <c r="I9" s="264"/>
-      <c r="J9" s="247" t="str">
+      <c r="G9" s="390" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="391"/>
+      <c r="I9" s="392"/>
+      <c r="J9" s="371" t="str">
         <f>input!D36&amp;"-"&amp;input!D37</f>
         <v>-</v>
       </c>
-      <c r="K9" s="276" t="s">
-        <v>142</v>
-      </c>
-      <c r="L9" s="277"/>
-      <c r="M9" s="282"/>
+      <c r="K9" s="317" t="s">
+        <v>141</v>
+      </c>
+      <c r="L9" s="318"/>
+      <c r="M9" s="323"/>
       <c r="N9" s="29"/>
-      <c r="O9" s="243"/>
-      <c r="P9" s="244"/>
-      <c r="Q9" s="317"/>
-      <c r="R9" s="343"/>
-      <c r="S9" s="360"/>
-      <c r="T9" s="358"/>
-      <c r="U9" s="232"/>
+      <c r="O9" s="367"/>
+      <c r="P9" s="368"/>
+      <c r="Q9" s="289"/>
+      <c r="R9" s="310"/>
+      <c r="S9" s="239"/>
+      <c r="T9" s="236"/>
+      <c r="U9" s="237"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" thickBot="1">
       <c r="B10" s="30"/>
@@ -3800,113 +3797,113 @@
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
-      <c r="G10" s="265"/>
-      <c r="H10" s="266"/>
-      <c r="I10" s="267"/>
-      <c r="J10" s="248"/>
-      <c r="K10" s="278"/>
-      <c r="L10" s="279"/>
-      <c r="M10" s="283"/>
+      <c r="G10" s="393"/>
+      <c r="H10" s="394"/>
+      <c r="I10" s="395"/>
+      <c r="J10" s="372"/>
+      <c r="K10" s="319"/>
+      <c r="L10" s="320"/>
+      <c r="M10" s="324"/>
       <c r="N10" s="29"/>
-      <c r="O10" s="245"/>
-      <c r="P10" s="246"/>
-      <c r="Q10" s="318"/>
-      <c r="R10" s="344"/>
-      <c r="S10" s="361"/>
-      <c r="T10" s="362"/>
-      <c r="U10" s="363"/>
+      <c r="O10" s="369"/>
+      <c r="P10" s="370"/>
+      <c r="Q10" s="290"/>
+      <c r="R10" s="311"/>
+      <c r="S10" s="240"/>
+      <c r="T10" s="241"/>
+      <c r="U10" s="242"/>
     </row>
     <row r="11" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B11" s="319" t="s">
+      <c r="B11" s="262" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="379" t="str">
+      <c r="C11" s="264" t="str">
         <f>IF(C13=0,"","DR"&amp;MID(C13,2,4))</f>
         <v/>
       </c>
-      <c r="D11" s="379"/>
-      <c r="E11" s="380"/>
+      <c r="D11" s="264"/>
+      <c r="E11" s="265"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="268"/>
-      <c r="H11" s="269"/>
-      <c r="I11" s="270"/>
-      <c r="J11" s="249"/>
-      <c r="K11" s="280"/>
-      <c r="L11" s="281"/>
-      <c r="M11" s="284"/>
+      <c r="G11" s="396"/>
+      <c r="H11" s="397"/>
+      <c r="I11" s="398"/>
+      <c r="J11" s="373"/>
+      <c r="K11" s="321"/>
+      <c r="L11" s="322"/>
+      <c r="M11" s="325"/>
       <c r="N11" s="29"/>
-      <c r="O11" s="250"/>
-      <c r="P11" s="251"/>
-      <c r="Q11" s="336"/>
-      <c r="R11" s="339" t="s">
-        <v>146</v>
-      </c>
-      <c r="S11" s="333" t="s">
+      <c r="O11" s="374"/>
+      <c r="P11" s="375"/>
+      <c r="Q11" s="303"/>
+      <c r="R11" s="306" t="s">
+        <v>145</v>
+      </c>
+      <c r="S11" s="282" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="334"/>
-      <c r="U11" s="335"/>
+      <c r="T11" s="302"/>
+      <c r="U11" s="283"/>
     </row>
     <row r="12" spans="2:31" ht="27.75" customHeight="1">
-      <c r="B12" s="320"/>
-      <c r="C12" s="233"/>
-      <c r="D12" s="233"/>
-      <c r="E12" s="234"/>
+      <c r="B12" s="263"/>
+      <c r="C12" s="266"/>
+      <c r="D12" s="266"/>
+      <c r="E12" s="267"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="256">
+      <c r="G12" s="378">
         <f>input!D16</f>
         <v>0</v>
       </c>
-      <c r="H12" s="257"/>
-      <c r="I12" s="258"/>
-      <c r="J12" s="393">
+      <c r="H12" s="379"/>
+      <c r="I12" s="380"/>
+      <c r="J12" s="384">
         <f>input!D38</f>
         <v>0</v>
       </c>
-      <c r="K12" s="394"/>
-      <c r="L12" s="394"/>
-      <c r="M12" s="395"/>
+      <c r="K12" s="385"/>
+      <c r="L12" s="385"/>
+      <c r="M12" s="386"/>
       <c r="N12" s="29"/>
-      <c r="O12" s="252"/>
-      <c r="P12" s="253"/>
-      <c r="Q12" s="337"/>
-      <c r="R12" s="340"/>
-      <c r="S12" s="364"/>
-      <c r="T12" s="313"/>
-      <c r="U12" s="314"/>
+      <c r="O12" s="376"/>
+      <c r="P12" s="377"/>
+      <c r="Q12" s="304"/>
+      <c r="R12" s="307"/>
+      <c r="S12" s="243"/>
+      <c r="T12" s="244"/>
+      <c r="U12" s="245"/>
     </row>
     <row r="13" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B13" s="290" t="s">
+      <c r="B13" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="233">
+      <c r="C13" s="266">
         <f>input!D32</f>
         <v>0</v>
       </c>
-      <c r="D13" s="233"/>
-      <c r="E13" s="234"/>
+      <c r="D13" s="266"/>
+      <c r="E13" s="267"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="260"/>
-      <c r="I13" s="261"/>
-      <c r="J13" s="396"/>
-      <c r="K13" s="397"/>
-      <c r="L13" s="397"/>
-      <c r="M13" s="398"/>
+      <c r="G13" s="381"/>
+      <c r="H13" s="382"/>
+      <c r="I13" s="383"/>
+      <c r="J13" s="387"/>
+      <c r="K13" s="388"/>
+      <c r="L13" s="388"/>
+      <c r="M13" s="389"/>
       <c r="N13" s="29"/>
-      <c r="O13" s="254"/>
-      <c r="P13" s="255"/>
-      <c r="Q13" s="338"/>
-      <c r="R13" s="341"/>
-      <c r="S13" s="365"/>
-      <c r="T13" s="312"/>
-      <c r="U13" s="315"/>
+      <c r="O13" s="349"/>
+      <c r="P13" s="351"/>
+      <c r="Q13" s="305"/>
+      <c r="R13" s="308"/>
+      <c r="S13" s="246"/>
+      <c r="T13" s="247"/>
+      <c r="U13" s="248"/>
     </row>
     <row r="14" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B14" s="365"/>
-      <c r="C14" s="235"/>
-      <c r="D14" s="235"/>
-      <c r="E14" s="236"/>
+      <c r="B14" s="246"/>
+      <c r="C14" s="359"/>
+      <c r="D14" s="359"/>
+      <c r="E14" s="360"/>
       <c r="F14" s="34"/>
       <c r="G14" s="110" t="s">
         <v>5</v>
@@ -3918,17 +3915,17 @@
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="29"/>
-      <c r="O14" s="231" t="s">
+      <c r="O14" s="234" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="232"/>
-      <c r="Q14" s="231" t="s">
-        <v>137</v>
-      </c>
-      <c r="R14" s="357"/>
-      <c r="S14" s="358"/>
-      <c r="T14" s="358"/>
-      <c r="U14" s="232"/>
+      <c r="P14" s="237"/>
+      <c r="Q14" s="234" t="s">
+        <v>136</v>
+      </c>
+      <c r="R14" s="235"/>
+      <c r="S14" s="236"/>
+      <c r="T14" s="236"/>
+      <c r="U14" s="237"/>
     </row>
     <row r="15" spans="2:31" ht="52.5" customHeight="1" thickBot="1">
       <c r="B15" s="224" t="s">
@@ -3937,10 +3934,10 @@
       <c r="C15" s="203" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="385" t="s">
+      <c r="D15" s="271" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="385"/>
+      <c r="E15" s="271"/>
       <c r="F15" s="199"/>
       <c r="G15" s="157" t="s">
         <v>7</v>
@@ -3958,13 +3955,13 @@
         <v>114</v>
       </c>
       <c r="L15" s="158" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M15" s="158" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N15" s="159" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O15" s="167" t="s">
         <v>115</v>
@@ -3991,8 +3988,8 @@
     <row r="16" spans="2:31" ht="35.1" customHeight="1">
       <c r="B16" s="204"/>
       <c r="C16" s="119"/>
-      <c r="D16" s="391"/>
-      <c r="E16" s="392"/>
+      <c r="D16" s="225"/>
+      <c r="E16" s="226"/>
       <c r="F16" s="34"/>
       <c r="G16" s="109">
         <v>1</v>
@@ -4026,8 +4023,8 @@
     <row r="17" spans="2:31" ht="35.1" customHeight="1">
       <c r="B17" s="192"/>
       <c r="C17" s="202"/>
-      <c r="D17" s="383"/>
-      <c r="E17" s="384"/>
+      <c r="D17" s="269"/>
+      <c r="E17" s="270"/>
       <c r="F17" s="34"/>
       <c r="G17" s="109">
         <v>2</v>
@@ -4061,8 +4058,8 @@
     <row r="18" spans="2:31" ht="35.1" customHeight="1">
       <c r="B18" s="205"/>
       <c r="C18" s="187"/>
-      <c r="D18" s="348"/>
-      <c r="E18" s="349"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="233"/>
       <c r="F18" s="34"/>
       <c r="G18" s="109">
         <v>3</v>
@@ -4096,8 +4093,8 @@
     <row r="19" spans="2:31" ht="35.1" customHeight="1">
       <c r="B19" s="192"/>
       <c r="C19" s="187"/>
-      <c r="D19" s="348"/>
-      <c r="E19" s="349"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="233"/>
       <c r="F19" s="34"/>
       <c r="G19" s="109">
         <v>4</v>
@@ -4123,10 +4120,10 @@
       <c r="T19" s="35"/>
       <c r="U19" s="36"/>
       <c r="W19" s="37"/>
-      <c r="X19" s="331"/>
-      <c r="Y19" s="289"/>
-      <c r="Z19" s="289"/>
-      <c r="AA19" s="289"/>
+      <c r="X19" s="300"/>
+      <c r="Y19" s="292"/>
+      <c r="Z19" s="292"/>
+      <c r="AA19" s="292"/>
       <c r="AB19" s="34"/>
       <c r="AC19" s="34"/>
       <c r="AD19" s="34"/>
@@ -4135,8 +4132,8 @@
     <row r="20" spans="2:31" ht="35.1" customHeight="1">
       <c r="B20" s="205"/>
       <c r="C20" s="187"/>
-      <c r="D20" s="348"/>
-      <c r="E20" s="349"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="233"/>
       <c r="F20" s="34"/>
       <c r="G20" s="109">
         <v>5</v>
@@ -4160,8 +4157,8 @@
       <c r="W20" s="34"/>
       <c r="X20" s="106"/>
       <c r="Y20" s="33"/>
-      <c r="Z20" s="332"/>
-      <c r="AA20" s="289"/>
+      <c r="Z20" s="301"/>
+      <c r="AA20" s="292"/>
       <c r="AB20" s="34"/>
       <c r="AC20" s="34"/>
       <c r="AD20" s="34"/>
@@ -4170,8 +4167,8 @@
     <row r="21" spans="2:31" ht="35.1" customHeight="1">
       <c r="B21" s="192"/>
       <c r="C21" s="187"/>
-      <c r="D21" s="348"/>
-      <c r="E21" s="349"/>
+      <c r="D21" s="232"/>
+      <c r="E21" s="233"/>
       <c r="F21" s="34"/>
       <c r="G21" s="109">
         <v>6</v>
@@ -4196,8 +4193,8 @@
       <c r="W21" s="34"/>
       <c r="X21" s="106"/>
       <c r="Y21" s="107"/>
-      <c r="Z21" s="321"/>
-      <c r="AA21" s="289"/>
+      <c r="Z21" s="291"/>
+      <c r="AA21" s="292"/>
       <c r="AB21" s="34"/>
       <c r="AC21" s="34"/>
       <c r="AD21" s="34"/>
@@ -4206,8 +4203,8 @@
     <row r="22" spans="2:31" ht="35.1" customHeight="1">
       <c r="B22" s="205"/>
       <c r="C22" s="187"/>
-      <c r="D22" s="348"/>
-      <c r="E22" s="349"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="233"/>
       <c r="F22" s="34"/>
       <c r="G22" s="109">
         <v>7</v>
@@ -4232,8 +4229,8 @@
       <c r="W22" s="34"/>
       <c r="X22" s="33"/>
       <c r="Y22" s="34"/>
-      <c r="Z22" s="289"/>
-      <c r="AA22" s="289"/>
+      <c r="Z22" s="292"/>
+      <c r="AA22" s="292"/>
       <c r="AB22" s="34"/>
       <c r="AC22" s="34"/>
       <c r="AD22" s="34"/>
@@ -4242,8 +4239,8 @@
     <row r="23" spans="2:31" ht="35.1" customHeight="1">
       <c r="B23" s="192"/>
       <c r="C23" s="187"/>
-      <c r="D23" s="348"/>
-      <c r="E23" s="349"/>
+      <c r="D23" s="232"/>
+      <c r="E23" s="233"/>
       <c r="F23" s="34"/>
       <c r="G23" s="109">
         <v>8</v>
@@ -4278,8 +4275,8 @@
     <row r="24" spans="2:31" ht="35.1" customHeight="1">
       <c r="B24" s="205"/>
       <c r="C24" s="187"/>
-      <c r="D24" s="348"/>
-      <c r="E24" s="349"/>
+      <c r="D24" s="232"/>
+      <c r="E24" s="233"/>
       <c r="F24" s="34"/>
       <c r="G24" s="109">
         <v>9</v>
@@ -4314,8 +4311,8 @@
     <row r="25" spans="2:31" ht="35.1" customHeight="1">
       <c r="B25" s="192"/>
       <c r="C25" s="132"/>
-      <c r="D25" s="355"/>
-      <c r="E25" s="356"/>
+      <c r="D25" s="286"/>
+      <c r="E25" s="287"/>
       <c r="F25" s="34"/>
       <c r="G25" s="109">
         <v>10</v>
@@ -4342,8 +4339,8 @@
     <row r="26" spans="2:31" ht="35.1" customHeight="1">
       <c r="B26" s="205"/>
       <c r="C26" s="187"/>
-      <c r="D26" s="348"/>
-      <c r="E26" s="349"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="233"/>
       <c r="F26" s="34"/>
       <c r="G26" s="109">
         <v>11</v>
@@ -4370,8 +4367,8 @@
     <row r="27" spans="2:31" ht="35.1" customHeight="1">
       <c r="B27" s="192"/>
       <c r="C27" s="187"/>
-      <c r="D27" s="348"/>
-      <c r="E27" s="349"/>
+      <c r="D27" s="232"/>
+      <c r="E27" s="233"/>
       <c r="F27" s="34"/>
       <c r="G27" s="109">
         <v>12</v>
@@ -4398,8 +4395,8 @@
     <row r="28" spans="2:31" ht="35.1" customHeight="1">
       <c r="B28" s="205"/>
       <c r="C28" s="187"/>
-      <c r="D28" s="348"/>
-      <c r="E28" s="349"/>
+      <c r="D28" s="232"/>
+      <c r="E28" s="233"/>
       <c r="F28" s="34"/>
       <c r="G28" s="109">
         <v>13</v>
@@ -4426,8 +4423,8 @@
     <row r="29" spans="2:31" ht="35.1" customHeight="1">
       <c r="B29" s="192"/>
       <c r="C29" s="187"/>
-      <c r="D29" s="348"/>
-      <c r="E29" s="349"/>
+      <c r="D29" s="232"/>
+      <c r="E29" s="233"/>
       <c r="F29" s="34"/>
       <c r="G29" s="109">
         <v>14</v>
@@ -4454,8 +4451,8 @@
     <row r="30" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
       <c r="B30" s="208"/>
       <c r="C30" s="191"/>
-      <c r="D30" s="386"/>
-      <c r="E30" s="387"/>
+      <c r="D30" s="272"/>
+      <c r="E30" s="273"/>
       <c r="F30" s="34"/>
       <c r="G30" s="109">
         <v>15</v>
@@ -4510,14 +4507,14 @@
       <c r="W31" s="38"/>
     </row>
     <row r="32" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B32" s="333" t="s">
+      <c r="B32" s="282" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="335"/>
-      <c r="D32" s="333" t="s">
+      <c r="C32" s="283"/>
+      <c r="D32" s="282" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="335"/>
+      <c r="E32" s="283"/>
       <c r="F32" s="34"/>
       <c r="G32" s="109">
         <v>17</v>
@@ -4883,7 +4880,7 @@
     </row>
     <row r="43" spans="2:28" s="42" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
       <c r="B43" s="130" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43" s="177">
         <f>input!I14</f>
@@ -4918,10 +4915,10 @@
       <c r="U43" s="36"/>
     </row>
     <row r="44" spans="2:28" s="42" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B44" s="388" t="s">
+      <c r="B44" s="274" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="389"/>
+      <c r="C44" s="275"/>
       <c r="D44" s="97"/>
       <c r="E44" s="34"/>
       <c r="F44" s="97"/>
@@ -5074,14 +5071,14 @@
       <c r="AB48" s="97"/>
     </row>
     <row r="49" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B49" s="381" t="s">
+      <c r="B49" s="227" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="352" t="s">
+      <c r="C49" s="229" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="353"/>
-      <c r="E49" s="354"/>
+      <c r="D49" s="230"/>
+      <c r="E49" s="231"/>
       <c r="F49" s="34"/>
       <c r="G49" s="109">
         <v>34</v>
@@ -5107,7 +5104,7 @@
       <c r="Y49" s="34"/>
     </row>
     <row r="50" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B50" s="382"/>
+      <c r="B50" s="228"/>
       <c r="C50" s="194" t="s">
         <v>92</v>
       </c>
@@ -5204,14 +5201,14 @@
       <c r="Y52" s="34"/>
     </row>
     <row r="53" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B53" s="381" t="s">
+      <c r="B53" s="227" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="352" t="s">
+      <c r="C53" s="229" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="353"/>
-      <c r="E53" s="354"/>
+      <c r="D53" s="230"/>
+      <c r="E53" s="231"/>
       <c r="F53" s="34"/>
       <c r="G53" s="109">
         <v>38</v>
@@ -5237,7 +5234,7 @@
       <c r="Y53" s="34"/>
     </row>
     <row r="54" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B54" s="382"/>
+      <c r="B54" s="228"/>
       <c r="C54" s="194" t="s">
         <v>92</v>
       </c>
@@ -5334,12 +5331,12 @@
       <c r="Y56" s="34"/>
     </row>
     <row r="57" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B57" s="328" t="s">
+      <c r="B57" s="276" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="390"/>
-      <c r="D57" s="350"/>
-      <c r="E57" s="351"/>
+      <c r="C57" s="277"/>
+      <c r="D57" s="284"/>
+      <c r="E57" s="285"/>
       <c r="F57" s="34"/>
       <c r="G57" s="109">
         <v>42</v>
@@ -5365,12 +5362,12 @@
       <c r="Y57" s="34"/>
     </row>
     <row r="58" spans="2:25" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B58" s="324" t="s">
+      <c r="B58" s="278" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="345"/>
-      <c r="D58" s="346"/>
-      <c r="E58" s="347"/>
+      <c r="C58" s="279"/>
+      <c r="D58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="34"/>
       <c r="G58" s="109">
         <v>43</v>
@@ -5396,12 +5393,13 @@
       <c r="Y58" s="34"/>
     </row>
     <row r="59" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B59" s="370" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="371"/>
-      <c r="D59" s="371"/>
-      <c r="E59" s="372"/>
+      <c r="B59" s="253" t="str">
+        <f>"Lưu ý: " &amp;input!D39</f>
+        <v xml:space="preserve">Lưu ý: </v>
+      </c>
+      <c r="C59" s="254"/>
+      <c r="D59" s="254"/>
+      <c r="E59" s="255"/>
       <c r="F59" s="34"/>
       <c r="G59" s="109">
         <v>44</v>
@@ -5427,10 +5425,10 @@
       <c r="Y59" s="34"/>
     </row>
     <row r="60" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B60" s="373"/>
-      <c r="C60" s="374"/>
-      <c r="D60" s="374"/>
-      <c r="E60" s="375"/>
+      <c r="B60" s="256"/>
+      <c r="C60" s="257"/>
+      <c r="D60" s="257"/>
+      <c r="E60" s="258"/>
       <c r="F60" s="34"/>
       <c r="G60" s="109">
         <v>45</v>
@@ -5456,10 +5454,10 @@
       <c r="Y60" s="34"/>
     </row>
     <row r="61" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B61" s="373"/>
-      <c r="C61" s="374"/>
-      <c r="D61" s="374"/>
-      <c r="E61" s="375"/>
+      <c r="B61" s="256"/>
+      <c r="C61" s="257"/>
+      <c r="D61" s="257"/>
+      <c r="E61" s="258"/>
       <c r="F61" s="34"/>
       <c r="G61" s="109">
         <v>46</v>
@@ -5485,10 +5483,10 @@
       <c r="Y61" s="34"/>
     </row>
     <row r="62" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B62" s="373"/>
-      <c r="C62" s="374"/>
-      <c r="D62" s="374"/>
-      <c r="E62" s="375"/>
+      <c r="B62" s="256"/>
+      <c r="C62" s="257"/>
+      <c r="D62" s="257"/>
+      <c r="E62" s="258"/>
       <c r="F62" s="34"/>
       <c r="G62" s="109">
         <v>47</v>
@@ -5514,10 +5512,10 @@
       <c r="Y62" s="34"/>
     </row>
     <row r="63" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B63" s="373"/>
-      <c r="C63" s="374"/>
-      <c r="D63" s="374"/>
-      <c r="E63" s="375"/>
+      <c r="B63" s="256"/>
+      <c r="C63" s="257"/>
+      <c r="D63" s="257"/>
+      <c r="E63" s="258"/>
       <c r="F63" s="34"/>
       <c r="G63" s="109">
         <v>48</v>
@@ -5543,10 +5541,10 @@
       <c r="Y63" s="34"/>
     </row>
     <row r="64" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B64" s="373"/>
-      <c r="C64" s="374"/>
-      <c r="D64" s="374"/>
-      <c r="E64" s="375"/>
+      <c r="B64" s="256"/>
+      <c r="C64" s="257"/>
+      <c r="D64" s="257"/>
+      <c r="E64" s="258"/>
       <c r="F64" s="199"/>
       <c r="G64" s="109">
         <v>49</v>
@@ -5572,10 +5570,10 @@
       <c r="Y64" s="34"/>
     </row>
     <row r="65" spans="2:29" ht="35.1" customHeight="1">
-      <c r="B65" s="373"/>
-      <c r="C65" s="374"/>
-      <c r="D65" s="374"/>
-      <c r="E65" s="375"/>
+      <c r="B65" s="256"/>
+      <c r="C65" s="257"/>
+      <c r="D65" s="257"/>
+      <c r="E65" s="258"/>
       <c r="F65" s="199"/>
       <c r="G65" s="109">
         <v>50</v>
@@ -5601,10 +5599,10 @@
       <c r="Y65" s="34"/>
     </row>
     <row r="66" spans="2:29" ht="35.1" customHeight="1">
-      <c r="B66" s="373"/>
-      <c r="C66" s="374"/>
-      <c r="D66" s="374"/>
-      <c r="E66" s="375"/>
+      <c r="B66" s="256"/>
+      <c r="C66" s="257"/>
+      <c r="D66" s="257"/>
+      <c r="E66" s="258"/>
       <c r="F66" s="199"/>
       <c r="G66" s="109">
         <v>51</v>
@@ -5632,10 +5630,10 @@
       <c r="AA66" s="34"/>
     </row>
     <row r="67" spans="2:29" ht="35.1" customHeight="1">
-      <c r="B67" s="373"/>
-      <c r="C67" s="374"/>
-      <c r="D67" s="374"/>
-      <c r="E67" s="375"/>
+      <c r="B67" s="256"/>
+      <c r="C67" s="257"/>
+      <c r="D67" s="257"/>
+      <c r="E67" s="258"/>
       <c r="F67" s="94"/>
       <c r="G67" s="109">
         <v>52</v>
@@ -5663,11 +5661,11 @@
       <c r="AA67" s="34"/>
     </row>
     <row r="68" spans="2:29" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B68" s="376"/>
-      <c r="C68" s="377"/>
-      <c r="D68" s="377"/>
-      <c r="E68" s="378"/>
-      <c r="F68" s="366"/>
+      <c r="B68" s="259"/>
+      <c r="C68" s="260"/>
+      <c r="D68" s="260"/>
+      <c r="E68" s="261"/>
+      <c r="F68" s="249"/>
       <c r="G68" s="109">
         <v>53</v>
       </c>
@@ -5698,15 +5696,15 @@
         <v>7</v>
       </c>
       <c r="C69" s="215" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D69" s="216" t="s">
-        <v>134</v>
-      </c>
-      <c r="E69" s="367" t="s">
-        <v>145</v>
-      </c>
-      <c r="F69" s="366"/>
+        <v>133</v>
+      </c>
+      <c r="E69" s="250" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" s="249"/>
       <c r="G69" s="109">
         <v>54</v>
       </c>
@@ -5738,7 +5736,7 @@
       </c>
       <c r="C70" s="214"/>
       <c r="D70" s="217"/>
-      <c r="E70" s="368"/>
+      <c r="E70" s="251"/>
       <c r="F70" s="34"/>
       <c r="G70" s="109">
         <v>55</v>
@@ -5771,7 +5769,7 @@
       </c>
       <c r="C71" s="165"/>
       <c r="D71" s="218"/>
-      <c r="E71" s="368"/>
+      <c r="E71" s="251"/>
       <c r="F71" s="34"/>
       <c r="G71" s="109">
         <v>56</v>
@@ -5804,7 +5802,7 @@
       </c>
       <c r="C72" s="165"/>
       <c r="D72" s="218"/>
-      <c r="E72" s="368"/>
+      <c r="E72" s="251"/>
       <c r="F72" s="34"/>
       <c r="G72" s="109">
         <v>57</v>
@@ -5837,7 +5835,7 @@
       </c>
       <c r="C73" s="165"/>
       <c r="D73" s="218"/>
-      <c r="E73" s="368"/>
+      <c r="E73" s="251"/>
       <c r="F73" s="34"/>
       <c r="G73" s="109">
         <v>58</v>
@@ -5870,7 +5868,7 @@
       </c>
       <c r="C74" s="165"/>
       <c r="D74" s="218"/>
-      <c r="E74" s="368"/>
+      <c r="E74" s="251"/>
       <c r="F74" s="34"/>
       <c r="G74" s="109">
         <v>59</v>
@@ -5903,7 +5901,7 @@
       </c>
       <c r="C75" s="165"/>
       <c r="D75" s="218"/>
-      <c r="E75" s="368"/>
+      <c r="E75" s="251"/>
       <c r="F75" s="34"/>
       <c r="G75" s="109">
         <v>60</v>
@@ -5932,7 +5930,7 @@
       </c>
       <c r="C76" s="165"/>
       <c r="D76" s="218"/>
-      <c r="E76" s="368"/>
+      <c r="E76" s="251"/>
       <c r="F76" s="34"/>
       <c r="G76" s="109">
         <v>61</v>
@@ -5961,7 +5959,7 @@
       </c>
       <c r="C77" s="165"/>
       <c r="D77" s="218"/>
-      <c r="E77" s="368"/>
+      <c r="E77" s="251"/>
       <c r="F77" s="164"/>
       <c r="G77" s="109">
         <v>62</v>
@@ -5990,7 +5988,7 @@
       </c>
       <c r="C78" s="185"/>
       <c r="D78" s="219"/>
-      <c r="E78" s="368"/>
+      <c r="E78" s="251"/>
       <c r="F78" s="164"/>
       <c r="G78" s="109">
         <v>63</v>
@@ -6019,7 +6017,7 @@
       </c>
       <c r="C79" s="212"/>
       <c r="D79" s="220"/>
-      <c r="E79" s="369"/>
+      <c r="E79" s="252"/>
       <c r="F79" s="223"/>
       <c r="G79" s="179">
         <v>64</v>
@@ -8072,15 +8070,60 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="O7:P10"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="O11:P13"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="J12:M13"/>
+    <mergeCell ref="G9:I11"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="Q5:U6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="Z21:AA22"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="Q14:U14"/>
     <mergeCell ref="S8:U10"/>
     <mergeCell ref="S12:U13"/>
@@ -8097,60 +8140,15 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="Z21:AA22"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="Q5:U6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="O7:P10"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="O11:P13"/>
-    <mergeCell ref="G12:I13"/>
-    <mergeCell ref="J12:M13"/>
-    <mergeCell ref="G9:I11"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8175,7 +8173,7 @@
   <dimension ref="B1:K48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>

--- a/py/direction_sheet.xlsx
+++ b/py/direction_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diereport\ex0.11\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D5FF0E-8125-4DE5-B72D-898644F30C39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7ED37C-0204-4A12-8478-734D1302EE24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,10 +369,6 @@
   <si>
     <t>Lượng kéo
 (cm)</t>
-  </si>
-  <si>
-    <t>Độ nhám
-(RzJIS)</t>
   </si>
   <si>
     <t>Thời gian
@@ -494,6 +490,10 @@
   </si>
   <si>
     <t>50 mm</t>
+  </si>
+  <si>
+    <t>Độ nhám
+(Rz)</t>
   </si>
 </sst>
 </file>
@@ -2448,10 +2448,485 @@
     <xf numFmtId="166" fontId="28" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2460,124 +2935,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2599,371 +2956,14 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3470,98 +3470,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B1" s="326" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="327"/>
-      <c r="L1" s="327"/>
-      <c r="M1" s="327"/>
-      <c r="N1" s="327"/>
-      <c r="O1" s="327"/>
-      <c r="P1" s="327"/>
-      <c r="Q1" s="327"/>
-      <c r="R1" s="327"/>
-      <c r="S1" s="327"/>
-      <c r="T1" s="327"/>
-      <c r="U1" s="328"/>
+      <c r="B1" s="291" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="292"/>
+      <c r="Q1" s="292"/>
+      <c r="R1" s="292"/>
+      <c r="S1" s="292"/>
+      <c r="T1" s="292"/>
+      <c r="U1" s="293"/>
     </row>
     <row r="2" spans="2:31" ht="28.5" customHeight="1">
       <c r="B2" s="197" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="352">
+        <v>136</v>
+      </c>
+      <c r="C2" s="317">
         <f>input!D18</f>
         <v>0</v>
       </c>
-      <c r="D2" s="352"/>
+      <c r="D2" s="317"/>
       <c r="E2" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="244">
+      <c r="F2" s="319">
         <f>input!D8</f>
         <v>0</v>
       </c>
-      <c r="G2" s="244"/>
-      <c r="H2" s="245"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="320"/>
       <c r="I2" s="186"/>
       <c r="J2" s="199"/>
       <c r="K2" s="114"/>
-      <c r="L2" s="329"/>
-      <c r="M2" s="292"/>
+      <c r="L2" s="294"/>
+      <c r="M2" s="295"/>
       <c r="N2" s="115"/>
-      <c r="O2" s="293" t="s">
+      <c r="O2" s="328" t="s">
         <v>83</v>
       </c>
-      <c r="P2" s="294"/>
-      <c r="Q2" s="293" t="s">
-        <v>118</v>
-      </c>
-      <c r="R2" s="296"/>
-      <c r="S2" s="296"/>
-      <c r="T2" s="296"/>
-      <c r="U2" s="294"/>
+      <c r="P2" s="329"/>
+      <c r="Q2" s="328" t="s">
+        <v>117</v>
+      </c>
+      <c r="R2" s="332"/>
+      <c r="S2" s="332"/>
+      <c r="T2" s="332"/>
+      <c r="U2" s="329"/>
     </row>
     <row r="3" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B3" s="193" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="247">
+      <c r="C3" s="318">
         <f>input!D17</f>
         <v>0</v>
       </c>
-      <c r="D3" s="247"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="247">
+      <c r="F3" s="318">
         <f>input!D9</f>
         <v>0</v>
       </c>
-      <c r="G3" s="247"/>
-      <c r="H3" s="248"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="321"/>
       <c r="I3" s="186"/>
       <c r="J3" s="199"/>
       <c r="K3" s="34"/>
-      <c r="L3" s="329"/>
-      <c r="M3" s="292"/>
+      <c r="L3" s="294"/>
+      <c r="M3" s="295"/>
       <c r="N3" s="115"/>
-      <c r="O3" s="278" t="s">
-        <v>122</v>
-      </c>
-      <c r="P3" s="295"/>
-      <c r="Q3" s="278"/>
-      <c r="R3" s="297"/>
-      <c r="S3" s="297"/>
-      <c r="T3" s="297"/>
-      <c r="U3" s="295"/>
+      <c r="O3" s="330" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" s="331"/>
+      <c r="Q3" s="330"/>
+      <c r="R3" s="333"/>
+      <c r="S3" s="333"/>
+      <c r="T3" s="333"/>
+      <c r="U3" s="331"/>
     </row>
     <row r="4" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
       <c r="B4" s="25"/>
@@ -3569,17 +3569,17 @@
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
       <c r="F4" s="162"/>
-      <c r="G4" s="312" t="s">
+      <c r="G4" s="277" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="278"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
+      <c r="K4" s="281" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="313"/>
-      <c r="I4" s="314"/>
-      <c r="J4" s="315"/>
-      <c r="K4" s="316" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" s="314"/>
-      <c r="M4" s="315"/>
+      <c r="L4" s="279"/>
+      <c r="M4" s="280"/>
       <c r="N4" s="116"/>
       <c r="O4" s="155" t="s">
         <v>79</v>
@@ -3587,24 +3587,24 @@
       <c r="P4" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="276" t="s">
-        <v>119</v>
-      </c>
-      <c r="R4" s="298"/>
-      <c r="S4" s="298"/>
-      <c r="T4" s="298"/>
-      <c r="U4" s="299"/>
+      <c r="Q4" s="334" t="s">
+        <v>118</v>
+      </c>
+      <c r="R4" s="335"/>
+      <c r="S4" s="335"/>
+      <c r="T4" s="335"/>
+      <c r="U4" s="336"/>
     </row>
     <row r="5" spans="2:31" ht="28.5" customHeight="1">
-      <c r="B5" s="262" t="s">
+      <c r="B5" s="325" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="353">
+      <c r="C5" s="225">
         <f>input!D6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="354"/>
-      <c r="E5" s="355"/>
+      <c r="D5" s="226"/>
+      <c r="E5" s="227"/>
       <c r="F5" s="111"/>
       <c r="G5" s="118" t="s">
         <v>2</v>
@@ -3617,31 +3617,31 @@
         <v>88</v>
       </c>
       <c r="J5" s="148" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K5" s="166" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L5" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="M5" s="342" t="s">
-        <v>124</v>
+      <c r="M5" s="309" t="s">
+        <v>123</v>
       </c>
       <c r="N5" s="111"/>
-      <c r="O5" s="361"/>
-      <c r="P5" s="363"/>
-      <c r="Q5" s="346"/>
-      <c r="R5" s="347"/>
-      <c r="S5" s="347"/>
-      <c r="T5" s="347"/>
-      <c r="U5" s="348"/>
+      <c r="O5" s="237"/>
+      <c r="P5" s="239"/>
+      <c r="Q5" s="313"/>
+      <c r="R5" s="314"/>
+      <c r="S5" s="314"/>
+      <c r="T5" s="314"/>
+      <c r="U5" s="315"/>
     </row>
     <row r="6" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B6" s="263"/>
-      <c r="C6" s="356"/>
-      <c r="D6" s="357"/>
-      <c r="E6" s="358"/>
+      <c r="B6" s="326"/>
+      <c r="C6" s="228"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="230"/>
       <c r="F6" s="111"/>
       <c r="G6" s="144">
         <v>6061</v>
@@ -3663,26 +3663,26 @@
         <f>ROUND(input!D14,2)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="343"/>
+      <c r="M6" s="310"/>
       <c r="N6" s="112"/>
-      <c r="O6" s="362"/>
-      <c r="P6" s="364"/>
-      <c r="Q6" s="349"/>
-      <c r="R6" s="350"/>
-      <c r="S6" s="350"/>
-      <c r="T6" s="350"/>
-      <c r="U6" s="351"/>
+      <c r="O6" s="238"/>
+      <c r="P6" s="240"/>
+      <c r="Q6" s="254"/>
+      <c r="R6" s="316"/>
+      <c r="S6" s="316"/>
+      <c r="T6" s="316"/>
+      <c r="U6" s="255"/>
     </row>
     <row r="7" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B7" s="268" t="s">
+      <c r="B7" s="296" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="331">
+      <c r="C7" s="298">
         <f>input!D7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="332"/>
-      <c r="E7" s="333"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="300"/>
       <c r="F7" s="111"/>
       <c r="G7" s="144">
         <v>6063</v>
@@ -3695,7 +3695,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="152" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K7" s="166" t="s">
         <v>97</v>
@@ -3703,33 +3703,33 @@
       <c r="L7" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="M7" s="344">
+      <c r="M7" s="311">
         <f>input!K11</f>
         <v>0</v>
       </c>
       <c r="N7" s="113"/>
-      <c r="O7" s="365" t="s">
-        <v>134</v>
-      </c>
-      <c r="P7" s="366"/>
-      <c r="Q7" s="340" t="s">
-        <v>121</v>
-      </c>
-      <c r="R7" s="341"/>
-      <c r="S7" s="337" t="s">
-        <v>129</v>
-      </c>
-      <c r="T7" s="338"/>
-      <c r="U7" s="339"/>
+      <c r="O7" s="241" t="s">
+        <v>133</v>
+      </c>
+      <c r="P7" s="242"/>
+      <c r="Q7" s="307" t="s">
+        <v>120</v>
+      </c>
+      <c r="R7" s="308"/>
+      <c r="S7" s="304" t="s">
+        <v>128</v>
+      </c>
+      <c r="T7" s="305"/>
+      <c r="U7" s="306"/>
     </row>
     <row r="8" spans="2:31" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B8" s="330"/>
-      <c r="C8" s="334"/>
-      <c r="D8" s="335"/>
-      <c r="E8" s="336"/>
+      <c r="B8" s="297"/>
+      <c r="C8" s="301"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="303"/>
       <c r="F8" s="111"/>
       <c r="G8" s="179" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H8" s="145" t="str">
         <f>IF(input!D12="6N01A","●","")</f>
@@ -3748,19 +3748,19 @@
         <f>input!D15</f>
         <v>0</v>
       </c>
-      <c r="M8" s="345"/>
+      <c r="M8" s="312"/>
       <c r="N8" s="113"/>
-      <c r="O8" s="367"/>
-      <c r="P8" s="368"/>
-      <c r="Q8" s="288" t="s">
-        <v>120</v>
-      </c>
-      <c r="R8" s="309" t="s">
-        <v>135</v>
-      </c>
-      <c r="S8" s="234"/>
-      <c r="T8" s="235"/>
-      <c r="U8" s="238"/>
+      <c r="O8" s="243"/>
+      <c r="P8" s="244"/>
+      <c r="Q8" s="322" t="s">
+        <v>119</v>
+      </c>
+      <c r="R8" s="348" t="s">
+        <v>134</v>
+      </c>
+      <c r="S8" s="231"/>
+      <c r="T8" s="363"/>
+      <c r="U8" s="365"/>
     </row>
     <row r="9" spans="2:31" ht="6" customHeight="1">
       <c r="B9" s="25"/>
@@ -3768,28 +3768,28 @@
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
-      <c r="G9" s="390" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="391"/>
-      <c r="I9" s="392"/>
-      <c r="J9" s="371" t="str">
+      <c r="G9" s="268" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="269"/>
+      <c r="I9" s="270"/>
+      <c r="J9" s="247" t="str">
         <f>input!D36&amp;"-"&amp;input!D37</f>
         <v>-</v>
       </c>
-      <c r="K9" s="317" t="s">
-        <v>141</v>
-      </c>
-      <c r="L9" s="318"/>
-      <c r="M9" s="323"/>
+      <c r="K9" s="282" t="s">
+        <v>140</v>
+      </c>
+      <c r="L9" s="283"/>
+      <c r="M9" s="288"/>
       <c r="N9" s="29"/>
-      <c r="O9" s="367"/>
-      <c r="P9" s="368"/>
-      <c r="Q9" s="289"/>
-      <c r="R9" s="310"/>
-      <c r="S9" s="239"/>
-      <c r="T9" s="236"/>
-      <c r="U9" s="237"/>
+      <c r="O9" s="243"/>
+      <c r="P9" s="244"/>
+      <c r="Q9" s="323"/>
+      <c r="R9" s="349"/>
+      <c r="S9" s="366"/>
+      <c r="T9" s="364"/>
+      <c r="U9" s="232"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" thickBot="1">
       <c r="B10" s="30"/>
@@ -3797,113 +3797,113 @@
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
-      <c r="G10" s="393"/>
-      <c r="H10" s="394"/>
-      <c r="I10" s="395"/>
-      <c r="J10" s="372"/>
-      <c r="K10" s="319"/>
-      <c r="L10" s="320"/>
-      <c r="M10" s="324"/>
+      <c r="G10" s="271"/>
+      <c r="H10" s="272"/>
+      <c r="I10" s="273"/>
+      <c r="J10" s="248"/>
+      <c r="K10" s="284"/>
+      <c r="L10" s="285"/>
+      <c r="M10" s="289"/>
       <c r="N10" s="29"/>
-      <c r="O10" s="369"/>
-      <c r="P10" s="370"/>
-      <c r="Q10" s="290"/>
-      <c r="R10" s="311"/>
-      <c r="S10" s="240"/>
-      <c r="T10" s="241"/>
-      <c r="U10" s="242"/>
+      <c r="O10" s="245"/>
+      <c r="P10" s="246"/>
+      <c r="Q10" s="324"/>
+      <c r="R10" s="350"/>
+      <c r="S10" s="367"/>
+      <c r="T10" s="368"/>
+      <c r="U10" s="369"/>
     </row>
     <row r="11" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B11" s="262" t="s">
+      <c r="B11" s="325" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="264" t="str">
+      <c r="C11" s="385" t="str">
         <f>IF(C13=0,"","DR"&amp;MID(C13,2,4))</f>
         <v/>
       </c>
-      <c r="D11" s="264"/>
-      <c r="E11" s="265"/>
+      <c r="D11" s="385"/>
+      <c r="E11" s="386"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="396"/>
-      <c r="H11" s="397"/>
-      <c r="I11" s="398"/>
-      <c r="J11" s="373"/>
-      <c r="K11" s="321"/>
-      <c r="L11" s="322"/>
-      <c r="M11" s="325"/>
+      <c r="G11" s="274"/>
+      <c r="H11" s="275"/>
+      <c r="I11" s="276"/>
+      <c r="J11" s="249"/>
+      <c r="K11" s="286"/>
+      <c r="L11" s="287"/>
+      <c r="M11" s="290"/>
       <c r="N11" s="29"/>
-      <c r="O11" s="374"/>
-      <c r="P11" s="375"/>
-      <c r="Q11" s="303"/>
-      <c r="R11" s="306" t="s">
-        <v>145</v>
-      </c>
-      <c r="S11" s="282" t="s">
+      <c r="O11" s="250"/>
+      <c r="P11" s="251"/>
+      <c r="Q11" s="342"/>
+      <c r="R11" s="345" t="s">
+        <v>144</v>
+      </c>
+      <c r="S11" s="339" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="302"/>
-      <c r="U11" s="283"/>
+      <c r="T11" s="340"/>
+      <c r="U11" s="341"/>
     </row>
     <row r="12" spans="2:31" ht="27.75" customHeight="1">
-      <c r="B12" s="263"/>
-      <c r="C12" s="266"/>
-      <c r="D12" s="266"/>
-      <c r="E12" s="267"/>
+      <c r="B12" s="326"/>
+      <c r="C12" s="233"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="234"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="378">
+      <c r="G12" s="256">
         <f>input!D16</f>
         <v>0</v>
       </c>
-      <c r="H12" s="379"/>
-      <c r="I12" s="380"/>
-      <c r="J12" s="384">
+      <c r="H12" s="257"/>
+      <c r="I12" s="258"/>
+      <c r="J12" s="262">
         <f>input!D38</f>
         <v>0</v>
       </c>
-      <c r="K12" s="385"/>
-      <c r="L12" s="385"/>
-      <c r="M12" s="386"/>
+      <c r="K12" s="263"/>
+      <c r="L12" s="263"/>
+      <c r="M12" s="264"/>
       <c r="N12" s="29"/>
-      <c r="O12" s="376"/>
-      <c r="P12" s="377"/>
-      <c r="Q12" s="304"/>
-      <c r="R12" s="307"/>
-      <c r="S12" s="243"/>
-      <c r="T12" s="244"/>
-      <c r="U12" s="245"/>
+      <c r="O12" s="252"/>
+      <c r="P12" s="253"/>
+      <c r="Q12" s="343"/>
+      <c r="R12" s="346"/>
+      <c r="S12" s="370"/>
+      <c r="T12" s="319"/>
+      <c r="U12" s="320"/>
     </row>
     <row r="13" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B13" s="268" t="s">
+      <c r="B13" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="266">
+      <c r="C13" s="233">
         <f>input!D32</f>
         <v>0</v>
       </c>
-      <c r="D13" s="266"/>
-      <c r="E13" s="267"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="234"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="381"/>
-      <c r="H13" s="382"/>
-      <c r="I13" s="383"/>
-      <c r="J13" s="387"/>
-      <c r="K13" s="388"/>
-      <c r="L13" s="388"/>
-      <c r="M13" s="389"/>
+      <c r="G13" s="259"/>
+      <c r="H13" s="260"/>
+      <c r="I13" s="261"/>
+      <c r="J13" s="265"/>
+      <c r="K13" s="266"/>
+      <c r="L13" s="266"/>
+      <c r="M13" s="267"/>
       <c r="N13" s="29"/>
-      <c r="O13" s="349"/>
-      <c r="P13" s="351"/>
-      <c r="Q13" s="305"/>
-      <c r="R13" s="308"/>
-      <c r="S13" s="246"/>
-      <c r="T13" s="247"/>
-      <c r="U13" s="248"/>
+      <c r="O13" s="254"/>
+      <c r="P13" s="255"/>
+      <c r="Q13" s="344"/>
+      <c r="R13" s="347"/>
+      <c r="S13" s="371"/>
+      <c r="T13" s="318"/>
+      <c r="U13" s="321"/>
     </row>
     <row r="14" spans="2:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B14" s="246"/>
-      <c r="C14" s="359"/>
-      <c r="D14" s="359"/>
-      <c r="E14" s="360"/>
+      <c r="B14" s="371"/>
+      <c r="C14" s="235"/>
+      <c r="D14" s="235"/>
+      <c r="E14" s="236"/>
       <c r="F14" s="34"/>
       <c r="G14" s="110" t="s">
         <v>5</v>
@@ -3915,17 +3915,17 @@
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="29"/>
-      <c r="O14" s="234" t="s">
+      <c r="O14" s="231" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="237"/>
-      <c r="Q14" s="234" t="s">
-        <v>136</v>
-      </c>
-      <c r="R14" s="235"/>
-      <c r="S14" s="236"/>
-      <c r="T14" s="236"/>
-      <c r="U14" s="237"/>
+      <c r="P14" s="232"/>
+      <c r="Q14" s="231" t="s">
+        <v>135</v>
+      </c>
+      <c r="R14" s="363"/>
+      <c r="S14" s="364"/>
+      <c r="T14" s="364"/>
+      <c r="U14" s="232"/>
     </row>
     <row r="15" spans="2:31" ht="52.5" customHeight="1" thickBot="1">
       <c r="B15" s="224" t="s">
@@ -3934,10 +3934,10 @@
       <c r="C15" s="203" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="271" t="s">
+      <c r="D15" s="391" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="271"/>
+      <c r="E15" s="391"/>
       <c r="F15" s="199"/>
       <c r="G15" s="157" t="s">
         <v>7</v>
@@ -3952,22 +3952,22 @@
         <v>113</v>
       </c>
       <c r="K15" s="158" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" s="158" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" s="158" t="s">
+        <v>141</v>
+      </c>
+      <c r="N15" s="159" t="s">
+        <v>129</v>
+      </c>
+      <c r="O15" s="167" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="158" t="s">
-        <v>131</v>
-      </c>
-      <c r="M15" s="158" t="s">
-        <v>142</v>
-      </c>
-      <c r="N15" s="159" t="s">
-        <v>130</v>
-      </c>
-      <c r="O15" s="167" t="s">
+      <c r="P15" s="158" t="s">
         <v>115</v>
-      </c>
-      <c r="P15" s="158" t="s">
-        <v>116</v>
       </c>
       <c r="Q15" s="160">
         <v>302</v>
@@ -3988,8 +3988,8 @@
     <row r="16" spans="2:31" ht="35.1" customHeight="1">
       <c r="B16" s="204"/>
       <c r="C16" s="119"/>
-      <c r="D16" s="225"/>
-      <c r="E16" s="226"/>
+      <c r="D16" s="397"/>
+      <c r="E16" s="398"/>
       <c r="F16" s="34"/>
       <c r="G16" s="109">
         <v>1</v>
@@ -4002,7 +4002,7 @@
       <c r="M16" s="27"/>
       <c r="N16" s="28"/>
       <c r="O16" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P16" s="27"/>
       <c r="Q16" s="187"/>
@@ -4023,8 +4023,8 @@
     <row r="17" spans="2:31" ht="35.1" customHeight="1">
       <c r="B17" s="192"/>
       <c r="C17" s="202"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="270"/>
+      <c r="D17" s="389"/>
+      <c r="E17" s="390"/>
       <c r="F17" s="34"/>
       <c r="G17" s="109">
         <v>2</v>
@@ -4037,7 +4037,7 @@
       <c r="M17" s="27"/>
       <c r="N17" s="28"/>
       <c r="O17" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P17" s="27"/>
       <c r="Q17" s="187"/>
@@ -4058,8 +4058,8 @@
     <row r="18" spans="2:31" ht="35.1" customHeight="1">
       <c r="B18" s="205"/>
       <c r="C18" s="187"/>
-      <c r="D18" s="232"/>
-      <c r="E18" s="233"/>
+      <c r="D18" s="354"/>
+      <c r="E18" s="355"/>
       <c r="F18" s="34"/>
       <c r="G18" s="109">
         <v>3</v>
@@ -4072,7 +4072,7 @@
       <c r="M18" s="27"/>
       <c r="N18" s="28"/>
       <c r="O18" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="187"/>
@@ -4093,8 +4093,8 @@
     <row r="19" spans="2:31" ht="35.1" customHeight="1">
       <c r="B19" s="192"/>
       <c r="C19" s="187"/>
-      <c r="D19" s="232"/>
-      <c r="E19" s="233"/>
+      <c r="D19" s="354"/>
+      <c r="E19" s="355"/>
       <c r="F19" s="34"/>
       <c r="G19" s="109">
         <v>4</v>
@@ -4109,7 +4109,7 @@
       <c r="M19" s="27"/>
       <c r="N19" s="28"/>
       <c r="O19" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P19" s="27" t="s">
         <v>12</v>
@@ -4120,10 +4120,10 @@
       <c r="T19" s="35"/>
       <c r="U19" s="36"/>
       <c r="W19" s="37"/>
-      <c r="X19" s="300"/>
-      <c r="Y19" s="292"/>
-      <c r="Z19" s="292"/>
-      <c r="AA19" s="292"/>
+      <c r="X19" s="337"/>
+      <c r="Y19" s="295"/>
+      <c r="Z19" s="295"/>
+      <c r="AA19" s="295"/>
       <c r="AB19" s="34"/>
       <c r="AC19" s="34"/>
       <c r="AD19" s="34"/>
@@ -4132,8 +4132,8 @@
     <row r="20" spans="2:31" ht="35.1" customHeight="1">
       <c r="B20" s="205"/>
       <c r="C20" s="187"/>
-      <c r="D20" s="232"/>
-      <c r="E20" s="233"/>
+      <c r="D20" s="354"/>
+      <c r="E20" s="355"/>
       <c r="F20" s="34"/>
       <c r="G20" s="109">
         <v>5</v>
@@ -4146,7 +4146,7 @@
       <c r="M20" s="27"/>
       <c r="N20" s="28"/>
       <c r="O20" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P20" s="27"/>
       <c r="Q20" s="187"/>
@@ -4157,8 +4157,8 @@
       <c r="W20" s="34"/>
       <c r="X20" s="106"/>
       <c r="Y20" s="33"/>
-      <c r="Z20" s="301"/>
-      <c r="AA20" s="292"/>
+      <c r="Z20" s="338"/>
+      <c r="AA20" s="295"/>
       <c r="AB20" s="34"/>
       <c r="AC20" s="34"/>
       <c r="AD20" s="34"/>
@@ -4167,8 +4167,8 @@
     <row r="21" spans="2:31" ht="35.1" customHeight="1">
       <c r="B21" s="192"/>
       <c r="C21" s="187"/>
-      <c r="D21" s="232"/>
-      <c r="E21" s="233"/>
+      <c r="D21" s="354"/>
+      <c r="E21" s="355"/>
       <c r="F21" s="34"/>
       <c r="G21" s="109">
         <v>6</v>
@@ -4181,7 +4181,7 @@
       <c r="M21" s="27"/>
       <c r="N21" s="28"/>
       <c r="O21" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P21" s="27"/>
       <c r="Q21" s="187"/>
@@ -4193,8 +4193,8 @@
       <c r="W21" s="34"/>
       <c r="X21" s="106"/>
       <c r="Y21" s="107"/>
-      <c r="Z21" s="291"/>
-      <c r="AA21" s="292"/>
+      <c r="Z21" s="327"/>
+      <c r="AA21" s="295"/>
       <c r="AB21" s="34"/>
       <c r="AC21" s="34"/>
       <c r="AD21" s="34"/>
@@ -4203,8 +4203,8 @@
     <row r="22" spans="2:31" ht="35.1" customHeight="1">
       <c r="B22" s="205"/>
       <c r="C22" s="187"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="233"/>
+      <c r="D22" s="354"/>
+      <c r="E22" s="355"/>
       <c r="F22" s="34"/>
       <c r="G22" s="109">
         <v>7</v>
@@ -4217,7 +4217,7 @@
       <c r="M22" s="27"/>
       <c r="N22" s="188"/>
       <c r="O22" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P22" s="39"/>
       <c r="Q22" s="187"/>
@@ -4229,8 +4229,8 @@
       <c r="W22" s="34"/>
       <c r="X22" s="33"/>
       <c r="Y22" s="34"/>
-      <c r="Z22" s="292"/>
-      <c r="AA22" s="292"/>
+      <c r="Z22" s="295"/>
+      <c r="AA22" s="295"/>
       <c r="AB22" s="34"/>
       <c r="AC22" s="34"/>
       <c r="AD22" s="34"/>
@@ -4239,8 +4239,8 @@
     <row r="23" spans="2:31" ht="35.1" customHeight="1">
       <c r="B23" s="192"/>
       <c r="C23" s="187"/>
-      <c r="D23" s="232"/>
-      <c r="E23" s="233"/>
+      <c r="D23" s="354"/>
+      <c r="E23" s="355"/>
       <c r="F23" s="34"/>
       <c r="G23" s="109">
         <v>8</v>
@@ -4253,7 +4253,7 @@
       <c r="M23" s="187"/>
       <c r="N23" s="188"/>
       <c r="O23" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P23" s="187"/>
       <c r="Q23" s="187"/>
@@ -4275,8 +4275,8 @@
     <row r="24" spans="2:31" ht="35.1" customHeight="1">
       <c r="B24" s="205"/>
       <c r="C24" s="187"/>
-      <c r="D24" s="232"/>
-      <c r="E24" s="233"/>
+      <c r="D24" s="354"/>
+      <c r="E24" s="355"/>
       <c r="F24" s="34"/>
       <c r="G24" s="109">
         <v>9</v>
@@ -4289,7 +4289,7 @@
       <c r="M24" s="27"/>
       <c r="N24" s="188"/>
       <c r="O24" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="187"/>
@@ -4311,8 +4311,8 @@
     <row r="25" spans="2:31" ht="35.1" customHeight="1">
       <c r="B25" s="192"/>
       <c r="C25" s="132"/>
-      <c r="D25" s="286"/>
-      <c r="E25" s="287"/>
+      <c r="D25" s="361"/>
+      <c r="E25" s="362"/>
       <c r="F25" s="34"/>
       <c r="G25" s="109">
         <v>10</v>
@@ -4325,7 +4325,7 @@
       <c r="M25" s="27"/>
       <c r="N25" s="188"/>
       <c r="O25" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P25" s="39"/>
       <c r="Q25" s="187"/>
@@ -4339,8 +4339,8 @@
     <row r="26" spans="2:31" ht="35.1" customHeight="1">
       <c r="B26" s="205"/>
       <c r="C26" s="187"/>
-      <c r="D26" s="232"/>
-      <c r="E26" s="233"/>
+      <c r="D26" s="354"/>
+      <c r="E26" s="355"/>
       <c r="F26" s="34"/>
       <c r="G26" s="109">
         <v>11</v>
@@ -4353,7 +4353,7 @@
       <c r="M26" s="187"/>
       <c r="N26" s="188"/>
       <c r="O26" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P26" s="187"/>
       <c r="Q26" s="187"/>
@@ -4367,8 +4367,8 @@
     <row r="27" spans="2:31" ht="35.1" customHeight="1">
       <c r="B27" s="192"/>
       <c r="C27" s="187"/>
-      <c r="D27" s="232"/>
-      <c r="E27" s="233"/>
+      <c r="D27" s="354"/>
+      <c r="E27" s="355"/>
       <c r="F27" s="34"/>
       <c r="G27" s="109">
         <v>12</v>
@@ -4381,7 +4381,7 @@
       <c r="M27" s="187"/>
       <c r="N27" s="188"/>
       <c r="O27" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P27" s="187"/>
       <c r="Q27" s="187"/>
@@ -4395,8 +4395,8 @@
     <row r="28" spans="2:31" ht="35.1" customHeight="1">
       <c r="B28" s="205"/>
       <c r="C28" s="187"/>
-      <c r="D28" s="232"/>
-      <c r="E28" s="233"/>
+      <c r="D28" s="354"/>
+      <c r="E28" s="355"/>
       <c r="F28" s="34"/>
       <c r="G28" s="109">
         <v>13</v>
@@ -4409,7 +4409,7 @@
       <c r="M28" s="187"/>
       <c r="N28" s="188"/>
       <c r="O28" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P28" s="187"/>
       <c r="Q28" s="187"/>
@@ -4423,8 +4423,8 @@
     <row r="29" spans="2:31" ht="35.1" customHeight="1">
       <c r="B29" s="192"/>
       <c r="C29" s="187"/>
-      <c r="D29" s="232"/>
-      <c r="E29" s="233"/>
+      <c r="D29" s="354"/>
+      <c r="E29" s="355"/>
       <c r="F29" s="34"/>
       <c r="G29" s="109">
         <v>14</v>
@@ -4437,7 +4437,7 @@
       <c r="M29" s="187"/>
       <c r="N29" s="188"/>
       <c r="O29" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P29" s="187"/>
       <c r="Q29" s="187"/>
@@ -4451,8 +4451,8 @@
     <row r="30" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
       <c r="B30" s="208"/>
       <c r="C30" s="191"/>
-      <c r="D30" s="272"/>
-      <c r="E30" s="273"/>
+      <c r="D30" s="392"/>
+      <c r="E30" s="393"/>
       <c r="F30" s="34"/>
       <c r="G30" s="109">
         <v>15</v>
@@ -4465,7 +4465,7 @@
       <c r="M30" s="187"/>
       <c r="N30" s="188"/>
       <c r="O30" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P30" s="187"/>
       <c r="Q30" s="187"/>
@@ -4495,7 +4495,7 @@
       <c r="M31" s="187"/>
       <c r="N31" s="188"/>
       <c r="O31" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P31" s="187"/>
       <c r="Q31" s="187"/>
@@ -4507,14 +4507,14 @@
       <c r="W31" s="38"/>
     </row>
     <row r="32" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B32" s="282" t="s">
+      <c r="B32" s="339" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="283"/>
-      <c r="D32" s="282" t="s">
+      <c r="C32" s="341"/>
+      <c r="D32" s="339" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="283"/>
+      <c r="E32" s="341"/>
       <c r="F32" s="34"/>
       <c r="G32" s="109">
         <v>17</v>
@@ -4527,7 +4527,7 @@
       <c r="M32" s="187"/>
       <c r="N32" s="188"/>
       <c r="O32" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P32" s="187"/>
       <c r="Q32" s="187"/>
@@ -4564,7 +4564,7 @@
       <c r="M33" s="187"/>
       <c r="N33" s="188"/>
       <c r="O33" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P33" s="187"/>
       <c r="Q33" s="187"/>
@@ -4599,7 +4599,7 @@
       <c r="M34" s="187"/>
       <c r="N34" s="188"/>
       <c r="O34" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P34" s="187"/>
       <c r="Q34" s="187"/>
@@ -4634,7 +4634,7 @@
       <c r="M35" s="187"/>
       <c r="N35" s="188"/>
       <c r="O35" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P35" s="187"/>
       <c r="Q35" s="187"/>
@@ -4667,7 +4667,7 @@
       <c r="M36" s="187"/>
       <c r="N36" s="188"/>
       <c r="O36" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P36" s="187"/>
       <c r="Q36" s="187"/>
@@ -4700,7 +4700,7 @@
       <c r="M37" s="187"/>
       <c r="N37" s="188"/>
       <c r="O37" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P37" s="187"/>
       <c r="Q37" s="187"/>
@@ -4733,7 +4733,7 @@
       <c r="M38" s="187"/>
       <c r="N38" s="188"/>
       <c r="O38" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P38" s="187"/>
       <c r="Q38" s="187"/>
@@ -4766,7 +4766,7 @@
       <c r="M39" s="187"/>
       <c r="N39" s="188"/>
       <c r="O39" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P39" s="187"/>
       <c r="Q39" s="187"/>
@@ -4799,7 +4799,7 @@
       <c r="M40" s="187"/>
       <c r="N40" s="188"/>
       <c r="O40" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P40" s="187"/>
       <c r="Q40" s="187"/>
@@ -4834,7 +4834,7 @@
       <c r="M41" s="187"/>
       <c r="N41" s="188"/>
       <c r="O41" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P41" s="187"/>
       <c r="Q41" s="187"/>
@@ -4869,7 +4869,7 @@
       <c r="M42" s="187"/>
       <c r="N42" s="188"/>
       <c r="O42" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P42" s="187"/>
       <c r="Q42" s="187"/>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="43" spans="2:28" s="42" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
       <c r="B43" s="130" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="177">
         <f>input!I14</f>
@@ -4905,7 +4905,7 @@
       <c r="M43" s="187"/>
       <c r="N43" s="188"/>
       <c r="O43" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P43" s="187"/>
       <c r="Q43" s="187"/>
@@ -4915,10 +4915,10 @@
       <c r="U43" s="36"/>
     </row>
     <row r="44" spans="2:28" s="42" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B44" s="274" t="s">
+      <c r="B44" s="394" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="275"/>
+      <c r="C44" s="395"/>
       <c r="D44" s="97"/>
       <c r="E44" s="34"/>
       <c r="F44" s="97"/>
@@ -4933,7 +4933,7 @@
       <c r="M44" s="187"/>
       <c r="N44" s="188"/>
       <c r="O44" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P44" s="187"/>
       <c r="Q44" s="187"/>
@@ -4965,7 +4965,7 @@
       <c r="M45" s="187"/>
       <c r="N45" s="188"/>
       <c r="O45" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P45" s="187"/>
       <c r="Q45" s="187"/>
@@ -4993,7 +4993,7 @@
       <c r="M46" s="187"/>
       <c r="N46" s="188"/>
       <c r="O46" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P46" s="187"/>
       <c r="Q46" s="187"/>
@@ -5021,7 +5021,7 @@
       <c r="M47" s="187"/>
       <c r="N47" s="188"/>
       <c r="O47" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P47" s="187"/>
       <c r="Q47" s="187"/>
@@ -5055,7 +5055,7 @@
       <c r="M48" s="187"/>
       <c r="N48" s="188"/>
       <c r="O48" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P48" s="187"/>
       <c r="Q48" s="187"/>
@@ -5071,14 +5071,14 @@
       <c r="AB48" s="97"/>
     </row>
     <row r="49" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B49" s="227" t="s">
+      <c r="B49" s="387" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="229" t="s">
+      <c r="C49" s="358" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="230"/>
-      <c r="E49" s="231"/>
+      <c r="D49" s="359"/>
+      <c r="E49" s="360"/>
       <c r="F49" s="34"/>
       <c r="G49" s="109">
         <v>34</v>
@@ -5091,7 +5091,7 @@
       <c r="M49" s="187"/>
       <c r="N49" s="188"/>
       <c r="O49" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P49" s="187"/>
       <c r="Q49" s="187"/>
@@ -5104,7 +5104,7 @@
       <c r="Y49" s="34"/>
     </row>
     <row r="50" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B50" s="228"/>
+      <c r="B50" s="388"/>
       <c r="C50" s="194" t="s">
         <v>92</v>
       </c>
@@ -5126,7 +5126,7 @@
       <c r="M50" s="187"/>
       <c r="N50" s="188"/>
       <c r="O50" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P50" s="187"/>
       <c r="Q50" s="187"/>
@@ -5157,7 +5157,7 @@
       <c r="M51" s="187"/>
       <c r="N51" s="188"/>
       <c r="O51" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P51" s="187"/>
       <c r="Q51" s="187"/>
@@ -5188,7 +5188,7 @@
       <c r="M52" s="187"/>
       <c r="N52" s="188"/>
       <c r="O52" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P52" s="187"/>
       <c r="Q52" s="187"/>
@@ -5201,14 +5201,14 @@
       <c r="Y52" s="34"/>
     </row>
     <row r="53" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B53" s="227" t="s">
+      <c r="B53" s="387" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="229" t="s">
+      <c r="C53" s="358" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="230"/>
-      <c r="E53" s="231"/>
+      <c r="D53" s="359"/>
+      <c r="E53" s="360"/>
       <c r="F53" s="34"/>
       <c r="G53" s="109">
         <v>38</v>
@@ -5221,7 +5221,7 @@
       <c r="M53" s="187"/>
       <c r="N53" s="188"/>
       <c r="O53" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P53" s="187"/>
       <c r="Q53" s="187"/>
@@ -5234,7 +5234,7 @@
       <c r="Y53" s="34"/>
     </row>
     <row r="54" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B54" s="228"/>
+      <c r="B54" s="388"/>
       <c r="C54" s="194" t="s">
         <v>92</v>
       </c>
@@ -5256,7 +5256,7 @@
       <c r="M54" s="187"/>
       <c r="N54" s="188"/>
       <c r="O54" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P54" s="187"/>
       <c r="Q54" s="187"/>
@@ -5287,7 +5287,7 @@
       <c r="M55" s="187"/>
       <c r="N55" s="188"/>
       <c r="O55" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P55" s="187"/>
       <c r="Q55" s="187"/>
@@ -5318,7 +5318,7 @@
       <c r="M56" s="187"/>
       <c r="N56" s="188"/>
       <c r="O56" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P56" s="187"/>
       <c r="Q56" s="187"/>
@@ -5331,12 +5331,12 @@
       <c r="Y56" s="34"/>
     </row>
     <row r="57" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B57" s="276" t="s">
+      <c r="B57" s="334" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="277"/>
-      <c r="D57" s="284"/>
-      <c r="E57" s="285"/>
+      <c r="C57" s="396"/>
+      <c r="D57" s="356"/>
+      <c r="E57" s="357"/>
       <c r="F57" s="34"/>
       <c r="G57" s="109">
         <v>42</v>
@@ -5349,7 +5349,7 @@
       <c r="M57" s="187"/>
       <c r="N57" s="188"/>
       <c r="O57" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P57" s="187"/>
       <c r="Q57" s="187"/>
@@ -5362,12 +5362,12 @@
       <c r="Y57" s="34"/>
     </row>
     <row r="58" spans="2:25" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B58" s="278" t="s">
+      <c r="B58" s="330" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="279"/>
-      <c r="D58" s="280"/>
-      <c r="E58" s="281"/>
+      <c r="C58" s="351"/>
+      <c r="D58" s="352"/>
+      <c r="E58" s="353"/>
       <c r="F58" s="34"/>
       <c r="G58" s="109">
         <v>43</v>
@@ -5380,7 +5380,7 @@
       <c r="M58" s="187"/>
       <c r="N58" s="188"/>
       <c r="O58" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P58" s="187"/>
       <c r="Q58" s="187"/>
@@ -5393,13 +5393,13 @@
       <c r="Y58" s="34"/>
     </row>
     <row r="59" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B59" s="253" t="str">
+      <c r="B59" s="376" t="str">
         <f>"Lưu ý: " &amp;input!D39</f>
         <v xml:space="preserve">Lưu ý: </v>
       </c>
-      <c r="C59" s="254"/>
-      <c r="D59" s="254"/>
-      <c r="E59" s="255"/>
+      <c r="C59" s="377"/>
+      <c r="D59" s="377"/>
+      <c r="E59" s="378"/>
       <c r="F59" s="34"/>
       <c r="G59" s="109">
         <v>44</v>
@@ -5412,7 +5412,7 @@
       <c r="M59" s="187"/>
       <c r="N59" s="188"/>
       <c r="O59" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P59" s="187"/>
       <c r="Q59" s="187"/>
@@ -5425,10 +5425,10 @@
       <c r="Y59" s="34"/>
     </row>
     <row r="60" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B60" s="256"/>
-      <c r="C60" s="257"/>
-      <c r="D60" s="257"/>
-      <c r="E60" s="258"/>
+      <c r="B60" s="379"/>
+      <c r="C60" s="380"/>
+      <c r="D60" s="380"/>
+      <c r="E60" s="381"/>
       <c r="F60" s="34"/>
       <c r="G60" s="109">
         <v>45</v>
@@ -5441,7 +5441,7 @@
       <c r="M60" s="187"/>
       <c r="N60" s="188"/>
       <c r="O60" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P60" s="187"/>
       <c r="Q60" s="187"/>
@@ -5454,10 +5454,10 @@
       <c r="Y60" s="34"/>
     </row>
     <row r="61" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B61" s="256"/>
-      <c r="C61" s="257"/>
-      <c r="D61" s="257"/>
-      <c r="E61" s="258"/>
+      <c r="B61" s="379"/>
+      <c r="C61" s="380"/>
+      <c r="D61" s="380"/>
+      <c r="E61" s="381"/>
       <c r="F61" s="34"/>
       <c r="G61" s="109">
         <v>46</v>
@@ -5470,7 +5470,7 @@
       <c r="M61" s="187"/>
       <c r="N61" s="188"/>
       <c r="O61" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P61" s="187"/>
       <c r="Q61" s="187"/>
@@ -5483,10 +5483,10 @@
       <c r="Y61" s="34"/>
     </row>
     <row r="62" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B62" s="256"/>
-      <c r="C62" s="257"/>
-      <c r="D62" s="257"/>
-      <c r="E62" s="258"/>
+      <c r="B62" s="379"/>
+      <c r="C62" s="380"/>
+      <c r="D62" s="380"/>
+      <c r="E62" s="381"/>
       <c r="F62" s="34"/>
       <c r="G62" s="109">
         <v>47</v>
@@ -5499,7 +5499,7 @@
       <c r="M62" s="187"/>
       <c r="N62" s="188"/>
       <c r="O62" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P62" s="187"/>
       <c r="Q62" s="187"/>
@@ -5512,10 +5512,10 @@
       <c r="Y62" s="34"/>
     </row>
     <row r="63" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B63" s="256"/>
-      <c r="C63" s="257"/>
-      <c r="D63" s="257"/>
-      <c r="E63" s="258"/>
+      <c r="B63" s="379"/>
+      <c r="C63" s="380"/>
+      <c r="D63" s="380"/>
+      <c r="E63" s="381"/>
       <c r="F63" s="34"/>
       <c r="G63" s="109">
         <v>48</v>
@@ -5528,7 +5528,7 @@
       <c r="M63" s="187"/>
       <c r="N63" s="188"/>
       <c r="O63" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P63" s="187"/>
       <c r="Q63" s="187"/>
@@ -5541,10 +5541,10 @@
       <c r="Y63" s="34"/>
     </row>
     <row r="64" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B64" s="256"/>
-      <c r="C64" s="257"/>
-      <c r="D64" s="257"/>
-      <c r="E64" s="258"/>
+      <c r="B64" s="379"/>
+      <c r="C64" s="380"/>
+      <c r="D64" s="380"/>
+      <c r="E64" s="381"/>
       <c r="F64" s="199"/>
       <c r="G64" s="109">
         <v>49</v>
@@ -5557,7 +5557,7 @@
       <c r="M64" s="187"/>
       <c r="N64" s="188"/>
       <c r="O64" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P64" s="187"/>
       <c r="Q64" s="187"/>
@@ -5570,10 +5570,10 @@
       <c r="Y64" s="34"/>
     </row>
     <row r="65" spans="2:29" ht="35.1" customHeight="1">
-      <c r="B65" s="256"/>
-      <c r="C65" s="257"/>
-      <c r="D65" s="257"/>
-      <c r="E65" s="258"/>
+      <c r="B65" s="379"/>
+      <c r="C65" s="380"/>
+      <c r="D65" s="380"/>
+      <c r="E65" s="381"/>
       <c r="F65" s="199"/>
       <c r="G65" s="109">
         <v>50</v>
@@ -5586,7 +5586,7 @@
       <c r="M65" s="187"/>
       <c r="N65" s="188"/>
       <c r="O65" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P65" s="187"/>
       <c r="Q65" s="187"/>
@@ -5599,10 +5599,10 @@
       <c r="Y65" s="34"/>
     </row>
     <row r="66" spans="2:29" ht="35.1" customHeight="1">
-      <c r="B66" s="256"/>
-      <c r="C66" s="257"/>
-      <c r="D66" s="257"/>
-      <c r="E66" s="258"/>
+      <c r="B66" s="379"/>
+      <c r="C66" s="380"/>
+      <c r="D66" s="380"/>
+      <c r="E66" s="381"/>
       <c r="F66" s="199"/>
       <c r="G66" s="109">
         <v>51</v>
@@ -5615,7 +5615,7 @@
       <c r="M66" s="187"/>
       <c r="N66" s="188"/>
       <c r="O66" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P66" s="187"/>
       <c r="Q66" s="187"/>
@@ -5630,10 +5630,10 @@
       <c r="AA66" s="34"/>
     </row>
     <row r="67" spans="2:29" ht="35.1" customHeight="1">
-      <c r="B67" s="256"/>
-      <c r="C67" s="257"/>
-      <c r="D67" s="257"/>
-      <c r="E67" s="258"/>
+      <c r="B67" s="379"/>
+      <c r="C67" s="380"/>
+      <c r="D67" s="380"/>
+      <c r="E67" s="381"/>
       <c r="F67" s="94"/>
       <c r="G67" s="109">
         <v>52</v>
@@ -5646,7 +5646,7 @@
       <c r="M67" s="187"/>
       <c r="N67" s="188"/>
       <c r="O67" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P67" s="187"/>
       <c r="Q67" s="187"/>
@@ -5661,11 +5661,11 @@
       <c r="AA67" s="34"/>
     </row>
     <row r="68" spans="2:29" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B68" s="259"/>
-      <c r="C68" s="260"/>
-      <c r="D68" s="260"/>
-      <c r="E68" s="261"/>
-      <c r="F68" s="249"/>
+      <c r="B68" s="382"/>
+      <c r="C68" s="383"/>
+      <c r="D68" s="383"/>
+      <c r="E68" s="384"/>
+      <c r="F68" s="372"/>
       <c r="G68" s="109">
         <v>53</v>
       </c>
@@ -5677,7 +5677,7 @@
       <c r="M68" s="187"/>
       <c r="N68" s="188"/>
       <c r="O68" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P68" s="187"/>
       <c r="Q68" s="187"/>
@@ -5696,15 +5696,15 @@
         <v>7</v>
       </c>
       <c r="C69" s="215" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D69" s="216" t="s">
-        <v>133</v>
-      </c>
-      <c r="E69" s="250" t="s">
-        <v>144</v>
-      </c>
-      <c r="F69" s="249"/>
+        <v>132</v>
+      </c>
+      <c r="E69" s="373" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="372"/>
       <c r="G69" s="109">
         <v>54</v>
       </c>
@@ -5716,7 +5716,7 @@
       <c r="M69" s="187"/>
       <c r="N69" s="188"/>
       <c r="O69" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P69" s="187"/>
       <c r="Q69" s="187"/>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="C70" s="214"/>
       <c r="D70" s="217"/>
-      <c r="E70" s="251"/>
+      <c r="E70" s="374"/>
       <c r="F70" s="34"/>
       <c r="G70" s="109">
         <v>55</v>
@@ -5749,7 +5749,7 @@
       <c r="M70" s="187"/>
       <c r="N70" s="188"/>
       <c r="O70" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P70" s="187"/>
       <c r="Q70" s="187"/>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="C71" s="165"/>
       <c r="D71" s="218"/>
-      <c r="E71" s="251"/>
+      <c r="E71" s="374"/>
       <c r="F71" s="34"/>
       <c r="G71" s="109">
         <v>56</v>
@@ -5782,7 +5782,7 @@
       <c r="M71" s="187"/>
       <c r="N71" s="188"/>
       <c r="O71" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P71" s="187"/>
       <c r="Q71" s="187"/>
@@ -5802,7 +5802,7 @@
       </c>
       <c r="C72" s="165"/>
       <c r="D72" s="218"/>
-      <c r="E72" s="251"/>
+      <c r="E72" s="374"/>
       <c r="F72" s="34"/>
       <c r="G72" s="109">
         <v>57</v>
@@ -5815,7 +5815,7 @@
       <c r="M72" s="187"/>
       <c r="N72" s="188"/>
       <c r="O72" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P72" s="187"/>
       <c r="Q72" s="187"/>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="C73" s="165"/>
       <c r="D73" s="218"/>
-      <c r="E73" s="251"/>
+      <c r="E73" s="374"/>
       <c r="F73" s="34"/>
       <c r="G73" s="109">
         <v>58</v>
@@ -5848,7 +5848,7 @@
       <c r="M73" s="187"/>
       <c r="N73" s="188"/>
       <c r="O73" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P73" s="187"/>
       <c r="Q73" s="187"/>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="C74" s="165"/>
       <c r="D74" s="218"/>
-      <c r="E74" s="251"/>
+      <c r="E74" s="374"/>
       <c r="F74" s="34"/>
       <c r="G74" s="109">
         <v>59</v>
@@ -5881,7 +5881,7 @@
       <c r="M74" s="187"/>
       <c r="N74" s="188"/>
       <c r="O74" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P74" s="187"/>
       <c r="Q74" s="187"/>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="C75" s="165"/>
       <c r="D75" s="218"/>
-      <c r="E75" s="251"/>
+      <c r="E75" s="374"/>
       <c r="F75" s="34"/>
       <c r="G75" s="109">
         <v>60</v>
@@ -5914,7 +5914,7 @@
       <c r="M75" s="187"/>
       <c r="N75" s="188"/>
       <c r="O75" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P75" s="187"/>
       <c r="Q75" s="187"/>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="C76" s="165"/>
       <c r="D76" s="218"/>
-      <c r="E76" s="251"/>
+      <c r="E76" s="374"/>
       <c r="F76" s="34"/>
       <c r="G76" s="109">
         <v>61</v>
@@ -5943,7 +5943,7 @@
       <c r="M76" s="187"/>
       <c r="N76" s="188"/>
       <c r="O76" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P76" s="187"/>
       <c r="Q76" s="187"/>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="C77" s="165"/>
       <c r="D77" s="218"/>
-      <c r="E77" s="251"/>
+      <c r="E77" s="374"/>
       <c r="F77" s="164"/>
       <c r="G77" s="109">
         <v>62</v>
@@ -5972,7 +5972,7 @@
       <c r="M77" s="187"/>
       <c r="N77" s="188"/>
       <c r="O77" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P77" s="187"/>
       <c r="Q77" s="187"/>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="C78" s="185"/>
       <c r="D78" s="219"/>
-      <c r="E78" s="251"/>
+      <c r="E78" s="374"/>
       <c r="F78" s="164"/>
       <c r="G78" s="109">
         <v>63</v>
@@ -6001,7 +6001,7 @@
       <c r="M78" s="187"/>
       <c r="N78" s="188"/>
       <c r="O78" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P78" s="187"/>
       <c r="Q78" s="187"/>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="C79" s="212"/>
       <c r="D79" s="220"/>
-      <c r="E79" s="252"/>
+      <c r="E79" s="375"/>
       <c r="F79" s="223"/>
       <c r="G79" s="179">
         <v>64</v>
@@ -6030,7 +6030,7 @@
       <c r="M79" s="191"/>
       <c r="N79" s="196"/>
       <c r="O79" s="179" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P79" s="191"/>
       <c r="Q79" s="191"/>
@@ -8070,17 +8070,58 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="O7:P10"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="O11:P13"/>
-    <mergeCell ref="G12:I13"/>
-    <mergeCell ref="J12:M13"/>
-    <mergeCell ref="G9:I11"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="S8:U10"/>
+    <mergeCell ref="S12:U13"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="E69:E79"/>
+    <mergeCell ref="B59:E68"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="Z21:AA22"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="R8:R10"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="K9:L11"/>
@@ -8097,58 +8138,17 @@
     <mergeCell ref="Q5:U6"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="Z21:AA22"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="S8:U10"/>
-    <mergeCell ref="S12:U13"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="E69:E79"/>
-    <mergeCell ref="B59:E68"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="O7:P10"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="O11:P13"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="J12:M13"/>
+    <mergeCell ref="G9:I11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
